--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,16 +476,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 Gang Class Smart Switch Light ZigBee</t>
+          <t>2 Gang Class Smart Switch Light ZigBee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smart_Switch_1Gang_ZigBee.png</t>
+          <t>Smart_Switch_2Gang_ZigBee.png</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -494,16 +494,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2 Gang Class Smart Switch Light ZigBee</t>
+          <t>3 Gang Class Smart Switch Light ZigBee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smart_Switch_2Gang_ZigBee.png</t>
+          <t>Smart_Switch_3Gang_ZigBee.png</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -512,16 +512,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3 Gang Class Smart Switch Light ZigBee</t>
+          <t>4 Gang Class Smart Switch Light ZigBee</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smart_Switch_3Gang_ZigBee.png</t>
+          <t>Smart_Switch_4Gang_ZigBee.png</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,16 +530,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4 Gang Class Smart Switch Light ZigBee</t>
+          <t>Tuya 8 Inch Center Control Panel (WiFi/ZigBee)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Smart_Switch_4Gang_ZigBee.png</t>
+          <t>Tuya_8_Inch_Control_Panel.png</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>145</v>
+        <v>1500</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -548,16 +548,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tuya 8 Inch Center Control Panel (WiFi/ZigBee)</t>
+          <t>4 inch Tuya Smart Home Multi-functional Panel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tuya_8_Inch_Control_Panel.png</t>
+          <t>Tuya_4_Inch_Multifunctional_Panel.png</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -566,16 +566,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4 inch Tuya Smart Home Multi-functional Panel</t>
+          <t>Motion Sensor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tuya_4_Inch_Multifunctional_Panel.png</t>
+          <t>Motion_Sensor.png</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -584,16 +584,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Motion Sensor</t>
+          <t>Smart curtain kit include ZigBee motor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Motion_Sensor.png</t>
+          <t>Smart_Curtain_Kit_ZigBee.png</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>1250</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -602,16 +602,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Smart curtain kit include ZigBee motor</t>
+          <t>Gateway</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Smart_Curtain_Kit_ZigBee.png</t>
+          <t>Gateway.png</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1250</v>
+        <v>650</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -620,16 +620,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gateway</t>
+          <t>Intercom + Two Screen Hikvision</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gateway.png</t>
+          <t>Intercom_Two_Screen_Hikvision.png</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>650</v>
+        <v>1450</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -638,16 +638,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intercom + Two Screen Hikvision</t>
+          <t>Outdoor Camera Hikvision Color view 4MP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Intercom_Two_Screen_Hikvision.png</t>
+          <t>Outdoor_Camera_Hikvision_4MP.png</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1450</v>
+        <v>345</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -656,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Outdoor Camera Hikvision Color view 4MP</t>
+          <t>Indoor Camera Hikvision 4MP Metal</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Outdoor_Camera_Hikvision_4MP.png</t>
+          <t>Indoor_Camera_Hikvision_4MP.png</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -674,16 +674,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Indoor Camera Hikvision 4MP Metal</t>
+          <t>NVR 8 Channel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Indoor_Camera_Hikvision_4MP.png</t>
+          <t>NVR_8_Channel.png</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>345</v>
+        <v>750</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -692,16 +692,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NVR 8 Channel</t>
+          <t>Poe Switch 16 port</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NVR_8_Channel.png</t>
+          <t>Poe_Switch_16_Port.png</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -710,16 +710,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Poe Switch 16 port</t>
+          <t>Poe Switch 16 port GB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Poe_Switch_16_Port.png</t>
+          <t>Poe_Switch_16_Port_GB.png</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -728,16 +728,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Poe Switch 16 port GB</t>
+          <t>CAD6 Cable Schneider</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Poe_Switch_16_Port_GB.png</t>
+          <t>CAD6_Cable_Schneider.png</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1350</v>
+        <v>500</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -746,16 +746,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAD6 Cable Schneider</t>
+          <t>Ruijie Access Point Wifi6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CAD6_Cable_Schneider.png</t>
+          <t>Ruijie_Access_Point_Wifi6.png</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -764,16 +764,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ruijie Access Point Wifi6</t>
+          <t>Ruijie Reyee Wi-Fi 6 Omni Outdoor Access Point</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ruijie_Access_Point_Wifi6.png</t>
+          <t>Ruijie_WiFi6_Omni.png</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -782,16 +782,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ruijie Reyee Wi-Fi 6 Omni Outdoor Access Point</t>
+          <t>SPEAKER BOSCH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ruijie_WiFi6_Omni.png</t>
+          <t>Speaker_BOSCH.png</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -800,16 +800,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SPEAKER BOSCH</t>
+          <t>HD 4TB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Speaker_BOSCH.png</t>
+          <t>HD_4TB.png</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -818,16 +818,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HD 4TB</t>
+          <t>Poe Switch 8 port</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HD_4TB.png</t>
+          <t>Poe_Switch_8_Port.png</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>480</v>
+        <v>580</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Poe Switch 8 port</t>
+          <t>Garage module</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Poe_Switch_8_Port.png</t>
+          <t>Garage_Module.png</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -854,16 +854,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Garage module</t>
+          <t>Amplifier 10 M</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Garage_Module.png</t>
+          <t>Amplifier_10M.png</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -872,16 +872,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Amplifier 10 M</t>
+          <t>Amplifier 25 M</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amplifier_10M.png</t>
+          <t>Amplifier_25M.png</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -890,16 +890,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Amplifier 25 M</t>
+          <t>Xinyi Sni Amplifier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amplifier_25M.png</t>
+          <t>Xinyi_Sni_Amplifier.png</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -908,36 +908,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Xinyi Sni Amplifier</t>
+          <t>Addan System</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Xinyi_Sni_Amplifier.png</t>
+          <t>Addan_System.png</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Addan System</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Addan_System.png</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,473 +454,829 @@
           <t>Warranty</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ImageBase64</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ImagePath</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thermostat + Converter Ogeneral</t>
+          <t>Light Switch</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thermostat_Converter_Ogeneral.png</t>
+          <t>Light Switch</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1100</v>
+        <v>145</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAECAwQFBgcICf/EAFoQAAEDAgIEBwgLDAYIBwAAAAEAAgMEEQUhBhIxUQcTMkFhcbEIIjNygZGhshQjNHN0oqOzwcLRJCUmJzU2QlJiY2SSFTdTgpPhFhdDREVUdcNVZYOEpLTw/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEAAgIBBAMBAAMAAAAAAAAAAQIDETESEzNBITLwIyJDUf/aAAwDAQACEQMRAD8A+qUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARUyyMijdJK9rGNFy5xsAFgnFYSLwxVMw5iyF1j5TZBsEWqlxhzR3mHVrj4rR9KxJMeqx4PBql3W9o+1B0CLmX47i7vA4C8+NP9jVYdjOkzj7XgULfGmcfqoOtRcecQ0wf4PDcNZ4xefpCjjdNnnweERj3t5+ug7FFxpi01dm6swyMfs0t+2RUmm0qeCJcXiaD/ZU7GnzklB2iLj4MPxZtuPxCeU/tT6vY1ZkjJoqdxnMjQB4WOYv1Okg2y6ldDpFSZGDa5o8q8J0o4Rn4RXVGHTOcKmO7deMB3URe48hXmNfwkaWtmcG4uRHfvCKWJtx/KoPsE1MDeVNGOtwVBraUbamD/EC+NH8Iulrv+OTjqjjH1VYk080qkFnY9XAfsua3sCD7QdiNE3bVQfzhUf0rQ3sKmMnoN18S1mnOkUMD5ZtIcTDGC5IqHBefVvCDpbVSPc7SPGGsccmNrHgAbtqD9HW4jTO5L3HqY4/QroqWOF2tlI97d9i/M1+lekT+Xj+LO66yQ/WVh+P4xJy8WxB3XUvP0oP0vrMZoqJzRVyOh1tmvG4A+WyqocXoK5xbSVcUjxnqg2PmK+MO564RK2THI9DtJKyerwbFTxMBmeXvpZjyHMccwL5WXQV9NpFQ41PE+plbU0U5YHg2zabX/wD29B9eF7R+kPOqHVELeVLGOtwXnOB4rLiGD0lVLHE2WSMF7QwWDth9KzfZDt0f+G37Fz7sNdEu2NZSjbUwj++FbdiVE3bVwfzhcaKiTmLR1NH2KzUV0zG2bIQ47LAKTmheiXanFqD/AJqI9RupGKUjuTIXdTHfYvPzW1J2zyedWX1MzuVLIetxWe/H/F7b0oVsTuS2Q/3SsOXHqCGUxzyvikG1r4yCvPC4k3JN991lVAkxTB6ljnF1ZRs42J52uZ+k0nnU70z9VjHG/l6LS11LVx69PPHI3odsV4zRDbIz+YLw7Ca6elr2SAksvZ45iF6LC1jgC7PdkPsTFni8LkwzSXUmrpm8qohHW8Kg19GNtVB/iBcy0Mv3zRz8w+xXA2PVuG+ldO5DHRLfOxWhbtq4fI66gYvQnZUNPUCfoXNufZ9m7Lbyjn24vLM7cyp3oXty6huIUzuS9x/uO+xUzYlTQxmSVz2sG12obD0LmWO79gPlWc4ll3Ri51c28zhuIU7y9ttIMaw6d4bHVx6x5ibdq2AzXjuldK/D8StTlwpZm8ZENwO0eRdVwY4lPUU9VSVEjn8UQ5mtmQDzLFM8zfotC3xRFeqHcIiL0uIiIgwKyIVWIU8UmcMQMzmnY51wG36sz1gLPWHe2Kv94b6xWSXhEVodhVvjBzKOMO5BMZzsrix7m9wqxrlFXUuFa1HHnUiPeUFTyNUi6wSswsCxHjVeQtVSUWUgDnFwoVXMtsvFtLdBKI49WYlA0mWqltIwm4Bb3oI6wAuF4SNHRQaOx1bWBpjna3IczgfsXt8pM2k+JU7s2xsa8DpL3fYuN4cIGx8H8zrf7zD2lc5bfOlkKqaxzmuc1rnBg1nEC4aL2ud2ZC1mN14w+idILca7vYx07/IoNFpZiHGzCjid3kZvJbndu8i50hVFxc4ucSXE3JPOoQUEKFUVQUG/0Ce5mm2AOY7VcK6Gx3d+F9p1eFNxKrkrpBrPnJeTbavirQQa2mmBjfWxesF954MxrsJpHDO8Y7SgxcPpRSUjIWiwBJ9KyrK5UANkAG5W9YEkAi4Xlv8AFpdq8KXkNFysCR5e8lXqyS51AetYy5S2lQQpCFQUK5DO+mbPJG4tJj1Ljc5zR9KoKs1h1aOU7zGPlWLVPtCTwyG4YxpItkCumiNmt6gtc4WcetZrJA0AnIAZ3WMMa265J3pdkUzPDIB0qzI/aea11YfIZI8+ldplziFQd3wOexVOfbVvvVu/fnxVVLyGdayq9EA6QHyrZRHb1LW07rFbBjtoCK5nGmeza10L8207Gho3awJK22g9KKeuqSOeMD0rVXD8axEc7RD6pXRaKi1XN4g7VIj+0fvRPin97dMiIvc8giIgwiA7Fng/2DfWKyuLb0rFB+/Th/Dj1is1BSGAcyqsERBaeLKJjJ7Hk9j6nHap1Ne+rrWyvbO11XKMlEZu1BVHrcW3jNXXsNbV2X57Kq6hQSBtVRKxKgWlPSsgysHOseZ4e4EK15JW1KIV0ZcXAfwzxkn+xj9d65Ph7kA4PJvhMI9JXTF2rphjPvcfryLieHqQ/wCr2S/PVwj0lcp5bfPjKmSOOVrJHsZI3VkAdYObcGx3i4B8i4THK819aXNPtLO9jHRznyrb6RV/FQexoz38g77ob/muYUEKFJVJQQVSVJUIOh4PBradaPgc9dCPjhfc2j8/3joPeWlfDvBoQOEDRwkEgV8OQ8YL7WwMkYJh3weP1UG3ndrFp6FYkc2MOdYXPpUa92gHmWNM/Wd0BePJP+Uu9eFskkknaUCKVzaQoOxVKkoKSsbEcqF/vkI+WYskrExM3onD99B8/GrXlJ4dG498etXrh0ZDgCCLEFYpPfHrV0H2s7rLOL265PSqZ+Qa3Zaypafaz1KzGSczzhVt2EeRdGF0cs9SvPALQscc6uk9iCuLrWwgzWuj2eVbCnKiubhd9/MX6DAPk102ihvVz+IO1cpTm+OY2f3kI+SC6nRE3rJ/ex2qx5o/eifFLqURF7XkEREGAD9/nD+GHrlZ61VQ8sxwlpz9jD1yr+u921x7FdbTbNJA2kBUGeMfpX6lh6u/NTZXpNr75wRYNKtiV42WVKJo2kyPP6R8ipz5yila0m0WSylFdJsQ7EUlUcDIPwwxj3uL15FwHdDztg4NpZH7G1kJ6+VkvQJR+FuMe9RevKvMe6bP4sHdNfAPQ9cp5bfJ08r6iZ8shu5xufsVtSpUFBUFVFUEoKXKlSSoQdTwXN1+ETRtv8fD6wX2nghvgmHHfTRH4oXxjwSC/CVo3fmrYz5jdfZuB/kPDPgkPqBBlSOs2w51jlXZ+UOpW14L/aXorwhVBQpUUVJVRVBQQViYl7k/9emHy8ayisXEfcg+E0o/+QxWn2J4b47T1qdYlpG5QeUetG/pdSxjdchFsb1q60betWmZFvWrrdp611c1VslUPoUHYgQXYgs6LZksKLbZZ0WwKK5iE3xnGhukgHyLV0+iPuuf3sdq5em/LOOn+IiHmgjXU6I+65/EHar/ALo/eknxy6lERe15RERBp6r8vH4KPXKyAser/L//ALUeuVkjYtxwzKURFvTOxWZqiGFzGyyxxuebNDnAFx6N6vHNalrw3jpxqipnkcyNz2EgAO1Gty5ue2V7lSVbGGeKdrjBLHIGnVJY4Gx3G2wq6tQJWF0FS0xipZIyKfUyBDjqkHfnmN1ulbYKwiURFQQoig4OTPS3GPeYfnJl5b3UDtXgyZ04jCPiyFeoON9Lsa6IYfXmXlndSm3BpTDficXzci5Ty6Pk4yO6FLHkusVbKqj5ag2uH4fHPTvqq2qbSUbXcXrlhe57rX1WNG0gWJJIAuM8wqqPCYMQjc2grmPrQXalNLGWOlaNmobkFxH6JI3C5WTFFFXQYLQPMkfG8Y1rmAOvI+TVBINssmg9SuYrPxgpsVE7hLHMYIQyBrAeLcCLlpFrNcy2R3c10HMlQtlpJEINIcTiaAGsqpWgDYBrFa1B13BKSOEfR8jb7Kbt6ivs/CMsHw8bqaIfEC+MeCQX4R8B6Ki/maV9nYP+SKC+32NF6gQV1Js5oAu4iwVol4z711toG1Vz+GHN3pzVtmbgRa7rk+QrwX+0vRXiFbTcAjYUDiT3rct91DBaPqv2qm12MaR3pH0KNKg4k2IsfOoKpvdrD0qoqCFjYh7mZ8LpP/sMWSsav8DCN9bR/PtWq/ZJ4b13KVpsjiXaoaGDaXc++yunasUcgA2LS4ggjbmsY3W7Ijc4PDZA3PYW7CrxcGAkgnPIDaVitJ1W3tk8AWHTZZIzkj3XJ9C6sJe6Ti78VnuDgqmODgCPSrOsda+qNcnU5Rts+1VtPtsoGzWHYEGVEc1nQZrWxlZ1O7sQc5SAjFMcJ56tnzEa6nRH3XUeIO1ctQm+J438LaPkY11WifuyfxB2pXzR+9JbxuoREXteUREQaar/ADgHwX66ygsSr/OIfBfrrLC6V4YnlKIi0gtSY5XU7mxujDqed7zr32tdrNGXMWu27cwVtljyUrHVAnY+WKXIOMbrB4GwOBuD17elJgiWvlil9hxsmdGTLVRSNLCbXMgeRYjYAPLmclt1jR0gFQJpZZZntvqB9g1l9tgAM7ZXNzZZKRGiUoihUShRChDz9uel2Oe9wD48y8s7qf8Aq2pP+px/NyL1GI30tx7xYB8aZeW91OfxcUQ/8zj+bkXGW3ycVVHy1c1W7gosBsCiuhoxV1ODQTYZE2apoOMZIxsYe9jHnWbIBa+RLhrDkm2y4Vxs1VpDWx0rYYHU7QyWWZtKIWwbDK82Nhz3cduqNmQXOQzy08zJqeR8UrDdr2OLXA9BCuy4pXy0ZpJa2pfSlxeYXSuLC4m5Nr2vfO6CMZqRW4tW1Tb6s8z5BfbYuJHasNEQdjwRf1i4L0SPPmjcV9nYaNXDaIbqeP1AvjHgiZr8ImDNOzXk+bevtGi9w0vvMfqhBRUcsG1wBYjoVrWYCTYEk3FhmVel8IVRdeC/2l6K8DBZgB22zVsAFurc67cttlcUHbsF1GlJADmtbzG9twQqoAAWAA6lBQUrHrc46f4bSfPBZKx6zZSdNdS/OK15SeG8O1YxABcxzdt9VxbcZ83nWSdqpAsSsUh1stgtLgGDIEFxtYZbFcvqua47G3v0BS4ZOVbRY9YK6sKNRhdrBx1bcoP59/XbnVcZ1y542OOXSLWupLGEWLGnntZVnmQSDtWXAcj1LEtkr8BsXdSI0eHn74Y0f44jzRRrrNEj91z+IO1cpQtArcYI/wCef83Gur0S91z+IO1K+ZbeJ1CIi9ryCIiDSVh/CQD+E+uswbFg1h/CZo/hPrrOC3XhmUopRbZQilRZARLIqCIiAnOETnCg88p89KdID0wj0yry3upz+Lqh/wCpx/NyL1Gk/ObSA/txf9xeWd1UbcHuHDfibPm3rlLo+WCqCVJVBUEFEUgIIsosrzmWNlQQg7HgcH4xsJ6BMfkZF9mUQtQ0o3Qxj4oXxtwOWHCHhxcbARVHn4h6+y4MqeEbo2D4oQUSZvKpVUnLKpXht9peivAqbKVKyqlQVWVQUVCx6vbR/Dqb1yshY1YbPofhsHaVa8pLepvUA5JvWcbtdWBclVjYqGbVXzro5I5x1KoKl4tYhSDkgqCux7HdStAq63kOPQUGlw73XjJ318noYwLrNEfdNRkb6gz8q5LCzeXFTvxCb6q63REn2VPllqDtVr5i3idQiIvY8oiIg0Nb+dDPgf11nhYNWL6UN+B/XWeNi3XhmREsi2ylFCm6AiIgIihATnCKRtCK87ox+EOPn97H2PXk/dWG2gmFjfiQ+bevXMOYXY9pAf30fY9eRd1kC3QnBgf/ABH/ALblylp8tOKpVRCWUVFlU0ZhFLdqC5KO+Vkq9NylZKDtuBpmtwgUN9ghnPyTl9kMyhj8RvYF8fcCzL6dUx3U8/zbl9iFuqxg3NHYsWnTUQxnnvyl1D+WUXjn5l3jhO1SoBspuoIKpVRVJRULGrPC0Hw2H6yySsar8LQ9FXEfWVrykt5dBsPUrTXbFeAyPUs43a6W7fKro2qhozV1vK8i6ORYq3zrIcNitPb3xQUhXm5wv6j2K0ArjPBuHQUVp8OILsS+HS/Qur0RP3XOP3Y7Vx+HGxrzvrZj8YLrtDzernP7u3pVr5i3idWiIvY8giIg0lWLaSNJ2OpLDyP/AM1nDYoxSBzmNnhbrTQ3IA2kc4Wsw7HsNr2HiKqLXadV7CbFp3Ec3lW6yktooVDJY38iRjupwKueRa2zpCJdE2mhFKJs0hFKhUEG0IpG0IOKwaM/01jxtkZo+xy8e7r1mroXgfTiJ+aK9zw6JsNRWSu/277+YuC8W7rmnmrND8DZSRPlLK9znBgvYcWVy9uj5LsivSU08Z9shkb1tKtbNqgiyKUQS83KpAUqpltYXQeicB0Ln6dUoa2+tDM3zsK+vJsrdQXzF3O1Gyo06o3NexxZHI5wBzA1SvpeaUOebEecLjkbox38soELHFxOq63Up1SNq8suyFKWUpsQqSqlBQUqBEZpYLC+pOxx+MpWxwdjeKrZX2tGxpF99ytV5JQITksi1lY9lMJAvtNlfabrNHS0qgMlcY3NSxtwrkYz8i1tnQ5p1QrT2m91m6l2BWnNVGKGmwVxrSGuvssexXQxXjHaJ/Ug52kp3MFRf9Kpld53LqNDoy2eocf1R2rW4rqU1U6PLLM9ZW30PeJBUuaMhYXWqR/Vm0/zdIiIvW8wiIgLWV+A4XiE3HVdDA+b+0DdV/8AMM1s0QaMaM0TG2hdMwbtfW7VbfgM8edLXOb0EEdhXQImxy8lJpBAfapYJx0vsfSFYdiGO0xtUYRJIN8Vndh+hdeiuxxn+lccRIrKKqpyNuvG5vaFlU2k+GVHImz3ZH6V1JFxYrEqMMoajw9HTydLowU2mmBHiVG/ZO0eMCFkRzxSeDmjd4rgVado3hZzjpuKO+J7m9hVp2jkA8HUTDx7P7Qr1GmerdRMyngfNIbNYLn7FhNwSaLwVSPjN7CrVZhFdPC5gkikdYhvHPc5ov0J1GnAxaaUeJ0zX0L9aKB74TIDlI4OOsR0Xuuk0XoINJKWWbEI3SUzHasffFt3c5yWqoOCgMmaavEmtgDrmGmh1BtvYZ5eZel0FJBQUcVLSRiOCJuq1o5gsq4nE+CzAK0HvHNJ/XjZIPS2/pXIYrwBYLVEmOOjff8AWjdGfO0kehe2Ig+YcV7mqme5xphPH7zO148zg1cjinc24rFc0eIPaN09M7tbrL7MRB8DYlwF6Y0h+54qKsH7uoDT5nWXN1/BrplQvDajRzEczYGOLjB523X6NyRskFpGNeNzhdYxw2jJJ9jRC/6rbdiD440D0N0g0DoYMarGR0VXWyCFzJHASxQDN1m73Gw6BfevUtD2VulOMMpqUP8AYzHB08w5MbevedgC9pn0ZwWomEtThlJNIBYOljD7dV1sqWmgpIhFSwxQxjYyNgaPMEGkn0PweQe1wS07v1oZnNPasOTQ5zD9yYxWMHM2ZrJR6QCusRSYieV24eXRjF2HvZsOqW/tRuid6LhY7sFxFhPG4Y62+Cdrx5jYr0BFicVZ9L1y83koHs8JHUwn95CbecXWMaRxPeSRO6Nax9K9RVqSnhl8JFG/xmgrM4KtRkl5iaKp2CF3XcW865jHpsQoNIomGqhbh7acl0THXc+Una7cABl5SvbXYVQuOdLF5BZWYsAwmKTjGYbScZe+sYgTfrKzOD4+JWMkb+XCaE4JNjLzV4hG8UAHegktMp6Oew3rqZtDqF1zT1FdTnm1Jy4DyOuulAAAAAAGQARdMeOKRpm95tO3HSaKYhFnSYzrdE9OD6WkK3/ROPwZujoqn3uQsPmcPpXaorOOs+ki8x7cbrYjEAJ8MqBb9QNePQfoUCrhJtKx8R3PaW9oXZqC0OFnAEdKzOGrUZLOVhdTP5Lrjoz7FhaU1c1JgVbNhzWOq2ROdEJHarS7mvfmuuvkoKSTN9NCTv1AsefBMNqGhs9HDI299VwuPMs9nS92ZeJ4XiOIVkNHTyPdV4jI0Nk1Bcvfz+Re0aN4UMKw2ON4BqXAGZw53f5bFl0eHUVF7jpKeDpjjDexZSY8XTM2tO5MmTqjUcCIi7uQiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>data\product_images\Light Switch_20251120_144130.png</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 Gang Class Smart Switch Light ZigBee</t>
+          <t>Smart Ac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smart_Switch_2Gang_ZigBee.png</t>
+          <t>Smart Ac</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAECAwQGCAUH/8QAURAAAgEDAQMFCgoHBAcJAAAAAAECAwQRBQYSIQcTMUFRFCJSYXGRkqLR4RYyNFNigaGxwdIIFTNEcoKUIyVkkxdDRnN0hLIkNUJFVmOzwvD/xAAZAQEBAAMBAAAAAAAAAAAAAAAAAQIDBAX/xAAjEQEBAAICAQUBAAMAAAAAAAAAAQIRAxMxBBIhIkFhMlFx/9oADAMBAAIRAxEAPwDqkiTxFvsJIn8SXkAxHOT/APEyN+XhMpJAnfn4T8435eE/OUkgS5z8J+cc5Pwn5yGQBLnPw5ecb8/Dl5yCQG/Pwpecb8/CfnAAb8/CfnJ35+FLzkACd+fhPzk78vCfnKSQJ35eE/ON+XhPzkACd+XhMb0vCfnIAE70vCfnJ3pdr85SSBO9LtZO9LtZSSBKk+1k7z7WUokCpSfayd59rKUSBO8+1k7z7WUkgVbz7WN59pBKAuxeUmCIfFRIAAAAAAAAAAAAAAKanxJeQqKK37KXkAwxkgASSQSAAAAkACCQMAASAIBIAgEkgQCSAAAAEkEgESQSBOSUQSAAAEkgAXYfERJEfiokAAAAAAAAAAAAAAFFf9jLyFZauvk9T+FsDya9xWjUcaVDfWF3zlhdf/76y1G8ucxUrOaT6WpZwUc9U8JeiSq1Two+j7yD0KEnOnGUouDay4t9HiLmDzY3FZdEoei/aV901+2l6L9pRn4JSPP7puOyj5n7SVdXHg0ftAzyTz+6rjwKPnZPdVf5ul6TAzwYHddf5ql6T9hPddf5ql6b9gGcDB7rr9dGn6b9g7srfM0/TfsAzwYPdlf5in6b9g7sr/MU/wDMfsAzhgwe7K/zFP8AzH7B3ZX+Yp/5j9gGcDC7rr/M0/8AMfsHdVf5mn6b9gGaQYndNf5mn6b9g7orv/VUvTfsAzAYnP1/m6XpP2Dn6/gUfSYGYDFVat4NLzslVq3g0vOwMpInBjqrV7Kf2k87U+h9oF8ksKrP6H2kqpL6IFVxV5ilv7k58cYgssx7K/dzVcHaXVHCT3qkMRfiT7S/zr8QdV9iAzF0IER+KvISAAAAAAAAAAAAAACmpFTpyi+iSaKgBo9SrOFSUZZTi8NCNeT7Srauk7K/dXGKVbvk+rPWvxNV1q4p3ml3lpKq6fP0Z0lOMmnFuLSeVxXEaG1qrL6XmK1Vl9I5b+Cuub6g9UquS4N07ms1nytmRT2T16Kx+tLh+W5rfmM5x2sLnI6d52X0vMVKrL6XmOYpbJ7RSxjV68fJcVvzFcNk9oVj++K/9RX/ADF6qnZHTXOy7ZEqtL6RzL8EtpM5Wt114u6K/wCYpnsrtNCLb1yukuvumv8AmHVV7I6c56X0hz0vpHLNLQtoat1ToUtfrzqSbxGN3Wy+H8TLdPSNo6riqO0cZN9CV5XefWL1VO2Oq+en2yHOy+kcv09l9r3xWuT4/wCIr/mJ+Cu1/Xrk8/8AFXH5iddXsjp/np/SHPS7ZHMC2U2v6tcn/VXH5iXsrtg1/wB+T+q6uPzDqqdkdPqtPtkOel2yOXKmy22FKDnPX5qK6W7uul/1GLDSNpp3dOjHXt6c3hbl/Wz5s8R11eyOruel2yHPS7ZHMS2b2pnJQ/XqlLsVeun9kitbI7Wcf76lx/xNx+YvVU7I6b56XbInnpdsjmSOyW1yznWcr/ia7/8AsR8Edq306xL6ri4/MTqq9kdO89LtkSq0u2RzD8Edqm+Os1Mdiubj84jsntTFpLVpyT6c3Nxw9cdVOyOn1Vl9IqVV9sjmF7I7UP8A83n/AFFx+cpex+1Kaa1ussdXdFxh+uOup2R1Cqz7ZDnpdsjlyey21qXDWKv1XFf85h1dnNr6ae7rN0/+auPzDrq++Or+ffbInuhpZbeDjm7sdsrdty1K/ljsu6/5j3tgdE2n13UKda41W8pWlrcU+fhUvKylOOctJN4fBYx4zG46ZTKV1SqzfWVwm5zjFN5k8Hh92p8c4PX2dTubh1uPN0+vtZirY1wQAAAAAAAAAAAAAAAAAAwtY02jqthUtq+UpLvZLpi+po0OryY89J85q9RR7FT959JA2Pk+pbD0tHoUqVC8qVKkm5b7ik+ns4mLb6FV3u/uqjXiivYfTNU0t31wp89upLCW7ksx0BRX7f1PedGPJJjpovHblt88uNGa4RuKyfkj7Cm00mcYONWvKo97KlupPHYfQJ7O70vlHqe8qhs7FdNf1PeZduOmPXdtHWmQiu+lJlFWwoVI7k6akvGbzU2bU/3lr+T3luOy0c5d0/Q95JyY+dlwy8afPKGzkKWo0bm2aUYt70GulNY4Fd3stpdTH/ZowfbDgfRls7FLCuPU95bnsypfvT9D3l7pb81OrU8NAhpEIJKNathdrT/Au/qiDX7auvI17Dd1suk/lL9D3l34NLHyn1PeLyYrOPJ8/paRKlVk3dVKkGuClGOU/LgzKWn010uT8xuMtmMv5V6nvJjszj959T3i8mNSceTU62j2V3R5u5t4VYdkkeH8ENPtL+ncWsNxRbzTaymmmuHnPp0dn0ljuj1PeWa+zW/xVzj+T3mOPJJfLLLC6fN/gvpkpxlG3UJR6JReGvIz06elYisVquEuvD/A3GGyzXTdL0PeX47O4WO6PU95nlyy/rHDis/GkvTscOeqLyY9hYjpc1X3u6qsqbTTg4x4PqaeDe5bN737zj+T3lMdmd1/KfU95JyYl48mnfqtP/W1F5vYR+rFnHP1V6PsN4Wz0cft/U95bns0m8q5x/J7yTkxW8eTR56PV5yEqV9U3U1vQnCLTXlxkv1NN4txqzS6lhcPsNxhs2l+9Z/k95X8Hl13Hqe8XkxJhWl09Oy+NxU80fYJ6Q3+81V9UfYbi9m+OY3OP5PeXFoGY47p9T3k98X2VolTZ+pUXeahWi/HCD/Az9J2Wurui4K9jTnSlxk6ed9Po6MdGDa4aC4v5T6nvPQsNP7kqufOuWVhrGDHPOWaZYY2XbVY7G3ya/vCk1/u37TcrC1p2VpTt6K72CxntfW2XwaW4AAAAAAAAAAAAAAAAAAAPoAAiKwiWBgIIAMKdIACAYHSAQACgAAAACCR1gIdYYABB8QAKM7sivpRDWUI8OBTwkp6GVACmcd5cOkU33vHpKhjiABret7d7KaFdu11jaLSrO6XTRrXUIzXlWco8x8rGwS/2u0X+qiRW7g0f/SzsD/6u0X+qiQ+VzYBf7XaP/UIDeQadpvKdsTqd5TtbHanSKtxUeIQVzFOT7FnpZuIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1Dle1a60Pk12g1DT6/c95StWqNVdMJSaimvHx4G3nyP9IbX7CfJfr9lRrb9xvU6TSXRJVIt8evGCWyeVmNviNh0fZTZrZy2t6M7fS42it4Jxr2sJVZ1W23VnVllycuPT19Z69vbbKVa0KNvaaPOrPhGEKFNt8M9h7ttGMrWlvRT7yPSvEXY04R+LCK8iKjz1oek4WNLsf6eHsJei6TBOX6usYpcc8xDh9h6IA0nVtM2V2t2euLOrp1rXs7yhOVKo7ZRU0l8enLGcrg00Y/ITqNzqfJXoNa+rTrV4UnRlUm8ykoScU2+3CRt706ztbes7a2o0XzcktyCWE1xS7DQf0ea1KPJjpVDnafOp1O83lvfGb6DPkuG/p4/rHCZa+3l9NABgyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFNWcaVOdSo1GEU5Sb6kjmvlPir/k31y6kuMp90LHV/ap/ifZ+VPU56fsnWp0G1WvJxtotdSl8b1Uz4xym3FOx5LtSjmO9WpwopeNyX4JnJz5b5McXo+kx1xZ5X9dI2nyal/AvuMJyrX9xUhSqSo2lOTi5w4SqSXSk+pLoz0sy7Rt2NFpcebi15ixoTjLSLSUHlSppt+N9P25O7H4lrzL83SpaZaK4jXVL+2jB01Peed1tNrOe1IuZqUKkU250n1vpiZBRWxzU89GGY7t8rqRF18mq/wAD+4525CLa6ulpDt03CnFVJyxwjFPHT9X2nRFXjbTz0uD+4+I/o57RW1DZxaVUtlCrGu4uspZcspNZXYsmjmmNk91/XV6XLPG5XCbuq+5gA3OYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfPeUmXdetaTYP4tOE7iS8ver7mfIuW63XwBqKccSpVYzi/OvxPpmq3Eb7b/AFBp97QjGgn5Fl/a2fOv0harobIwgo5hWnu57Hwf4M4cvnl3/Xp8f14bj/HSNh8ht/8Adx+5GJpNnWsK11RzGVlKbq0ePfQcm3KGOxPivLjqMqwebG3f/tx+5Fye/vR3XFRz32VxfkO+ZWSx5dm7tcyUVIuaUeG63xNdoW+q1Klu6ndVKPPSc1KvGSVNrGMp5bzxXDxcFxPeowrQnJTqRnSUYqHDvs9bb6+oirlX9lP+F/cc8cgWyl/d0KerxrU4adOrmWX3zlHCaS+pcWdDVf2U/wCF/cc18g+0t7bWtTTFdVI0KVVyhT6VximzTz3GYz3eHV6SclyvX51XTALdtOVW3pVJrEpRTa7OBcNzlvwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAW7mtG3tqtao8Qpwc5PsSWS4arym6g7DY+9UG1VuMW8Mdsun7Mkt1NrjN3T5nszcVL26qXrzvXFWVSTfjeTzf0g7dVuTa5rLjKjWpzz5Xu/ieps3DmKNOCeMIw+WuafJZrKfF7sP/kiceM+Y9HK/W/8fb6Vw7fTLWUaU6rdKPewxn4vjaL1K65ylGbg6bazuTayvLhniavptXULHS3S1CrZKlzdSTpuK51JcYPKfevrxxLdvo1eFWpPu51oPK3JYag88ehZz1HoTGa8vLtv+mwXF1Gha1a803GnFyaim3hLPBLpPOeuKV3O3t7Z1qiipqKqwjJppP4reV0rpL11crT9OVScd/cwnjPUjxZ7R0Vc/wBnYqpWlFNOG7vNNZxxaZJjb4X3SNmpVZVKeZw3G45cW8tPHQfF/wBH/ZDTrvZ+jr1ypzuOclSVNPEO9fS+1n1fS9RleNqVvzTcG8S+MvKc9chuv1rajcabO4qxpc66lOG/iKbivN0ZNPPZhPtHR6bHLkyswuvh0+DE0ipOrp1CdVtyks5fWuoyzOXc205TVsAAVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Wcst9GV/o+nb3h3El6q/E2/bHa6y2btXzjVW9lHNOgnxfjl2I5+1/WrjVNolqV5VdSpUShiKwopdSXUjn5uSa9s8ung4rb774bxpcUnFpmt8u1yqXJxd0uutOEfN334HtaLdRqKOOBoX6Q183o1lZwfey5yrLHijhfezThd5R1ck1hXTvN0q2mWPPUHWUY05qPF4aSw/GVWW4p3MYWk7dc65NySSqN9MlxLVexr3uk2NO2vatnKCpTc6cYy3kku9akuhnoQo1I72/U38ybXDGF1L6jueYorU6VW3arxzFPPTjqPLdvondcZNW3dLxutzW+8rh4+KwezOhGpRnTqpOMspp9DXYWqVhb0oQjTpU4xglGKUF3qXQkXdiai3Z0bWFWpzEVvxzCXfZxwzj7j5H+j7snpN1sxT1m5oKrdutOn32N3EXw8p9m5tQUpJ9T+4+a/o3vPJnQf8Aiq3/AFIlnu8ssbcf8X1FJJYXBAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4m020+l7O27qahXXOtZhQhxqT8i/F8CWyTdWS5XUezVqQpU5VKs4whFZlKTwku1s+T7c8qlO3VS02daqT+LK6ayl/Auvys0rbTbXU9p5ypSk7bT08xt4Pp8cn1v7DUKtFtHDy+pt+MHfw+lk+c2Jq2rXV3dTrXFWdSrUeZSk8uTJsalR16acW2Z9losricJ1linnpZ6k9NUK0alGOIpYx+JomUdftezpV3ClBLoklxyfN+V6dfUb2SWN3mXTg30Jv34NxUpUaijKSy+vtM+ro9rqlJc9FSeBjlcctssuOZ42N92U5bdi7zQbOWq6xQ0nUYUowuLS7UoTpzSSaXDDWehrqMzUOWnYehTg7PaDTbublhxjcKG6u3MkfOtK5NparcRp2MGlHhKcviwXjf4I+ubL8m+z+i2ahXsLXULmS7+tc0Iz+qKa4L7T0ePl7Px5PNwzi+Pd8taXLlso+m/sF/wA/TM2x5adh6sJu81/TbWSfBd0KpvL+VG5fBPZx9OgaR/RU/wApK2U2eXRoOkryWdP2G1oaLrnLfsLa6XcVNP1ulqd7uONCztITnUrTaxGKWOt9Z63IboN9s9ya6VaatRdC/qKdxWovppucsqL8aWM+M2uz0HSLKtGtZ6VYW9WPROlbwhJfWkekAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB422N5XsNmr+5tKjp16dNuM0k8P6zma7ua95dVK93VnWrTeZTnLLbAOD1d+0j0fRz62i6GZFlCM68d5J8QDjdsbDCK3EsLAjFd0tY4dgBYPM1GlDuqS3VhGx7BWtG81OlRuYudN9K3mvuANmE3lNpndYWx90tbajaUI0balGlSj0RisIugHreHhW78gAAAAAAAAAAAAAAAP/2Q==</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Ac_20251120_144159.png</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3 Gang Class Smart Switch Light ZigBee</t>
+          <t>Motion Sensor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Smart_Switch_3Gang_ZigBee.png</t>
+          <t>Motion Sensor</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAIDBAUBBgcI/8QAOhAAAgIBAgUBBAgEBQUAAAAAAAECAxEEMQUSIUFRcRMiYZEGIzIzUoGhsRRCcsE0YtHh8BVDU5Ki/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFxEBAQEBAAAAAAAAAAAAAAAAAAERMf/aAAwDAQACEQMRAD8A/qkAAAAAAAAAAAAAAAAAAADycowi5TkoxW7bA9BzNRxaCfLpoO2X4n0X+5gtv1N/3lrS/DDogO9ZfVV95ZCL8NmW3i2jrTcrei8JnHjplu0Xx068IDXHjmkm8Vq6f9NbLo8TofaxesTEqV4JKleAOhHXaeX8+PVNF8LIT+xOMvRnK9ivB49N3SwwOwDmwlfVtNteJdTVVqovpYuR/oBoAXXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAx8Q1q00eSHvXSXRePiwJ63WV6WPX3rHtBbnGtndrJ5ul7q6qK2R5CEpzc7G5SfVtmiMemEsICuFSXSKwv3Lo1rwSjEtjEghGBNQLFEshDIFcYFkakW4UF1KbLvAFiUI7nkrYLsZZWZK5TKNvtoPdDNU91gwc56pkG+MZV9anmP4WXQmprw+6Zz4XNdzRXbGeMvEuzKNQIwlno+kkSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABtRTbeEurYGfXalaWhy3m+kV5ZxIRlZJzsblOTy2yd9r1epdj+wukV8C2uOEB7GPZFsYiEcFiQCMSyKEUWxiQeQjkteIRPUsIz3TyURtsyzPKRKT6kMZII9SLLG0viyLlJ7JICODwmnLwj3o91gCtMnCTWD1w8ENgNtNuejeGtmbIS5l4fdHIhLDNtN2zfoyjWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc7jN7jVGmL96zf0OicC+z+I1Vln8ucR9EB7TDGMGiKIVrCLYLoBOKLEiMSxEEoothEjFE28IohbLCwZJvJdZLqU7sDxR69SMk307Fu7GCCuNayS5BbbXTW7Lpxrgt5SeEvzOZP6Q8PTxXZZb8a6pNfPAHVUQ4JnPo41o7ZKPtHBvZWRcf3OjCamsxaa+AFTi47EGsmhorksegFGMEoS5WeyRHuB09NZzww949C05+jny3JPaXQ6BQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUa6z2Wktmt0sL1ZxqY4ikdHjEsUQh+KX7GGC6AXQ7fMtjsVx+1+hbHYCcdy2JXEtiBZFEbH0JIrsYFM3lkJPCJvcqk8yIJxObxvi9XDKY5XtNRZlV1J7/ABfhLyatZqa9Jpbb7ny11xcpM+A/iJ6vU267Wv35vpHflXaK/wCeWWRLca5q7iFyu4jbzv8AljtGPov+M21uMWoUNN987GLT6upyzKLi3tlF7scpp1Lqu5pnW6WVH6yMeV7tdjRptRPTY5JZj4exz3fbJqDSTfcmqdRVDmi/aVreD/sSw19PpdTG+GY9Gt0+xZLqfOVamWntjJP0fZrwzv1WK2uM47My293RBk1uyMkBHmcWpL+V5OwnlJrZnHfc6ellzaat/wCVFFoAAAAAAAAAAAAAAAAAAAAAAAAAAAADl8YebaY+E2UQWxbxb/FV/wBH9yqvePqBdDf8y2OxTWXR2ILIlkSqJZEosKplpTMggynsWy2ZU9gPmPptqW69Loov72Ttmv8ALHb9WvkcJRy6ovZJs1fSe12/SOce1VMI/PMn+6KNNU7ZOcm/C9DUYvVs4Ll6IuoudcVzwa+IhBQs955WOhbdZBQx0KiEp2TnGVcdnnL7nU0mr5sQlF83g52m1EeRJ9GaKpxV6kn2At1kEsVPpzL3f9DocEvclKqTy8Z/PucvWWe0tqa7STLeEyceKxj2aeTNaj6PuGj3uesjSqS3N+g/wsfg3+5jktzboVjTR9X+5ReAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5PGFjUVPzFr9Smt9V6mrjcfcpn4k181/sYq3sBprLY7FMN36lsdgLYlkSqJZEC3sUzLkVWEFU/ssplsXS+yymWwHwHHsx+k+rz3jW/8A5/2K9JZYk0o5SbNn0vq9jxvT6jHu3Vcjfxi/9JGPSWqLlB7pmoxetGJWvr0+B6qZcycuqIq36z3Vnzgu55Skk04p9yoOK6L4mtJRhgzSjFdU3leScOadalJ4T7ICyLUaeZ7vPyNnBYueqok9+TmbOdn2kJQ2jHpk7vAKX7J3NY5vdj6IzWo663JMjFdSXgjTyXc2aNY00Pj1MVjwmdClctUF4SKJgAAAAAAAAAAAAAAAAAAAAAAAAAAAAMnFYc+hsxvH3l+Rx6pZSPopxUouL2awz5mKdU5Vy3hJxA3QfX9S6D6GWuXRP8i+D6AXxZYmVRZYmBdEhYj2D6ntmwFBRLY0MqsXcg4H0p0Etdw6SqjnUVP2lS8tbr81lfI+S0bq1MIzx1a32Z+iWxyfI8b4PZRqJ6zQVucZvmtpjvn8UV58r80WVLNZ4VqmXTqn5LJzXJ0+12wZtNfXfHPtFKK6NeH4fg1Qdaf1cfe7Pcus4Ki2UVzuMV3Wcssc8rlgtvkhy2z3agvXJv0fDrL1HOYVee7Jq4o4fpHqZqC+7XWcvJ9TVBVwjGKxFdEiGmohRWoVxwkaIroiNEe574PUGBBrntjD8TwdIw6SPNqZS7QX6s3FAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOHxur2Wpjcvs2dH6o7hRrtOtTpp1vfeL8MDiUyysGiuXQ51cpQm4y6Si8NeGa4TXbZ9UQbIssTM0ZFqkUaYPqW7oyxkaK5ZIISWGQaysF1kSoCqUepROrKNjwyDQHE13BNHrLfaW04u/8ALBuE/mt/zKK+AQg/d1Wp5fDcX+uD6LlQ5UBzdNwyinryuT8yeTfGCS2LFE9SAionp6zwD1ELZcsck84IVQ9vqEv5IdZf2QGvSVuulZ+1L3mXAFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHF47pOV/xVS+FiX7nPos5o477o+qaTTTSae6Z81xTQy0VntKk/YSf/AKvwQWV2ZRbGZhhblc3zX9y6NgG2M+pdCZhjMthMDpwkpR6lM1grqtNDanHK3KKe4z5PXueEHuEMBAD3Y8yAB4Ngym21RWFuAsm21GCzKXRI6GmpVNSjvLdvyynRaZ1/WW/ePZfhRrKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHk4xnFxmk4vo0+56APnOJcMs0knbpU50947uP+qMFdyazHbuvB9kcvX8Hq1EnZQ/Y275S6P1QHJjaWxtMmq02o0j+uraX4l1i/z7FcbfO5B1IWmqm/Hc48bfiXQt+JR21OMyLRza9RjuaYapPdkGpDsUq+L7iWogu4Fx5KSRks1cV0TJ1UajU9WvZV+Zb/AJIDyy5uSjBOUnskbNHpORqy7Ds7LtEu02mr08cQWZPeT3ZcUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaTWGsowanhOkvy3XyPzB4N4A4FvAJp/Uajp4nH+6Mz4Rr47KuXpM+oAHy3/Ttev+x8polHh2vb+6S9Zo+nAHz9fC9bJ+9KuC/qya6uDre++cvhFYOqAKKNJRR93XFPy+r+ZeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>data\product_images\Motion Sensor_20251120_190737.png</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4 Gang Class Smart Switch Light ZigBee</t>
+          <t>Water Heater Switch</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smart_Switch_4Gang_ZigBee.png</t>
+          <t>Water Heater Switch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAQIEAwcI/8QASxABAAECAwIJBwYLBQkAAAAAAAECAwQFEQaxEiExM1FxcnSyEzJBYYGRwQciJDU2sxQVIyU0UmNkc6HSFoOEwsMmQkNTVGKSotH/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACMRAQACAgEEAQUAAAAAAAAAAAABEQISQQMxYfBxBJGhsdH/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAANLl63a5y5RR2qoh4TmOCjlxmHj+9p/8AoOocsZjg583EW6uzOu4rzDCW9JuYi3RE8nDng7wdQ5beY4K7XwbeLw9VU+iLkauoAAAAAAAAAAAAAAAAAAAAAAAAAAAGKp0pmejjBG4nHYq7iq8Nllq1VNudLt69M8Cif1YiOOqfdo8LtjPK4ng43CUT/wBtjXfU6cio4OU4aufPu0+Wrnpqq+dO936qit3MBtFVrpnNNOv6tiiNP5S8Ksn2irnjz65HZpoj/ItWpqUKhOzueVa8LaHF+y5EbqD+y2aVRpXtBmHsv1fDRbtTWShTqti8TXOtefZn7MTc/qh5zsFTVPz85zWf8Ve/rXVhaFJp+TnARPzsdmVX+Ku/1u7C7F4XC0cGzj8ypp4+L8JrmOONPTM9K0AKdR8nWz9NfCnD1VVcutUUzM+2YlJWNk8rsREWrddMR0TTG6E+AjLeS4W3GlFeJjqvTG555jguBg7sRwsRZmmYqt3Z1n1TFXKlvSxVTFdM0VclUaT7Sh+Xb+e4/FXb8WabtFFFyq3wLnnUzE6aT632X5HtpsTm2WXcuzSqasbhOOiurluWp5NfXE8XVoiNoMowd3FUXcPaoprriZu8GOWrpnrduw2BjBbRWKqKdOHRXRPu1+CD6cAigAAAAAAAAAAAAAAAAAAAAAAADW7zdXVLZrd5urqkHFk865TgZ/YUeGHW4sl+p8B3e34YdrSAwagGrAIzqMGorLAKAAHpI5Y6wjzo6xHzbLonE5hmMVccW7lER/4RKfySx5PN8NVp6avDKB2dq+nZxr/z6Pu4WXK6tc0wvaq8MsqtICKAAAAAAAAAAAAAAAAAAAAAAAANbvN19Utmt3mq+qQR+STrkuA7vb8MO3Vw5F9SZf3e34YdrSEgwoamoCGpqMKM6jADOoABHLDDPpgHzHI6+DjM29eIo+7pWTJK+HnGFj11T/6yqmU1aYvNO8U/dUrLs3VrnWH6qvDLCruAigAAAAAAAAAAAAAAAAAAAAAAADS9zVfZnc3aXuZr7M7gRuQTrkWXd3t+GHejtn+PIct7vb8MJBuENWAVAAAeF7FWbWJs2K6tLl7XgR06PdamGYyibiOABGgABn0sAPlGVz9LzPvFP3VCybMT+fMP2a/CrOXT9JzLvMfdULHstOue4fs1+FhpfgEAAAAAAAAAAAAAAAAAAAAAAAABpf5m52Z3N2l/mbnZncCJ2c+z+W92t+GEijtm+PZ7LO7W/DCRbhkAUAcmb3KreWYmqidK+BMRPRM8XxXGLmmc8tMZynhx0WPxhZxGI4XBuXp0w8zy000T82Y654+qUhgcRGKwlu9pwZqj51P6tUcUx7J1RtvD13LOIuWr1VucPNdmxEclMUxEfzmON75Pd4deJ0jg01zRfiOjh06zHviXbOLifHv8eLo5a5xcd/zzf7+8JNgHB72RhkGCT0k8kg+R5dP0nMu8/wCnQsuyXHn1n1UV7lZy/wDScx7z/p0LPsf9e2/4dfwYVfgEUAAAAAAAAAAAAAAAAAAAAAAAAaYjmLnZnc3eeI5i52Z3AidmZ/2dyzu1vwwkkZsx9nMr7tb8MJN0hkAAeONsRisJesTPB8pTNMT0T6J972Fiam4ZyxjKJie0q5duU8K7RfxdeCm7+kYfyU1TVVppM26uir1a+yUrllqqJvX67c2vKzTFFueWmimNKYn18s6et3sOmXU2ioj335efp/TaZbTN+/Pnio8MsA5PUAAFXJPUMVebPUD5Jl0fl8x71PgoWbZD69tfw6/greWR+WzHvVXgoWbZGPz5RPRbr+DCr4AigAAAAAAAAAAAAAAAAAAAAAAADzxHMXOzO56PPEcxc7M7gQ+y32byvu1vwwlEXst9m8r7tb8MJR0hkAAZYAZYAAAGRgAYr8yrqllrc8yrqkHyrKY1uZh3uvw0LRslT+eY/hVfBW8lp1nMZ/fK/DQtGy0cHOKf4Ve+GFXMBFAAAAAAAAAAAAAAAAAAAAAAAAGl/mLnZnc3aYjmLnZncCF2U49mcr7tb3JVFbJzrsxlXdqNyVdIZAAAAANQAAAAGtzm6+qdzZrd5qvszuB802fp1pzCf3y5upWjZujTNqZ/ZVb4V/ZqjW1mE/vt3dStGz9GmZf3dW+GFWUBFAAAAAAAAAAAAAAAAAAAAAAAAHniOYudmdz0JjWJifSCA2Q+y2U6/wDTUbku4MktRhcBbwevHh48npPREu9uGRlgUAAAAAAAAGt3mq+zO5s0vczc7M7gUbZS3rhsdP77d/yrNlFPBzGn126t9KJ2aw80YPEcXnYm5V79E7l9GmYUT+zq30sKlwEUAAAAAAAAAAAAAAAAAAAAAAAAABCbQYHMKopxWS3LVOLonWq1e4qbsdGsck+vjjpR9jOs0txFOYZLibdUctVEcOn306rWLZSv0Z/Y/wCLauW+uY+Oj3t5zga+S7MddM/BMVUU1RpVTEx641cl7K8Bf53B2Kp6eBESbJTyox2Er83E2uqatN7ooqprjWiqKo9U6o69sxltzzLd21PTbu1R8XBd2QiKtcLmmMtduKa/hC7FLCKz+Is+w8/Rc3tXI6K6aqN0zDGm1OH5bVnERH6lymd8QuyUs4rH46zax+lZXeiPTPkpmPfTMvS3tTamdLtiaZ6OFNM/zgsWMRNrP8JX/uXo6oirdLppzXBVct+KO3TVTvgsdrzxMxTh70zyRRVP8pa28Xh7vN37NfZriUVtRmsYLJsZcw9qvF3bduaps2fnTV0U9dU8XtmfQDFM0YGzbtzxTNMVzE9MurKMRTfx08Hj4Nud8PmX9qsZmFmzicyt27GLqtU+VtUTrTROnHHsfRNiMLeoy6cXiYmmvEaTRTMccUej366+5lVjARQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABrct0XI0uUU1R0VRq2AcV3KsBdnWvCWdfVTpueE5Fg4n8l5W12K5+KUAQleQxM8V/hR0XLcVNMTkN7E4KrDfhtWGt1xpV+D0RTOnpiJnk9yeAVLLvk/yTB36LtVF/E1UTrEX7mtOvVEREraAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>data\product_images\Water Heater Switch_20251120_144331.png</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuya 8 Inch Center Control Panel (WiFi/ZigBee)</t>
+          <t>Smart Connector</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tuya_8_Inch_Control_Panel.png</t>
+          <t>Smart Connector</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1500</v>
+        <v>145</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAMEAQIFBgcI/8QAOBAAAgIABAMFBgQEBwAAAAAAAAECAwQFETEhQVEGEjJhcQcTQmKBkSIzobEUNFJyIyQ1Q4KSov/EABQBAQAAAAAAAAAAAAAAAAAAAAD/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD9UgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGq6o1dkVvJAbAjd8PM1d65JgTAg/iPlMe/kBYBVdsnzZr3vNgXG0uaNXZFfEio2agXHdBczR3rkitxAFpXLmjZWx6lQasC4rIvmjbVPmUQBeBSUpLZs2Vs18QFsFVXT6oz7+XkBZBAsR1Rsr480wJQRq6D5/obKyD+JAbAwpJ7NGQAAAAAAAAAAAAAAAUbceqrpQlXqk9NUwLkrEt9fsRu9ckyGOYUy370fVE0b6J7Tg/UDHv2+Rq7p+hI4Vy5r6M1dCe0gI3bN/EauUnu2SOiXJpmrqmuQGgDTW6YAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZUZPZMDBlNrZskVE3vojb3CXikBErJr4mbK6fXU37tcd3qRzxNFW8or6gSRssfwkkZTb/FHRepQszWmPhepVsziT8EPuB3AecjmN87YKLUdZJcD0YAAAAAAOJmC0xdh2zjZktMXL0QFXQGz2RgDKk1s2iWGJtjtNv1IQBchj7FukyaGYr4os5oA7EcdS93p6kkbaLNnFnDAHd91W9v3NXQuUjjRsnHwya+pJHGXR+LX1A6bolyaZq6prkU45jNeKKfoTQzKHxJoCRxkt0Y0ZJDG1S+JfU3VlUv6WBACx3IM1dKezAhBK6XyNXVLoBoDZwa5P7GVVJ+QGgJfddWZ7kFuwIRo+hJK6mvxOK9WQzzKiG0k/QDdQk+TJFS2uL0OfZnCXhiyrZm1r8KSA7iqivFIw5Ux30+55uzG3T3m/oQysnLeTYHpZ47D184lezN6lwhq/RHn3x3MrcDq2ZvZr+CH3ZWszHEz+KMV5IqnPz9tZJjmt/dS0Ai7Tdqcu7PZfbjs7x/uaK1rLTWcv8AquJ5HI/avkOe3RjldONtqb0Vs4KGu+yb15cz4N7YO2GAx2WLK8oxk5XxvccVGMGk4pNNNvfieF7D9o7uz+ZQlhaKrbLJqKdjekdeHL1A/cuS5nDNKrbK6p1xhJR/E02+GvI6J432WYi3F9mY4jEOLttn3pd1aLY9kgJMMv8AM1f3r9z1x5XBLXGUr50eqAAAAAAByM0/mv8AijrnJzVaYlPrECmAAAAAAAAAABjQyANGgbM1AGU2tmzAAkjdZHabJI426PNMrmAL8MxkvFH7E0Mxg99UcoAdSWNhPWXe0cduJUlm0uKUU31bKU9mVwLtmZ3vwuK9CtPF3T8VkvuQvmYA2cm9+JqAAAAAAr4K6y6rWzDuiSbTi1u+v1A8z229ofZ3sbbCjOcVb/F2Q95HD0VOybj1fJfVnjuz3tsp7RdqMBlWUZBi5VYi1QlbZdHvxX9XcinwXmz3Ge9g+zWfZzHNM4yuvF4xVqvvWTl3XFbaxT0Z28ryjLcqr7mWYDCYSOmmlFUYfqkBfOd2hemS4vzhp+qOicztJ/ouK9F+6A/AmfT72eZg+uJtf/tmuULv5vg11tj+59Aq9lGfZnmOJvxDpwlVls5Jzer0cm9j1+QexzA4S+u7G42++6DUkq1otQPt/smj3ex2F15nskef7FYJ5fkEMNCEkq5NRU92uB26lapydj1i9l0Av5b/AD9H9x6g8vla1x9P9x6gAAAAAAFTMMNK+EXW0px68y2AODZRdX46Z+q4ohU4t6arXoekI7aKrfzK4y9UBwDJ07Mrol+W51vyeq/Ur2ZZdHjXZCa6SWjAqA2soxNfjok11jxIVbHXR/hfR8AJAYTT2ZkAAABgyANAbNGoAAADBkART2ZWlsWpbMqy2A1AAAAzoBmJkwloZAAhxFk64x7kHNt6ehrR7+TTtSilrwXMCdtLdpeppK6uOqc46rknxM21qyPdltua1UVVcIQXefPdsDaL72jXMr5rhXjcBZh1Lud/TjprzTOpRgMTd4KZJdZcC9TksnxutS8ooDxeG7N4St62udr83ojq4bBUVaRophF/LHVnrKsrwte9fffWb1LkK4VrSEIxXktAPM05dibNqml1lwLtWSzf5tsUukVqdsAVMFgKcK3KGspvh3pci2AAAAAAAAAAAAAAADS2qu1aWQjJeaNwBRsyvDS8MZQfyyK1mV2x/JuUl0mjrgDz88Li63+KpyXy8SF2KL0sjKD+ZaHpjE4RmtJxUl0a1A86pRe0kZOpbleFs2g4PrB6FWeTzi9acR9JoCqYaJbMFjIce5Ga+VleU5VvS2EoPzWgGQaqaezNgAAAjlzKxZlzKwGNBoZMADJr3uOi3LFODxV/5dMknzlwQEJhvQ6tOSWvjbdGPlFal2jKMNXo5qVr+Z8PsBwKq52vSuEpvyWpdpynFWeNRrXzPV/Y9FCEYR7sIqK6JaGQOZTk1EdHbKdj9dEXqcPTStKq4R9ESgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaUlo0mvMACrbl+Gs1bqin1jw/YqWZPH/ZunHyktTqgDg2Zfi6uMVG1fK9H9mVpuyp6W1Th6rQ9OGtdwPIzvho+JBU53S7tUJTl0itT1tmBwtstbMPVJ9e6iauEK492uMYx6JaAedoyjFWaOfdri/6nq/sdCjJcPDT3rlY/XRHUAEVOGppX+FVCHoiUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Connector_20251120_144342.png</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4 inch Tuya Smart Home Multi-functional Panel</t>
+          <t>4-Inch Touch Screen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tuya_4_Inch_Multifunctional_Panel.png</t>
+          <t>4-Inch Touch Screen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAAHAQEAAAAAAAAAAAAAAAECAwQFBggHCf/EAFUQAAEDAgIEBQ4JBwoGAwAAAAEAAgMEEQUGBxIhMRNBUXGzCBQiM1JUYXN0kZKUsdIYJjI1N1NW0dMWIzZCRYGyFRdDRlVyk6Gi8CUnNESEwWJkwv/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABsRAQEAAwEBAQAAAAAAAAAAAAABESExAlFh/9oADAMBAAIRAxEAPwDqlERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERanpWxitwDR9jOJ4XIIq2CJvBvLQ7VJe1t7HZexKDbLjlS45Vwd/Pjnu5/43Ub/wD4+6phpuz0f25Uf6fdQd33HKlxyrhRumzPR/blR/p91Tt0056P7dqP9PuqbTbui45UuOVcNjTNnk/t2o/0+6phpjzyf27UeZvuobdxXHKlxyriAaYc8n9vVHmb7qmGl7PJ/b9T5m+6ht27ccqXHKuJBpczyf2/UeZvuqYaW88n9v1Pmb7qDtm45UuOVcUjSzng/t+o8zfdURpXzx9oKjzN91B2rccqXHKuLBpWzx9oKjzN91TDSpnj7QVHot91B2jccqXHKuMBpSzv9oKj0W/cphpRzv8AaGo9Fv3Kq7NuOVLrjMaUM7faGp9Fv3LP5C0oZsdnLCIMQxWSspJ6hkMsUjW2LXODeTYdt/3KZR1aicS450g6Tc4flpi0FLjVRTU8NRLHHFC8xta1sjmAADfsbtJ4yqV2NdFw1/OPnU/1kxD1h/3p/OHnU/1kxH1mT71Nm3cqLhsaQc6faXEfWZPeURpAzp9pcR9Zk95VXcaLh38v86faTEfWZPeUfy/zp9pMR9Zk95B3Ci4ddpAzqGkjMeIEgd8yfesb/Onnj+3K712T70HeiLhCk0nZ3qKlsRx2uYCCdbryU7v3rJjPmdT/AFkr/WZfeQduIuJPy6zmd+Y6/wBZl95Py4zj9oa/1mX3kTbttFxL+W+cftDXesy+8o/lvnE/1irvWZfeU2bdsouJvy2zj9oq71mX3lM3O+cQRbMVb6zL7ybNu10Xj/U4ZnxfMeB4oMaq5Kp1NK0MfI4ucLl4I1jtI7EEX3XK9gVUREQEREBaJp0+ijMPimdKxb2tE06fRRmHxTOlYg+fGttPOVUa5Wpd2R5ykryIzY2KDINKrMcsDwj+7d51HhZO7f50GxtcqrXLV+Gl+sf6RUeHl+tk9IoNsa5VGuWn8PN9bJ6RUeuJ/rpPSKDc2uVVrlo/XM/10vpFR65qPr5fTKDeg5Thy0Lrqp+vm9Mp13U98TemUHoLXKdpXnnXlV3xN6ZTr2q75m9MoPRg5Thy83FZVn/uZ/8AEKqUtfVsqYiKmY9kNheSN6D0dpWcyRtzrgPlsXSNWvg7Ss7kU/HjAB/92LpGqXiXjubiXBGfNmfMc8qn6eRd78S4Hz7+nuOeVT9PIqrW+GqOvzHq/mrbD4eRZFqkaFOEFQKYKQKYFBUCiFICpgUE+xQ1G9w3zKDidU238SxD2vJJfLJrcfZkIMy1rQdjQDzKqFhKDhmVjQ2R74yDrBzrgchWZBQVApgqYKnBQThRCkCmCCnVOeyFxZ8oKhhMs81O11U3VkNrjk8F/wDe9XqDeEHvHUm/M2P+PZ/FKvel4N1J3zNj/j2fxSL3lAREQEREBaJp0+ijMPimdKxb2tD06fRPmHxUfSsQfPBx7N3OVLKewUHns3c5Urj2KDZMiV2CYdW1U+YI5Z43wmCOKOJr7a5s9/ZbAQzWtx3II3KOP1WBPwqhhw+PhKtr2Nnn1HtcY2wxizbm21/Cndfdtstbiglma8xMc8MF3WF7BR62n1dbgZNXl1TZBvVRNkvWxHUjhsWu634NlQOw1ZNUC57bfgrk9hYG3He5o8SyXDictRDTQQBjJGRtkimewtvKGkC5/OEGLa7sdjtgK8961qPqZeT5BUBTTndFJuv8k7kG8HE8ry8HHNGBDwj2yOjieJXxmWAi5vt7BsoG4j94UlVVZODJYhSxve9t3zU7ZgGuDGbIg52wF2v8sH9wstJEEp1fzb7EgAkWCquw+qaRrQPFxfdxbfuKDac5VOVDFUsy1TAOdMzUkdwl2xhrr21jsudW977th2rJV2M5Sq2cBNQwMpzMJgaaGSN8Y1aUFrbnjDZ73uL2ItdedIg9CrK/JMVZKaWhhmi/PObrtm1SRTHggBcENM1rjwb7JJV5Ilq6h8dLHBD2TWM1ZyDGHu2t7InhS0tsT2Ow3C89RB6G2ryX1jT04hga6RlN1xKYZnOaWvHCapvvLSb2FuIE7Fis41OXpKOOHL8UDSypc9z2xyBzmuhiuAXfqiQS2B27uVaiiDM4POyOlkaySOOYl1y92rcEdib8YBuSOO/GrKd0T8Tc6nFojJduy2y/IrNVKft8f94e1YniT1fTE8Ser6elX2nnWdyGb56y/wCWxfxtWvE9kedZ/IJ+PWX/AC2L+Nq1eNXjutcDZ8/T/HfKp+nkXfK4Fz2f+YGO+V1HTyKqxYUwUgUwQThTAqndUJ3GVr4opSw3s5zd48A5DZBOarXmMVO0PLT2biexb4PCfAoy1JgjL5nQsYN5N7LGV1a3Cn0jGsAp3Bwc0DaN20edXOJR9fYa5kBa7XALTewIQXbqrVdG10kIdJ8gEnsuZRbUa8zomvhMrRcs23AVjUU7pJ6B41fzDru7LwBVYIHMxaWoOrqPjDQb7b7EFzHWNeyR7JYHMj+WQTZvOourmMgbM6aARO2Nfc2Kx9JRvipq6N2peZxLbO33ChLQyyYNBSgM4RhBI1tm8oMzrz/qiE85IU9LVMnDgLtkZsfG75TT/vj3FWmIV0dBSunluQNgaOM8QVCjD6+jpKzX4KptcOaNmrc3aRxhBmwVOCraGVsheGkazDquHIbX9irgoKgURvCkBUwO0IPeepO+Zsf8ez2yL3peC9Sb8zY/49ntkXvSQEREBERAWh6dfonzD4qPpWLfFoenX6J8w+Kj6ViD51ydsfzlSk7FNJ2x/OVIgq09TNTkmCRzL7DbjVeTE62RjmPqZC12wi+wqyRBfjF68XHXLyCLEHcVA4tXFz3GpkJeNVxPGFYogvJcSq5WsbLO5zWEFrTawI5AoHEavX1uHfrWtcf78KtEQEUUQQRRsliggiIgKpT9vj/vD2qmqkHbo/7w9qD0O/ZHnWf0fn495f8ALIv42rXL7TzrYdHpvnzL/lsX8bVLxLyu8FwJnz9P8d8rqOnkXfa4Dz5+n+O+V1HTyKqxYUQpQo3QQme5kTnNtrAbL7rqnAwRxhoJJ3kne48ZKkrZNWmk5bf+1ZMmkcLhzt9vlFBc1tDHWTU75trIrnU7om3+WxXbrahFhbZsWOEkvdO9IpwkvdO9IoL8Nb3I8ymDW9yPMsdryd270igkl7t3pFBkw1vcjzKNm2OwbuRYzhJe7d6RUwkl7t/pFBlZoo6iF0UzQ+NwsQUoIRSUkUAdrCMWBPOsXw0o3Pf6RURPN3b/AEigy7mltSyaPY7Yx47pt/aDtH71egrAwTSmVgc95GsOPwrNhyCsFEbwpAVMN4Qe+dSZ8y4/49ntkXvS8E6kz5lx/wAez2yL3tSAiIqCIiAtD06/RPmHxUfSsW+LQ9Ov0T5h8VH0rEHzql7Y/nKkU8vbHc5UiAq0MD5drRYcpVFZzDmQuMLZ5XRQkDWe1muR4bXF/OgxctLJG2+wgb7K3Wx10dNHNq0dQ+ojt8t8XBm/Ja5WvygCRwG4E2QT0lPJVVUVPA0vmleI2NHG4mwHnK98xvKejTRbHRYZnmlxTHswVEImnZSyGOOAHZsAc3ZcG1ySbXsAQufhsOxbLkvLGN59zLTYXhbZKipeBryyuJbDGNms48TR9wG1Bu2mPR7guCZfwXNuTKqefLuLHUbHObvhfYkC++x1XAg7QWnadi1DRhk2qz1nGiwem1mQuPCVUwHaYW/Kdz8Q8JC9A084/hdFg2A6Ocszdd0eBbaqpbt4WosQQLchc8m3G63EshjDm6HdE7cGhc2PO2Z4hJWkHs6OlO5ngJuRzlx/VCCw6oTI+Vcq4VlyuyjDI2DEHTEyGpdM2RrQzVIvznaFjoavIn81hikbhf8AKH8nOYY+Ak/lH+UuFuHiT5HAaltl/Ba6zWnIAaH9FNiP+gPRRLwlAtc2AVwKV9rkgeBQogDNt5Ni3LCKDBpstYrPV1r2V0fAcG0UxdqXeQbHWF7i3FsQaQ9hY6zhYqMHbo/7w9quK4DVaeO6toe3M/vD2oN8vtPOtj0dG+fcv+WRfxtWrh20862XRwfj7l/yyLpGqXlS8rvVcB58/T/HPK6jp5F34uAs+fp/jvldR08iqsUFbYi97IQI3FpJ2kK4CyOW6OHEM04JSVLQ+CasYx7TuIJ2hBps0kxFnTSOHITsWTy+yCp121lRJTss9wfHBwpLhawtcWHhWxaYMLpMKzQYKGJsURjvZosN60F0hMBiBczsr6zTY8yDZMKjp6iOc1tTJTlkRdGYqbhQ9/Ido1R4VNQsppsOrJampfBUxRh0MbKbhGyu4w51xq/5rW5pTJCyNrns1eNrt+xKiUzalnPYG7w12w86DZ44aR2EVNQ+pkZWRvaI4BTazJGki5Ml+xI5LI+GkGDMqW1T+vjNqOpjTEM1O6El9p3bLLW5qh0ksbwXtDTtYHbHbeNHTuNU2bWk1R/R62zcoNkqIaZmGUdRFUufUyPc2aB1NqtjAvYtffsr8yV8dNDS0MlLUOmkmjLpo30/BiN3I11zrDw7FrYnd11wus8tt2su2DYpopnMqHylz3h25jnbG7eJUbHikVNTS04pKh9Q2SFr3mSn4Ised7QNY3HhVbEaWjp8Vip6StfUUzgwumfRmNzCSQ7sNY61ht3i+5arTzOikkc50kmtu1nfJ5kp5XRRytMkj3P3Oc7a3YoNkxGGGCtnhpKl1RCxw1JjCYXHYD8m5ttWPmmq4wS2rmv4XK3wl5DHRuc95vrF7jcr1qvwHDxoMgxVtLGK50j3Omt2RtIRv5gqNQoZXTUcMjvlPYHG3LZXI3hWOFn/AIdTeLb7FeA7kHvvUlfMuYPHx+2Re+LwLqSfmbMHj4/bIvfVICIioIiIC0PTt9E+YfFR9Kxb4tD07fRNmHxUfSsQfOqXtjucqRTy9sdzlSICuaeqMTdVw1m8XgVsiC9lrbttG0g8pVkiILnDqcVmIU1M6VkImlbGZJDZrLkDWPgF7rrz8nMKy5kN2WtH+cct4ZVVWzEMWqKxhnn2W7DVPY32gdyN20krjpRQesZj0dtyHRwZkps25bxiahqoZG0dNPrvedcHdfaNm3wLO1XVIYzVSulqcr5alkdvdJBI4+cuXhSgg6i0s6UmDRjl8UdNgFVUY3QSMqoWkSGhLo2/IaDdhGsd/IuXiljbdsUEEzHFjg5u8K6FWLbWm/gVmiCpNKZXXOwDcFCLtrOcKRTR9sbzhBuYdtK2bRsfj7gHlkXSNWqNdtW06MjfP+AX78i6Rql5UvK774lwDn39P8c8rqOnkXfy4Az6fj/jvldR08iqsUCrvB8RbhOO4ZiD2l7KWpZM5rd5AO2ysgVCRgkaQUF9pLx+DMmYDWUrXCIMDBrC19vItQNM6+8LKVNJZhfr7rG1vCpNVBjetncoUet3+BZHVUdVBjutn8oUetX+BZENUQ1BjRSv5QputX8oWSDVENQY3rR/KFEUcnKFkrKYBBQoIDDraxG225b9U5spjos/J5zZRUsc62y7SC7Wvfi3rS2DsgOUgK8kohI0tMhAPIEFzhnzfTeLb7FeA7lbwtEcbGN+S0Bo/cqoKD3/AKkj5mzD4+P2yL35eA9SR8z5h8fH7ZF78pAREVBERAWhad/omzD4qPpWLfVoWnf6Jsw+Kj6ViD51y9sdzlSKeXtjucqRARFFBBFGyIJonBkjXOaHNBuWnjVzX1EU8rnRxatwLHk2DZZWaILmgmjp6pskrNdo4uTwqlO9r5CWtDR7VTRBkopoBhEkRkIlLr6tt/8AuyxqioICKKWQQU0fbG84ULKaP5becINoadpW16LzfSBgHlkXSNWoA7Stt0Wn/mDgHlkXSNUvKz65X0AXz+z8fj/jvllR0719AV8/c/n4/wCO+WVHTvVaYkFTAqmCpgUCcF0L2gXcRsHhVi1wcAW7QVkFZ1LGQtkmJIaTd3GAeVBbzTti3tceW3EqrCHNDmm4IuCpHxNkG0nbyKqxoa0NGwAWAQRCiERBMAoqAUUFOWQRtuQT4AowStljD2Xtusd4KjIwPFjf9yp/m6aMAmzb25SSUFzE688bBtcTe3gG8rLgqwpIBE58hvrusNvEBxf+1eAoKoKnBVEFTgoOg+pH+Z8xePj9si9/XP8A1I3zRmLx8ftkXQCAiIgIiIC0LTv9EuYvFR9Kxb6tC07/AES5i8VH0rEHzrl7Y7nKjAAZACoS9sdzlTU/bQgudRvcjzKOo3Z2Ldqit00cY9hWEz1tFjtPAaDEuCinqX0bal8MTXEvDWkgjWB3t2ggHiVGlcGO5HmTUHcjzLboK7LMWI4u11JUPw7rouoDqDheBcSwh23YQw6439k0Kjj82Wpabg8Gp5oJw4O4V5kcCLuuNvFbVtsve+1Bq+o3uR5k4NvcjzKo8AHsXaw5bWUqCXUb3I8yaje5HmUygghqN7keZREYIJDBYb9m5RG9egZQkwODK1fh1dmcUM+PNEU7BROkZSthfrsMrrX7M9xuG/kQefaje5HmTUHcjzLaMKmy2cCZS4g2obiDpXympERLWjVLGs2HWtuedngVXFajK8lHOKCCSOZrHsh7GQEkPfqOJJtexZrX4tg2oNS1G9y3zKZrG3HYt8yjsuohBftctv0VG+kLAfK4ukatKa5bjondfSHgPlcXSNWfXKz65X0GXz7z/wDp9jnllR08i+gi+fWkE/H7HPK6jp5FWmIBUwKpAqYFBVBQ7RY7QpAVMCgs+tnwutB2UJ/UJ2s5vB4FOGSdwfOFdKN0FqGSdwfOFaT0dVJK50dRJG0/qi2z/NZRxsDbesc6Wck2lI8AAQT0lPPE1wle+Yk3BcRs/wA1cakv1Z84VrS1E/XbGPeXtdcG4GzwrLBBZ8HL9WfOFUpKQtkE1QQ6YfJA+Szm8PhVyo3QVApgVTBUwKCoCpgVSBUwKDojqRfmjMfj4/bIugVz91InzRmPx8ftkXQKAiIgIiIC0LTx9EuYvFR9Kxb6tC08fRJmLxUfSsQfOuXtjucqMJDZASbBQk7Y/nKkQX3CM7oJwjO6CsUQX3CN7oJwre6CsUQX3Cs7oJwrO6CsUQXvCs7oJwrO6CskQXvCs7oKPCt7sKxUUF7wre6CiHjlCsgpwUyLsOHKpg4K1a5VGuQXjXLctEhvpDwLyuHpGrR2uW6aITfSJgXlcPSMUvKnrlfQ5fPfSEfj9jnldT08i+hC+emkQ/H3HPLKnp3qqwnCtDtW+1VmlWIhZw4l/Wtb9yuQ5BXBUwKohymDkFYFRBVEOUwKCqCpTFG43LGk8ygXWF1YnESP6E+kgyDI2MN2saD4AqoKx1NX8NMI3RFhIuDe6vdZBUuprqlrJrIKwKiCqQco6yCo+QMaXONgFCGZsoBYbhUZmiSMsduKkpIWU7Gsj+SEHS/Ugm+EZk8fH7ZF0Gueuo++Z8yePi9si6FQEREBERAWs6TMAqc0ZFxfBqCSKOqqogI3Skhtw4Osbbr2tdbMiDimXqZc3kucHUJub2FUPdVE9TPnP6qlPNVMXbiImHEDuppzoDsp6c+EVUah8GrOve0HrUf3ruBFMGL9cQfBqzp3tD61H96fBqzp3tD61H967fRMGL9cQfBqzr3tB61H96fBqzr3tB61H967fRMGL9cQfBqzr3vB61H96iOppzp3vAP/ACo128iYMX64g+DVnXveD1qP71EdTTnQnbBAP/KjXbyJgxfriMdTRnIk3ipx4eumKPwaM5fVU3rTF22iYMfrigdTNnHZtoxz1LfuUw6mXOP1tB6yPdXaqKq4sHUz5xH9LQesj3VtGjjQBmbA85YViOIzUbaSnnZLKWzazrNcHWAA3kgD966rRCzIuWs8dT3mPFM14lX4bW4e+lqaiSaMvmdG4B7y/VcNQi4JIuCupUQcffBuzgP+6wz1x34SfBvzj31hnrbvwl2CiJhx98G/OXfeGetu/DUR1OGcu+8M9bd+GuwEQw5A+DjnLvvDPW3fhp8HLOXfeG+tu/DXX6IYcg/Byzj33hvrbvw1T+DZm3vnDfXHfhrsJEHH7OpszY14cKrDQRuPXbvw1V+Dnm/vzDvW3fhrrtFDH65GHU55t78w31t34au4upszK4XfjGGMPJwsh/8AwurkTBhyp8GvMf8AbeGenL7ij8GvMf8AbeG+nL7i6qRVXKvwbMxceN4b/iS+4ojqbMw/21h3+JL7i6pRB5toS0dT6PcJxCGsrIqmorJWuIhB1GBoNtp2knWJOzkXpKIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//2Q==</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>data\product_images\4-Inch Touch Screen_20251120_200515.png</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Motion Sensor</t>
+          <t>8-Inch Touch Screen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Motion_Sensor.png</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAcCAwQFBggB/8QAVxAAAQMCAgMHDwcIBgkFAAAAAQACAwQRBSEGEjEHExdBUWHSCCI3VVZxdIGRkpOUsbLRFDJSU3KhwRUjM0JDRnPhFiQlNTZjGDREYmSCosLwJkWEo6T/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAlEQEBAAICAgMAAgIDAAAAAAAAAQIRAxIhMRNBUSJhBDKh4fD/2gAMAwEAAhEDEQA/APVKIiAiIgIiICKzWVVPRUz6ismjggjF3ySODWtHOSuOm3V9CIXlr9IaUuBt1jXu9jUHbouE4XdBu38PopOivnC7oN2/h9DJ0UHeIuD4XdBu6CH0UnRThd0G7fw+ik6KDvEXB8LugvdBD6KTopwu6C90EPopOig7xFwfC9oL3QQ+ik6KcL2gvdBD6KTooO8RcHwvaC90EHopOinC9oL3QQeik6KDvEXB8L2gvdBB6KTopwvaCd0MHopOig7xFwXC9oJ3Qweik6KcL+gndDT+ik6KDvUXBcL2gndDT+jk6K+8L2gndDT+jk6KDvEXB8L2gndDT+jk6KcL2gndDT+jk6KDvEXCcLugvdDT+jk6KcLugvdDT+jk6KDu0XCcLmgvdDT+jk6KcLmgvdDTejk6KDu0XCcLmgvdDTejk6K+8LegvdDTejk6KDukXC8LegvdDTeY/opwtaDd0NN5j+ig7pFww3WdBj+8VL5j+iqhur6Dn94qTzX9FB26LRYBpdgGkMhjwbFqSrkAuY45Out9k5reoCIiAiIgIiICIiAiIgIiIPM/VL6QVVTpPBgTZHNoaWFsz4wcnyOvmeWwtbxqGr7FJHVD9lGt8Gg91RsdihKq/OvlzyqQsO3NnVlPDKMUa3fGB1t4va4v9JbSm3HpJmOd+WmCx2fJj0lXvit1qKblDdS1T7jzZJhHJpBHE4nLWpDY+PXWx4B5iP8AEMXqh6StPKtuvCE/Gmd9qmvgGm7oYvVD0k4Bp+6GH1R3SU6RtCiBTVwDT90MPqjukr8W4BO8gf0jgH/w3dNQlB3jRTo/qe6lv7xwepu6atHcAqQf8RQepu6aCD75opu4Aanuip/U3dNOAGq7oqf1N3TQQib8qtjX3zb1tlOXADVd0VN6m7pr5wAVfdHS+pu6aCEs+Upnyqbx1P8AVn946X1N/TVQ6n2s7pKX1N/TQQdnypmpy/0e6zujpfU3dNff9Hqs7o6X1N3TTYg3PlS+anE9T5Wd0dL6m7pqk9T/AFY/eOl9Td002IQJK+XPKptO4DV90VN6m7pr5wA1Y/eKm9Td00EJknlS/OptG4BWH94ab1R3TVwdT1Wkf4ipvU3dNBBpJ50ueVTk/qe6xjbnSSl9Td01g1W4ZU0w67SGlJOxopXX95BDa+3UrO3G6gf+9werO6S4fTTRp+i+KxUUlUypL4RNrtYWWuSLWJPIp0baajq56CshrKKZ8FVC4PjlYbOaRzr3DoZiz8c0UwnE5QBJVUzJHgDLWIzt47rwu7Yvam5L2NtHfA2IOtRERAiIgIiICIiAiIgIiIPJXVD9lGt8Gg91Rqdh7xUk9UR2Ua3waD3VGh2eIqEvSGjQH5LpP4TPdC7HCY9aN+V8wuP0Z/uqj/gs90Lu9HnHeJWmIyMLhcAG4yXHXTPTX4hSNJOS+Ydis1GRFPrSwbAf1m97lHMtxiVI5sZkYHGPj1hYhaJ0W+O1Wi5PEFpx8lx8VTPCZR1NPPHPG2SJwcw7CFfC5emhnopNaORrSdrDmD31vKKtZMdV3WScbT+HKuqaym45bvH2y3BVwv1XWOxfRYhfHNBSxO2xaRIznCsSMsdit08haQL58SzhZ7QQq60tvbC1U1VmGMci+GMcilDE1ULVkloC+EBBYAKvxR64JvZfQ1qrb1odq7bKLExS5pa4NBB41eFtmStTRulpzqPMUjgOvABI8qste6sgdJEZYHdcwb5HmCDa9jt2ZcqrbpbW1zVLn22K3PFqAHWvc7FXTTxTGVrJA+WF2pIB+q6wNj4iFW+MvaC7byJEViNbdXGx3KvNjsrgapFpkQFlVI9sQz28QSeURN4rrRVtYXEhjjntcpk2W6X66vDSQDrP+4LRTyF7iSSSdpKuON8yVjSyNaFpMGdzWnAC5KgfdyP/AKspfA2++9TdU1bWg5qBd2KqjqtKYHRva4NpWtNjex13pl6MLuuFOxe1dyXsbaO+Bs/FeKScl7W3Jexto74GxUaV1qIiIEREBERAREQEREBERB5I6orso1vg0HuqMycj3ipM6orso1vg0HuqMnfNPeKhL0doy7+y6T+Ez3Qu2wSUthks4jMbDbiXC6NH+y6P+Ez3Quxwn9DJ9r8Fx5OiNy2d7nAGRxBPG4rIa0CNzgBfYMlrYj+cb31soSC0tPGqxNZNPhjXxh0kN7m4N9ostViOHyU+sbGzRrBw4l0dDUAU4Y8G7chzhUynXeXEbV1YWSTTnzm/blIcbMA1ak5fT+K2EeMU7gPz0fnhYuk2DwvoaiphO9PY0uc0DrXfAqPYaWO9yxpvzLXLlknpjOO2+0pDEoHfto/PCyYcXja3rZISeQvCjKGkiJ/Rt81bKkoYnOA3ppJy+as7zS/S847PtIDcXc82aIT3nK+ytkflqMJ5jsXP4bhcLAGRRtuc3OstnVz0uEQjrA6Y7GD2lTMvuxOr+tk1z3Z6oHjVD6mGMkSVULTyF4XHVeIVFe5wlkIZxRsNmhYJpItu9t8izvPPqLTjSCyrpybCqiP/ADj4qp8pb11g5vKFHfyWMj9G3yLJw6ebDajfIS4tsQY9YhpUTnn3E9HdtqABe4t5FdjqI5SDG9rr8huuawzFmVZ3mtYxkp2PHzXd8cSrrKGOnjkfHrx3cLhhtq7c8u+r9pZuI1q+W8pq2CffHMkYI47FxuBfnKwZMchZI8Nkgc2+RMg+K5CWijjppaZoAY94c6wsHAA7fKtTUUFK24bDGTyloWXy6+l+m0hjH4frKf0g+K+nSCn1TeenbziQH8VFNRRwNGUUfmhaqrpIrZRR+aFecv8ASOn9pQxDSGlJOtVQgcm+D781qJdI6Fv+0RE/bCjGekjufzTPNCwZqZnFG3yLT5teop8W/dSZU6U0bRlOzzgtHX6Y07biNxkfxNabqPqinBPzR5F8podUCwUzltLxYxvMQxmsryQ9+9xH9Rp2988ajvTL+9I/4I9rl28cLuMLitN26uLRj/Jb7XKe2zWnPFe1tyTsbaO+BsXig8S9sbkvY20d8DYhXWoiKUCIiAiIgIiICIiAiIg8j9UX2Uq3waH3VGbth7xUmdUX2UqzwaH3VGLvmnvFQl6K0azwykz/AGTPdC7HC3BsTmnaTf7lyGi4thtJf6pnuhdZSZLlykrSZVsmH841Z8TlgRAEg8ayozsVOti3bbdUhG8i4O05hXwGO2E35FhUZ/NDxrKat8PTLJi4/FbBK0523orgcLpGyyda57TvbjcEXGS7vSLWOAVrWaxJjyAz4wuE0aH9cN9u9SZH7K36+cbGNy8V1FNo5IYmO+UV5DgD+lZ8Flx4I6Hr3S1p1fpSMI9izoP0TPsj2K+0Lou3Pjp8oqc08BIL3uvlrkXWsq8ImqJHPfNWAuN+tlYAPuW/2Fo5AqnHJZy6a5TfiuHdhr4KiRoklkz/AGjgSObIKplHK97WsYXOJyAW3qKV1TiEoZsBuXHYBfjVw6lPGYqW+eT5TtdzDkC4ubH+dtdHFf4xqJ8PmgfqSNAJzGdwe8V8fS3GTbFbeNxY0wzsL4vonItPKORY1VS7yzfGHfInZB/JzHkKyuP3Gu2sNE7iH3rfYXI6eldBUddKwZE/rN5FoZXv1rBXsMlfFXQvvsNj3kwy65Iym4+19NvbnNZfIaw7y1H9G32L3VlY25vYTs48/orrMTjDZGkD5pI8SsvZk6w2ag2cgK7uDDWVcv8AkZeI5p2jrwwuFZWWAJ/Ts2D/AJVZ/IJd/t1Z57eiunmiLIn5bWEeJURMzOXGu3GOLK3TQwaG1FUzWjrKm17XMoH/AGrnMc0ckoMRiidUVEhDrOa6TWacgRsAUy0wbDCxgtkFxulMYfizXDjePdCymduX9N+kmP8AaHKqjOsbDjVump261jt5ltcSYSTck5rEpGXcF583a9G+m3pKC8DXNZHYjjeL+xRfuoRmLSGFrg0E0zTkQf1ncimqgiHyKPLi/FQ9uxN1NKKYf8G0/wDW9dmWMmErlxytycIV7Z3Jexto74GxeJuRe2NyTsbaO+BsWbWuuRERAiIgIiICIiAiIgIiIPI/VGdlGs8Gh91Rl8FJnVG9lGs8Gh91RlfLxKEpPwrGcVgpYRFWTaoY0AODXAZLf0OlOOa7Wh8D7m3XxAexc/hUZdSw5ZajfYt3S05uCq9dm9OrpMZxh1THGBC65JzfYHabfN/8st/TV+KG2+Q0gH23H8FytPrNLTchw4wtnA95aSZH+cVacWX1VLyY/cd9gk8slPecxA3sAwn77rbNI4lHNO8kZPd5xVclTMwdZK8eNazh/ayvN+R2ukTi3A61zXOa4R3BabEZhcXo3UVklWWVU8sjDC9w1zcHreVa6sxXEY2P1KqUtAzBFx41l6LYlU1dUGTGMsEMlg2MNt1p2WVpJjZNqZW5S3SR2Ab1GR9EK40WCop2E08bhnkqZpxFqh9xrHVGXHa/4K9/FZ481sD89ypcCqRJrMZI3MEWPfVRddZRtWvjc41NTGT1mq51udVENigb1oL5BckjYOZW4v8AXan7Dlca5kkTWPcGObscdhHIVzcv+1bcf+sXJWsmqZYy0EuN2uG0G3sWJK4xUbdTLXLmuy2jJZAMcALmva+S1hq7BzrErXWoYvtu/BZWrxp5ePJIG/nGW5Qvj3XKu0DDJUxtHLdYSbq7cYhmB9kFUMaTrNBPF7F8r3jXePoiyuREFrjc3u0599enw3zXHzz0s1VxA8k/q2Xyjj1pL8QzVGP1DaOhdIQTZuQ5cwB7Vm4NaamZKwfPFzzcy6bdY7cs1ll1XrEcZXOY63+txE/S/wC1dXKwtBJbccy5XSZzYZI3k9brXufsqkvprZraKcReMxfjWNQm7xktXpFXNbNFG2VsbZn3MnGMvxVGB1r3yhr8wDbWvtXnYZy53GPQzlxk3L/7/rykzDx/UosuI+1Qzu2DV0sph/wTPfepko52soaYcb25ecVDG7S/W0rpnHjo2e+9duWXjTmwx87cEvbW5L2NtHfA2LxJde2tyTsbaO+BsWTWuuREUoEREBERAREQEREBERB5F6o7spVfg0PuqMTs8Sk7qj+yjV+DQ+6owJy8ShKaMDgBoac2/Zt9i3kMAyyWBgQaaCl/hM90LPlxWhpGuMsvzcjqgFYdrvw06xltY7kCuNa61sljQRzzQCeSpqWttcBgjAI2gnbY25StphsIq2NNOXTDlAufGtMc8r6Z5YSe1WFStpnvEzHSMIytnY3VyIPfa5NzlmtpBhMuRLGs+0fwCzosOYxoD2iTrgbEWAXRLlrwx6478+nPVUdqaaJvX64sTfIEXVnCNbC5GPlFg5jmAga20LqTh0OrqxQhnKQSFUMGhlLXVIa7V2ZLPH5LjMstbTnjh2uOO9K6PHw5rWtldyfoj8V8xOrdWGDVqC10T9e29mzsrWOaqiocNaBaJ3mq+2moB81jx/yqPnz/AGI+DD15bfCKi8Yie7J/zTz/AM0rKqSB7mOdYj/Lv+K1U+JYThELX19WKeJztVpkIYCdtlnUWK4PjjGCCqgqPova64NtoSZ5a8LXCemKK2SOodKHAkj6Nsu8q3Yu4EAiK52dYM1sZaCjja4vpQPGLLTPpbvDi2gBbe2Tja6wz7W7taYySajK/KUtr6sXmNWNWVz5mta4tAByDQAqTA+2XyDzSgpJpD1jKJ3ea5U1lftbf9MQuuSBxLdYbB8kgdPKLOIyCUeGRUzzUVIj3wgWaxuw8yu1U8bgHPa7UbkGhpKvOPr/ACqN78NVW1QBLb9cTcpFi2qwAy//AFH4rW4jjOj1G18tdUNhaLkueHAADnstb/TbQYBl8Woeuzbd5z+5W47ljuzSvJjjlqVsNJaufEMOlghnYHGxGtEeIg8vMr2CYhUUGHs1pXGMWJDW6waR4+NY0ekGikxIZVUziOK5H4K9FjmjcJJjqqdt9tn7Ve8udvmxScGM8yVnu0j39oYHyaxJPWx8vj2BcxppistTSuipZHCaMGzgy51rc+S3ceMYJVOMNPPHI5wvqRbSPEFiVNDhMkZa2CRl+NrDdPlutbn/ACn4Z+V5jxSvqqPEKgVMTpZC4gCSK2oeM2AsD3ln6KVzmAfm5Ggm5J2KUdJ9zugxiobNFi2IUwtYsEDXg8/EsSPc8oIANStqQ4ZXENvuWU+PDLcu1scOXr0+mXQ4jvtPThgLTG0guvtzuo13WZN80jpSeKjaP+t6kd2GRYWGsFW+U8TXxFv37FGG6ib6QU5Fv9Vb7z1bHPtk0uHXFyN9i9ubknY10d8DYvEN9i9vbknY10d8DYtVK65ERSgREQEREBERAREQEREHkXqkeyjVeDQ+6ouPzfEpQ6pHso1XgsPuqLlCUxYPXNjoae97CNvsCwa2pp3VFdvMTADFtYBkSM9i46FtVVTwwsjlc0tGZcSG+U2XSU+iuIVr2w4dTySOJ66QaoAvtuQ4j71TLHGe6mZX6SY3F6Gl0ZhdLKxhfCOtJFxsGxZp0yhp5oYqWAVEMznmN0b7XsdljYce261GCbnI3tjsZqnO1bHe2G9ss8zxcy7bC8Jw7DwBh9HHrjLfLXPnH8FSZY4eIvZlkt4XX4nU08ZFPnYAukba/OTs8i3VPI+wExY6S+yMHJVMhc/OV5+yMgsyGNsbBqsG3IAKflyvrwp0k9qY2O2luoPKVesBsGauNgm1b6rvLmrTySHBtg5u24S2/aFmP5g7yqurcd97bfbZfbrNKzX0NJiLI466miqI2kuDZG6wB2XSgwbDKJ+tSYfTQkm51GAZ8qvXzHj/AAV1rlaVFjY08rmjVaQWgZAq65zHfOjz5j8ViQfMueNXr860lQqO9jZGfKFQ+VwPW6rPHcoTcZGx5VhSUcjn3FbOB9GzSPYq5ZWekyfrJ1STfWuTxnNaLFcZo8PfJ8qjnJjPXWjvlxHbsPKt5GwsaAXud37LAxvC24hD1uq2dos1x2EcbTzKJq/7IyuUn8UG6WVNbjEVRSvxSgZROL2xN+Qyb41hJsCQ6xNitPhe5PUYi+N9Lj2Hg2a6z4JBbkupKrNzaunqJHw1dHFG43awhx1ea62tLoTiMAiMdXTMkjtZ7dYHZZdnDeOSy1yck5rZZNuIxfcex3Fafe58XwlhDw8akMtuPl761I3BMWvnjmGehkU8YZSYjFG2KukppY9hLC4OHJZZTsPJdcVdWByGS4+8KmeVx8YTbbDHtN5+ERaA7k+J6KaQDEpMQoquPeJIiyJr2OBdq2OeXEu/mD4nasjXMPOLLqY2arQLk24yqJmNe0te0ObyEXWXLhMvP2248uvhxz3daFiSuXSVuEQyC8LjE7mzHkXPV+HVlOCTHvjB+tHn921ctxsdMsrmNKJetg+2fdChfdIfr45Af+GaP+pylrSeQlsI/wB8+wKHt0A3xmHwdvvOV+L2ryenN8i9v7knY10c8DYvD19i9w7kfY10c8DYulhXXIiKUCIiAiIgIiICIiAiIg8idUn2UanwWH3VFbjZpPICpS6pXso1PgsPuqKnn827vFQl6Z0X0Pwmnwujqalm/PfDG874etBLQdnjXX05axgjooQ1g2WGq0LC0ap2OwbD3PJe4U0WZ+wFvWADYLLktt9t5qLcVNrZzu1zycQ8Sy26rG8QAWMZhrasY138dtg75VTWXOtKdYjYOIeJQVfbIX/MyH0iPYFlxOLGMc0m7TtKwi8NBc4gAbSVVDMTnYgch41MulLG035m9F7g08xbx9/b41rMRxAQsfK9zb24+TnVivxCnpWOdIcwLnmXHV9bJiD3BzS2InZxnvqM+TSJG4ZpA4NAJpcv98/FVf0gPLS+efiufjpYsrtV4UkJ/UCy+TJOo3f9IDe96Xz/AOaqbpAeWl9J/NaT5FD9Wqm0cX0E+TI1HW/lMsoYZ3vcGyAfo8xcqn8q3AO+T5i+xYDmj8jUbOIBg9qqEDi1pDSRYK3a1OtM78qG2Us3kVcda9zS8zSBjeXJYG8Ot8wq9JHdsEYyv7bqN1aeWV+U7D9JL4mhUyYi62s2WUjmH4LLjw6B0Gx+ed+NayeBsc5YwktsTnzX+CnLtPacdVV+VnD9rMvhxhw/azrCewAkchVBYFl3v60mMZxxpw/a1HkVBx1w/bVHkWC6MK06IJ8mX6nrPxsDpAR+2qfJ/NW3aRf5tT5P5rWPiHIFjSRcyj5Mv1PWfjaS6TNZtlqvN/msdmlccj9VktXe9vm/zWnqIrjYrOGU43/WI2OJ+9TM7+p6x80/kD/kTnG8ji8m+0iw2qDdPSDjMVvqB7zlOOmzA99IeRr/AGhQdugM1MaiH+QPecurgu6w5ZqObvkF7i3I+xro54GxeGxxL3JuR9jTRzwNi6nPXXIiKUCIiAiIgIiICIiAiIg8g9UvluoVHgsPuqKHnrHd4qVuqay3UJvBIfYomeesd3ioS9f6O1DY8EoNY9caaKzRmT1gW2aJJs5PzbD+qDme+Vp9GHRjBqE9brfJos75/MC3Ilb9JvlC426+wNY0NaAByBfJJWxgXuSdgG0rGkqmtOqwtc/v5DvpG9jSXOka552uJH/lkGQ0Fzg+WxI2NGxvxKw8SxJlK14DrEbXcnN31h4tjEdNG5rHgEbXA7OYc65SardUv1nkBo2Nvs/mqZXXpGts2pq31UoL7ho2NPF/NfWPtsCxmSRgDZ5VW2ZvEQqTC3zRlseb7FksOS17ZQeNXxPZWmCGYJAqt85isL5QRsT5QSVbpEOivfDaUfZ/FVLFjlDsOpM+Jv4q6H7Flk1kXslWH6zA0mxbsKxtfJfNdU2vpsflNU3IPf8AcrL5CC50jtZ7hZYxkPOrbn5pcqmRcLr5naqS5Wi/vqkvULaXSVQ4q2XqkyKEvrlZeFUXq25yJWJm5FU0bA255T+KrlNwVTASANu1INbpgeupvsv9oUHbop/tuHwce85TRphLnTbfmv8AaFCm6A7WxiE/5A95y7uD6c3M5oHYvcu5H2NNHPA2LwyOJe5tyPsaaOeBsXU5665ERSgREQEREBERAREQEREHkTqoIns3Sy9zSGyUcRaeXaPwUQFe1N2Lc0g0+w+CSnmbS4tSgiGV4u17TtY62dr5g8S891W4bpzDKWswyGZo2PjqWWPlIRKL7L4pK4E9O+0o9Zi6ScCennaUesxdJQI0QqSuBLTztKPWYukh3EtPO0o9Zi6SCNeVLm6krgS087Sj1mLpJwJaedpR6zF0kEa3OWZ8qqDnfSPlUkcCWnnaUesxdJBuJ6edpR6zF0kEb67vpO8qq3x/03eUqRuBPTztIPWYuknApp52kHrMXSQRzvj/AKb/ADim+SfTf5xUi8CunnaP/wDTF0l84FtPO0Z9Yi6SCO99k+sk84r6JpfrZPPKkM7i+nnaM+sR9JU8DGnfaJ3p4+kmhH2/zZfnpfPKb/N9dL55+KkDgZ077RP9NH0k4GtOu0Mnpo+kmhH+/wA310vnn4pv8310vnn4qQOBvTrtDJ6aP4r5wN6ddoZPSx/FNDgN+m+ul88/FN+mv+ll88rv+BzTrtDL6VnxTgc06v8A3DL6VnxQcAZpvrZfPPxVO/TfWy+efipBO45p1l/YMvpWfFfOBzTrtDL6VnxQR+ZpvrZfPPxX3fpfrZfPK7/gc06t/cMvpWfFOBzTrtDL6VnxQR+ZpfrZfPK+iaX62Xzyu+4HNOu0MvpWfFfeBzTrtDL6VnxQcBv0tx+dk88oXOdYuJJ5zdd/wOadX/uGX0rPivrdxzTrtDJ6VnxQcC0r3ZuVQvg3OdHY5WlrxRRmx5xf8VAmge4FjVVicM+lm90OHxuDnwskD5Zbfq5ZNHOvUUEMdPBHDCwMijaGMaNjQBYAKUK0REBERAREQEREBERAREQEREBERAREQEREBERAREQERECyWRECyWRECyWRECyWRECyWRECyWRECyWRECyWREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/Z</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>data\product_images\8-Inch Touch Screen_20251120_201451.png</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Smart curtain kit include ZigBee motor</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Smart_Curtain_Kit_ZigBee.png</t>
-        </is>
-      </c>
+          <t>Smart Curtains</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1250</v>
+        <v>130</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAwQGBwIICf/EAD8QAAICAQIEAwMJBQgCAwAAAAABAgMEBREGEiExE0FRImFxBxQyQoGRocHwCCNisdEVJDNDUnKS4YKiJTRT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAeEQEBAAICAwEBAAAAAAAAAAAAAQIRITESQVEDYf/aAAwDAQACEQMRAD8A+qQAAAAAAAAAAAAAAAAAAAMHVNWw9L8D57cq3fYq61s25NvbsviOhnFJPb4lSN13VcbRtIy9TzpcuPjVuctu79Eve3sl72iUaF8r2rX5lmDwhpD5s3UpRlkbP6NO/SL9OZp7/wAMZepuOFi4vCnDFWPTt4eNXsn2dk33b+L6ml/JNpeTqebqHGGsw/vufNqiL6+HDt09ySUF7k/U23K/+a16GKuuHhvnt9JT9Py+8n8Vm8M4c6MOWRk9crKfiTb7rfsiYANIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAs52VVhYluTkSUKqo80mc64ZhfxjxTZrWYpLTsOW1EH2lLyXwXd+/YmvlXldDhKc6KZ3RjdDxIw3+h1TfT7CP4B4x0ieLh6TXRZh2/QhGXtKcn3e/q2csrvKStTpv835HJflAybuMOMsLhHTptYmLNX51keymluk/9sXv/ulH0N3434ir4a4dytRmlK//AA8et/5lsvor4eb9yZBfJFw9Zpmiz1PPcrNT1Ju6yyf0uVvdb++Tbk/ivQ3/AFltGp31aHosKsSChyxVOPWvLpsvuRf4e0/+z9PjGfW+z27X/E/L7CNxF/bOvyyH1w8N8tfpKfr+f3GyifVAAaQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZo+v16dgatbqtWFRD5hW3KUIpO+5reMfTp3b9djd5PlTbOT8XaTlX8TYWl0ZNixc5ZF1zS+j7XVt790p7J9PIzksa5wzXqXHnEOnV6xC1afhRnl2xmmlN2Tb3T7PfpBbeSkde4hzJY+HDGxl/ecl+HXGPkvP+he0ymnDw6qaYqrForUIR8oQiuhh6FB6nqd2q2p+FD93jp+S9f16sk+CY0nChp+BVjw2bit5P1l5szADaB4snytJdz2+hRL17kotqx+ZVW+qPfKn5I8yrXl0Juj0pp+ZUtODRj4uUrM+/Hj2rhGTfvbZZRmgAoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABScuVe8CxlWqK2XfyNTsx9Su4prlC6UNMhQ5TjsmrLHLbZeafm36bIm8izxb/AGH02239PU9SsrxqLMm3pXCO/wBnocrzVR2uWWWfN9KxX+/yWud/6Y/r8EbFh48MTFqoqW0K48q/qQnC+NO6V2q5S/fZD/dp/Vh+v5Gwm8YUAD6I0ij6sqUXYqZAsX188lKNllcl0Ti+n2rsy+UIMSzJnjRbykvD/wD1iun2ryI7h2c7czNulDaE+X2vV9fyaK8T5vgY8aYP2pPd/BHngXDswuF8KGQtr7E7rF75ty/MTtU8ADaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYeo5UMTEvyrY2SrprlY41wc5ySW7UYrq306JdzJtkoxe72Xma3xPl5On4ssyqt5NO8I+FCPOpJySlv1XL07MzlVjnPyHatrXGeXr/EWqq7G063KnVjYr6Jbbezt/Als35ylI6Hqu+p6rTpNLfhQfiZEl5L0/XqYuNqn9l0WSnkxvhY5zrrb3lW+6Tfd+9vr3JnhXAnjYUsnJ3eXlPxLG+6Xkvz+0k5E1CEa4RhBKMYrZJeSKgG0Cj6v4FW9kUJRUoVKMgIpZJQi5SeyS3Z6IfiLKVOL4aftWdPsIqDsUtX1mNfXklLeXugv1+JucUoxSitkuiRBcKYnJRZlzXtWvaP+1f1ZPGsYUABUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADey3YMbMvVUG/Ty9WS3QxdSyseEJwyrJVVuO87E9uRerfoaplxvjxBdXODsw50wgqqXsrWnvzd+/ZfnsX9dveovUMCFdmPnRrVFkd1KORXNdUuvRrr18vemYV7ysPSqaFdDmpnGtQcd7ZyS9nt09+/U5qytKwv7T1hVTx4VY2LLnsXKt9/qwb93ob0RvD+nf2bp0Kp9b5e3bL1k+5JHSTSAAb2RRTuwEuhUyAYAFG9k2zUM6UtT1SNVb6Slyp+kfNk9rmV83w5JP25+yvzMHhbF/xMua6y9iHw83+vQndVPVVxqqhXBbQilFL0R6ANoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAW7Z8q6dwIrXOIsPSNQ0zBu555eo3KmqutbuPrOXpFdt/VpGvfKNxRhcM6LTk504qWTkQxqa5f5k5Prv7kk2/d8SA4yyMqri1W1SlDHSxsudjSf+FKaUI7+ra7dOrbNc1fhu35QvlI0PJ1u9S07SptTwKUp1NpKbfNv5vkUt/JbLucrlLdNadE0nEy9TjTqs8u7FhbWpU1KKTrrcV0bfk3vLZ9tz3wzgRztZtznZZdi48tq52Pd2T2+l6dP6GdxHk3Sxa8TGrmrsuXhp8rSS8+v66bk7peFXp+DTjVfRrjs36vzZqRKygAbQKd2VfYovIlFQAQA3sgYOr5XzbEk0/bl0QEBq108/UI01Pfd8kfzZtONTHHx66ofRhFJEBwxi+JdZlzXSPsQ+PmzYxjFoAap8o3H2h/J9o9eo8Q3WxhbZ4VNVMOey2W275Vuuy6ttpfejSNrBzHhb5dOAOIpxrq1yvAyJPZVahF47/5P2f8A2OlY99WRTC7HthbVNbxnCSlFr3NdALgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUnJQi5SaUUt235AY+o5tOBjO6+cIJtQjzPZOTeyX3mm6VrOZq/Emr4+kc1+JgWRrvunNKErWt5Vw6d0tm/TdGt8Za3fq+oNU8nzGptVqW/X+Lb1ff4bLp1I3S9bztI03I0/TJwoot55ezBc0ZS6uSfrv6nny/WbdJjdMX5RPlOi5x0nSqMfEzKc94+RdmShOiMU9uj8ovfr22SOrcM6bpuHhVz0ueNbXfCLdmPNOuS7vkSbSi317s+aLeA45/EtM8rOqq07Iuj85s5ZKcK19LZLfeT2239+59BQv0mF1ctDx8aOBp+Ot5VwcYub9mquPbttu/sNSy8xnVie1PU/B1TTsKuXtW2pz90euy+1/wAicOY6RLJ1HiXDbnKycZqcpSfaMf1+J046YpQApJ7I0h3YKIqZFSnmCqAN7I1XW75ZWaqaur35Ir1bJ/U8hY2JOf1uy+JDcO47vy55U+sa+kf9z/6/mS88LE9hY8cXFrph2gtt/V+bLwBtA+F/2ruMlxL8pFmm4s+bB0SLxY7PpK5ve1/ftH/xPsX5RNcyOHODNV1LAxbszPqpaxcemuVkrLX0guVJtrdpv3Jn5t6rVm1ahetUrvrzJTcrY3wcZuTe7bT677gYhOcN8W6/wzcrNA1jO0977uNFzjGXxj2f2ogz3Ut5ptbpdWB9lfsy/K3r3G+qahoXEzqysjGxllV5kK1XJpSjFxml7L+kmmkvM+hT53/Y14V+YcH6jxJk17ZGq3eFTJr/ACa21uvjNy/4o+iAAAAAAAAAAAAAAAAAAAAAAAAAAAAGpfKBqjx8KODTLazIW82vKH/fb7zbWcV4yys/Vrs67S8mijKlPkpsvrdkIRT26xTXkn9rOf6XU01jOWs6vn5NWu42HjzrjW8O/JnCUd5Wyi1GMU/JLdye3XoYNGdkU63ZixlbkcqjJyknyy3SfT6uz322js1vvvLZm0vDsjTRbkQVk4x5Ff4fKnLb2uX032fTf3eRhyjRXkRhzVQunu4x3SlL12Xd/YefevToi+GnnT0+2WdK9T+cXKp39bFVztR3e3p2e3vOjWVvTdDxcOT/AH1n94u9U39FP4IjOGtOhkZTyspf3PG2nP8Ajl5RRLU12a1rldU/82fNZt5RXf8ADodMJ7Zy+Nk4F035vhTzbY7W5H0d/KC7ff3+42gpCMYQjGCSjFbJLyRg65qmPo2m25uY5qivbmcI8zW727HfqObPPDe7IrTOINN1OKWHnVTnLtBvln/xezJJucfqp/B7P8SWi4ipa8WKe0t4v+JbfiXUQCq6IGPn5Cxsadj8l0+JehA8Q5TtvVMOqj02Xm2Tum4yxMOur6yW8n6vzIDQ6Hl6i77OsanzN+sn2/qbQMfq0ADeybfZGkWrG3PZPbb+ZCapw9g69TPG4l07TdTx9toO6hSf49vimSeRXdbBOm7wZ77t8vMn07P9eRdo8Two+O4O3b2nDt9m5hXDOMv2cuBM795gX5WgXWS2gqrfEqcv9k939ikji/Gn7O3FXD9cbtKtxdbwrbIVqzH3hZBSkkpSrflu1u4t7d+x9r3vHun82u8Ocmubw5dXt16/zFFNcJVU1QjCqpdIxWySXZFlRi8JaJj8N8M6Zo2Gl4GDjwoi9tublWzk/e3u/tJYA0AAAAAAAAAAAAAAAAAAAAAAAAAAAwdbyJY2mX2VyjGzlag5tJcz7bt9O/qc+vuw7eutafPFyGutta5G/f6S+9nQdcxvnmk5dCW8pVvl+K6r8Ucsw9RyMePLXY/D7uuaUo/8X0OebUZWo8K75aliX123qEW67GoWcveKb27eez2RF1cI2Zut4+Rbpajm0xdcMq2vfwovvtLfb17EpfdjZ+ZLJyJ34+TPbmnX7cG/XlfVfYySlqddFWPp8cqWRkXRlOVjjs3FfVW/Xb49+vkY8Yu68506cfHrwsP/AOvT9b/XLzkya4F09xV2fYvp/u6/hv1f3/yIXT8GzUs2FEN1HvOX+mPmdEoqhRTCqqKjXBKMUvJHTGM17IDj6nx+D9Vhtu/Bcvu6k+YWuUrI0bOqf16Jr/1Zq9JHz74VeXgwhfFThOC3T+BM6NrGo6TTGrD1DKVUekYWWOxJem0tzWqc1VUxhOMk47x3a2T2ZS/Vqqq3NuUklvtBcz2777L3HONOm4fyj2YlMpatRVZVCLlKyt8ktkt30fR/gbVw7xVo2vVp6dl+Df05se1ck4trfZxfTf4HzLqOp063SvCrWRpsbVXK+C525uLa5F5pdN2mn16Elo1mVTpuRjSnKyNkt1Y9vE2fST383t2b2ZJlzo1w+qPElD/EXT/VH815GucSZvPYqIPdR6vbzZzvhPizV9NyIV5OS8nBlJQ8CxbutPbZxnvutvR77+43rRqHn6u52LeFcnZL7+i+/wDka3tGyaNifNMCuEltZL2p/FmcAdEC1e+iivPv8C6Y0nzyl32fRNPqSi26peMpxusgt1zQaTTX5F6yarrlOX0Ypt7dehj4GPPGjONmVdkbv2fF23S/X5HvMyqMOtW5E/Dhvtvt7m/yZlXjDysbMXi0NSlFLm3jtKO632f9DJxo+y5vvJ/gWnJTrjKpxkrNmpLz38zLilGKS7LoWAADSAAAAAAAAAAAAAAAAAAAAAAAAAAAGja5wRK2+3I0rIjBzbk6bF7O/ua7G8glmzbjOZgahps3HOxbakvr7bwf/kuhlaTRXl5tV1cZ2ZcK5U1JPptJ9X/NfazrjSaaaTT7pmLj6fh4187sfGpqtn9KUIJNmfFrazommw03EUOkrZdbJer9PgiQANsgAAh9R4c03PhJWY0It+cV+XY5xxh8mePRpWVk4DjU6oSs5odN9l2a9PLodfPF9NeRTOq+EbKprllGS3TXozNxlWV8qy0nKxsLGxtOw7pYOHzRlZVDdStf+JLp12T9lP0iWaMiVctpfS3S2fR7t7JdT6nel4LxYY/zSlUwXLCMYpKK923Y17VeBdNzpKe20l2c0pNfCXdfeZ8bF3txPAyYztcG4qyEkmlLf7vU+geGMZ06e7ZLad0uf37eX695zm75JOXUIzovcKnNSfK/o9d33/SOuwioRUY9Elsi479pVQAbR4ulywe3d9EWorboLZJ27f6SqZmq9d+5SUU1s9mvRrdDcNkFK1vaui2ivIvluhbV7vvLqXDUQABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABB61i6tHK+daTZTZFxSnj3dN2vNPyI+rieOPYqtZxL8C3tvOPNB/Bo2wt301ZFbrvrhZW+8Zx3TM2LtjYuXRlVqzHthbB/WhLdFyW0nGK+s/wILL4QxPFd2mX3afd61Sbj93/AGSWjaflYnNPOzp5drXKt48sYr4evvJqiUABtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//2Q==</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Curtains_20251120_201507.png</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gateway</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gateway.png</t>
-        </is>
-      </c>
+          <t>Water Leak</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAwQHAgEI/8QARBAAAQQCAAQDBQUGAwcCBwAAAQACAwQFEQYSITETQWEUIlFxgQcyQlKRFRYjYoKhQ3KxJDNEU5LB0WOyFyU0k8Lj8f/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EAC4RAAIBAgQBDQEBAQEAAAAAAAABAgMREiEx8EEEEyIyUWFxgZGhscHR4fEjQv/aAAwDAQACEQMRAD8A/VKIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIo7L5vGYZjXZS/Xqh33RI8BzvkO5+ihTxfLbbvB4HK3mntLJGKsRHx5pCDr5BaRpTkrpZexVzSyLWioUnFmWLiHHhmid65JsmZnj05WN7/VYP3mzHUPzGABB/wAOjZeP15lquSz3/CvOxOiIudfvTmWDmOX4Uc0joJhPXP6kn/RSNLinNSMLv2JUyMY6mTFZKObp/ldylQ+SzWeXx82CqxZdEVXg45w3jsr5F9jE2XHQiyMLoN/Jx90/QqzRyMlja+N7XscNhzTsH5FZTpyh1lYupKWjPSIioSEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAERQnEOcOPfFSx8IuZiyCYKodoAecjz+Fg8z59hsq0YubsiG0ldm3m8zRwlT2jITCNpPKxgBc+R35WNHVx9Aqjkcrmsk5jZpJMFVlG46sLBNkZx8Q3q2MevXXmQvuExlm7kJLjbHtd47jlzEjByRfGKow9AB2Lz0+PMegtGFrYyo+zBj3xyWY3AWnGTxJS4jY8Rx67I69founoUe973n7Gec+5Ffw/Cz4JPHq14cbMXbdan1buyfN7ttb8hzKabwzj3u573j5CT43JnSD/o+6PoFp8a2/FpT47GXo4s/HG29Wr+Jyul8N29a82nlLT81o/8AxM4ZZi6tqXIN8WeMPFWNpkladdWlo7EHp1U2rVFijfy3oR0IuzLdVp1qjOSpXhgZ+WNgaP7LOuYcR8T8R57EyHhPBZaCu07dYk5YJJOh1yNPUjeidfLzW9js/wAdvowePwlA6YtHNI662PZ+Jb1Lfkqvks7Ym1fxVyVVjeyT9DoJAI0eo9VF3OHsRc2bGNqOefxiINd/1DRVFiv8dyxxY+XDz1i9scLrjbEcnI4ybfL8dcuwB5Lo1i5BXsV4JX6msEiNgGy7Q2T8gO5/8qk6cqLVn6P8JjJT1XqQlnhp7YXR0MjMID3q3QLcBHw0/wB4D5OVUnxU3DrjNVdYwB3sy1N2cc8/+pEfej38RoD4q7U7jK+ftY61lBPbnb7XBWMQaYoRpugR973vj16reyt2PG42zcnZK+KCMyObEwveQPg0dyrxrTi8Lzv7/vnchwi89Cs4/jB1aSCvxPXjpmcgQX4H+JTsb7cr/wABPwd+pVwBBAIOwfNUyLGUMnRlu8KWKr605IsUnDmqzn8TXs/w3+oAO+4Kg8TkbPDEk4pR25sRW17Zipjz2ccD+OI/4kPftvp28wrSoxqXwZPs3p8eGhCm49bQ6eiwULlfIU4bdKZk9aZofHIw7DgfMLOuNq2TNgiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIvE80deCSaZ7WRRtL3vcdBoA2SUBF8TZn9kU2eBCbWQsv8GpVadGWQ+vk0DqT5AKu4HDyW5LTZrDpzK/WTvt211uQf4EZ/DEzsdeo78xWtjTazuSGRd4kNnIxltXydSog9X9e0kp1r4dPylWTiTIN4U4Unt0qHjxUo2htdjuXTdgd+vQd12WdO1OPWe99+fYY3xdJ6Il5oIhRfA1hbD4ZYGQ+6Q3WtN126dtLnHEuU4Xp8IsxuHkkfcttaakVBxNp0rfuucR73MCOpd17hSfCnHNnK59mHyWJdTuuifI+NrnOdX5daEgLQBzAggglWejw/iKGSsZCnjqsN2ckyTMjAc4nv19fP4qIp8nlarftVnqH/ANF0Sn5L2u/juGq9ul4nFMU1aWWRsezXa1wMj3PA00FoII31LtaKtdTD4PBeNbgp0aRe4vkm5Wt6k76uP+iSZKe/JJXwoY4NPLJckG4mHzDR+Nw9DoeZ8lkrYKoycWbfNduDtPZPOW/5R91n9ICrOplZ5d2+BKjndZmI8Q15APYKt6/vsYIDyn+t2m/3Xk5PLOd/DwEwbrvJaiaf7ErT4ny96CyKtBr4W80bDP4PO6SSQkNZGDpvQAlzidAa6ErNwPetZDDyWbtuO0TM9jXscxwAaeUjmYAD1B8to4KMMdlbz/gxXeG5mGWyMezZwFsNHnDNFJ/bmBVa4mezKZjG3sXljhs3UD2MiyMD2RytfrbSHaB7D7pP+i6CNEdOyx2IIrETorETJYnDTmPaHNPzBVYVVCWJLfncmUG1a5SchwVfzNlmUyGbkqZyKMRQTY5pjjibskjlcSXb2d7IUddy3G9CCTC2qLbN+0PBpZam3+GHfmlaejdDZ+nQFWt2Bmx7vE4etuqgdTTm3JXd6Ad2fNp16Fa9m9fykfstKYYjO1yJDXss8WOVnY61rnYfzN0QdbA7LeNVvWzS7Vp6cPVFHC2l0/k2MLmsT+0XYevZbJkWtc+ZzYSxsr26EjubXK529b0ei2c9hhkRFZqy+y5Ovs17LRvl33a4fiYfNv1GiAVzqXB5jgPJu4mYYsnVkMhvVYIywV2vcHOdCCT02Bvz6denbqGIyVXL42vfx8rZqs7eZjx5/wDg+WlStBU2qlJ3Xb39hMJYrxkszn2OyTuGrti22D2bGmYMy1BpJFGV3axH8Yn9zr59wQumMc17GuY4Oa4bBB2CFX+KsW+XlydKBs1uBhjlgI6W65+/Cfj8W/A+hKiOA7rcfZ/YPjGag+L2vEzuO+eue8ZP5oydfHRHwSolWhjWq13vLwYi8DwvQvCIi5DYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAKpccTsuTUcCZOSG1zWbzuwZVi0X7PlzHlb8iVbVzyE/trOZOffM27dbjI9+VauC6XXo5/M36hdHJ49JyfDf98jOo8rdpauGa7vZ5MhYZyWLxEnJ/y4wNRx+mm+XxLlrfaBla+I4SyE1qH2gSsNeOD/nPf7ob9d/orCSA3Z6ALivEPCeRx2fl4mrXI8jj6U4ugTTmQykvH8IN7AtG9Hz2O2lfk8Y1al5u333FajcI2SOgfZ1wz+7uDYbhdLl7TWyXJ3uLnOfro3Z8mjp+pUjZfJmLctOFzo6EJ5LErDoyu84mnyH5j9B13rNm7ckcMNWo7luXHeFEfNg1tz/6Rs/PQ81u0asVKpFWrt5Yo28oHc/MnzJ7k+ZWU5uTdSWr3/hdRSWFaGSGKOCJkULGxxsAa1jRoNA7ABe0XmR7Y43PkcGsaCS4nQA+Kx1LlS+0bi1/C1SiIIonWb03gxyzkiKHtt79ddDfYevwXH+IOJK2OszULPtGWlrzuEkDx7JRYd7dyQsIL97PVx9dHa6TjK8v2i4nOyZN3LhbM3Ji/cHNHyAjxgfU+XoQuQ8R4u0102Gykf8A8+x7NRyDZ9rrgHQ35uaOrT5tBb3aF7vIadOLwS6y133aM4K8pPpLR6HUuHeJIcTxBmIa9Z1fh6vZZDMwu2KrntHLKB5RuPQjs06PmV1IEEAjqCuJfZdagtcaXK8/hywZXDV5Xxu6h7msa1wI8/xLoOCml4cyUeAvyOfSl3+zLLzslo6mBx/M0fdPm31C4uWUlistUl55Z+a+DajPLPQti0cvjIMnA1spdHNG7nhnjOnxP/M0/wDbsR0Owt5FwJtO6Ohq+pBUMjbmrXaFiKD9tVoz7jiWxTgg8kg7kMcRo9yCCOvTfOaz5eEcxj7UZyGJwOTtGK9VdG3krWB+QuB1G4+Y7tHy10niatMIYslQaXXqJMjWN7zR/ji/qA6fzBpX3M4+jxZwxLVkIkp3oQ5jwO2xtrh6joV10qsYarovXfujKUG9NVoSVy3XpVX2Lk8cEDNc0kjg1o2dDr8yFz3imhNjrU7ce3Viq52ZxgHTbgf9pgHo4O3r+c/BT3CODy1erD+8t6Oy+Ku2qytDvweVv43g/eedDr2GlucZMMONiycbdy4yVtrp3MY6SD6sLv0CrTap1MKd/jfb3EyTlG7yJXFXocnjKt6q7mgsxNlYfRw2tpVH7PyKLsxgwdx4+0X1+vTwJR4jNegJcPorcsasFCbS0+uBeDurhERZlgiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA1crbFDGW7jhtteF8pH+VpP/ZU/7P6xjbjI3kF9fGNnkGu0tl5e76+5/dS/2jSiHgTPOI2DTkb+o1/3XrhmIR5PLtBGoTXrjQ7BsLT/APmumGVFvt+rfplLOa3vQ2eLsKeIMDYxwsPrmXR5mk6OjvldrqWnsVVvs6x8eDwcXD+XoWorIndM6SSPmgmk59tLHt2PwtIDtHp2XQUVI1pKm6fDXzLOCcsXEhqLTb4iv2nEOjrNbUiAPYkB8h+u2D+lTKiOFSJMR440TYmmmJHnzSOI/tpS6pU61uwmOlwqL9pd+e46hwpi3Obey7uWZ7f8GsPvuPzGx+qu1iVsEEkz+bkjaXHlGzoDfQeao/2cULV67kuK8vBJDcyLuSvDK3ToK7T7rdHtvv8AQfFa0LRvVfDTx4fpWpn0Fx+CTmz+L4ZyWM4bjq2gXVS+Hwo+ZrWMa7oeu9+4fLuR8VXM/jIPtL4Xiy+Kgs0MtVe72V8w8N5LT90keR6EHyP1VnzuByV/ifFZGnl5KlSq1zZqzQdTb3668/P4LNwVgbPD2JfTuZSfJvdK6QSzA7AIHu9SenQn6rVVIU4qpB9Pz77/AEUcZSbjJZHKuBLFnM8d4W6yvDXyOOhfSyVUARFrQHAShvTpsgEDsdeRC7LnMXXzONlp2g4NdpzXsOnxvHVr2nycD1BVF+0fhO4zIw8VcKhzMzVIMsUbd+O3tvXmddCPMeoCksTxdmM7RgGK4dsw2nDU0t8mGCJ3no/ef9B+i1r3rYa1LJL24/4Vp9C8Jf6S/CeUtWRaxmXDRl8eWsmc0abM0/clb6OA6jyIIVgUJgMLNStWshkrYt5O01jJJGR+HGxjdlrGN69AXHqSSVNrhq4XJ4TeF7ZhQfDIFSbJYsdGVZ+eEfCKQc4A9A4vb9FOKEG4uNCAfdsUNkescn/7EhmmhLVMm1jswss15YJmh0crSxwPmCNFVvj/AIsi4VxD5jHJJbkaRXb4Tixzx5OcOg/VSHCufg4kxLMhTr2YYHnTTOzl5td9deo3036KeamoKrbIjHFyw8SpcJzPr8S4Yyf8Zin1JD+aWrJy7P0c5dFXN2vbDxVhCN/w81egHoHxOef76XSFpyrVPtX2/orS0aCIi5jUIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKv8Aad04Bzh+FZx/uFtcOuBy+f1+KzE8fI14/wDwVn4vqm9wrmKrRt0tSVg6eZYdKE4Esiefxtg+24ylaBB7nlcx36aauqOdB77PwyfXW+09537QcFhszWoWbkLg8yNnkY7m9nLQNBwAPc7CtNSwy3VisQ8/hytD287S06PbYPUfVVbijgPG8RZY5C5JNFO2ERxOg00scHE85P4j2Gj06K2sBaxoc7mcANnWtn4qlXmsEebvfiTHHd4tCI4NdzcNUNjRDC0g+RDiD/ot9mQpvvyUmW67rkbeZ8AkBe0fEt7qP4YcY2ZGm4Brqt2UAfyvPiN/s/8AsuVZ/DZCz9p/El7CSujzGOjguVmAbEzSwNcw/Mf+PNa06Ma1Sd3bj7q3yVlNwirK516fOYyuy+6a9A1tAA2vf/3II2Ob4dFBwfaJwvYtR16+T8aWR7Y2iOCRwLidDqG67rmWOy0fEdL7R7VeE1xYpRTOjc7Za5rSHf3BUnwZxXHUxuFbb4zx8VaJkbH0Y6BdJofgLx5+RcAt3yFRTvdtW+E+CZnz7bVtP74o6EzjXDyYLK5WOSV1fGvfHYZ4Za8OadaDT8fJa7+PcSOH8blom2JYr9htaKJjR4gkJIII301rquffaNhb9Pi+SliopDjuJnwe0hsZLWvZIOY7Hbfc/Mr7i+Fr9L7T6uHigsDh2ladkoSYyY2ksGhz+fvADW/IqY8loYMd+/yS08bkOrUva3dvyLZxJ9oV3B2Y45uFchySzmvDJJMxrZXb0OXXN39dLYyfGt/GUKQvcPyQ5e/Z9mqUfamvL+g99zgNNGzpevtXxF/LYjFtxdd1iavkYZnNaQCGjez1+YXz7RuHclk7eEy2DbFLexVjxRBK/kErSQSN9gfd/us4KhJQukr3vm+GnHK5eXOK9mef3uy+JzuMx/E+KrQRZGTwoLFSwZGtd0GnAgeZHX1UfgPtIkscc3sFma0FWJth9atK0nq9rtBriemyO2tdenms+TxOc4tz+BnyWLbiaOMmNl/PZbK+V3TTWhvYdB1KD7PvbjxVFlXRCLJXBbqSREl8LwDp3oevbz6qyXJ1HppXa4PTPhrwK/8AS/R0/hNcBZ65nYMv+0GQsmp5CWq0RAgcjda3s9+qkpjzcWVAO7KUxJ+b49f6FQn2Z8KXOFMdegv24rMtix43NGHdPdAOy7qSdbU1RHj8RZKxoFsMcVVp9Rt7v/e39FzVcCqSdPQ1hiwrFqZ87hqecqR1clGZazZWymPemvLeoDviN9dei9YXE1MLRNPHMMVYPc9kfMSGcx2Q3fYb309VzPP8aHHZviGB2Rko25b1WrWEzXckcLdeJK3mHL5u39FdOGMvLmM/n5YbLZ8TXkir1uTRaXhnNIQ4d+rmj6K06FWFPN9HX4/fZkRqRlLLUrkzebiTFjR53cRWHtPoK53/AKLpQ7LnWHebvEnDjhvbnZDJuHwa5/Iw/o9dFUcp1iu77ZNLiwiIuU1CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAQCCD1BXNeDz+zbmPgfppo27WFk35tcfFhP6AAf5l0pc+4ooPrcWSMicI483C3wZD2Zeg96Ik+XM0a/pXTydp4oPjv4bMqmVpFj4jv5msSzE06YhERkkvXbHLFFre9sA5joDfkPVQv2f5PKWhLc4hyldzL79Y6v4YhL427/iNYfe97uAdnQB81IZKlBx1wjBG+zZp17Ba6dsJAd7pIfE7Y8nAg/JUyO9w3gMpBQ4QxseWzj3GCO5ZmLo2P0Ty+M7fXQPutW1KClTcLdLw0t2t6FJSakpXy3wL7ZIxvFMFg9K+SYKzz5CZm3M/6ml4/papaOjVjvS3I68TbcrQx8wYOdzR2BPwChMdar8Y8Khzg6vM/wByVo+/WsMPX6teNj5Bb2AyMlyGSvda2PJVSI7Mbe2/J7f5XDqPqO4K5pqSXesnvfA1TXqbsFGpAZjBWgjMx3IWRgc59dDr3PdQmSyTsZmIqNPByWGvrvmE0LAGhzQSGH3dDegNk+YVjVek4qqN4ju4bwpfaKtX2jn6BryBssB/MAWn6qKd5N5XErLjY1KvEebt1mSN4YuV5PaRG6OaRvSLTeZ+9+pAHXstjHXeJbD5PbMXVqtFprWfxecmud7d36PGh09V7xXF+HyUNd0FhzZJnRMET4nNcHSNLmdCOxDT17dO6+ZjiNsfDsOSxPhTCexFXjdLzNaOeURkkd+h2tWnfDzdvX9Kpq18Vz1fl4j/AGtK2nXoHGhh5HvcfFL/AAyR6a59BR8cXGklug42MZFUDgbLHt3KW+IdgEe7vk5R8N70sX733oLIr2ceJZoLc1aw2uergyETNezmI7g9ifltbdjjGuZ6UFaCQ+3QiSCQuZ0LonSM2zfNohpG9a30VsNSOSitCLxfFktw7BlK9F7M3Zis2jM9wfGNDkJ90a0NaH/9UoqNiuMbNmti23aZhszinI4xyNc2SOfmbzdvd04dR37dVeVhWhKMuki8JJrIwX7UdGlNZmP8OJheddzryHqey08TDLSxAdZMbLUnNNKXH3RI87I38ASB8gsMhOWyYibv2GlJzSHylmHZvqGnqf5tDyKrH2i5zhe5UsYPNXbcbWuaZZakb3CBw6t53AEDyOir06bm1BLxtmRKSXSIBvE/E9DJ/sni3EY7J+K4+ADyxCcfCJzvcef5TyuV5ElfGcGT2cXjDi3Sxl8dUxCNzZX+60Fo6bLi1c/xP2dMnlqMmhq5vCTnmiyFe2+CSJpBPMWbLXfD3dFXrie9BTmiY8/7FioDfsDZJJaC2FnzLtn+gLrr83KUY0/O2S9L5ehjTxJNyMPCVQDifJuYeavjKtfFQuHYlreeT+7mforkoTgzHTY7AQNuf/XTl1m0fjLIeZw+m9fRTa4a0sU2bwVohERZFwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAKG4txDs1hJq8MnhXGFs9Wb/lzMO2O/XofQlTKK0ZOLUlwIaurMoXCWcabbJJo/Agycro5oXf8AC32jUkR+AeBzD4kH8wXqnwUWHLYeYBvD0szLtF8T+WarNzbcG9OgBGwfXS8cb4puNtWMyyKSTF22Njy0EX3mhv3LLNfjYdb9BvyUvgso/JU5sVbtAX/A5orcOuWzE4abPH5b6jY8nehC7ZSeHnKej9rfnx4swSzwyIRnFWNxOdyth09Ohg4HOjmfyAy3bfTmc0DqQ0DROupPorTlccbzoMlipmQZKJn8KUglkrD18OQdyw9D8Qeo8weZ3uDH4zK4zEcP4I5ARFtq5kL7i1krgTytL/yg7cWNHXp6lWvK5LM8IVYMhlLIzAt2WxT14meGY+YaaK7O7tHuHEk9+itUpxbi6Tzfv/veRGTzxrIs2HzEd9z688bqmRiG5qkhHM3y5mns5p8nDp8j0Vbn4Puy5KbJC8BadkH2BC5xMXguj8IjtvmLAPPWwpxn7J4sxsVqB5kaxx8OeMmOWB46EA9C1wPQj9dryJM3jOkkTcvWHZ8ZbFYA9WnTHH1Bb8lzxk4N4MnxTNGlJZ5lfqcG5VsVaSbIU23KcdOKuY4XFjhAXHbwTvZ5yOh6aUvDwu9nBrMI69qVknitstiHRwm8UaaSex0O60r3EQt8S4ipTltV3vgtGWtNE6J2wxpaSHDR0QdEbWrcyk5+y3FuksW/bb8FauZYdunJk0HOaB1LuXmP0Wr56WG71a4eP4VWBXsTlbhaCORti1ansW/aJLMsp5WiRzojFrQGg0N1oenn1WvT4Mx0E9SaC1dLa3gFjPFbyl0LCxrj7u98p0RvXooeTKjJfZVkGXn6vw1J4JopTyyF8QIJcO/UBrj/AJlJ8O5ivDj3V6FahbteJt0WH14LSWgjme7TQdeu9a6KGqqTz7iU4NrI28bwdjaDGta+3NyGDwzNMXGNsLuZjG9vdDiTrz2tqW7Ll5HVsVI5lZri2e63sNd2xnzd5F3Zvqeg+nH3MkN5iVrK5/4Os48rh8Hv6F3yGh8dr1TzWPlyzsTQ5pZII9yGCPcUOuzHOHQO+DfRYtylm838FrJZaHnLZPHcK4us6wx8NESNg5o2FzYt9nPPk3fcnzKqGHydnhibJY7NYu3co2rMtmtepVzYZYbIebleG707rrr016LDxWMph70lTNZCabg/IzEz2SzmlrB3+CXD7sZOhza6A66d1auEMHY4djt1fb/aMOHB9KN4JfA0jZaXb6t+C3tCnTu87714NcUUu5Syytv0NHgyH92eELNjIQSU67rE1mKofefBG9/uRAD8R6e6PN2lpQVJcvnY8faAd4crclliPu+J/gV/UNABP+UH8Sy5vMSW7FWxVhFgOk5MVVJ17VNrrO74RMHUH6+bVZeGsO3DY0QGQz2ZHGazYd96aV33nH/QDyAA8lE5OCc31nv2+fBhK9orRb3/AElURFxG4REQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQHxzQ5pa4AtI0QfNczz2Idwo/xI/H/d3xTNFLCOaXESnu9o/FCfxN7AE+S6avjmh7S1wBaRog+a1pVXTfcUnDEV/h7iEW3RVMj4Md17OeGSJ24bbPzwu8+nUt7j1HVfH4Sxc4wGVyMkb6lKMMoQNJPK9w9+R3834R6bUDmuFLGKimOArNvYmV3iTYd8nJyO7+JWf3jd567fDSycO8TWDG5kLp8rDD0mglaI8hV9JIzrxB/MNE/wAy6HDJzovXfluzM8X/AJmaWJrW+JKOWzdzOXsdGyxO2rFUmEcdZkZI5ntA95xIJPMs+E4/Ir8IVsrXLruZi2+Vh5Qw7013L8Hn9NrehwHC/Ec9uxTmlc2d+7tWCzJE2R3/AKsWxo9OuwN+a0uJ+F70789kK0cLpooKoxUUY2WeA7xNa8iXdNDyWmKlN4Z5e1uH3fy7ytpRV4ljlZheLIrVexXbbjo2XQP8RhHJI0e9ynp5HRI+S8UJuF57kklKbEyWKbG8xjewmFrAQD390NDnDflsrQ4boy4/7PZTlILHtdmGa3bigbqUvk5nOa0eTtHQHoqLRZVsOo42jNj81XmxlmGtPHF4Vqm3wtcswaeUg9G9QDv1VIUVLElJ2W3v5LOdrNrNnS7OW4crV61+axjxFfkMcM4DXCZztAgEDrvlAPy69lgqZ7D2MzewuPji/alHcjYXx+G1z+Xu12vLmAJHUArjbILNnDxY1gLoKuMkzlYt/M5sZ5dej2ydvirhNw7ncrm8zcxD69N1fJC7VmsQvEj3+AwFjT28M9ieu9LaXJacOtLt+Vb+lFVlLRGhZ44uW6dKfIZqhE2zYFe7h2QEeBCXFkhfLsuaR8enorY3FHhLiejc4fqudg8nyVbVau0uET9fw5mgeWujj9VI4Thl0UucffjgbVzLWSTVGe94cpZqX3vME61+q2616niKcGIxDJ8hNVjETYmP5ywAaHiSHo36nfwBWdSrF9GmsuK4Z/j4+5aMHrJ7/pOWnQtryOtGMQNbzPMmuUAeZ300qfxBmW2mRCeKY0Z3ctaiwanyTvho/ci8yTrY76HR2tNkLeWvmKk2LK3Y3fdY4jH0nfF7+8rx8B+je6seA4eixk0t21M+9lrA1NclHvEfkYOzGDyaPrtYqMaOc9d7v6dpdtzyRj4cwsteeTKZcxy5ew0McY/93XjHaGP+UeZ/EevwAn0Rc85ubuzRJJWQREVSQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAKGz3DWNzhjktxOZbi/3VuB5jmj/yvHX6HY9FMorRk4u8XYhpPJnPsjw9mqsrJpI6/EDYv93NzeyX4x6St0HfXW1rjiqbGnks37lE9hFnaDuX6Tx9PqdrpK+OaHAggEHoQVuuUXVpxvvzXojPm7dVlSxvFc9wgQ18beb+fH5OOTf9Lw0hSTMpJDtwwGRa9/V3hthOz8w/qvV3hXAXXF1rDY+R57vNdod+oG1oD7P+GG75MUyMHyjlkYP7OTFRfBrfiLT3/htnLWWM3BgbjQG9DLJBEB6ffJ19FEXeMvAPJNcwVKTeuV9w2ZP/ALbAOvptb7OA+GGv5zh68jvjKXSf+4lTVDFY/HDVCjVqjt/Bhaz/AECY6K4X9vti03x37FMFzIZmINrVcrkW7+9O39nVXD4/8xw9Oqka3Ck9uBsWcuMFNvUY7HNNeuPRxHvP+pAPwVuRVdd6RVt70sSqa45mKpWgp1469SGOGCMcrI42hrWj4ABZURYamgREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQH//Z</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intercom + Two Screen Hikvision</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Intercom_Two_Screen_Hikvision.png</t>
-        </is>
-      </c>
+          <t>Strike Lock</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1450</v>
+        <v>650</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAUGBAcIAwIBCf/EAEMQAAEDAwICBwUFBwEHBQAAAAEAAgMEBREGIRIxBxNBUWGRoQgiMnGBFCNCYrEVM1KCksHRchYkNEPC4fA1U6Ky0v/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAcEQEBAQEBAAMBAAAAAAAAAAAAARESAgMxQSH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERfjntb8TgPmcIP1FiSXCnYNnl5xnDBnP15LGkup36qH5F7segQSiKBkuFU/OHtYO5jd/M5WidWdMlTHqK02q0TwT3KR7obhbquJ3CyTiw1jZBjfHdnfn3IOlAc8kVUsFe9hhfNE6nbMB1kLjnq3fP+/aFa0BERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEXnLUQxfvJWN+ZWM+504+Evf2e63/KDNRRT7o8giKEDfm5y8H1VZICes4RnPuM5fqgnF4S1lPFs+ZgIOMA5PkFTLtqWzW3/wBWvVHE7chklQHOPyaCT6KqXPpV09Rxk0bK2uODjqoeraT3cT8fog2pJdoW56tkj/pgeqw5LxUOJEcTGfMl3+FoUdPsIvtHTT2IU9vkkDJ5nVXFLG0nHEGhoBA5kZW3Ku9U0FQIT1kmeToy05G+7W8XG4e67drSNj3IJV1ZVSY45n/Q8P6L5G/PfHfuvONrZWMkjc1zHAOa5pyCDuCCvYN7yoAyV+kL9wAmQqj4Lc8lWLhoDS9x1A2911jo5rqHB/2hwIcXDGHEA4JGBuRnZWrPcvGpYZYJYw8sL2OaHDm3IxlFY3HSde2lbNAJi3LYBIOMtG2zc5wrJaKgywdW85fHtnvHYVyje9Ma9unSFbaS92h0tooD1UFypBv1Dd2ky5BzsNjgj1XRtimfDJRw/aDPUDhZI7mXDtLsfr3hQXBERUEREBERAREQEREBERAREQEREBERARfjiGjLiAPFY8tfSxEh0zcjbDdz6IMlFFyXiMfu4ZHb9uGrwfdZ3AhrY2ePNBNr5e9jBl7mtHeThV19VPJ8c7z4NPCPReD3RxgukLWDmS84/VBYZbhTR5+84iOxoysaS674ihJ8XHH6KiXjXul7Oxzrhe6GPHMNkDj6KgXz2h9J0LnMoG1Nc8drW4b/AOfVBvJ9fVOzuxgztwt39ViySTSfvJZHDngu2VZ6Ota27XOnhc7YOANeY5YicmNw7D81ZiiPhrQDyHzX3y5IPov3YoPCsrGUUPWSte7JwGsGTyJJPYAACSTsMLSXTxdX/YaS9251TLBF9xPA2o4oB2tkBY4sdu4NcM595m263ZXUsdXA6KQua1zXNJa4g4III27CCQq6+x0FhsckdPQNmpAcCjpoGtiY55a10gjz4NJAI/EeZJQaHjphf9CxVumrdJFe3R9YIxB+JrsOAJAByNwSVdrNYr/WWWEXWgtVpq2xMFRJVTsaMkfEAMnfGfnkdiuMkVwf7s9fNG3I4o4SyBruw/CCR9SsZ9DbKdz5JmxSOOOF0g6x31LySfphbRonXfR9UQ132ux1cV4LnjjhoonvdknwBHDjt25j5rbmgpIqWwWIa3pnW+8Uk32C11lSMvDebGtcx2GnPukO54A5HC8NR3aucxrLXVOhILsucwHG2Mju7dvktf3+jknbT/tOskqCZfdBG/Fg4xjfOSs+ljp6ipo6KjgpadpbDCwRsBOcADC9lqOi6TK+ktVPDXUcUtwjbwSytceGQjYPHzGCfHKunRvNW6xtlXX3OqnghZOYI4qYiMOAAJJIGe3Gx7FnVxZpZGRNLpXtY0b5cQB6rwbVwyHFP1lQ7OMQsL/UbeqmqWwWumkMjKON0hweOXMjsjxdlSgAaMAADuCCrRwXOfHU0DYmntqZQ30bkrListU/Bqq5rc82wRY9XElTyJgjI7FQtIdLEahw/FM4v9OXopCKGOFvDFGxg7mtAX2ioIiICIiAiIgIiICIiAiIgIigNU9aBTkOeITxAhpI38fplBMy1UEWesmjaR2FwysOe80sfw9ZISMjhYRn6nC536f77VWnS1wpX26eqpa7q2RSxe6Kdw3JcQDkHfY43xusX2a23V9jqqurlrBRzOyyCcEsaf4mE9/hsg6HkvrjkRQAdxe7PoP8rGkuNXLnMvAPyNx681D1dQaaknnEbpTFG6Tq2DLnYBOB4nC5Uv3tD6nq3SstlNSUDCTwnhL3tHzPaqjrqV+QXTPz2kvdn9VD3XU9ktDOK4XOkgHYHShcPXrpE1ZeSft18rHMP4GP4APJVeWWSZ5fM98jj+JxJPqors6+dOujrbxNhq3VjxtiFuRn5qg3r2lQOIWezZPIOndgfP8A8C54ttruF0l6q20VVWS/wU8TpD5AK9WToW11duFwsr6OJ3462RsOP5SeL0QSN46e9a3AFsFXBRMP/sRgHz/7KiXfV2oLwSbjd62cH8LpSB5DZbpsXs0V0gY++6gpaf8AijpIXSn+p3CPRXyzez3ouhDTXG5XN4OT1s/VtPhhgB9UNcfEkkk7k96nbJpDUV8ewWmyXGrD+T46dxb/AFYx6ruGxaI0vYC02iw26mkHKXqQ+T+p2XeqnpqmKBg66djGjYBzsBBpf2bdC6s0bV3Oa/xRUdBWQtxTGVr5OtDtiQ3IG2e3uW9y/vUJV3ykpKSSqeJXU8eOKVsZ4G55e9y7R29qr9Tr2Akijpy85xl5RF6D89i/S8NaSSAAtX1WsLjMfckbCPyBRFRcaqpdmaokefzOJWemuW26i60MH72qiB8HZ/RV+467sdOIGNqW1Dql3VxCMgiQ77ZGdtjv4LXVSxtTBJFN7zHgtcCeY7Qoy822at+ytoKptubA9zwY4RIQCzhAaDs3A8E6OVrqLw55Ja7DewBVq5aqoIHllRX07X54eDrAXZ7uEbqIOlaKXBudVcbk7tFTVODCf9DOELOpLfQ0H3dvo6amJAHDBE1rj5DJWr8icMWovE00ZfR0s02+MOxF/wDbCwKOW4yVZqLjDTRcA4YY45DJjPxFxwN+Q28VcqHSl+uhBo7TVODhkSSN6tpH+p2FZLf0QXapINxr6WkYebYwZXf2H6rN9eq1JI1ZVS7Fziumeiu2m2aCtET2lsksX2h+e954v0IUFbOh7T1Pg3B9ZcHZyWyycDD4Ybj9VseNjYo2xxtDWNAa1oGAAOxPMv6Wz8fSIi0yIi+JJY4xmR7WD8xwg+0WJJcKducOc8/lbn15Ku3/AFxQWehrquc8NPQyMiqX7vMRfjhy1u/aOSC2oq/p7UtNeaaCqpZ4KijnGY5oScZ7iDyPZ357FYEBERAREQEREBERAREQFg3unNTbZmM+No42/MbrORBr6NwcOeWuHLnkLBul+s9pqYKa53OioppRmKOeURlw8M8gs+8076a41FPG7gHNh7gRt5f2XNfSna+kC9aho7Yywvq7fR4ZT1EcAf1jTjPWSd3YM9iajpNszAWuYeIHBBbuPArn3Uns+S3TVNdWW68UtFa6mV0zInQue+LiOS0AbEA8t+S3BpWCl09p2gt9TOyN8LOERySBzm/l/wC3YpuGaSoP+50NZUDOOJkJDfN2AmjTVo9nXTkAY653S51kg+IR8ELD6OPqr7YuizRVnLTS6epJJGnIkqszuz/OSPRXiC0XufGaempW98svG7ybt6qRg0vK4D7bcpTtu2BgYPM5KKiqaGCjhEdNHFTwj8ETQxo+g2Xwa+mDuFsokf8AwxjjPkFZafTFrhLS+nNQ9v4p3mT0Jx6KWgp4adnDBFHE0djGho9EFMhbX1LQaW21BaRkOmxEPXf0WZFZLrMfvqikpmkfga6Rw88BWtEEBHpmnP8AxVVVz/l4+Bv/AMcfqs+ls1tpTxQUUDXfxFgLvM7qQRBjXKihuNvqKOqZxQTxmN7fAjC5jqqKe03qrtlX+9pHmMk/iH4XfUEH6rqVUrVnR/RahvbLk6qlpperEUojYD1gB2OTyONvLuS/RPtpIOA8V6Q8c7xHCx0kh5NYC4+QW7rf0dadozxPpZKp3fUSFw8hgeitFFQ0lDHwUdNDTs7omBo9Fjlrpoe3aR1BXYMFtlYw7h0+Ih67+itFB0XVshBuFxghG3uwsLz47nA/VbYRa5iapdB0b2KmINQ2orHc/vpMDybhWa3We3W0AUFDTU+O2OMA+fNZj5GMGXua0eJwseSvgb8JdIe5jc+vJMTWUijnXF5J6uAgdhe7/C8n1FS8H70MH5G7+qoll4SVdPH8czAc4wDkqKka1/vSue/G+XuyB/YLBluNvpuPjqqdnAMuAeNkE3Jc4wcRRSP3xnGB6rwNfUv+BkcY+rj/AGWr9QdNGi7KXtfc46iVpxwwkOPpk+i13evaeoYi9tns0s3PhdK4NHh/5hQdIOfPJ+8mkOewe7+ix6h9NSjjqJoYfzSPDf1XGOovaG1ldA9lG+mt0TuyFpc4fU/4WuLtq3UF3e51wu9bNxbEGUhp+gwFR/Q23Xa2XGeWChrqeomjGXsY/LgO/Hd4rVvTH0VXnVtZ9q0xqA2xs/D9sopnvbDM5py2T3ASXDuII7sb55f6KdZXfSWrKWstzairjc7hnpWZf1jDzwB2rvijmFTRwVHVvj62NsnBIMObkA4I7xnCIg9HWI6f09TW+Y075mMaJXQMLWvcGgF2D381crXVddH1bzmRg5n8Q71pjpb6SJtE1lRFNKKWOSjJoOGm601FRtzJ2DWqY6KdX3TUumqa63Kmgjld70U0GzJm7jPDzb2gjkorbqLxo6hlVTMmj+Fw5dx7R5r2VBERAREQEREBERAREQQeodPR3iaGdtXUUk8Y4S6LhIe3OcEOBHPkeaxYdGW4Afa5q2r7xLOWg/RuArMiDAt9nt1uH+40NPAc54mRgEn581noiAiIgIiICIvxzg0ZcQB3lB+osZ1fTNdgSh5/IOL9FjyXJxH3UDifznh/ygkUUQaqqkOONjPBjcnzP+FhXKvpLfEZLvcIaaMDJNVUCMeRIQT8tTDF+8kaD3Z38ljuuEeSGMkf44wPVVyyX+yX01LbDdaG4GnIEwppQ7q85xnHfgqT6tzRlzTjPdsgyn10zvhbGwb5zlx/svMyyvwXzP27jwj0XgDknZfuc+CD94WNOQ0Z5ZO58yq5edeaatAf9vutOzhPCQHZwe3w9VPuDHZDveBGCPBcI9Negrvo3V07Ks1NXbqp7pKOsfl3WNJzwk9j28iPqNig6OvvtC6RoAW0kklW7Jx1YyPnt/la8vPtO1rgRabOwZHxTO4cH5DP6rSFi0Vqa/SNZaLFcqvJxxMp3cA+biMDzWw7B7O2tbiWm4NobXGTv9onD3gd4azP6hQRWpunDWV9LgauCjiOwZTxA4HzdlUK7X27Xh5dc7jV1WTnEspc3PgOQXTenvZitEBa+/3usrCOcdLG2Bv9TuI+gWytP9Euh7C1v2TT1FLIP+bVtNQ/Pfl+QPoEHDdlsF4vkois9sra55PDingc/f6DAWxLB0Ba7uuHT2+C2Rk44q6cMPz4W5d6LtVjaemhEcQZFEPwNAY0fQbL4FSx5IgillO20bCU0c4WL2YY24dqDUbnd8VBT/8AW/8A/K2JYeg7QdpLHOtDq+UDHHXTukB/lGG+i2iKO4zH3YWQt75X7+QWTDZZDg1FUfFsTcZ+pygiLZbbdZqcR2yipKCIDHDTQtiHoAvU1jXEiImRw5iMFx9FOxWeiYQXRda4dspLv12WdHGyNobG1rWjkGjAQUW/aWp9VUbaO92aCtpQ4PDasAcJ7x2g/JZtj0VS2ihjpKGOmoadmAI6aPbHdkq3oqPGjp2UtNHDHnhYMZPb3leyIgIiICIiAiIgIiICIiAiLGrK6CkIEr/fIyGgZJCDJRVXUetrdYbVPca4ujo4XtiklILuB7sYBa3J7R5r4suqqbUdAK2x3CmqaQu4eOEbtI5gh24PzAQW1eUtTBFnrJWNI7Cd1AvMk2euke8dxO3kvnEbBsAD4IJWW7QNJEbZJDt8IwPMrHfdJ3H7uJkY/OS4+WyweLwX009wCD2fU1LwOKZw7fdAavgta48UhLz3vJcvwHIX6G7jiG2UHlc6o0FqrKxlPNUfZ4nS9TCBxv4RnhHiufrn093St449P2aNriPdcGPqHjxxsPRbSutLeXXi2xspq2SnfxCoukFxMBo3F5ILYQcSANA2c07kZyCVpzUnRTdqTW4urL5TW2lnxUNa5z2v4yMSsaxvwt3PLkHY7EEHd9fa9ut1FruF6/Y80sfEIaidtEzgIJyS0DmB2qs3+zxyUs1TNqZl4uAAIjoaeaZvjxTOAAx8jlbVi6MLNVVNDUVr7tXy0o+7bC3qGc+LHFIS475PnsrmzTlDTsYW2u20rti19U99TI3+V5AH0Cmrjmjor1fPo7VoqhLJFSVcbqOqcz4mxuI98eLSA4fXvXWVFYrpJqm4XSnbQQURZE6gqqKol4qhnMiVhJa9paQCTjBALVRLp0b6VuF0kuN36+rnfzjhIgjJ7Dhob+qs18FDSdFl8p6GhY6mtdPE6mhllfK2PDsAcwcYztkhJZTF1uWqdP2x/BW3mgieTtGJRI8/ytyVGUGvrJWX2ltTI7hFLVZEMtTTOhje4fhHFvk9m3PZc42O73a9agtlmhuItVPXVUdO51FCyANDjj8ABPcMntXU+sdE0t20U2z25v2eejaJKCUuJdFK3cHiO+/afHK1YylB+XAC+JMH4sEDfdQ2h6qs1Hp+nqql8UFXG409XHglzJmHheCOQORnHirKyzQ7GeWaU+LsDyCyqOlqImN+9kG3YTlfrJXyDNNTySD8rdvNTdPQUlPjqaeJpHbw5PmslMEC2ir5TuyKJve52Tj5BZEdmBwaipkk8GjgBUsiow4bZRxEFsDHOH4n+8fVZgAAwBgeCIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKr6kEtPeKaVziaapZ1OMfDI3Lh/UOL6tCtCwb1QNuVtmpieF5AdG/HwPBy130ICDnPpm0Tra7SuOjasPt1U/rKuj69sRe/ILXHi2cBv27K69EWkqzSti4bk2GOvnazr2QuDm8QG+4255xhXO3OdUQte4NY/Ja9uPhcDhw37iCqnrbpBo9LWq33NtFLcqOrmfCHQShhYW88gjw5bKC74J3KYPZyUfpLUFu1RZorla3vMDyWlkreF7HDm1w7CpsNb3Koxmx95Xq1gB5H5r0y0cvILGqa6mpgTUTxRgfxvAKD3OB3Bas6Qekms03fnWs0VNSMLQ+OsqC+USNIJBDGAHOQRjPMK7VGpKBsgjjle95fwNa2Mjid2AZxn6ZVM6XNNVWqNGVFzdbaimqrU4vh67HHNDjLyGjJAGxGd9nd6Qa5uXSlW1DSP2ndZXY5UzIqJgPz9959FbNMa0B0JRVNSIoXiqqKfjle6V/CCx+C95JPxZWgzlpweY2XQns22213vTlxhu1vpqx1DW9ZD9oYHhnWRtzgHb8C16n8WIqp162d5ZTzS1UhOeCFpOfHDeayrVBq29ZfarBVMY5pcJakdQwjONi/H6Lf7vsFqpi/FNSQtGM+7G0D0CpF+6X9HWZ4ZJd6apkG7mUr+vcB/ICM/ULny10qFL0a6wuVSWXW5UVBS4B44XOmcTgbBuGjvGSexT980PT6b6KtWUsFXU1k9TSvllmmAz7jcgADkBg+ZVWvftHW9heyw2Gsqjj3ZKqRsLc/IcRwo+4+0Oau2zQR6Ta+SRnA5tRVB0TgRhwIDckeC1POM2tOaVfVQ6mtNbRUlRWPpauKo6uCNz3ENeCcBu/Jd2xPEkTXgOAcAQHAg794PJcraZ6Y9WOudNR2SwWR7XyBgoqKkczjz2cQd7vzIXQtt1fTVr6en+w3EVrpGw1McdM+RlLIWcRa+QDhwP4gSOXerR8aekp/9ttT09FSshZH9mfUStbjrZ3scTnfmGdX2Dn2q0qv6QtVTbm3aor5OsqbhcJaokjBbGcNjbzPJjGhWBQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFTvj4rPdOsme2KlrjlrnHha2YDdpPIcQGR4tPeufOlHog/buomV1u1VBSUzmgNpajjeYj28HBnIPyHzXU9fRUtxpJKWvp4qmnkGHRSsDmu+YK86K10NC0NpKSCEABo4GAbdyDWuhKGWw2GC32yhuVwcAOOolhEDXEDGfeOezuVkmpdSy0skjYqKnc1pIiDzI9x7ADsPNXJEHP1VrOsqonZkeMh2WucRgjswMY+SgZbnVPBJlLXO+Lg93PkpfpbsTrJrB08DeGjueZmYGzZM/eN9Q7+ZV0pVjHkLzO2UOd1rHB7X53BByCCuk9FXhmoNMUtU8h8pb1VQCP8AmDZ2R48/qucA0veGRgveeTWjJ8ltDohhvltuM0U9tq2W2pbl0kjOAMeOTsHc55HHgoVqC7VGhv2rc6y+GqmqG109PT2qzQsgZHDHIWMdI/GMkDOxyRhQP+212oXVEekgNOW6R2TFSOLpHgDAMkrslxwezAHYtwWT2d6WOWV96vk84dKXgUsTY8gnJBLsnnkbLYln6K9G2rhMFkpppBg8dVmc5/nyB9AFvUcgimvWqa37x9yvVU53fJUnJ8wPRXOx9Cur7iGudbo6BhGQayYMP9LeJ3ouvKalgpYhHTQxxRjYNjaGjyC9htyU0c+2T2eDwsder7jf3o6ODs/1vP8A0q/2boc0XbQC+1CukBzx1kjpfTPD6LYaKDEt1sobbAIbfSU9LEOTIY2sHkAFloiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgg9X6ao9UW1lJWufGY5BLHLHjiY4fPsIJCiLb0baeowDNBLWPHbPISP6RgK5ogw6C10FvaBQ0dPT4GPuow04+YWYiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiD/9k=</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>data\product_images\Strike Lock_20251120_201523.png</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Outdoor Camera Hikvision Color view 4MP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Outdoor_Camera_Hikvision_4MP.png</t>
-        </is>
-      </c>
+          <t>Hikvision 4Mp Colorvu Camera (Outdoor)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>345</v>
+        <v>1450</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>data\product_images\Hikvision 4Mp Colorvu Camera Outdoor_20251120_192413.png</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Indoor Camera Hikvision 4MP Metal</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Indoor_Camera_Hikvision_4MP.png</t>
-        </is>
-      </c>
+          <t>Hikvision 4Mp Colorvu Camera (Indoor)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>345</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAMFAgQGBwEICf/EAEcQAAICAQIDBAUIBAwGAwAAAAABAgMEBRESITEGQVFhBxNxgZEUIjJScqGxwSMzQmIIFRY0NUNTgpKy0eEkc3Si0vCTlPH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI5Wpco82YOcpd/wAAJ20urMXYl05kSR9CPrtfcjCVs/FI+swYGMpzf7TIpSk/2pfEkkyKTQEct/F/Eilv4v4ksmRSYVFJy+tL4mErbF0smv7zMpMilJAfXlZEXyvs+O58Wp5kP61S+1FEMmQzYG/HXciP06q5Ly3RsV9oaf62myH2WpFDMhmB2NGr4N7SjkRjJ90/m/ibyaaTTTT70ecz5n2jKyMWW+PdOvyT5fDoB6KDk8HtPZBqOdWpx+vXyfwOkws3Hza+PGtjNd6XVe1dwGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+SkoxcpPZI1J3Ox8uUfAj1C3e2NS6Jbv2kcJAbETPcrlneubjhVvI2ezmnw1r+93+5Mlhi3288rJlt/Z0fo4/H6T+KA2rb6qEndbCvf68kiL5ZCX6mu+77FbS+L2RLj4tFD3pphCXfJLm/f1NjmEaLszJp8GLCHXb1t35RT/ABPjqzJb730Vr9ypyfxcvyN5mLA0JYtze8867ps1GEIr/K395DPC3jtLLzZefruF/wDakWMiGYVXW6fVNbTnky8/lFi/Bohlp1KW3Fk//Zs/8ixkRSArZabRvvvkb/8AU2/+RFPBjvyyMxeSyJbfiWUiGQFZPDtW/Bn5a+04S/GJDOjNjvwZsZeVmOn/AJWizkQzAq5PUIda8S1fuznW/vUvxIJZtkV/xGFlV+PAlal/hbf3FrNEM0BW152NdLgrvrdn1G+GX+F7Mkk9nzM8qmvIjw31wtj4TipL7zQlgeq/ml9tH7m/HD/DLp7mgNhmWPkW41ytx7JV2Lo4/wDvM0JX5FH85p44LrZj7v4wfzvhxE9N1d1aspnGcH0lF7oDv+z+sR1Kt12JQyYLeUV0kvFFuebaXqE9NyvX1wjNuLg1Lz//AA9DwsiOXiU5EFtGyKlt4eQEwAAAAAAAAAAAAAAAAAAAAAAAAAAo9UujTlWzsb2XCkkt221ySXe34EFePPK+dmLavux094/33+0/Lp7epNnUqerSsnz4EuBeDa5v293x8TZqQE1UdkklslyS8CeKI4EiAzRkYpjcIMwZk9+5M1Lc3GrlwzyaIy4ox2dkU95dF16vuXeBLIhmaFvaDSIfK+PVMJfJE5ZH6eP6JJ7Ny8Nny9psLKosyJY8LYSujXG1wT3ahJtRl7Hs9vYwPsiKRJIikFRyIZksiKQEUiGRLIikBFIhmTSIZgQTIZk0yCYEUjUvxIysdtMnTkP+sivpfaXSS9vPwaNtmLA1Kb5Sm6b4Ku9LfZPeMl4xfevFdV8G/SOyr30HF27lJf8AczzzJp9bBbPhsi+KE/qy8fyfk2eg9kt32exG1wtqTa8HxPkBbgAAAAAAAAAAAAAAAAAAAAAAAAACnzv5/P7KJa+hFnf0hP7KJKwNmBW9qdYjoPZ/N1KVXrnRBcFXFt6ybaUY7+baLGDNPWNJo1eOHDKnYqsbJhlcEGtrJQ5xUt1032fuA4bM7d5turyx8T1FGHVfGFts6pcSjVU7cl/P22SXDBbrq9yix+0mtav2I7S5OXqWbjavi1qdONTH1coQslGUZrh5y5PhXgufNvc9Mp7NaDizlZLBosslKycp3/pG3ZLjm3xb9Wk/cvAsp6hiVPlKO+23zUB5nmYOdr+tVvWKdVhgV4Xym+umNjlGc16umuO3WcU5WS26Sk9+SRW4fZrtNl4eNhLTK8ZaVVk3YmVOuFPyq1Jwx3OK5qS3lLn5N8z1ietUr6MZyNeetb/Rq+LA8+0z0d5GVbj16pSsfS68eOFGhWp2RqjFycpcO6453tTezfKC36nUdhdAzdB0idOq5NeVmylGDthvt6quKhVHn4RW785Msp6va+kIohlqd77ogWc0RSKyWoXvvXwI5Z13ivgBZTIZGg827yMfltnekBuSIpms8yXfFHz5Vv1QEkiGYd8WYucX3gRzIJks2QzYEbMT62fAPj6Hfdlv6BxfZL/MzgWd/wBl/wCgcT7L/wAzAtAAAAAAAAAAAAAAAAAAAAAAAAAABT6jyz/bFfmZRkordvZEOtWqnM4pPZKtP72UGTnWZD2TcYeCAvL9Uqq3UPny8jQt1PIt+jLgXkV9cSaKAybnN7zk2/Nn1RMkjIDHhGxluYyaXXl7QPjRg0Y2ZNEPp3Vx9s0ad2sadV+szsWPttQG40YNFXZ2l0SD+dq2CmvG+JF/KnQX01jT/wD54gWzRi0VsO0Wj2PavVMKT/duiyevUsK39Xl48vZYmBstGLR8jdXJfNsg/ZJH3ffoBizFmTZiwKjX9cxtGojO/ists3VdMPpT8fYvMqez/aXM1TUo0XadCqie+1kLG3Hl37rmZa1o1mdrfrp7yi4xjHfokv8Afcv9PwaMGhRqinNrnICaVe/RmDTi+ZMHs1zA12z0Dsvy0HD+y/xZwNkdua6HoPZ3+g8H/lRYFiAAAAAAAAAAAAAAAAAAAAAAAAAAOO7fZDxHTbKE5V+rk2oLdvh57Je853RtVxNTrcsWxuS6wnFxkvczvu0mmfxnp7hXssit8dbfj4e84HBjjVZEq8qp0XQls3w7OL80BbwZKmall1dKnJ2RcIrdyT5beJ5F6S/Sffg2LTNBr9ZnWx3SfSEX0lPbnz7orm+r5Aeqa32j0rRMed2p5tNEIfScpLkeW9ofT5pOM5Q0XCvzpL9trhh8Xt9yZ4TrtuXlZPyjXsu3KyeqVj+bDyUekfcVXrHc9oLaP4gelar6bu1moyawY42FW+nDFyf5fgUX8p+0+qJy1DXsxJt8oWKtfctyl07E4+W3R7F9jadulyA0r1K5N5GoZdz7+K6yX5lXkadhWS3nZPddN3L8zq3psuH6D+Bo5WC477x29wHK3aLTLd0WKXlyl/v9xWZOHZRu5UqUV+1HZnS5WNs+ho2Ssg+rkvP/AFA531la/qtvgZQyYwe8HbB/uvb8GWWTjU5KbilXZ8F7/wDUqL6Z0zcZx2aAscbXc7Gkvk2p51LXThvmvzOhwO33arBlF4+vZUkv2bWpr70cM+T38Cy4d0B6lpfpt7UYnCsyvDzYLrunB/mvuO40T08aXkOMNYwMjCk+s4fpI/dz+4/Okovb5raZjG2ceqUkB+19B7VaNr1Ct0vPovj38Mluvb4e8u1JH4c0vIcMmF2Hfbi5Ufo2VycJL3o9j7DelTUNNnVidqGrcWTUY5qWyj/zEun2ly8V3gfoBmMma2FmVZdCsplvF9fIzsml1ATnsmek6RD1elYcNttqo8vDkcD2f06eq58Vwv5NW07Zd231faz0lJJbLkgAAAAAAAAAAAAAAAAAAAAAAAAAAAFNr3Z/G1Zes3dOXFbRuiuvlJd6LkAeO9rcPUdM07Ipy6Wovkroc4SW/j3exnmVHZ6jDwNe7S6js5Oc5wnLuikorb4bH6ttrhbXKu2EZwktpRkt015o/PP8I6mnQeyNun4EPVY119bjBPfZfPk17OID8uallzz8+yyfJOTaj4Inw4pyRWVPnJ+LLTA5yQHTaUq65OU03uuiLyvLs22rjGteS5lDgpyaUS/xKK0l6yTb8uQH2V97X62RqX5N0U92prwaLlU47W3B97NTLwqpJ8EpRfnzA57Iux7m1ZD1cvFdCozsbhTcWpR8UWWqY06d+Nbx7pLoUryZUyafOD7gK++Li+XJogscbq+C1LddH4G5l2VS5xfN93eV1je+6W3tAr76nXJpm9T86qD8kQ2x4oPd80S4fOiPlugJOEkqx1YEjaxfmzXgwM8PB4Wl3b77HtXoq7GYfavQtTxsuLdtK3jJddmn+a2PLcKvikj9F/wdqXjvVrJJ8LxN/JtSQFb6NYZGmaZTh3zlNVQlVHfm3GMmoLze3I9T0bszmahKNucp4uN9Vr9JL2Lu9/wOk7N9l8DRK3OutW5U25SvnFcXPuXgvYXwEGFiUYWNCjFrVdUeiX4+0nAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4L/CywpS7M4OVCO8fW+rk/dLb8We9HC+mzs++0Xo51XHqhx5NEPlNSS5uUObXvW6A/n/B7cvMtcFtQ4lF7dW9itvh6rJnF9N90W2K98Hl9VgX2Haqq929klu2SV59mRL5knCvy6spcq5wxJbPqZ41rWMuF7NtR3Xdu9gOhquqT23lKS67JsnWXtyhN7/Vlv+DOYs1GVdsq6dowr67E8NQdr9VkRcZbKS9j6NAXlmRG2LUl7UzltaxvUP1lf6pvp9VljC6T4lJ/Pg9m/HwZhk8N1UoT5xktmBzSsUqmkucHv7UYzjy3XQijvDInCXWO6fuNuMN6YvyA0nHZ8+nRmOG+G6db7+aNicOpDkVuGSpR68mgN2MTbor3ZFjpWRjJdGWuHTu1yAtdEoc7IrY/UXob0v5P2duucWpZVsKI+xc5HgXY7S55WZVCEHKUpJJLvZ+t+y+mrTsbDwopcOHV89rvsl1/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEkpJqSTT5NMAD8Jen3sPZ2O7a5EaK3/F+S3kYstuXBJ84+2L5ezY4bTJpxlW+a6rzR+8fSz2Gxu3fZa3Bs4a86nezEua+hPbo/3X0fufcfhvN0PL0XWsjTM+uWNm1WerjGzklNP6Dfg+59PjuBr3RcqJ1vquRBp93FCVUntJd/gywnBz3ajKNsHwzhJbNNdU14orcjFbn62h7S70BLkV2etd1ceLflOHemYY6cp7U1Ti3ybaeyMqczZqORFwku98vvNpW1yW7tm14cQGxXPedsl05RT9nX8T6p7wftZqSu4vmUJN9Ft0RJOSpp5vlFfECmyo/8bfJd8uRY+p4KYp9yItPxpZGQ7Jr5kXu/N+BY3w35ICr9Vv0RjlU75rjt9GK3+H+5e4GD6ye8uUY8233GtXju62y1rZ2S4kvBdy+AGpgVuE9n9B/cdZpOC7LIpI1dP0yVs0ox3PcPRR6P5Zajm6pGVen1803ydj+qvLzAv/RB2XWFT/HObW+CvlRFrnOfivZ+J7Tp9EqMdKznbN8c3+8//dvcV+k48b3VdGtV4dK4cetLZP8Ae28PD4lyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADy700eivE7c6fPLwoV1a3XHaM3yjevqT/JnqIA/n7qOn5Ol6hbp3aCNmFn0P1cb7ovbZdIW9+3hYt9u/dc1qZmHZTaoZFboua4o784zXjFrlJeaZ+3/SB2A0Xtther1OlQy4x2qyq18+H+q8mfmbth6Nu03YaFlaxa9W0Hic1Fwc6l5rb51UvNfeB5hKmcPpwUo+zdEfBT/ZVL+6dFRXpWW1GrMs0q/wDsc5OdTf7tsV/mRvfyZ1lw46MOOZV19ZiWRui/g9/uA5BbLlCLb8Irckhp9uRJO/8AR1ru72dI9I1WH09NzIb+NEl+Rt4vZnWsppQ07L2fPd1OK29rA531caq1XVHZLuRsYGmW5V0Ywg5SbPRez3ox1LOs/SQipJcTgpJy29u+y97PUeyPo2xMNxs1RKFa60RknOz7UlyS8l8QPCrtBzHTHB03CycrItXz/U0yntH3I6fs36He0+oShPJwVgUt855clBr+7zl9x+nI51GLRCqhQqqrioxhDlGKXRJFZZrMsq50adVPKu71X9GPtl0QHJdmfRloXZ2uN+pWfL8iC3fGuCqPu6v3/A7vBxZ6nwSsg6dPj9Cvbh9Z7u6Pl3kmn6JOU45GqzjdanvGmP6uD/Nl6ASSSSWyXcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAklJNSSafJpgAcF2q9FHZXtE52W4KxMmXN24u0N35rozzLU/4P8AnYVzu7PavB7PeKnvVL4rdH6KAH5uq7J+kjR3w+qWbBfWULfv33LTCfbOqSV/ZhSl4xpa/Hc99AHkeHd2vuSj/EVsF+9JRX3lzi6L2pytvXvDw4vvlNzfwR6GAOVw+x1O6lquZfmy+pvwQ+COlxcajEpVWNVCqtdIwWyJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>data\product_images\Hikvision 4Mp Colorvu Camera Indoor_20251120_195507.png</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NVR 8 Channel</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NVR_8_Channel.png</t>
-        </is>
-      </c>
+          <t>Hikvision 2Mp Camera (Outdoor)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>750</v>
+        <v>345</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>data\product_images\Hikvision 2Mp Camera Outdoor_20251120_191446.png</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Poe Switch 16 port</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Poe_Switch_16_Port.png</t>
-        </is>
-      </c>
+          <t>Hikvision 4Mp Camera (Indoor)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>data\product_images\Hikvision 4Mp Camera Indoor_20251120_191457.png</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Poe Switch 16 port GB</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Poe_Switch_16_Port_GB.png</t>
-        </is>
-      </c>
+          <t>Outdoor Intercom Unit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1350</v>
+        <v>800</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAMFAgQGBwEICf/EAEcQAAICAQIDBAUIBAwGAwAAAAABAgMEBRESITEGQVFhBxNxgZEUIjJScqGxwSMzQmIIFRY0NUNTgpKy0eEkc3Si0vCTlPH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI5Wpco82YOcpd/wAAJ20urMXYl05kSR9CPrtfcjCVs/FI+swYGMpzf7TIpSk/2pfEkkyKTQEct/F/Eilv4v4ksmRSYVFJy+tL4mErbF0smv7zMpMilJAfXlZEXyvs+O58Wp5kP61S+1FEMmQzYG/HXciP06q5Ly3RsV9oaf62myH2WpFDMhmB2NGr4N7SjkRjJ90/m/ibyaaTTTT70ecz5n2jKyMWW+PdOvyT5fDoB6KDk8HtPZBqOdWpx+vXyfwOkws3Hza+PGtjNd6XVe1dwGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+SkoxcpPZI1J3Ox8uUfAj1C3e2NS6Jbv2kcJAbETPcrlneubjhVvI2ezmnw1r+93+5Mlhi3288rJlt/Z0fo4/H6T+KA2rb6qEndbCvf68kiL5ZCX6mu+77FbS+L2RLj4tFD3pphCXfJLm/f1NjmEaLszJp8GLCHXb1t35RT/ABPjqzJb730Vr9ypyfxcvyN5mLA0JYtze8867ps1GEIr/K395DPC3jtLLzZefruF/wDakWMiGYVXW6fVNbTnky8/lFi/Bohlp1KW3Fk//Zs/8ixkRSArZabRvvvkb/8AU2/+RFPBjvyyMxeSyJbfiWUiGQFZPDtW/Bn5a+04S/GJDOjNjvwZsZeVmOn/AJWizkQzAq5PUIda8S1fuznW/vUvxIJZtkV/xGFlV+PAlal/hbf3FrNEM0BW152NdLgrvrdn1G+GX+F7Mkk9nzM8qmvIjw31wtj4TipL7zQlgeq/ml9tH7m/HD/DLp7mgNhmWPkW41ytx7JV2Lo4/wDvM0JX5FH85p44LrZj7v4wfzvhxE9N1d1aspnGcH0lF7oDv+z+sR1Kt12JQyYLeUV0kvFFuebaXqE9NyvX1wjNuLg1Lz//AA9DwsiOXiU5EFtGyKlt4eQEwAAAAAAAAAAAAAAAAAAAAAAAAAAo9UujTlWzsb2XCkkt221ySXe34EFePPK+dmLavux094/33+0/Lp7epNnUqerSsnz4EuBeDa5v293x8TZqQE1UdkklslyS8CeKI4EiAzRkYpjcIMwZk9+5M1Lc3GrlwzyaIy4ox2dkU95dF16vuXeBLIhmaFvaDSIfK+PVMJfJE5ZH6eP6JJ7Ny8Nny9psLKosyJY8LYSujXG1wT3ahJtRl7Hs9vYwPsiKRJIikFRyIZksiKQEUiGRLIikBFIhmTSIZgQTIZk0yCYEUjUvxIysdtMnTkP+sivpfaXSS9vPwaNtmLA1Kb5Sm6b4Ku9LfZPeMl4xfevFdV8G/SOyr30HF27lJf8AczzzJp9bBbPhsi+KE/qy8fyfk2eg9kt32exG1wtqTa8HxPkBbgAAAAAAAAAAAAAAAAAAAAAAAAACnzv5/P7KJa+hFnf0hP7KJKwNmBW9qdYjoPZ/N1KVXrnRBcFXFt6ybaUY7+baLGDNPWNJo1eOHDKnYqsbJhlcEGtrJQ5xUt1032fuA4bM7d5turyx8T1FGHVfGFts6pcSjVU7cl/P22SXDBbrq9yix+0mtav2I7S5OXqWbjavi1qdONTH1coQslGUZrh5y5PhXgufNvc9Mp7NaDizlZLBosslKycp3/pG3ZLjm3xb9Wk/cvAsp6hiVPlKO+23zUB5nmYOdr+tVvWKdVhgV4Xym+umNjlGc16umuO3WcU5WS26Sk9+SRW4fZrtNl4eNhLTK8ZaVVk3YmVOuFPyq1Jwx3OK5qS3lLn5N8z1ietUr6MZyNeetb/Rq+LA8+0z0d5GVbj16pSsfS68eOFGhWp2RqjFycpcO6453tTezfKC36nUdhdAzdB0idOq5NeVmylGDthvt6quKhVHn4RW785Msp6va+kIohlqd77ogWc0RSKyWoXvvXwI5Z13ivgBZTIZGg827yMfltnekBuSIpms8yXfFHz5Vv1QEkiGYd8WYucX3gRzIJks2QzYEbMT62fAPj6Hfdlv6BxfZL/MzgWd/wBl/wCgcT7L/wAzAtAAAAAAAAAAAAAAAAAAAAAAAAAABT6jyz/bFfmZRkordvZEOtWqnM4pPZKtP72UGTnWZD2TcYeCAvL9Uqq3UPny8jQt1PIt+jLgXkV9cSaKAybnN7zk2/Nn1RMkjIDHhGxluYyaXXl7QPjRg0Y2ZNEPp3Vx9s0ad2sadV+szsWPttQG40YNFXZ2l0SD+dq2CmvG+JF/KnQX01jT/wD54gWzRi0VsO0Wj2PavVMKT/duiyevUsK39Xl48vZYmBstGLR8jdXJfNsg/ZJH3ffoBizFmTZiwKjX9cxtGojO/ists3VdMPpT8fYvMqez/aXM1TUo0XadCqie+1kLG3Hl37rmZa1o1mdrfrp7yi4xjHfokv8Afcv9PwaMGhRqinNrnICaVe/RmDTi+ZMHs1zA12z0Dsvy0HD+y/xZwNkdua6HoPZ3+g8H/lRYFiAAAAAAAAAAAAAAAAAAAAAAAAAAOO7fZDxHTbKE5V+rk2oLdvh57Je853RtVxNTrcsWxuS6wnFxkvczvu0mmfxnp7hXssit8dbfj4e84HBjjVZEq8qp0XQls3w7OL80BbwZKmall1dKnJ2RcIrdyT5beJ5F6S/Sffg2LTNBr9ZnWx3SfSEX0lPbnz7orm+r5Aeqa32j0rRMed2p5tNEIfScpLkeW9ofT5pOM5Q0XCvzpL9trhh8Xt9yZ4TrtuXlZPyjXsu3KyeqVj+bDyUekfcVXrHc9oLaP4gelar6bu1moyawY42FW+nDFyf5fgUX8p+0+qJy1DXsxJt8oWKtfctyl07E4+W3R7F9jadulyA0r1K5N5GoZdz7+K6yX5lXkadhWS3nZPddN3L8zq3psuH6D+Bo5WC477x29wHK3aLTLd0WKXlyl/v9xWZOHZRu5UqUV+1HZnS5WNs+ho2Ssg+rkvP/AFA531la/qtvgZQyYwe8HbB/uvb8GWWTjU5KbilXZ8F7/wDUqL6Z0zcZx2aAscbXc7Gkvk2p51LXThvmvzOhwO33arBlF4+vZUkv2bWpr70cM+T38Cy4d0B6lpfpt7UYnCsyvDzYLrunB/mvuO40T08aXkOMNYwMjCk+s4fpI/dz+4/Okovb5raZjG2ceqUkB+19B7VaNr1Ct0vPovj38Mluvb4e8u1JH4c0vIcMmF2Hfbi5Ufo2VycJL3o9j7DelTUNNnVidqGrcWTUY5qWyj/zEun2ly8V3gfoBmMma2FmVZdCsplvF9fIzsml1ATnsmek6RD1elYcNttqo8vDkcD2f06eq58Vwv5NW07Zd231faz0lJJbLkgAAAAAAAAAAAAAAAAAAAAAAAAAAAFNr3Z/G1Zes3dOXFbRuiuvlJd6LkAeO9rcPUdM07Ipy6Wovkroc4SW/j3exnmVHZ6jDwNe7S6js5Oc5wnLuikorb4bH6ttrhbXKu2EZwktpRkt015o/PP8I6mnQeyNun4EPVY119bjBPfZfPk17OID8uallzz8+yyfJOTaj4Inw4pyRWVPnJ+LLTA5yQHTaUq65OU03uuiLyvLs22rjGteS5lDgpyaUS/xKK0l6yTb8uQH2V97X62RqX5N0U92prwaLlU47W3B97NTLwqpJ8EpRfnzA57Iux7m1ZD1cvFdCozsbhTcWpR8UWWqY06d+Nbx7pLoUryZUyafOD7gK++Li+XJogscbq+C1LddH4G5l2VS5xfN93eV1je+6W3tAr76nXJpm9T86qD8kQ2x4oPd80S4fOiPlugJOEkqx1YEjaxfmzXgwM8PB4Wl3b77HtXoq7GYfavQtTxsuLdtK3jJddmn+a2PLcKvikj9F/wdqXjvVrJJ8LxN/JtSQFb6NYZGmaZTh3zlNVQlVHfm3GMmoLze3I9T0bszmahKNucp4uN9Vr9JL2Lu9/wOk7N9l8DRK3OutW5U25SvnFcXPuXgvYXwEGFiUYWNCjFrVdUeiX4+0nAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4L/CywpS7M4OVCO8fW+rk/dLb8We9HC+mzs++0Xo51XHqhx5NEPlNSS5uUObXvW6A/n/B7cvMtcFtQ4lF7dW9itvh6rJnF9N90W2K98Hl9VgX2Haqq929klu2SV59mRL5knCvy6spcq5wxJbPqZ41rWMuF7NtR3Xdu9gOhquqT23lKS67JsnWXtyhN7/Vlv+DOYs1GVdsq6dowr67E8NQdr9VkRcZbKS9j6NAXlmRG2LUl7UzltaxvUP1lf6pvp9VljC6T4lJ/Pg9m/HwZhk8N1UoT5xktmBzSsUqmkucHv7UYzjy3XQijvDInCXWO6fuNuMN6YvyA0nHZ8+nRmOG+G6db7+aNicOpDkVuGSpR68mgN2MTbor3ZFjpWRjJdGWuHTu1yAtdEoc7IrY/UXob0v5P2duucWpZVsKI+xc5HgXY7S55WZVCEHKUpJJLvZ+t+y+mrTsbDwopcOHV89rvsl1/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEkpJqSTT5NMAD8Jen3sPZ2O7a5EaK3/F+S3kYstuXBJ84+2L5ezY4bTJpxlW+a6rzR+8fSz2Gxu3fZa3Bs4a86nezEua+hPbo/3X0fufcfhvN0PL0XWsjTM+uWNm1WerjGzklNP6Dfg+59PjuBr3RcqJ1vquRBp93FCVUntJd/gywnBz3ajKNsHwzhJbNNdU14orcjFbn62h7S70BLkV2etd1ceLflOHemYY6cp7U1Ti3ybaeyMqczZqORFwku98vvNpW1yW7tm14cQGxXPedsl05RT9nX8T6p7wftZqSu4vmUJN9Ft0RJOSpp5vlFfECmyo/8bfJd8uRY+p4KYp9yItPxpZGQ7Jr5kXu/N+BY3w35ICr9Vv0RjlU75rjt9GK3+H+5e4GD6ye8uUY8233GtXju62y1rZ2S4kvBdy+AGpgVuE9n9B/cdZpOC7LIpI1dP0yVs0ox3PcPRR6P5Zajm6pGVen1803ydj+qvLzAv/RB2XWFT/HObW+CvlRFrnOfivZ+J7Tp9EqMdKznbN8c3+8//dvcV+k48b3VdGtV4dK4cetLZP8Ae28PD4lyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADy700eivE7c6fPLwoV1a3XHaM3yjevqT/JnqIA/n7qOn5Ol6hbp3aCNmFn0P1cb7ovbZdIW9+3hYt9u/dc1qZmHZTaoZFboua4o784zXjFrlJeaZ+3/SB2A0Xtther1OlQy4x2qyq18+H+q8mfmbth6Nu03YaFlaxa9W0Hic1Fwc6l5rb51UvNfeB5hKmcPpwUo+zdEfBT/ZVL+6dFRXpWW1GrMs0q/wDsc5OdTf7tsV/mRvfyZ1lw46MOOZV19ZiWRui/g9/uA5BbLlCLb8Irckhp9uRJO/8AR1ru72dI9I1WH09NzIb+NEl+Rt4vZnWsppQ07L2fPd1OK29rA531caq1XVHZLuRsYGmW5V0Ywg5SbPRez3ox1LOs/SQipJcTgpJy29u+y97PUeyPo2xMNxs1RKFa60RknOz7UlyS8l8QPCrtBzHTHB03CycrItXz/U0yntH3I6fs36He0+oShPJwVgUt855clBr+7zl9x+nI51GLRCqhQqqrioxhDlGKXRJFZZrMsq50adVPKu71X9GPtl0QHJdmfRloXZ2uN+pWfL8iC3fGuCqPu6v3/A7vBxZ6nwSsg6dPj9Cvbh9Z7u6Pl3kmn6JOU45GqzjdanvGmP6uD/Nl6ASSSSWyXcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAklJNSSafJpgAcF2q9FHZXtE52W4KxMmXN24u0N35rozzLU/4P8AnYVzu7PavB7PeKnvVL4rdH6KAH5uq7J+kjR3w+qWbBfWULfv33LTCfbOqSV/ZhSl4xpa/Hc99AHkeHd2vuSj/EVsF+9JRX3lzi6L2pytvXvDw4vvlNzfwR6GAOVw+x1O6lquZfmy+pvwQ+COlxcajEpVWNVCqtdIwWyJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>data\product_images\Outdoor Intercom Unit_20251120_195518.png</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAD6 Cable Schneider</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CAD6_Cable_Schneider.png</t>
-        </is>
-      </c>
+          <t>Indoor Intercom Screen</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAcCBAUGCAEDCf/EAFcQAAEDAwEDBgUOCgUKBwAAAAEAAgMEBREGEiExBxNBUVKRFGFxsdEIIjIzNnJzdIGSobKzwRcjJCZCVFaTwuEVNVNigiU0N0RGY3WD0tMWQ0VklPDx/8QAGgEBAQEBAQEBAAAAAAAAAAAAAAECAwQFBv/EACcRAQADAAICAQMDBQAAAAAAAAABAhEDEiExBBMiQVFhcQUjUqGx/9oADAMBAAIRAxEAPwDqlERAREQEREBERAVPNR9hvcqkQU82zsN7k5tnYb3KpFdlMU82zsN7k5tnYb3KpE2TFPNs7De5ObZ2G9yqRNkxTzbOw3uTm2dhvcqkTZMU82zsN7k5tnYb3KpE2TFPNs7De5ObZ2G9yqTI602TFPNs7De5ObZ2G9yqyOsJkdYTZMU82zsN7k5tnYb3KrI6wibJinm2dhvcnNs7De5VImyYp5tnYb3JzbOw3uVSJsmAAAwAAPEiIooiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKI/VGVc8Gn7VDDNJHHNVESNY4jbwwkA46MqXFDfqlTiyWQ/wDu3/ZlBCUEjsg7b8+/KyVPLIf/ADZf3jvSsJC9ZCmlQZ2B7jjMkh/xn0q/iGeJcf8AEVhqebxHuKylO8nHrXdxQX7I2njv+Ur7thixvYCvhET1HuVw0nqd3IPRBF/Zt7l7zMfYb3KoE9l3cV7k9l3cUGu64kZRaWr5GANkcwRMI3EFxA3fJlQ/4TUfrNR+9d6VI/KxVFlsoaRodmaYyEbJ4NHpcoyw7oY/5pQfU1NR+s1H713pXnhFR+s1H713pXzw7sP+aUw/sP8AmlB9PCKgf6zUfvXeleeFVP61UfvXelUbEn9lJ8w+hebL/wCzk+YfQg+nhVSf9ZqP3rvSvPCaj9YqP3rvSqNl/wDZyfMPoXuw8AkxyADpLCAgq8Kqf1mo/eu9KzWh7pXUWtLFPBV1DHtroR7a7eC8Ag794IJCwOFk9K+6qy/HoPtGpA7+CIEQEREBERAREQEREBERAREQEREBERAREQEREBERAUMeqaOLDZPjjvsypnULeqeOLBZPjjvsyggSJ6mr1NuH3O+lwBxDDxH956g2Nym71Mrs3O//AAMP1noJ92G9Q7k2R1DuXqIMPd6PJ50EDJwrKlYYalm1nBWerW7UBw3aI34WDc6d8oPMSYzx2VqElsEeC3gFa3e4U9qoZKqqOGN4AcXHqCQvkAGY3dy0blTZMPBagh3NbJZjoBUt4I8o019y03q2anZS2/wOCnYxr3Rvh5zaJOcE5zwxwxxUl8kmrqfWVuu9WGMiqmzjnYBvDcsABB6QcHuXH2r601mqrjUh21GZy1vkb63H0KdvUvbZvF0DQTGaU7R6CdtuPv8ApWYnJamNhM92fBSQSVNTJFDBEC6SR+A1oHSStGtfKtpGe7eDSVEsUDTgVboxzbj5B64DxkLXuXC4V981BSaNtLtmR2zJUb9wJBcNrxNaM463BQ3rDSdVpWsYJJHSQublsnAk9OVL/Int1q3T4/29pdvW6rpLhRxVVvnhqKaQZZLE4Oa4eIhXOyOoLnP1NV/lgvFTZQ9zqOshNTEwncyVvsgPKPuXROZOylbdo1m9es4r2R1BahytPZ+DbVDPWl39HTbur1hW2tL8727vKtV5VaaF/J5qaR0TDJ/Rs+HEb/YFaZcODeFktLe6my/HoPtGrG9AWT0t7qbL8eg+0akDv0IgRAREQEREBERAREQEREBERAREQEREBEWkaz5QqDT8ktJTMNZcWbjGNzIzj9J3duH0IN3RQVZtU3u8T1dXV18zXteAxkLixjBjgAPvyVnI9TXmEjZrnuA6Hta7P0K4uJZRRlBrq6RH8dFSzN96WnvB+5ZCHlEjGBU2546zHKD9BATEb6oU9VCfzfsnX4Y77MrfqfX9kkLRK+opyePOREgfKMqMfVEXCnv1nsossoreaqJHSCEElg2MAkcVMEEMcpw9TAc3TUHwMP1nqD3QzRHEsUjD/eYQpt9S4c3TUPwMH1noOhUREFhcvCXTRMpXhpLSTnxLEz1dXRvIqJTu4rNVDtm4Uo7QePoC17WdRHS09RLjblDRhvR5StxMRHlMmZyGwW6q8Iga7OcrHavMP9GkVcQkpQ1z5cjOyGt2s/QoqoNX3ajqWvgmeY2HfE4ZYR1ELYdY6nF305L4DF+MlpcBjt+9xAcOjOMLhyWiazjtx0mLRqBrlp6x3KKrjsZDX4ModsOLj04GekqaPU7addZLDcqmVm1JK8R84d20G5JA6NnJ71oVFehSh08lNFJLSwtMrGYBcQQAC4DvK2HT3LNX07iy52akjt49iKRpYYx4gTg8R1LzU5Mn7pevm49j7YYHk6hu1z1TdNXXBsD46upqGO2nHbZjcdkcMABrfk8aw/LHeKe4UIiiZJHKHexkGDs9YHUpFttPDS26sfbZS6hq3SVMTwza2mSu2wRjhvLgR1haDypVkB0+XVzRGI2ZwcbR6vlXKZntrvWkdGM9T1ViPXNqcXY/HSRHP96MgfSF17zsYOC8Z8q/PXR94fR3anqKeWSJrpWuyDgtcDkHK6609V1t6rjMKlwibE2Xm88do8V9Hgpu7+HzOe3qYSmtY5Uf9HGpv+Gz/UKyNJWGOEGV4IHStd5T7tSScnmo4opQ577dOAB7wrXWXLXE44BZPS/ups3x6D7RqxYO5ZPS/upsvx6D7RqkK7+CIEQEREBERAREQEREBERAREQEREBERAPBc4cojc61vHw/8LV0eeC505Qx+el4+G/hagaNH5PV+/b5lnJNywujh+T1fv2+ZXmpnPi0/c5I3OY9lLK5rmnBBDDvBXSPTUPrIV8H4UCQap1BCG7F5ruHB8m35wVk6TW2ogQH1sco/wB5TsPmAU7QmpYuMD54diGd9O/ba7bYATgOBLd/QQMfKvjIAtGh1jeDC58kdDIGtLva3tzgeJyx8fKc4/5xaB/y6j0tU2F1IMgBGDvHjVFFVVNsnfNbaiWkleMOdA7YLh48cVpcXKLbnj8dRVsXk2X/AHhZyzXqkvcEktCZS2NwY4SM2SDjKInLkfvdyu8d1bdKySq5kxc2ZAMtyHZ3geIKRlFXIX7G9++h8z1Kqyi2qIw6ogk22jmycg9OQtb1ZQ+ETxPc8Pine2N0Y3ZABdx+QLYqn2wrEXmrihp+baQ6Rp2j4ilqzNchaWiLRMtRNM58VO2O1siicS0s3NLOIyVpTaF89RJbmTlw2yXMLQWtGSNxO8dPBbvX1Va2qxC0SHZ9bG2N2fESc4AWu6Qo6l1TO6ta/wAKDtmQO9lt9R+hcvj12Z309HPMREY1+7WSns1DJRW6Jj62tmY0kknaO/Gc8AN5wF9qvSUdwt9I0tw97y3EodFgAYyAN+8Dp6gvlq+CuotUNuMjo4bdBWRPMrn5EbQMEuA3gbytyuMkd3pYq6muogonMbNhhDS4HBB2s8Mec9a8fJk3nHt4/FIiXPdTX3/SmsZbbSXGZtG4GF8ZO03ALnDAPA5cTkdZWD1/VVdREyKpme8vAe97znd1BbRrJ7dSaju9VbcF1Ls7JHSQDv8AId4HkWEpdI6k1JfxTNpHucGMMTpDsMDTjDs8CN+cDet08zE/o58k9azH6vhyY6Ev2pa1lRaqDboGSjbnmeI48jfgE8T4h1hdY6W01dbd4RUyxNjIhELYg4FzsHORjdhNNWem07ZaO10IxBTMDdrG97v0nnxk5K3e21kToGxvlaJWtyQTg4617eLkmu5+Xz+SuwxdFR1b4WsqIMDpDisbymUrYeTLUbRDEBHbp9nA3j1hW4wzxTNDoZGSNPAtcCFrXKp/o11R/wANn+oVub6xFccLN4LKaW91Nl+PU/2jVi28AsrpX3VWT49T/aNWVd+hECICIiAiIgIiICIiAiIgIiICIiAiIgHguduUL3aXf4b+Fq6JPBc78oI/PO7/AA38IQVaOH5PV+/b5lc6qH5t3b4nN9Qr4aOH5PV+/b5ldaqH5tXf4nN9QrpHpqHM7PYjyKmurRQUhka3bld61jes+hVx+xb5Fa1cXPV8TD7FjM95/kubLXZfD62R8lQ+V7vfEAfcEoKyanmENVksJwC7o+XqUwWzT1PJprDoxzkrTK52N/iUXRURdfDbqsDZmJaxw6M8D8hQXvQpF5LP6tuPw7fqqNKRznUzOc9mBsu8oOD5lJnJX/Vlx+Hb9VBO/I7d6G2z3KGuqI6c1BjMbpHBrXEbW7PXv86lht0oHexraY/81vpXPlkt9JX0lWyrc6NzXNdHIweuY7fgj0K5fm3tf4bXPc1vTMxkI8u92foXK3J1nJd68M2iJhMdyvMOZPBw5+N220jA+lW9sZHURCeVjnOIyGkAgdWfP8qhCG9t5+RnPbVNM10L3s7J/SHkO8fzW0t1vb6KlbDVW+6MhiDYoqpobLFKdkDJ2MlvDguvfYcekxKQZamF9w8GZvkDDIQeoHGT8pWAgcDygW1gGRM5xe0DGSxpIcfJjzL6WCGSN0lbPvlmjySN4a39FoPV/NWNlppJOUuO4VjDFQUVDIY5n7g6WRwbhvkaHE+UKROLkz6ZPlIsDLnb56e1Bkd2qJGHnD04OcHoAI4nG9YrSvJtVQWllDf5qV0UJ2Y3QkvcGEZ2cloAwc447lIUUlI+p59srJOpw6PEvq6p5+dkEONkn1zieK4W462nXeOW9YyFrY9O2ez2zwS3W2mhgeMPbzYcZN+fXk73HyrU9P0Boqm6NZHzdBHWSCjbuGWHBJAHBoJc0eILd77VChtU8w4huy3yncPP9C1YNnexkcEMpa0YGGlWYxiJmfMrloDpN53dKwGp7He6zw0wSUzYJRss2JHbQZu4jHHHRnpV9WUF7ndFHR0bxHtZc55DR8uTwW32mjmgp2CqLTJjfvyrXUtMIppbneW1dwioaOobFERHTu2Th54kg9IA3E9a2zWddNWcmGqxPHI1zbdPhzhu9r4Z+Vb43Zb1DyLV+VN7fwbaowRuttR9QpTj6/lrk5YvGY4Yb7EeRZXSnursnx+n+0asU3gFltJe6yyfH6f7Vq7Q4O/AiBEBERAREQEREBERAREQEREBERAREQDwXPPKAPzyu/w38IXQx4LnrX3uwu/w/wDCEFejx+T1fv2+ZXOqvc3dvic31CrbSHtFV79vmVzqr3N3b4pN9QrpHpqHNUDcgeRUVbRDXxuO4OYPoKuaVmQFc3i1TV1uzR/53F6+Mdrrb8vnXJlslJqCnpdOx7bsubGYyBxyP/oUXR1gm1Oyve3m4o37W/duBzlYyW6Vcb3RytILThzHAgg9RC+cXPXGoDGjZZxcR0DxqjN0Ti+nEhGOcc5+PK4n71J3JT/Vlx+Hb9RRw1oY0NaMADAUj8lP9WXH4dv1UgSzpLT1VfaetNFXMpJYXMGXxlwdkHqO7gsfrjQ9zsVomrXXmgfMOMLGiOV7TxILzlx4cN5VvTarm07QVtNDhnhmzmQHDmhuRgeXPFRXq2/VFdVOdtSvxuaNouIHjJUnjrM7LpHLaIyGXoqqWONwmyCN+1JICSe/JWzVuq6ysbE6w09Q+MzRiUxM2QwkgOJIwN2c789yj3Tdllux8Krdunt8Zw959a6Qj9Fnj6zwHl3Lb7jdYoaOhpYmMigjBDGs3AAbvl8ZXPlrE5D639N+Dyc23tOVlOtRdbRZ7ecVsRgjyS90m2fKf5LSbbr1mpNRVFvs7XPfTggs2QHv34JwcburrUORXuoq5HgTANjA2ncAFjZayk8MbPNG2YtO8OaN4XP6My9HJxfF4bdbcnn+N/46UqdRS2gSR1cMjagOH4o4aW7unitk5PbxFfq2aSKUg0zQXxHiCdw+TioHpLw262eOsha5jXFzdhxyRg7P3KT/AFP7HGtvk7ngNLIWbJ6Tl5yrSuTi/L+JxU+JPNX348/ymcjKtK2sFMcYyVdF46HN71g78w7BkLyBniHjC6zD89CqS6yn2LWj6V8XXGd3F+PIFh2OPQ4nylfdmer6VlWRFTI7i496wPKM8nk61Rk/+mz/AFCstGHdX0rDcoYP4O9T5xj+jZ+n+4UHGTeAWX0l7rLH8fp/tWrEN4LLaS91lj+P0/2rV1hh34EQIgIiICIiAiIgIiICIiAiIgIiICIiAueNc+667/GHfcuh1zvrj3X3f4w77kH30j7RVe/b5lc6p9zd2+KTfUKt9Je0VPv2+ZXOqPc5dfikv1CukelhzvQty1q2e2xZxlYC3M9itstTGh7C4ZaCCR1jPBckYLlBtVDJa4KiWkhdUumDOd2cOI2TuJHFaVHEyFmzExrG9TRhStyh3KgZb7eBa4yDK84L8jOyMHh0b93jUf19xpJ6V0MFthgccYkDsuGD5BxG7u+UMOVI3JV/Vtx+Hb9VR05SLyV/1Zcfh2/VVhWU1Vp68319MbLbamuEO1zpgaDsZxjO/pwe5YL8Husce5u5/MHpU9cl29lz99H5nLewERyQeTzWP7N3P5g9K8/B5rL9m7n8weldc4RDXIp5PNY/s1c/3Y9K8PJ5rD9mrn+7HpXXJVJPkQ1yP+D/AFgOGm7p+7HpXjuT3WJ/2buvyM/muuM56R3rzPkQ1yKeTzWA/wBm7v8AM/mn4PNXnjpm7fLH/NddrwhByKOTrWH7M3X5g9K9/BzrD9mbp80f9S64wvCEHJA5OdYfs1dPmj/qVQ5PNYAY/wDDlzHiIH/UutMJhByX+D7V4/2cuHzG+lX+n9FaloNQ2mrrrHWwU0NbTvkle0Ya3nW7zvXUZWPvo/yVMf70X2rEEjhECICIiAiIgIiICIiAiIgIiICIiAiIgHguedeDGsruP9/9wXQxXPmvy06yuxZnHPb8jp2RlBVpP2ip9+PMrnU/ueunxWX6hVtpT2ip9+PMsvU0bLjG6imL2x1P4h5YcOAd6048e9dI9NQ56trPYrYqanq3uBp6iKNmODo9oqfKLkP0lTYybnNj+0qiPqgLPUfJlpSlADbYX46ZKiR38S5suSNfsqadlA2rnZUB225obHsbPAdB3rTHTxjiIx5XH0ru+r5NtHVkkT6zTtvqHRghnPR7eAePEq6pNB6SpMeDaYskeOBFDHnzIPz+56PeBKxxyTucDjxKS+Ss/wCS6/jvnbxGP0V1ReLVbaWvayCmo6OPmwcx07RvyeoKINZAN1VVhhy0QQAEDGfZpA2jksP4u6e+j8zlvgKhexasl002obFQR1fhBaTtzmPZxnqac8VmYuU2tmI2LDBjr8Md/wBtdvock17xHhieSsW675SflUucACSQAOJPAKPZdd1csGIqCCCY8SZTIB5NwWAr7pXXAnwyplkb2M4aPkG5csbSi+9Wxri11wpQ4biOcCtq6rtVfC2OWvg2QdobMwG/BH3lRVhMJgkxlJZ+aEbauItGd3PtPH/8X2p6O2RztmZUtdI120CZ2nf4+vKi3HiXvyBXBMoqITwmjP8AjCq51h4Paf8AEFDHyL0OPWVeqJn2geBBTJ6ioaEjxwc4fKV9G1M44SyjyPKnUTBv6imVG1rZVysFTUVFQymBw0CRwMpHQPF1n71vdno79WW2Celp7W+B4Ow6aqka8jJG8CM47ypNcFwImiofNtP2nNDMFx2QASdw4A7956d3UrS+n/JM/vo/tWK+Np1N+q2X/wCZL/2lRJp7UFcYqesFppqR0rHTPhmklkLGuDi1oLGgE7OMk7sncVFb2EREBERAREQEREBERAREQEREBERAREQDwXPWvPdjd/h/4QuhTwXPOvT+eV4+H/hCD6aVP4ip9+PMs2KllJJHUy7XNwubI7ZaXHAIJwBvJwOAWD0sfyeo9+PMsu8rpHpqG2P5VLPvFPbr3P1FtE5oPziF8X8p7T7TYK8/CyRs+8rUJDlWsmFOsGM9d+U7UZlAtFjtcceN76yteTn3rGfesHU8oGvZ8gVWnqMf7qillI+V0gH0LF3SpNJTmUQyznba3YiGXeucBnyDOT4gvnId5UwyCrv2rax23W6lLncPxNvhZgdQyHLGOFQ+eWesrJ6yok2QZJtkHAG4ANAAG8q5ke0HiM+VewUVZWH8jpKmf4KJzvMEGqavqJKWClfE8s2nuBLRvO4Khl+s7KMuku99jnDM48Gie3axv6eGfo7lecplouFstVvfcaOel52d4ZzrdkuwwZUcT+0ye9PmV2ZjEbTR6xoZG/jdSuidwAdQBw4dJDuv6O5V0+sY3wzuN/pRIxrnRxvpPbCNrA2gdxOG8dwyerfD+orxLc6xhMFPTCFgiDadmwHY/SI6z0lZSz36ljpYDVWeiqRR5c/bBBqM7sOI6lym8xG55RIbNeVvaon/AOEelfdmu6vphoz5M+lQoawGvdMYmiEv2uZHANz7EfJuytjuNzsjqCrkisbYZqkN8FLZ3EU5GNrIPss7+Ks3z8CThrmp6aSmPkLvSvo3XUvTb4j5JCoX09V2+OvAvME89K4Y2YJNhwd0b+pXl8qbZBb6WKgjrI7kCfCXvlzGR+jsAcPlVnkycxExDXgAy+2+XE38lnqa4XepYXw6ZrpGA7JMbw4Z6shc/wBkqaKaiqmVtRXNrwB4OIn+sO/ftZOeHUvL9caalrWssNdXyU4YMundsuDukAA8M9KfU85gn+K9VbxNs6eurjC8xyBjNotcOLSAM5GRnqWU0leKK7XuWhqqKtgmgjMphlbs7WCPWu6W8QeG9QJYaxk1NBPHd6w3HnCH028BrcH123n6FK3I2x1TqusMr3ucKGR5c45JIc3iSulJ7JKSrlcc1LIhsl5IbgDAY3oAHR5FLuifctb/AHh+sVBQY41kkuCWxuL3HyKddFe5e3/B/eVrk9JVm0RFxbEREBERAREQEREBERAREQEREBERAREQFousuT6mvc81dQTGlr5N79r10chxjf0g+Mdy3pEEEW6zXK0SVFNX0c0cu2CNlpc14xxaRxCy0VnutQAYbdVEHpczZH04Uwotdl1FMejL3NjMMEQPblG7uyr2Lk6q3keEXGFg6RHGXechSSimmtGp+Te2gflVXVzH+6QwfQM/SsnS6F09Bg/0e2Vw6Znuf9BOFsyJqLGktFuo2gUlBSwgdiJo+5XwAAAAwB0BEUEF+qsYP6AsL+kVj298Z9C5v2HTfi2DL3+taOsncF1ty9aMu2stPUENibDJU0tSZnRSSbG20sLdxO7O/pwoC/BPr2lma9un5S+NwcC2eJwyDntLUEImn0fcHzvc2mc/OSQHDd1qmPTNbFDMzwaYc4MHpwpZqNH63gcTJo2qJzv5qF5+q9WE1t1FTkiq0ndI8ccQ1LfSuUxf9nr34s/5f6RK/TddH7KjqSOG0BuVdVZK00cTRTzYjzk82cFSY+unhjMM9sucLdrb2edcN+MZ9dGVsFh5U67T1oht9qnqKZm2ZJhI2GVrnEAZAc0EZIJxnqAVjt+WOSOHP7czv7oDbbJNsB200537Yx96+t0pHPqjI0jYdjhv6F0M3ljrpD+UtttQCc/j7XE/zPC+x5UKOoYRV6d0vPnpfaC094cVp53OFupJGVjH8WN4nBHnVvPSSNmeCQN5IyeIXR9dq3StwoZoJdLaepZHswKimglbI05HAFmPpV+L1ybVkkjJtHWaEA5EjbjKwOGeHtYwcIOeNJwvZcS5w9Zs4BG8FTjyNyin1BcZHYANA9uScYy9qp1I/QE1krjYbD4BcmgcxMy5CZudsAjYzk5bnG5Uck1I6vutypmZL5qQRtA4kmRu5dKSzZMFgsr7lWtpIQQ1xLpX49i3O8+XoCmGlgjpaaKCBuzFG0MaOoBY3TNnZZ6DYJDqiQ7crx0nqHiCy6l7bJWMERFhoREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBMIiBgIiIGFbTUFJMSZqWCTPHajafOFcogws2k9OzEmaw2mQniXUcZP1Vi6jk00XUOLpNL2jaO/LaZrfMtuRBoEvI7oKTOdO07SexLK3zOWNl5CtDPJ2aGsj95XS7u8qUUTRD03qfNIvcTHVXqLPANqmkD5zCtg5PuSqzaKuc1fRVNdV1EjObaapzCIxnO4NaN/jKkFE0EREBERAREQEREBERAREQEREBERAREQEREBERB47c0+RWnOv7RRFurFlXOP7RXhkf2iiLWM68Er+0V6ZH49kURXIXXnOv7RVXOP7RRFMhNeGR/aKCV/aKImQaGR+PZFeCV/aKImQaq5x/aKpMr8+yKImGvRI/Hsihkf2iiJkLrwSvz7IqrnH9ooiZBqnnX9or0SPx7IoiYmhlf2ivBK/tFETINVc4/tFUiV/aKImQaq5x/aK8Mj+0URMhdfSne5zyHHO5fdEWLe2q+hERZaEREBERAREQf//Z</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>data\product_images\Indoor Intercom Screen_20251120_195536.png</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ruijie Access Point Wifi6</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Ruijie_Access_Point_Wifi6.png</t>
-        </is>
-      </c>
+          <t>Cat 6 Cable</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ruijie Reyee Wi-Fi 6 Omni Outdoor Access Point</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ruijie_WiFi6_Omni.png</t>
-        </is>
-      </c>
+          <t>Camera Box</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>900</v>
+        <v>475</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAECAwQFBgcI/8QAPBAAAgEDAgQDBAgDCAMAAAAAAAECAwQRBSESMUFRBhNhIjJxgQcUM0KRobHBI1JyCBUWNENiguFTktH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABYRAQEBAAAAAAAAAAAAAAAAAAABEf/aAAwDAQACEQMRAD8A/VIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHtzAFZVIx25vsjFOo5bR2XcqkEWlOcuT4V6FeHPvNv4slEoYIVKH8pbg29ico/PIJTAxyrVaX2kOOPePP8AAy0a9OqvYks9nzJWGsM0bu24Hxw2CuiDn2961iNbeP8AN1XxOgmmk08pgAAAAMFW4S2p7vv0AztpLLaSMMriC91ORrSlKTzJ5YCMruJvlGK/Mq61X+ZfgUAwX86ovvJ/FEq5mucIy+DwYyANhXlL/UzTf+5bfiZ4yUlmLTXdHOe6w1lGB0pU3xW03Tl2XJhXZBzKGpuL4LqGH/NFfsdGnUhVgpU5KUX1QFgAAAAAAAAAAAAAAAAAAAAAAADXqT49l7v6l60svhXLqYyIIkIkoIAASCESBMS8kpRw+TMZkjugrk3NPy6jL2dw6EuGTzSf5eps3sMxz1Rz8c0B3A3hZfI0tOrZTpSe63j8DW1S/hTpVpZzRoxlOeOuFnARtVq7qNxjtH9TGj5nYeMNRuNTqTjWcqdGpFVLZU4+XwuUU4p44uJKaec8z6a1htdngKEkIkAQGAgQABDGCTBf3NOxsbi7rtqjQpyqTa54SyFK9FVV2kuTNOnOrbVG6bcZdV0fxPG0fHF5UvLlqnR8u1SnWoKDyovDaUufEk0+z7bnvrqkpJte9H80BuWV7C5XC/Zq9Y9/gbZ5vDjJSi2mt010Ozp939YjwzwqsVv6ruBtgAAAAAAAAAAAAAAAAAAVqS4Y569CxgqS4p+i2AqiQSEQSCABJBIBEkIkKFoPDKhPcCa6zFo5c1iR157xObWWJyAwNSSbptxn0aOYnGrTqUa0eKnOLhOPdNYaOxE419Hyb6aWyliS+YGho3hu3sriNSVzVuIwkpwhOEY7r3XJr3munLfc79fVLO1ube3ubinTrV5KFOMnjik+S+Jq0Khir6Jp19q1nqV1RdS6tHxUW5PhjLo8dWgO8mTk89p3iNXviS80mFpWStqXmTrteynlJRfq/wBmda6uXB8MEsrm2Bs5GTh1birOT9qT+ZidStF7Sa+YHoMljg0dQrU5LjXHH8zsQrwdt5zeIcPF8gMxhvrSjqFhc2d1FyoXFOVKok8NxksPD7nN8PeILHX1dvT5yk7Wr5VXijjEmsr47HZCPL2PhTyq0ZXt1TuYLh4nGgqc63D7vmPLzyWcLf0Wx6ZvfPUs2UbA1K1Phm8cuaMcXKnOM4PEovKZuVFxQz2eDXlEK7NvVVejGa6812ZkOXptTy6zg/dn+p1AAAAAAAAAAAAAAAAAK1ZcMG1z6GCKwi9d+1GPzKoIkMACCSCQAAyFCSMkgCCSAMr900a69s3vumlce+gMCOXrkcVKE/Rx/c6iZzte/wAvSfaf7MDUoS5HQt220luzl0HsdCm+GjnrL9AM19UrSsriOnTpfXeB+W6m0eLo2alFVo2dGF3VhVu1TSqzprEZTxu16ZMVT2m9+WxWmpcTSltjeT6AZZ4i23jHQxSefuyx/SfIfpB+mOlpl3V0vwrClcXFJuFW8qe1CEuqivvNfh8T5ZefSJ4vq1XW/wAQ30J88U3GMV8kgP1clGckk8b7m7aXF9/eV9RurOlS0ulGMberxZlVb57dsH58+jH6Zrm81Who/jKdKXnyVOhqUYKDjN7KNVLZpvbiWMde59682STjJYnF4aYHX0+ytLGi6djb0belKTm40oqKcnzb9TaNTTqjnbQb5rY2gDKssVYCO/EvQwuLk9jPT+0Xqa9zTlVpwoRlKHmyxOUXhqC3lh9HjbPqBVqUGpJPKefmduEuKKkuTWTjULG2tE1aW9KinzVOOE/j3+J0LKTeY59lLb0IjaABVAAAAAAAAAAAAAGvLepJ/IEJ5377kiIAAAASBAJAURJUlBEkEhAZfumhcv20b8toM5lzL236IKxxZz9d3tqf9f7G7Fmjrcv4FNd5/sBo0OSOhVfDFLsjQt+htXMuYGFvfHY+dfTl4lraF4ThY2FV0r/U26anF4lCnj2mvXGF8z6GpZc89z4D/aOrzXjDToS+zp2eYr4y3/RAfEZ29xY7xi5U12ME9cpPEZQqNdZJbI7Oq3mNJuoU/elDGfTr+R45LOyRZE13nCFSOc5TWU0fsX6OtWq634F8P6jcScrivaqFWT+9ODcG/nw5PxpbPyraEZP3Y7n7D+i6wqaZ9HfhizrxcaqtFWnF806knPH4SRCPoek/5d/1M6Bx69ncXWhVqFpWVCvVi+Co/uldN0m8sfClLTI6jOpewouH1yabfG23nvjfC9ArtMg40bHUrTwpGyoXrutUp0eBXNX2fMn3fb/oz+HKGoW2hWVHWbiNzqMYfx6seTllvC74WFnrgDp0vtIl1FecvSL/AFX/AMIo+/nsmwpfx2u6f6oCHLJmsV9o/XBikk2Z7L7Of9X7IiNgAFUAAAAAAAAAAAibxCT9CStV4pyeM7MUrBFbL4EgBAAAAABIAAglIEhQmPvIgvBBCq8RZya8suXq8HSuZYg2cio8tfiFTFnN1mWXRj8WdBM5WoS47trpFJARQWMF7qXMUUbEqEakeKUHJpbLOMgc+Ev4kl3Pk/8AaJ8PVtQ0ez120pupKyTpXKistQfKXwTR9V0z63dWEa2p2MbG5c5pUoyy+BP2W/V9jNUjwpxlGNSnNOMoSWVJdU0B+Ea9RvKzsKdGj5bxCKb6pH6P8WfQXomr3lS60LU62jSqPilbVKPnUU/9rTUor03NbQPoA022rxnrev172mn9haUPJUvRzk218kEfLfoh8B3Pi7xND6zCS0Gzkql7WeykuapL/dL8ll9j9cUYOvdJRio8TwkltFLt6JGtY2ui6JDTNAsFSsFWUvqttSptp4Tbbfd4e73Z6LT7FW2ZTkpVH1xyQVu04qMVFcksFyAAZDJZVgXp7Rm/kYK7cJKpGLk4+1wrm11S9cGd7Qiu+5TnzArC5o1acJ0atOpGfuOMk+I6FpHhor1bZzaNChSrVK0aFGFWfv1IwScvi+Z1aUeGnFegFgAAAAAAAAAAAAAifuSx2JDA1lyJIjyRIQAAAkAAAAqUgAESi62RWPMTlhAal9Pbh7nNby2zNdVeKcmvgjXQVZvCbfJHIWZ1JTf3nk2NavqVjZOpXk0pNRSisyk30S6s0dLvaN6p+XGpTnDHFTqx4ZJPk+bTWz3T6AZJanZW+oW1jXuKcLq4eKVNvebxnC/BltL0ivba9qOo1tQq16dzGMKds9oUknnPq/2Ilo1hW1e31OrbRnfW8XGlVbfs5WHhcs46napoDWvYVEnKEeJehzqlbjn6JYPQxWxSpaUarzOnFvvgDgKW5lptyklFZb6JHXWmW+fcf4s2aNvTpLFOEY/BAa9rawiqVWrSpu4hFxjNxXFFPon0Od4Wudbup6nLXLSFrTjccFpFe9Kmlu36Z5fM76Q5AMFWS2QBDEVxSSDLxXDDPWX6AVm8yZUsyALUo8dSMfXf4HQNazhzm/gjZAAAAAAAAAAAAAAAAA1ntOS7MktWWJJ99iqCABIEEgAAAAJQRaKAlbI076rwxwubNmvUUIts4txVc5N/gBjlLMvgRkqbWn2/1itmS/hw3fr6BXjvHdlc6jYRVrGtJ03OMo0ftIxlHh4orq0+nPDZfwlY1aFFVK0KkFGkqUfMjwylvlvhe6XJLPqe11ezzJ3FNf1pfqc+EQLQibEEVhEzRQF4ovEqi6AkkgBEgADgeLdeholspOUIy8uVac5pyVOnHCbwubbaSRj8L61W1OrXpV+CfDTjWhUjHhbi201Jd01z9fQzeJdBerVLevQr06NxShOlKNal5lOrTlhuMo5T5pNNevPJseHtEp6XSqYmp16uPMqKPCklyjFZeEsv8QOpCOXl+6uZaTyy0uWFslyKsCjJhFzmormwzatqXBHMvef5BWWMVGKS5IkAAAAAAAAAAAAAAAAACJx4otGun35myYa0Hnjj80EqAVjLJbIEggASASkAiiZSUURKSjHLZy7274sxi9gIvbjjeE9kaTeXl8yJPO7LUKU69RQpLL69l8QqaFOdeqqdNbvr2Xc9Db0Y0KSpw5Lm+77lLS2hbU+GO8n70u5nAHMurLy5OdJZh1j2/wCjpgDiwRlijdq2sZNuHsv8jXnSnT95bdwmqpFkVJyFWIIyM55b/ACQ2SoN89iy4YdVnuwEYN7z2Xbqy2dklsl0MfmRckuOPE+md2WyBLKt4JzlpLdsz0qPC1Ke8ui7BFbelupz+SNgAKAAAAAAAAAAAAAAAAAAAAAMFWi88VP5xMSnh4ez7M3CtSnGovaWfUJjApJkplZ2r/06jXxWTFK3uVnhcH88AbHEkYqtzCmue5rStryXSP8A7GL+7rqfvOnH/kBjubt1HhcuxqN5fqdSnpH/AJKvyijet7SjQ3hBcX8z3YVybXTqtZqVTNOHrzfyOzQo06EFClFJfqZAAAAAAAAABSVKEuaw+62MM7Z/cmv+SNkAxz50q8PuprukmYnVn5qprnjLcv2R1Ss6cKi9uKfxCNBPbd5LeuDa+r0+z/FkxowX3c/HcDn3FKNxSlTlRVeL2cGtn8+nxMlnaVqdClCpUzKMVGUm8tnQW3IAUp01Bbc+rLgBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/9k=</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>data\product_images\Camera Box_20251120_200934.png</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SPEAKER BOSCH</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Speaker_BOSCH.png</t>
-        </is>
-      </c>
+          <t>Nvr Network Video Recorder</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUCAwQHCAYBCf/EAFMQAAEDAwEEBQYICAoJBQEAAAEAAgMEBREGBxIhMRNBUWFxIjKRscHRCBQjUmJygaEzQmNzgpKishUWJDRDU5PC0uEXJSZERVRVZLMnZXSDhPD/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQME/8QAGxEBAQEBAQEBAQAAAAAAAAAAAAERAgMhElH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARFoz4QG0TUWjNQWilsNRBFT1NK+SQSQNed4PABBPLgg3mi5Hp9turZMCS7NjPfSxEfurLG1DWM56Rl9JB+ZDFj91B1bkdqZXJj9oGr3uLjqCsBPzQwD91Yx1pqonP8Yrp/blB14i49l1ZqaR2X6huxPdVOHqKxJL/fHkl97ujj2mrk96Ds3KLima53OYgy3S4PI5F1VIfaseSpq5OEtZVP8ArTOPtQdtuljYcOkYD2FwCtSVtLEPlKiFn1pAPauIZGl5y9znHtJJKsuhYfOaD4oO3ZbzbIhmW40bB2unYParD9TWJjS596tjWjmTVxj2ric08fzGegK26nj+Y30BB2nJrTTEbcv1DaAP/mRn2rDm2i6PhbvP1Ja8fRqA71LjboWDk0ehfCwIOwX7U9EsGXajoSPolzvUFYftc0MxpP8AGCA46mxSE/urkQsCoLQg60dto0K0H/XLz4Uk3+FYp25aJAOK2rOOyjk4/cuUy0KktCDqc7edGjk65HwpD71jO+EDpMNJbSXlx6h8XYM/trmDdCboQdLH4QunOq1Xj9SP/GrLPhEWQzYfZbqI/nAxk+je9q5vwEwEHVNFt30bUECZ9xpM9c1KSP2SV6Ci2p6JrN0RaioWk9UxMR/aAXGpAXwtBQd3UV/tFdj4ldaCoz/VVDHeoqRBBAIOQesL8/uibnO6M9uFm0lyuNEf5Fca2m/M1D2eooO9couJ6LaJrKiIMGpbkcdUsglH7QK9BR7bdcU+OkraOqA/rqVvH7W4QdcIuZqL4Q19jwK6y22ftMUj4j9+8vQ0Pwi6BzgK/T1ZCOt0M7JPuIag3wi1PRbe9G1GBOblSHr6Wl3h+ySvQUe1fQ9WWiPUdEwnqm3ov3gEHuEUVQajslxIFBeLdUk9UNSx5+4qUDgQCDkHrCD6iIgIiICIiAiIgLl/4XA/2l0+7/sphx+uF1AuZPhctzfNN45mmnH7TEHOUU8kJADzF2Nf5TD4FTNvqZSN8ZieD+I7gVCyQSRZLm7gPMtG8w+I6lIWcYhdgNHlfingUHoYLxNHgTNbIO3kVIwXSmmwN/cd2P4fevJXEkRNI3uDvxeawqetka3ysTNHMt4OH2INjbwPEcQvi8dQ3Jwx0EpB62n3KZpbo+SWOJ8Qc97g0FpxxJwEEscKg4WzKLY9eK2nbPFd7QYXcnMc9w8PNHFZjdidYPw+o7fGOvETj6yEGpCVQStwf6GKRnGo1hStHXiFvteqhsk01H/ONZk9u4Ih7Sg00SFQ5wW6hsy0LF+H1VWyfVcz2MKrGgtmkeOkul0mPdM4Z9DEGji4K2XjK3yzSuy2HnBc6jxll/yV0WjZhFxZp2ol+u559b0HP5eFbdK0c3AfauiGM2eQ/gtHQvx89jT63FZLLppKE/ybRdub9aCL/CUHNLqmIf0jP1gqenafNO94cV08NU2yNoFPpW1sA5DomDHoYshuu6iP+bWihi8AfYAg5figqpiBDSVUhPLche7PoCzILFe6gEwWW6yAfNo5T/dXSb9oV5xhlPSM7PIcfasd+vr+7lJAzwh95QaEh0Rq2Yjo9M3g57aVw9azYtmut5cbumq8fX3G+ty3LLrO/v51wb9WNo9iwZdXXgk793e39JoQa2h2Q68l/wCBFn16mIf3llx7FNcv86goo/r1jPZle0l1VW/0t9kH/wCgD2qKqNbUQz0+pov0q3PtQRkOwnWL/wALLZ4h9KpcfUxZbNg19/3i+2OL9N7vYFiVGvLA3PS3+J/1Xvf6go+baJpmM/z6aU/Qp3n1hB6FmwqRv861haox9GIn1uCuN2K2eP8AnOu6fvEdM3/GvGz7TrAwfJU9wmPdC1vrcsGbarRgfyez1bj+UmY31AoNijZJo+L8PrKrk7ejhYPYVUNmegI/wmobzL9VjR/cWqp9qtaf5tZ6ZnfJO53qAUfNtK1DJ+DZb4R9GEuP3uQbo/iJs3j5y3ufxmLc+hoVTdI7Oo+DbVc5/r1Lz/eC0LPrbUs+c3R0YPVFExnsUdUXm71WfjN0rpAeozuA+4oOh5rDs3p/Kk0tGcfjVEx9r1RBqzQennZt9Nb6FzeXRVXEfY0lc1vYZDmQuee1xLvWvnRAcgB4IOl5/hB2ugG7TTVNTjgAxjnj0uAUhs92/wA2rNd2nT0dlLIq172uqZJA1zQ2NzuDRnPm9q5UpoD8XfJKTvmTda0/NxxPqWwfg/Mxtn0yfysv/heg7sRByRAREQEREBaj297NLjrmK31tlqYRWUDJGimm8kTBxB4P6j5PXw48wtuIg/Pi6W+ttFwloLrSTUdZEcPhmbuuHf3jvHArHiYxmdxobk5OAu7Na6LsesqD4rfaJspaPkp2eTLEe1ruY8OR6wuYNo+xy+6Q6Wst4fdrM3yjNEz5WEfTYOr6TeHbhBq24DMTT5XA5y3qUWRkZIBPVIzgR4qaZIHjgQQrE1JG87zfId2tQYNISZ4yd14B4O5EKcoZGRXChLycmpia0AZyS8dfUoiOF0dUzpGcSeD28j4qWo34uNI38tG7H6QQbx1rcKu36cqjR1M0AfNHvCNxGfKWr5NRXQ5zX1B8XZWwtpztzSlS78vH+8tNPnUE7Jfb2Gtc2qqt1+S07vB2Dg4OOPHgrDtQX/B3a6qGAXdXIKK/hN7GsAGdwADJ7Dn18ViSVr3bvkjyRgeGAPYgnpL9qZjQ43GpaHcvLb24x6VakvuqGEh14mbu9r2947O4qDbXSNJLQ0HAHLsOfWrMlRI88XKiSl1VqRkhabzVZHYW+5UHVupP+tVnpHuUS45JJ5lU4QTH8a9Rnne679ce5fW6l1A7ne6/+1woloV+NqCUjvt6d514uB/+9yyGXa6O8651x8Z3e9RsTVksGEGe2urXedW1R8Zne9V/GJ3edPMfGQ+9YjFdBQXC5x5veT3uK+OIAyeXaVQ5wa0ucQGjiSepQNyuBqCY4SRD1/S/yQTMBpaimrbhXCR1qo3Ni6OJ24+rnfktiDseS0BrnOdzwOHEhY1LW2a5zsorjZbfa4ZTuR1tCJGvp3Hg1zw57hIzPnA4djJByMG2xjp9BzCMl3xO5iWZuT5DJIgxr8dhcwtz1EtHWomio57lXU1DSM36ipkbFG3tJOOPcOZ7ACg+VdHNQ1tRR1TNyop5HRSN54c0kH7wre4FJ6oq4K3U92qaNwdTSVTzE4cnNBwHfbjP2qNygboX3AXzeC+bwQVAKoBUb47QqmvaTgEH7UFwNVQaq4opH+ZG93g0lZkVsrpPMoqk+ETvcgwd1NwngBknqU1Fp+6SeZb6g+LcLPp9E6kqD/J7RVuPVut9yCArrPXUNO2eqoqyCFzt0Pmp3RtJxnAJHE816/YA3/1l01+cl/8AC9Xo9lOvbkcvs9wkPUamY/3ivf7INj+sNPbQ7LervRU0FDSukdIRUtc4Zjc0cB3kKaOohyREVBERAREQEREBERBqPaVsRsup3S19kLLRd3ZcXRt+QmP02DkfpN+0Fcy6r0vetI3H4lqChfTSH8HIPKjlHax44Hw5jrAXeyj77Zbdf7bLb7zRw1lHL50UrcjxHWD3jig4BBBV2mIbVU7iWgCaMcSBzeMeK3TtG2B11s6Wv0ZJJX0g8o0Mh+XYPoO/HHccHxWkjFu10UFVCWSxVDMtkaWujcHDgQeIPcg3JtYO7oyrPZPF+8tGulK3ftdd/sNWn8vD++tC7+UF9z8q2XK3vJvIKyV8JVsvA5kL7HvSHEbXPP0Rn1IK8r6Fm01ku1TjoLbVuB6+iIHpKlabRl7lxvU8cX5yVoPoGUECwLIYF66i2eXKUjeqIR3RsfIfuC9HQbJLjNg9Fc5h+TpC0ekpo1uxX2rctBsVr5MZtlWe+adjPuyvRUOxCoyOkpbfEO2SVzz9wQc+NI7QsiOOR/mRvd9VpK6Yo9jZjxvVdDD+ap8+vCmKbZNRtA6e51DuP9HE1nryg4+rbZfLg/cgtdYIM8Pk8b3ecqqm0XqCXGaERD8pK0e1dowbMLDGPlH1sp+lNj1AKTg0HpuEDFsY8jrke53rKDjazaQ1FbKr4zTVVBA5zDHIyQ9KyRh5sewjDmnsPrUwNK3CSnlgoZLPahUNMc77dSSOkkaebN973FrT1tbjPI8F2DT6ZslPjorTQtI5HoGn1hSUFNBAMQQxxgdTGAepBxdQ7G6ufAY+5y/mqIj1qdo9g9ZJjeors7Pz3xxrrlEHMdH8HyRwBloGt/PVpP7qnaL4P1KwDpYbWztyJJT963+iDT1JsKs0QG9LTt7mUbfaSpqj2Q6fg859Q76rY2epq2OiDyNNs705Bzo5JfrzO9hCkqfSVgpyDHaaTI45cze9eVOIgxYLdRU/83pKeL6kTW+oLKwiICIiAiIgIiICIiAiIgIiICIiAvC7QtmFg1tu1FXCaS6sIMddTgCTgeAcOTx3H7CF7pEGgtqezbUVfpyot9mgjrpZpY3MLZAwAB2Tvb3LgtY2/wCDvrecA1YoKUHqM4efuXZaIOWrd8Ga4u4195gaOyPPuXprf8GuzRYNZcJZj1jDsfvBb/RBqe27CdJ0eCYnOI6xGzPpIJXo6TZnpumxu00zgOoylo/Zwvaog85FojTkZBFqgcQMfKFz/WVJU1jtVNj4vbaKMjkWwNB9SkUQUxxsjbuxsaxvY0YVSIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICImUBERAREQERfHOa0ZcQB3lB9RUGaIDJkYB27wVv45Tf8xD+uEF9FhvutvYMvrqVo7TM0e1WJNQWePG/daAZ/7hvvQSaKGk1TYo27zrvQ47pmlWv44ae/6xR/2iCeRebOuNNj/i9P8Ate5Wzr/TIOP4UYfCN/uQeoReQdtF00Dj46894gf7lZO0zTuSBNUnwp3IPaovCnahYASNyuPeIR71cg2maekPlvq4uP48B9mUHtkXmYdd6alIAusLT9Nrm+sLMh1VYZt3o7vQneOBmZo9aCaRYkVyoZgDDWU0gPzZWn2rKa4OGWkEdyD6iIgIiICIiAiIgIiICIiAiIgIiIIbWN2ksemq65QMY+SnaHBr87py4DjjxWpHbWLtJIQ2SgiPU18RH3l2FsTa6SNnF7IOPkm/vtXKdVMBkY8nuQbtk2jaicQQ+kYO6DOfSVbdtD1I48KqBvc2BvtWjqa51tEc0VQ7d5mM8Qf0T7FM0GsoyQ240pYf6yA5H2tPsKDajtd6lc4n+EQO4Qsx6ljnWOoySf4Wn/Vb7l5Kmu1BVMDqeshfkgbucPyerdPFZPTjqbIfBjvcgn5dV6ilxvXiqGPmkN9QVp+pL+8Ydeq7HdKR6lDCRx5RS/2ZCqzIeUMv6qCRfe71IMPvFeR+fd71Zkr7jKMS3OtcOwzu96xcTHlA/wBI96blR/UH7Xt96CtzpnHL6qoce0yE+1UPjL/Plld4vJXwtn642DxkCpPTfNi/tP8AJB96FmMEuI8V9EEfzVRu1LvNbF9hcfYggrneaxp8I3lBc6CL5oToox+KF9bQXVwy2lmd9WmeVhzNrWV8VCQ8Vsrt1kHQHfccZxjOeSDJLYxzACtOmpm+dJGP0llN0zqeXzbXW/bTgetVs0Tqp/K2yt+sI2+tBHOq6NvOaP0qn4/Rf1zfQVLjZ/q5/wDQRM+tLEFdbs01a88aikj8Zx7GoIMV1KeUo/VPuVxtTA7zST4NPuU43ZXqh/n3ejj8Jnn1NVX+iC+P/C6hp2+HSn3IIUPa7kHfqlfCQOfDxU1/oWrXn5XUbMd0Lz63Kpuw5p/C6hk/Rpfe9BAOljHN7R4kK06oph500I8XheobsMt/9Jfax31adg9qxdQbFKeKzyvsVdUVVya5pZFUlkbHtz5QyBwOOR5ZQeafV0DedTTD9NqpbeqKEjcuccZHLdnIx6Cva6Z2NWmG1UUuoTU1FzDQ+ohgnDYd7OdwHGSMYBOePHkpWbZbpKqqZqirtr6SMFx+SqDFGGjk7dzhvDiePeoNft1xLAfk9TVDOXKrd1fasmLalXU5G7qp7sHOHuD/AFhStTovRzJ/5HZZXw4j3TVVEzHOLs5AAPVwGe3e5YWJHpnSGYHTWajYwgPeTNLxblmd3MmORPP5zO9UfWba6+EAOvtJJjHnUwJ+4LKZ8ICaEfKTW6bn/u8o9RUzQbP9GVlPHPT2GkdE4kZc5zsEcCMhxGc961Xc9XaApmSst2iYZ6hhwGztaxpwePHLj9yDYcfwkaCMj4xSQuGePR9IOH2tUjR/CU0vK9kclBcjM87rWQMEhceoAHBK0PUbSLRBEyRmz7TzI3khhe3fzjGfxe8L3GxfU9Hqu/VTWaX0/Qili6SOSCm47xO7g56sHqwUG5NHbbdM6r1RS2C3012ir6jfDfjFO1rWlrS4h2HEjgD1LaK52slJCz4RunGGGMSxWmomMjRul7zvNye3AyBnK6JQEREBERAREQEREHjtsJxs1vx7IB++1cdm4sl3hJ5BBxnPDPsXY+1yMy7N7+0f8sXegg+xcUVlNJE+beBAOC09vHt9hQZUpyrEk5a4Nkbvg8s8x9qroWZpG8uZHDxVmri+UB+aM/eglLBum70rot5z97g08COHbyXRdk0tQVNqpKiaaeR8sTXuLX4GSOrhlc76dbuXilP0j6iuo9Ine0zaz+Qb7UFmPSVqHOOZ3jKVmQ6Wsw50m94yO96lWq8xEYlPpqyjH+rYD9bJ9qz47DZ28RbKT+zBV2N2Fea9BSy121gw230YH5lvuV5tNSsPkU0DfCJo9ipD1930F5oY3zWMHg0BVB2ORx4Kxvr7vIL3SH5x9KjJrLaprwy7SW+lfc2DDap0YMjeGODurhwVVdc6Og3fjtTFAXAloecE4549KxXagtoc0fGS7exu7sMjgc8uIbhBKnCtuwoqbUNIySRjWVbzGd127STHjnHA7mD9ij7tqGohmhFHTt6OSHpd6opqgnmRjDG8CAM+UQeIQx6PK+EryVsvd5ulfFDBSwtppoHyMqnUU7I2ux5BLnEAg55DmOsKJ1jqOs01SCW7X2gawlpa6itL5jl29gfhTnzT/wDxCD37ivmcrTmn9otNe77TWmHU9XT1NQ1zojLY4mMfgZIy5ziDjPNbZt28KGn36j407cGZ90N6Th52BwGefBBlEqguVFS+RkLnQwunkHKNrg0u8CeHpUK+e/EndtcbBjhv1UY4/egmi5Ukrz1Y2+1Ejj8apLWwEBrRM2YvHHLid0Y5gY48u9faOa8MmihnqLNPCDgy9M/ppBnnugboPPrPUip/K83rKpe2GKmZURxtlaWvYZAN9rsgh7TzZz6+py9EF4rWDnRXlzw97W9DF+E4sbxf5Q8ocBg5GDxafnIjAs1GbqHRwva0thBL3YduHeIx5LuBOHfa154ZGb16tU1DTxTSTb54h74Q9oYd0OzjfzjLXeSOprR1DMtpeWMUToWh7XxnymveX4HEAZJI4bpBweYJ61XqieNllnZJG2V0uGsjJ45BB3hgHJbjI4HiAOtUQ+m3NZcGvDnMD2vDRuPw/wAknHHgMbuOoks+kuXK+lIo4p3PgLKiaXO47MrAMA7w6hxyO3BXStii6S505ZE14ZhxduDDQGYySGjj1NOfm9pWXV6I0xUwmOWx0O6TnyI9w+kYKiuQqi51DKyWq3pjXxvD6eWOIMDXBwOSMY5DgByK2l8F+Mw3y5iTg99MH46wN8YW4WbP9JRebYaI4+c0u9ZUlarJarROXWu3UtI54w50MQaXDsJCCBtBz8Jmyj/2Ob95y6DXPNjO98Ju0j5til/ecuhkBERAREQEREBERBHajtUd8sVfbJpHRMq4XRF7RktyOeFybrrRtx0rWmjusIkp5CehqGj5OYDs7D3cx967DWBfbPQ322TUF1p2VFLKOLHdR6iD1EdoQcQRUzYY9xpJbkkZWLVsxI/GfweeHiVtHaZs4rdISuqqYvq7K4+TPjyos8myex3I9y1bdpBFh2D5bTH3Z6soM2zDduNIfpj1LqDRR3tKWw/ksftFcxW9u5V03c8LpvQB3tH2s/kyP2nIPQNCvMavsbFeaxVFLWlXAFWGqrCCgKoBfcL6g+YX1fV8ygiNU3SOy2asuk8kzYKGmlqJGxydHvhoHM4PLOVpLYvtUueq9oNfY7vOa6mnZJU0k8dQ9ggbHlwYW8N/IxknHLvW69UV0dstNbXT00dXDT0k8r6eXzJAGg7p4HgfArV2zja5Taj1zFpyj0pbbXHJBM8VNPKCfIbnAAY3GcKK9/ebrcaevhioqN1QPjjIpgZQwRU5bkzAHzuPDC9DG/LPJ4g9iwH1D5quWnMUszOnbTuZC1p6Jjo97pZCSCGdWR1471haq1BbtN0TH3MTtjqt8NMQGS7AJycgAneznuPYpJi27J8Tgkb0TdzdLCABu8sd3cvJ6y0PbtV0kdLWzVcMTN3HQOAdlp4HJB444eCaJ1Vb9Ruqqa0UlXHHSNEkkkzWgF78OwN0kE+Vk4wByUdtJbq2e2wnTlHP025kshJ3g7eYDnygHAguxnljPMqot6U2Vaf01dmXKH47V1rGOjY+slDwwOOThoAGe9e7Yd1oAbgDgAtTbO6LaLS3yaXUbzBbDERuVEjOLsjGBkkEDK9Hrq73qhZQR2G5WWOXdcap1VVU7CDw3eD3DmMngFeZtxOrk16HVrnjTVwLJBE7o+EjjgNOeZPYtSMhZPuNdqql6R4bjo3uefKaXDGO0AkdwXrKHUUlToe8RXu+2Ke8s3pGikq4ZGsjywNLtzgBvHGT2heVZV1row1upYG8BwgEjwOA4eQzq4rH1l345vbnrvLJWVc4aeaw6djkuz52up5t2ohgkkM7RvHIwOBGOvnjASxWikF9tc8Tru98VUx4LqJzY+LQ4bxIGBg8+o5HNXZJpblbrdRx3O4yVdJE6OpljopyZHFzi0jLRvY4K7Z7HUR3y3VT5b28Q1DXkS0rmMIz+MS7ks7x1brO+XX7lz+NpgrzmraOaqMczcuip2F+G+cwhzSXAAEvJABx2sHzipitkkFJKafHShvk57VD2s1hcw1nSnMZEnSEYJJ4YHhzXS7nlqeWWjcXwOFM7cLeAw3gRwzuDIyMZ48GZ61RXTvqYmGsndMWA4Mjm5YS3BDTww7l+l4L1s9oonvLhvxNwGiOIhjWgADAAHAcPvKtxWqjimikY+dz4yC3ene4ZAxyzg9fV15V0RlgojG6OqdMHMcwiNrCQHfS84ggjl3bvYpxxVfQF7w5rXuPLyWkq423VUgyymqHD6hUGG4q3x3gQCQ0EnAycY7FKNslc7lSTfbge1VDTlxcCBT7mRjPShp9IOQg1xpUtm+E5TuByI9PuIx3v/zXQ60/pbZ5erbtrl1RUfFBaTbPijGtlJk3/J/Fxy4HjlbgQEREBERAREQEREBERBRUQxVED4aiNksUjS17HjLXA8wQeYXOe13Y0+kbJddLxyS0LD0ktG3ynwjrLOtze7mO/q6PRBwvTOHxmE/lB610ts2eH6LthBzhrwfEPcsTahsjhvc5uumRDSXMvD5YHHdin48TwHku7+R6+1T2g9K3Sy6apaKu+L9Oxz3O3JC4DecSOOFBOR8ldCvMttQBxfEPtJV1ttk4b0zB24aferqYxcr7lZYtp4ZnPfhqrbbmcN6WQ+gexNMYOV93lntt0Ixl0jvFyrFDAAPJJ8XFNMRuVSXhSooqcf0TT48VW2nhbyij/VCLjyV7gqayIRU0lI2NzXMlbUQGUPa7AIxvAenK8lp3QQ0/X1NZZH0lBPVOBndBQBxkA6sued0cTwC262NjeTGjwCqQeAdZbvJO+T+FKvLjlrmU0DXMbnO6D0ZyPFVVmla+tjjZNdby/o2jnUMa1xGfKIaweUc9WF71EGvqbRL4nOL6m6yb4cCHXGYMwRg+Tv4zxPHqVD9mttqGuFTSGXe59NWTyet5WxEQeAi2YWBoG9ZLO44wXPpmvJ8cg5Ug3Qdo3mONBbg5rWtDm0kYcA0YABxnAAA8F69EHn4NM08AxC5kQPPo4mt9SyRZBgh1VOQeGAVLoghm6coWu3vLz2jA9iuNsNCCMse7xeVKogwG2ehaB8gD9ZxPtVbbXQtxilh4drcrMRBYbRUrfNpoR4MCuNijb5rGjwCrRAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/Z</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>data\product_images\Nvr Network Video Recorder_20251120_200445.png</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HD 4TB</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HD_4TB.png</t>
-        </is>
-      </c>
+          <t>Poe Switch</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAcIAQIDBQYECf/EAFYQAAEDAwEEBAcJCQwJBQAAAAEAAgMEBREGBxIhMQgTQVEUFSIyYYHRGFRWcZGSlKHSFyMzQlKTsbLiFiQ0RFN0hKKjpMHhNjdDVWJkc4KDJkVjcvH/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHxEBAAIDAQEBAQEBAAAAAAAAAAECERIhMRNRIkED/9oADAMBAAIRAxEAPwC1KIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg+K9XKns9orLjWO3aekhdNIe3DRk49KgJ/SagBO7pabHZmtbn9Rej6Ueoza9Dw2mB+J7pNuuGf9kzynfKd0fKqkEHiScoLI+6bi7NLS/Th9hYPScj7NLSeuuH2FW0hYIQWS904z4Kv+nD7Ce6cb8FX/Th9hVswsILJnpODPDSzsfz4fYT3Tgzx0s7H8+H2FW1YQWS9063t0s76cPsJ7p1vwVd9OH2FWxEFkj0nR2aWd9NH2Fg9J3njSx9H79/YVbVgoLJe6dPwX/vv7Cx7p4/Bf++/sKtiILKHpPd2lz9N/YWvunnZ/wBF/wC+fsqtqwgsoOk8e3S/98/ZQ9J/u0ufpn7KrWVqUFlvdPj4Lu+mD7Ke6gb8F3fTB9lVpWqCzHuoW/Bd30wfZWPdRM+C7vpg+yqzlYIQWZPSjZ8Fn/TB9lanpSNz/os7H88H2VWYhYIQWZ91I34LO+mfsoelI3s0s711g+yqyYTCCzfupG44aWd9M/ZWvupD8Fx9M/ZVZcJhBZg9KR/Zpdv0z9lPdSSfBdv0z9lVnwmEFmPdSSfBdv0z9lYPSkl7NLs9dYfsqtCILLe6km+C8f0w/ZWfdSS/BZn00/YVaMLKCz9u6UDJKuFtdpkxU5eBJJHWbxY3tIBYM454yrJQSsnhZLE4Pje0Oa4ciCMgr80Ar0dHjUZ1HsttTpX79VQg0M2TxzHwafWwtQSUiIgIiICIiAiLpNbXyPTelLndpcfvWFz2A/jP5NHrJCCqPSK1F4+2jVcET96ltrRSR45bw4vPzjj1KLSOK+uqkkqJ5Z53F8sry97j2uJyT8pXzOCDQha4W5C1IQakLDGhzw3ea0n8o4CHkuCo/BO4diD6Sxg/jNN8/wDyWzYGvzu1VLw5/fP8l8gGAtSwl54Z4dyD63RMHOpp/n/5LRzMDLXxvH/C4FfKRjt9SxugoOZYJWoLgO9btc3HlNBPrQatwXhuQM8MnktyxgyDNFkelaSOY4eRGRjmcr5QOCD7A1mQBPFx9K1fhrsBwd6RyXzNGXAAZK5vJaR1mWg+hBkkDmcfGti2Ic6iP6yuKSRrHB0J3wOPlNWhqZCMYYB6GhByv3QRuyNeD3LXn2FcIe9zcZ4DjyXIaqoBx1zx9SDk6uQjIY/5Fo1rnea1x+ILidUTHnLIf+4rd1RIGFvEfESg5BBKeUUnzSuMjjg8D6VxNlkByJHg94cVu58kpL5C555ZKD6TS7o8uaBvxvyuJ8bGgkTxOI7BnivnPnEHgjfOHag5MZWwieeTHn1LmnpaiPyxHho45Zxx8fatmTb7BuVT2P7RITj1FB8rmlpw4EHuKxhfVLBVOO/IyR5/K876wvncC04IIPcUGuEws5RBjCYWUKAFYHoh6k8D1Pc9PzPxHcIRUQg/ysfMD42n+qq/LvdDX5+mNX2i8xk/vOpZI8A+czOHj1tLkH6KouOnmjqII5oXh8UjQ9jhycCMg/IuRAREQEREBQL0ptRdTbLdYIX4dUO8JnAP4reDQfXx9SnpxDWkk4A4kqkm2C+fuk1/cq3e3oY39RDx5MbwQeJcuMrlIXGeaDjIWhC5SFoQg4yFo4Et3SSWjsK5SFqQg4i1YweXYuUrUhBx4CxhbkLGEGmFghbrBQaY54JAPNY3Mf8A4uRa5Qa4wcj9CwRnnz+JbIg491Y3fi+RcmFnCDjAcM4OM8Fggk965MLGEHGW/F8iEEneJye9bkJhBxkZPZ8izxxjPArKIMHOcnn6Vjj6PkWywgB7w8OD3Bw4A5WCSSSeJPeFkhEBj3s8xxb8XBJHPkfvSOLnHtJyVlYQa4WCFvhYKDUBZws4RBqjRk962WEF3+jfqM6g2W29k0m/VW0mhlycnDPMPzC35FKKqP0RtR+L9ZV9ilfiG5wdZEP/AJYuP1sLvmq3CAiIgIiIPK7Ubz4i0Lda1rt2QRGNh/4ncAqTTQyvcXFuSeJ481bbpG/6qbnjnvx/rKD9B7ObDdNFxXi6OqusIc55Y/gAPQpMxHqxGUYup5PyfrC0MEg/F+tSlatM7P7nMYaSsqi/dLwHOI3gOeFqNL6GfRS1UM9W+KOQROIJ4OU2hdUWmnk/J+ta+DSn8T61Lw0foPywbi/fY3Jb1nEL7rLs70feYw+gqpZOGcB/EBTeDWUImlmx5n1hamlm/I+tT83ZPph7i1tRKXDmBKsnZLpjODNLnOPwqbwaSr+aSb8j61jwOf8Ak/rCsANkml3BxE0xDTg/feSDZFpdzgGyzku5AS803g0lAHgFQf8AZn5QsC31R5RH5QrCfcb012+Fn/yrB2MaXPNtZ+eKn0hdJV8NtqwPwDvlC18W1nPqHfKParBHY1pNsjGOZW7z87o648cepb/cV0n/ACVd+fPsT6QaSrz4trP5B3yj2p4srPe7vlHtVg4tjej5HysjirS6M7rh154HGe5bnYtpPBPU1v58+xX6QaSr14qrTyp3fKPanimvPKmd85vtVgafY3o+ohbLFDXOjdyPXn2JUbGtGwR78tPXBoIGRO48zgch3lPpBpKv/iiv97O+c32rHimvPKlef+5vtVhDsT0f20td9JPsWBsU0cf4rWn+kn2KfSDSVe/FNf71d85vtQWmvP8AFnfOb7VP82xzRMM0UUlNXB8pwweEO4n48Lm+4po/3pW/SXexPpBpKvXiivPKmd89vtWDaK/3s757farAHY9ogVTaY01Z1zgSG+EP48M93cucbFNHZ/gVb9Jd7FfpBpKu5s9eP4s757PaseKK/wB7H57ParBw7H9Dy1EsEdJWGWMZc3wh4wMkd3eCuZ2xbRjWucaGsw0En98O9ifSDSVdvFFfnhTH57PaseKK/OPBnfPb7VYWm2OaJqYy+GirHNBxkzvH6R6VyfcW0YOBoqv11LlPpBpKu5s9f72Pz2e1PE9w97H57ParE/cV0b2UFWf6S5cR2O6IFSKfwKsEpGQ3r38sHtxjsKfSDSVe/E9w96u+ez2rAs9wPKmPz2e1WK+4ro3P8Aq/pLl80WyLQs1XLTR0tWZ4hl7PCH5HHHcr9INJV/8AE9w97H84z7SwbPcBzpj+cZ7VYl2xfRjGFzqGrDQMn98vXFR7INDVcbpKajqpGtduE+EPGDgHHEekJ9ITSVe/E9f72P5xntWRZbgeVMfzjPtKw1Rsc0TTx9ZNQ1bWZDc+EPPE8ByW8exnRckbHsoKpzXAOB8JfxBT6Qukq6iz15/i/wDaM+0s+Jrh72/tGfaVgq3ZJoSgEZq6OqjbISGk1Dzk+pfSdi+jWk5t1UMf8y9PpBpKC9JC76c1Pa7xTUrjJRVDJ8CVnlNB8pvndrcj1r9AaKpirKOCqp3B8MzGyRuHa0jIPyFUN2yaTtOldQ09JZ4nsglpBM5kjt/Dt5w4E8exXa0A3c0Jpxo7LbTD+yatROWJjDvkRFQREQRl0juGym5//eP9ZeH2T0r63ZfTwR+SZWSM3u7JIXtukicbJ7n/ANSL9ZeP2Kk/c+oMH8Z/6Vj/AKeNU9dVZdkUdHLDJcbh1ogY5sQYN3BJ7VxjZdIy2yULbo4QPn68gN4k9ykarpJJ5d9lTLFwxhvJZip3wUzw+oe9x475HELntLesI3j2UQMeHtq/L3nEkt55GF3uhdEnS1TO6Kq62KZm65pbxHxFeolmc2tpWDrC14PEN4etYjmcZa1o64bg4Zbw5diZk487U6GgkqWyx1tRGd4udh3NfXRaNo6adspqKmRzXb2HPyMrsuvk8WUr/v8AvOc0HyfK59oX1dafG4j++7vVZ83yOff3pmTjof3F0PXOkdUVRLiSW7+Bk+hfTRaVo6KthqWSTufFncDn8Blfd15NBXSNbUAsc4Abvlf9oWKmR48WHNR5bgHbrc8x+N3BTMnHY44Ly+rpaGldLWXV0/gtLTGQtieWnzuJwCM8F3sUh8bzR4mwImuyW+Rz7D3rrNV2R1/t10t8PV+EVFvkjiMnmh5cMErM8ajqrmo9pNZLf6mSw1UsVsD8wxzPeXEenysjPoUlUu0bSbtI+NJo7r4Qx7ad7Wvfu9cWF3Dy/NyDxXl/c46r9+2v57vYvQRbCtTR6FqLIKy2dfJcGVe9l2NwRuaRnGeZC3a1J/1mK2/HgtObTKqHUEc99ndLa3vJmhge/eaDy3fKGSOHMr2+0LaJY6OywN06K9tyrIY54nzyybjGOzx4P84Y5YIXTjo36q9/Wz57vYu81RsH1Nd4rK2GrtbPArfHSPyXDLmlxJ4DjzCs2pnOSK2x48/s02i0z7iaHVktTOyd7GUz6V0gLXucBh3lgbvb3rj2k7RKcXRlHpOerpmU7nsqJKiWQlzw4jDRvkY4ZzjK7ewdHvVNtvturpK21uZTVMczgHuJIa4E8N3uCxqDo96puN9uVbDWWpsVTUyTNBe4EBziR+L3FNqZzk1tjGHd7LNWWfVVD4sr3Vwv0VLLLJMyolZE7d4NIPWZLjlvADnlSNe5KVtspqy6OqHU9PQOqHtimcwvdiPuIyeJxnvXg9lWxu8aNvtbcr1Lbaim8BmY1sRLnNkwC1wyBjGDxUjT2xt4s4tzmxuNTZpYmCQZbvFsYaT8RwfUudpjPJbiJx2FZ9X7Spqm+ufpepno7UwNEbJpJDI84BcXeWcccjgRwUj6f1/pGr0rNcrhHdWz0QgbVthllx1kmR5GZcloLTz9C8qOjfqwjjXWkf8Akf8AZXpLTsN1NR6Jv9llq7WZa+amlicC7DerLi7J3c8ct+RbtamOSzFbZ8RnLtHuB1G6rZUkWzryW0hfL+CzjGd/ezjj53P0KT75tD0dT6XZcLfDdnT1XXR0rZpJA3rIw3z8S8G5eOXpXmfc36q9/wBq+e/7K9DdNhepqzRths7Ky1iWgmqZJHbzsESFhbg7uTjddz70m1Jx0itozxH+i9o7qO+B+qJ56u2SNIkED5OsYebS3yx28DnsXtNpWvrFbraKPTQr47rNHBM2ad8m6yORgfn8J52CBggjmuq9zfqrsr7V89/2V6DW2wvUt/u8FXBW21jGUVNTkPLgd6OFrHHg3tcCfWk2pM5ykVtjGHmtme0KmluHi/VRqa11RIyOmkgle0tc44IeS8ANHA8s81YuwRRQQVcVM9zqdtU/qy57neSQ0ji4k44qDNM9H7Ulr1DbK+prLXJT09THLKwFzt5gcC4YLccRlT3b2NjmuLGABja2VrQOwDAA+pZtMTPJarExHXkNd3SwWCnrbtqLwp4bPHBGyCR+8RuNPBocBwJ4/Gq6u2j3D90Dqts+bb1xIozJNu9XnGM7+9nHHzufoVi9pejqzW+l7lbbWaZlYK+JwfPkANEbCQCATx4fIod9zjqv37a/nv8Asq0tWPZS1bT5D1d62g6NpNORXChiur5KoTMpWzOkwXx48/EvBuXDiPSo30btGdR31j9TTz1lskBEghfJ1jDgkFvljPHA454ele9uuwrU1ZpGwWplZbRLb31LpCXOwRI5pbg7uTyPPvXQe5w1X2V1q+e/7KtbUiPSa2mfHbbSdfWO3W5tJp017LrNHFKJJ3y7kccjA/I++ecARwII5rrtk+vKStubbTqaSqqamrmZFSzQPkAy44If5YAA4cQM88rvdd7C9S6gv/htNWW1kIpqeEB7nA5ZE1juTfyg4+tcOiNhGptP6us92nrbY6CkqWSyNa5xJYD5QALcZxlTamuMmtts4eU2hbSKSprqeLSLqqkp4gTM6qdIXufnGAN8jAHHsOV6fQG0GwVliqBfqasfcqCnfUTSQPkEcjGloGMyecd4cOA+JdbV9HXVM9VNKa+1jfe53nO7TnuXe6V2F6ls9v1DBLW215uNvdSx4LjuvMjHZOW8PJDhw71ZtTGMkVtnOEcao2jz1OoJaixSPgtjHDqaacyEuA57/lnmcjgRwwpx0BfbHqegpq20sqoKyGeESRzSvzguAcQN8jdySBlRr7m/U/bcbYPW/wBilPZls+rNC6cdTXSSlnrJrlE5ksAPCPGd0kgHzgSpe1cRiStbRPYRn0jj/wCsaQd1vb+u9XE0Y3c0hY28t2hgH9m1U16RTs64jHYLfH+l6udpZpZpm0tPAikhH9QLtXyHK3rtERFpBERBF3SU/wBU1y/6kX6yjXZFqi023Q9FTV1ayKcOeS0g/lKSukp/qkun/Uh/XCq1YnB1op8EcC5p9HFSYysThYWe/Wqrm62G/CJg/Fby+tczLvQwskmdemzNx5rSCfUFFpOmWRsa2aQjd8sZcMkDmPjK4qJ+nHUkbql0kdQAC9oc4jt5H5AsaQuyaH3GnkrqKKGoDjIScM8oHA7e5c8E+/V1zcy/ewBgswOWfJPaoSrK+z0MEM1jnqPDWva4PcSN3A4+g5K7+HapVNjaJKCB7wMFwkIye9SaT/ixb9SKap3iillBqQXvaPwR3+Lu0dgX1mbF5ZF99wYS7zPI5/ld/oUZ/dVn/wB3QfnSthtVn/3bCfilKmsrmEitrGvo7jI0T/eXvafvZ3uA/FH43oXHVzHNncJalgklbkNjJ38sPB/DyR6e9R8Nqsv+7YvzqfdVlP8A7bF+eTWTMfqSGzZvMkO/PwhD90sPV88cHcs8OS6HaJXPodNXuWOSWJ/iyYCWF26+M5GHD05XlRtWkB42yH8//kvQ27U9FqCNlTR1VvgmYx0c1PXccZIORhwyOHNZtWYjxqswqKdY6mBwb/deHYap/tXp4NT3p2zatqH367itbdYWsxO/zTE8nys5xw5fEpY1HsvsV61G66T3O3xPqZN6eKGQdWTxJJy/IBxjyTw7MKQmugbQij8J034OIxFu8fN3d3n1nPHbzWrWjmISK/sqfN1jqbPC/XX6U/2r0+t9TXumptNGkvt2DpLRE+Y+EPbl5fJ6ePxqV9NbM7BZNUi4QXC3ymmIlgjnkBhBJOACH7x3fSTnPHK9jqyy2/VVmfbLlV2BkBIc18JLXRuGcOHl44ZPA8Em0ZjiRXnqsmldXahl1NaWVN9upgNXCJP3y8+TvjPDPFbav1bqGDVd5jpr9dmwNrZgweEvbw3zjhnh8Sn3Z3pK06UiqJ6Gstb6ioJY59a4FwY08AA14GMjOcZ4ptG0hadVw09TW1lsZU0oIaaJwDntceIIc8jmc558E2jbw1/n1G2wTVN7q9ZVMVxuFdXU77fMzcnqXFrSS0bwByCRn9KnW81jqHTL52lzXiyytDmu3S0lsYDge8Zz6l1ulbNS6YsMdqt1wsLo2B466XjI4u5kkSY+THJd3JPDGykFLcbS4xQGB4qZA5rh5PEAOGPN+tc7dnMQ3HI9U1/dfqVvDx9dfXVye1etsOpL1Js81TUPvt2NZHPRiPM7zhpc/ODnI5ccc+ClTXOz+06gvTbrUVtvbUS7rJm0cg3XYwASHPOOHDhjl61722tprZb4KGiqtNMpoGCONpy7DW8uJkyfWulrcjEMxXvZVBOr9SHnfbp9Kf7V6m96mvMez/TUsV8uwq31FYJvvzxwBjx5Wcnn28uKlB+y/TLtSGpdWURie8zlnXjqc893O/v8/T9SkO6tpLpbqihrarTclLOwxyNBLSWnngiTI9SWtGYxBWvuZVC/dZqN3Dx5dDn/AJqT2r0+0PUV5pL7Ttor7d+qdb6N5zUPb5TqdhPAH0+s5Ut6I0FY9O36S4QVlA+eny2F9ZK0sOcguaGvGeHDj3969NrSzW3VlnNBcrhYWMa4SMfA7de1wHAj75g8CRxyOKTaNvEivPVdtn+pr5Ua4sMdVebrLA6uhDoxUvO/5Y8k5OMHlx71byz1DKuKrqY8Fk1XK8YORxIUdbPdM2nStHUOoqyztqJ5PLfWOa5+G+bjdkDQOJI4Z4r3Vsr6Clp3smuttfI+V8rjHOxrQXOJwAXHgFm3ZaryEfbeLpXW/RVaLZNUQTPukZMsEpY4ARN4cOJzn6lXEat1GXAC+XQk8P4U/wBquNNWU5kqRFd7IYJpOsLJnNeQS1rTxEg/J7lGVFs40zRarhqqetoOpjd4Q0OnaYGuGC1v4Tf5+ns7VaTjOYS0ZxiUZ6pv98p9G6RlhvF3bO+CpdOXTSNOevIGTnjy4Z7F5JuqNSTO3G3q7OJ7G1MhP6Vbe8MoLxbqihuFy07JTVDdyRrfJJGc8xLkLxmg9GWXS1+qayluNufMyMxxzVUrHMIJIO6GyDjgDnnmrW3OwTXvJRVtZvt8t+tqumo7zdm08MNPGPv72gkQMzwBxntPpyuHZZfb1W6+szK28XV1MJiXff3vGQ0kZBOCMgKd9dWO1astTaa43WyfeXdbGad4jcHYx/KEcRw4grGgrTa9L2d1Nb7jZYutkL5PCXtke5wJAJPW4HADkBwwpt/HnTX+vVX59S6hZI5rrzdhx4B9TIDj5V63Rl3vU2mtX1E91vDpWW9ng+JpHAk1EYODngfSOzKljXeibBqK6MuVTcba6qkG5IaWZrQQG8CQ55HZjhjmvaWgW+z2ymt9vumm46WmbuRtIDiBnPMy55klW1ucgiveyqG7UuoN4tN5um9nGPCpM/pVkdhVdWTaHpobhLWzVL7p1rpKp5cR5LhujPHGGg+srr5Nn2mRq4XNtwtzi6XwgtM7epD+J5dZv+cAfO5nu4KR2XGmkqKd9VfLIY4pDLuwlrCTuubzMh/K7lLznGIWkY9QV0hHb2vXDHm0MQ/WV2bEN2y0A7qeMf1QqP7camnrtfzyUc8VREKaGPfieHt3sHIyOHary2xhjt1Kw82xMH9ULtXyHKfX0oiKoIiIOq1RYLdqeyVFpvMBnopwN9gcWngcggjiDkKOJOj7oZzMR09fGe8VbipcRBDvueNE7pyyvz3+ElYb0eNFjzm15HoqCFMaIIdPR40VvcGV+73GoK2f0edEEeRHXtPpqSVMCIIfZ0etEBuHxV7j3+EkLDOjzokHyo68j0VBCmFEEPu6PWiSfJjrwP5wSsno9aHI/A3DP85Kl9EEPN6PGhvxorgT6KohYHR40SHcWV+73eElTEiCHZOjvog43GXBvfmpJWR0d9DbmDFcS7HPwo/oUwogh2Po7aGA8uK4O+KpIQ9HbQ2eEVwx3eFFTEiCHpOjvoVzfIhuDT3mqcUb0d9C7uHQ3En0VTgphRBDUfR10QH5eyvc3u8II+tbydHbQxI6uGvb35qXFTEiCHj0d9C7pAgr97vNU5I+jvoUD75T1zj3ipcFMKIIcPR20MZM9RW7meXhDs/Ktn9HbQZ82mrx/SnFTCiCH/c7aC3cGlrt7v8ACnLRnR10KCd+nrXfFUuCmNEENv6Ouhi7yIKwN7jUOP8AiuY9HjQWOFHW59NU4qXkQREzo86AA8qhq3Hv8KeFgdHnQO9nwCqx3eEv9ql5EEQSdHnQRx1dFVN+Opef8VuOj3oHd/gFUXY5+Ev9qlxEESM6PegBnet1S7+kvH+Kx7nzQO/nxdUbvd4S/wBqlxEETHo+7Puy2VA/pT/asjo/7Pg3HiqfPf4S/wBqlhEETRdH7QDTl9rmeO7wh4/xWx2AbP8APk2qUDu8Jef8VK6IIzp9hmz6B7XCwh+6QQH1MpHybykwANAAGAOACIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>data\product_images\Poe Switch_20251120_201546.png</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Poe Switch 8 port</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Poe_Switch_8_Port.png</t>
-        </is>
-      </c>
+          <t>Ruijie Wifi 6 Access Point (Indoor)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAECAwQFBgcI/8QAOBABAAEDAQMLAgYBAwUAAAAAAAECAxEEEjGxBRQhNEFRUnOBkaETMgYHIiNhcbJCYnKCkqLS4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABcRAQEBAQAAAAAAAAAAAAAAAAARAQL/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAiqqmnG1MRnvK6timZ9mdNOznpzVO+e8FY1Vmf9fxKedWfH8SmrPfLOc98+4i3OrPj+JOd2fH8Sp098+6Onvn3CtOd2fH8Sc7s+P4ln098+5098+4Vpzuz4/iTndnx/Es+nvn3Mz3z7hWnO7Pj+JOd2fH8Sz6e+fc6e+fcK053Z8fxJzuz4/iWfT3z7onPfPuFa87s+P4k53Z8fxLGZnvn3VzV3yFdHO7Pj+JOd2PH8S59qe+fczV3yFdHO7Hj+JOd2fH8SwiZ75905nvkK253Z8fxKaNTarnFNfTv3TDKJnvn3a057ZkG0TFUZiYmO+BjP7cxVTumYiqO/+WwoAAAAAAAAAAAAAAAAAAADHVxmi35lPFaNyuq+235lPFaNwEqzCQRGEbKxgFdk2VsAK7JspwnAK7JsrYMAphEwvKAZ3IxRVMU7U4nEZ3vCc219Nu3NO1F6m3Nc1RczFVc5/TMTOMRnf07nnqo6FcA8LqOefUopma6aa64iiIqxV/pjp2Z/5T/HQvpLGtjUW5uRsURiZxirMdOYnM5zujo/t5fBgHHqbV2v6P05qjFzNURVjoc9qzrLXTTExmP1Yq2pnpnv7d27sl5TCYgHBtaya6opiZpoq2ZmIjNWYznp7sxDs0k39ur68Tjs3Y39mP4bRC0QKw1/VLnpxh1uTX9VuenGHWAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4BACASkEAAAACQEIlICFZhdEgqJQCckAC0JyrCYFY6/qtz04w63Lreq1+nGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4AQkREmQBOUZADJkATkygBIgAAAEmAVwYWQAtEIhIMNb1a56cYdTl13Vrnpxh1CgAAAAAAAAAAAAAAAAAAAMdV9tvzKeK0bldV9tvzKeK0boBCexCewRAAAAAAAAAAAAJyZQAZABaEohIrn13Vrnpxh1OXXdWuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4EJ7EJ7BEBIAAAAKAAAAACAAAHYC0JRCRWGt6tc9OMOlza7q1z04w6QAAAAAAAAAAAAAAAAAAAAY6r7bfmU8Vo3K6r7bfmU8Vo3AhICIneEoBIAAKzILCk1IyDQU2kxILCMpAAAABaNyUQkVz67q1z04w6nLrurXPTjDqAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvtt+ZTxWjcARuQmNwiJCd4ABIK1SzmVqmV+qbdi7XTETNFFVURP8RkFh6VpOXOXL+ktXqquT6dqiKp/ZqxHRnxPTOXfzc13JXK9/Qc102p+ls/vWYjYqzET0fq/kH2kh80/Cn445U/EOhq1FmNDp6qa6qPo10ZrmIiP1Yird0vaeROUuU9RyjFnW81mzNFU/t25pqzHrIPZYlaNzOlpAAntAAT2AmEohIrn13Vrnpxh1OXXdVuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG6FdV9tvzKeK0bgQmEJEJQSAIlKKgZyy1XVb/l1f4y2ljq+qX/Lq/wAZB+YNH+aHL8aeNJOk5OpxR9OdqzXE4xjxb3r2h5Oq2Yxcpj/o/wDrf8dWaNLy7ylRa2qYmm3XM7WZzVTTM8XhbWpiaK4i5ejMVbp3Zi5/7R/2wm7Gsyvdvw7q9XyBrqtZo6tPcu1W5tYu2sxiZiZ3T/D69+WXLd7l2bl7VxZi9brro2bVMxEU7MTHbP8AL892dXTOvtVxVdmIuxVszV0fdXOP/LHo+8/k7FurTXb1uJia7tcT053UxjiZtTcj6fSvG5SlpG5UISACexCewEwlEJFYa7q1z04w6XNrurXPTjDpAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvto8ynivG4EACBgAQidyQGdTHV9T1HlV/4y3qhSuIqpmmqM0zExMd8A+Ucq/gvkvl7kSa40elp5R1FFqZ1NymqZxGM7p7ow8TR+VOhpoqiqjR7U56Yi5GMxV/P+74jufX7XJWjtUU0WrOzRTGIiK6uiPdnzfSznFi9MZmMxFWN+O9N5q5sfLdP+WfJ9vVWLs2dFNNFyK66cV4qjamZjf3Tj0h77+HOTtHyZq6LHJ2mt6ezO3XNFGcZxHT8Q8vb0mkrrmj6NymqI2sVTVHR7uixotPZuxct28V4xnameJmQ3a6aWkblaYWhUSnCEigSgFoSiEg59d1a56cYdTl13Vbnpxh1AAAAAAAAAAAAAAAAAAAAAy1P20f86eK0boV1OdmjETP66eK0bgQEgBlAIlAAiWctJUmAVje8beovUZojSV3oznaovRT2zMb+2MvJYMA4tBZqomaqrU2qdnZiiqvanfM7+53QiIXiATC0KwkEpygBORBALQlWFoFc/KHRpLnpxh1OXXUzXpq6aYzM44w6gAAAAAAAAAAAAAAAAAAAARXTFVMxPaz2sTironv7JagMfqUzuqpn1TtRPbHu1xHcAxydPc2AY5MtgGOJnsVxPc6AHNie4xPc6QHP0wZ/r3dADnz/Sc/03AY5My2AY7X9e5tR3x7tjAMduO+PcmuI3zEerbADKmPqTE4/TE56Y3tQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>data\product_images\Ruijie Wifi 6 Access Point Indoor_20251120_195611.png</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Garage module</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Garage_Module.png</t>
-        </is>
-      </c>
+          <t>UniFi WiFi 6 Plus Access Point (Indoor)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Amplifier 10 M</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Amplifier_10M.png</t>
-        </is>
-      </c>
+          <t>Ruijie Outdoor Wifi Access Point</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAECAwQFBgcI/8QAOBABAAEDAQMLAgYBAwUAAAAAAAECAxEEEjGxBRQhNEFRUnOBkaETMgYHIiNhcbJCYnKCkqLS4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABcRAQEBAQAAAAAAAAAAAAAAAAARAQL/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAiqqmnG1MRnvK6timZ9mdNOznpzVO+e8FY1Vmf9fxKedWfH8SmrPfLOc98+4i3OrPj+JOd2fH8Sp098+6Onvn3CtOd2fH8Sc7s+P4ln098+5098+4Vpzuz4/iTndnx/Es+nvn3Mz3z7hWnO7Pj+JOd2fH8Sz6e+fc6e+fcK053Z8fxJzuz4/iWfT3z7onPfPuFa87s+P4k53Z8fxLGZnvn3VzV3yFdHO7Pj+JOd2PH8S59qe+fczV3yFdHO7Hj+JOd2fH8SwiZ75905nvkK253Z8fxKaNTarnFNfTv3TDKJnvn3a057ZkG0TFUZiYmO+BjP7cxVTumYiqO/+WwoAAAAAAAAAAAAAAAAAAADHVxmi35lPFaNyuq+235lPFaNwEqzCQRGEbKxgFdk2VsAK7JspwnAK7JsrYMAphEwvKAZ3IxRVMU7U4nEZ3vCc219Nu3NO1F6m3Nc1RczFVc5/TMTOMRnf07nnqo6FcA8LqOefUopma6aa64iiIqxV/pjp2Z/5T/HQvpLGtjUW5uRsURiZxirMdOYnM5zujo/t5fBgHHqbV2v6P05qjFzNURVjoc9qzrLXTTExmP1Yq2pnpnv7d27sl5TCYgHBtaya6opiZpoq2ZmIjNWYznp7sxDs0k39ur68Tjs3Y39mP4bRC0QKw1/VLnpxh1uTX9VuenGHWAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4BACASkEAAAACQEIlICFZhdEgqJQCckAC0JyrCYFY6/qtz04w63Lreq1+nGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4AQkREmQBOUZADJkATkygBIgAAAEmAVwYWQAtEIhIMNb1a56cYdTl13Vrnpxh1CgAAAAAAAAAAAAAAAAAAAMdV9tvzKeK0bldV9tvzKeK0boBCexCewRAAAAAAAAAAAAJyZQAZABaEohIrn13Vrnpxh1OXXdWuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4EJ7EJ7BEBIAAAAKAAAAACAAAHYC0JRCRWGt6tc9OMOlza7q1z04w6QAAAAAAAAAAAAAAAAAAAAY6r7bfmU8Vo3K6r7bfmU8Vo3AhICIneEoBIAAKzILCk1IyDQU2kxILCMpAAAABaNyUQkVz67q1z04w6nLrurXPTjDqAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvtt+ZTxWjcARuQmNwiJCd4ABIK1SzmVqmV+qbdi7XTETNFFVURP8RkFh6VpOXOXL+ktXqquT6dqiKp/ZqxHRnxPTOXfzc13JXK9/Qc102p+ls/vWYjYqzET0fq/kH2kh80/Cn445U/EOhq1FmNDp6qa6qPo10ZrmIiP1Yird0vaeROUuU9RyjFnW81mzNFU/t25pqzHrIPZYlaNzOlpAAntAAT2AmEohIrn13Vrnpxh1OXXdVuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG6FdV9tvzKeK0bgQmEJEJQSAIlKKgZyy1XVb/l1f4y2ljq+qX/Lq/wAZB+YNH+aHL8aeNJOk5OpxR9OdqzXE4xjxb3r2h5Oq2Yxcpj/o/wDrf8dWaNLy7ylRa2qYmm3XM7WZzVTTM8XhbWpiaK4i5ejMVbp3Zi5/7R/2wm7Gsyvdvw7q9XyBrqtZo6tPcu1W5tYu2sxiZiZ3T/D69+WXLd7l2bl7VxZi9brro2bVMxEU7MTHbP8AL892dXTOvtVxVdmIuxVszV0fdXOP/LHo+8/k7FurTXb1uJia7tcT053UxjiZtTcj6fSvG5SlpG5UISACexCewEwlEJFYa7q1z04w6XNrurXPTjDpAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvto8ynivG4EACBgAQidyQGdTHV9T1HlV/4y3qhSuIqpmmqM0zExMd8A+Ucq/gvkvl7kSa40elp5R1FFqZ1NymqZxGM7p7ow8TR+VOhpoqiqjR7U56Yi5GMxV/P+74jufX7XJWjtUU0WrOzRTGIiK6uiPdnzfSznFi9MZmMxFWN+O9N5q5sfLdP+WfJ9vVWLs2dFNNFyK66cV4qjamZjf3Tj0h77+HOTtHyZq6LHJ2mt6ezO3XNFGcZxHT8Q8vb0mkrrmj6NymqI2sVTVHR7uixotPZuxct28V4xnameJmQ3a6aWkblaYWhUSnCEigSgFoSiEg59d1a56cYdTl13Vbnpxh1AAAAAAAAAAAAAAAAAAAAAy1P20f86eK0boV1OdmjETP66eK0bgQEgBlAIlAAiWctJUmAVje8beovUZojSV3oznaovRT2zMb+2MvJYMA4tBZqomaqrU2qdnZiiqvanfM7+53QiIXiATC0KwkEpygBORBALQlWFoFc/KHRpLnpxh1OXXUzXpq6aYzM44w6gAAAAAAAAAAAAAAAAAAAARXTFVMxPaz2sTironv7JagMfqUzuqpn1TtRPbHu1xHcAxydPc2AY5MtgGOJnsVxPc6AHNie4xPc6QHP0wZ/r3dADnz/Sc/03AY5My2AY7X9e5tR3x7tjAMduO+PcmuI3zEerbADKmPqTE4/TE56Y3tQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>data\product_images\Ruijie Outdoor Wifi Access Point_20251120_195719.png</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Amplifier 25 M</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Amplifier_25M.png</t>
-        </is>
-      </c>
+          <t>Smart Locker (Standard)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAMAAgMBAAAAAAAAAAAAAAYHCAMFAQIECf/EAF0QAAEDAgMCBgsJCQsKBwAAAAABAgMEBQYHERIhCDE3QXWyEyI2UWFxdJGxs9EUFRYXIzJVcoEzQlRWkpOUocIkJzVGUlOVo8HS4SUmNEViY2WCw9Nkg4SForTw/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAjEQEAAgICAgICAwAAAAAAAAAAAQIREgMxIUETYQRxIlHw/9oADAMBAAIRAxEAPwDVIAAAAAAAAAAAAAAAAAAArHPi7XG22iwU9rrZqL3wusVLPJC5WvWNWuVURU0VN6JxKi7uMorMDGS4SxfcbJLd7hI+kc1qv90VO/VqO5pfCVm2JwmIy2GDDfxrIn+s7j+eqv8AuHPTZlzVLXOhuVwcjV0X90VO7+sG30nX7bdBiVcyZ2/OuVwT/wA+p/7h21hxXX3+mubrderjTy0dLLUJK2pqEc1zGK5E0dJpv07ykb/Rq2ICO5c3KpvGAsPXGvk7JV1VDDLK/TTaerEVV0TwkiLqgBUfCEzBuGC7XbaWzObDWXF7m+6FbtLExNEXZRd2q7XHzaAW4DCMuPb5VSq+S83uR68bvfCRuv2IuiHu3F16VNffa9f0lL7SMpw3WDAFZmPd6apkhW4X1ysXTVLpKn9pw/Gbd9f4Qvyf+6Se0ZQ/QUGFcN504os1bHUUdxrqiKNUWWkuE61Ecrdd+irvavhRTbeH7nHerHb7nA1WRVkDJ2tXjajmoui+LUkfeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqPhD/6Jg/pyHqOMy8IG1102cOI5IqSZ7HSx6OaxVRfkmGkOE690eHcPyMVUdHc9tFRdFRUhkVPQZnzDuNbbMb3ejdOtWsMyNWao1c967DVVV3+HzFJzt4WjGPKCts9x2dPcNSq9/san3Wm33KCVWrQ1KMemir2NePmU+z4R1icUdN+bX2nu3FFcnFHS/m19o8n8XG+13HZX9yVT9f92pNsq6KqpKbEi1UEkO3b6jZ226a6Qu4iIfCuv/m6X8hfadph2/19dWVcKubCjqSVFWHVqqmzvRd/EpWc4TGMtq5QLrlbhTo2DqIS8h+Ty65WYUX/AIbB1EJgaqBmnhirpJhX6037BpYzRwxvn4V+tN+wBSliwxca6minjY7sb2o5F05lTcSKHBVycnzX+Y0VlfarX8CcOLNG1ss1DBquzxu7Ei7ybusFvVNUjb40Q59rz01xWO2Dbrgu4+7al6q5PlHcfjOlq8O1tOi6uXcbhvOFLPKkqqiIuq6ppvKixfhy2wo/sbl3a7tDGPyZziWvxRMZhm6nhlhkmbLr9zX0ofojlhydYa6Og6iGEcT0kdPVr2PiVjk9Bu/LHk7w10dB1EOys5jLmtGJwkwALIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ch7mbH0g71EpmDNvfmTiHyhPVsNP8KHuZsfSDvUSmYM2uUjEPlKdRhX2n0hkyubG5Wpq5E3HG1YkYruy7TtnVujtXK7vbJ9sELZlftTxQ7Kap2TXtvFoinrFA1znfLQt0ejdXaprx7+Li3frQtE4Q4149xIsCt27xUJ36WXqqdBKxI5HMR7JNPvmLqikiy/TW/SJ36aRP/ipW3S1e24cm11yqwn0ZB1EJiQ3Jrkpwl0ZB1EJkWVDNPDF+fhX6037BpYzTwxfumFfrTfsARzLPEWO5rba6OmZTJSMijjgfMxuiMRqI3frrpohaVxr8w6aaejjdaJ54oW1GjFREexyqmqaqnErVRfsMv4dxdVUUFPHT66xMa1PBoh22IMdYgus0ckkqwOZAsDEjTRNjXXf395wTW82mHXGuIlLbnmVjGnuL2VFtpnSJqitbO1qcevOq6nU/Da73uF7qq1UrW701bVta5F8Ld6lc0tmqLhOr6+okXn4zvIaeitVM5lMioq/Ocq6qpT4qR+/99r72n9OvxTM6WrXaiaxEjcuqP2kVd3gN3ZYcnWGujoOohgC4VXuiZ6J96xy/rQ39lhydYa6Og6iHfxxisOS85lJwAXUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ci7mLH0gvqJTMGbXKRiHm/dKdRpp/hRdzFj6Qd6iUzFmw1X5l39qbKK6qRE2l0T5jONV4ivtPpGHuqrbU1FOkixSIvY5EY5FRdF7/OcjnV9PE2v7M5qVe0zbR/bP0011TzHDcadaStmgdNFOrFT5SJ20125F1RefjPeppnR26jnWqZK2TaRIUcqrFovOi9/j3biUEMNXdZ5XI5ZpmRq9yvdvVrU/XoifqO6y634j0Tngen6jp7XSSVTatYqqOn7FCr1R8mysifyU753OW3dPH4Yn+gi3S1e23smeSjCXRkHUQmRDMmOSjCXRkHUQmZZUM1cMT7phb6037BpUzVwxfnYW+tN+wBlmhkRkmrnq3TvId/BW0jE2pZn7k04iNuolc5XJIqa79ND2dbZEi7Isi7HiM7UizSt5hJZMRwxsVsKrqiaa7joK67yTOd2yqi+EVFingSJZJE+VVEboqKelbZJaNWJO9EV2qpoqLxEV4q1LclpcdukWSSoVVXdEvpQ/RjLDk6w10dB1EPzqo6fsHZl2lXVmnF4UP0Wyx5O8NdHQdRDRmkwAJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IL6iUzDmzvzIv8Ax6e6U6jTT3Ch7mLH0g71EpmPNRqPzLvzXOaxFqkRXO4k7Ru9SvtPpFK6KGGqkjppuzRNXRJNNNrdv08Guu/n4z7a1I2WOhVlRTyySIqPiai7cWyq6a79N/Ouh8ddFDBVyx01Q2phavazNarUcnf0Xeh7VENKyip5IalZKh/3SPZ0Rn/7i8PHuJQW+mp6r3QlTVspljjV7Fe3VHuT73x+07vLfunj13fJO9B01up6KZtQtbWrTOa1OxIkau218OnEntO3y6XTE0a8XyTvQRbpNe24cmeSjCXRkHUQmRDsm+SrCfRkHUQmJZAZm4ZaSrHhr3O3bmRZnI3v6KzU0yU/m5FHPmhl/FPGySNVqtWvajkXtE5lImcRlMRmWJ/dtKm57Z43JxtVEXT7dx6rW0vM6XzJ7TXuaV5pMJWukkpLNbZ6qqlWNnZaduy1EbtKqoiar4isvjLr9P4Ew9+gp7TOL59L6Y9qO920vfl8ye0e7KZfvpfMntLw+Mu4fQuHv0BPac1NmhVRTMfVWGwSU7V1kayjRjlbz6Lv0X7Cdp/pGv2odajsq7FNHI5FVNty8yaofoxlmmmXuG071vg6iFeY6t9ufl9fZ4aCkbrQSPY5sDEVO11RdyblLGy43YBw70fB1EJpbZFq4SIAF1QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IO9RKZizY5R8QeUJ1GmneFF3MWPpB3qJTMWa/KNiDyhOo0r7T6Q93Euh3da2zpQPWmc1ZFRexpv20/k67+Pi13InHpzHTOPVSUPRSSZerpiVir/NPI2pI8v+6Nq96J/oIt0mvbcmTm7KrCfRkHUQmJD8neSvCfRkHUQmBZAVHmnysZe+Oq6iFuFSZo8rGXvjquoVt0mvb48RWhtzx9YGXOOCrtLoalEpZW6okqR67WnPu5+bQ7v4D4VX+L1t/Nf4npdE/zvw5/6r1JJUOdujvwFwovHh63fm/8TrcTYLwvT4ZvE0FhoI5Y6Kd7Xtj3tVI3Kipv4yaanU4v7kr55BUeqcIlEoveoauDJ24suM7airS1P25Gpoi6t1Tx6JomvPoWNlz3A4d8gg6iEGxen71l31+inerJzl13BYe8gg6iGvEpyJEADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmOFB3MWTpB3qJSgsf4RxFescXitsVlqq2jdUK2SaOJHtR6Nb2uq+DRftL+4T/cxZOkHf8A15T6MA6Ott9Xj1u8i/1MRnedZyvWMwynJgzEtNWf5QsNwjp9lfmUzePm18HiOZ9h7GiLUW2va3n7FAqv+zaTTXx7jTOKEREXdvK1u3G4pF5lfSFFNtl32FWooHNVP901CQYHo6mku0UlbTPgfIyRWat0RzE3ap9uqfYSi4JxnG52zW2VU/A5/WvLbZRrhrbJ7kswn0ZB1EJgQ/J7kswn0ZB1EJgasgqTNDlYy+8dV1C2ypM0eVjL7x1XUK26TXt9l17r8Np5V6kkZUufdVW0Fts1db55qeSOpex00S6K1HRruVfDoU4uL8QfT1d+eMIrltM4a+1Opxf3JX3o+o9U4yt8LsQfT1d+fPEuKb/UQSQOvNdMkzVj7H2VXbe0mmzpz666aE6mWkMXL+9ZduinerQnOXW/AWHfIIOohB8ZsdFlhemOTRzLY9qp3lRmhOMue4LDvkEHUQvxdKciRAA1ZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApjhQdy9k6QX1Epy5cPbJZrxIxdWvusiovg7DEcfCg7l7H0ivqJTjyp7la3pGT1URjytKPGKeJStbuvbOLGxY9UXZamrlRV08HfKzurn7TtUT7FMoayjFxXep8lU/ZqbR4KKb1sh9NxRUVfOddXO0qLV5HN6yQ0hSWxsoN2VuFOjIOohLyI5Q8l2FOjIOohLjdiFHZ9VFxpseYGkskEc9yV1QyBkvzNpyImrvAiKq/YXiVFmpyr5e/WquoVt0mvbpPgljStp3JccbRosidvDHbI3xeLtuPzHy/FreV/jTS/0HTewtBEPZEOfaW+FW/Fpefxppf6Dp/Yc1Pl1fqaZstNi+KGVvE+Oy07XJ4lQs08jaUYhTuPaDHFiwpdXT3qmvtplp3RVLZKVIpoWuTTbbs8aJr/gXblx3AYd1/AIOohEMyuT7EfkEvoJflxvwBh3yCDqIa8Sl0jABqzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTPCe7l7H0j/ANCU4sp+5Os6Rk9XEc3Ce7l7H0l/0JT5cpnp8D6rTnuM3VjMeVpR4xPp7ol+o30uK3u6ds4sbFLHOer2LoumyqLxKhXV0Yqqu0qJ4t5nDSUTuPzGr4P7VOpuK/LWzyKb1kh3NzTmRNETch0107Wa2+QzeskLwrLZeUXJfhToyn6iEuIllHyYYV6Mp+ohLTdiFRZp8rGXvjquoW6VFmnysZe/WquohW3Upr2liHk8BTldDyeUPVFRV0RUPIQjuZXJ9iPyCX0Evy37gMO+QQdRCH5lcn2I/IZfQTDLfk/w75BB1EN+LpnyJGADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmuE93L2Nf8AiaeplKXs13uMMNXT09fUwU7aqRzWRP2U1XTVf1IXRwnu5ax9Jp6mUoa1L21an/iZPSZX7aUd1JW1833S5VjvHIp8ckMknz6uoX/nPdFG0UXfFLbWP+dPMv8AzEWvKOp72kG2r2R0r0bqvEio5fSqk1VSF4gXXEs3kq9VSYRLa2UqaZY4W6Ng6iEsInlLyY4V6Ng6iEsN2IVHmnuzWy9+tVdQtwqLNZdM1cvvrVXUQrbqU17StFKwzfxRLQWa60tHUyU9YxYmMVi6K1rtFcqeFUXTXmTiLJ2yJ42wXbMWRa1ay09UjdhJ4tNVTjRHIu5dPOcsduh0OMaWgwvbsIV+HnyQ1ktVDBVKs75EqWPZq7siOVUcuvPza7i0URI6iphR222GTZa5V1XRURURfCmuhVtFlm/3XQvud9nrIKJyPii7Cjd6aaKuqr3k5iyoGthZst1Xeqqrl1Vyrxqq86lrTlWIw6XMnk+xH5DL6CYZbcn+HOj4OohCsyXa5fYj8hl9BNMteT/DnR8HUQ14ulORJAAaswAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU3wnE1wtY9PpNPUyGdKK8UED6pJauJqune5NV40VeM0dwl+5ywdKNX+pkMXsXtEXv7/PvKTGZWicQsz3/tn4dD519h59/wC1/h0PnX2FZ6jaI0hO8rLW/Wz8Oh86+wjN1qYay+SzU0jZIlgc3aTv7JGto57eulZrzrE9P1ajXBtlvzKTkwwr0bB1EJaRLKPdlfhXo2DqIS00UCoM2d2aWXy/7VV1C3zPXClqpqK74TqaWR0U7Fn2XtXRU12UK26TXtY+1uPXaMrOxrdGypE68SpIv3qy7zm+FN6+kqn8tTDSW20NSI49kcZZXFN6+kqn8tTjkxZeI2K591qGtTjVZNEGkp2hojMd373+IvIJfQTvLXk+w50fB1EMYXDE9zr7XUxuuc80EkascnZNUVOdFNnZZ8nuG+j4OohrxxhnecpKADRmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACnuEsiuw5YWN02n3NGNVV0TaWCVGprxJquhkSXDd6p17HNa6pj27lRzN5+h95tVBerfLQ3ajgrKST50UzEc1e8u/nTvkMdk7gNy6usEar5TN/fIx5Sw/7x3T6PqPyR7x3T6PqPyTb/AMTeAvxfj/SJv74+JvAX4vx/pE398eTwxB7yXT6PqPyTkhtVwpXrUVNHNFDGx6ve9uiImyqf2m3PibwF+L0f6RN/fOaiylwNR1DJ4cO0rnsXVElfJK3X6rnKi/ahGJPD78p43xZZYWZK1WvS20+qKmip2iErDURqIjURETciICyAonhS4dudxttmu9tpZaqC3vkSpZE3acxrtnt9E40TRde9uL2AH5v1FJb5al8j61zNp205mzv18a8R2vvjS/hEfnN9yWS1Svc+S20T3uXVXOp2Kq/qPX3htH0XQfo7PYV1W2YF98aX8IZ5z5bhLRVsCRvqms0dtIqb95+gnvDaPoug/R2ewe8No+i6D9HZ7BqbMB4cs81xqFttghqLlW1Ko1GxR6onh7yJ4VU3xhK2vs+F7TbZnI6WkpYoXqnErmtRF0+0+6koaWjRUpKaCBF40ijRmvmQ+gmIRMgAJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//Z</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Locker Standard_20251120_201627.png</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xinyi Sni Amplifier</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Xinyi_Sni_Amplifier.png</t>
-        </is>
-      </c>
+          <t>Smart Locker (Waterproof)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAMAAgMBAAAAAAAAAAAAAAYHCAMFAQIECf/EAF0QAAEDAgMCBgsJCQsKBwAAAAABAgMEBQYHERIhCDE3QXWyEyI2UWFxdJGxs9EUFRYXIzJVcoEzQlRWkpOUocIkJzVGUlOVo8HS4SUmNEViY2WCw9Nkg4SForTw/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAjEQEAAgICAgICAwAAAAAAAAAAAQIREgMxIUETYQRxIlHw/9oADAMBAAIRAxEAPwDVIAAAAAAAAAAAAAAAAAAArHPi7XG22iwU9rrZqL3wusVLPJC5WvWNWuVURU0VN6JxKi7uMorMDGS4SxfcbJLd7hI+kc1qv90VO/VqO5pfCVm2JwmIy2GDDfxrIn+s7j+eqv8AuHPTZlzVLXOhuVwcjV0X90VO7+sG30nX7bdBiVcyZ2/OuVwT/wA+p/7h21hxXX3+mubrderjTy0dLLUJK2pqEc1zGK5E0dJpv07ykb/Rq2ICO5c3KpvGAsPXGvk7JV1VDDLK/TTaerEVV0TwkiLqgBUfCEzBuGC7XbaWzObDWXF7m+6FbtLExNEXZRd2q7XHzaAW4DCMuPb5VSq+S83uR68bvfCRuv2IuiHu3F16VNffa9f0lL7SMpw3WDAFZmPd6apkhW4X1ysXTVLpKn9pw/Gbd9f4Qvyf+6Se0ZQ/QUGFcN504os1bHUUdxrqiKNUWWkuE61Ecrdd+irvavhRTbeH7nHerHb7nA1WRVkDJ2tXjajmoui+LUkfeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqPhD/6Jg/pyHqOMy8IG1102cOI5IqSZ7HSx6OaxVRfkmGkOE690eHcPyMVUdHc9tFRdFRUhkVPQZnzDuNbbMb3ejdOtWsMyNWao1c967DVVV3+HzFJzt4WjGPKCts9x2dPcNSq9/san3Wm33KCVWrQ1KMemir2NePmU+z4R1icUdN+bX2nu3FFcnFHS/m19o8n8XG+13HZX9yVT9f92pNsq6KqpKbEi1UEkO3b6jZ226a6Qu4iIfCuv/m6X8hfadph2/19dWVcKubCjqSVFWHVqqmzvRd/EpWc4TGMtq5QLrlbhTo2DqIS8h+Ty65WYUX/AIbB1EJgaqBmnhirpJhX6037BpYzRwxvn4V+tN+wBSliwxca6minjY7sb2o5F05lTcSKHBVycnzX+Y0VlfarX8CcOLNG1ss1DBquzxu7Ei7ybusFvVNUjb40Q59rz01xWO2Dbrgu4+7al6q5PlHcfjOlq8O1tOi6uXcbhvOFLPKkqqiIuq6ppvKixfhy2wo/sbl3a7tDGPyZziWvxRMZhm6nhlhkmbLr9zX0ofojlhydYa6Og6iGEcT0kdPVr2PiVjk9Bu/LHk7w10dB1EOys5jLmtGJwkwALIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ch7mbH0g71EpmDNvfmTiHyhPVsNP8KHuZsfSDvUSmYM2uUjEPlKdRhX2n0hkyubG5Wpq5E3HG1YkYruy7TtnVujtXK7vbJ9sELZlftTxQ7Kap2TXtvFoinrFA1znfLQt0ejdXaprx7+Li3frQtE4Q4149xIsCt27xUJ36WXqqdBKxI5HMR7JNPvmLqikiy/TW/SJ36aRP/ipW3S1e24cm11yqwn0ZB1EJiQ3Jrkpwl0ZB1EJkWVDNPDF+fhX6037BpYzTwxfumFfrTfsARzLPEWO5rba6OmZTJSMijjgfMxuiMRqI3frrpohaVxr8w6aaejjdaJ54oW1GjFREexyqmqaqnErVRfsMv4dxdVUUFPHT66xMa1PBoh22IMdYgus0ckkqwOZAsDEjTRNjXXf395wTW82mHXGuIlLbnmVjGnuL2VFtpnSJqitbO1qcevOq6nU/Da73uF7qq1UrW701bVta5F8Ld6lc0tmqLhOr6+okXn4zvIaeitVM5lMioq/Ocq6qpT4qR+/99r72n9OvxTM6WrXaiaxEjcuqP2kVd3gN3ZYcnWGujoOohgC4VXuiZ6J96xy/rQ39lhydYa6Og6iHfxxisOS85lJwAXUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ci7mLH0gvqJTMGbXKRiHm/dKdRpp/hRdzFj6Qd6iUzFmw1X5l39qbKK6qRE2l0T5jONV4ivtPpGHuqrbU1FOkixSIvY5EY5FRdF7/OcjnV9PE2v7M5qVe0zbR/bP0011TzHDcadaStmgdNFOrFT5SJ20125F1RefjPeppnR26jnWqZK2TaRIUcqrFovOi9/j3biUEMNXdZ5XI5ZpmRq9yvdvVrU/XoifqO6y634j0Tngen6jp7XSSVTatYqqOn7FCr1R8mysifyU753OW3dPH4Yn+gi3S1e23smeSjCXRkHUQmRDMmOSjCXRkHUQmZZUM1cMT7phb6037BpUzVwxfnYW+tN+wBlmhkRkmrnq3TvId/BW0jE2pZn7k04iNuolc5XJIqa79ND2dbZEi7Isi7HiM7UizSt5hJZMRwxsVsKrqiaa7joK67yTOd2yqi+EVFingSJZJE+VVEboqKelbZJaNWJO9EV2qpoqLxEV4q1LclpcdukWSSoVVXdEvpQ/RjLDk6w10dB1EPzqo6fsHZl2lXVmnF4UP0Wyx5O8NdHQdRDRmkwAJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IL6iUzDmzvzIv8Ax6e6U6jTT3Ch7mLH0g71EpmPNRqPzLvzXOaxFqkRXO4k7Ru9SvtPpFK6KGGqkjppuzRNXRJNNNrdv08Guu/n4z7a1I2WOhVlRTyySIqPiai7cWyq6a79N/Ouh8ddFDBVyx01Q2phavazNarUcnf0Xeh7VENKyip5IalZKh/3SPZ0Rn/7i8PHuJQW+mp6r3QlTVspljjV7Fe3VHuT73x+07vLfunj13fJO9B01up6KZtQtbWrTOa1OxIkau218OnEntO3y6XTE0a8XyTvQRbpNe24cmeSjCXRkHUQmRDsm+SrCfRkHUQmJZAZm4ZaSrHhr3O3bmRZnI3v6KzU0yU/m5FHPmhl/FPGySNVqtWvajkXtE5lImcRlMRmWJ/dtKm57Z43JxtVEXT7dx6rW0vM6XzJ7TXuaV5pMJWukkpLNbZ6qqlWNnZaduy1EbtKqoiar4isvjLr9P4Ew9+gp7TOL59L6Y9qO920vfl8ye0e7KZfvpfMntLw+Mu4fQuHv0BPac1NmhVRTMfVWGwSU7V1kayjRjlbz6Lv0X7Cdp/pGv2odajsq7FNHI5FVNty8yaofoxlmmmXuG071vg6iFeY6t9ufl9fZ4aCkbrQSPY5sDEVO11RdyblLGy43YBw70fB1EJpbZFq4SIAF1QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IO9RKZizY5R8QeUJ1GmneFF3MWPpB3qJTMWa/KNiDyhOo0r7T6Q93Euh3da2zpQPWmc1ZFRexpv20/k67+Pi13InHpzHTOPVSUPRSSZerpiVir/NPI2pI8v+6Nq96J/oIt0mvbcmTm7KrCfRkHUQmJD8neSvCfRkHUQmBZAVHmnysZe+Oq6iFuFSZo8rGXvjquoVt0mvb48RWhtzx9YGXOOCrtLoalEpZW6okqR67WnPu5+bQ7v4D4VX+L1t/Nf4npdE/zvw5/6r1JJUOdujvwFwovHh63fm/8TrcTYLwvT4ZvE0FhoI5Y6Kd7Xtj3tVI3Kipv4yaanU4v7kr55BUeqcIlEoveoauDJ24suM7airS1P25Gpoi6t1Tx6JomvPoWNlz3A4d8gg6iEGxen71l31+inerJzl13BYe8gg6iGvEpyJEADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmOFB3MWTpB3qJSgsf4RxFescXitsVlqq2jdUK2SaOJHtR6Nb2uq+DRftL+4T/cxZOkHf8A15T6MA6Ott9Xj1u8i/1MRnedZyvWMwynJgzEtNWf5QsNwjp9lfmUzePm18HiOZ9h7GiLUW2va3n7FAqv+zaTTXx7jTOKEREXdvK1u3G4pF5lfSFFNtl32FWooHNVP901CQYHo6mku0UlbTPgfIyRWat0RzE3ap9uqfYSi4JxnG52zW2VU/A5/WvLbZRrhrbJ7kswn0ZB1EJgQ/J7kswn0ZB1EJgasgqTNDlYy+8dV1C2ypM0eVjL7x1XUK26TXt9l17r8Np5V6kkZUufdVW0Fts1db55qeSOpex00S6K1HRruVfDoU4uL8QfT1d+eMIrltM4a+1Opxf3JX3o+o9U4yt8LsQfT1d+fPEuKb/UQSQOvNdMkzVj7H2VXbe0mmzpz666aE6mWkMXL+9ZduinerQnOXW/AWHfIIOohB8ZsdFlhemOTRzLY9qp3lRmhOMue4LDvkEHUQvxdKciRAA1ZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApjhQdy9k6QX1Epy5cPbJZrxIxdWvusiovg7DEcfCg7l7H0ivqJTjyp7la3pGT1URjytKPGKeJStbuvbOLGxY9UXZamrlRV08HfKzurn7TtUT7FMoayjFxXep8lU/ZqbR4KKb1sh9NxRUVfOddXO0qLV5HN6yQ0hSWxsoN2VuFOjIOohLyI5Q8l2FOjIOohLjdiFHZ9VFxpseYGkskEc9yV1QyBkvzNpyImrvAiKq/YXiVFmpyr5e/WquoVt0mvbpPgljStp3JccbRosidvDHbI3xeLtuPzHy/FreV/jTS/0HTewtBEPZEOfaW+FW/Fpefxppf6Dp/Yc1Pl1fqaZstNi+KGVvE+Oy07XJ4lQs08jaUYhTuPaDHFiwpdXT3qmvtplp3RVLZKVIpoWuTTbbs8aJr/gXblx3AYd1/AIOohEMyuT7EfkEvoJflxvwBh3yCDqIa8Sl0jABqzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTPCe7l7H0j/ANCU4sp+5Os6Rk9XEc3Ce7l7H0l/0JT5cpnp8D6rTnuM3VjMeVpR4xPp7ol+o30uK3u6ds4sbFLHOer2LoumyqLxKhXV0Yqqu0qJ4t5nDSUTuPzGr4P7VOpuK/LWzyKb1kh3NzTmRNETch0107Wa2+QzeskLwrLZeUXJfhToyn6iEuIllHyYYV6Mp+ohLTdiFRZp8rGXvjquoW6VFmnysZe/WquohW3Upr2liHk8BTldDyeUPVFRV0RUPIQjuZXJ9iPyCX0Evy37gMO+QQdRCH5lcn2I/IZfQTDLfk/w75BB1EN+LpnyJGADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmuE93L2Nf8AiaeplKXs13uMMNXT09fUwU7aqRzWRP2U1XTVf1IXRwnu5ax9Jp6mUoa1L21an/iZPSZX7aUd1JW1833S5VjvHIp8ckMknz6uoX/nPdFG0UXfFLbWP+dPMv8AzEWvKOp72kG2r2R0r0bqvEio5fSqk1VSF4gXXEs3kq9VSYRLa2UqaZY4W6Ng6iEsInlLyY4V6Ng6iEsN2IVHmnuzWy9+tVdQtwqLNZdM1cvvrVXUQrbqU17StFKwzfxRLQWa60tHUyU9YxYmMVi6K1rtFcqeFUXTXmTiLJ2yJ42wXbMWRa1ay09UjdhJ4tNVTjRHIu5dPOcsduh0OMaWgwvbsIV+HnyQ1ktVDBVKs75EqWPZq7siOVUcuvPza7i0URI6iphR222GTZa5V1XRURURfCmuhVtFlm/3XQvud9nrIKJyPii7Cjd6aaKuqr3k5iyoGthZst1Xeqqrl1Vyrxqq86lrTlWIw6XMnk+xH5DL6CYZbcn+HOj4OohCsyXa5fYj8hl9BNMteT/DnR8HUQ14ulORJAAaswAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU3wnE1wtY9PpNPUyGdKK8UED6pJauJqune5NV40VeM0dwl+5ywdKNX+pkMXsXtEXv7/PvKTGZWicQsz3/tn4dD519h59/wC1/h0PnX2FZ6jaI0hO8rLW/Wz8Oh86+wjN1qYay+SzU0jZIlgc3aTv7JGto57eulZrzrE9P1ajXBtlvzKTkwwr0bB1EJaRLKPdlfhXo2DqIS00UCoM2d2aWXy/7VV1C3zPXClqpqK74TqaWR0U7Fn2XtXRU12UK26TXtY+1uPXaMrOxrdGypE68SpIv3qy7zm+FN6+kqn8tTDSW20NSI49kcZZXFN6+kqn8tTjkxZeI2K591qGtTjVZNEGkp2hojMd373+IvIJfQTvLXk+w50fB1EMYXDE9zr7XUxuuc80EkascnZNUVOdFNnZZ8nuG+j4OohrxxhnecpKADRmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACnuEsiuw5YWN02n3NGNVV0TaWCVGprxJquhkSXDd6p17HNa6pj27lRzN5+h95tVBerfLQ3ajgrKST50UzEc1e8u/nTvkMdk7gNy6usEar5TN/fIx5Sw/7x3T6PqPyR7x3T6PqPyTb/AMTeAvxfj/SJv74+JvAX4vx/pE398eTwxB7yXT6PqPyTkhtVwpXrUVNHNFDGx6ve9uiImyqf2m3PibwF+L0f6RN/fOaiylwNR1DJ4cO0rnsXVElfJK3X6rnKi/ahGJPD78p43xZZYWZK1WvS20+qKmip2iErDURqIjURETciICyAonhS4dudxttmu9tpZaqC3vkSpZE3acxrtnt9E40TRde9uL2AH5v1FJb5al8j61zNp205mzv18a8R2vvjS/hEfnN9yWS1Svc+S20T3uXVXOp2Kq/qPX3htH0XQfo7PYV1W2YF98aX8IZ5z5bhLRVsCRvqms0dtIqb95+gnvDaPoug/R2ewe8No+i6D9HZ7BqbMB4cs81xqFttghqLlW1Ko1GxR6onh7yJ4VU3xhK2vs+F7TbZnI6WkpYoXqnErmtRF0+0+6koaWjRUpKaCBF40ijRmvmQ+gmIRMgAJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//Z</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Locker Waterproof_20251120_201617.png</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Addan System</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Addan_System.png</t>
-        </is>
-      </c>
+          <t>Axion Amplifier (Large)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
+        <v>450</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAAAAQQDAQAAAAAAAAAAAAAAAAEEBQcCAwgG/8QAUhAAAQMCAgQHCQ0GAwcFAQAAAQACAwQRBSEGEjFBExQVUZGT0TM1VGFxcpKUsQcWIjI0NlNVc3SyweEjJUJSYoGCotIXJkNEVoOhJDdFRuLw/8QAGwEBAQADAQEBAAAAAAAAAAAAAAECBAUDBgf/xAAtEQACAQIGAgEDBAIDAAAAAAAAAQIDEQQSEyExUQUUQSJhcQYyUpEjM6Gx0f/aAAwDAQACEQMRAD8A6pQhCAEIQgBCY4q9zGRariLk3sVWWLV1XJiNSXVM1hI5rQJCAADYABAW2hUzxypt8on6x3ajjlT4TP1ju1S4LmQqY45U+Ez9a7tWXHarwmo613alwXKhU1x2q8JqOtd2pePVY/5qo613alwXIhU5yhWW+V1PWu7UcoVnhdT1ru1LguNCp3lCt8Lqetd2o5RrfDKnrXdqXBcSFT3KNb4bVdc7tRyjXeG1XXO7UuC4UKn+Uq7w2q613agYlXeG1XWu7UuC4EKnxiVd4bVda7tRylXeG1XWu7UuC4EKoOU6/wANqutd2o5Tr/DarrXdqXBb6FUPKlf4bU9a7tRypX+G1XWuS4LeQqh5Ur/DanrXI5Vr/DanrSlwW8hVDypX+G1XWuRypX+G1XWuS4LeQqh5Ur7/AC2q61yOVcQ8Oqutd2pcFvIVQ8qV/h1V1ru1HKmIeHVXWu7UuC3kKoRimIeHVXWu7UvKlef+equtd2pcFuoVRjE6/wAOqutd2o5Tr/DarrXdqXBbiFXGjmJ1rsTjikqZpI3ggh7y7cSvfUDi6J2sb/CVA5QhCAEIQgBCEIAQhCAjsY+LF5SqsxHvhVfav9pVqYv8SLylVXiI/eFV9q72qAb7kiNyhtMHOZonjDo3Oa8UkhBabEHV50Su7AmbHmPQix5j0Lk44lX3+XVfXv7VkMTxDw+r69/atz05dnlqro6wseY9CLHmPQuUBimI3+X1nXu7VmMUxG3fCs69/anpy7GqjqyxtsPQlsf5T0LlTlbEtUWxGtH/AH39qXlfE7d8a31h/anpS7Gqjqkg/wAp6EWPMehcscsYnbvlW+sP7Ucs4p9ZV3rD+1PTl2NVHVAB5j0JbH+U9C5X5axX6zr/AFh/ajlzFvrSv9Zf2p6Uuxqo6oseY9CSx5j0LlnlzF/rXEPWX9qTl3GLd9sQ9Zf2p6Uuxqo6oDTzHoRY8x6Fyvy9jH1tiHrL+1HL2MfW2Iesv7U9KXY1UdUWPMehFjzHoXK/L2M/W2I+sv7Ucv4z9bYj6y/tT0pdjVR1QQ7mPQix5j0Llfl7GPrbEPWX9qTl/Gbd9sQ9Zf2p6cuxqo6ps7mPQix5j0LlY4/jP1tiHrL+1Y8v4z9b4h6y/tT05djVR1XY/wAp6EWPMehcpjSDGr998Q9Zf2rH3wY1n+98R9Zf2p6cuxqo6usb7D0IseY9C5Q98GNW774h6y/tR74Mat33xH1l/anpy7Gqjq8A8x6EoB5iuT3aQ41YfvfEfWX9qQ6QY2TYYviHrL+1PSl2NVHWNjzHoQAeY9C5hxOsx2gjppffBVTRzM1xqVri4ZkZt1rjYo12kWOAG2MYjs8Jf2p6cuxqo6xCVRejUj5tG8Jkle58j6SFznONy4lguSVJjYtN7HqSujnfin/xfhKsnDu5P878lW2jffin/wAX4SrIw7ub/O/JAO0IQqAQhCAEIQgBCEIBhi/c4vOVV4j3wqvtXe1Wpi/co/OVV4j3wqvtXe1QDbcoXTT5o4z90k/CprcoXTT5oY0eakk/CrHlBnL20/2XpcD0ajxLCDVPrDFPI6ZsEXB6zXcEwPdrG+WRyXm+xeiwOpxpmD1EGHTMbSyOc1wdq6wJbZ2qTmLjI2Xale2xqIwxPAIqKvgjbXMfSyQQTumc3VIEnMy9zZS82hMcT62M4iTIyaeKmHA5S8FGJHFxv8G4NhtUdW0eNuiqONCJzYIo4STqkhrc2hpT7jOlANRTmZhNfryOJDb5ts4tNrtuMjbasLv4Zdhth+ic9ZoxBi4lc0SVTIRHwRIEbnBnCa2zJxAsnOPaEvwjDsYrJK1skdFUxwwWjtxhjv8AibcgLgWzzvzLCkn0ppaaKKmmcII4RG2IPaWal9cfBva9877ck3xir0kfhJZiUsj6EgR2JaQAJC8DL+pxKfVfkmx5w7khWVykO1epBEI3lKgERuSpNyASyEFKhREiVAQgbkhCXcgqFMSEls1mUgQhgBmgDb5FmBmi21Aa7ZLG2S22+Ci2SA0uGQSEZrY8ZLEhUCDx7tniSO2HyLJYP2HyIQ6w0V+a+D/c4fwBSo2KK0V+bGEfc4fwBSwXDfJuolNHO/FN5T+EqycO7m/zvyVbaO9+Kbyn8JVkYd3N/nfkoB2hCFQCEIQAhCEAIQhAMcX7izzlVWId8Kr7V3tVrYt3BnnKqsQ+X1X2r/aVANdyhdNfmhjX3OT8Km1B6a/NDGvuknsVjygzmE7VvpYqie7KcSOG8NOS0OGa9loHQuxCSnpIy1slROIw47r2C6OMxDw9LOldmz4fx8fIYjSnLLFJtv8AB540GIEnWjmN+dy01DKuC3GOFad2sSuhz7m2Dtx0YKdJf3mcuC4udtr7VU+n2Guwt9ZRSua99NMY9YbDY7VoUfJVZVIwnFWbtsdvE+BwXrzq4erJyjHNZq11/SPGwieVwbFwjnncCU75PxF0YYYpi3bql2SltA6J9fiTaVmUk72RtJ3XNl6vFdKBQV1XSYBgmFS0FHIYXy1rOElqC3JxvfK/MFsVcXV1XTpxW3ZyqeCwVLCQxGJlK872UbcJ2+SuKmhqadgfNA9jdlyMk2Ks7SNlDXaNUuMYZEYKavhk1qZztbgZWGzmg7xsI8qrE7V7YTESrKWdWaZ4eTwVHDac8PJyjNX355sIlSIW4csVJuQkOxQAhIl3oUEDYhIgMkm5AQUIBQEFA2oAG1A3oG1AVA4oKOWuq4aWmDTNM8MYHODQSdmZ2J1Ng1bDgcOLSRtFDNO6nY8PBJe0XI1doHj8RTKnmkp5WSwPLJWODmubtBGwhLI6ZsDWSOkETjwjWuvYk5awH5pZkG0uVltoqSWuq4qanAMsh1W3NgtUiksOo8VgmhqqGKRsltZj222Ebc/EVUm+COSXJhNgdfDhcuJPhHEo6jirpA8EcJa9vGPGotw2+RTkmGY3LG+N1PO6Iu13NBGrrc9hkFFVtHUUjwypidG5zSQDvCuWS5RFOL2TOp9FvmzhH3SL8AUqorRbLRnCfukX4QpVcGXLN5Epo733pvKfwlWTh3c3+d+SrXR4/vil8p/CVZWG9zf535KFHaEIVAIQhACEIQAhCEAyxbuDPOVU4j3wqvtXe0q1sW7gzzlVOJd8Kr7V3tUA23KD02+Z+NfdJPYpxRGlphGi+LGqa90Apn8IGEBxbbOxO9ZR/ciPg5imjLLE716nQqudRGKene0VEEokaDzjMKAqqOoNKMQERFFJK6KNxcDYj+E78hbOy34fS0dO93K75ouEY10ToTe1957F0cZh/Yp5L2PbxHkl4/Ea2XNs00Xb/tVxLjvHDhmFccH/AB+C+H03VYaa4k+vFRU1T2uqKiXXd4ydqioo8HNQQ6urBEM7luZ/smWMx4ews5OqZ57k6xlFrcy59Hx0o1IzlO9t+DtYj9Q0JUJ0qFDK5K1732/ok9Dq91JiAmjeGzxua9nlaV67FMHwPFq2orqTGp8H428yVFI+lMwDz8YxuB2E868VSxYE6jjM1VVRVGp8Isbcay2tZgYYb4lXkkZfA+LsXvVws5VXUhK1/tc51LyGGlhYYfEUs2W9mpW5d+meq0mraGHA6fDsMbJHhtDA6OIzEcJK9xu57rbyd24BVqTmpaviwri0hp66rlmaPgNkZ8Fxvz+RQ42r3wmHdFO7u2/weHksfDFuEaUMkYKyV7i70IuhbhzARuQk3KAEqRCoM2sc5j3gfBba+fOsAla0vcGt2nnKQbEAbkE7ErnF1r7hZDicr7tiACkG1OYKOeelqKmOJzoKfV4V4tZusbD/AMrZUNoTSUnFHVHGnawqBLYMab/B1Tt2bbpYmbcwdRTsoYq18dqaSR0TX6wzcBci23etAtY86311HxOYxmpppyHOaTBJrjLffmO5N25oRO6HdDScYbPI4lsNPGZZCLXAvbK+03IT10UdFLK6GSTjNMGnVlDJG2dluJH8V/1UeXSUkrXRyt1tUHWYQdo2Hx+JKaiqqv2LS+TWPxGNF3f2AzTdPYOz5GhDdZofcNuLkbbK18Iw2iliiNDPM+mu1sJlYGvczVBuQNh8SqeS4Ge1Wto9NFHhFARPGHCJn8YBBstnDcs08a7RRLNoGmneY5JGtDdYg5XVb6fRcFiFMBviPtVkmvbI0tfVsIO0GQLwenMEuI41RwUDRUTOhdZsZBPOvWtfI7s1sLL/ACIvfRf5t4VbwWP8IUruUVouCNHMLByIpo8v8IUqF8tLk+iXBJaP9+KXyn2FWVhvc3+d+SrXR/vxS+cfYVZeG9yf535LEo7QhCoBCEIAQhCAEIQgGWLdwZ5yqrEe+FV9q72q1cW7gzzlVWI/L6r7V3tUA13KH0wMbdFcWdM0viFO4vaDYubvAPkuphQem/zPxn7q/wBiyj+5EfBQEMkcEtfJBQB1JUNkELJLyGFpNw4W3gWzVr+5JoNgeK6MNxXF6QVM8z3NDXkhrGjLIc6pptPLGHu4U07nRjUabgyhxtYeJX97mFPUSe5UyCEXnEsgAv8A1rsVeEuDlVZOMW4noD7nuiZzODQXPOTn/wCVXfuz6D4Ng+B0+JYPT8VkEwiexpJa4Ebc9+SsSofi0vF46hsY1JQ5uocxa+1eZ92KOof7nVEyck1DqmMEk78968knFrc8KFWcpq97FNYNhtPNEHzQucMrEkhp8XlXq8L0MqMRjZLRYLUTU7jq8LHA97fHmFFYdjtbidKyjqhA2KkAaxsUYbnsJJ3k2V3UX/t3oueE0jYRHLbkdt89c/H/AC/uuJj6tT2ZRUmkkuH+D9P8PSoUvG0qkqUZSnJptq/8v/CotMdDGYJhlLVyxwmKdjpIzE6zvgn4TXtObSq9aYdU3a7XN/GAN1vGvbY4JBS1/Da/C6r9fhL61997714MZEEbVv8AiK0qlOWZ3s/nc5P6rwdPDVqeRJNx3srLl22/H9jipFKJG8W4VzLAkPsD4wnDoqBsbHTmoiJi12taA4yEnLPcNq2GobQYhPHMygxCIsEZdGLttkbsdlZw2XtzqNEmq6+q12d11j5NXYP1dc8ETqG9g7aB41k5pYGn9m4Cx2g3usZ3NdM90bSxhOTScwnGE08dXXxQTScG1+sNY2yOqbbcszYLG9jO1xs7VuTfLbsWTNQssWnXve98rc3lXpZtGaMPc2PGabKws7cea4NufNEeikEps3G6EAk2Lja/6rHUiXKzzkr28EWRiMi4Otq2ds9i0javTs0foePRwnEGva+Fz9ZpAAcNgJO5bItFaYzcHyxSucRkB41NRBRZ5vgi+Ayh7Tq2BA2rXG0F37W4Y0jWttAvuT/EKFuGYpUUsk2u2IWLmDbkmbzT8TYWmU1esdYOA1dXdbfdeis1cxd72NkkbIjOG600VvgvY6w8RPYmgOa2iWNtNqASCQk6xDsiNwslkdCAzg23cW/CvzpYibXJgGPcNYBxF9vjT6J4mqOFpxDSvgjDg03Ou4eXeUtXiRm4DXiiYY2hpbGLXsNp8a0tr+Da8RMBEjQJNbMkjm5lbJGLzP4JDAqGpxHE5YhFG+odG91phkMszbnWykw+TDablGSbKMujLYJbStJFgfEEwNdOKtlS2OVk7SCXi+af1OKcpQyOrCxkwBAa2PV1vLbas0kecsz/AARWHwiesijlje8Odaw33W7EKamp5X07Wu40yYssHAtI2bk6ZiELKJkLomtkj1g+VjrOeDbI+ILViE+Gz1GvTQupmhrbAOLjrDaf7qZUkZZm3xsP9IdH8RwSkgmxGkjiEp1W2eHZ2vmAouno7YNU4g2fUmikEbWtdYm4zPOpOpxSrxyqoqbEqwyRtlbqjU1rbjcDMpjLU0oixMSU0d5SREY7jgyDzcxUS7F3ax0jot82sL+7R/hCllE6K/NrCvusf4QpVcCXLOkuCT0f78UvnH2FWXhvcn+d+SrPR/vzS+cfYVZmG9yf535KFHaEIVAIQhACEIQAhCEAxxfuDPOVVYl3wqvtXe1Wri/cGecqqxLvjV/au9qgG25Qem3zQxn7q/2Kc3KC03+aGM/dX+xWPKI+Dnt1bNiroTWiSSOjp+DDmMvqtGzW8Wa9noD7oFTodSy4ZVQMqqW5lbquN2Ei9rqv54ZqJkRbOzVqI7kRSXy5nD8lI4AMUdxjiMbHMliMT3PaCA0819hXbm45frObJRS34LVj92gyPY2LATdxs08NYE9C8d7pGnuIaTMioZ6MUVPE/hCzW1nPdbIk8yhjo/jMlLFTOdHwMbi5g1xkTtTfFcNrKWeGSspnTRsjGvqk2IHOdy8oSoydovf8nnCVPN9LQywuskw8mQR60TsnA5L1kGmuL4XTshp34rSQ/GayOZzG577BeSwbDq/GKkUOGQyTyyZljeYbydwHOvfUuAaf02sIYIXAi1nyRm1rW37rBeNfBUa0s8lv+Wjt4fz+IwNPQVRKPNmk/wDs8xU6RGonaZaJ9Q1zxJOyV5vK293AkZ57yohzsOmZXzHhqaYu1qWnY3XjsXZtc4m4sNh8SmNKNG9I6HXxLGqZ4DiGvmY9rgMrAHV2Ly+9e1ChToRy01Y1sX5Cr5GarVZ5mttrW/42HVfX1Ne+J1VJwjoomwsIaG2Y3YMhn5dq1UrGSVMTJZRBG5wDpCCQwc9gpvQGDB6rTDDYdJZeCwl8lpnFxaNmQJ3Am1yvU+6zhGhtFpIyPRnEI4oOBBljgvNG19/4XX5rXC9c31ZTXtZHgeHdR18klPKyfVc4Nkcy4eNl7FJhdGcQrYqZrwx0hIBPPYlOxRYX9bH1dyyFHhWR5XcDziByzcWzFSSJNmhlQ9zv/WUoAAPxsxfbcLBuhWIPJ1JqQgXIJkAuOdNG0eE7TjcgP2Lu1ZtosHNr49KP+w7tWGnPsy1I9G+PRV5r5KV9ZEHCIStc3MG6WHQ+rlc/gKqmcGnJ2vZa20GBg398EoJyNoHbOlbG0GAjIaRTAeKB3apkn2TUj0QWKUr6OskhlkbJI22sWm4v5UzK9McM0eJJOPyHxmmKxOF6O/X0nqxWVmTOjzZKS23xL0pwzR36+k9WKicYp8Pp5Ixhta+raRdxdHqapQqkmMBclZwN1pGi4GY2rBji05LKHORvlCIrPbtpDUOjjiaNd1gAteK4FLSSmOYDXtrDxqdo4XwSxytB1m2KdYg6oxCbWmAOWQAtZdLK2/sc3USKwxaIw1ZZaxACbNY58jWXs5xtnlZSul0TqbGnsNwQ1h/8KNfVSy1QnqHcNJcEl+d7c60Z7SZvU3eKZPaS6NYjolNhks8rWzVMAqIzE7Nlzs/Xxrzzmue2R1ybDWJU9pbpTPpHHhjJ4wzidM2C+RLnC93bMhsy8S8/wjmB1ibEWK84t23M7HU+i3zZwn7pEf8AIFKqJ0WP+7GEfc4fwBSu5cOXJvIk9H+/NL5x/CVZmG9yf535KstHu/FL5x9hVm4d3J3nfkoB2hCFQCEIQAhCEAIQhAMsW7gzzlVWJ5YjV/bP9qtXFu4N85VTinfKr+2d7VANdygtNz/uhjH3Z/sU5uUFpx8z8Z+6v9iseURnNNG2EztFQSIzkSNysbQGkinpmwskuwvcdYjmVZXzXttCq9sVJqRvDZo3k6pO0Fb+P/07dnJxa+i5aUujj2Ya2oD26xgbMGnLJziMv7WK8H7o0ElHQy0znAujmDSWHI5L0EWkdW1j2yTPcXRCIfCFgBsXjNNq1stDqySB08koeRe5POVysNvWjbs1Kag6kcqJv3DC1mI4q45O4FgB8Wsr2a6DggzgowC3IkjM22rnf3IMQgo8Wq4ppGsfNGOD1jYOINyFdTcXjaWu15HAu1vhOHwcrZL6FwcuDSx9TJiJZvsR/uihnvPxluqA7ixLmjYDt7FzKdq6C90TGqWPRSujkmu+SIxt1iNZ7icgAueyVbW5N7xTvTk/uSWD1lLRyymsomVbXAABxtq57VsxDEKKooI4KXDY6aRpBMjXXLtv/wDf2UdSxcYmEYdqk77XWyspTTBt3X1vFZMvydS+9hvdG5JuupivwGeiopKmWWMtbqFrRmXB2/xW5jmpcpEXRdYncpHDqWN8Lp5o3SjhGwxxNNtd55zuCq3I9hgi6mcVw7gW1IdTOpaimLTJFr6wLXbCCoVVpoJ3F3JCpLCcKfiUU5ikDZGOa1rS02cTfad2zack0xCndR1s9M5wc6J5YSNhssblNlFWMpoZWOpoZi8izn/w2WyuxJlTRxU7KSGAx/xsGbvKmULOFlay+rc2uVuq6N9MAXEEE2Fky/Iv8DUbVlFIY5GuADrG9iLgrEbUc6Cw85Vr7fLKjrCso8Wr2EkVc5uLZvJTDcl3LLMzHJHozqJ5ah5knkfJIf4nm5Wu6V2wJDtWJlYyCyJ/ZnyFYBZOJ1COYKkOqNFfmvg/3OH8AUtdRGinzXwf7nD+AKWC4cuTdRJ6P9+aTzj7CrOw7uLvO/JVjo935pPOP4SrOw7uJ85QDpCEKgEIQgBCEIAQhCAZYt3BvnKqsW751n2zvarUxfuDfOVV4v30rPtXe1QDJQWnBtodjX3R/sU7uXn9PHamhWOuOwUch/8ACseUGcyE5p/gsdJLVvFfO6CIRuIc02JduCh3VkOttd0JOOQ87uhdZ1YNcmrlfR78YTo/qSHlzWPwiz9pa+y1xbLf5V5jGY6WDEp48PnNRSgjUkO1wsofjsNz8boQK2Hnd0LGNSCf7hlfQ71iACDmvQGmw40PCjG3Nmay7oi11y7mC8oa2HV/i6EnHYf6+hZOtD+QyPolcTDI6oxxVHGYwBaTnyTS6bCsjcQGtkcTuDblJx6H+voV1odjI+h4x7mO1mOLXDeDZZyTSS24SRz7bNY3smHHob/xdCXj0Ntj+hNeHYyPod7k4kramWN7JJ5HMkIL2l2TiBYX8ijRXRWuA/Lbkk49FbY/oU1qfYyMdncpPCMQhpWS09bTuqKSUhxDH6j2OGxzXbioE18XM/oRx+K+x/Qrrw7Dg38HpMUxSnlp309BDOxkjg6aWpl4SWQjYCRkAOZQyaurY2uLXNka4bQW2ISCvi5n9Ca8OwqbRIxVM8UEsUUr2RS24RrTYPtsutcsj5XukkcXPcblx2lMuPxW+K/oWQqg6MyNimLG7XBuQ8pU1qfZcjHTXFrg5psQcitk1TNMA2V5cBsBUca+L+V/Qjj8X8r+hNeHZMj6HY2oG9NBXxX+K9bJajgQ3hoJ4w9us3XZbWHOL7Qpr0+y5Gb9yXcmnH4rfFf0IFdHb4r1den2TIx07YkKbOro7fFekNbH/K9Nen2MjHV1k82Yb2N8vGEz44z+V6U1bCD8F+zxKa8OxkZ1lon81sH+5w/gCllEaIG+ieCnnoofwBS4XKfJtIk9Hj++aTzj+Eqz8O7i7zlWGj3fmk84+wqz8O7i7zlAOkIQqAQhCAEIQgBCEIBji/ydvnKq8XP70rPtXe1WpjHydvnKq8X76Vf2rlAMioHTuCWo0Kx2GnjfLNJRyNYxjdZzjbYANpU+k5kByAdFsfLssDxS33V/YlGiukB2YHinqj+xde3POUoJ5yrcljkH3p6Q37xYp6q/sSjRPSK3eLFPVX9i69z50Z86XFjkP3o6R6veHFPVX9iX3n6SEZYBivqr+xdeBCXFjlTBMA0nwusM7NG8VkJYWECCRjhcjMOAuDl0XTWr0S0oqauad2jmJsdK8vLWUjwBc3sMti61siyXFjkb3laUZ/7vYr6s7sR7ytJ/+nsU9WcuubJLJcWOX6fBNK4tH6nCRovXakxB4UU7mu+MDn/Nsy5rlRI0I0oI7wYl1BXW1kWS4scl+8bSg7NH8S6kpxQaHaWUVdBVR6O17nwvDw10JsbLqyyLJcWOWcX0U0sxOtNQ/R3EWHUawDULzYC1y45k+MpmNAtK/wDp/EOqXWVkWHMlxY5O94Olf/T+IdX+qmaLRzTClwSbDm6MVzhJwgEmYsHgA3bex+LkTsXTFgiw5kuLHKH+z7Sw/wD1+v8AQHage59pbf5v1/oDtXV9hzIsOZLixyiPc+0tBv736/0B2qUxnRjTLFmxCbRqrjDC5x1QTrOIAJzcbDIZDJdNWHMiw5kuLHKbfc80st3grvRHas2+51pb9Q1nQ3tXVNvElsOZLixyx/s50tP/AMDWf5e1ZD3N9LicsBq+ln+pdS2HMiw5glxY5db7m2l1+8NUP8TP9SzHubaXWP7hqvSZ/qXT9hzBFhzBLixH6NU81Jo5hVNUxmOeGkijkYdrXBgBHSpKyAlUKSWjvfmk84+wqzsN7i7zvyVYaP8Afek8/wDIqz8N7i7zvyQDtCEKgEIQgBCEIAQhCAYYwf2DPOVbYpBG7E6kkuuZTsKsnGBeKPzvyVf4vSVIxCdwhkcx7tZpa0kG/kUZUR/FILD4T8/GlFHBcXc8f3WwQ1TbDgJdv8hWfAVB2082X9BUKaBR05FyZNv8y2CgpiMnSG22zv0WYgqAfk03oFbGRVIPyea32ZQGoYfAc7yekl5Op/5pPSW/gqm2dNP1ZWQiqfBp+rKAb8n0/O/0kHD6YWzk9L9E4MNUf+Vn9ArQ+gq3zNkLK9oGodRmTTqknMW33secAbEADDqY73+l+iOT6bnk9JboqWqZExhgqpCwW1pGkuPjJtmVnwFV4LP6BQDYYfTf1m/9SXk6m/r9Jb+ArPBZ/QKBT1lzelqPQKAbcQpc/jjyuRxClvb9p6S3T0lZLE9jYKqPXaW60bSHNvvBtkVrbh1Y2YSaleQC46js2m4Ata2wWuOYk86AgscxfBcFqBFW8bLuC4xIYYnSCCLW1eEkIHwW3yv5eZaZ8ewKF9XG51S6akE7p4Y2OdJG2ENL3Fo/hs5uqf4r5LDSvRHF8VrKp9CGRRV2H8m1XDRPLmM4Qu147ZF1nOFjYbDdN5NCcYOKYriDH2mxSnnpKmMxO1GxamrT6mV9Zn8RPxtd3MFSEnDimDTVMEUZqSJtQNk1HcGHPZrtYXbA4tINljgWMYFjjaJ+GzSSsrIJKiIkOb8Fjwx2tfYQXDIpvRaJYtAKaAta6lZJBUPIifrmSOFsdhu1SWg3Odsk20S0DxHAMYpKsF0kEeGtppIWwuF6i0YfICdzhE3LbfPesItu9zYrxpxy6bvtv+T1vEKXLJ/pJeI0vM/0ktTh9bMGgMrora2cXwTm0jPLde45iAVlDQ1sYI4GrkuQf2gvbIDLLxX8pKyPAwNBS32Pt5yBQ0u2zvSKc8WrPBZ/QKTi1aNlJP6BQDfiFNb4r/SKOI0t/iuH+IpyaetsRxWe3mFYPpK17XN4tUtBBF2tsR4x40Bp4jS2+K6/NrFBoabmPpFLHhlWxwIjxB1iDZ7iQfghueXi1vOJKcCkrN1LPfzEA1NHTW+KfSKxNLSj+B3pFPBSVl/ks/ooFJWWzo5vRQDM0lLuB6SkNJTjY13SU94nW+CTeik4hWE/JZvRQbDPi1MNx6SsTTwE2DT0lPuIVl7mkm8XwUnEKzwSa/kQBg0MbcSpy0EODufxFWFhncXecvEYTQVba6GSWF7GMNyXZbl7fDe4u85VEY7QhCpAQhCAEIQgBCEIDXUQtniLH3tuI2g86Y8nSD4s7beNn6qSQgI7k+X6dvoHtScny/Ts9A9qkkICO5Pl+nZ6B7Ucny/Ts9A9qkUICO5Pl+nZ6B7Ucny/Ts9A9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICOGHy/Ts6s9qTk+W3yhnVn/AFKSQgI7k+XwhnVn/Ujk+XwhnVn/AFKRQgI7k+XwhnVf/pHJ8vhDOq//AEpFCAjuT5fCGdX+qOT5fCG9X+qkUICO5Pk+nb1f6o5Pk+nb1f6qRQgI/k9/049D9Ucnv+nHofqpBCAjxh7vph6H6o5Pd9MPQ/VSCEBH8nu+m/yfqjk5303+RSCEAw5PP03+RHJ5+m/yJ+hAMBh+eczreJoT2ONsbAxgsAskIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEID//2Q==</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>data\product_images\Axion Amplifier Large_20251120_190341.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Axion Amplifier (Small)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEEAwEAAAAAAAAAAAAAAAYBAwUHAgQICf/EAE8QAAEDAwECCAkHCQYFBQEAAAEAAgMEBREGEiEHExQxMkFRUiI1YXF0kZKhsTdygbLB0dIIFSMlQlNUVZMXM2JzdZQWGDRD4SQnRIKDov/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMFBAb/xAAsEQACAgEDAgYCAgIDAAAAAAAAAQIRAwQSMQUhExQyQVFSYfCx0RUicYGR/9oADAMBAAIRAxEAPwD1SiIgCIiAIiIAiIgCIjtwKAtvmjY7Zc7eqcoi73uWMiAdvdvO7efMuZa3sCtRFmQ5RF3/AHJyiLv+5Y3DOwJhnYPUm0WZLlMXf9ycpi7/ALljMM7B6kwzsCbRZk+URd/3JymLv+5YzwewJ4HYE2izJ8pi7/uTlMXf9yxmGdgVMM7Am0WZPlMPf9ycqh7/ALli/A7AoJwv65foHTMd0p7YK98lQ2DZc8sjjyCdp7gCQN2B5SE2izZ/Koe/7k5VD3/corpe6fnzT1tub6SSjdWU7JzTyjw49oZ2SsrhvYE2izK8qh7/ALiqcrh7/uKxeG9gVMN7Am0WZXlcPf8AcU5XB3x6isVhnkVMN7Am0WZblcHf9xTlcH7weorEYZ2BccN8ibRZmeWQfvB6iqcsg/eD1FYc7PYFTwewJtFmZ5bT/vB6irkE8c4JieHY5/IsFstPUEpHmG5QNjAAedk+bB+4I40LJCiIqkhERAEREAREQBERAEREAREQBERAEREAVHdE+ZVVH9B3mQGJg6Pq+AWD13d57FpK7XSkbG+ekp3SsbJnZJHbhZyn6Hq+AUR4Xfk41F6G9a41ckmZzdJs0MeH/U/8Fa/Yf+JUPD9qb+CtfsP/ABLWWnZqanu8MtbJxcDcknihJ1bhg9vb1KRsu9l2A48Qx7Y3BsfI8tyRjZJ58E5dnn6ty7EsONPtE5sMs5K3IlX9v+p/4K1+w/8AEqHh/wBT/wADavYf+JQeoudtjvNumjZHUQQBjZH8QG7Q37QLMYPPu8y5uuFnkqLVk8WyJwL3sphmFuG5BbjEhyHHJ5s/QqvDD6l1kl9iaf2/6n/gbV7D/wASf2/6n/gbV7D/AMSgmoLjbqu27FLHE2YzbQbHT7AYPC2jtc5Dst3dWyeZRvCjwYNekl5JJ8m3/wC3/U/8DavYf+JU/wCYDU4dg0Fpx8yT8S1DhcSMhQ8EPgnxZfJuP+37U38vtHsSfiVubh61HKwtltlmew84dHIQf/6Wooyeiefq8q7LHMhjDmta+Y94Za0ebrKl4cdWokeJO+7Nqjh+1MBut1o9mT8ao78oHUzQSbdaPYk/EtT1AjJDostDudndPn7F03nad/hHN5VSWKCXBaM5N8m4f+YTVGN9ts/syfjXE/lDamHPbrP7Mn41p4hZnTl1gtsFwiqWRvbUMjDdqnZIQRK0uwSCW+Btjd2rCWOKXBqpN+5sc/lDan/ltn9mT8S4u/KH1P8Ay20ezJ+JRs1+haitnrKmgkj2nOcKWJkgY4lwIx4W4YByP8W7m3crdc9DRNgmnoOLqTSBkzBDJIxsha8OLMu6eS05dloA3b1RpfUv3+TPu/KH1R/LrQP/AKSfiXA/lEao/l9o9mT8SjGq5NDy2aeTT1NMysjbHCzbc5vGOdnbfsk7g0NGOol/kXGHUGnjRTCekibK6hgie0UbTxr2wva4DuHbLH7W7Oyq0q4J7/JJj+UVqj+X2f2ZPxK/bvyhNT1Fxpad9vtIZLMyMkNkyAXAH9ryqGM1FaaGlt4pjDUugoZmvZJQMBdM4ANY4kYLGnftZLiQd+/ChtkGL1bhz/8AqYvrhRS+CbPodActVYvGlL8/7HLjTdFXIBm5U3kdn3OWMuDREhREWZYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo/oO8yqqP6DvMgMRT9D1fAKJcLnydah9DepbT9D1fAKJ8Lnydag9EetsXqRnk9LPEyrsu2drB2e3G5UW46fXWko+CNtkktokuoj2DGY8Avz09td3LNwqlZx8cVK7dGm0wss2uoHOAFojJPUJn71KbRoy73iISUukKjiXbxIZ3R+raUSnt5X8F4474f8kBwqYWybjwUX5lM+emt1Qx7BkwyPY/PzXNO/zEBQCoo6imnfBUQSxTM3Ojewhw+hUjOM+GXcHHk6uEwrwhkz/dv9kqvEyfu3+yVLJSOsW58i5cZKP+4fUFe4iT92/wBkqhgl/dyeyVRlqLD3yOBDpCQecYAVstwuyYZP3b/ZKtmKQfsP9kqjLo67guBC7Bjf3HeyVbdE/uO9kqjLFgq25dgxv7jvZKtOjf3HeyVRklgrg5X3Rv59h/slWzG88zH+yVRlkWSu1ZfHdu9Ji+uF1ngtOHAg9hGF2bJ47t3pMX1ws2WR9C6XoK9T+Mqf532OVml6AV+n8Y0/zvscvNLg3Rn0RFmWCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAqP6DvMqqj+g7zIDE0/Q9XwCiXC2P8A261D6G9S2Do+r4BRPhc+TjUfoT1ti9UTPJ6WeJVdpaeWrqYqenY6SaVwYxjeck8wVpbH4HaaGklvOpqtgfHZqYyRg8xldkNXeyzWOLkcbFDfJRMnILNwXUcbZqeG6aukYHkSDaipM+TrKgl81zqO8zF9Xdao53iKF5Y0DyALDXSuqLncKisrJDJUTvL3uPWSpJwP2ySu1VU1rqblMNLH4LCMhzuxfO588ncpHdwYVahEw9JqW+0MrXwXO4wP5xmVwz9B51tLg/4UIq+rgoNXiNtRkNp7qxgD4z1B/a1cuGNzKi0QlltMTow10j8D9HnqytJ53LPFlcu5pnwqDo95WJ0FZxlNV01M2thALtmNuzI08z2+QrKm2U38ND/Tb9y0pwJapluOlqOepkL6u0TtppHE73wP3DPm+xegtkEbt4W7ye55Vj9jCutVN/DQ/wBMfcrTrTTfw0P9Mfcs+WBcSwdieKyfCRHXWin/AIeH+mPuVh9ngPNBF7AUnMY7FwMQ7FPjMq8CZE5LLD+4i9gKlPY6PbzUU7HN7A0BSl0IPUrboB2I87KrTq7I/Uabt02+CnbF2AtBC6s2maRjQeLjOOfLRvUnMWObcrToGHJfvVfHkvcv4EX7EXNqtcbQH0rJCOfa5vUFYkgpw4Mp6OBjf8ELc+vCk0sLc+CxvqXTnhc4Y3AeRQ8t8krDXB5r/Kdo6WEWSeCmiimc6VjpGtAc4AA4K0lZfHdu9Ji+uFvv8qqERUWnvLLN9Vq0JZfHdu9Ji+uFvB3G0VaadM+htL0Fep/GNP8AO+xys03QVyE4uNN88fVcsZcGqJCiIsywREQBERAEREAREQBERAEREAREQBERAFR3RPmVVR3RPmQGKh6J+j4BRHhd+TfUnoMil0PN6vgFEeF35NtS+gyfBbYvVEzyelnicrZOjPD4IdbRxf3ofC93zVrY9anvBDdKaG8VlmuTg2gvMBpXk8zX/sn1rs6qLljaRy9M9s02a9KnfA/V1A1BVxwh3Esh2zGHYLjnq8qheuKCr0veKi2VTMVETiATzFvU4edRWOtqYpuOinljl6nMcQfcvnskdyo7eKex2bh4V9VRT1zrfb3VEjZQ3j9tpbslud2Fr1mQxuefCwUlxq5ZzNLPJJIedzzklZK2VT6x4h2dqYnDQ0dJIQUUTlyPI7ZvTgCD22DVT9+xsxNB/wAWV6wppCKaEO6Ww3PqXmaxWaXTej6CykuZcK2QV1aWZzGwdFp9ykD7pcGHdW1ZGO87cvQsEpxtOjxz1MccqqzfplCpxoXnmovFzaMisqgB17bvvXRm1BcQfGc7W+WYt+KeUn9ivnYfU9JGULiZgvM8uobkHeDd59nrIqv/ACrJv91cfBvVTjqLaonPvVXpJ/Ynz0PqenDMFbdO1eYai+35m787V7Xc4HKCc+orrOv2oQcPu1xaf8933qr0eT7Istfj+rPUbp2qy+dvavLr9QagOdm73HcMn9M9debUOohjF4uJB6xO5VehyfZFl1HH9WeopKhvaupLUt7V5Zn1Rfmu2XXuuBPbMV1ZdT6iyQLzXZHP+mKq9Bl+yLLqWL6slf5V0okotO46pZvqtWgbIf15bvSYvrhSHXV1udxipBc62pqWsc4sEridk4GcKOWM/ry3ekxfXC9WPG8UNkmVeVZnviqR9EKXoBXIvGdL88fByt0nQCuReM6X54+DllLguiQoiKhYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo7onzKqo7onzIDFQ83q+AUR4Xvk21L6BIpdDzH6PgFEOF75NtTegSfBbYvUjOfpZ4oPOVVri1wc0kOG8EdS4k7yqErvNnIijZEd3sWvbTBatZv5JdKduxTXVo5x1B/aoxdeBfU0DjJaW012pDvZLTSg5HmUdJXcobvcKD/AKKtqIP8uQtXPy6SMncex7sedpUzt0HA7rKqlDZbZyWPrknkDWhbC0lpXTmg6gVM9dTXjUYGGNa4cRTHtJ6yFris1Dd61mxVXOslZ2OlcQsZtZWcdGl6mXlmclUexvNtygFZNUuvdPU1cp2pXucQ0+QDsCuT3uCIBstXTnPVHOB8StEZTI8i9GxHmWD3s3dJcbfVPdHFdQ2o5wHTt9WSFYqqpjIDi8wSf5jwcHsO5aYyMdSpkdg9SjYW8sn7m0fzsIAXSzU0hzlog2HbR+kK0y+NLsmljwXc5aw+fdnK1idnsHqXB2z2D1KHFE+V/JsyovlBLtBpki+Y8D1DK6X56gYBxN3rIe0SwhzT6iteuI7ArbnBQ0PK/k2K25mdx4q7QPf1bnR+/CtSVkwcNqvhLxzYla77lrpxVp2FVjyy+Se19ZNj9IYpf8WWn7V0JLpsjH6EfOj3e4qGkrg5VciPLfkyuoKoTiICSNxBJw0EYXSsfjy3ekxfXC6ZK7djP69t3pUX1wspOz044bVR9EqToBXIvGdN88fByt0vQVyLxnTfPHwcvNLg2RIURFQsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBioeb1fAKIcL/AMmupvQJFL4uj6vgFD+GDdwaan9Ak+C2x+pGc+GeJSd5Uh0xR0NVTTOrGxuxIGyPc/ZMUeyTtDtOcBRpzt64Fy7E3ao5sOzJxUW61i4U7HRQMDi8NaJdzwOgT51xuVttkVuqJI44WvERe8iTJil3YYN/NvKhbGSSOaI2PcScDAJyVxma+KV8crXMkacOa4YIPlWLT+T0Jr4O7aRTSXSkZXPLKR0zBM4dTMjPuW+uHCxcHdv0dbprG+lgrnSMERonCR8seN5eM+beetedNpULlSa3STvgvF0qMsW2zqqqz+g38S4OFv6qirP/AOLfxLGxh8rtmJjnuwThoJOAMk7uwAlVgZLUTMip45JpX9FkbS5zvMBvKtuLo7rjR9U1QfPG38Stk03VJN9LB966JeuJem4sjuOdD1Pk9kferbnR9Tn+pdXaLiA0EknAA5yVIZbDRW4iLUF6ZRVuMupIKd1RJF5JCCGtP+HJI68KjmkWMG57O13qVsub2n1LJ3mxvoqFtxoquC5Wtz+L5TACOLfjIZIx29jj1Z3HqJWCL1XdYLznN7SrLnLgXLgXKjkGjYEFpthp4XspqaaQxtMDXTY5RlrS8u37iCT2cy61Ha7Q8VO1HA6nEz2yTGo8KFoHgkec7utQpsMr4ZJmRPdFHgPeGktbnmyepWwx7o3vaxxYzG04Dc3PNnsWT/5BnNXUsFJVU4ggip3uY4viik2wMPIac5PO0ArHWI/r22+lRfXC6BK7lhP69tvpUX1wqt9iaPoxS9Bc4vGdN84fBy4U3R+lc4vGdN88fByzlwSiQoiLMsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBiouY/R8AodwxHHBlqf0CT4KZRcx+j4BQzhk3cGOqP9Pk+C1hyikuGeHXO3lInMM0YlJEZcNojqGd6sudvK4Fy6bkeBRJ1fNSXixX+Slt83J6OF45NExjdh0e7ZI3b8jflYXWbqh90ZVXGYyXKrjFRUtwBxbnHc3HmwupR6mutFTNggqjxbNzNtjXlnzSRkLET1Ek8r5ZnukkedpznHJJ7Viuxtyc9tcS9Wi9cS9S5FkiZcF3FSawjZUTGCB1HWtklDC8saaaUF2yN5wN+OtT2xOm0vq7TlJpWlZHp6uqoozfI3iaS4tzvaZAP0Te2EBp720tNWu51FrqzU0bmtlMckWXNyNl7Cx3ucV39K6tvGlal0tmqzEH9OJ7Q+J5HMSw7iR1HnCxmmzWPYxUrsSPHY4/FWy9W3SFziSd5OSuBcr7iaJVwdlp1dSPwHSxMmmgaRnMrInOZu+cAfoUl4Paea5aLuxFlp7y+W5wCo4/wDHGYpHOfx3/awcHazjtBWtaKtnoK2Cro5HRVMDxJG9vO1wOQVKJrrY7nT1ANbc7EKt4kq6Kmj46lleP2mjaBA3nwTnGdxWUmSkZWjprXRah1LbLLcTcbJJaZ3ySlu5rmND27+Z2y8AB4ABzu51rsu7edZ+vvNvo7RPatOxT8XVbPK62pwJZ2tORG1o3MZneRkkkDJ3YUbyoTJo5lyoXLhlUyociaNhaIudytui7o6zs46omuVNCacxca2dpY/LHM/aBWc1NaLZbND3+SBjKC8TNpjW2qOXjm0p4048L9knuEkha9sWrLxYLbX0VoquTR1paZXsaOMGAR4Ludu4kHCx1Pc6mCgrqNjxxNbscdtDJdsu2hv85Wb5FHUyu9YD+vbb6VF9cLHrvWDx9bfSovrhGyT6OU/MfOuUXjOm+ePg5cKXoZV2AZuNP5HfY5VlwVRn0RFQsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBi4eY/R8AoVw0/Jbqr/AE+X4Kaw8x+j4BQrhq+SzVX+nyfYtI8oqzwQXHPOfWslabNXXRrnUrBxbTgvc7Az2LGda3LwM2U35ttoAdhssj3SOHU0HeuzpcUMk34jpJWRpsUckqlwka/Gjbs7m4o+Z6pPo27xQOl2GPDRnZa/evZdTTRWOSK16f09FVv4oPc52MAE48IneVEta6eZLpmO+R00VLVMeWVMMXQ58ZCY5abLkUEmr4dnTxaPTyVztXx3X8Hj120CQcgjnCpk9q7d4GLrVgc3Gu+K6rOm3zrzSVNo5DVSozlv0pdK6mbPHGxkbt7eMdgkduF2hoe7nqg/qLeOgrVR1cT6q5Z5BRQNlkY3cX7tzVnW6wt75OIm09QC3ZxsNb4YHbntXzT6pm5bSXt2PtP8Bpl/rGMpNJX3SPMt20tc7XTGoqImuhHScx2dnzrBL0jwp2intlHVGjO3Q1VKZodreQ0jmPmXm5dPQameeMvEXdM4PWNFh0soPA3tkr7nKKN80rI4mF8jyGtaBkkqZ0/BnqCaJr+LpmFwzsvl3jz7li+D9ofrO0tcMjjh8CvWOmrPRz0FXWXRtS2CINEZjHTcTjZHaVy+sdT1GmzwwadK2m23+/g4WSck0onmlvBTqJ3MKP8Arf8AhYTVWjbxpgRPulO0QynDJY3bTSezPUV7YkttvrKulgrbXPbXOYWQmN7SJCBnDsftLSHDiHM0XVwzRua+Ooj3PGCN65+HrOujqsePLtlCTrsmn7fPHP8A2V8Sakk+GedMDsV2lppKuoZDTsL5HnAAVtSTQLc37zROx7l9zpsKzZY437snUZnhxSyL2Rxboy6Ox4MGT1baus0LdnHAbT+2vXGndKaam0Aysngp3TupTI6Yv8IPwfL2q/8A8MacGhTVNgpxMKTjBOH+Ft4z29vUug4aBS27Zc17HNeXXVuUo8X7niS72qqtNVyeui2H4yOsOHaCq2ED8+23d/8AJi+uFOOFwDathxvw/f6lCLD49tvpMX1wvBrtPHT5pY48I93T9TLU4I5Zcv8As+idJ/dhX6fxhB5/sKsUn92Ffp/GMHn+wrlS4OijPIiKhYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo7onzKqo7onzIDFw8x+j4BQrhq+SzVX+nyqaw8x+j4BQnhq+SzVX+ny/BaR5RVnggreHANeoLHVWuqqjs05dJFI7uhxIz9G5aPPOpNaam9Wa1RVJt8z7dUO/RSPYdknfzEduD58HHWuzpcmOEmsvDTQ004wk93DVHt2j/OdTX3OtjjpWNdC2KikD9tsgBJDjjzqI8IFy/NGjGWermhlulS7alEZ3NBdtErzhBwg6ntNJGIY6ylppW7bA2V7Wub2jyb10ZNV3y5srHwUMkksUfGzSnae6NhIG0c9WSN/lV8a08Jqcp2lT7J+3B6oZMUZW5cfgiN4ObrWf5rviuqzpt86v3GlqqKumprhDLBVxuxJHK3Dmnn3j6V1l45Pc2zwN3Kz07wcX2ktskcFxY11JUiMSOcMtAHaOxcrfWW1mt2Ty8ULZyou3t8HYzu3di0fYtU3N3JrfT0nLahxEcTW523nqGBzlZOLUd7lIEVlkednbAAdvbkjPraR9C+Xl07UJ1S7P5Pu4dZ0Erm5tOSpqn+2bP4Wb9T3inqhRR7FNTwSRsPU4ZOCB2LzapVqLU1ymjloKim5G84EjTnawRnG/mUVXV6fp8mGMnk5bPnOs6vBqJQhp/TFUSLg7ONbWfP78fAr15pe5wS2mqt1wr46WOMtmpy9vM8HP0jyLxbZmVr7pTC1MkfWh+1EIxk5G/wCxbEj4Qr62R9PLZRJUwh3GbO1u2ekcDs61yusdP1ObUwz6dJ1Fppuv6/UfP5IztSirPWVXUGKto6i/19BAyIOmp44iTxrsbnHPVv5loDhvr5K/TFdUTvD5ZZ4yXAYzv7FD67hIvcDg2tszmObkYkc/LcHGN43KK6u1Zc7/AANhqKfk1LG4EsaDvd1ZJ+C8mLpmsnqcc5x2xjLc+9t8fq7GezJKStUkRZSTQHj0/wCU77FG12bbWzW6sjqacgSM6jzEdhX2+lyrDmjklwmX1OJ5cUoLlo9u6et+mX8HEUkrKLjDSFz3l42+MwfLz5V+S36aHB8ZGto9vke0H7Y2+M2fPz5XlaDU185E2pZY3upjA6pEoDtkxNdsufnsDt2e1df/AI+rxkG2N8HORl273Lo79M5OXjy9V8P/AMOU8epqvAjxXKL3C07aNs7cP+xQqwePbb6TF9cK7f71U3usE9VstDRssY3maFZsPjy3ekxfXC8Gvzxz55ZI8M6PTtPLT6eGKfK/s+itJ/dhXqfxjB5/sKs0nQV2A/rKD532FciXB0kZ9ERULBERAEREAREQBERAEREAREQBERAEREAVHdE+ZVVHdE+ZAYqLmP0fAKG8Msb5eDDVLImOe91vlDWtGSTjqCmUXMfo+AVXNytE6Ks+bxtdwz/0FZ/t3/cppadVXq1UbGUdjqY63k7KaSqa2UOcxjXNjw3GGkB28jnwObfn3UWO77/aKpxbu+/2itnlvlFFGuDxI/Xl+4kxx6fexridsCKUh4Id4JGzvHhZx5ArUWtr7FqSpu4sEr3T0raR8EsUjmbAftEdEZBPUeYY37l7g4s99/tFU4o953rVd6+C1M+eupn3fUF9rLrVW2rbUVTg94EDzv2QCebrxn6VjPzVcf5fWf7d/wBy+j3FnvO9apxXlPrVvG9qK7D57aZlu2n7vHcqW1VElVC13EmSneQx5GA7GN5GSpK/V10NRHVRaZfFVMkEjXtZLsjZe6Rg2cdUjtrygYXuTiyP2netUcwgdN/tFQ8ifKJUaPnhe4bjdbtV17rVVwvqZDK9jYZCNo73EZHWcnHVnC6P5quP8vrf9u/7l7v1Lriz6fuzbfXvrjKI2TTvhgfJHTRvfsMfK4dBpduzvWOqOEqwQRuLpK4yRbfKIWwkyUxbM2EiUZ8El7gB2jeNyeNRGw8YWGO52m701cy217jCSdljJIyQQQcODTjn7CO0FS+o1ren03J6fT89HDidhZTMkjGzI1w6m7nAuzkbjjmC9M1PCnpumirZZpLk2npo5JRMaV4jqGRyCN7onHphriM8yldivdDepK5lvmkkFHK2GR28NJdG2QFp6xsvbvUPInyiVGjyAdd39xINiqdiSUyy7bJZNskcxyN4BOQOrd51Y1vqSpvVFU26islydSvMLmTVTJDI1zB4Rxg5znGSTu6l7fEZ7zvWU4s993tFRuXNE0z5x/mq4fwFZ/t3/cn5quP8BWf7d/3L6OcWe+72iqcWe+/2ireKyuw8Q2XW+oLVpyms8VhdJDBGYg+SGTJaXl5B3cxcWkjtYFeZry/x1EpisdU2B0T4wx3GPfk7BD3Pcw7Tv0YBJHhAkbl7Y4s99/tFUMZ77/aKruXwWpnzk/Ndx66Cs/27/uXdsdruAvduJoKwAVMRJMD++PIvoYYz33e0UEZ77vWVZ5GRtONOMNPnVYvGtL88fByuAYVuPxpS/PHwcsXwWRIkRFQsEREAREQBERAEREAREQBERAEREAREQBCMghEQGJb+jOy8EHdzjyBV2x2rIvhje/ac3wsYzzJxEfd95U2RRjdsdqbbe1ZLiI+77ynER933lTuFGN4wdqptjtWT4iPu+8pxEfd95TcKMZtjtTbHasnxEfd95TiI+77ym4UYzbb2rg54I51luIj7vvKcRH3feU3CjTmvND3W+Xu5VFtrKCKkutDT0NWKhr+MibFMZNqPZ3EkEjDsLEXDg2vVTJe6gXKhNTfpGy17XMcGMdHUNfDxWBnAjaWOzzk5W+eIj7vvKcni7vvKiwef5eDC81FLFQz11rNFRR1EVKQyTblbLVMmPGgjAw1pbhuckqa8G+kX6PjvdPyls9LVV5qKUb9qKHYa1rHZ6wG43dQC2XyeLu+8pyeLu+8pYMSHjtTjB2rLcni7vvKcni7vvKncKMTxg7VTbHasvyeLu+8pyeLu+8puFGI2x2qm2O1Zjk8Xd95Tk8Xc95TcKMMXjtTbHaszyaLue8pyaLue8puFGF2x2pSRumuEL2Z2WHJON3MfvWZ5ND3PeVzhhjhaRG0NBOTjrUNijmiIoJCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiID//2Q==</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>data\product_images\Axion Amplifier Small_20251120_201822.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Amplifier – 10M Coverage</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAYDBAUHCAEC/8QAPxAAAQMDAgMHAgMGBAYDAQAAAQACAwQFEQYhEjFBBxMiUWFxgRQyFZGhI0JSYnLBJDOx0UNEY8Lh8Cai0vH/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/xAAiEQEBAAICAQUAAwAAAAAAAAAAAQIRAzEEEiEiQVEjMmH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERARYrU9/odNWWoul0kcymhGSGDic49A0dSoloDtZsGtrpNQW2OugqGZLfqIeFrwOeCCRn0KDYSIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIhIAJJwAgIoZqjtI09YOKN9V9XVD/g02HEH1PILUWp+1y+XXjit3DbaU7fs95CPV3T4Qb31Bqez6fiLrrXRQuxkR54nu9mjdam1P20zy8cOnaMQt5CoqPE73DeQ+crTtRUSzzOlmkfJI45Lnkkn5KpskLHte04cDkFXSbZDUv45q0f4u41JqJTiOSSQj4aPL2Cwlgst00zUNfVTyuic4PYGSHhc5vJ23UZ6+ayzp46qTjlcYagnPeDJaT7cx8LMW+8GgbA24UwqmM4iONxcyTON8gg5GPP4QbH0f2rTQ93T3XjrYsf5mMStx542ctu2S92690wnttVHM3qAfE33C5XqooK+IT0krWyNjLnNA3zn7SfQdT0G6+7bfaizlkkFT/iGEkGA8OM+buR5dAiutkWl9HdrdT4Y9TUzfp3HDauPDSPdp+73C29brhSXKmbUUFRHPC4ZDmOyFBdIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiKwvF5t1mpzPc6uGmjH8bsE+w6oL9UqqpgpIXTVM0cMTRkve4NA+StO6q7aoYuKHTlL3ruXfzjDfhvX5WodRanu+oJ+8utbLN1DM4Y32aNkG9tVdsNmtnHDaGOuVSNg4eGIH35n4WntUdoWoNRFzaqsdBSu/wCXp/AzHr1PyogXbL54iqm1UuJXmV8hy9yg+splfOV5k5VFRVYah8ILWkFh5scMtPwrcHzXocEF9FI+skbDJMyKPoCMNHwOquYmhkr4o4gyVg4uKoBLj/SACB+vusTkLKWa91tpqI5qWZzXM+3fcex/tyQbBtlDoiW0R3O+Ueoo6gARySuDywPA5DG2PdYamvc9lvE1XpeK6to3/wCS1sfFxer2tBC9vuta/UFviggEcUuCJzGSySZv8J6Ee35KpprXd/0zRfRxVEDKRp8EM8XeSt9ABg/msXH7jUy/WzNLdqtNUd1T6jgNBUO2EuP2bj69QVsyCaOeJskL2vjcMhzTkFc+01Nc+0ieapFfbqGviPdhtQ0NeG+YaN/n9VVrDf8AsyED2XenqxK/DqcS8bX+vCd2+6m7ParZO46ARQHSXabaLy5lNWyMoq4geFzvA4+jlPWuDmhzSCDuCOq0y9REQEREBERAREQEREBERAREQEREBERAREQEVGsqoKKmfUVUrIoWDLnvOAAoJcu1zSdNBK6kr210rNu7g3KDYKwOo9XWXTsRdc66Nj+kTTxPPwFobVna9ervxw20i30p2/Z7vI91rmaaaqnL5HySyuOSXEklNDbmq+2ququODT9OKSPl30niefYcgtWXG61tzqDPcKqapmO/FI7KspI3sdh7SHeRC+cKo+i7PVfOV4vklBURfIK9BQZywRUD5HGcF0oYeFjiA1zlXqrFmmfNTyDiYOJzSf8ARR3O+yyNDdqilifEHZjeQXHr+aC3ZTyumEXAQ89Dssy/Tzo6UymXjIOCGNzuqk9bSTxRvfHl3DgMZ93yqNO+uoDHPu+E+IROduQqLKptVRFE2RrHuYTj7SCrB7HMOHtIPkVPIK2K+08kYqDTTAYDOW6jdZY7iyRzpGGQg4znchBhxyXoOV9TwvglMcrS145hfOVB6Dv7K9jrA97frGGXGMSA4ePnr8qxRBtKxVOj5aSasmpniuijJc6Z7phJtywdwT/6VHbDdLBFepqi82uSW3T+FsMUxc+L89yPlRKJ74nh8bi1w6gq6/EJcZY2OOQ85GNw4/PT4QlbJ1RV6GbZnx2aiq6SoePCHg7evCST87LFaZ7Rb3ZJIKegLqqkYd4Kgl5ePcfb8KINpmRwMqKp7nh+4bHuT7nor53d09tjmleITL4o6WNue8Z5vfnKkxk6W23t0ppTW1uv8TGuP0lb+9TyuBOfQ8ipSuS7dXw5Y6GV0UoZw925xGf6T0WxNMdoldapTS3EmeBmMNlOH49D1QbwRRC39pGlK2qZSfjNLDWOwO5lfwnJ5DPJS9AREQEREBERAREQEREBERAREQEREGv+2203W76Mmgs2DIDxPYduILjq32+8W+5yUb6AxyOPiJG+M74Xf1c3iopx5sP+i58ur4vxF8csTXcUndtPUZK48nNMMpjft0x47lLZ9NXikbBvWP4T/A3crOW+2yVdqlqqGelgLNu6Lv2r1KtUaVmoGvZVUZdkZa4bZ+VBZKCot1XHK1pkawh54c/ku+3J5xylhZXwvewbcePE35VrUUZDDJA7vYfMcx7hZ+e8Quc5sVU5v1TcSOLPs9D5+6w7aeWCpeaWZro2n/O5MP5oMWRuvFf3E07wwwj9t/xC0YafYKxwUAL3K8RB9ZVWlmEMrXljXgdCqGUyUGZD46nM1NiGVm7ievwr9tfLCI47hC1zSMNkxthRhr3NILSQfRZelvJ7vuqyMSx44c9UFevhpxVd5bnPc4jPCzoVkKa8V1I2Fl1Y/uHbBx54UcirHQVHHTFzG5yG5Ui+tpb4Io6l3dynn/4QXdwtNvub/qqSsZG133Bx3yovXxQQy8FPKZANnEjG6yU9hmjhdLHKDGM7HmsHICx7mu5jmgZC9yqSZ3QVsovqijbPVQxPeI2vcGlx6KcahhtOm5oqWO2irLmB3fyPOH+2EELp6mSA/s3bHm07g/CykdbFUwshkZGCz7Wyfb8HmFeVdqfdYo6i0Waphafv3y0+2Vha63VdA4NrKeWEnlxtxlBk+9dTwyRyNpaWKUcLuFgfI4eh6LF3CqcaeVlAzgkc0gSyHiedvPp8K/senblepgyipnuB/fI2C2nZ+yiOgtc9wu8gkkiidII+mQMqW6WOedKae1DdtQQzwWhknBIPFLkRe2eZ+F3Pp+KqgslDFcHB1WyFolLRgcWN1qvRreO5UuQ0DiGGtGAPYLca4cPNOXevp15OK8etiIi7uQiIgIiICIiAiIgIiICIiAiIg+KgcUEg82n/AEXOOonOjueeE8XftP8A9l0g7dpHouY9c1cFLV1LqyodBCyTJkDeLh8W2fReLy5vLHT0+PdTJ0fU0VNX0DY6yNj4ywfd02WndaaZpqKqLrfUMmaST3YPiH+6xutdWaqqaOgfYX0s1rlYBJUtf9gxzA5fO+FjZYYIqelutqxcaqpZwyPqqhzDCceIOceYzy4QMr1epw9KD3Tu6SrLfpf2g/eeMNPqB1VmGVNZ43u/Zj95x4WhTC9XC2Nt7RcjSvqGnLnQt4Ix6DJz8qza2jvMb46UMfLjjLRsWj0HQLWOW0uOkcb9PEcRtNTL7ENz7cys5TWivfRuqLqKaloiDwip8BJxyaBuCs7Q6g/A7FNT01hppJIngMqnDhfno5w558lDbg+qral1VeKp/ev3PGeJ59h0+cLTK1lpGyNMlE/vGjmw/e346hWWfNXprBAf8Gzujy7wnLz89PhWTjvk80DKZXnRfGT5oKgXqphy9aSg+8r6a4g7HC+Mr1BmLbe5qVr2Sl0sbhjBO4Vtda5lZKx0cIjDW4J6u9SrDK8OSg94t16FT4d8r6BygqAlXTKyR00Lp3OlbGRhrjnbyVe12WtuDHSxR8FO3d00h4WNHuVYXHU+nrFI6CkIute3bj5QtP8AdBtmrvtfeoIY7FG5tK+EMlikjw2MjqCsZc6Ost9uY6SKW9OiBeGulAZH8E5K1bab3qfUtyMFvrJI3uG0UL+AAegG5VWhqaq26ibFqBj6tkD/ANvC+bOfTOVnas7S621FWukponvpKN5Le7iHAR+SmGgNc3CGgvVnuU8k0DoS2F0j+Mtfyx7LUOrtT9/fa6Sz0wt1MSGMiZzAx/dZDszbBOKouqmRPjeHNY85dLlw2Hms5X41rHuOjtBxZudMDg8LgVttat7O2h1yhI32yVtJeTwJ8Lf9ejy78oIiL3PKIiICIiAiIgIiICIiAiIgIiIMbqS5/g1irriIH1BponSd0w4L8dFyB2l6jo7zSXEUp8ckYk4HbFp4geFdgakhfUafuUMTS+R9PI1rQMknhOMLkJ7qOrmMNziZDUg7TBow48vEOq5cmHqsv43hn6ZZ+pHa/wAWs1ipK6dsVJHNhhgfIOGQkbbcwfZYi/uuNdTzSW2d7pA0udBJu+P1AH3D1H5Jr+sF3s1Oy5W0C7UwDKashk4Y3s8sHYH0PwVBrHfLlbaiaOq46+kpAHySjwvg9irbPskv0y+mbfZKhtY7WF0qPrHwd7SyQMLooXjOWPB5k7YIWHoLjXwudU27hjZFzmjPdxsPm6V3M+n6JqvUNJPTUtfFbIKiV7ntEshIjdgjDnRjAc7f/wAKK1FTLd6J9Vc6uZ7mPMccLQBG3w5GANgM7bBXSNlwa9o7rDHQ1tYymrjt9ZCzhheegOdx7jAVOrppqaQd+N3bh4OWv9Qeq1YLdIyJklTiOM7gFwBcPQKSWjVD7PE2jjidV2/PjiqX5I/p/hPstMpRzVanppanPdMJA+5x2a33J2CyNghtV8pZqm0zmaVoB+knPC6M9eLG5HkRt5rypp7iADUQtc0ZaIMDhaPMNHyQR5LW0WobSU48X+Kk8mktjHzzP6IaSGrHFQnhk6wPO5/pPX25+6ydoDpaJ1RU1tQ2JkgiEcXTbOXeQVeamhNA+orYSxjHNAflvE4E82uGMkcyCOSCKvaWOLXAhw2IIwQjeazNwIiq30lxHfBmOCoZ9/CRkH1GDyP5qwqqN8EffNc2amJ4RKzlnyPkfQoLcEdF9KkDhfbXZQfSDdX1stVZcpC2khLmj7pD4WN93HYK5irdOWurZBJM28V3EAWQnFOw56u/e+FLdJbJ2pWiyV11k4aOBzmg+KR2zG/Ku56izafqnxdx+L3CLAeCeCGJ3r1cp8+aGcUzg4Qx0ru8DIyAwgctvJaIvdXcpb/c6ikkcykNQZQ9sjG4AOx33+F5MfIvLlceN2wmMv8AJ0vO1O+Xmqrja5KtjoGtaWw0x4WAEZxwjr7rV78tcc8wpLVVNRLeX1Mkv1le95J8XGC47bu/eKsrtpy725jZ66jexkgL888DONwPt3816cdyay7Zzst3j0r6Or6qlujJKeomicxpIdG8tI+Qsrb6p00lZLIXZklJy7qsHpmdlFcRNPCZWBhHB5lSi+T0FVQxVVDUmKokOJKTu/8AL9neSrLG36CWKZ9U9r5o5MEyN3aNsYzyCuY6ygoJaCqtUtSeAtdOyRo8Ls9D1Co2wXWtg/BaCSpmgqJA80sQJD3DkSAth2ns6pbXTMm1hWCn4jxChpyHTux0PRqlm5pZdVtbss1nRT1FIaMOqqmZ7YzC0btB5uPkAt+LQ/YzXU0uqo6C02uGitkUT34a3ieSORc/qVvhc+HinFj6Y3ycl5LuiIi7OYiIgIiICIiAiIgIiICIiAiIgLXmsuyfT+oKeofSwC33B5L2zw5xxH+JvIg+mFsNEHIN+td90NWfQahpBPQSEtY/7o5B/K7ofQqz+hiqqCf8JeZrfM9hqadoaJeFpzw5PMeh/NdfXa2UV3oJaK500VTSyjDo5G5B/wBj6rnzX3ZFc9OTPu2jZJqmkaeJ1MN5Yh6fxt9Ofus5YytS2OftaRU31MFNQxCmiNTII4ePjcxhDcZGOIexWPo3ChoJqXihkklxK6FzTnYEbH23wtj1hodSACreLbdmAtZUtjBGeWDncFa8vtguVrmjM7GmohG5Y7i2B2d7KT29i+7FxvE2QOY5D09F49gB3/JTK26A1JfIW1Vps0ncjcSOc2PvAf4eI7qPXyzXGzVho7pR1FLVDfu5WFpI8x0I9Qtspl2B2ulu3aDFT1rXOiFLM9pY4tc1wAw4EciM+y3TqLTFws8LpZuKvt7Bn6qJmHx+sjBy/rbt5haX7AKxtB2kU0jv2jzSzgMa4Dfgzz5dMLo6O63iKD6urnDcjiMXdjgj/l8zjqcrNGorhbo4ad9VSTSQuDS8SQeLjaeWwO49QsBS99cZX9+6onLW+Eh2Q0+pOwCn2oa22sq3y07Y6KqkdxujYD9PKT1IG7D/ADN+QVEdTUNxnp5XWwPkkixI6jHCNj+8xw8Lweh5qyihWT08lS+oqHMqpzgd3CcRMAGAM8zjHT81ZVFXLUMDHlrYx9sbBwtHx/dYLTFruD71I+K1V008gcHtLTGN+rnEYGOuFM46ayWna5VkVwuAG1HBJwx58nP/ALBXaMbbLTV3OUsooHScP3O5Nb7k7Be1110zpt7o6qb8aujAf8NTOxAw+T39fYKOau1Hd7nMLeZRQUJPC2hpm8Hwf4vcnCjbKWnqZIYYIXyT8WGlpJc8+QA5qbGW1Hq28X9vdPmZBQHZlHTDgiHlkdflYu3x1f1kbYGYcXgDbYHKkV+0Dd7JYYLtW0slIZpOFsJwHgBpcXOHJvTAyCfJRymryyYO7+o4wcnEbck591L7z2cbhle29tHabqq/ifqWrbDQM8Ur4pBwuaNy0jnk7BaJ1dFFDqi5Q0sneU7J3BmT0/36KVfi1zjgLJRUxEjib32c++Nh/qsDUWB9LHHW3WZlPG8teIyeKSVhJyW42O4xzyM56LzePw3DK2u9/WPsbp47iw01H9W/IPdCMuO3lj/+LaENwjt9pqaeQxQXJ8b3yfiR4MMI2aMZLgduXUb45KHHVraKm+nsNFHShx2e6Npkb4g4DIzxEY5n8ll7N2fXe6sN11LVC0UMp4zPWZM02erI+ZPvheuyJ7oxdnW+trofwemmEz2gSYaAJHnGeBjeW+f02UzsfZtNBBHXawqhZ6N/iZT44qmUejP3fcqU2aehsTm0OhLZI6ukHAa+Zne1Uv8AS3kweyn2luyK6XicV2ramWnY88Tog/jnf/Udw39T7KdrpDbZcHBwtGgLM6mMgAMrG95VS+rn/uj22WwdI9jcsz21mrqpxc7xGlhfkk/zv/sPzW2NP6ftenqMU1oo4qeP94tGXPPm5x3KyiaGH0/pm0afa4WmjZA5ww5+SXEeWSswiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAvHuaxhc9wa0DJJOAFjK+9QU+WRftZMHl9oxzyVEJ6hl/eZampfPSsd4Ym5bFkeQ/e9zkIMJ2iaM03qusFTQMdBcC4d7VUwAZIOuRycfUfqqVp7OtPULopZaCKSePlJNmSQ/nss5cbvb7LTd9WVENLEORc4An0A/2Udn1LcKynNRSwx2e143uFz8JcOndxc3H3wrqG6klzrKGzUT6mrlEULQcDm5wAzgDmTgHYLUfaNrjSuo6H8KqaCS4QP2bURuDJIHdHMyP05HqpXQW2uv9WKnT9qfWVH2i+3tnhYOphi5D8lLNN9junLTWGsq43V9S4h5EoAjD+biGjbBPToqjSNjFj0ZSQut1re2qmj42VVSzL5mHbOem4Ow/VWF51ZdrjLwGR7IiRgA4xy8uXMfnnkSF0X2saXt960xmSNjaihBkp+E8J2G7R7gcvMLmeOEzPGD4HAO2323H/6/NYooMnlkpQyUklhPCSOn/v5LbWgrRSVliZXVDXSTmjLBxOPCA2TAOOpx5rWM9I8wyMZnixkO6D1U/wCzS41NRS1FBLJG5lM2NjAwDYuPE7JHPcLlzXWO2+L+yXx2ykpaWqkgp42v7h+XAb/bzXL1ls0dzY9lkqAagZcWTu4STueXInbbHVdXzgtoanwlx7l/haNzt0XLVztbLC6KNgjp55Ts+Z44yDnngktGdunTPmvN4Ftxu3by5rKaYKmoqumuzai8xytcw993j3hrXtaBs1xPMbbDf8ltPsw1HY7Pd5b3WUr+74Ht8DGDLjjGX7HP+qirb9RUVgq7fXRQ3B1SxriZXAthc05AaQOvp06jmo3a7221vY+hg4XNBxJK7vODPPhHJvvufVe30/rzStr9qfaBcb1SxxVVPT2u2ZDoYpI+KRw2OQzmenPhC1MK18lTJPSj6d8jiX1s5BldnnjAw32aM+qoXa4/WyF8nHO927pXu3+B0Uj0No2432P6kRhlqGS+apPdRD14z/25V+je0i0tHUTWcUlyt7rjQzcXc11KOMsI58fTbrxcLh5lYmn7N626TGrFVFQ2VpINTV+FoAPJg/fB6Yx6qV219k0hFJBaDJdat5HHPOS2nBHLEefHjoXKVWHQeqtcVDK27SSUlEftmqW48P8A049tvyC5YcdxttrVu0QtLNP6VcI9MUH4hcicC5VsfE7P/Sj5D35qeac7MdRaqqG3DUtTNRQO3zN4pnj0byaPf8ltzR2gbHpZrX0VN31bjxVU/ik+OjfhSxddDAaV0hZtL04jtVI1spGHzv8AFK/3d/YbLPoiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAsXf53R0wiYXt7zILm7EDyz0WUUU1nSPdU0lVTOEdSxpaHHPC9uR4Xenl5FCrKxWG0W4zGnpnRmU5LxI4kH0ycLUHaxqK42bUEdJR1dVb5nSiMVTW8cE0W3j4eYc3O4H99tzUMmXFp5qF9qOm/xWps92ihNU+31A72mO4kheQHED+Ic/YFaTtFtNQzX6o/+N0ct4rGnD7zdBmON38jOQ/19Vs/T/Z5BTTNrtTVr7zXt3D5xiOP0a3kFcW2shscUNFbYYIqORpkY55+w5wWYG5wc7npzKt9Ta4t9kpRLJMKmc/aM7Z8gB/76pN3o67TZksbIwImtbGNgccIHso1f9XUFCBAKjNRKTEwhwGHEHH67KBNvGp9YztZaKeWlpXfdPM0tGPRvP55KX6c7OqGgmbV3J76+u2cZJjnB9Og/wBfVX0ydpu3pri1WvWuqLlDNWPNBR8YcWPHFM4Dpj935I9lEr/C/TmoJaekoaevhoZnRTUrpCx0jQSQGu5A75wea6se6KCJz3lkbObnE4H5rmztj0XfaK/V+p7c36y11bhM50DSXQggfe3qNvuHzhZytrUkSDSR0pq1/wBZbTK2SnI763yeB0Th/GwjP64Ugmho6W8xCGmhgdLG5zzGwN43BwwTjmuaPqXvrIa+31MlBdYN4p4nYPtnqPQ5CzNiv97ufaVa6i+XOGEmWNroIGOb32BjLhyaCcZ3xnkCuHJN41vC6yjoiFhnk7kYPGCzfYb+q4819aHWHWd5tz5mzGnqXs7xucHO4579V1jW1b6O3VtVE4Nmhgkexx6OAyP1wuVKa1X/AFxqGpmpKeatq5pC+abkxp6lzjsAvL4F+Nd/LnylYinrg+JtPXMM0IHCxwIEkQ8mnqP5Tt5YUi0voe46hncbURNR8Jd9Rjgjbg8pC77fXn6Z5qW23SWmdMgSX2cX65t3+jpncNPGf5383ewUptts1Rr17Ka20ggtbDwhsbe5pYh/3H8yvobeTSP0Nl0xpZoMoZqC5t6Y4aSM+vWQ/opRZdMar7QJYpHtNPax9kkje7gYP+mwc/j81tjRfZJZbG2Oe6AXSvbvxSt/ZMP8rOvuc/C2Q1oY0NaAGgYAA2AU0qD6N7MrDprgnMP19wH/ADFQAeE/yt5N/U+qnKIqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICxWooHS0Qe0Z7t3EfbksqvHAOaWuGQRghBD6KinkLpIm4DGl2XA4d6BW5m73IdyOxCnDGhjA1vIDAUGuNO6lrZWEYHESPbor2nSF1dt1NWVLqCmDWMkEzI6prgAGbFmR5+ftlZ3SvZpSUdQye6yfW1rTlznu4xn0HIe/NTrT8UctqIkY1weXAgjmDsQroH6dopqClADBjlwRs+evsFd2GleCGOmh4WMZExvQcsepVlNdmuk7mhjNTL5jZg+f9lW+hMp4qyUzOzkNxhjfZvX3OVcwwxwt4YmBo5nHVZVizapa6Zst1lEjBginjyI8+vmsvgYxgY5YXqINMdqPYpR3sS3HSvdUFz3c+mPhgnPpj7Heo29Oq50uQrbPcJbTqeiqIKiPwuDvDIwdC09R5ELvJQrtT0FRa7sD6aQQw3GLemqnsyYz5HG/Ceqli7cw2a90z5TT3C63e5UIjz9M6ThDz/C44zhSG1DUOrSLXp2hEFC3YwUje7hYP539fk/CkejewS6Ul4jkvtTQGiY7xiGR73SDyA4RjPmT8Loa3UFJbaRlLb6aKmp2DDY4mhoH5KY4THqLcre2rtFdjNutwZUajey4VI3EDciFnv1d84HotrwQxU8LIoI2RRMGGsY0BrR5ABfaLTIiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAsPebU+rlEsJHHgNIO3zlZhEFChpxSUscLTnhG58z1VdEQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH//2Q==</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>data\product_images\Amplifier  10M Coverage_20251120_201758.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Amplifier – 25M Coverage</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAYHBAUCAwgBCf/EAEAQAAEDAwMBBgQEAggFBQAAAAEAAgMEBREGEiExBxMiQVFhFDJxgQgVQpEjoSRDUmKSscHRFjNygvEYRKKy8P/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAkEQEAAgIBBAAHAAAAAAAAAAAAAQIDERITITFRBDNBYYGR0f/aAAwDAQACEQMRAD8A9UoiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIC494zdt3t3emeVH9cang0za2ynu5K2od3VLA5wbvfjOT/dA5J+3UheZdSXF9pvMt7dX1j7xUbhl8o2vl6Ok2joxvQNORuGOjSEHrxF5R052zars7WQ1E1PcoWjG2qZh4H/U3B/fKsKi7faD4GOavsNe17pO7IpnslHTJIzg8ZH7oLsRRixa901eqJtTR3ama07dzJnhjmE8AOB6HKkrHtkYHscHNPIIOQUHJERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBYF9u9BYrZNcLrUx01JEPFI88c9B7lZ687/iGp9YXS6CNtpqX6dpPHC+mHeh7scveByCOQMjgfVBotRahn1NWXe5Xi2Rz0e0iGeCo73uYM4ETAzo53m4+5IwAFGbXe4zU0VdTMtclbHKXT0tY0Bj2NOI4mFwwGBo6ZBzycqGxPlp5u8he+KZp+Zji1zT9uQtg29zTENuENNW5/VNHh/+NuHfuSqLW1T2h2O/BlDqzR3w0wDT8RTzAyR5/U3AG5u05AyQojqKx6SnoY59LXarqayaoEcdrngJkAJwDv4H/nCjjvyqpcMSVVC7oA8d/GB9Rhw/YrJY+Cz0Uj6argqa6oBjY+EkiCMjDjyAQ93Qegz6hByuk0NNBHa6JzHwQO3TSt6TS9CR/db8rfufNd1i1LebHIHWq51dLg/IyQ7D9Wng/stA09PRcw5BcNj7cL/SOa26U1JcIh1IHdPP3HH8lYVj7a9NV5DLiKm2SHzlZvZ/ib/qF5dDsea5CT3RHt+0Xu13iISWu4UtW0jP8GQOI+o6hbFeE4KqWnlEtO98Uo5D43Frh9wpjZO1XVtoLQy6vq4h/V1je9B+58X800beu0VE2Dt+hcWsv9ofH6y0b9w/wu5/mrFsPaXpO9hoprxBFKf6qp/gu/8AlwfsVFTFFxje2RgfG4OY4ZDgcgrkgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAqq7bu0+r7PH2ttHboKr4kPfI6d7mgNaQNrceZypxrC8RWuw3N7K6mpq5lJLLAJJGg7g04IB68rwTqbV901I9jL7W1Fyhp8hj6iV25hJ5wfLKsCd9rva7btd2mmjtunG264slEstY5zXSFoBG0OaAcZPOfRaXS1kq6zTr7tdzVindzCaenEhbGDgyycjDM8D1OfRajTVkpLnWyVUjpaa0UjQKxsUuROXfJC12cbnHj2AJPRXHpIWK/agjpb6632xtE4GomirXd1VxMHhgYw+EgdOPIcZJygrk2eScj8sqqat9GNf3cv8Agfg/tlYs1PPTSmKqhlhkHVkjC0j7Felb5ofR1ptM94uOnoTVVTw2jt4kcxu4/IwgHAPVzj0aM+QVA6luLKh8VFRvDqGkLu7Lc7XvcfG9oPRvADR5NA8yUGnHAX3K4ZXIchB9XxfcL4g+5XzKeXK+gIj6eildJpZtXPSwUc4/N5pImR2qoG58m7kucW8MaMEkHkN6rVaRZE7UdC+pDPh4pmueZCA0c4aTny3FqtHshss9Nba7VNZC+orKt76WndtL8Z/5shI9T4RyPMjKTKoPNSa70BJNWGSro6SR4b8RT1newbvIADLR9CFJbF29aiogG3Sno7mz+0W90/8AdvH8lk9oFYa/UdDYaWB8tFZy2euEO3x1BHynPB242+f6lHNOW2h1R2mE0NFBTWukcH90z+tcCAPrl3PHkFB6wtFVLXWqjqqinNNLPCyR8JduMZIB2588LLRowAPREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBajVWordpazS3S8TGKljIblrS5znE4AAHUrbry72xdsVBqCw3fTTrZLS1QqdsFRJIC0d2/5iMZBOCMc9UEG7cL7DrHXL7hpgyz00sMbO9f4CxzRyME8KFWNtxuVy/JIojNWVJ7t8c0bQ1rP1Pe7rgDnPssN1vlpbbHXU9VBUzmTD4Iy4u56eXKtPTtoks1vbFWUn5ncqlh/MYaSpEdRTs6sgHV3XDnHB8m+RVHbSWq40op9N6Xoqtxic4iklpRiqAHjnfv4JJ4A/S0AdSulmn66tExqdKXODudwkmoYnNYwt+bcx+W8YOcOHRSHso1jbNN1M9tr6Wejr6yUQG5SyEmmiLuRsPyn1I88EjhWB2xatpLZanWShDDQ0wayoYDxPJjcynz5txh8h/s4HV6gqbV2prg2xW6gqblLW1HwoZEZIzG+npnc4cMn+I8Yyc/IAP1FV+Kgk9Fyrqietq5qmqkdJPM8ve89XOPmsYNwVRmNORldgK2WkbUbjVvlmYH0dM3vZwX7Mt9j7dTjy9yFubnYaWu1Wy0WJnw7mkid87z3cfmCSckDBGfcgBBFwpbpmkorfbpbtd6ZlRG5rmwxSxlzHeXsCScY5OMHK1dDp6pmv89tcWyimJM8lM8SN2j+yehJ/wB/RZ+qLhQfmUFsgYYLbTva6obE08yYAcQwkYx04xk5PspIy7G2ltVjqrrWQxySzHYINrTsac4BY8ctcf1NORgKESOkMhPAyc8DAUn19qGmvVzibbg5tHBE2MHLgJXD9e09OuAFGWuBQZNqqhQ3CCqkgZUCJ+/u3nhyyKXUNzttdLV2uuqaGR7y/wDo8pYBk9MDg/cK3ezPRdsj0vFW6jtTa6a6+KBjw4d3EMhpBbyHOOTnHQD1UI1Fpq1VGsrjb7GZYKKijDJT3nej4joWtcceEE45PkSgiEN9r4WVjGSNc+rcXSyObmQuPmHdQcn+as38OtnpnXms1BcGl8FC4UtHh2GGXrI/PQ4y1oyfdVBdHU1v+PcavMUO+OGUNwZH4O3A5+qtr8NV6q7do+uhiYKigFWSx5mLXB7mNa0FmCCC7GechB6bjr4HkSmcNhc0ABwwAfqsxkjJGbmPa5vqDkKqaHWD6OgLrlaKod3MYQ61t+IZI1vBfsByAD1GMhc7drPTF0ney3XqCGtY1znU88T6aQgcnggZ4QWlFI2UEtPQ4I8wVzWPQRiOlZjO5w3uLupceTlZCAiIgIiICIiAiIgIiICIiAiIgIiICIiAiITgZPRBwnljghklme2OKNpc97jgNA5JJUN092oaSv1U6mo7tFHOHbWtqAYu892l3BVbdu+rbhdppdL6aq6JzA0fGQsqA2olzyGBpwC3oSASTnpjr58qKeoo6l1PWQS087eHRTMLHD7FB6N7fe1C/aA1HaBazSGglpzM6KVgd3zg4ggnqBjHT1XmKevodR6kuF4vUtTC6ukfM5sbBiNzyTkew8gtlVyfHRMjrs1MbBta2Ul4aPQZ6fZa59mtk1wpZp4pW07HN7+GKTHetB5AJztOOFRKNAWFlDL+aV9zpWPIe20Gqyxj3NH/ADnDngHhoPBd9CrEpuzut1Raai6ukttBJTSfC0zqRjnsuMoPLw7PJLiRuAxnPkFELlLHe/iGWi5UTY5iwMo6mMU0kbGAhkTHElpaM9A4ZPJ5Vj9nfaPW2i70tBr+J9PS09O5lFMafYGOA9GjDyQNocPXH6iorXX7QV909Q0o1BebTXCY4ZTVMbp9jGjMjy84c1rW8kg+gHJCrHU93huNbsoY3QW2nzHSwucSWtzkucSclzjySfYeQUu7XdY1N2udTDITHUS4FRHnPw8YOWU/1HzP9X8dGBVc5/P+aIyd4JXJg3HA/f091iBxKkejrlbrbWyy3M1jd0bmRyU2MsJHB/tDBA5HlkY5VG9nlfpnTwppqakfWPm72GoieJe7OwEPw7IBIcOAGnDQV22+qm0vYJ61zYpa6teNrzl2AWbgdwPXncWkehzwFi6frqO96yNzvEtFE2Itc2OUkd+4dC7I8XPLskHn0BWFeNTR3DVxu0lCyaihIZFTtLo2sYPlxydnPIAOMrKu2qpbrpyCOsiubo56s93IyNzg97iMuBPR2M4Jz1d7rb3mjodOaNghqPhKm6VrXF8b490kEmeu44xgccZGfRaG5XG7Xu9/nVuo5AyJ2YWbWvazaOSRjB8yTj6qP3i8VV2q3VNU/Lnc7Wk7W567QScZ64HCI4hwUt7MtMnVmqqahfuFFGDPVvH6Ym9fueGj6qEMf6nhepOybS0Gm9HwCu3R3a6ObPNGYTIC3GGQOAOc4cHYyOTnyVHPWepmWLTVfemRxxTl3wltjLW8P24a4YJ4YzkOB5OOAvPVu1JW0FsrKCnjhd8U1zHTbSJfF18QPOfQ5Uw7TbhUau1HJQ2eWKehs4FJTs7xrDO7PjexpPPIxweGhqrd5npKSqrKcMM1OQ2PJGO8JwCPXHX7BIFk9j/ZlRa/jutVfZJI7JRO+EiMQ8Uk/wA0jg48ADwjpzhWDX/hzsjWPOmLxX23gOZmTvWud74wcdPMru7ALhaj2YUET6iOjrY+9Mrw90bg4SEF+Tw4YLPqrVp4pnzOMjG9+GjxRvMbnAeZGB/qgop/Z1rfT257nNvlMw7oxI8yviPntcAHg/QH6re6Ko3an1HBRXmKoIpWieSKaRsm0scMDcRvGScYJ+3AKuJ1TVxA/wAJ7yD0c3y+ox/ksqlhgllNcKdjJ5Whpk2jc5oOQCfNBloiICIiAiIgIiICIiAiIgIiICIiAiIgIiICrrta1kyzUrLTQ1ETbrWNdsDz8rR1cR5+gHmcDplbztF1fRaM07LcKyRgkJ2Qxk4Mjz0A/wB/IZPkvNupaqlrYq266kdHUyu2icwSj+M44e2FkjDhzDhpA/QzcTkkZK67zVCkjomQ0cVVeXyFtA1rDNK6Tcf42T4nYJIHHieCejRnpZpzX9JQP+LtM9fSRgvkpavZUuaOpOzcXt+2Cu3RtRVVtgv2oYqGivNfDUwtntr6fmKm2kNkhcwiSMNOGjbwAOVrrPQ1N61lSVWibZcLT3TmyyyTVBeymIOXPMpAwwDydk9UGldJYK3IkZU2ac+bM1EGfocPb+7l0VGnrgYHz2/urnSt6y0D+92/9TPnb92hZXaZXUF111e6y0bRQzVLnRlowH8AFwHoSCfuujS1M2hD9QV29tLRPDYWNeWOqZ+rYgRztHzOI6N46uCIjrnuBI59wtnatSXe1NDbfXzQxg5EeQ5gPkQ05AI9QMrCuVZPca+orKyTvKmokdLI/GNzick4WKUHY6Rz3Oc9xc5xySTkk+q4uKkGlrFT19PW3K71T6Oz0OwTSxsD5JJH52RRtPBccE5PAAJK3dvpdD3Oqjpofz6gnLh3b6gx1EUhz8rwwNc0HoSM46+SCDiOUwmXu390HbS/B2g9cZ6Zx5L4He6u6/st2j9KSltvt8747i6SlhMwq4GVG0eJuHBzRsAIa/f0GcZVJTSOklfJIcve4uccYySclBk0EBrKuKBr2R944AvkztYPNzseQ81spbVcYKyO0OLS+qcyQRxSNka/qGuy3ORgkj2KmOjGUuk9PPvtZO1lfMAWQ92Hl0ZHDAegJ6nBBAIyDghRVl3vNvqpNQvpmzNrSd0pJwMu4Ac07o/lwOnAxyFFSrtEuNNY9O23S9rawSsi31MoAc47uSATyN3njHGQQFV5WTcK6W41s9ZUEGWd5kdjoCT0HssXBKI2WlbjQ23UVvrLvSPrKGnmbLLTscAZAOQOeMZxkefRXPqDtJsdbaquts1TPU6oq/6LSNqKbuZIBINr3lwJaTgkA543dAFQpHpyuDmFx5TQtm+VcOldIR2e31Ec1ZVN2ODYfE1+cPeHnB55A68Hg8KHWvs11Nr23SVGnIHPoaab4fe47I5CPncCT4sHjAB4Hrwo9LVCio3TucQ//kwDPR58/o0ZP1wvaWhaGs0xpey2mipRLS09OyNvdvDgSRkuIOCCSSfqVTam9GWPtD0paaS21VgpLta4pHPDqV7XSZa7OA0nB8Q82joVKarUltvcgp7268WStj4Hd1UtA8Y8wMmN37K4/wA6iY9ramN8T+mHDb/n/uuVZHabvD3FfBT1DH8bJ4wc/TKCsLf/AMTGemo7ZqWou9JUOLGvrYwyanaWkF29nhlHOeeQRlXFDG2GFkUYwxjQ1o9hwoRpTSVHYNZVdRQO/o8lEO7ja3a1m6Qk8Dj9LcHGcBTpAREQEREBERAREQEREBERAREQEREBERAREQQrX2gafVh711Y+KUNDe6njbUU7sZ5Mbuh5+ZhafdeZ+0Gz2+23lmnbvN+RzW9oZB3QdNRSB/i7wA/xGl3mfH0x5L2avLv4w4KUXOxTU1RS/mUsMkUtO9wDnxggtdzx1Lhz9kFaw2rUGnXtutpmkMbPlr7ZNva0e5by36OAS8aw1FfGst93v1dUiUBwp5JDtd6EgYH7qD6brr1RXqmp7VUzUFdK8Rxh8pibk9BuJGB98Ky7FY7zqqtvtRqKOT46gMba+ijlbBNI1zDskY/aW+XTofXlZvetI3aeyxEz2hHbLaJ7pc/g9zYGxh0lRPJ8sEbfne72Hp5nAHVfdT3WOvqIaehY6G10bTFSRO67c5L3f33HxE/QdAFn3i4UFFbJLNYTUbXybq+Woa1srnNPgiw0kBjev95xz5BRh4WonaOnccrvpYJaqdkMDC+V5wB0/wDA9117VtNPfCOuAguNU+jo6hphlqWRd4Ymkgk7R16Yx6FBu6Sahi0vXWD4uWtraqphqKZlHAXNE7cs2lxI3BwcR4QeQOqsXSGh6PT9oi1BcprlR1kLe7qRUwT0poZD+tssYJAI43Frm+uMqL2Xs8pbrX00+m9WUUsEUjTUzODo5qTnwvwPmBxwQRgkZwt9rml1NV2ispZL1SXCgoWxuqLjM90EzWuyO6lLTteOAeckjGFFYU94pe0Cg1Nb/gYqeqpaf8xtsgDe8f3LQJg9zWjc57cu6DkewVRuPpyFM7JdrPo+pNbRVE14uvcyRN2sMNLHvYWOJLvHJw48YaPdQcEjHoBhVHfROjZVROq2SSUweHSRsfsLx5gHyPusu8Otr3RG1RTxtczdKJnAkOJ+UEdWjyJwTnla7fnovu5AHA68K3ewXTDam4y6kr4mupKB3d0rZHBolqCM8F3Hgbl3PngKsLJa6m9Xejt1BH3lVVStijb6knz9h1PsF64tdmo7DY4bRG4Q2y3wvjnmeC4bmje+oI4bycjknyGFJFY9uNusdrs0DHW3GorhPuifMwRyRRDG5ztpw7LuMnj5iOAolrW3actejrLBRxNqr7M0xGaMlrS0HJecEhzsnaPr544+T63obx2iV2oLtLNTwBpioGsg73uGAYYQMjBA5483H6KM3Gsr9U6hiNFCxtTWTNoaKNjfBGXHk9BwAXOPu5NKhN5ulLLWQ0rqcSU9M17O8B5c5xGXgjy4wAcr0/2Va2q7tS2OGnvkddDQUTRNTVG1r5HkbQ0vHI2hucn1GeqkNH2C6LqaSMVfeVtxbCGSSyeAOOMZ2N24A8ufuVmSdgmlqdjJLHNcLTXsYGCpgm3Z+rXZH7YVRLLpqRlFazVV1JVsjBAcI4DWMx/2eID3wtLR6ssN5qIafTj2z1FRNFDuiBaG7g5zsscARtaxxIx12+qjUulu0TSpMlsrqW+0sfPJMM2PoTyfupV2UVj9ROrb3cKGOnrYnimbwNw8ILjnHuB9lBYUcLGSvkaPE8Bp+g6D+ZXYiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLwt+Ie2OpO0S7w3SvnnmlkEsU9TGWghzQQ0EZG0A7R9F7pWp1Fpyz6ko3Ut8t1NXQkYxMwEj6HqPsg/OJlRV2+mp454G/DteXiQne2QHGADyBjHBGDyrt7NdUWGr7RoG2aM08N6tjqWppnR7Gsnj8TSMEg5APTH0CnWs/wAM9DJ3s+irpJbnu5NJU/xIXH6/7gqkq7R+puzLUVNc7xp+VoppNzKqly6F3GM8Zwf/ANhcs2PqUmvtqluNolq9TS01h7WpZ6ykbU0Zk/iwD9TSNpx7jqpXQUenNX1b2afqoLXIGktp6mZ0jn4/+v8ANQ7WdZWnU7rjTU0ZmLTK5z3tmMgcOuABxj0C2ds02LxZKa9GhbQTSOOx9HOGv4cG7th6ZcQPuPVcq4bWrWYtq0R+P0tpjcs+/aMvdlaZKqje+n6ieH+Iwj6jp98KOkEKV0GpdaWCZ8dFcGXSKF2ySnlaBI3H6XNPQ/stuNV6I1FGRqK2y2u5geMwRljifYdD+yxObPh+bXce6/w1WfEoBTVc9HMJqWeWCZo4fE8scPuOVwlnlle98sj3vedznOcSXH1JPVTl/Z1XV8UtXYi2Wk6xRzysEzx64bkD7lQ+5WuutlQ6C4Us1PKP0yNIz9PX7Lti+JxZZ1S3f0zNZjywHclfFzOF8wu6OAGCuY6pgp5oL/8Aw+6UqKK0VernwtNRIHQUPeZAaz+sl/ltBPHVfe3TUbbPp2PT9HiOuugEtXtcHbKdp8DAR5OOTg549jhdOlu2e0NoqSivFuqKGCljYxkdK1ssJY1uCwA4c3dj1PJycrTWihfqOO7a21FHQuhqZsd1VjMcMA6bcA7SA3aMjkDjBIKiqdY18srWRjc9xAAHmVNuyG5UtB2t2qC+GCG2MMtMx8xwwyFpAcTnHzZGfLIUTutRG+atqbVSmjM73/CwRuc/uWfqO488DjJ8z7LS6Rr7jab7BX09OyrfA8SPZKMtIzyD5DOT181Ue/6Snp3180Vtr3GSnY15jZKJO73ZweRyCAeMrZNq6unw2RsNR6bD3bj9jwfsV5u0L2nadmdPJXwyaeulS8h0gaTG8DhpL24wQOMEEcKVSO7QqakdU6U1ZS3+jI3CKujZL9g9o/zwgvCK4CXum9zJG97i3ZKNpBH+a7KSkENbWVA474t4HQ4GM/X/AGCgPZ/X33UF1dPd6M26Gia4iIPDmSyva1oc3GcNAD+M9SrJQEREBERAREQEREBERAREQEREBERAREQEREBERAREQFxliZNG6OVjXxuGHNcMgj3C5IgqnXPYRo3VL3VEVI601xOe/ofACfdnT9sKjtSdjPaBoepNZpuY3qjY4SA0/EwLeQXMPzEdf1L2OiD8ya+Grhu00sk9VSXMvLpG1eY5C8nJ8Xmc+uFsDqOqDG0+o6CKtixw9zQx+PZw4K/QHV+htN6vpzFqC001WSMCUt2yN+jxyqE1n+GOWESzaIvBaw5PwNfy0+wdjH7j7oKQst4joiJtMX6aglH/ALSrztPsD0/mtvXXK+67uFpsl8cyHfUFsNUweAPc0huXA5xnHGM9VG9X6Fvml5nRajsVVbznioiaXwu/0/Y/ZYOlX1NDfLfVQ1DZ4KWYTsaJMN3N5AOeW56Zxxlcpw45vz4xv2u51pvbrozXOna0Utzs087eS2UASRlo6nvB0H1Wnhu1M+R0cpMEjTgh/Iz9Qrv7Qu1ykn0/8PS09UJ52ZLJoi3afTPyu+oJCqns+0fDq28XCzvrqeKtqqUVNPMMlscodkxPHUcbs46YBXVHRCzvXMDXN2uIAdnw8+62Futrqy9QW6QfDslkEQqnuBY0k4yf7uSOfqsO/dmurNK/G1M0Bgo6U4NQJBslPqwdXD7Kb3TRtsj7KrVqmCoqWTupWTzwl26NzycEtHlyud8tceuX17NRWZ8K/kaWPc04yDjhbme+3K62+ltk74nsiDYo5dgZIIwAAxzhjcwADh2cY4Wjp5YqkZgkD+eh4P7JdDNTUDY4WP8AiK13cRgDnH6sfXgfuts7X3+HjRNpu/xOpb3Tx1UOfhbZTTPwHRtPil2nAduceM+6u/8A4A0o6WKYWekja1j42sdGAPF1GD16nz46hRLsvulo052V2206mqIRUW2md3zHRn+05wDc9XYOOOp6KxrTPQXW1QT2mq30+0AOB3fZwPn655VEB1D2H6ZuLXm3d7bXu/QzEkf+F3P7EKtq3skvuj66Oqtlwmjp92TLb3kEf9UZ6DyyM4XoueKqieHtibMADzG7af8ACeP2K7oXyOqXtkDMgcnqWg9Bj9ygj3ZjFMNLUD55nSzFjjNI45L3k+Z88chS9dVJTspaaKCIAMjaGgAYXagIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg6qqmgq4Hw1UMc0Lxh0cjQ5p+oKp/W/4edIage+ptbJbHXnkSUh8Gfdh/wBCFcqIPE+rOx3tB0cHy0MYvVvZkiSk5e0epYRnPvg/VVzpO6/8L6jbWsMtNXRSBwFTH4mnkOa7plpBOehyAfJfo8onrLs80trGJwv1op55SOJ2jZKP+4c/vlB451t2iXjVkclJKYKK3hpfLl3OwdcEgbifLCkl2vFJ/wCnOgpI5P4xYacRHG/O7cOPTBzlSfWf4Y6yl7yfQ933s5Io63A+wd0P3AVZ6ndqnSOl4bFqC3S0jmb4g+S3skDYyc4jmIztPPAP0XDNi6nH7TtultbVVQyzd+1kI3OJ6Kz6S8UFFq6wzXSLfS0EhfK0jIIO0/7qs5KMuaX0rmzDqQzqP+3qrm0x2f1GvNT26GnPdxStbLVO8o424Dj9T0HuV2YiF/VlptN5ggu9ilpBNKWPjmcwSRuaOQHN/wBD0UOv1NeLI2M0f5hQRSvL6qptLi9mR0Pdg7sfTKvhmmLTBSsho6OKj7tgjY+naGOaAMeXX75Wjr9L10Z/oswkB/XERG/7tOWO/kqKQk1f2iUDZK6y6lpL5bIozJOP4ZkhaPN8bgJG49Vf+gPzCpsLLle2xi4Vz/iHsZnbEMANYM84AH8yorbNFwXHUMc18t1LKYQS2c05jkP913UEH2P2VmwM7uJrdrWgcAN6AeQQc0REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQF0VtHTV1M+nrYIqiB4w6OVgc0/UFd6IKZ1r+HfR1/kNTbIn2asznNON0Tj7sP8AoQpV2TaCOiLVUR1dRDV3Cd+HTRMLGiMfK0A8jzJ9z7KeIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/Z</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>data\product_images\Amplifier  25M Coverage_20251120_201808.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ceiling Speakers</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAIGAwQFAQcI/8QAQhAAAgECAwUFBQQJAgYDAAAAAAECAxEEBSESMUFR8AZhcYGhEyKRscEHMlLRFCMzQmJyguHxFaIkJTRTc5JDVNL/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAWEQEBAQAAAAAAAAAAAAAAAAAAARH/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAB45xW+SXiwPQRVSD3Tj8SSae53AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGnisYo3jS1l+LggNmpUhTV5ySNOrjm9KUbLmzQxGIhTg6uIqKMd21J9fA5WKzpQbVGj/VWbh8I2cn8EFdqdapP705MxlXq5vip78RKmuVKjGNvOTkYJZliP8A7mOT5+0p/wD4At9gpOLum14FSp5vj6bWzi41Et6xFGL9YOLXwZ06OfU4q+YUv0eP/fhL2lLzdk4/1K3eQWGnjK0N7U1yZ0MPiadfRO0/ws40ZKcIyg1KLV007prmg96aumtzXAI74NHA4z2jVKs/f4S/F/c3igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc/H4m7dOD0/ef0AjjMU5twpu0OL5nFzDMoYZSjTcZTWjb+7H833LzsYM2zFUYunSbTejlHe+5P5vh47q1UqyqSu7JLRK2iIrZxOMnVq7cpNz/ABu215fh8vO5p7d36nr03u746kdvkn8e4DzaeloryDk1watyVzxzfN/Ej7TXRx08V19Aj3b8Vbd8eHXeeRqSpyvB2eivGVuvyuyEpJrVLy0/x+RjkmuDfiu7r0A3cvzOtlk3PDx26DvKphotJS4uUOEZWu7bnpuepdMLiaWMw0K+Hnt05rR7vFNcGtzR8+Tfen3rrX625G5keP8A9LzJ7c7YLFSUaie6nU3Ka7non4JhV5fDemtb8jsZfif0ik1P9rDSXfyZxyVGs8NXhV/dWk++PWoFgAWqBUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJSUYuUty1A18dX9lT2Yv35ehXM1xqw1FpStNrhvXh3v8Aub+MxF3OrPdwXyRS8xxLxOIk1K6vpZ7+8itetOVablLw8DHe2lrIPduZB6v+xBJvR6vuPGrp7vgNyV3w8A3rvfkwFu5EXfnbzPG+SfXIjLw9AIy3b3fwv1+Zjbt4fy36/PXgTbty+FuumRt3r426+i14jVeaNaJX8/n1xZGrFVKM4TS2ZJp66Wt15W5k+d2vOXXVuZ5LS7V7+Kvv+d/V8gi39k8fLHZPBVm3icPJ4etfftR4vxVvU67s078Skdj6/wCj9o8Xh91PGUFWS4bdN7Lt/S1/6ouxR2cpqurgoqTvKm3B+W70sbhx8kqWxVenwlFTXyf0OwVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADSzKpaEaaer1fgbpxsZVUqtSfBfJAcLtBitin7GL1e/rreVt89fgbmY1fbYmcm762RqTXBa+RFYZNPn8bCPPTfzJWfJ/A9a0WnlYioSuQm+H0Mj8F8v8EXv0t5AYpNW1395jk1Z7vNvrqxlbvxXkyLu1o5eTAhda/d79eutBrfh3/Hj1v7iaT4bXdqvQKLsrJ91n11cDxp2W/yS5/n69xFp23Pyj13+V+aMqgrfcVt252+HWmnExTjbS0fNN+nHw8FwAhgZuh2myWrZ6150W9m2k4P6qPp+Fn0ZvvPmNaWzmWTzWzdZhQ4vjJrf5vx1Z9MZUZ8sls5pRS/ehKPyf0LCVKdSVGvh503aSk7PyZ3cBmMa7VOraNThyZUdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY8TPYoTkt9tCtZpV9jgpyvZnezKVqUY82VXtFPZoU483ciq+27/mY599vgybact5GTXN/ECMVx/MOPJIkn3t+ZGctlNxu2k7eJFYqzcFd6f5MHtlZe8te9FezLD5pjcxjUxVNTw9OtCpCjSryppJb1Jr7ylZfe3K/M2sLVzWEqc6mEozlpKp+tlFSltOctLO21PZfhFIqa7uFw2IxcnGhSlOS36Ig4yjOUJJqS4OKuU/B5BmFHKMfgIVqjqY7EvE1cTWrOrNtrRW2bWTbelt5ZsFl2Hy6MI0KVpKCg5Scpyklzu9fq9SDPNavx/D11oexXN8OMeutD125L166uE0mt3Di+urhU9FZXfXXn5GGs1taN8P3mvX6+LMjkrt6K3HafX9teJrVp+8r/N9dJcQVrSXtM4yOkm7yzCk/KO1Ldw3eWi4n0w+b5PH9J7ZZPTTvGhCtipJO9rR2E/jN+d/wo+jsqMGJf6ygv4m/Q9T10MVeV8XTX4Yt/QmioseU4z9IpbE3+th6rmb5U8JXeHxEKi3J6rmuJbE00mtU9QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOfmcvfprubKl2jb9rTS4LkWrM3+vX8pVe0SvXi7JpRIOLZ35eRF36iG9dUiMt+6IVK17/AJHkt/8AYR1fBHr334EVBxW1d9fn9SDUbcP/AGMvTZjbe67v3WAnRreyutmDfN6NGKpJzk5Sl/ua/wAfQ9T733WPJNu1m+61giDa2dWt/wCO3+CDa5/Gduv8Ik5PZjZu/CzXoQu76N8LWt10+4ivW2ktdW/xdf503GpWl7ys91v3+u/15I2XKyvfReFt3yt6d5zsdio4XDVcRWctilFzluvZLd56f7ebKOr2Bo/pGd5vj3dxowp4Km73u/vz+cF5c7l5OD2Jy+plnZvCU8Sv+LrXxOI/8lR7TXldLyO3OSjCUm9ErlRqX2sVWkt0bQXz+pkTMOHi/ZKUvvSbk/MyFRkT5loyqp7TL6Le9K3w0Kncs2Q65fH+Z/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5maaV4vnErOfwc5U9d6sWjN4/s5eKK/nENrDxklrF7yKq04v4EGtP7m1iKbg1K2km9TWas9yAjG9l3GWzlZ8fkYrWd7ehki7cNH3Eqx61u03biEoXd95ka8PgRcXy9ArHKLXDxvYxTT4/Qz1I6Wt/tMbhu03/wddahGCV7br87pevW7vI631WnfbrpGVx95aaL+DrrUxTdr2Tvpa0LEGOs3dJXv5Xvf539bcDTwuD/1nP8AB5bbaw9O2Lxe63s4v3YP+aengp9wx+Kp4TC1K9Z2hBXdqa15JLjfclv1tvaLZ2LyirlmWTrY6KWZYySrYhfg0tGmu6MdPHafEqLBJ337zQzfERo0IU5PWrNQSW9m8yrZzisTHHwxUMI6+FoptST3PixVk2rFDVWTTXIOydtUzm5VjFj8DSxUac6caiuoy32NxVE97ZZdLMZ1biWfJo7OXUv4rv1KpSvUnGENZSdkXWjTVKjCnHdFJIrKYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANXMobWFb/C7nEqxVSnOD3NWLJOKnBxe5qxXqkHTqSg98XYiqxWpXU6ck762stzOZNb9H8Cw5xRdOqq6X6uWk3+GXB+D3HJxNLb9+P3lvQGkrd4enHTxJebuebTXF38QPVJaWkn5nu0t118WQk78WvNBykuN9OMkQeyat96PxfXVjG5LmvXrqwnKVtfWRilJ8/wDd11qMXSpPSytbwb/z0jWqbne1u9N8OukTnJJXlZJatt9W6Zr5Tlc+1M9qcZQyGLW3OzTxjX7keVO+98dUtG2VGx2Tyx5zmFPN8TH/AJdhp3wcGv29Rb6z5xT0jzacuRfiMIRpwjCnGMIRSjGMVZJLckuRHEVY0aUpzdkgOL2zzaplOR4mrhaftcXsNUoa2cuF7bkfNuyn2o5xis3wOT5z2bhUniJKkq2CqPZS4txleyS36n0KpiXUqSqSfvS4clyNX2GGVZ1oUoU6zVnUprZk/NbxYssd+FLYp7FGMYwStFJ7lyMEpOE3GaakjRhiZxjs+0lLm3vZs4CjWzHGRo0tZy3t7ormxJiW6sHZfDOviZYiS/V0tF3yLUYMFhqeDwtOhSXuxW/i3zZnKgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAczNqLTVaK03SOmeTipwcZK6as0BWpxjUhKFSKlCSs01o0VvH0J5Y3KTlLBfu1d/s+6fd/F8S2YzDyw9Rp6xf3XzNbRppq6fAiqrUpKotqm1d62Vmmak4uLakrP+U7OLyCKlKplWIeDm3d0nHboyf8ALe8f6WvA5tejm9HTEZVHEx/7mDrqV/6ZbLXqBqOPWyQ2W+GvgeVq1SLt/pGcRfJYST9VoY4wzWs9nD5DjmnulXdOjH1lf0AyO+lk+6y+Ro43G0MG4Rqzm6tR2p0aa26lR8owWr6udWh2bzfF/wDX47D4Ck98MHH2tR+M5qy8os7+TZFl+T7UsFQ/XzXv4irJ1Ks/Gb18lZdwFZyzsxic0ca3aGHsMFvjlyntOf8A5pLRr+Bac29xdoxUYqMUoxSsklZJckSZhxWJo4TD1K+JqQpUqcXKU5tJRS3tt7kBKclCLlJ2iuLKdnGeQxGIcKUk6UHZa7z5L9oH26YLFZhVy3JI16mApvZli4LSq/4Vv2e/j4FZw32jUZJNuev8LLIPuax0XxMkcUnuZ8iy/ttHFSSo0sRVfKFNs+r/AGeZVWzyqq+aU6uGwSV7Nram+Xcio62U4TE5piPZYSm5fik/uxXNs+k5JlNHKsNsU/eqy1nUa1k/yNrA4XD4PDxo4OlClSW6MUZyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhWpQrU3Corp+hxMXhKmHk21tU+El9TvBq6s9wFYZ4drE5dTq3dP3JehzMRhMRR1dGU486fvem8KwWI7jHVxEKX7WNWH81Ka+hglmND/wCOGJqvlSw9ST+QG2zxuy1OZUxea1245fkWMk+E8U40Y+t36GtLsv2lzaVs0zKngcM99LA3Umu+b1+FgNPtZ23yjs3BwxNZ1sa17mFoLbqy8uC73ZHxbtRHtd9pEpLGwnl+Rp3jhKbdp8nN/vPu3LkfoPJPs1yHK5urHCqtWesqlX3pN823vLPHKcLGKiqUFFblYI/K+UfZbhKdOMZUXUqLfeBaMu+zJS9moYSlCPfA/QkMtw0HdUo38DYhh6cN0UgPmHZnsB+hVU6kKThbcoI+iZfllDCUlCnBI6CiluPQPIxUVoegAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/Z</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>data\product_images\Dsppa Ceiling Speakers_20251120_144805.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2Tb Hard Disk</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>data\product_images\2Tb Hard Disk_20251120_195756.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4Tb Hard Disk</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>data\product_images\4Tb Hard Disk_20251120_195820.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>8Tb Hard Disk</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>data\product_images\8Tb Hard Disk_20251120_195829.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Smart Garage Controller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>data\product_images\Smart Garage Controller_20251120_195837.png</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -480,18 +480,14 @@
         <v>145</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAECAwQFBgcICf/EAFoQAAEDAgIEBwgLDAYIBwAAAAEAAgMEEQUhBhIxUQcTMkFhcbEIIjNygZGhshQjNHN0oqOzwcLRJCUmJzU2QlJiY2SSFTdTgpPhFhdDREVUdcNVZYOEpLTw/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAkEQEAAgIBBAMBAAMAAAAAAAAAAQIDETESEzNBITLwIyJDUf/aAAwDAQACEQMRAD8A+qUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARUyyMijdJK9rGNFy5xsAFgnFYSLwxVMw5iyF1j5TZBsEWqlxhzR3mHVrj4rR9KxJMeqx4PBql3W9o+1B0CLmX47i7vA4C8+NP9jVYdjOkzj7XgULfGmcfqoOtRcecQ0wf4PDcNZ4xefpCjjdNnnweERj3t5+ug7FFxpi01dm6swyMfs0t+2RUmm0qeCJcXiaD/ZU7GnzklB2iLj4MPxZtuPxCeU/tT6vY1ZkjJoqdxnMjQB4WOYv1Okg2y6ldDpFSZGDa5o8q8J0o4Rn4RXVGHTOcKmO7deMB3URe48hXmNfwkaWtmcG4uRHfvCKWJtx/KoPsE1MDeVNGOtwVBraUbamD/EC+NH8Iulrv+OTjqjjH1VYk080qkFnY9XAfsua3sCD7QdiNE3bVQfzhUf0rQ3sKmMnoN18S1mnOkUMD5ZtIcTDGC5IqHBefVvCDpbVSPc7SPGGsccmNrHgAbtqD9HW4jTO5L3HqY4/QroqWOF2tlI97d9i/M1+lekT+Xj+LO66yQ/WVh+P4xJy8WxB3XUvP0oP0vrMZoqJzRVyOh1tmvG4A+WyqocXoK5xbSVcUjxnqg2PmK+MO564RK2THI9DtJKyerwbFTxMBmeXvpZjyHMccwL5WXQV9NpFQ41PE+plbU0U5YHg2zabX/wD29B9eF7R+kPOqHVELeVLGOtwXnOB4rLiGD0lVLHE2WSMF7QwWDth9KzfZDt0f+G37Fz7sNdEu2NZSjbUwj++FbdiVE3bVwfzhcaKiTmLR1NH2KzUV0zG2bIQ47LAKTmheiXanFqD/AJqI9RupGKUjuTIXdTHfYvPzW1J2zyedWX1MzuVLIetxWe/H/F7b0oVsTuS2Q/3SsOXHqCGUxzyvikG1r4yCvPC4k3JN991lVAkxTB6ljnF1ZRs42J52uZ+k0nnU70z9VjHG/l6LS11LVx69PPHI3odsV4zRDbIz+YLw7Ca6elr2SAksvZ45iF6LC1jgC7PdkPsTFni8LkwzSXUmrpm8qohHW8Kg19GNtVB/iBcy0Mv3zRz8w+xXA2PVuG+ldO5DHRLfOxWhbtq4fI66gYvQnZUNPUCfoXNufZ9m7Lbyjn24vLM7cyp3oXty6huIUzuS9x/uO+xUzYlTQxmSVz2sG12obD0LmWO79gPlWc4ll3Ri51c28zhuIU7y9ttIMaw6d4bHVx6x5ibdq2AzXjuldK/D8StTlwpZm8ZENwO0eRdVwY4lPUU9VSVEjn8UQ5mtmQDzLFM8zfotC3xRFeqHcIiL0uIiIgwKyIVWIU8UmcMQMzmnY51wG36sz1gLPWHe2Kv94b6xWSXhEVodhVvjBzKOMO5BMZzsrix7m9wqxrlFXUuFa1HHnUiPeUFTyNUi6wSswsCxHjVeQtVSUWUgDnFwoVXMtsvFtLdBKI49WYlA0mWqltIwm4Bb3oI6wAuF4SNHRQaOx1bWBpjna3IczgfsXt8pM2k+JU7s2xsa8DpL3fYuN4cIGx8H8zrf7zD2lc5bfOlkKqaxzmuc1rnBg1nEC4aL2ud2ZC1mN14w+idILca7vYx07/IoNFpZiHGzCjid3kZvJbndu8i50hVFxc4ucSXE3JPOoQUEKFUVQUG/0Ce5mm2AOY7VcK6Gx3d+F9p1eFNxKrkrpBrPnJeTbavirQQa2mmBjfWxesF954MxrsJpHDO8Y7SgxcPpRSUjIWiwBJ9KyrK5UANkAG5W9YEkAi4Xlv8AFpdq8KXkNFysCR5e8lXqyS51AetYy5S2lQQpCFQUK5DO+mbPJG4tJj1Ljc5zR9KoKs1h1aOU7zGPlWLVPtCTwyG4YxpItkCumiNmt6gtc4WcetZrJA0AnIAZ3WMMa265J3pdkUzPDIB0qzI/aea11YfIZI8+ldplziFQd3wOexVOfbVvvVu/fnxVVLyGdayq9EA6QHyrZRHb1LW07rFbBjtoCK5nGmeza10L8207Gho3awJK22g9KKeuqSOeMD0rVXD8axEc7RD6pXRaKi1XN4g7VIj+0fvRPin97dMiIvc8giIgwiA7Fng/2DfWKyuLb0rFB+/Th/Dj1is1BSGAcyqsERBaeLKJjJ7Hk9j6nHap1Ne+rrWyvbO11XKMlEZu1BVHrcW3jNXXsNbV2X57Kq6hQSBtVRKxKgWlPSsgysHOseZ4e4EK15JW1KIV0ZcXAfwzxkn+xj9d65Ph7kA4PJvhMI9JXTF2rphjPvcfryLieHqQ/wCr2S/PVwj0lcp5bfPjKmSOOVrJHsZI3VkAdYObcGx3i4B8i4THK819aXNPtLO9jHRznyrb6RV/FQexoz38g77ob/muYUEKFJVJQQVSVJUIOh4PBradaPgc9dCPjhfc2j8/3joPeWlfDvBoQOEDRwkEgV8OQ8YL7WwMkYJh3weP1UG3ndrFp6FYkc2MOdYXPpUa92gHmWNM/Wd0BePJP+Uu9eFskkknaUCKVzaQoOxVKkoKSsbEcqF/vkI+WYskrExM3onD99B8/GrXlJ4dG498etXrh0ZDgCCLEFYpPfHrV0H2s7rLOL265PSqZ+Qa3Zaypafaz1KzGSczzhVt2EeRdGF0cs9SvPALQscc6uk9iCuLrWwgzWuj2eVbCnKiubhd9/MX6DAPk102ihvVz+IO1cpTm+OY2f3kI+SC6nRE3rJ/ex2qx5o/eifFLqURF7XkEREGAD9/nD+GHrlZ61VQ8sxwlpz9jD1yr+u921x7FdbTbNJA2kBUGeMfpX6lh6u/NTZXpNr75wRYNKtiV42WVKJo2kyPP6R8ipz5yila0m0WSylFdJsQ7EUlUcDIPwwxj3uL15FwHdDztg4NpZH7G1kJ6+VkvQJR+FuMe9RevKvMe6bP4sHdNfAPQ9cp5bfJ08r6iZ8shu5xufsVtSpUFBUFVFUEoKXKlSSoQdTwXN1+ETRtv8fD6wX2nghvgmHHfTRH4oXxjwSC/CVo3fmrYz5jdfZuB/kPDPgkPqBBlSOs2w51jlXZ+UOpW14L/aXorwhVBQpUUVJVRVBQQViYl7k/9emHy8ayisXEfcg+E0o/+QxWn2J4b47T1qdYlpG5QeUetG/pdSxjdchFsb1q60betWmZFvWrrdp611c1VslUPoUHYgQXYgs6LZksKLbZZ0WwKK5iE3xnGhukgHyLV0+iPuuf3sdq5em/LOOn+IiHmgjXU6I+65/EHar/ALo/eknxy6lERe15RERBp6r8vH4KPXKyAser/L//ALUeuVkjYtxwzKURFvTOxWZqiGFzGyyxxuebNDnAFx6N6vHNalrw3jpxqipnkcyNz2EgAO1Gty5ue2V7lSVbGGeKdrjBLHIGnVJY4Gx3G2wq6tQJWF0FS0xipZIyKfUyBDjqkHfnmN1ulbYKwiURFQQoig4OTPS3GPeYfnJl5b3UDtXgyZ04jCPiyFeoON9Lsa6IYfXmXlndSm3BpTDficXzci5Ty6Pk4yO6FLHkusVbKqj5ag2uH4fHPTvqq2qbSUbXcXrlhe57rX1WNG0gWJJIAuM8wqqPCYMQjc2grmPrQXalNLGWOlaNmobkFxH6JI3C5WTFFFXQYLQPMkfG8Y1rmAOvI+TVBINssmg9SuYrPxgpsVE7hLHMYIQyBrAeLcCLlpFrNcy2R3c10HMlQtlpJEINIcTiaAGsqpWgDYBrFa1B13BKSOEfR8jb7Kbt6ivs/CMsHw8bqaIfEC+MeCQX4R8B6Ki/maV9nYP+SKC+32NF6gQV1Js5oAu4iwVol4z711toG1Vz+GHN3pzVtmbgRa7rk+QrwX+0vRXiFbTcAjYUDiT3rct91DBaPqv2qm12MaR3pH0KNKg4k2IsfOoKpvdrD0qoqCFjYh7mZ8LpP/sMWSsav8DCN9bR/PtWq/ZJ4b13KVpsjiXaoaGDaXc++yunasUcgA2LS4ggjbmsY3W7Ijc4PDZA3PYW7CrxcGAkgnPIDaVitJ1W3tk8AWHTZZIzkj3XJ9C6sJe6Ti78VnuDgqmODgCPSrOsda+qNcnU5Rts+1VtPtsoGzWHYEGVEc1nQZrWxlZ1O7sQc5SAjFMcJ56tnzEa6nRH3XUeIO1ctQm+J438LaPkY11WifuyfxB2pXzR+9JbxuoREXteUREQaar/ADgHwX66ygsSr/OIfBfrrLC6V4YnlKIi0gtSY5XU7mxujDqed7zr32tdrNGXMWu27cwVtljyUrHVAnY+WKXIOMbrB4GwOBuD17elJgiWvlil9hxsmdGTLVRSNLCbXMgeRYjYAPLmclt1jR0gFQJpZZZntvqB9g1l9tgAM7ZXNzZZKRGiUoihUShRChDz9uel2Oe9wD48y8s7qf8Aq2pP+px/NyL1GI30tx7xYB8aZeW91OfxcUQ/8zj+bkXGW3ycVVHy1c1W7gosBsCiuhoxV1ODQTYZE2apoOMZIxsYe9jHnWbIBa+RLhrDkm2y4Vxs1VpDWx0rYYHU7QyWWZtKIWwbDK82Nhz3cduqNmQXOQzy08zJqeR8UrDdr2OLXA9BCuy4pXy0ZpJa2pfSlxeYXSuLC4m5Nr2vfO6CMZqRW4tW1Tb6s8z5BfbYuJHasNEQdjwRf1i4L0SPPmjcV9nYaNXDaIbqeP1AvjHgiZr8ImDNOzXk+bevtGi9w0vvMfqhBRUcsG1wBYjoVrWYCTYEk3FhmVel8IVRdeC/2l6K8DBZgB22zVsAFurc67cttlcUHbsF1GlJADmtbzG9twQqoAAWAA6lBQUrHrc46f4bSfPBZKx6zZSdNdS/OK15SeG8O1YxABcxzdt9VxbcZ83nWSdqpAsSsUh1stgtLgGDIEFxtYZbFcvqua47G3v0BS4ZOVbRY9YK6sKNRhdrBx1bcoP59/XbnVcZ1y542OOXSLWupLGEWLGnntZVnmQSDtWXAcj1LEtkr8BsXdSI0eHn74Y0f44jzRRrrNEj91z+IO1cpQtArcYI/wCef83Gur0S91z+IO1K+ZbeJ1CIi9ryCIiDSVh/CQD+E+uswbFg1h/CZo/hPrrOC3XhmUopRbZQilRZARLIqCIiAnOETnCg88p89KdID0wj0yry3upz+Lqh/wCpx/NyL1Gk/ObSA/txf9xeWd1UbcHuHDfibPm3rlLo+WCqCVJVBUEFEUgIIsosrzmWNlQQg7HgcH4xsJ6BMfkZF9mUQtQ0o3Qxj4oXxtwOWHCHhxcbARVHn4h6+y4MqeEbo2D4oQUSZvKpVUnLKpXht9peivAqbKVKyqlQVWVQUVCx6vbR/Dqb1yshY1YbPofhsHaVa8pLepvUA5JvWcbtdWBclVjYqGbVXzro5I5x1KoKl4tYhSDkgqCux7HdStAq63kOPQUGlw73XjJ318noYwLrNEfdNRkb6gz8q5LCzeXFTvxCb6q63REn2VPllqDtVr5i3idQiIvY8oiIg0Nb+dDPgf11nhYNWL6UN+B/XWeNi3XhmREsi2ylFCm6AiIgIihATnCKRtCK87ox+EOPn97H2PXk/dWG2gmFjfiQ+bevXMOYXY9pAf30fY9eRd1kC3QnBgf/ABH/ALblylp8tOKpVRCWUVFlU0ZhFLdqC5KO+Vkq9NylZKDtuBpmtwgUN9ghnPyTl9kMyhj8RvYF8fcCzL6dUx3U8/zbl9iFuqxg3NHYsWnTUQxnnvyl1D+WUXjn5l3jhO1SoBspuoIKpVRVJRULGrPC0Hw2H6yySsar8LQ9FXEfWVrykt5dBsPUrTXbFeAyPUs43a6W7fKro2qhozV1vK8i6ORYq3zrIcNitPb3xQUhXm5wv6j2K0ArjPBuHQUVp8OILsS+HS/Qur0RP3XOP3Y7Vx+HGxrzvrZj8YLrtDzernP7u3pVr5i3idWiIvY8giIg0lWLaSNJ2OpLDyP/AM1nDYoxSBzmNnhbrTQ3IA2kc4Wsw7HsNr2HiKqLXadV7CbFp3Ec3lW6yktooVDJY38iRjupwKueRa2zpCJdE2mhFKJs0hFKhUEG0IpG0IOKwaM/01jxtkZo+xy8e7r1mroXgfTiJ+aK9zw6JsNRWSu/277+YuC8W7rmnmrND8DZSRPlLK9znBgvYcWVy9uj5LsivSU08Z9shkb1tKtbNqgiyKUQS83KpAUqpltYXQeicB0Ln6dUoa2+tDM3zsK+vJsrdQXzF3O1Gyo06o3NexxZHI5wBzA1SvpeaUOebEecLjkbox38soELHFxOq63Up1SNq8suyFKWUpsQqSqlBQUqBEZpYLC+pOxx+MpWxwdjeKrZX2tGxpF99ytV5JQITksi1lY9lMJAvtNlfabrNHS0qgMlcY3NSxtwrkYz8i1tnQ5p1QrT2m91m6l2BWnNVGKGmwVxrSGuvssexXQxXjHaJ/Ug52kp3MFRf9Kpld53LqNDoy2eocf1R2rW4rqU1U6PLLM9ZW30PeJBUuaMhYXWqR/Vm0/zdIiIvW8wiIgLWV+A4XiE3HVdDA+b+0DdV/8AMM1s0QaMaM0TG2hdMwbtfW7VbfgM8edLXOb0EEdhXQImxy8lJpBAfapYJx0vsfSFYdiGO0xtUYRJIN8Vndh+hdeiuxxn+lccRIrKKqpyNuvG5vaFlU2k+GVHImz3ZH6V1JFxYrEqMMoajw9HTydLowU2mmBHiVG/ZO0eMCFkRzxSeDmjd4rgVado3hZzjpuKO+J7m9hVp2jkA8HUTDx7P7Qr1GmerdRMyngfNIbNYLn7FhNwSaLwVSPjN7CrVZhFdPC5gkikdYhvHPc5ov0J1GnAxaaUeJ0zX0L9aKB74TIDlI4OOsR0Xuuk0XoINJKWWbEI3SUzHasffFt3c5yWqoOCgMmaavEmtgDrmGmh1BtvYZ5eZel0FJBQUcVLSRiOCJuq1o5gsq4nE+CzAK0HvHNJ/XjZIPS2/pXIYrwBYLVEmOOjff8AWjdGfO0kehe2Ig+YcV7mqme5xphPH7zO148zg1cjinc24rFc0eIPaN09M7tbrL7MRB8DYlwF6Y0h+54qKsH7uoDT5nWXN1/BrplQvDajRzEczYGOLjB523X6NyRskFpGNeNzhdYxw2jJJ9jRC/6rbdiD440D0N0g0DoYMarGR0VXWyCFzJHASxQDN1m73Gw6BfevUtD2VulOMMpqUP8AYzHB08w5MbevedgC9pn0ZwWomEtThlJNIBYOljD7dV1sqWmgpIhFSwxQxjYyNgaPMEGkn0PweQe1wS07v1oZnNPasOTQ5zD9yYxWMHM2ZrJR6QCusRSYieV24eXRjF2HvZsOqW/tRuid6LhY7sFxFhPG4Y62+Cdrx5jYr0BFicVZ9L1y83koHs8JHUwn95CbecXWMaRxPeSRO6Nax9K9RVqSnhl8JFG/xmgrM4KtRkl5iaKp2CF3XcW865jHpsQoNIomGqhbh7acl0THXc+Una7cABl5SvbXYVQuOdLF5BZWYsAwmKTjGYbScZe+sYgTfrKzOD4+JWMkb+XCaE4JNjLzV4hG8UAHegktMp6Oew3rqZtDqF1zT1FdTnm1Jy4DyOuulAAAAAAGQARdMeOKRpm95tO3HSaKYhFnSYzrdE9OD6WkK3/ROPwZujoqn3uQsPmcPpXaorOOs+ki8x7cbrYjEAJ8MqBb9QNePQfoUCrhJtKx8R3PaW9oXZqC0OFnAEdKzOGrUZLOVhdTP5Lrjoz7FhaU1c1JgVbNhzWOq2ROdEJHarS7mvfmuuvkoKSTN9NCTv1AsefBMNqGhs9HDI299VwuPMs9nS92ZeJ4XiOIVkNHTyPdV4jI0Nk1Bcvfz+Re0aN4UMKw2ON4BqXAGZw53f5bFl0eHUVF7jpKeDpjjDexZSY8XTM2tO5MmTqjUcCIi7uQiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>data\product_images\Light Switch_20251120_144130.png</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,18 +504,14 @@
         <v>115</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAECAwQGCAUH/8QAURAAAgEDAQMFCgoHBAcJAAAAAAECAwQRBQYSIQcTMUFRFCJSYXGRkqLR4RYyNFNigaGxwdIIFTNEcoKUIyVkkxdDRnN0hLIkNUJFVmOzwvD/xAAZAQEBAAMBAAAAAAAAAAAAAAAAAQIDBAX/xAAjEQEBAAICAQUBAAMAAAAAAAAAAQIRAxMxBBIhIkFhMlFx/9oADAMBAAIRAxEAPwDqkiTxFvsJIn8SXkAxHOT/APEyN+XhMpJAnfn4T8435eE/OUkgS5z8J+cc5Pwn5yGQBLnPw5ecb8/Dl5yCQG/Pwpecb8/CfnAAb8/CfnJ35+FLzkACd+fhPzk78vCfnKSQJ35eE/ON+XhPzkACd+XhMb0vCfnIAE70vCfnJ3pdr85SSBO9LtZO9LtZSSBKk+1k7z7WUokCpSfayd59rKUSBO8+1k7z7WUkgVbz7WN59pBKAuxeUmCIfFRIAAAAAAAAAAAAAAKanxJeQqKK37KXkAwxkgASSQSAAAAkACCQMAASAIBIAgEkgQCSAAAAEkEgESQSBOSUQSAAAEkgAXYfERJEfiokAAAAAAAAAAAAAAFFf9jLyFZauvk9T+FsDya9xWjUcaVDfWF3zlhdf/76y1G8ucxUrOaT6WpZwUc9U8JeiSq1Two+j7yD0KEnOnGUouDay4t9HiLmDzY3FZdEoei/aV901+2l6L9pRn4JSPP7puOyj5n7SVdXHg0ftAzyTz+6rjwKPnZPdVf5ul6TAzwYHddf5ql6T9hPddf5ql6b9gGcDB7rr9dGn6b9g7srfM0/TfsAzwYPdlf5in6b9g7sr/MU/wDMfsAzhgwe7K/zFP8AzH7B3ZX+Yp/5j9gGcDC7rr/M0/8AMfsHdVf5mn6b9gGaQYndNf5mn6b9g7orv/VUvTfsAzAYnP1/m6XpP2Dn6/gUfSYGYDFVat4NLzslVq3g0vOwMpInBjqrV7Kf2k87U+h9oF8ksKrP6H2kqpL6IFVxV5ilv7k58cYgssx7K/dzVcHaXVHCT3qkMRfiT7S/zr8QdV9iAzF0IER+KvISAAAAAAAAAAAAAACmpFTpyi+iSaKgBo9SrOFSUZZTi8NCNeT7Srauk7K/dXGKVbvk+rPWvxNV1q4p3ml3lpKq6fP0Z0lOMmnFuLSeVxXEaG1qrL6XmK1Vl9I5b+Cuub6g9UquS4N07ms1nytmRT2T16Kx+tLh+W5rfmM5x2sLnI6d52X0vMVKrL6XmOYpbJ7RSxjV68fJcVvzFcNk9oVj++K/9RX/ADF6qnZHTXOy7ZEqtL6RzL8EtpM5Wt114u6K/wCYpnsrtNCLb1yukuvumv8AmHVV7I6c56X0hz0vpHLNLQtoat1ToUtfrzqSbxGN3Wy+H8TLdPSNo6riqO0cZN9CV5XefWL1VO2Oq+en2yHOy+kcv09l9r3xWuT4/wCIr/mJ+Cu1/Xrk8/8AFXH5iddXsjp/np/SHPS7ZHMC2U2v6tcn/VXH5iXsrtg1/wB+T+q6uPzDqqdkdPqtPtkOel2yOXKmy22FKDnPX5qK6W7uul/1GLDSNpp3dOjHXt6c3hbl/Wz5s8R11eyOruel2yHPS7ZHMS2b2pnJQ/XqlLsVeun9kitbI7Wcf76lx/xNx+YvVU7I6b56XbInnpdsjmSOyW1yznWcr/ia7/8AsR8Edq306xL6ri4/MTqq9kdO89LtkSq0u2RzD8Edqm+Os1Mdiubj84jsntTFpLVpyT6c3Nxw9cdVOyOn1Vl9IqVV9sjmF7I7UP8A83n/AFFx+cpex+1Kaa1ussdXdFxh+uOup2R1Cqz7ZDnpdsjlyey21qXDWKv1XFf85h1dnNr6ae7rN0/+auPzDrq++Or+ffbInuhpZbeDjm7sdsrdty1K/ljsu6/5j3tgdE2n13UKda41W8pWlrcU+fhUvKylOOctJN4fBYx4zG46ZTKV1SqzfWVwm5zjFN5k8Hh92p8c4PX2dTubh1uPN0+vtZirY1wQAAAAAAAAAAAAAAAAAAwtY02jqthUtq+UpLvZLpi+po0OryY89J85q9RR7FT959JA2Pk+pbD0tHoUqVC8qVKkm5b7ik+ns4mLb6FV3u/uqjXiivYfTNU0t31wp89upLCW7ksx0BRX7f1PedGPJJjpovHblt88uNGa4RuKyfkj7Cm00mcYONWvKo97KlupPHYfQJ7O70vlHqe8qhs7FdNf1PeZduOmPXdtHWmQiu+lJlFWwoVI7k6akvGbzU2bU/3lr+T3luOy0c5d0/Q95JyY+dlwy8afPKGzkKWo0bm2aUYt70GulNY4Fd3stpdTH/ZowfbDgfRls7FLCuPU95bnsypfvT9D3l7pb81OrU8NAhpEIJKNathdrT/Au/qiDX7auvI17Dd1suk/lL9D3l34NLHyn1PeLyYrOPJ8/paRKlVk3dVKkGuClGOU/LgzKWn010uT8xuMtmMv5V6nvJjszj959T3i8mNSceTU62j2V3R5u5t4VYdkkeH8ENPtL+ncWsNxRbzTaymmmuHnPp0dn0ljuj1PeWa+zW/xVzj+T3mOPJJfLLLC6fN/gvpkpxlG3UJR6JReGvIz06elYisVquEuvD/A3GGyzXTdL0PeX47O4WO6PU95nlyy/rHDis/GkvTscOeqLyY9hYjpc1X3u6qsqbTTg4x4PqaeDe5bN737zj+T3lMdmd1/KfU95JyYl48mnfqtP/W1F5vYR+rFnHP1V6PsN4Wz0cft/U95bns0m8q5x/J7yTkxW8eTR56PV5yEqV9U3U1vQnCLTXlxkv1NN4txqzS6lhcPsNxhs2l+9Z/k95X8Hl13Hqe8XkxJhWl09Oy+NxU80fYJ6Q3+81V9UfYbi9m+OY3OP5PeXFoGY47p9T3k98X2VolTZ+pUXeahWi/HCD/Az9J2Wurui4K9jTnSlxk6ed9Po6MdGDa4aC4v5T6nvPQsNP7kqufOuWVhrGDHPOWaZYY2XbVY7G3ya/vCk1/u37TcrC1p2VpTt6K72CxntfW2XwaW4AAAAAAAAAAAAAAAAAAAPoAAiKwiWBgIIAMKdIACAYHSAQACgAAAACCR1gIdYYABB8QAKM7sivpRDWUI8OBTwkp6GVACmcd5cOkU33vHpKhjiABret7d7KaFdu11jaLSrO6XTRrXUIzXlWco8x8rGwS/2u0X+qiRW7g0f/SzsD/6u0X+qiQ+VzYBf7XaP/UIDeQadpvKdsTqd5TtbHanSKtxUeIQVzFOT7FnpZuIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1Dle1a60Pk12g1DT6/c95StWqNVdMJSaimvHx4G3nyP9IbX7CfJfr9lRrb9xvU6TSXRJVIt8evGCWyeVmNviNh0fZTZrZy2t6M7fS42it4Jxr2sJVZ1W23VnVllycuPT19Z69vbbKVa0KNvaaPOrPhGEKFNt8M9h7ttGMrWlvRT7yPSvEXY04R+LCK8iKjz1oek4WNLsf6eHsJei6TBOX6usYpcc8xDh9h6IA0nVtM2V2t2euLOrp1rXs7yhOVKo7ZRU0l8enLGcrg00Y/ITqNzqfJXoNa+rTrV4UnRlUm8ykoScU2+3CRt706ztbes7a2o0XzcktyCWE1xS7DQf0ea1KPJjpVDnafOp1O83lvfGb6DPkuG/p4/rHCZa+3l9NABgyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFNWcaVOdSo1GEU5Sb6kjmvlPir/k31y6kuMp90LHV/ap/ifZ+VPU56fsnWp0G1WvJxtotdSl8b1Uz4xym3FOx5LtSjmO9WpwopeNyX4JnJz5b5McXo+kx1xZ5X9dI2nyal/AvuMJyrX9xUhSqSo2lOTi5w4SqSXSk+pLoz0sy7Rt2NFpcebi15ixoTjLSLSUHlSppt+N9P25O7H4lrzL83SpaZaK4jXVL+2jB01Peed1tNrOe1IuZqUKkU250n1vpiZBRWxzU89GGY7t8rqRF18mq/wAD+4525CLa6ulpDt03CnFVJyxwjFPHT9X2nRFXjbTz0uD+4+I/o57RW1DZxaVUtlCrGu4uspZcspNZXYsmjmmNk91/XV6XLPG5XCbuq+5gA3OYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfPeUmXdetaTYP4tOE7iS8ver7mfIuW63XwBqKccSpVYzi/OvxPpmq3Eb7b/AFBp97QjGgn5Fl/a2fOv0harobIwgo5hWnu57Hwf4M4cvnl3/Xp8f14bj/HSNh8ht/8Adx+5GJpNnWsK11RzGVlKbq0ePfQcm3KGOxPivLjqMqwebG3f/tx+5Fye/vR3XFRz32VxfkO+ZWSx5dm7tcyUVIuaUeG63xNdoW+q1Klu6ndVKPPSc1KvGSVNrGMp5bzxXDxcFxPeowrQnJTqRnSUYqHDvs9bb6+oirlX9lP+F/cc8cgWyl/d0KerxrU4adOrmWX3zlHCaS+pcWdDVf2U/wCF/cc18g+0t7bWtTTFdVI0KVVyhT6VximzTz3GYz3eHV6SclyvX51XTALdtOVW3pVJrEpRTa7OBcNzlvwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAW7mtG3tqtao8Qpwc5PsSWS4arym6g7DY+9UG1VuMW8Mdsun7Mkt1NrjN3T5nszcVL26qXrzvXFWVSTfjeTzf0g7dVuTa5rLjKjWpzz5Xu/ieps3DmKNOCeMIw+WuafJZrKfF7sP/kiceM+Y9HK/W/8fb6Vw7fTLWUaU6rdKPewxn4vjaL1K65ylGbg6bazuTayvLhniavptXULHS3S1CrZKlzdSTpuK51JcYPKfevrxxLdvo1eFWpPu51oPK3JYag88ehZz1HoTGa8vLtv+mwXF1Gha1a803GnFyaim3hLPBLpPOeuKV3O3t7Z1qiipqKqwjJppP4reV0rpL11crT9OVScd/cwnjPUjxZ7R0Vc/wBnYqpWlFNOG7vNNZxxaZJjb4X3SNmpVZVKeZw3G45cW8tPHQfF/wBH/ZDTrvZ+jr1ypzuOclSVNPEO9fS+1n1fS9RleNqVvzTcG8S+MvKc9chuv1rajcabO4qxpc66lOG/iKbivN0ZNPPZhPtHR6bHLkyswuvh0+DE0ipOrp1CdVtyks5fWuoyzOXc205TVsAAVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+Wcst9GV/o+nb3h3El6q/E2/bHa6y2btXzjVW9lHNOgnxfjl2I5+1/WrjVNolqV5VdSpUShiKwopdSXUjn5uSa9s8ung4rb774bxpcUnFpmt8u1yqXJxd0uutOEfN334HtaLdRqKOOBoX6Q183o1lZwfey5yrLHijhfezThd5R1ck1hXTvN0q2mWPPUHWUY05qPF4aSw/GVWW4p3MYWk7dc65NySSqN9MlxLVexr3uk2NO2vatnKCpTc6cYy3kku9akuhnoQo1I72/U38ybXDGF1L6jueYorU6VW3arxzFPPTjqPLdvondcZNW3dLxutzW+8rh4+KwezOhGpRnTqpOMspp9DXYWqVhb0oQjTpU4xglGKUF3qXQkXdiai3Z0bWFWpzEVvxzCXfZxwzj7j5H+j7snpN1sxT1m5oKrdutOn32N3EXw8p9m5tQUpJ9T+4+a/o3vPJnQf8Aiq3/AFIlnu8ssbcf8X1FJJYXBAAIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4m020+l7O27qahXXOtZhQhxqT8i/F8CWyTdWS5XUezVqQpU5VKs4whFZlKTwku1s+T7c8qlO3VS02daqT+LK6ayl/Auvys0rbTbXU9p5ypSk7bT08xt4Pp8cn1v7DUKtFtHDy+pt+MHfw+lk+c2Jq2rXV3dTrXFWdSrUeZSk8uTJsalR16acW2Z9losricJ1linnpZ6k9NUK0alGOIpYx+JomUdftezpV3ClBLoklxyfN+V6dfUb2SWN3mXTg30Jv34NxUpUaijKSy+vtM+ro9rqlJc9FSeBjlcctssuOZ42N92U5bdi7zQbOWq6xQ0nUYUowuLS7UoTpzSSaXDDWehrqMzUOWnYehTg7PaDTbublhxjcKG6u3MkfOtK5NparcRp2MGlHhKcviwXjf4I+ubL8m+z+i2ahXsLXULmS7+tc0Iz+qKa4L7T0ePl7Px5PNwzi+Pd8taXLlso+m/sF/wA/TM2x5adh6sJu81/TbWSfBd0KpvL+VG5fBPZx9OgaR/RU/wApK2U2eXRoOkryWdP2G1oaLrnLfsLa6XcVNP1ulqd7uONCztITnUrTaxGKWOt9Z63IboN9s9ya6VaatRdC/qKdxWovppucsqL8aWM+M2uz0HSLKtGtZ6VYW9WPROlbwhJfWkekAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB422N5XsNmr+5tKjp16dNuM0k8P6zma7ua95dVK93VnWrTeZTnLLbAOD1d+0j0fRz62i6GZFlCM68d5J8QDjdsbDCK3EsLAjFd0tY4dgBYPM1GlDuqS3VhGx7BWtG81OlRuYudN9K3mvuANmE3lNpndYWx90tbajaUI0balGlSj0RisIugHreHhW78gAAAAAAAAAAAAAAAP/2Q==</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Ac_20251120_144159.png</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,18 +528,14 @@
         <v>125</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAIDBAUBBgcI/8QAOhAAAgIBAgUBBAgEBQUAAAAAAAECAxEEMQUSIUFRcRMiYZEGIzIzUoGhsRRCcsE0YtHh8BVDU5Ki/8QAFgEBAQEAAAAAAAAAAAAAAAAAAAEC/8QAFxEBAQEBAAAAAAAAAAAAAAAAAAERMf/aAAwDAQACEQMRAD8A/qkAAAAAAAAAAAAAAAAAAADycowi5TkoxW7bA9BzNRxaCfLpoO2X4n0X+5gtv1N/3lrS/DDogO9ZfVV95ZCL8NmW3i2jrTcrei8JnHjplu0Xx068IDXHjmkm8Vq6f9NbLo8TofaxesTEqV4JKleAOhHXaeX8+PVNF8LIT+xOMvRnK9ivB49N3SwwOwDmwlfVtNteJdTVVqovpYuR/oBoAXXYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAx8Q1q00eSHvXSXRePiwJ63WV6WPX3rHtBbnGtndrJ5ul7q6qK2R5CEpzc7G5SfVtmiMemEsICuFSXSKwv3Lo1rwSjEtjEghGBNQLFEshDIFcYFkakW4UF1KbLvAFiUI7nkrYLsZZWZK5TKNvtoPdDNU91gwc56pkG+MZV9anmP4WXQmprw+6Zz4XNdzRXbGeMvEuzKNQIwlno+kkSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABtRTbeEurYGfXalaWhy3m+kV5ZxIRlZJzsblOTy2yd9r1epdj+wukV8C2uOEB7GPZFsYiEcFiQCMSyKEUWxiQeQjkteIRPUsIz3TyURtsyzPKRKT6kMZII9SLLG0viyLlJ7JICODwmnLwj3o91gCtMnCTWD1w8ENgNtNuejeGtmbIS5l4fdHIhLDNtN2zfoyjWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc7jN7jVGmL96zf0OicC+z+I1Vln8ucR9EB7TDGMGiKIVrCLYLoBOKLEiMSxEEoothEjFE28IohbLCwZJvJdZLqU7sDxR69SMk307Fu7GCCuNayS5BbbXTW7Lpxrgt5SeEvzOZP6Q8PTxXZZb8a6pNfPAHVUQ4JnPo41o7ZKPtHBvZWRcf3OjCamsxaa+AFTi47EGsmhorksegFGMEoS5WeyRHuB09NZzww949C05+jny3JPaXQ6BQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUa6z2Wktmt0sL1ZxqY4ikdHjEsUQh+KX7GGC6AXQ7fMtjsVx+1+hbHYCcdy2JXEtiBZFEbH0JIrsYFM3lkJPCJvcqk8yIJxObxvi9XDKY5XtNRZlV1J7/ABfhLyatZqa9Jpbb7ny11xcpM+A/iJ6vU267Wv35vpHflXaK/wCeWWRLca5q7iFyu4jbzv8AljtGPov+M21uMWoUNN987GLT6upyzKLi3tlF7scpp1Lqu5pnW6WVH6yMeV7tdjRptRPTY5JZj4exz3fbJqDSTfcmqdRVDmi/aVreD/sSw19PpdTG+GY9Gt0+xZLqfOVamWntjJP0fZrwzv1WK2uM47My293RBk1uyMkBHmcWpL+V5OwnlJrZnHfc6ellzaat/wCVFFoAAAAAAAAAAAAAAAAAAAAAAAAAAAADl8YebaY+E2UQWxbxb/FV/wBH9yqvePqBdDf8y2OxTWXR2ILIlkSqJZEosKplpTMggynsWy2ZU9gPmPptqW69Loov72Ttmv8ALHb9WvkcJRy6ovZJs1fSe12/SOce1VMI/PMn+6KNNU7ZOcm/C9DUYvVs4Ll6IuoudcVzwa+IhBQs955WOhbdZBQx0KiEp2TnGVcdnnL7nU0mr5sQlF83g52m1EeRJ9GaKpxV6kn2At1kEsVPpzL3f9DocEvclKqTy8Z/PucvWWe0tqa7STLeEyceKxj2aeTNaj6PuGj3uesjSqS3N+g/wsfg3+5jktzboVjTR9X+5ReAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5PGFjUVPzFr9Smt9V6mrjcfcpn4k181/sYq3sBprLY7FMN36lsdgLYlkSqJZEC3sUzLkVWEFU/ssplsXS+yymWwHwHHsx+k+rz3jW/8A5/2K9JZYk0o5SbNn0vq9jxvT6jHu3Vcjfxi/9JGPSWqLlB7pmoxetGJWvr0+B6qZcycuqIq36z3Vnzgu55Skk04p9yoOK6L4mtJRhgzSjFdU3leScOadalJ4T7ICyLUaeZ7vPyNnBYueqok9+TmbOdn2kJQ2jHpk7vAKX7J3NY5vdj6IzWo663JMjFdSXgjTyXc2aNY00Pj1MVjwmdClctUF4SKJgAAAAAAAAAAAAAAAAAAAAAAAAAAAAMnFYc+hsxvH3l+Rx6pZSPopxUouL2awz5mKdU5Vy3hJxA3QfX9S6D6GWuXRP8i+D6AXxZYmVRZYmBdEhYj2D6ntmwFBRLY0MqsXcg4H0p0Etdw6SqjnUVP2lS8tbr81lfI+S0bq1MIzx1a32Z+iWxyfI8b4PZRqJ6zQVucZvmtpjvn8UV58r80WVLNZ4VqmXTqn5LJzXJ0+12wZtNfXfHPtFKK6NeH4fg1Qdaf1cfe7Pcus4Ki2UVzuMV3Wcssc8rlgtvkhy2z3agvXJv0fDrL1HOYVee7Jq4o4fpHqZqC+7XWcvJ9TVBVwjGKxFdEiGmohRWoVxwkaIroiNEe574PUGBBrntjD8TwdIw6SPNqZS7QX6s3FAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOHxur2Wpjcvs2dH6o7hRrtOtTpp1vfeL8MDiUyysGiuXQ51cpQm4y6Si8NeGa4TXbZ9UQbIssTM0ZFqkUaYPqW7oyxkaK5ZIISWGQaysF1kSoCqUepROrKNjwyDQHE13BNHrLfaW04u/8ALBuE/mt/zKK+AQg/d1Wp5fDcX+uD6LlQ5UBzdNwyinryuT8yeTfGCS2LFE9SAionp6zwD1ELZcsck84IVQ9vqEv5IdZf2QGvSVuulZ+1L3mXAFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHF47pOV/xVS+FiX7nPos5o477o+qaTTTSae6Z81xTQy0VntKk/YSf/AKvwQWV2ZRbGZhhblc3zX9y6NgG2M+pdCZhjMthMDpwkpR6lM1grqtNDanHK3KKe4z5PXueEHuEMBAD3Y8yAB4Ngym21RWFuAsm21GCzKXRI6GmpVNSjvLdvyynRaZ1/WW/ePZfhRrKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHk4xnFxmk4vo0+56APnOJcMs0knbpU50947uP+qMFdyazHbuvB9kcvX8Hq1EnZQ/Y275S6P1QHJjaWxtMmq02o0j+uraX4l1i/z7FcbfO5B1IWmqm/Hc48bfiXQt+JR21OMyLRza9RjuaYapPdkGpDsUq+L7iWogu4Fx5KSRks1cV0TJ1UajU9WvZV+Zb/AJIDyy5uSjBOUnskbNHpORqy7Ds7LtEu02mr08cQWZPeT3ZcUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaTWGsowanhOkvy3XyPzB4N4A4FvAJp/Uajp4nH+6Mz4Rr47KuXpM+oAHy3/Ttev+x8polHh2vb+6S9Zo+nAHz9fC9bJ+9KuC/qya6uDre++cvhFYOqAKKNJRR93XFPy+r+ZeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>data\product_images\Motion Sensor_20251120_190737.png</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,18 +552,14 @@
         <v>135</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAQIEAwcI/8QASxABAAECAwIJBwYLBQkAAAAAAAECAwQFEQaxEiExM1FxcnSyEzJBYYGRwQciJDU2sxQVIyU0UmNkc6HSFoOEwsMmQkNTVGKSotH/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACMRAQACAgEEAQUAAAAAAAAAAAABEQISQQMxYfBxBJGhsdH/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAANLl63a5y5RR2qoh4TmOCjlxmHj+9p/8AoOocsZjg583EW6uzOu4rzDCW9JuYi3RE8nDng7wdQ5beY4K7XwbeLw9VU+iLkauoAAAAAAAAAAAAAAAAAAAAAAAAAAAGKp0pmejjBG4nHYq7iq8Nllq1VNudLt69M8Cif1YiOOqfdo8LtjPK4ng43CUT/wBtjXfU6cio4OU4aufPu0+Wrnpqq+dO936qit3MBtFVrpnNNOv6tiiNP5S8Ksn2irnjz65HZpoj/ItWpqUKhOzueVa8LaHF+y5EbqD+y2aVRpXtBmHsv1fDRbtTWShTqti8TXOtefZn7MTc/qh5zsFTVPz85zWf8Ve/rXVhaFJp+TnARPzsdmVX+Ku/1u7C7F4XC0cGzj8ypp4+L8JrmOONPTM9K0AKdR8nWz9NfCnD1VVcutUUzM+2YlJWNk8rsREWrddMR0TTG6E+AjLeS4W3GlFeJjqvTG555jguBg7sRwsRZmmYqt3Z1n1TFXKlvSxVTFdM0VclUaT7Sh+Xb+e4/FXb8WabtFFFyq3wLnnUzE6aT632X5HtpsTm2WXcuzSqasbhOOiurluWp5NfXE8XVoiNoMowd3FUXcPaoprriZu8GOWrpnrduw2BjBbRWKqKdOHRXRPu1+CD6cAigAAAAAAAAAAAAAAAAAAAAAAADW7zdXVLZrd5urqkHFk865TgZ/YUeGHW4sl+p8B3e34YdrSAwagGrAIzqMGorLAKAAHpI5Y6wjzo6xHzbLonE5hmMVccW7lER/4RKfySx5PN8NVp6avDKB2dq+nZxr/z6Pu4WXK6tc0wvaq8MsqtICKAAAAAAAAAAAAAAAAAAAAAAAANbvN19Utmt3mq+qQR+STrkuA7vb8MO3Vw5F9SZf3e34YdrSEgwoamoCGpqMKM6jADOoABHLDDPpgHzHI6+DjM29eIo+7pWTJK+HnGFj11T/6yqmU1aYvNO8U/dUrLs3VrnWH6qvDLCruAigAAAAAAAAAAAAAAAAAAAAAAADS9zVfZnc3aXuZr7M7gRuQTrkWXd3t+GHejtn+PIct7vb8MJBuENWAVAAAeF7FWbWJs2K6tLl7XgR06PdamGYyibiOABGgABn0sAPlGVz9LzPvFP3VCybMT+fMP2a/CrOXT9JzLvMfdULHstOue4fs1+FhpfgEAAAAAAAAAAAAAAAAAAAAAAAABpf5m52Z3N2l/mbnZncCJ2c+z+W92t+GEijtm+PZ7LO7W/DCRbhkAUAcmb3KreWYmqidK+BMRPRM8XxXGLmmc8tMZynhx0WPxhZxGI4XBuXp0w8zy000T82Y654+qUhgcRGKwlu9pwZqj51P6tUcUx7J1RtvD13LOIuWr1VucPNdmxEclMUxEfzmON75Pd4deJ0jg01zRfiOjh06zHviXbOLifHv8eLo5a5xcd/zzf7+8JNgHB72RhkGCT0k8kg+R5dP0nMu8/wCnQsuyXHn1n1UV7lZy/wDScx7z/p0LPsf9e2/4dfwYVfgEUAAAAAAAAAAAAAAAAAAAAAAAAaYjmLnZnc3eeI5i52Z3AidmZ/2dyzu1vwwkkZsx9nMr7tb8MJN0hkAAeONsRisJesTPB8pTNMT0T6J972Fiam4ZyxjKJie0q5duU8K7RfxdeCm7+kYfyU1TVVppM26uir1a+yUrllqqJvX67c2vKzTFFueWmimNKYn18s6et3sOmXU2ioj335efp/TaZbTN+/Pnio8MsA5PUAAFXJPUMVebPUD5Jl0fl8x71PgoWbZD69tfw6/greWR+WzHvVXgoWbZGPz5RPRbr+DCr4AigAAAAAAAAAAAAAAAAAAAAAAADzxHMXOzO56PPEcxc7M7gQ+y32byvu1vwwlEXst9m8r7tb8MJR0hkAAZYAZYAAAGRgAYr8yrqllrc8yrqkHyrKY1uZh3uvw0LRslT+eY/hVfBW8lp1nMZ/fK/DQtGy0cHOKf4Ve+GFXMBFAAAAAAAAAAAAAAAAAAAAAAAAGl/mLnZnc3aYjmLnZncCF2U49mcr7tb3JVFbJzrsxlXdqNyVdIZAAAAANQAAAAGtzm6+qdzZrd5qvszuB802fp1pzCf3y5upWjZujTNqZ/ZVb4V/ZqjW1mE/vt3dStGz9GmZf3dW+GFWUBFAAAAAAAAAAAAAAAAAAAAAAAAHniOYudmdz0JjWJifSCA2Q+y2U6/wDTUbku4MktRhcBbwevHh48npPREu9uGRlgUAAAAAAAAGt3mq+zO5s0vczc7M7gUbZS3rhsdP77d/yrNlFPBzGn126t9KJ2aw80YPEcXnYm5V79E7l9GmYUT+zq30sKlwEUAAAAAAAAAAAAAAAAAAAAAAAAABCbQYHMKopxWS3LVOLonWq1e4qbsdGsck+vjjpR9jOs0txFOYZLibdUctVEcOn306rWLZSv0Z/Y/wCLauW+uY+Oj3t5zga+S7MddM/BMVUU1RpVTEx641cl7K8Bf53B2Kp6eBESbJTyox2Er83E2uqatN7ooqprjWiqKo9U6o69sxltzzLd21PTbu1R8XBd2QiKtcLmmMtduKa/hC7FLCKz+Is+w8/Rc3tXI6K6aqN0zDGm1OH5bVnERH6lymd8QuyUs4rH46zax+lZXeiPTPkpmPfTMvS3tTamdLtiaZ6OFNM/zgsWMRNrP8JX/uXo6oirdLppzXBVct+KO3TVTvgsdrzxMxTh70zyRRVP8pa28Xh7vN37NfZriUVtRmsYLJsZcw9qvF3bduaps2fnTV0U9dU8XtmfQDFM0YGzbtzxTNMVzE9MurKMRTfx08Hj4Nud8PmX9qsZmFmzicyt27GLqtU+VtUTrTROnHHsfRNiMLeoy6cXiYmmvEaTRTMccUej366+5lVjARQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABrct0XI0uUU1R0VRq2AcV3KsBdnWvCWdfVTpueE5Fg4n8l5W12K5+KUAQleQxM8V/hR0XLcVNMTkN7E4KrDfhtWGt1xpV+D0RTOnpiJnk9yeAVLLvk/yTB36LtVF/E1UTrEX7mtOvVEREraAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP/2Q==</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>data\product_images\Water Heater Switch_20251120_144331.png</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -592,18 +576,14 @@
         <v>145</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAMEAQIFBgcI/8QAOBAAAgIABAMFBgQEBwAAAAAAAAECAwQFETEhQVEGEjJhcQcTQmKBkSIzobEUNFJyIyQ1Q4KSov/EABQBAQAAAAAAAAAAAAAAAAAAAAD/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD9UgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGq6o1dkVvJAbAjd8PM1d65JgTAg/iPlMe/kBYBVdsnzZr3vNgXG0uaNXZFfEio2agXHdBczR3rkitxAFpXLmjZWx6lQasC4rIvmjbVPmUQBeBSUpLZs2Vs18QFsFVXT6oz7+XkBZBAsR1Rsr480wJQRq6D5/obKyD+JAbAwpJ7NGQAAAAAAAAAAAAAAAUbceqrpQlXqk9NUwLkrEt9fsRu9ckyGOYUy370fVE0b6J7Tg/UDHv2+Rq7p+hI4Vy5r6M1dCe0gI3bN/EauUnu2SOiXJpmrqmuQGgDTW6YAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZUZPZMDBlNrZskVE3vojb3CXikBErJr4mbK6fXU37tcd3qRzxNFW8or6gSRssfwkkZTb/FHRepQszWmPhepVsziT8EPuB3AecjmN87YKLUdZJcD0YAAAAAAOJmC0xdh2zjZktMXL0QFXQGz2RgDKk1s2iWGJtjtNv1IQBchj7FukyaGYr4os5oA7EcdS93p6kkbaLNnFnDAHd91W9v3NXQuUjjRsnHwya+pJHGXR+LX1A6bolyaZq6prkU45jNeKKfoTQzKHxJoCRxkt0Y0ZJDG1S+JfU3VlUv6WBACx3IM1dKezAhBK6XyNXVLoBoDZwa5P7GVVJ+QGgJfddWZ7kFuwIRo+hJK6mvxOK9WQzzKiG0k/QDdQk+TJFS2uL0OfZnCXhiyrZm1r8KSA7iqivFIw5Ux30+55uzG3T3m/oQysnLeTYHpZ47D184lezN6lwhq/RHn3x3MrcDq2ZvZr+CH3ZWszHEz+KMV5IqnPz9tZJjmt/dS0Ai7Tdqcu7PZfbjs7x/uaK1rLTWcv8AquJ5HI/avkOe3RjldONtqb0Vs4KGu+yb15cz4N7YO2GAx2WLK8oxk5XxvccVGMGk4pNNNvfieF7D9o7uz+ZQlhaKrbLJqKdjekdeHL1A/cuS5nDNKrbK6p1xhJR/E02+GvI6J432WYi3F9mY4jEOLttn3pd1aLY9kgJMMv8AM1f3r9z1x5XBLXGUr50eqAAAAAAByM0/mv8AijrnJzVaYlPrECmAAAAAAAAAABjQyANGgbM1AGU2tmzAAkjdZHabJI426PNMrmAL8MxkvFH7E0Mxg99UcoAdSWNhPWXe0cduJUlm0uKUU31bKU9mVwLtmZ3vwuK9CtPF3T8VkvuQvmYA2cm9+JqAAAAAAr4K6y6rWzDuiSbTi1u+v1A8z229ofZ3sbbCjOcVb/F2Q95HD0VOybj1fJfVnjuz3tsp7RdqMBlWUZBi5VYi1QlbZdHvxX9XcinwXmz3Ge9g+zWfZzHNM4yuvF4xVqvvWTl3XFbaxT0Z28ryjLcqr7mWYDCYSOmmlFUYfqkBfOd2hemS4vzhp+qOicztJ/ouK9F+6A/AmfT72eZg+uJtf/tmuULv5vg11tj+59Aq9lGfZnmOJvxDpwlVls5Jzer0cm9j1+QexzA4S+u7G42++6DUkq1otQPt/smj3ex2F15nskef7FYJ5fkEMNCEkq5NRU92uB26lapydj1i9l0Av5b/AD9H9x6g8vla1x9P9x6gAAAAAAFTMMNK+EXW0px68y2AODZRdX46Z+q4ohU4t6arXoekI7aKrfzK4y9UBwDJ07Mrol+W51vyeq/Ur2ZZdHjXZCa6SWjAqA2soxNfjok11jxIVbHXR/hfR8AJAYTT2ZkAAABgyANAbNGoAAADBkART2ZWlsWpbMqy2A1AAAAzoBmJkwloZAAhxFk64x7kHNt6ehrR7+TTtSilrwXMCdtLdpeppK6uOqc46rknxM21qyPdltua1UVVcIQXefPdsDaL72jXMr5rhXjcBZh1Lud/TjprzTOpRgMTd4KZJdZcC9TksnxutS8ooDxeG7N4St62udr83ojq4bBUVaRophF/LHVnrKsrwte9fffWb1LkK4VrSEIxXktAPM05dibNqml1lwLtWSzf5tsUukVqdsAVMFgKcK3KGspvh3pci2AAAAAAAAAAAAAAADS2qu1aWQjJeaNwBRsyvDS8MZQfyyK1mV2x/JuUl0mjrgDz88Li63+KpyXy8SF2KL0sjKD+ZaHpjE4RmtJxUl0a1A86pRe0kZOpbleFs2g4PrB6FWeTzi9acR9JoCqYaJbMFjIce5Ga+VleU5VvS2EoPzWgGQaqaezNgAAAjlzKxZlzKwGNBoZMADJr3uOi3LFODxV/5dMknzlwQEJhvQ6tOSWvjbdGPlFal2jKMNXo5qVr+Z8PsBwKq52vSuEpvyWpdpynFWeNRrXzPV/Y9FCEYR7sIqK6JaGQOZTk1EdHbKdj9dEXqcPTStKq4R9ESgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaUlo0mvMACrbl+Gs1bqin1jw/YqWZPH/ZunHyktTqgDg2Zfi6uMVG1fK9H9mVpuyp6W1Th6rQ9OGtdwPIzvho+JBU53S7tUJTl0itT1tmBwtstbMPVJ9e6iauEK492uMYx6JaAedoyjFWaOfdri/6nq/sdCjJcPDT3rlY/XRHUAEVOGppX+FVCHoiUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA//9k=</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Connector_20251120_144342.png</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -620,18 +600,14 @@
         <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAAHAQEAAAAAAAAAAAAAAAECAwQFBggHCf/EAFUQAAEDAgIEBQ4JBwoGAwAAAAEAAgMEEQUGBxIhMRNBUXGzCBQiM1JUYXN0kZKUsdIYJjI1N1NW0dMWIzZCRYGyFRdDRlVyk6Gi8CUnNESEwWJkwv/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABsRAQEAAwEBAQAAAAAAAAAAAAABESExAlFh/9oADAMBAAIRAxEAPwDqlERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERanpWxitwDR9jOJ4XIIq2CJvBvLQ7VJe1t7HZexKDbLjlS45Vwd/Pjnu5/43Ub/wD4+6phpuz0f25Uf6fdQd33HKlxyrhRumzPR/blR/p91Tt0056P7dqP9PuqbTbui45UuOVcNjTNnk/t2o/0+6phpjzyf27UeZvuobdxXHKlxyriAaYc8n9vVHmb7qmGl7PJ/b9T5m+6ht27ccqXHKuJBpczyf2/UeZvuqYaW88n9v1Pmb7qDtm45UuOVcUjSzng/t+o8zfdURpXzx9oKjzN91B2rccqXHKuLBpWzx9oKjzN91TDSpnj7QVHot91B2jccqXHKuMBpSzv9oKj0W/cphpRzv8AaGo9Fv3Kq7NuOVLrjMaUM7faGp9Fv3LP5C0oZsdnLCIMQxWSspJ6hkMsUjW2LXODeTYdt/3KZR1aicS450g6Tc4flpi0FLjVRTU8NRLHHFC8xta1sjmAADfsbtJ4yqV2NdFw1/OPnU/1kxD1h/3p/OHnU/1kxH1mT71Nm3cqLhsaQc6faXEfWZPeURpAzp9pcR9Zk95VXcaLh38v86faTEfWZPeUfy/zp9pMR9Zk95B3Ci4ddpAzqGkjMeIEgd8yfesb/Onnj+3K712T70HeiLhCk0nZ3qKlsRx2uYCCdbryU7v3rJjPmdT/AFkr/WZfeQduIuJPy6zmd+Y6/wBZl95Py4zj9oa/1mX3kTbttFxL+W+cftDXesy+8o/lvnE/1irvWZfeU2bdsouJvy2zj9oq71mX3lM3O+cQRbMVb6zL7ybNu10Xj/U4ZnxfMeB4oMaq5Kp1NK0MfI4ucLl4I1jtI7EEX3XK9gVUREQEREBaJp0+ijMPimdKxb2tE06fRRmHxTOlYg+fGttPOVUa5Wpd2R5ykryIzY2KDINKrMcsDwj+7d51HhZO7f50GxtcqrXLV+Gl+sf6RUeHl+tk9IoNsa5VGuWn8PN9bJ6RUeuJ/rpPSKDc2uVVrlo/XM/10vpFR65qPr5fTKDeg5Thy0Lrqp+vm9Mp13U98TemUHoLXKdpXnnXlV3xN6ZTr2q75m9MoPRg5Thy83FZVn/uZ/8AEKqUtfVsqYiKmY9kNheSN6D0dpWcyRtzrgPlsXSNWvg7Ss7kU/HjAB/92LpGqXiXjubiXBGfNmfMc8qn6eRd78S4Hz7+nuOeVT9PIqrW+GqOvzHq/mrbD4eRZFqkaFOEFQKYKQKYFBUCiFICpgUE+xQ1G9w3zKDidU238SxD2vJJfLJrcfZkIMy1rQdjQDzKqFhKDhmVjQ2R74yDrBzrgchWZBQVApgqYKnBQThRCkCmCCnVOeyFxZ8oKhhMs81O11U3VkNrjk8F/wDe9XqDeEHvHUm/M2P+PZ/FKvel4N1J3zNj/j2fxSL3lAREQEREBaJp0+ijMPimdKxb2tD06fRPmHxUfSsQfPBx7N3OVLKewUHns3c5Urj2KDZMiV2CYdW1U+YI5Z43wmCOKOJr7a5s9/ZbAQzWtx3II3KOP1WBPwqhhw+PhKtr2Nnn1HtcY2wxizbm21/Cndfdtstbiglma8xMc8MF3WF7BR62n1dbgZNXl1TZBvVRNkvWxHUjhsWu634NlQOw1ZNUC57bfgrk9hYG3He5o8SyXDictRDTQQBjJGRtkimewtvKGkC5/OEGLa7sdjtgK8961qPqZeT5BUBTTndFJuv8k7kG8HE8ry8HHNGBDwj2yOjieJXxmWAi5vt7BsoG4j94UlVVZODJYhSxve9t3zU7ZgGuDGbIg52wF2v8sH9wstJEEp1fzb7EgAkWCquw+qaRrQPFxfdxbfuKDac5VOVDFUsy1TAOdMzUkdwl2xhrr21jsudW977th2rJV2M5Sq2cBNQwMpzMJgaaGSN8Y1aUFrbnjDZ73uL2ItdedIg9CrK/JMVZKaWhhmi/PObrtm1SRTHggBcENM1rjwb7JJV5Ilq6h8dLHBD2TWM1ZyDGHu2t7InhS0tsT2Ow3C89RB6G2ryX1jT04hga6RlN1xKYZnOaWvHCapvvLSb2FuIE7Fis41OXpKOOHL8UDSypc9z2xyBzmuhiuAXfqiQS2B27uVaiiDM4POyOlkaySOOYl1y92rcEdib8YBuSOO/GrKd0T8Tc6nFojJduy2y/IrNVKft8f94e1YniT1fTE8Ser6elX2nnWdyGb56y/wCWxfxtWvE9kedZ/IJ+PWX/AC2L+Nq1eNXjutcDZ8/T/HfKp+nkXfK4Fz2f+YGO+V1HTyKqxYUwUgUwQThTAqndUJ3GVr4opSw3s5zd48A5DZBOarXmMVO0PLT2biexb4PCfAoy1JgjL5nQsYN5N7LGV1a3Cn0jGsAp3Bwc0DaN20edXOJR9fYa5kBa7XALTewIQXbqrVdG10kIdJ8gEnsuZRbUa8zomvhMrRcs23AVjUU7pJ6B41fzDru7LwBVYIHMxaWoOrqPjDQb7b7EFzHWNeyR7JYHMj+WQTZvOourmMgbM6aARO2Nfc2Kx9JRvipq6N2peZxLbO33ChLQyyYNBSgM4RhBI1tm8oMzrz/qiE85IU9LVMnDgLtkZsfG75TT/vj3FWmIV0dBSunluQNgaOM8QVCjD6+jpKzX4KptcOaNmrc3aRxhBmwVOCraGVsheGkazDquHIbX9irgoKgURvCkBUwO0IPeepO+Zsf8ez2yL3peC9Sb8zY/49ntkXvSQEREBERAWh6dfonzD4qPpWLfFoenX6J8w+Kj6ViD51ydsfzlSk7FNJ2x/OVIgq09TNTkmCRzL7DbjVeTE62RjmPqZC12wi+wqyRBfjF68XHXLyCLEHcVA4tXFz3GpkJeNVxPGFYogvJcSq5WsbLO5zWEFrTawI5AoHEavX1uHfrWtcf78KtEQEUUQQRRsliggiIgKpT9vj/vD2qmqkHbo/7w9qD0O/ZHnWf0fn495f8ALIv42rXL7TzrYdHpvnzL/lsX8bVLxLyu8FwJnz9P8d8rqOnkXfa4Dz5+n+O+V1HTyKqxYUQpQo3QQme5kTnNtrAbL7rqnAwRxhoJJ3kne48ZKkrZNWmk5bf+1ZMmkcLhzt9vlFBc1tDHWTU75trIrnU7om3+WxXbrahFhbZsWOEkvdO9IpwkvdO9IoL8Nb3I8ymDW9yPMsdryd270igkl7t3pFBkw1vcjzKNm2OwbuRYzhJe7d6RUwkl7t/pFBlZoo6iF0UzQ+NwsQUoIRSUkUAdrCMWBPOsXw0o3Pf6RURPN3b/AEigy7mltSyaPY7Yx47pt/aDtH71egrAwTSmVgc95GsOPwrNhyCsFEbwpAVMN4Qe+dSZ8y4/49ntkXvS8E6kz5lx/wAez2yL3tSAiIqCIiAtD06/RPmHxUfSsW+LQ9Ov0T5h8VH0rEHzql7Y/nKkU8vbHc5UiAq0MD5drRYcpVFZzDmQuMLZ5XRQkDWe1muR4bXF/OgxctLJG2+wgb7K3Wx10dNHNq0dQ+ojt8t8XBm/Ja5WvygCRwG4E2QT0lPJVVUVPA0vmleI2NHG4mwHnK98xvKejTRbHRYZnmlxTHswVEImnZSyGOOAHZsAc3ZcG1ySbXsAQufhsOxbLkvLGN59zLTYXhbZKipeBryyuJbDGNms48TR9wG1Bu2mPR7guCZfwXNuTKqefLuLHUbHObvhfYkC++x1XAg7QWnadi1DRhk2qz1nGiwem1mQuPCVUwHaYW/Kdz8Q8JC9A084/hdFg2A6Ocszdd0eBbaqpbt4WosQQLchc8m3G63EshjDm6HdE7cGhc2PO2Z4hJWkHs6OlO5ngJuRzlx/VCCw6oTI+Vcq4VlyuyjDI2DEHTEyGpdM2RrQzVIvznaFjoavIn81hikbhf8AKH8nOYY+Ak/lH+UuFuHiT5HAaltl/Ba6zWnIAaH9FNiP+gPRRLwlAtc2AVwKV9rkgeBQogDNt5Ni3LCKDBpstYrPV1r2V0fAcG0UxdqXeQbHWF7i3FsQaQ9hY6zhYqMHbo/7w9quK4DVaeO6toe3M/vD2oN8vtPOtj0dG+fcv+WRfxtWrh20862XRwfj7l/yyLpGqXlS8rvVcB58/T/HPK6jp5F34uAs+fp/jvldR08iqsUFbYi97IQI3FpJ2kK4CyOW6OHEM04JSVLQ+CasYx7TuIJ2hBps0kxFnTSOHITsWTy+yCp121lRJTss9wfHBwpLhawtcWHhWxaYMLpMKzQYKGJsURjvZosN60F0hMBiBczsr6zTY8yDZMKjp6iOc1tTJTlkRdGYqbhQ9/Ido1R4VNQsppsOrJampfBUxRh0MbKbhGyu4w51xq/5rW5pTJCyNrns1eNrt+xKiUzalnPYG7w12w86DZ44aR2EVNQ+pkZWRvaI4BTazJGki5Ml+xI5LI+GkGDMqW1T+vjNqOpjTEM1O6El9p3bLLW5qh0ksbwXtDTtYHbHbeNHTuNU2bWk1R/R62zcoNkqIaZmGUdRFUufUyPc2aB1NqtjAvYtffsr8yV8dNDS0MlLUOmkmjLpo30/BiN3I11zrDw7FrYnd11wus8tt2su2DYpopnMqHylz3h25jnbG7eJUbHikVNTS04pKh9Q2SFr3mSn4Ised7QNY3HhVbEaWjp8Vip6StfUUzgwumfRmNzCSQ7sNY61ht3i+5arTzOikkc50kmtu1nfJ5kp5XRRytMkj3P3Oc7a3YoNkxGGGCtnhpKl1RCxw1JjCYXHYD8m5ttWPmmq4wS2rmv4XK3wl5DHRuc95vrF7jcr1qvwHDxoMgxVtLGK50j3Omt2RtIRv5gqNQoZXTUcMjvlPYHG3LZXI3hWOFn/AIdTeLb7FeA7kHvvUlfMuYPHx+2Re+LwLqSfmbMHj4/bIvfVICIioIiIC0PTt9E+YfFR9Kxb4tD07fRNmHxUfSsQfOqXtjucqRTy9sdzlSICuaeqMTdVw1m8XgVsiC9lrbttG0g8pVkiILnDqcVmIU1M6VkImlbGZJDZrLkDWPgF7rrz8nMKy5kN2WtH+cct4ZVVWzEMWqKxhnn2W7DVPY32gdyN20krjpRQesZj0dtyHRwZkps25bxiahqoZG0dNPrvedcHdfaNm3wLO1XVIYzVSulqcr5alkdvdJBI4+cuXhSgg6i0s6UmDRjl8UdNgFVUY3QSMqoWkSGhLo2/IaDdhGsd/IuXiljbdsUEEzHFjg5u8K6FWLbWm/gVmiCpNKZXXOwDcFCLtrOcKRTR9sbzhBuYdtK2bRsfj7gHlkXSNWqNdtW06MjfP+AX78i6Rql5UvK774lwDn39P8c8rqOnkXfy4Az6fj/jvldR08iqsUCrvB8RbhOO4ZiD2l7KWpZM5rd5AO2ysgVCRgkaQUF9pLx+DMmYDWUrXCIMDBrC19vItQNM6+8LKVNJZhfr7rG1vCpNVBjetncoUet3+BZHVUdVBjutn8oUetX+BZENUQ1BjRSv5QputX8oWSDVENQY3rR/KFEUcnKFkrKYBBQoIDDraxG225b9U5spjos/J5zZRUsc62y7SC7Wvfi3rS2DsgOUgK8kohI0tMhAPIEFzhnzfTeLb7FeA7lbwtEcbGN+S0Bo/cqoKD3/AKkj5mzD4+P2yL35eA9SR8z5h8fH7ZF78pAREVBERAWhad/omzD4qPpWLfVoWnf6Jsw+Kj6ViD51y9sdzlSKeXtjucqRARFFBBFGyIJonBkjXOaHNBuWnjVzX1EU8rnRxatwLHk2DZZWaILmgmjp6pskrNdo4uTwqlO9r5CWtDR7VTRBkopoBhEkRkIlLr6tt/8AuyxqioICKKWQQU0fbG84ULKaP5becINoadpW16LzfSBgHlkXSNWoA7Stt0Wn/mDgHlkXSNUvKz65X0AXz+z8fj/jvllR0719AV8/c/n4/wCO+WVHTvVaYkFTAqmCpgUCcF0L2gXcRsHhVi1wcAW7QVkFZ1LGQtkmJIaTd3GAeVBbzTti3tceW3EqrCHNDmm4IuCpHxNkG0nbyKqxoa0NGwAWAQRCiERBMAoqAUUFOWQRtuQT4AowStljD2Xtusd4KjIwPFjf9yp/m6aMAmzb25SSUFzE688bBtcTe3gG8rLgqwpIBE58hvrusNvEBxf+1eAoKoKnBVEFTgoOg+pH+Z8xePj9si9/XP8A1I3zRmLx8ftkXQCAiIgIiIC0LTv9EuYvFR9Kxb6tC07/AES5i8VH0rEHzrl7Y7nKjAAZACoS9sdzlTU/bQgudRvcjzKOo3Z2Ldqit00cY9hWEz1tFjtPAaDEuCinqX0bal8MTXEvDWkgjWB3t2ggHiVGlcGO5HmTUHcjzLboK7LMWI4u11JUPw7rouoDqDheBcSwh23YQw6439k0Kjj82Wpabg8Gp5oJw4O4V5kcCLuuNvFbVtsve+1Bq+o3uR5k4NvcjzKo8AHsXaw5bWUqCXUb3I8yaje5HmUygghqN7keZREYIJDBYb9m5RG9egZQkwODK1fh1dmcUM+PNEU7BROkZSthfrsMrrX7M9xuG/kQefaje5HmTUHcjzLaMKmy2cCZS4g2obiDpXympERLWjVLGs2HWtuedngVXFajK8lHOKCCSOZrHsh7GQEkPfqOJJtexZrX4tg2oNS1G9y3zKZrG3HYt8yjsuohBftctv0VG+kLAfK4ukatKa5bjondfSHgPlcXSNWfXKz65X0GXz7z/wDp9jnllR08i+gi+fWkE/H7HPK6jp5FWmIBUwKpAqYFBVBQ7RY7QpAVMCgs+tnwutB2UJ/UJ2s5vB4FOGSdwfOFdKN0FqGSdwfOFaT0dVJK50dRJG0/qi2z/NZRxsDbesc6Wck2lI8AAQT0lPPE1wle+Yk3BcRs/wA1cakv1Z84VrS1E/XbGPeXtdcG4GzwrLBBZ8HL9WfOFUpKQtkE1QQ6YfJA+Szm8PhVyo3QVApgVTBUwKCoCpgVSBUwKDojqRfmjMfj4/bIugVz91InzRmPx8ftkXQKAiIgIiIC0LTx9EuYvFR9Kxb6tC08fRJmLxUfSsQfOuXtjucqMJDZASbBQk7Y/nKkQX3CM7oJwjO6CsUQX3CN7oJwre6CsUQX3Cs7oJwrO6CsUQXvCs7oJwrO6CskQXvCs7oKPCt7sKxUUF7wre6CiHjlCsgpwUyLsOHKpg4K1a5VGuQXjXLctEhvpDwLyuHpGrR2uW6aITfSJgXlcPSMUvKnrlfQ5fPfSEfj9jnldT08i+hC+emkQ/H3HPLKnp3qqwnCtDtW+1VmlWIhZw4l/Wtb9yuQ5BXBUwKohymDkFYFRBVEOUwKCqCpTFG43LGk8ygXWF1YnESP6E+kgyDI2MN2saD4AqoKx1NX8NMI3RFhIuDe6vdZBUuprqlrJrIKwKiCqQco6yCo+QMaXONgFCGZsoBYbhUZmiSMsduKkpIWU7Gsj+SEHS/Ugm+EZk8fH7ZF0Gueuo++Z8yePi9si6FQEREBERAWs6TMAqc0ZFxfBqCSKOqqogI3Skhtw4Osbbr2tdbMiDimXqZc3kucHUJub2FUPdVE9TPnP6qlPNVMXbiImHEDuppzoDsp6c+EVUah8GrOve0HrUf3ruBFMGL9cQfBqzp3tD61H96fBqzp3tD61H967fRMGL9cQfBqzr3tB61H96fBqzr3tB61H967fRMGL9cQfBqzr3vB61H96iOppzp3vAP/ACo128iYMX64g+DVnXveD1qP71EdTTnQnbBAP/KjXbyJgxfriMdTRnIk3ipx4eumKPwaM5fVU3rTF22iYMfrigdTNnHZtoxz1LfuUw6mXOP1tB6yPdXaqKq4sHUz5xH9LQesj3VtGjjQBmbA85YViOIzUbaSnnZLKWzazrNcHWAA3kgD966rRCzIuWs8dT3mPFM14lX4bW4e+lqaiSaMvmdG4B7y/VcNQi4JIuCupUQcffBuzgP+6wz1x34SfBvzj31hnrbvwl2CiJhx98G/OXfeGetu/DUR1OGcu+8M9bd+GuwEQw5A+DjnLvvDPW3fhp8HLOXfeG+tu/DXX6IYcg/Byzj33hvrbvw1T+DZm3vnDfXHfhrsJEHH7OpszY14cKrDQRuPXbvw1V+Dnm/vzDvW3fhrrtFDH65GHU55t78w31t34au4upszK4XfjGGMPJwsh/8AwurkTBhyp8GvMf8AbeGenL7ij8GvMf8AbeG+nL7i6qRVXKvwbMxceN4b/iS+4ojqbMw/21h3+JL7i6pRB5toS0dT6PcJxCGsrIqmorJWuIhB1GBoNtp2knWJOzkXpKIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg//2Q==</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>data\product_images\4-Inch Touch Screen_20251120_200515.png</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,18 +624,14 @@
         <v>600</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAcCAwQFBggB/8QAVxAAAQMCAgMHDwcIBgkFAAAAAQACAwQRBSEGEjEHExdBUWHSCCI3VVZxdIGRkpOUsbLRFDJSU3KhwRUjM0JDRnPhFiQlNTZjGDREYmSCosLwJkWEo6T/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAlEQEBAAICAgMAAgIDAAAAAAAAAQIRAxIhMRNBUSJhBDKh4fD/2gAMAwEAAhEDEQA/APVKIiAiIgIiICKzWVVPRUz6ismjggjF3ySODWtHOSuOm3V9CIXlr9IaUuBt1jXu9jUHbouE4XdBu38PopOivnC7oN2/h9DJ0UHeIuD4XdBu6CH0UnRThd0G7fw+ik6KDvEXB8LugvdBD6KTopwu6C90EPopOig7xFwfC9oL3QQ+ik6KcL2gvdBD6KTooO8RcHwvaC90EHopOinC9oL3QQeik6KDvEXB8L2gvdBB6KTopwvaCd0MHopOig7xFwXC9oJ3Qweik6KcL+gndDT+ik6KDvUXBcL2gndDT+jk6K+8L2gndDT+jk6KDvEXB8L2gndDT+jk6KcL2gndDT+jk6KDvEXCcLugvdDT+jk6KcLugvdDT+jk6KDu0XCcLmgvdDT+jk6KcLmgvdDTejk6KDu0XCcLmgvdDTejk6K+8LegvdDTejk6KDukXC8LegvdDTeY/opwtaDd0NN5j+ig7pFww3WdBj+8VL5j+iqhur6Dn94qTzX9FB26LRYBpdgGkMhjwbFqSrkAuY45Out9k5reoCIiAiIgIiICIiAiIgIiIPM/VL6QVVTpPBgTZHNoaWFsz4wcnyOvmeWwtbxqGr7FJHVD9lGt8Gg91RsdihKq/OvlzyqQsO3NnVlPDKMUa3fGB1t4va4v9JbSm3HpJmOd+WmCx2fJj0lXvit1qKblDdS1T7jzZJhHJpBHE4nLWpDY+PXWx4B5iP8AEMXqh6StPKtuvCE/Gmd9qmvgGm7oYvVD0k4Bp+6GH1R3SU6RtCiBTVwDT90MPqjukr8W4BO8gf0jgH/w3dNQlB3jRTo/qe6lv7xwepu6atHcAqQf8RQepu6aCD75opu4Aanuip/U3dNOAGq7oqf1N3TQQib8qtjX3zb1tlOXADVd0VN6m7pr5wAVfdHS+pu6aCEs+Upnyqbx1P8AVn946X1N/TVQ6n2s7pKX1N/TQQdnypmpy/0e6zujpfU3dNff9Hqs7o6X1N3TTYg3PlS+anE9T5Wd0dL6m7pqk9T/AFY/eOl9Td002IQJK+XPKptO4DV90VN6m7pr5wA1Y/eKm9Td00EJknlS/OptG4BWH94ab1R3TVwdT1Wkf4ipvU3dNBBpJ50ueVTk/qe6xjbnSSl9Td01g1W4ZU0w67SGlJOxopXX95BDa+3UrO3G6gf+9werO6S4fTTRp+i+KxUUlUypL4RNrtYWWuSLWJPIp0baajq56CshrKKZ8FVC4PjlYbOaRzr3DoZiz8c0UwnE5QBJVUzJHgDLWIzt47rwu7Yvam5L2NtHfA2IOtRERAiIgIiICIiAiIgIiIPJXVD9lGt8Gg91Rqdh7xUk9UR2Ua3waD3VGh2eIqEvSGjQH5LpP4TPdC7HCY9aN+V8wuP0Z/uqj/gs90Lu9HnHeJWmIyMLhcAG4yXHXTPTX4hSNJOS+Ydis1GRFPrSwbAf1m97lHMtxiVI5sZkYHGPj1hYhaJ0W+O1Wi5PEFpx8lx8VTPCZR1NPPHPG2SJwcw7CFfC5emhnopNaORrSdrDmD31vKKtZMdV3WScbT+HKuqaym45bvH2y3BVwv1XWOxfRYhfHNBSxO2xaRIznCsSMsdit08haQL58SzhZ7QQq60tvbC1U1VmGMci+GMcilDE1ULVkloC+EBBYAKvxR64JvZfQ1qrb1odq7bKLExS5pa4NBB41eFtmStTRulpzqPMUjgOvABI8qste6sgdJEZYHdcwb5HmCDa9jt2ZcqrbpbW1zVLn22K3PFqAHWvc7FXTTxTGVrJA+WF2pIB+q6wNj4iFW+MvaC7byJEViNbdXGx3KvNjsrgapFpkQFlVI9sQz28QSeURN4rrRVtYXEhjjntcpk2W6X66vDSQDrP+4LRTyF7iSSSdpKuON8yVjSyNaFpMGdzWnAC5KgfdyP/AKspfA2++9TdU1bWg5qBd2KqjqtKYHRva4NpWtNjex13pl6MLuuFOxe1dyXsbaO+Bs/FeKScl7W3Jexto74GxUaV1qIiIEREBERAREQEREBERB5I6orso1vg0HuqMycj3ipM6orso1vg0HuqMnfNPeKhL0doy7+y6T+Ez3Qu2wSUthks4jMbDbiXC6NH+y6P+Ez3Quxwn9DJ9r8Fx5OiNy2d7nAGRxBPG4rIa0CNzgBfYMlrYj+cb31soSC0tPGqxNZNPhjXxh0kN7m4N9ostViOHyU+sbGzRrBw4l0dDUAU4Y8G7chzhUynXeXEbV1YWSTTnzm/blIcbMA1ak5fT+K2EeMU7gPz0fnhYuk2DwvoaiphO9PY0uc0DrXfAqPYaWO9yxpvzLXLlknpjOO2+0pDEoHfto/PCyYcXja3rZISeQvCjKGkiJ/Rt81bKkoYnOA3ppJy+as7zS/S847PtIDcXc82aIT3nK+ytkflqMJ5jsXP4bhcLAGRRtuc3OstnVz0uEQjrA6Y7GD2lTMvuxOr+tk1z3Z6oHjVD6mGMkSVULTyF4XHVeIVFe5wlkIZxRsNmhYJpItu9t8izvPPqLTjSCyrpybCqiP/ADj4qp8pb11g5vKFHfyWMj9G3yLJw6ebDajfIS4tsQY9YhpUTnn3E9HdtqABe4t5FdjqI5SDG9rr8huuawzFmVZ3mtYxkp2PHzXd8cSrrKGOnjkfHrx3cLhhtq7c8u+r9pZuI1q+W8pq2CffHMkYI47FxuBfnKwZMchZI8Nkgc2+RMg+K5CWijjppaZoAY94c6wsHAA7fKtTUUFK24bDGTyloWXy6+l+m0hjH4frKf0g+K+nSCn1TeenbziQH8VFNRRwNGUUfmhaqrpIrZRR+aFecv8ASOn9pQxDSGlJOtVQgcm+D781qJdI6Fv+0RE/bCjGekjufzTPNCwZqZnFG3yLT5teop8W/dSZU6U0bRlOzzgtHX6Y07biNxkfxNabqPqinBPzR5F8podUCwUzltLxYxvMQxmsryQ9+9xH9Rp2988ajvTL+9I/4I9rl28cLuMLitN26uLRj/Jb7XKe2zWnPFe1tyTsbaO+BsXig8S9sbkvY20d8DYhXWoiKUCIiAiIgIiICIiAiIg8j9UX2Uq3waH3VGbth7xUmdUX2UqzwaH3VGLvmnvFQl6K0azwykz/AGTPdC7HC3BsTmnaTf7lyGi4thtJf6pnuhdZSZLlykrSZVsmH841Z8TlgRAEg8ayozsVOti3bbdUhG8i4O05hXwGO2E35FhUZ/NDxrKat8PTLJi4/FbBK0523orgcLpGyyda57TvbjcEXGS7vSLWOAVrWaxJjyAz4wuE0aH9cN9u9SZH7K36+cbGNy8V1FNo5IYmO+UV5DgD+lZ8Flx4I6Hr3S1p1fpSMI9izoP0TPsj2K+0Lou3Pjp8oqc08BIL3uvlrkXWsq8ImqJHPfNWAuN+tlYAPuW/2Fo5AqnHJZy6a5TfiuHdhr4KiRoklkz/AGjgSObIKplHK97WsYXOJyAW3qKV1TiEoZsBuXHYBfjVw6lPGYqW+eT5TtdzDkC4ubH+dtdHFf4xqJ8PmgfqSNAJzGdwe8V8fS3GTbFbeNxY0wzsL4vonItPKORY1VS7yzfGHfInZB/JzHkKyuP3Gu2sNE7iH3rfYXI6eldBUddKwZE/rN5FoZXv1rBXsMlfFXQvvsNj3kwy65Iym4+19NvbnNZfIaw7y1H9G32L3VlY25vYTs48/orrMTjDZGkD5pI8SsvZk6w2ag2cgK7uDDWVcv8AkZeI5p2jrwwuFZWWAJ/Ts2D/AJVZ/IJd/t1Z57eiunmiLIn5bWEeJURMzOXGu3GOLK3TQwaG1FUzWjrKm17XMoH/AGrnMc0ckoMRiidUVEhDrOa6TWacgRsAUy0wbDCxgtkFxulMYfizXDjePdCymduX9N+kmP8AaHKqjOsbDjVump261jt5ltcSYSTck5rEpGXcF583a9G+m3pKC8DXNZHYjjeL+xRfuoRmLSGFrg0E0zTkQf1ncimqgiHyKPLi/FQ9uxN1NKKYf8G0/wDW9dmWMmErlxytycIV7Z3Jexto74GxeJuRe2NyTsbaO+BsWbWuuRERAiIgIiICIiAiIgIiIPI/VGdlGs8Gh91Rl8FJnVG9lGs8Gh91RlfLxKEpPwrGcVgpYRFWTaoY0AODXAZLf0OlOOa7Wh8D7m3XxAexc/hUZdSw5ZajfYt3S05uCq9dm9OrpMZxh1THGBC65JzfYHabfN/8st/TV+KG2+Q0gH23H8FytPrNLTchw4wtnA95aSZH+cVacWX1VLyY/cd9gk8slPecxA3sAwn77rbNI4lHNO8kZPd5xVclTMwdZK8eNazh/ayvN+R2ukTi3A61zXOa4R3BabEZhcXo3UVklWWVU8sjDC9w1zcHreVa6sxXEY2P1KqUtAzBFx41l6LYlU1dUGTGMsEMlg2MNt1p2WVpJjZNqZW5S3SR2Ab1GR9EK40WCop2E08bhnkqZpxFqh9xrHVGXHa/4K9/FZ481sD89ypcCqRJrMZI3MEWPfVRddZRtWvjc41NTGT1mq51udVENigb1oL5BckjYOZW4v8AXan7Dlca5kkTWPcGObscdhHIVzcv+1bcf+sXJWsmqZYy0EuN2uG0G3sWJK4xUbdTLXLmuy2jJZAMcALmva+S1hq7BzrErXWoYvtu/BZWrxp5ePJIG/nGW5Qvj3XKu0DDJUxtHLdYSbq7cYhmB9kFUMaTrNBPF7F8r3jXePoiyuREFrjc3u0599enw3zXHzz0s1VxA8k/q2Xyjj1pL8QzVGP1DaOhdIQTZuQ5cwB7Vm4NaamZKwfPFzzcy6bdY7cs1ll1XrEcZXOY63+txE/S/wC1dXKwtBJbccy5XSZzYZI3k9brXufsqkvprZraKcReMxfjWNQm7xktXpFXNbNFG2VsbZn3MnGMvxVGB1r3yhr8wDbWvtXnYZy53GPQzlxk3L/7/rykzDx/UosuI+1Qzu2DV0sph/wTPfepko52soaYcb25ecVDG7S/W0rpnHjo2e+9duWXjTmwx87cEvbW5L2NtHfA2LxJde2tyTsbaO+BsWTWuuREUoEREBERAREQEREBERB5F6o7spVfg0PuqMTs8Sk7qj+yjV+DQ+6owJy8ShKaMDgBoac2/Zt9i3kMAyyWBgQaaCl/hM90LPlxWhpGuMsvzcjqgFYdrvw06xltY7kCuNa61sljQRzzQCeSpqWttcBgjAI2gnbY25StphsIq2NNOXTDlAufGtMc8r6Z5YSe1WFStpnvEzHSMIytnY3VyIPfa5NzlmtpBhMuRLGs+0fwCzosOYxoD2iTrgbEWAXRLlrwx6478+nPVUdqaaJvX64sTfIEXVnCNbC5GPlFg5jmAga20LqTh0OrqxQhnKQSFUMGhlLXVIa7V2ZLPH5LjMstbTnjh2uOO9K6PHw5rWtldyfoj8V8xOrdWGDVqC10T9e29mzsrWOaqiocNaBaJ3mq+2moB81jx/yqPnz/AGI+DD15bfCKi8Yie7J/zTz/AM0rKqSB7mOdYj/Lv+K1U+JYThELX19WKeJztVpkIYCdtlnUWK4PjjGCCqgqPova64NtoSZ5a8LXCemKK2SOodKHAkj6Nsu8q3Yu4EAiK52dYM1sZaCjja4vpQPGLLTPpbvDi2gBbe2Tja6wz7W7taYySajK/KUtr6sXmNWNWVz5mta4tAByDQAqTA+2XyDzSgpJpD1jKJ3ea5U1lftbf9MQuuSBxLdYbB8kgdPKLOIyCUeGRUzzUVIj3wgWaxuw8yu1U8bgHPa7UbkGhpKvOPr/ACqN78NVW1QBLb9cTcpFi2qwAy//AFH4rW4jjOj1G18tdUNhaLkueHAADnstb/TbQYBl8Woeuzbd5z+5W47ljuzSvJjjlqVsNJaufEMOlghnYHGxGtEeIg8vMr2CYhUUGHs1pXGMWJDW6waR4+NY0ekGikxIZVUziOK5H4K9FjmjcJJjqqdt9tn7Ve8udvmxScGM8yVnu0j39oYHyaxJPWx8vj2BcxppistTSuipZHCaMGzgy51rc+S3ceMYJVOMNPPHI5wvqRbSPEFiVNDhMkZa2CRl+NrDdPlutbn/ACn4Z+V5jxSvqqPEKgVMTpZC4gCSK2oeM2AsD3ln6KVzmAfm5Ggm5J2KUdJ9zugxiobNFi2IUwtYsEDXg8/EsSPc8oIANStqQ4ZXENvuWU+PDLcu1scOXr0+mXQ4jvtPThgLTG0guvtzuo13WZN80jpSeKjaP+t6kd2GRYWGsFW+U8TXxFv37FGG6ib6QU5Fv9Vb7z1bHPtk0uHXFyN9i9ubknY10d8DYvEN9i9vbknY10d8DYtVK65ERSgREQEREBERAREQEREHkXqkeyjVeDQ+6ouPzfEpQ6pHso1XgsPuqLlCUxYPXNjoae97CNvsCwa2pp3VFdvMTADFtYBkSM9i46FtVVTwwsjlc0tGZcSG+U2XSU+iuIVr2w4dTySOJ66QaoAvtuQ4j71TLHGe6mZX6SY3F6Gl0ZhdLKxhfCOtJFxsGxZp0yhp5oYqWAVEMznmN0b7XsdljYce261GCbnI3tjsZqnO1bHe2G9ss8zxcy7bC8Jw7DwBh9HHrjLfLXPnH8FSZY4eIvZlkt4XX4nU08ZFPnYAukba/OTs8i3VPI+wExY6S+yMHJVMhc/OV5+yMgsyGNsbBqsG3IAKflyvrwp0k9qY2O2luoPKVesBsGauNgm1b6rvLmrTySHBtg5u24S2/aFmP5g7yqurcd97bfbZfbrNKzX0NJiLI466miqI2kuDZG6wB2XSgwbDKJ+tSYfTQkm51GAZ8qvXzHj/AAV1rlaVFjY08rmjVaQWgZAq65zHfOjz5j8ViQfMueNXr860lQqO9jZGfKFQ+VwPW6rPHcoTcZGx5VhSUcjn3FbOB9GzSPYq5ZWekyfrJ1STfWuTxnNaLFcZo8PfJ8qjnJjPXWjvlxHbsPKt5GwsaAXud37LAxvC24hD1uq2dos1x2EcbTzKJq/7IyuUn8UG6WVNbjEVRSvxSgZROL2xN+Qyb41hJsCQ6xNitPhe5PUYi+N9Lj2Hg2a6z4JBbkupKrNzaunqJHw1dHFG43awhx1ea62tLoTiMAiMdXTMkjtZ7dYHZZdnDeOSy1yck5rZZNuIxfcex3Fafe58XwlhDw8akMtuPl761I3BMWvnjmGehkU8YZSYjFG2KukppY9hLC4OHJZZTsPJdcVdWByGS4+8KmeVx8YTbbDHtN5+ERaA7k+J6KaQDEpMQoquPeJIiyJr2OBdq2OeXEu/mD4nasjXMPOLLqY2arQLk24yqJmNe0te0ObyEXWXLhMvP2248uvhxz3daFiSuXSVuEQyC8LjE7mzHkXPV+HVlOCTHvjB+tHn921ctxsdMsrmNKJetg+2fdChfdIfr45Af+GaP+pylrSeQlsI/wB8+wKHt0A3xmHwdvvOV+L2ryenN8i9v7knY10c8DYvD19i9w7kfY10c8DYulhXXIiKUCIiAiIgIiICIiAiIg8idUn2UanwWH3VFbjZpPICpS6pXso1PgsPuqKnn827vFQl6Z0X0Pwmnwujqalm/PfDG874etBLQdnjXX05axgjooQ1g2WGq0LC0ap2OwbD3PJe4U0WZ+wFvWADYLLktt9t5qLcVNrZzu1zycQ8Sy26rG8QAWMZhrasY138dtg75VTWXOtKdYjYOIeJQVfbIX/MyH0iPYFlxOLGMc0m7TtKwi8NBc4gAbSVVDMTnYgch41MulLG035m9F7g08xbx9/b41rMRxAQsfK9zb24+TnVivxCnpWOdIcwLnmXHV9bJiD3BzS2InZxnvqM+TSJG4ZpA4NAJpcv98/FVf0gPLS+efiufjpYsrtV4UkJ/UCy+TJOo3f9IDe96Xz/AOaqbpAeWl9J/NaT5FD9Wqm0cX0E+TI1HW/lMsoYZ3vcGyAfo8xcqn8q3AO+T5i+xYDmj8jUbOIBg9qqEDi1pDSRYK3a1OtM78qG2Us3kVcda9zS8zSBjeXJYG8Ot8wq9JHdsEYyv7bqN1aeWV+U7D9JL4mhUyYi62s2WUjmH4LLjw6B0Gx+ed+NayeBsc5YwktsTnzX+CnLtPacdVV+VnD9rMvhxhw/azrCewAkchVBYFl3v60mMZxxpw/a1HkVBx1w/bVHkWC6MK06IJ8mX6nrPxsDpAR+2qfJ/NW3aRf5tT5P5rWPiHIFjSRcyj5Mv1PWfjaS6TNZtlqvN/msdmlccj9VktXe9vm/zWnqIrjYrOGU43/WI2OJ+9TM7+p6x80/kD/kTnG8ji8m+0iw2qDdPSDjMVvqB7zlOOmzA99IeRr/AGhQdugM1MaiH+QPecurgu6w5ZqObvkF7i3I+xro54GxeGxxL3JuR9jTRzwNi6nPXXIiKUCIiAiIgIiICIiAiIg8g9UvluoVHgsPuqKHnrHd4qVuqay3UJvBIfYomeesd3ioS9f6O1DY8EoNY9caaKzRmT1gW2aJJs5PzbD+qDme+Vp9GHRjBqE9brfJos75/MC3Ilb9JvlC426+wNY0NaAByBfJJWxgXuSdgG0rGkqmtOqwtc/v5DvpG9jSXOka552uJH/lkGQ0Fzg+WxI2NGxvxKw8SxJlK14DrEbXcnN31h4tjEdNG5rHgEbXA7OYc65SardUv1nkBo2Nvs/mqZXXpGts2pq31UoL7ho2NPF/NfWPtsCxmSRgDZ5VW2ZvEQqTC3zRlseb7FksOS17ZQeNXxPZWmCGYJAqt85isL5QRsT5QSVbpEOivfDaUfZ/FVLFjlDsOpM+Jv4q6H7Flk1kXslWH6zA0mxbsKxtfJfNdU2vpsflNU3IPf8AcrL5CC50jtZ7hZYxkPOrbn5pcqmRcLr5naqS5Wi/vqkvULaXSVQ4q2XqkyKEvrlZeFUXq25yJWJm5FU0bA255T+KrlNwVTASANu1INbpgeupvsv9oUHbop/tuHwce85TRphLnTbfmv8AaFCm6A7WxiE/5A95y7uD6c3M5oHYvcu5H2NNHPA2LwyOJe5tyPsaaOeBsXU5665ERSgREQEREBERAREQEREHkTqoIns3Sy9zSGyUcRaeXaPwUQFe1N2Lc0g0+w+CSnmbS4tSgiGV4u17TtY62dr5g8S891W4bpzDKWswyGZo2PjqWWPlIRKL7L4pK4E9O+0o9Zi6ScCennaUesxdJQI0QqSuBLTztKPWYukh3EtPO0o9Zi6SCNeVLm6krgS087Sj1mLpJwJaedpR6zF0kEa3OWZ8qqDnfSPlUkcCWnnaUesxdJBuJ6edpR6zF0kEb67vpO8qq3x/03eUqRuBPTztIPWYuknApp52kHrMXSQRzvj/AKb/ADim+SfTf5xUi8CunnaP/wDTF0l84FtPO0Z9Yi6SCO99k+sk84r6JpfrZPPKkM7i+nnaM+sR9JU8DGnfaJ3p4+kmhH2/zZfnpfPKb/N9dL55+KkDgZ077RP9NH0k4GtOu0Mnpo+kmhH+/wA310vnn4pv8310vnn4qQOBvTrtDJ6aP4r5wN6ddoZPSx/FNDgN+m+ul88/FN+mv+ll88rv+BzTrtDL6VnxTgc06v8A3DL6VnxQcAZpvrZfPPxVO/TfWy+efipBO45p1l/YMvpWfFfOBzTrtDL6VnxQR+ZpvrZfPPxX3fpfrZfPK7/gc06t/cMvpWfFOBzTrtDL6VnxQR+ZpfrZfPK+iaX62Xzyu+4HNOu0MvpWfFfeBzTrtDL6VnxQcBv0tx+dk88oXOdYuJJ5zdd/wOadX/uGX0rPivrdxzTrtDJ6VnxQcC0r3ZuVQvg3OdHY5WlrxRRmx5xf8VAmge4FjVVicM+lm90OHxuDnwskD5Zbfq5ZNHOvUUEMdPBHDCwMijaGMaNjQBYAKUK0REBERAREQEREBERAREQEREBERAREQEREBERAREQERECyWRECyWRECyWRECyWRECyWRECyWRECyWRECyWREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/Z</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>data\product_images\8-Inch Touch Screen_20251120_201451.png</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -672,18 +644,14 @@
         <v>130</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAwQGBwIICf/EAD8QAAICAQIEAwMJBQgCAwAAAAABAgMEBREGEiExE0FRImFxBxQyQoGRocHwCCNisdEVJDNDUnKS4YKiJTRT/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAeEQEBAAICAwEBAAAAAAAAAAAAAQIRITESQVEDYf/aAAwDAQACEQMRAD8A+qQAAAAAAAAAAAAAAAAAAAMHVNWw9L8D57cq3fYq61s25NvbsviOhnFJPb4lSN13VcbRtIy9TzpcuPjVuctu79Eve3sl72iUaF8r2rX5lmDwhpD5s3UpRlkbP6NO/SL9OZp7/wAMZepuOFi4vCnDFWPTt4eNXsn2dk33b+L6ml/JNpeTqebqHGGsw/vufNqiL6+HDt09ySUF7k/U23K/+a16GKuuHhvnt9JT9Py+8n8Vm8M4c6MOWRk9crKfiTb7rfsiYANIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAs52VVhYluTkSUKqo80mc64ZhfxjxTZrWYpLTsOW1EH2lLyXwXd+/YmvlXldDhKc6KZ3RjdDxIw3+h1TfT7CP4B4x0ieLh6TXRZh2/QhGXtKcn3e/q2csrvKStTpv835HJflAybuMOMsLhHTptYmLNX51keymluk/9sXv/ulH0N3434ir4a4dytRmlK//AA8et/5lsvor4eb9yZBfJFw9Zpmiz1PPcrNT1Ju6yyf0uVvdb++Tbk/ivQ3/AFltGp31aHosKsSChyxVOPWvLpsvuRf4e0/+z9PjGfW+z27X/E/L7CNxF/bOvyyH1w8N8tfpKfr+f3GyifVAAaQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZo+v16dgatbqtWFRD5hW3KUIpO+5reMfTp3b9djd5PlTbOT8XaTlX8TYWl0ZNixc5ZF1zS+j7XVt790p7J9PIzksa5wzXqXHnEOnV6xC1afhRnl2xmmlN2Tb3T7PfpBbeSkde4hzJY+HDGxl/ecl+HXGPkvP+he0ymnDw6qaYqrForUIR8oQiuhh6FB6nqd2q2p+FD93jp+S9f16sk+CY0nChp+BVjw2bit5P1l5szADaB4snytJdz2+hRL17kotqx+ZVW+qPfKn5I8yrXl0Juj0pp+ZUtODRj4uUrM+/Hj2rhGTfvbZZRmgAoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABScuVe8CxlWqK2XfyNTsx9Su4prlC6UNMhQ5TjsmrLHLbZeafm36bIm8izxb/AGH02239PU9SsrxqLMm3pXCO/wBnocrzVR2uWWWfN9KxX+/yWud/6Y/r8EbFh48MTFqoqW0K48q/qQnC+NO6V2q5S/fZD/dp/Vh+v5Gwm8YUAD6I0ij6sqUXYqZAsX188lKNllcl0Ti+n2rsy+UIMSzJnjRbykvD/wD1iun2ryI7h2c7czNulDaE+X2vV9fyaK8T5vgY8aYP2pPd/BHngXDswuF8KGQtr7E7rF75ty/MTtU8ADaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYeo5UMTEvyrY2SrprlY41wc5ySW7UYrq306JdzJtkoxe72Xma3xPl5On4ssyqt5NO8I+FCPOpJySlv1XL07MzlVjnPyHatrXGeXr/EWqq7G063KnVjYr6Jbbezt/Als35ylI6Hqu+p6rTpNLfhQfiZEl5L0/XqYuNqn9l0WSnkxvhY5zrrb3lW+6Tfd+9vr3JnhXAnjYUsnJ3eXlPxLG+6Xkvz+0k5E1CEa4RhBKMYrZJeSKgG0Cj6v4FW9kUJRUoVKMgIpZJQi5SeyS3Z6IfiLKVOL4aftWdPsIqDsUtX1mNfXklLeXugv1+JucUoxSitkuiRBcKYnJRZlzXtWvaP+1f1ZPGsYUABUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADey3YMbMvVUG/Ty9WS3QxdSyseEJwyrJVVuO87E9uRerfoaplxvjxBdXODsw50wgqqXsrWnvzd+/ZfnsX9dveovUMCFdmPnRrVFkd1KORXNdUuvRrr18vemYV7ysPSqaFdDmpnGtQcd7ZyS9nt09+/U5qytKwv7T1hVTx4VY2LLnsXKt9/qwb93ob0RvD+nf2bp0Kp9b5e3bL1k+5JHSTSAAb2RRTuwEuhUyAYAFG9k2zUM6UtT1SNVb6Slyp+kfNk9rmV83w5JP25+yvzMHhbF/xMua6y9iHw83+vQndVPVVxqqhXBbQilFL0R6ANoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAW7Z8q6dwIrXOIsPSNQ0zBu555eo3KmqutbuPrOXpFdt/VpGvfKNxRhcM6LTk504qWTkQxqa5f5k5Prv7kk2/d8SA4yyMqri1W1SlDHSxsudjSf+FKaUI7+ra7dOrbNc1fhu35QvlI0PJ1u9S07SptTwKUp1NpKbfNv5vkUt/JbLucrlLdNadE0nEy9TjTqs8u7FhbWpU1KKTrrcV0bfk3vLZ9tz3wzgRztZtznZZdi48tq52Pd2T2+l6dP6GdxHk3Sxa8TGrmrsuXhp8rSS8+v66bk7peFXp+DTjVfRrjs36vzZqRKygAbQKd2VfYovIlFQAQA3sgYOr5XzbEk0/bl0QEBq108/UI01Pfd8kfzZtONTHHx66ofRhFJEBwxi+JdZlzXSPsQ+PmzYxjFoAap8o3H2h/J9o9eo8Q3WxhbZ4VNVMOey2W275Vuuy6ttpfejSNrBzHhb5dOAOIpxrq1yvAyJPZVahF47/5P2f8A2OlY99WRTC7HthbVNbxnCSlFr3NdALgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUnJQi5SaUUt235AY+o5tOBjO6+cIJtQjzPZOTeyX3mm6VrOZq/Emr4+kc1+JgWRrvunNKErWt5Vw6d0tm/TdGt8Za3fq+oNU8nzGptVqW/X+Lb1ff4bLp1I3S9bztI03I0/TJwoot55ezBc0ZS6uSfrv6nny/WbdJjdMX5RPlOi5x0nSqMfEzKc94+RdmShOiMU9uj8ovfr22SOrcM6bpuHhVz0ueNbXfCLdmPNOuS7vkSbSi317s+aLeA45/EtM8rOqq07Iuj85s5ZKcK19LZLfeT2239+59BQv0mF1ctDx8aOBp+Ot5VwcYub9mquPbttu/sNSy8xnVie1PU/B1TTsKuXtW2pz90euy+1/wAicOY6RLJ1HiXDbnKycZqcpSfaMf1+J046YpQApJ7I0h3YKIqZFSnmCqAN7I1XW75ZWaqaur35Ir1bJ/U8hY2JOf1uy+JDcO47vy55U+sa+kf9z/6/mS88LE9hY8cXFrph2gtt/V+bLwBtA+F/2ruMlxL8pFmm4s+bB0SLxY7PpK5ve1/ftH/xPsX5RNcyOHODNV1LAxbszPqpaxcemuVkrLX0guVJtrdpv3Jn5t6rVm1ahetUrvrzJTcrY3wcZuTe7bT677gYhOcN8W6/wzcrNA1jO0977uNFzjGXxj2f2ogz3Ut5ptbpdWB9lfsy/K3r3G+qahoXEzqysjGxllV5kK1XJpSjFxml7L+kmmkvM+hT53/Y14V+YcH6jxJk17ZGq3eFTJr/ACa21uvjNy/4o+iAAAAAAAAAAAAAAAAAAAAAAAAAAAAGpfKBqjx8KODTLazIW82vKH/fb7zbWcV4yys/Vrs67S8mijKlPkpsvrdkIRT26xTXkn9rOf6XU01jOWs6vn5NWu42HjzrjW8O/JnCUd5Wyi1GMU/JLdye3XoYNGdkU63ZixlbkcqjJyknyy3SfT6uz322js1vvvLZm0vDsjTRbkQVk4x5Ff4fKnLb2uX032fTf3eRhyjRXkRhzVQunu4x3SlL12Xd/YefevToi+GnnT0+2WdK9T+cXKp39bFVztR3e3p2e3vOjWVvTdDxcOT/AH1n94u9U39FP4IjOGtOhkZTyspf3PG2nP8Ajl5RRLU12a1rldU/82fNZt5RXf8ADodMJ7Zy+Nk4F035vhTzbY7W5H0d/KC7ff3+42gpCMYQjGCSjFbJLyRg65qmPo2m25uY5qivbmcI8zW727HfqObPPDe7IrTOINN1OKWHnVTnLtBvln/xezJJucfqp/B7P8SWi4ipa8WKe0t4v+JbfiXUQCq6IGPn5Cxsadj8l0+JehA8Q5TtvVMOqj02Xm2Tum4yxMOur6yW8n6vzIDQ6Hl6i77OsanzN+sn2/qbQMfq0ADeybfZGkWrG3PZPbb+ZCapw9g69TPG4l07TdTx9toO6hSf49vimSeRXdbBOm7wZ77t8vMn07P9eRdo8Two+O4O3b2nDt9m5hXDOMv2cuBM795gX5WgXWS2gqrfEqcv9k939ikji/Gn7O3FXD9cbtKtxdbwrbIVqzH3hZBSkkpSrflu1u4t7d+x9r3vHun82u8Ocmubw5dXt16/zFFNcJVU1QjCqpdIxWySXZFlRi8JaJj8N8M6Zo2Gl4GDjwoi9tublWzk/e3u/tJYA0AAAAAAAAAAAAAAAAAAAAAAAAAAAwdbyJY2mX2VyjGzlag5tJcz7bt9O/qc+vuw7eutafPFyGutta5G/f6S+9nQdcxvnmk5dCW8pVvl+K6r8Ucsw9RyMePLXY/D7uuaUo/8X0OebUZWo8K75aliX123qEW67GoWcveKb27eez2RF1cI2Zut4+Rbpajm0xdcMq2vfwovvtLfb17EpfdjZ+ZLJyJ34+TPbmnX7cG/XlfVfYySlqddFWPp8cqWRkXRlOVjjs3FfVW/Xb49+vkY8Yu68506cfHrwsP/AOvT9b/XLzkya4F09xV2fYvp/u6/hv1f3/yIXT8GzUs2FEN1HvOX+mPmdEoqhRTCqqKjXBKMUvJHTGM17IDj6nx+D9Vhtu/Bcvu6k+YWuUrI0bOqf16Jr/1Zq9JHz74VeXgwhfFThOC3T+BM6NrGo6TTGrD1DKVUekYWWOxJem0tzWqc1VUxhOMk47x3a2T2ZS/Vqqq3NuUklvtBcz2777L3HONOm4fyj2YlMpatRVZVCLlKyt8ktkt30fR/gbVw7xVo2vVp6dl+Df05se1ck4trfZxfTf4HzLqOp063SvCrWRpsbVXK+C525uLa5F5pdN2mn16Elo1mVTpuRjSnKyNkt1Y9vE2fST383t2b2ZJlzo1w+qPElD/EXT/VH815GucSZvPYqIPdR6vbzZzvhPizV9NyIV5OS8nBlJQ8CxbutPbZxnvutvR77+43rRqHn6u52LeFcnZL7+i+/wDka3tGyaNifNMCuEltZL2p/FmcAdEC1e+iivPv8C6Y0nzyl32fRNPqSi26peMpxusgt1zQaTTX5F6yarrlOX0Ypt7dehj4GPPGjONmVdkbv2fF23S/X5HvMyqMOtW5E/Dhvtvt7m/yZlXjDysbMXi0NSlFLm3jtKO632f9DJxo+y5vvJ/gWnJTrjKpxkrNmpLz38zLilGKS7LoWAADSAAAAAAAAAAAAAAAAAAAAAAAAAAAGja5wRK2+3I0rIjBzbk6bF7O/ua7G8glmzbjOZgahps3HOxbakvr7bwf/kuhlaTRXl5tV1cZ2ZcK5U1JPptJ9X/NfazrjSaaaTT7pmLj6fh4187sfGpqtn9KUIJNmfFrazommw03EUOkrZdbJer9PgiQANsgAAh9R4c03PhJWY0It+cV+XY5xxh8mePRpWVk4DjU6oSs5odN9l2a9PLodfPF9NeRTOq+EbKprllGS3TXozNxlWV8qy0nKxsLGxtOw7pYOHzRlZVDdStf+JLp12T9lP0iWaMiVctpfS3S2fR7t7JdT6nel4LxYY/zSlUwXLCMYpKK923Y17VeBdNzpKe20l2c0pNfCXdfeZ8bF3txPAyYztcG4qyEkmlLf7vU+geGMZ06e7ZLad0uf37eX695zm75JOXUIzovcKnNSfK/o9d33/SOuwioRUY9Elsi479pVQAbR4ulywe3d9EWorboLZJ27f6SqZmq9d+5SUU1s9mvRrdDcNkFK1vaui2ivIvluhbV7vvLqXDUQABQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABB61i6tHK+daTZTZFxSnj3dN2vNPyI+rieOPYqtZxL8C3tvOPNB/Bo2wt301ZFbrvrhZW+8Zx3TM2LtjYuXRlVqzHthbB/WhLdFyW0nGK+s/wILL4QxPFd2mX3afd61Sbj93/AGSWjaflYnNPOzp5drXKt48sYr4evvJqiUABtAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//2Q==</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Curtains_20251120_201507.png</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -696,7 +664,7 @@
         <v>1250</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -716,18 +684,14 @@
         <v>650</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAUGBAcIAwIBCf/EAEMQAAEDAwICBwUFBwEHBQAAAAEAAgMEBREGIRIxBxNBUWGRoQgiMnGBFCNCYrEVM1KCksHRchYkNEPC4fA1U6Ky0v/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAcEQEBAQEBAAMBAAAAAAAAAAAAARESAgMxQSH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQERfjntb8TgPmcIP1FiSXCnYNnl5xnDBnP15LGkup36qH5F7segQSiKBkuFU/OHtYO5jd/M5WidWdMlTHqK02q0TwT3KR7obhbquJ3CyTiw1jZBjfHdnfn3IOlAc8kVUsFe9hhfNE6nbMB1kLjnq3fP+/aFa0BERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEXnLUQxfvJWN+ZWM+504+Evf2e63/KDNRRT7o8giKEDfm5y8H1VZICes4RnPuM5fqgnF4S1lPFs+ZgIOMA5PkFTLtqWzW3/wBWvVHE7chklQHOPyaCT6KqXPpV09Rxk0bK2uODjqoeraT3cT8fog2pJdoW56tkj/pgeqw5LxUOJEcTGfMl3+FoUdPsIvtHTT2IU9vkkDJ5nVXFLG0nHEGhoBA5kZW3Ku9U0FQIT1kmeToy05G+7W8XG4e67drSNj3IJV1ZVSY45n/Q8P6L5G/PfHfuvONrZWMkjc1zHAOa5pyCDuCCvYN7yoAyV+kL9wAmQqj4Lc8lWLhoDS9x1A2911jo5rqHB/2hwIcXDGHEA4JGBuRnZWrPcvGpYZYJYw8sL2OaHDm3IxlFY3HSde2lbNAJi3LYBIOMtG2zc5wrJaKgywdW85fHtnvHYVyje9Ma9unSFbaS92h0tooD1UFypBv1Dd2ky5BzsNjgj1XRtimfDJRw/aDPUDhZI7mXDtLsfr3hQXBERUEREBERAREQEREBERAREQEREBERARfjiGjLiAPFY8tfSxEh0zcjbDdz6IMlFFyXiMfu4ZHb9uGrwfdZ3AhrY2ePNBNr5e9jBl7mtHeThV19VPJ8c7z4NPCPReD3RxgukLWDmS84/VBYZbhTR5+84iOxoysaS674ihJ8XHH6KiXjXul7Oxzrhe6GPHMNkDj6KgXz2h9J0LnMoG1Nc8drW4b/AOfVBvJ9fVOzuxgztwt39ViySTSfvJZHDngu2VZ6Ota27XOnhc7YOANeY5YicmNw7D81ZiiPhrQDyHzX3y5IPov3YoPCsrGUUPWSte7JwGsGTyJJPYAACSTsMLSXTxdX/YaS9251TLBF9xPA2o4oB2tkBY4sdu4NcM595m263ZXUsdXA6KQua1zXNJa4g4III27CCQq6+x0FhsckdPQNmpAcCjpoGtiY55a10gjz4NJAI/EeZJQaHjphf9CxVumrdJFe3R9YIxB+JrsOAJAByNwSVdrNYr/WWWEXWgtVpq2xMFRJVTsaMkfEAMnfGfnkdiuMkVwf7s9fNG3I4o4SyBruw/CCR9SsZ9DbKdz5JmxSOOOF0g6x31LySfphbRonXfR9UQ132ux1cV4LnjjhoonvdknwBHDjt25j5rbmgpIqWwWIa3pnW+8Uk32C11lSMvDebGtcx2GnPukO54A5HC8NR3aucxrLXVOhILsucwHG2Mju7dvktf3+jknbT/tOskqCZfdBG/Fg4xjfOSs+ljp6ipo6KjgpadpbDCwRsBOcADC9lqOi6TK+ktVPDXUcUtwjbwSytceGQjYPHzGCfHKunRvNW6xtlXX3OqnghZOYI4qYiMOAAJJIGe3Gx7FnVxZpZGRNLpXtY0b5cQB6rwbVwyHFP1lQ7OMQsL/UbeqmqWwWumkMjKON0hweOXMjsjxdlSgAaMAADuCCrRwXOfHU0DYmntqZQ30bkrListU/Bqq5rc82wRY9XElTyJgjI7FQtIdLEahw/FM4v9OXopCKGOFvDFGxg7mtAX2ioIiICIiAiIgIiICIiAiIgIigNU9aBTkOeITxAhpI38fplBMy1UEWesmjaR2FwysOe80sfw9ZISMjhYRn6nC536f77VWnS1wpX26eqpa7q2RSxe6Kdw3JcQDkHfY43xusX2a23V9jqqurlrBRzOyyCcEsaf4mE9/hsg6HkvrjkRQAdxe7PoP8rGkuNXLnMvAPyNx681D1dQaaknnEbpTFG6Tq2DLnYBOB4nC5Uv3tD6nq3SstlNSUDCTwnhL3tHzPaqjrqV+QXTPz2kvdn9VD3XU9ktDOK4XOkgHYHShcPXrpE1ZeSft18rHMP4GP4APJVeWWSZ5fM98jj+JxJPqors6+dOujrbxNhq3VjxtiFuRn5qg3r2lQOIWezZPIOndgfP8A8C54ttruF0l6q20VVWS/wU8TpD5AK9WToW11duFwsr6OJ3462RsOP5SeL0QSN46e9a3AFsFXBRMP/sRgHz/7KiXfV2oLwSbjd62cH8LpSB5DZbpsXs0V0gY++6gpaf8AijpIXSn+p3CPRXyzez3ouhDTXG5XN4OT1s/VtPhhgB9UNcfEkkk7k96nbJpDUV8ewWmyXGrD+T46dxb/AFYx6ruGxaI0vYC02iw26mkHKXqQ+T+p2XeqnpqmKBg66djGjYBzsBBpf2bdC6s0bV3Oa/xRUdBWQtxTGVr5OtDtiQ3IG2e3uW9y/vUJV3ykpKSSqeJXU8eOKVsZ4G55e9y7R29qr9Tr2Akijpy85xl5RF6D89i/S8NaSSAAtX1WsLjMfckbCPyBRFRcaqpdmaokefzOJWemuW26i60MH72qiB8HZ/RV+467sdOIGNqW1Dql3VxCMgiQ77ZGdtjv4LXVSxtTBJFN7zHgtcCeY7Qoy822at+ytoKptubA9zwY4RIQCzhAaDs3A8E6OVrqLw55Ja7DewBVq5aqoIHllRX07X54eDrAXZ7uEbqIOlaKXBudVcbk7tFTVODCf9DOELOpLfQ0H3dvo6amJAHDBE1rj5DJWr8icMWovE00ZfR0s02+MOxF/wDbCwKOW4yVZqLjDTRcA4YY45DJjPxFxwN+Q28VcqHSl+uhBo7TVODhkSSN6tpH+p2FZLf0QXapINxr6WkYebYwZXf2H6rN9eq1JI1ZVS7Fziumeiu2m2aCtET2lsksX2h+e954v0IUFbOh7T1Pg3B9ZcHZyWyycDD4Ybj9VseNjYo2xxtDWNAa1oGAAOxPMv6Wz8fSIi0yIi+JJY4xmR7WD8xwg+0WJJcKducOc8/lbn15Ku3/AFxQWehrquc8NPQyMiqX7vMRfjhy1u/aOSC2oq/p7UtNeaaCqpZ4KijnGY5oScZ7iDyPZ357FYEBERAREQEREBERAREQFg3unNTbZmM+No42/MbrORBr6NwcOeWuHLnkLBul+s9pqYKa53OioppRmKOeURlw8M8gs+8076a41FPG7gHNh7gRt5f2XNfSna+kC9aho7Yywvq7fR4ZT1EcAf1jTjPWSd3YM9iajpNszAWuYeIHBBbuPArn3Uns+S3TVNdWW68UtFa6mV0zInQue+LiOS0AbEA8t+S3BpWCl09p2gt9TOyN8LOERySBzm/l/wC3YpuGaSoP+50NZUDOOJkJDfN2AmjTVo9nXTkAY653S51kg+IR8ELD6OPqr7YuizRVnLTS6epJJGnIkqszuz/OSPRXiC0XufGaempW98svG7ybt6qRg0vK4D7bcpTtu2BgYPM5KKiqaGCjhEdNHFTwj8ETQxo+g2Xwa+mDuFsokf8AwxjjPkFZafTFrhLS+nNQ9v4p3mT0Jx6KWgp4adnDBFHE0djGho9EFMhbX1LQaW21BaRkOmxEPXf0WZFZLrMfvqikpmkfga6Rw88BWtEEBHpmnP8AxVVVz/l4+Bv/AMcfqs+ls1tpTxQUUDXfxFgLvM7qQRBjXKihuNvqKOqZxQTxmN7fAjC5jqqKe03qrtlX+9pHmMk/iH4XfUEH6rqVUrVnR/RahvbLk6qlpperEUojYD1gB2OTyONvLuS/RPtpIOA8V6Q8c7xHCx0kh5NYC4+QW7rf0dadozxPpZKp3fUSFw8hgeitFFQ0lDHwUdNDTs7omBo9Fjlrpoe3aR1BXYMFtlYw7h0+Ih67+itFB0XVshBuFxghG3uwsLz47nA/VbYRa5iapdB0b2KmINQ2orHc/vpMDybhWa3We3W0AUFDTU+O2OMA+fNZj5GMGXua0eJwseSvgb8JdIe5jc+vJMTWUijnXF5J6uAgdhe7/C8n1FS8H70MH5G7+qoll4SVdPH8czAc4wDkqKka1/vSue/G+XuyB/YLBluNvpuPjqqdnAMuAeNkE3Jc4wcRRSP3xnGB6rwNfUv+BkcY+rj/AGWr9QdNGi7KXtfc46iVpxwwkOPpk+i13evaeoYi9tns0s3PhdK4NHh/5hQdIOfPJ+8mkOewe7+ix6h9NSjjqJoYfzSPDf1XGOovaG1ldA9lG+mt0TuyFpc4fU/4WuLtq3UF3e51wu9bNxbEGUhp+gwFR/Q23Xa2XGeWChrqeomjGXsY/LgO/Hd4rVvTH0VXnVtZ9q0xqA2xs/D9sopnvbDM5py2T3ASXDuII7sb55f6KdZXfSWrKWstzairjc7hnpWZf1jDzwB2rvijmFTRwVHVvj62NsnBIMObkA4I7xnCIg9HWI6f09TW+Y075mMaJXQMLWvcGgF2D381crXVddH1bzmRg5n8Q71pjpb6SJtE1lRFNKKWOSjJoOGm601FRtzJ2DWqY6KdX3TUumqa63Kmgjld70U0GzJm7jPDzb2gjkorbqLxo6hlVTMmj+Fw5dx7R5r2VBERAREQEREBERAREQQeodPR3iaGdtXUUk8Y4S6LhIe3OcEOBHPkeaxYdGW4Afa5q2r7xLOWg/RuArMiDAt9nt1uH+40NPAc54mRgEn581noiAiIgIiICIvxzg0ZcQB3lB+osZ1fTNdgSh5/IOL9FjyXJxH3UDifznh/ygkUUQaqqkOONjPBjcnzP+FhXKvpLfEZLvcIaaMDJNVUCMeRIQT8tTDF+8kaD3Z38ljuuEeSGMkf44wPVVyyX+yX01LbDdaG4GnIEwppQ7q85xnHfgqT6tzRlzTjPdsgyn10zvhbGwb5zlx/svMyyvwXzP27jwj0XgDknZfuc+CD94WNOQ0Z5ZO58yq5edeaatAf9vutOzhPCQHZwe3w9VPuDHZDveBGCPBcI9Negrvo3V07Ks1NXbqp7pKOsfl3WNJzwk9j28iPqNig6OvvtC6RoAW0kklW7Jx1YyPnt/la8vPtO1rgRabOwZHxTO4cH5DP6rSFi0Vqa/SNZaLFcqvJxxMp3cA+biMDzWw7B7O2tbiWm4NobXGTv9onD3gd4azP6hQRWpunDWV9LgauCjiOwZTxA4HzdlUK7X27Xh5dc7jV1WTnEspc3PgOQXTenvZitEBa+/3usrCOcdLG2Bv9TuI+gWytP9Euh7C1v2TT1FLIP+bVtNQ/Pfl+QPoEHDdlsF4vkois9sra55PDingc/f6DAWxLB0Ba7uuHT2+C2Rk44q6cMPz4W5d6LtVjaemhEcQZFEPwNAY0fQbL4FSx5IgillO20bCU0c4WL2YY24dqDUbnd8VBT/8AW/8A/K2JYeg7QdpLHOtDq+UDHHXTukB/lGG+i2iKO4zH3YWQt75X7+QWTDZZDg1FUfFsTcZ+pygiLZbbdZqcR2yipKCIDHDTQtiHoAvU1jXEiImRw5iMFx9FOxWeiYQXRda4dspLv12WdHGyNobG1rWjkGjAQUW/aWp9VUbaO92aCtpQ4PDasAcJ7x2g/JZtj0VS2ihjpKGOmoadmAI6aPbHdkq3oqPGjp2UtNHDHnhYMZPb3leyIgIiICIiAiIgIiICIiAiLGrK6CkIEr/fIyGgZJCDJRVXUetrdYbVPca4ujo4XtiklILuB7sYBa3J7R5r4suqqbUdAK2x3CmqaQu4eOEbtI5gh24PzAQW1eUtTBFnrJWNI7Cd1AvMk2euke8dxO3kvnEbBsAD4IJWW7QNJEbZJDt8IwPMrHfdJ3H7uJkY/OS4+WyweLwX009wCD2fU1LwOKZw7fdAavgta48UhLz3vJcvwHIX6G7jiG2UHlc6o0FqrKxlPNUfZ4nS9TCBxv4RnhHiufrn093St449P2aNriPdcGPqHjxxsPRbSutLeXXi2xspq2SnfxCoukFxMBo3F5ILYQcSANA2c07kZyCVpzUnRTdqTW4urL5TW2lnxUNa5z2v4yMSsaxvwt3PLkHY7EEHd9fa9ut1FruF6/Y80sfEIaidtEzgIJyS0DmB2qs3+zxyUs1TNqZl4uAAIjoaeaZvjxTOAAx8jlbVi6MLNVVNDUVr7tXy0o+7bC3qGc+LHFIS475PnsrmzTlDTsYW2u20rti19U99TI3+V5AH0Cmrjmjor1fPo7VoqhLJFSVcbqOqcz4mxuI98eLSA4fXvXWVFYrpJqm4XSnbQQURZE6gqqKol4qhnMiVhJa9paQCTjBALVRLp0b6VuF0kuN36+rnfzjhIgjJ7Dhob+qs18FDSdFl8p6GhY6mtdPE6mhllfK2PDsAcwcYztkhJZTF1uWqdP2x/BW3mgieTtGJRI8/ytyVGUGvrJWX2ltTI7hFLVZEMtTTOhje4fhHFvk9m3PZc42O73a9agtlmhuItVPXVUdO51FCyANDjj8ABPcMntXU+sdE0t20U2z25v2eejaJKCUuJdFK3cHiO+/afHK1YylB+XAC+JMH4sEDfdQ2h6qs1Hp+nqql8UFXG409XHglzJmHheCOQORnHirKyzQ7GeWaU+LsDyCyqOlqImN+9kG3YTlfrJXyDNNTySD8rdvNTdPQUlPjqaeJpHbw5PmslMEC2ir5TuyKJve52Tj5BZEdmBwaipkk8GjgBUsiow4bZRxEFsDHOH4n+8fVZgAAwBgeCIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKr6kEtPeKaVziaapZ1OMfDI3Lh/UOL6tCtCwb1QNuVtmpieF5AdG/HwPBy130ICDnPpm0Tra7SuOjasPt1U/rKuj69sRe/ILXHi2cBv27K69EWkqzSti4bk2GOvnazr2QuDm8QG+4255xhXO3OdUQte4NY/Ja9uPhcDhw37iCqnrbpBo9LWq33NtFLcqOrmfCHQShhYW88gjw5bKC74J3KYPZyUfpLUFu1RZorla3vMDyWlkreF7HDm1w7CpsNb3Koxmx95Xq1gB5H5r0y0cvILGqa6mpgTUTxRgfxvAKD3OB3Bas6Qekms03fnWs0VNSMLQ+OsqC+USNIJBDGAHOQRjPMK7VGpKBsgjjle95fwNa2Mjid2AZxn6ZVM6XNNVWqNGVFzdbaimqrU4vh67HHNDjLyGjJAGxGd9nd6Qa5uXSlW1DSP2ndZXY5UzIqJgPz9959FbNMa0B0JRVNSIoXiqqKfjle6V/CCx+C95JPxZWgzlpweY2XQns22213vTlxhu1vpqx1DW9ZD9oYHhnWRtzgHb8C16n8WIqp162d5ZTzS1UhOeCFpOfHDeayrVBq29ZfarBVMY5pcJakdQwjONi/H6Lf7vsFqpi/FNSQtGM+7G0D0CpF+6X9HWZ4ZJd6apkG7mUr+vcB/ICM/ULny10qFL0a6wuVSWXW5UVBS4B44XOmcTgbBuGjvGSexT980PT6b6KtWUsFXU1k9TSvllmmAz7jcgADkBg+ZVWvftHW9heyw2Gsqjj3ZKqRsLc/IcRwo+4+0Oau2zQR6Ta+SRnA5tRVB0TgRhwIDckeC1POM2tOaVfVQ6mtNbRUlRWPpauKo6uCNz3ENeCcBu/Jd2xPEkTXgOAcAQHAg794PJcraZ6Y9WOudNR2SwWR7XyBgoqKkczjz2cQd7vzIXQtt1fTVr6en+w3EVrpGw1McdM+RlLIWcRa+QDhwP4gSOXerR8aekp/9ttT09FSshZH9mfUStbjrZ3scTnfmGdX2Dn2q0qv6QtVTbm3aor5OsqbhcJaokjBbGcNjbzPJjGhWBQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFTvj4rPdOsme2KlrjlrnHha2YDdpPIcQGR4tPeufOlHog/buomV1u1VBSUzmgNpajjeYj28HBnIPyHzXU9fRUtxpJKWvp4qmnkGHRSsDmu+YK86K10NC0NpKSCEABo4GAbdyDWuhKGWw2GC32yhuVwcAOOolhEDXEDGfeOezuVkmpdSy0skjYqKnc1pIiDzI9x7ADsPNXJEHP1VrOsqonZkeMh2WucRgjswMY+SgZbnVPBJlLXO+Lg93PkpfpbsTrJrB08DeGjueZmYGzZM/eN9Q7+ZV0pVjHkLzO2UOd1rHB7X53BByCCuk9FXhmoNMUtU8h8pb1VQCP8AmDZ2R48/qucA0veGRgveeTWjJ8ltDohhvltuM0U9tq2W2pbl0kjOAMeOTsHc55HHgoVqC7VGhv2rc6y+GqmqG109PT2qzQsgZHDHIWMdI/GMkDOxyRhQP+212oXVEekgNOW6R2TFSOLpHgDAMkrslxwezAHYtwWT2d6WOWV96vk84dKXgUsTY8gnJBLsnnkbLYln6K9G2rhMFkpppBg8dVmc5/nyB9AFvUcgimvWqa37x9yvVU53fJUnJ8wPRXOx9Cur7iGudbo6BhGQayYMP9LeJ3ouvKalgpYhHTQxxRjYNjaGjyC9htyU0c+2T2eDwsder7jf3o6ODs/1vP8A0q/2boc0XbQC+1CukBzx1kjpfTPD6LYaKDEt1sobbAIbfSU9LEOTIY2sHkAFloiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgg9X6ao9UW1lJWufGY5BLHLHjiY4fPsIJCiLb0baeowDNBLWPHbPISP6RgK5ogw6C10FvaBQ0dPT4GPuow04+YWYiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiD/9k=</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>data\product_images\Strike Lock_20251120_201523.png</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -740,18 +704,14 @@
         <v>1450</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>data\product_images\Hikvision 4Mp Colorvu Camera Outdoor_20251120_192413.png</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -764,18 +724,14 @@
         <v>345</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAMFAgQGBwEICf/EAEcQAAICAQIDBAUIBAwGAwAAAAABAgMEBRESITEGQVFhBxNxgZEUIjJScqGxwSMzQmIIFRY0NUNTgpKy0eEkc3Si0vCTlPH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI5Wpco82YOcpd/wAAJ20urMXYl05kSR9CPrtfcjCVs/FI+swYGMpzf7TIpSk/2pfEkkyKTQEct/F/Eilv4v4ksmRSYVFJy+tL4mErbF0smv7zMpMilJAfXlZEXyvs+O58Wp5kP61S+1FEMmQzYG/HXciP06q5Ly3RsV9oaf62myH2WpFDMhmB2NGr4N7SjkRjJ90/m/ibyaaTTTT70ecz5n2jKyMWW+PdOvyT5fDoB6KDk8HtPZBqOdWpx+vXyfwOkws3Hza+PGtjNd6XVe1dwGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+SkoxcpPZI1J3Ox8uUfAj1C3e2NS6Jbv2kcJAbETPcrlneubjhVvI2ezmnw1r+93+5Mlhi3288rJlt/Z0fo4/H6T+KA2rb6qEndbCvf68kiL5ZCX6mu+77FbS+L2RLj4tFD3pphCXfJLm/f1NjmEaLszJp8GLCHXb1t35RT/ABPjqzJb730Vr9ypyfxcvyN5mLA0JYtze8867ps1GEIr/K395DPC3jtLLzZefruF/wDakWMiGYVXW6fVNbTnky8/lFi/Bohlp1KW3Fk//Zs/8ixkRSArZabRvvvkb/8AU2/+RFPBjvyyMxeSyJbfiWUiGQFZPDtW/Bn5a+04S/GJDOjNjvwZsZeVmOn/AJWizkQzAq5PUIda8S1fuznW/vUvxIJZtkV/xGFlV+PAlal/hbf3FrNEM0BW152NdLgrvrdn1G+GX+F7Mkk9nzM8qmvIjw31wtj4TipL7zQlgeq/ml9tH7m/HD/DLp7mgNhmWPkW41ytx7JV2Lo4/wDvM0JX5FH85p44LrZj7v4wfzvhxE9N1d1aspnGcH0lF7oDv+z+sR1Kt12JQyYLeUV0kvFFuebaXqE9NyvX1wjNuLg1Lz//AA9DwsiOXiU5EFtGyKlt4eQEwAAAAAAAAAAAAAAAAAAAAAAAAAAo9UujTlWzsb2XCkkt221ySXe34EFePPK+dmLavux094/33+0/Lp7epNnUqerSsnz4EuBeDa5v293x8TZqQE1UdkklslyS8CeKI4EiAzRkYpjcIMwZk9+5M1Lc3GrlwzyaIy4ox2dkU95dF16vuXeBLIhmaFvaDSIfK+PVMJfJE5ZH6eP6JJ7Ny8Nny9psLKosyJY8LYSujXG1wT3ahJtRl7Hs9vYwPsiKRJIikFRyIZksiKQEUiGRLIikBFIhmTSIZgQTIZk0yCYEUjUvxIysdtMnTkP+sivpfaXSS9vPwaNtmLA1Kb5Sm6b4Ku9LfZPeMl4xfevFdV8G/SOyr30HF27lJf8AczzzJp9bBbPhsi+KE/qy8fyfk2eg9kt32exG1wtqTa8HxPkBbgAAAAAAAAAAAAAAAAAAAAAAAAACnzv5/P7KJa+hFnf0hP7KJKwNmBW9qdYjoPZ/N1KVXrnRBcFXFt6ybaUY7+baLGDNPWNJo1eOHDKnYqsbJhlcEGtrJQ5xUt1032fuA4bM7d5turyx8T1FGHVfGFts6pcSjVU7cl/P22SXDBbrq9yix+0mtav2I7S5OXqWbjavi1qdONTH1coQslGUZrh5y5PhXgufNvc9Mp7NaDizlZLBosslKycp3/pG3ZLjm3xb9Wk/cvAsp6hiVPlKO+23zUB5nmYOdr+tVvWKdVhgV4Xym+umNjlGc16umuO3WcU5WS26Sk9+SRW4fZrtNl4eNhLTK8ZaVVk3YmVOuFPyq1Jwx3OK5qS3lLn5N8z1ietUr6MZyNeetb/Rq+LA8+0z0d5GVbj16pSsfS68eOFGhWp2RqjFycpcO6453tTezfKC36nUdhdAzdB0idOq5NeVmylGDthvt6quKhVHn4RW785Msp6va+kIohlqd77ogWc0RSKyWoXvvXwI5Z13ivgBZTIZGg827yMfltnekBuSIpms8yXfFHz5Vv1QEkiGYd8WYucX3gRzIJks2QzYEbMT62fAPj6Hfdlv6BxfZL/MzgWd/wBl/wCgcT7L/wAzAtAAAAAAAAAAAAAAAAAAAAAAAAAABT6jyz/bFfmZRkordvZEOtWqnM4pPZKtP72UGTnWZD2TcYeCAvL9Uqq3UPny8jQt1PIt+jLgXkV9cSaKAybnN7zk2/Nn1RMkjIDHhGxluYyaXXl7QPjRg0Y2ZNEPp3Vx9s0ad2sadV+szsWPttQG40YNFXZ2l0SD+dq2CmvG+JF/KnQX01jT/wD54gWzRi0VsO0Wj2PavVMKT/duiyevUsK39Xl48vZYmBstGLR8jdXJfNsg/ZJH3ffoBizFmTZiwKjX9cxtGojO/ists3VdMPpT8fYvMqez/aXM1TUo0XadCqie+1kLG3Hl37rmZa1o1mdrfrp7yi4xjHfokv8Afcv9PwaMGhRqinNrnICaVe/RmDTi+ZMHs1zA12z0Dsvy0HD+y/xZwNkdua6HoPZ3+g8H/lRYFiAAAAAAAAAAAAAAAAAAAAAAAAAAOO7fZDxHTbKE5V+rk2oLdvh57Je853RtVxNTrcsWxuS6wnFxkvczvu0mmfxnp7hXssit8dbfj4e84HBjjVZEq8qp0XQls3w7OL80BbwZKmall1dKnJ2RcIrdyT5beJ5F6S/Sffg2LTNBr9ZnWx3SfSEX0lPbnz7orm+r5Aeqa32j0rRMed2p5tNEIfScpLkeW9ofT5pOM5Q0XCvzpL9trhh8Xt9yZ4TrtuXlZPyjXsu3KyeqVj+bDyUekfcVXrHc9oLaP4gelar6bu1moyawY42FW+nDFyf5fgUX8p+0+qJy1DXsxJt8oWKtfctyl07E4+W3R7F9jadulyA0r1K5N5GoZdz7+K6yX5lXkadhWS3nZPddN3L8zq3psuH6D+Bo5WC477x29wHK3aLTLd0WKXlyl/v9xWZOHZRu5UqUV+1HZnS5WNs+ho2Ssg+rkvP/AFA531la/qtvgZQyYwe8HbB/uvb8GWWTjU5KbilXZ8F7/wDUqL6Z0zcZx2aAscbXc7Gkvk2p51LXThvmvzOhwO33arBlF4+vZUkv2bWpr70cM+T38Cy4d0B6lpfpt7UYnCsyvDzYLrunB/mvuO40T08aXkOMNYwMjCk+s4fpI/dz+4/Okovb5raZjG2ceqUkB+19B7VaNr1Ct0vPovj38Mluvb4e8u1JH4c0vIcMmF2Hfbi5Ufo2VycJL3o9j7DelTUNNnVidqGrcWTUY5qWyj/zEun2ly8V3gfoBmMma2FmVZdCsplvF9fIzsml1ATnsmek6RD1elYcNttqo8vDkcD2f06eq58Vwv5NW07Zd231faz0lJJbLkgAAAAAAAAAAAAAAAAAAAAAAAAAAAFNr3Z/G1Zes3dOXFbRuiuvlJd6LkAeO9rcPUdM07Ipy6Wovkroc4SW/j3exnmVHZ6jDwNe7S6js5Oc5wnLuikorb4bH6ttrhbXKu2EZwktpRkt015o/PP8I6mnQeyNun4EPVY119bjBPfZfPk17OID8uallzz8+yyfJOTaj4Inw4pyRWVPnJ+LLTA5yQHTaUq65OU03uuiLyvLs22rjGteS5lDgpyaUS/xKK0l6yTb8uQH2V97X62RqX5N0U92prwaLlU47W3B97NTLwqpJ8EpRfnzA57Iux7m1ZD1cvFdCozsbhTcWpR8UWWqY06d+Nbx7pLoUryZUyafOD7gK++Li+XJogscbq+C1LddH4G5l2VS5xfN93eV1je+6W3tAr76nXJpm9T86qD8kQ2x4oPd80S4fOiPlugJOEkqx1YEjaxfmzXgwM8PB4Wl3b77HtXoq7GYfavQtTxsuLdtK3jJddmn+a2PLcKvikj9F/wdqXjvVrJJ8LxN/JtSQFb6NYZGmaZTh3zlNVQlVHfm3GMmoLze3I9T0bszmahKNucp4uN9Vr9JL2Lu9/wOk7N9l8DRK3OutW5U25SvnFcXPuXgvYXwEGFiUYWNCjFrVdUeiX4+0nAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4L/CywpS7M4OVCO8fW+rk/dLb8We9HC+mzs++0Xo51XHqhx5NEPlNSS5uUObXvW6A/n/B7cvMtcFtQ4lF7dW9itvh6rJnF9N90W2K98Hl9VgX2Haqq929klu2SV59mRL5knCvy6spcq5wxJbPqZ41rWMuF7NtR3Xdu9gOhquqT23lKS67JsnWXtyhN7/Vlv+DOYs1GVdsq6dowr67E8NQdr9VkRcZbKS9j6NAXlmRG2LUl7UzltaxvUP1lf6pvp9VljC6T4lJ/Pg9m/HwZhk8N1UoT5xktmBzSsUqmkucHv7UYzjy3XQijvDInCXWO6fuNuMN6YvyA0nHZ8+nRmOG+G6db7+aNicOpDkVuGSpR68mgN2MTbor3ZFjpWRjJdGWuHTu1yAtdEoc7IrY/UXob0v5P2duucWpZVsKI+xc5HgXY7S55WZVCEHKUpJJLvZ+t+y+mrTsbDwopcOHV89rvsl1/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEkpJqSTT5NMAD8Jen3sPZ2O7a5EaK3/F+S3kYstuXBJ84+2L5ezY4bTJpxlW+a6rzR+8fSz2Gxu3fZa3Bs4a86nezEua+hPbo/3X0fufcfhvN0PL0XWsjTM+uWNm1WerjGzklNP6Dfg+59PjuBr3RcqJ1vquRBp93FCVUntJd/gywnBz3ajKNsHwzhJbNNdU14orcjFbn62h7S70BLkV2etd1ceLflOHemYY6cp7U1Ti3ybaeyMqczZqORFwku98vvNpW1yW7tm14cQGxXPedsl05RT9nX8T6p7wftZqSu4vmUJN9Ft0RJOSpp5vlFfECmyo/8bfJd8uRY+p4KYp9yItPxpZGQ7Jr5kXu/N+BY3w35ICr9Vv0RjlU75rjt9GK3+H+5e4GD6ye8uUY8233GtXju62y1rZ2S4kvBdy+AGpgVuE9n9B/cdZpOC7LIpI1dP0yVs0ox3PcPRR6P5Zajm6pGVen1803ydj+qvLzAv/RB2XWFT/HObW+CvlRFrnOfivZ+J7Tp9EqMdKznbN8c3+8//dvcV+k48b3VdGtV4dK4cetLZP8Ae28PD4lyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADy700eivE7c6fPLwoV1a3XHaM3yjevqT/JnqIA/n7qOn5Ol6hbp3aCNmFn0P1cb7ovbZdIW9+3hYt9u/dc1qZmHZTaoZFboua4o784zXjFrlJeaZ+3/SB2A0Xtther1OlQy4x2qyq18+H+q8mfmbth6Nu03YaFlaxa9W0Hic1Fwc6l5rb51UvNfeB5hKmcPpwUo+zdEfBT/ZVL+6dFRXpWW1GrMs0q/wDsc5OdTf7tsV/mRvfyZ1lw46MOOZV19ZiWRui/g9/uA5BbLlCLb8Irckhp9uRJO/8AR1ru72dI9I1WH09NzIb+NEl+Rt4vZnWsppQ07L2fPd1OK29rA531caq1XVHZLuRsYGmW5V0Ywg5SbPRez3ox1LOs/SQipJcTgpJy29u+y97PUeyPo2xMNxs1RKFa60RknOz7UlyS8l8QPCrtBzHTHB03CycrItXz/U0yntH3I6fs36He0+oShPJwVgUt855clBr+7zl9x+nI51GLRCqhQqqrioxhDlGKXRJFZZrMsq50adVPKu71X9GPtl0QHJdmfRloXZ2uN+pWfL8iC3fGuCqPu6v3/A7vBxZ6nwSsg6dPj9Cvbh9Z7u6Pl3kmn6JOU45GqzjdanvGmP6uD/Nl6ASSSSWyXcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAklJNSSafJpgAcF2q9FHZXtE52W4KxMmXN24u0N35rozzLU/4P8AnYVzu7PavB7PeKnvVL4rdH6KAH5uq7J+kjR3w+qWbBfWULfv33LTCfbOqSV/ZhSl4xpa/Hc99AHkeHd2vuSj/EVsF+9JRX3lzi6L2pytvXvDw4vvlNzfwR6GAOVw+x1O6lquZfmy+pvwQ+COlxcajEpVWNVCqtdIwWyJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>data\product_images\Hikvision 4Mp Colorvu Camera Indoor_20251120_195507.png</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -788,18 +744,14 @@
         <v>345</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>data\product_images\Hikvision 2Mp Camera Outdoor_20251120_191446.png</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -812,18 +764,14 @@
         <v>750</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUBAgMEBgcICf/EAEgQAAEDAwEFBAcEBQkIAwAAAAEAAgMEBRESBiExQVEHE2FxIkKBkaGxwQgUMnIjUnOC0RUXJTM0YpKishYkNUNjs+HwJkRT/8QAFQEBAQAAAAAAAAAAAAAAAAAAAAH/xAAUEQEAAAAAAAAAAAAAAAAAAAAA/9oADAMBAAIRAxEAPwD6pREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBEWOeeKBuqV4aPFBkRRUl6hacRxvf57lh/l4A76c48HIJtFGQXqmkOH6mHx3qRje2Rocxwc08wUFyIiAiIgIiICIiAiIgIiICISBxKsMsbfxPaPMoL0WE1UA4zR/4grDXUw/5rfZvQbKLTNxph6xPk0q03ODkHn2IN5FHG6M9WN3tKobmeUXvKCSRRRuUh4MYFaa+c82jyCCXRQ33yc+ufcqfeZT67vegmkJA4kKDMrzxJPtVNbkE2ZGDi9vvVpniHrhQ4Lky5BLGqiHrfBUNXEOZ9yihqVdLkEmayL+97k++Rf3vco3QVTQ7KCVbVRH18eayte134XA+RULoOFe0OBBBIQTCLTp6hw9GTeOq3AcjIQERa1wqRSUzpOLuDR1KDBdLi2lbojw6Y+5vmubllfK8vkcXOPMqkj3SPc95JcTkkqxQch2g7Q1lmpY47aWMqJAXGR7Q7SB0B3ZWxsDfaq92iQ3DuzW072skdG3S14c3U045HG4+Sy7X7Oi/UzBHK2Kdm5pcMtI6HCv2SsYsFsMD5hPUSOD5ZAMA4GAB4AIJ0n3raoqyWnlzG7B5jk5aercrHHfuQdvQ1bKuLU3c4fib0WwuTtlS5rhIz8bThw6rqYZGyxte3gQqL0REBERAREQFHX28UlkoX1VdI1jGgneQM48TwHipFfHP2q9vqiqv5sFFM5kEQBl0nj0H19vgEHVbcfaSpqOpkp7PG+pc04zGdDPeRk/BefS/aO2ilk/R0FOQeAdLIT814Vgk4G8lZXkRtMbOPru6+Hkg98oftH3COQC4WeKRvMwzuB+OV6Vsj222C8xtdVw1VDk41Tx+hn8zc/EBfKezdjNc8VFSCKcHc39f/wALuWRtYwMYA1oGAAMAIPsm1V1Fc4GTUU8csbxlpY4EO8iNxUiIV8b2C/XTZ2pE9pqnRb8uiO+N/m36jB8V9D9mvahQ7SaaKvxS3IDfG45DupafWHxHPqg9C7lO5W6GggEcCq6EGmIVcIlthiroQagiVe5W2GK7Qg0+5Ve6W3oTQg1e63qvdLa0700oNYRK7u1sBqrpQa4j3q4RhZg1XaUGDu07ves+lV070Gv3Ywq92s5bhXaeCI12x7ys8J0jSeHJVDeKqRu3cUVeucv9QZKoRA+jGPiVdBf55wSKPuiCQQ52SMLSma+aV8jmnU45KDVVHuawEuIHmtj7s48sKx1DqzkKCMmqmZ3SrXdWOYckh7fipCotowdyhaunfA4/qqiQhqWyNy0rKX5XONmdDLqH4ScOH1UpFPqA3oJWgmEdU0E+i/0T9F1dpl0udEeB3hcHrzwO9dfQTamU849YBx+qg6BERUEREBERBZUO0QSOHqtJ+C/OHteqHVPaTfnvJJFQWDPQABfo/K3XG5v6wIX5ydstI6j7TL9G8EF02sZ6EAoOOj9BrpOY3N81IbPWs3Krw8EQR73nr4e1R+lzzFEwZc7gBzJ/9C9KsdvbbqGOEYL+Lz1dzQbkMTYmNYxoa1owAOACvxxV3NU6oMbhuCxhz4pWSwvdHKxwcx7DhzSOBB5FZTwCsciPojsX7TRd2Ms18ka24Rj0JDuErRz8xzHtG7OPaML4NhmmpaiOopZHRTxOD2SNOC1w4EL6x7HNuI9rbE2OoLWXCnGiVgPPHLwI3j2jkg9BA3KulXgKuEFgCrhXYVcIqzCrhXYVcILMJhZMKmEFoG9VwrgEQWgKuN6uCILcKuN6qiChG5VTkg5IgFXG5UHFVRUJ3DfvU4A9cn371lFPx3IHf0tUM5eifgFugDCDU7gBUMI37ltnCsJ4oNKWAEcFBXekBjdgKNr9tZYNq6ahbFTPoJKgUsgBd3zC4kNk440lwIxjgM55Lo7mB3bvJB5/OwanMPMJRSkxtyVS4SBtVgf+71q29+WDzKCZY9dZZH67VF/dLm/Fcawrqdn3/wBGj9o76IOyhOqFh6gK9YqT+zRflCyoCIiAiIgL4e+1rYnW3tBZXNaRFWREZxzac/Jw9y+4V86/bHtEU2yVHcCAJYZmAeOTpPwd8EHy5sdQCpur6hw/R04GPzcB9SumulaYJGxtldGePoNBJ9+4BY9jYBFZBIBvme559+B8lHX/AP4kMfqoNxl0eD/aWn9pD9Wn6LKy6PPEU7/KQtPxChdkomfdZ3loLzLpJI5ALoPu8LvxRMJ8kBteXAZppf3HNf8AIo6vgB/Sd7H+eJw+ixvoqU7hGQfBxCtFCGn9FPMzwzlBnjqYJiRFNG89GuBPuXR7A7TS7KbT0twY9zackMqAObM8fYd/vHNcu23ibLaiTWCPRdjDmnkQVio5XyQASkGRhLHEcyOaI/QG11kVwoIaqBwLJG53HK2l4t9mzag3Cwy2epk1T0R0tyd5Zj0fhkfur2pBRVREURERFVRFTKKqFVWrC+rpmOha+oha6ZxZEC8AvcN+G9TuPBBsAotairKauhMtHPFPEHujL43BwDmktcMjmCCD4hZ0FypneqEpnegqTuQFWk7kRFwPFVzuVgPFUJ3IIqQ6bxUOPNrfktg1A6qEvNwZT3KdpIBAb8goqS9sBOHj3orrHVA6rG6pAzvXHOvzTwJPkMrG+8SEEtjlI66Cg2pNnKR20MVzlqnvjhkM8VNoaAJN+C53FwGSQOWea2rzcWRxO9Lkucqb6/SdLXk+SgqytnqSTIcN6IKVlTrlkk9gWzb26WNHgo2ON0jwceiOHiubn2muFJd3FgjNHHq1Qlm9zQCTv4g7kHpLCulsx0W6Ic3Eu95XKwytmhjkiOWyNDmnqCMj5rsNn4u+rKeEb2RjLvIf+VB2cLdETG9GgK5EVBERAREQF4N9sDP83tPjh95Z/qC95Xiv2sqYz9l80jRkwyNf7nNQfMmzBH+z9Hj9Q/MqIv3/ABJvkFIbKPzY4W/qOe3/ADFaF/P9IR/lQYNlP7NUjpMfkuiacZPQZXObKn9HWD/rFdEPmMIM1NDrx4BZJKYjWWeo3UfEc1bRyhuM8wFlqJjvDTyIKIwNO8KHoD6M37Z30Uuzg1Q9D/8AY/bO+iD0LsZvr7Ht/QuDsRVR7h4zuJ4t+Ix+8vs5rg5rXN4EZHkvgnZpxZtPaHDiK2H/ALjV92W92aGmz/8Am35INvKidrNoKLZbZ6svN0Mgo6Voc/um6nHJDQAOZJIUoCvMO3Jhu8eyuy0cj43Xm7RiRzMamwxAve4Z6eiipbantKoLBWVlNLRVMslJZ3XiYhzWhjAdLYzvzrc4gdFBP7VK6ovc1lttnhddn0lKaaB85JNTOzvC1+AMRxM9JzvDA3kLgK3Zq5XSv2qpoG3e4MuV7orIKurDpH/dYnd5PI52kDRqAGdw5Kag2H2imu8O2FFbXQ3wbTS1JgnkbE7+T8CMNJJ4aW5x/eQdBWbc7Qtu21liEtELpBUUFutkkUBA72oYS+RwcTkMAc/HRu/K5GXbK9VVLYay/Xm6Uuy14u1ZG+uoy2J8cTCI6dhe1uWtcWueSN5379y7qr7PbhP2i7S7SMrKaNtVR91bmkuJiqDD3RleAOQyBg+seCU/ZjUPsdnsFffzJs3QR0+u3Q0bGmeSLDiXSkl2lzwXEAc8ZQcLVSVN12znsMVwr57dVXinsh72pe5z6Wjh72pJdni9zmhzuJXKRVD7db6HaK2wd3bLLcZL42mj/CyGoqjBG1vQd3C4/vL3X+a2wPpaeKaW5Pmiqqmq+8R1Rhke6oP6VrizHokYGOgXQQbKWCCjqaSO00n3WpihhlhczUx8cQxG0tO7DRwHtQY+zq3vtew9lpZv6/7s2Wb9pJ+kf/mcV0eVjGAABgAclXKC/KZ3rGXJq3oLydyZWMuVNSIyA8VQncserirS/ciq/wAm0UshnlpYZJXcXPYCT71lfRU7oXxCGNrHgtIa0BZ2DDAPBVQee11NJQ1L4JOLeB6jkVqOdnOV3t5tjLlT6chkzfwP6eB8FwNbBNSTuiqGFjx8fEdVBoVVNFIcloz1Wi+jjBPo+9STzlYHoNIQgcAubumyba6uEsdQIY3HMg05OOePNdY5YXu9INbvceSDYpGRxd2yNobHE0Na0cgBgD2Bek7LW91JQ97MMTTekQfVHIKE2S2beCysuLC0DfHC7iT1d/BdqqCIiAiIgIiIC8/7d7Ybr2ZXmBgy/uXEeek/XC9AWhfqQV1mrKYjPeROAHU8kH557GT5o6iIne2TV/iA/gUvrS6uhx0/gqvo3WDbe52uQaWtlfG0eAOpv+Urcroe8e1+CS3oghdl5WiSsiccP7zVg8cLpGuGOO9RE1LSSSZliZr6kaT71c2jDRmGoqGeUmofHKCXBxvHAq7VqPhzKiWtrY8FlRHIOj2Y+IP0WQVla0+nTNf4xyfQ4QSo4gKHovx1P7d3yC3KKqfPLpdBNGeJL27vetOl/rKn9s75BETOzbS/aa0tHE1sP/cavuu3nFDT/s2/JfEOwMBqdt7JGBn/AHpj/wDDl30X29TjRBE39VgHwQbGVQtaXteWtL2jAcRvHkVZqTUishd4plYtSakGTKplYy5Wl6DNlULlhL1YZEGfUmpa3eK0y70G0XqmtajpfFWGbxQbbpNyoZPFaLp9/FY31Hig3zLxSF3ezsYOZ3+SiZKoAHepqyQOEZnlBDnj0QeQQSaIiAteuoqeui7upia9vI8x5FbCIOQrdkHaiaKpGOTZRw9o/go1+yVzJwDT4694f4L0FEHBQ7EVkh/3ithibz7tpefjgLo7Ns1b7W4SRxmWcf8ANl3n2cgppEBERAREQEREBERAREQfFX2pdmn2DbmG80zCIajGSOGpu8e9uR+6uLjlbPCyRhy14Dh5L677ftjW7WbFVDY2j71CNUbjyI3tPsPwJXxVYppKeSa3VLSyWFxw13Eb97fYUElWTCCF8hBcGjOkc1jtrJK+kFSykLGOJa30wCcceCXHfTPUrswP/j1L+eX/AFINB8MkY9ITM/MMhWgvz6Lo3fBdKOSwVsbHwSEtbqDSQcb0RCNqJo2u0QguPAl4wsVNF3MQaTqcSXOd1J4rL1Q8Ag9A7DLcbh2g078ehTxPkPmcMH+o+5fXepeC/Zsshgt9ZeJm4NS/RGT+ozI+Li//AAhe5d4g2NaoXrWMitMqK2i9WmRahm8VjdOOqDeMixulWg6pHVYH1Q6oJIzLG6dRT6wDmtZ9d4oJs1HisbqkdVAvr+Wd6yxRV9VjuKWdwPPTge8oJJ9WN+9YH1oHNXwbO3ObfM6GAeLtR+CkqfZOAYNTUyyno3DQoIKSvA5q6mFZWnFLBJID62MNHtO5dfS2W302DHSxlw9Z41H4qQAAAAGAFRA2qxd05s1e5skg3iMfhHn1U8iICIiAiIgIiICIiAiIgIiICIiAiIgIiILZY2yxvjkaHMcC1wPMFfG32jezio2fvj7/AGqM9w52uQgcOWo/J3jg819lqM2is1LfbZLR1jGua4HBIzg4xw5jqOaD89oKllfSEtOknc5p4tPRW2+sutridA2CGpp9Ze1rXYLc8cLu+1fsrumxl2mrrTA+WhPpOjbl2lv1b0PEcD1XDUVbHUghp0yD8THcQg349pom4+90dVB46dQ+C3GXqgrI3MgqWF7gQGO9Ek+RUeDuCqGx6tXdsLuTtIyPIoLuq37Baam+3ilt1H/WzuwXY3RtG9zz4Ab/AHDmtWjpaivq4qShgkqKmV2mOKMZc4+H8eA5r6J7Lti4tlqE1FYWS3OcDvntOWsHERtPMA7yeZ8AEHoWzVvgstmpaKlZ3cULGsa3oAMDPj18cqTNQAeKhJK4NHFYm1Us7sQRySHoxpPyQTbqoAHesL6wDG9akNpvFR+GlMY6yODfhxUhBspVvwamsjYOkbS4/HCDTfWgc1rSXAAb3BdLT7KULCDM+eY9HO0j4KUp7TQU/wDU0kLSOZbk+8oOFikqak4p4JZfysJW3DZLtUYJhbC085HgfAZXeAADA3BEHHR7ITyahVXDQ08oGYIH5j/BStPsxbosd4ySY/8AUefkFOIg16ehpabHcU8UeObWDPvWwiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiDUudupblTGCsiEjOIPNp6g8l4lt12AWq7TPqbczuZic64CI3Z8W/hPswveEQfHtT2DbRwSaYLi9zBw72kcT7xlStl7Cbg+VpuVZVyt5sp6Xu8/vO/gvq1EHlmynZnFY4iygpaej1jEkj3mSV46F3Tw3DwXXU+ycA/tNTLJ4MwwfVdKiCMprFbacgspI3OHN/pH4qRYxrGhrGhrRyAwrkQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERB/9k=</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>data\product_images\Hikvision 4Mp Camera Indoor_20251120_191457.png</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -836,18 +784,14 @@
         <v>800</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAMFAgQGBwEICf/EAEcQAAICAQIDBAUIBAwGAwAAAAABAgMEBRESITEGQVFhBxNxgZEUIjJScqGxwSMzQmIIFRY0NUNTgpKy0eEkc3Si0vCTlPH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI5Wpco82YOcpd/wAAJ20urMXYl05kSR9CPrtfcjCVs/FI+swYGMpzf7TIpSk/2pfEkkyKTQEct/F/Eilv4v4ksmRSYVFJy+tL4mErbF0smv7zMpMilJAfXlZEXyvs+O58Wp5kP61S+1FEMmQzYG/HXciP06q5Ly3RsV9oaf62myH2WpFDMhmB2NGr4N7SjkRjJ90/m/ibyaaTTTT70ecz5n2jKyMWW+PdOvyT5fDoB6KDk8HtPZBqOdWpx+vXyfwOkws3Hza+PGtjNd6XVe1dwGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+SkoxcpPZI1J3Ox8uUfAj1C3e2NS6Jbv2kcJAbETPcrlneubjhVvI2ezmnw1r+93+5Mlhi3288rJlt/Z0fo4/H6T+KA2rb6qEndbCvf68kiL5ZCX6mu+77FbS+L2RLj4tFD3pphCXfJLm/f1NjmEaLszJp8GLCHXb1t35RT/ABPjqzJb730Vr9ypyfxcvyN5mLA0JYtze8867ps1GEIr/K395DPC3jtLLzZefruF/wDakWMiGYVXW6fVNbTnky8/lFi/Bohlp1KW3Fk//Zs/8ixkRSArZabRvvvkb/8AU2/+RFPBjvyyMxeSyJbfiWUiGQFZPDtW/Bn5a+04S/GJDOjNjvwZsZeVmOn/AJWizkQzAq5PUIda8S1fuznW/vUvxIJZtkV/xGFlV+PAlal/hbf3FrNEM0BW152NdLgrvrdn1G+GX+F7Mkk9nzM8qmvIjw31wtj4TipL7zQlgeq/ml9tH7m/HD/DLp7mgNhmWPkW41ytx7JV2Lo4/wDvM0JX5FH85p44LrZj7v4wfzvhxE9N1d1aspnGcH0lF7oDv+z+sR1Kt12JQyYLeUV0kvFFuebaXqE9NyvX1wjNuLg1Lz//AA9DwsiOXiU5EFtGyKlt4eQEwAAAAAAAAAAAAAAAAAAAAAAAAAAo9UujTlWzsb2XCkkt221ySXe34EFePPK+dmLavux094/33+0/Lp7epNnUqerSsnz4EuBeDa5v293x8TZqQE1UdkklslyS8CeKI4EiAzRkYpjcIMwZk9+5M1Lc3GrlwzyaIy4ox2dkU95dF16vuXeBLIhmaFvaDSIfK+PVMJfJE5ZH6eP6JJ7Ny8Nny9psLKosyJY8LYSujXG1wT3ahJtRl7Hs9vYwPsiKRJIikFRyIZksiKQEUiGRLIikBFIhmTSIZgQTIZk0yCYEUjUvxIysdtMnTkP+sivpfaXSS9vPwaNtmLA1Kb5Sm6b4Ku9LfZPeMl4xfevFdV8G/SOyr30HF27lJf8AczzzJp9bBbPhsi+KE/qy8fyfk2eg9kt32exG1wtqTa8HxPkBbgAAAAAAAAAAAAAAAAAAAAAAAAACnzv5/P7KJa+hFnf0hP7KJKwNmBW9qdYjoPZ/N1KVXrnRBcFXFt6ybaUY7+baLGDNPWNJo1eOHDKnYqsbJhlcEGtrJQ5xUt1032fuA4bM7d5turyx8T1FGHVfGFts6pcSjVU7cl/P22SXDBbrq9yix+0mtav2I7S5OXqWbjavi1qdONTH1coQslGUZrh5y5PhXgufNvc9Mp7NaDizlZLBosslKycp3/pG3ZLjm3xb9Wk/cvAsp6hiVPlKO+23zUB5nmYOdr+tVvWKdVhgV4Xym+umNjlGc16umuO3WcU5WS26Sk9+SRW4fZrtNl4eNhLTK8ZaVVk3YmVOuFPyq1Jwx3OK5qS3lLn5N8z1ietUr6MZyNeetb/Rq+LA8+0z0d5GVbj16pSsfS68eOFGhWp2RqjFycpcO6453tTezfKC36nUdhdAzdB0idOq5NeVmylGDthvt6quKhVHn4RW785Msp6va+kIohlqd77ogWc0RSKyWoXvvXwI5Z13ivgBZTIZGg827yMfltnekBuSIpms8yXfFHz5Vv1QEkiGYd8WYucX3gRzIJks2QzYEbMT62fAPj6Hfdlv6BxfZL/MzgWd/wBl/wCgcT7L/wAzAtAAAAAAAAAAAAAAAAAAAAAAAAAABT6jyz/bFfmZRkordvZEOtWqnM4pPZKtP72UGTnWZD2TcYeCAvL9Uqq3UPny8jQt1PIt+jLgXkV9cSaKAybnN7zk2/Nn1RMkjIDHhGxluYyaXXl7QPjRg0Y2ZNEPp3Vx9s0ad2sadV+szsWPttQG40YNFXZ2l0SD+dq2CmvG+JF/KnQX01jT/wD54gWzRi0VsO0Wj2PavVMKT/duiyevUsK39Xl48vZYmBstGLR8jdXJfNsg/ZJH3ffoBizFmTZiwKjX9cxtGojO/ists3VdMPpT8fYvMqez/aXM1TUo0XadCqie+1kLG3Hl37rmZa1o1mdrfrp7yi4xjHfokv8Afcv9PwaMGhRqinNrnICaVe/RmDTi+ZMHs1zA12z0Dsvy0HD+y/xZwNkdua6HoPZ3+g8H/lRYFiAAAAAAAAAAAAAAAAAAAAAAAAAAOO7fZDxHTbKE5V+rk2oLdvh57Je853RtVxNTrcsWxuS6wnFxkvczvu0mmfxnp7hXssit8dbfj4e84HBjjVZEq8qp0XQls3w7OL80BbwZKmall1dKnJ2RcIrdyT5beJ5F6S/Sffg2LTNBr9ZnWx3SfSEX0lPbnz7orm+r5Aeqa32j0rRMed2p5tNEIfScpLkeW9ofT5pOM5Q0XCvzpL9trhh8Xt9yZ4TrtuXlZPyjXsu3KyeqVj+bDyUekfcVXrHc9oLaP4gelar6bu1moyawY42FW+nDFyf5fgUX8p+0+qJy1DXsxJt8oWKtfctyl07E4+W3R7F9jadulyA0r1K5N5GoZdz7+K6yX5lXkadhWS3nZPddN3L8zq3psuH6D+Bo5WC477x29wHK3aLTLd0WKXlyl/v9xWZOHZRu5UqUV+1HZnS5WNs+ho2Ssg+rkvP/AFA531la/qtvgZQyYwe8HbB/uvb8GWWTjU5KbilXZ8F7/wDUqL6Z0zcZx2aAscbXc7Gkvk2p51LXThvmvzOhwO33arBlF4+vZUkv2bWpr70cM+T38Cy4d0B6lpfpt7UYnCsyvDzYLrunB/mvuO40T08aXkOMNYwMjCk+s4fpI/dz+4/Okovb5raZjG2ceqUkB+19B7VaNr1Ct0vPovj38Mluvb4e8u1JH4c0vIcMmF2Hfbi5Ufo2VycJL3o9j7DelTUNNnVidqGrcWTUY5qWyj/zEun2ly8V3gfoBmMma2FmVZdCsplvF9fIzsml1ATnsmek6RD1elYcNttqo8vDkcD2f06eq58Vwv5NW07Zd231faz0lJJbLkgAAAAAAAAAAAAAAAAAAAAAAAAAAAFNr3Z/G1Zes3dOXFbRuiuvlJd6LkAeO9rcPUdM07Ipy6Wovkroc4SW/j3exnmVHZ6jDwNe7S6js5Oc5wnLuikorb4bH6ttrhbXKu2EZwktpRkt015o/PP8I6mnQeyNun4EPVY119bjBPfZfPk17OID8uallzz8+yyfJOTaj4Inw4pyRWVPnJ+LLTA5yQHTaUq65OU03uuiLyvLs22rjGteS5lDgpyaUS/xKK0l6yTb8uQH2V97X62RqX5N0U92prwaLlU47W3B97NTLwqpJ8EpRfnzA57Iux7m1ZD1cvFdCozsbhTcWpR8UWWqY06d+Nbx7pLoUryZUyafOD7gK++Li+XJogscbq+C1LddH4G5l2VS5xfN93eV1je+6W3tAr76nXJpm9T86qD8kQ2x4oPd80S4fOiPlugJOEkqx1YEjaxfmzXgwM8PB4Wl3b77HtXoq7GYfavQtTxsuLdtK3jJddmn+a2PLcKvikj9F/wdqXjvVrJJ8LxN/JtSQFb6NYZGmaZTh3zlNVQlVHfm3GMmoLze3I9T0bszmahKNucp4uN9Vr9JL2Lu9/wOk7N9l8DRK3OutW5U25SvnFcXPuXgvYXwEGFiUYWNCjFrVdUeiX4+0nAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4L/CywpS7M4OVCO8fW+rk/dLb8We9HC+mzs++0Xo51XHqhx5NEPlNSS5uUObXvW6A/n/B7cvMtcFtQ4lF7dW9itvh6rJnF9N90W2K98Hl9VgX2Haqq929klu2SV59mRL5knCvy6spcq5wxJbPqZ41rWMuF7NtR3Xdu9gOhquqT23lKS67JsnWXtyhN7/Vlv+DOYs1GVdsq6dowr67E8NQdr9VkRcZbKS9j6NAXlmRG2LUl7UzltaxvUP1lf6pvp9VljC6T4lJ/Pg9m/HwZhk8N1UoT5xktmBzSsUqmkucHv7UYzjy3XQijvDInCXWO6fuNuMN6YvyA0nHZ8+nRmOG+G6db7+aNicOpDkVuGSpR68mgN2MTbor3ZFjpWRjJdGWuHTu1yAtdEoc7IrY/UXob0v5P2duucWpZVsKI+xc5HgXY7S55WZVCEHKUpJJLvZ+t+y+mrTsbDwopcOHV89rvsl1/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEkpJqSTT5NMAD8Jen3sPZ2O7a5EaK3/F+S3kYstuXBJ84+2L5ezY4bTJpxlW+a6rzR+8fSz2Gxu3fZa3Bs4a86nezEua+hPbo/3X0fufcfhvN0PL0XWsjTM+uWNm1WerjGzklNP6Dfg+59PjuBr3RcqJ1vquRBp93FCVUntJd/gywnBz3ajKNsHwzhJbNNdU14orcjFbn62h7S70BLkV2etd1ceLflOHemYY6cp7U1Ti3ybaeyMqczZqORFwku98vvNpW1yW7tm14cQGxXPedsl05RT9nX8T6p7wftZqSu4vmUJN9Ft0RJOSpp5vlFfECmyo/8bfJd8uRY+p4KYp9yItPxpZGQ7Jr5kXu/N+BY3w35ICr9Vv0RjlU75rjt9GK3+H+5e4GD6ye8uUY8233GtXju62y1rZ2S4kvBdy+AGpgVuE9n9B/cdZpOC7LIpI1dP0yVs0ox3PcPRR6P5Zajm6pGVen1803ydj+qvLzAv/RB2XWFT/HObW+CvlRFrnOfivZ+J7Tp9EqMdKznbN8c3+8//dvcV+k48b3VdGtV4dK4cetLZP8Ae28PD4lyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADy700eivE7c6fPLwoV1a3XHaM3yjevqT/JnqIA/n7qOn5Ol6hbp3aCNmFn0P1cb7ovbZdIW9+3hYt9u/dc1qZmHZTaoZFboua4o784zXjFrlJeaZ+3/SB2A0Xtther1OlQy4x2qyq18+H+q8mfmbth6Nu03YaFlaxa9W0Hic1Fwc6l5rb51UvNfeB5hKmcPpwUo+zdEfBT/ZVL+6dFRXpWW1GrMs0q/wDsc5OdTf7tsV/mRvfyZ1lw46MOOZV19ZiWRui/g9/uA5BbLlCLb8Irckhp9uRJO/8AR1ru72dI9I1WH09NzIb+NEl+Rt4vZnWsppQ07L2fPd1OK29rA531caq1XVHZLuRsYGmW5V0Ywg5SbPRez3ox1LOs/SQipJcTgpJy29u+y97PUeyPo2xMNxs1RKFa60RknOz7UlyS8l8QPCrtBzHTHB03CycrItXz/U0yntH3I6fs36He0+oShPJwVgUt855clBr+7zl9x+nI51GLRCqhQqqrioxhDlGKXRJFZZrMsq50adVPKu71X9GPtl0QHJdmfRloXZ2uN+pWfL8iC3fGuCqPu6v3/A7vBxZ6nwSsg6dPj9Cvbh9Z7u6Pl3kmn6JOU45GqzjdanvGmP6uD/Nl6ASSSSWyXcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAklJNSSafJpgAcF2q9FHZXtE52W4KxMmXN24u0N35rozzLU/4P8AnYVzu7PavB7PeKnvVL4rdH6KAH5uq7J+kjR3w+qWbBfWULfv33LTCfbOqSV/ZhSl4xpa/Hc99AHkeHd2vuSj/EVsF+9JRX3lzi6L2pytvXvDw4vvlNzfwR6GAOVw+x1O6lquZfmy+pvwQ+COlxcajEpVWNVCqtdIwWyJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH//Z</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>data\product_images\Outdoor Intercom Unit_20251120_195518.png</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -860,18 +804,14 @@
         <v>1350</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAcCBAUGCAEDCf/EAFcQAAEDAwEDBgUOCgUKBwAAAAEAAgMEBREGEiExBxNBUVKRFGFxsdEIIjIzNnJzdIGSobKzwRcjJCZCVFaTwuEVNVNigiU0N0RGY3WD0tMWQ0VklPDx/8QAGgEBAQEBAQEBAAAAAAAAAAAAAAECAwQFBv/EACcRAQADAAICAQMDBQAAAAAAAAABAhEDEiExBBMiQVFhcQUjUqGx/9oADAMBAAIRAxEAPwDqlERAREQEREBERAVPNR9hvcqkQU82zsN7k5tnYb3KpFdlMU82zsN7k5tnYb3KpE2TFPNs7De5ObZ2G9yqRNkxTzbOw3uTm2dhvcqkTZMU82zsN7k5tnYb3KpE2TFPNs7De5ObZ2G9yqTI602TFPNs7De5ObZ2G9yqyOsJkdYTZMU82zsN7k5tnYb3KrI6wibJinm2dhvcnNs7De5VImyYp5tnYb3JzbOw3uVSJsmAAAwAAPEiIooiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgKI/VGVc8Gn7VDDNJHHNVESNY4jbwwkA46MqXFDfqlTiyWQ/wDu3/ZlBCUEjsg7b8+/KyVPLIf/ADZf3jvSsJC9ZCmlQZ2B7jjMkh/xn0q/iGeJcf8AEVhqebxHuKylO8nHrXdxQX7I2njv+Ur7thixvYCvhET1HuVw0nqd3IPRBF/Zt7l7zMfYb3KoE9l3cV7k9l3cUGu64kZRaWr5GANkcwRMI3EFxA3fJlQ/4TUfrNR+9d6VI/KxVFlsoaRodmaYyEbJ4NHpcoyw7oY/5pQfU1NR+s1H713pXnhFR+s1H713pXzw7sP+aUw/sP8AmlB9PCKgf6zUfvXeleeFVP61UfvXelUbEn9lJ8w+hebL/wCzk+YfQg+nhVSf9ZqP3rvSvPCaj9YqP3rvSqNl/wDZyfMPoXuw8AkxyADpLCAgq8Kqf1mo/eu9KzWh7pXUWtLFPBV1DHtroR7a7eC8Ag794IJCwOFk9K+6qy/HoPtGpA7+CIEQEREBERAREQEREBERAREQEREBERAREQEREBERAUMeqaOLDZPjjvsypnULeqeOLBZPjjvsyggSJ6mr1NuH3O+lwBxDDxH956g2Nym71Mrs3O//AAMP1noJ92G9Q7k2R1DuXqIMPd6PJ50EDJwrKlYYalm1nBWerW7UBw3aI34WDc6d8oPMSYzx2VqElsEeC3gFa3e4U9qoZKqqOGN4AcXHqCQvkAGY3dy0blTZMPBagh3NbJZjoBUt4I8o019y03q2anZS2/wOCnYxr3Rvh5zaJOcE5zwxwxxUl8kmrqfWVuu9WGMiqmzjnYBvDcsABB6QcHuXH2r601mqrjUh21GZy1vkb63H0KdvUvbZvF0DQTGaU7R6CdtuPv8ApWYnJamNhM92fBSQSVNTJFDBEC6SR+A1oHSStGtfKtpGe7eDSVEsUDTgVboxzbj5B64DxkLXuXC4V981BSaNtLtmR2zJUb9wJBcNrxNaM463BQ3rDSdVpWsYJJHSQublsnAk9OVL/Int1q3T4/29pdvW6rpLhRxVVvnhqKaQZZLE4Oa4eIhXOyOoLnP1NV/lgvFTZQ9zqOshNTEwncyVvsgPKPuXROZOylbdo1m9es4r2R1BahytPZ+DbVDPWl39HTbur1hW2tL8727vKtV5VaaF/J5qaR0TDJ/Rs+HEb/YFaZcODeFktLe6my/HoPtGrG9AWT0t7qbL8eg+0akDv0IgRAREQEREBERAREQEREBERAREQEREBEWkaz5QqDT8ktJTMNZcWbjGNzIzj9J3duH0IN3RQVZtU3u8T1dXV18zXteAxkLixjBjgAPvyVnI9TXmEjZrnuA6Hta7P0K4uJZRRlBrq6RH8dFSzN96WnvB+5ZCHlEjGBU2546zHKD9BATEb6oU9VCfzfsnX4Y77MrfqfX9kkLRK+opyePOREgfKMqMfVEXCnv1nsossoreaqJHSCEElg2MAkcVMEEMcpw9TAc3TUHwMP1nqD3QzRHEsUjD/eYQpt9S4c3TUPwMH1noOhUREFhcvCXTRMpXhpLSTnxLEz1dXRvIqJTu4rNVDtm4Uo7QePoC17WdRHS09RLjblDRhvR5StxMRHlMmZyGwW6q8Iga7OcrHavMP9GkVcQkpQ1z5cjOyGt2s/QoqoNX3ajqWvgmeY2HfE4ZYR1ELYdY6nF305L4DF+MlpcBjt+9xAcOjOMLhyWiazjtx0mLRqBrlp6x3KKrjsZDX4ModsOLj04GekqaPU7addZLDcqmVm1JK8R84d20G5JA6NnJ71oVFehSh08lNFJLSwtMrGYBcQQAC4DvK2HT3LNX07iy52akjt49iKRpYYx4gTg8R1LzU5Mn7pevm49j7YYHk6hu1z1TdNXXBsD46upqGO2nHbZjcdkcMABrfk8aw/LHeKe4UIiiZJHKHexkGDs9YHUpFttPDS26sfbZS6hq3SVMTwza2mSu2wRjhvLgR1haDypVkB0+XVzRGI2ZwcbR6vlXKZntrvWkdGM9T1ViPXNqcXY/HSRHP96MgfSF17zsYOC8Z8q/PXR94fR3anqKeWSJrpWuyDgtcDkHK6609V1t6rjMKlwibE2Xm88do8V9Hgpu7+HzOe3qYSmtY5Uf9HGpv+Gz/UKyNJWGOEGV4IHStd5T7tSScnmo4opQ577dOAB7wrXWXLXE44BZPS/ups3x6D7RqxYO5ZPS/upsvx6D7RqkK7+CIEQEREBERAREQEREBERAREQEREBERAPBc4cojc61vHw/8LV0eeC505Qx+el4+G/hagaNH5PV+/b5lnJNywujh+T1fv2+ZXmpnPi0/c5I3OY9lLK5rmnBBDDvBXSPTUPrIV8H4UCQap1BCG7F5ruHB8m35wVk6TW2ogQH1sco/wB5TsPmAU7QmpYuMD54diGd9O/ba7bYATgOBLd/QQMfKvjIAtGh1jeDC58kdDIGtLva3tzgeJyx8fKc4/5xaB/y6j0tU2F1IMgBGDvHjVFFVVNsnfNbaiWkleMOdA7YLh48cVpcXKLbnj8dRVsXk2X/AHhZyzXqkvcEktCZS2NwY4SM2SDjKInLkfvdyu8d1bdKySq5kxc2ZAMtyHZ3geIKRlFXIX7G9++h8z1Kqyi2qIw6ogk22jmycg9OQtb1ZQ+ETxPc8Pine2N0Y3ZABdx+QLYqn2wrEXmrihp+baQ6Rp2j4ilqzNchaWiLRMtRNM58VO2O1siicS0s3NLOIyVpTaF89RJbmTlw2yXMLQWtGSNxO8dPBbvX1Va2qxC0SHZ9bG2N2fESc4AWu6Qo6l1TO6ta/wAKDtmQO9lt9R+hcvj12Z309HPMREY1+7WSns1DJRW6Jj62tmY0kknaO/Gc8AN5wF9qvSUdwt9I0tw97y3EodFgAYyAN+8Dp6gvlq+CuotUNuMjo4bdBWRPMrn5EbQMEuA3gbytyuMkd3pYq6muogonMbNhhDS4HBB2s8Mec9a8fJk3nHt4/FIiXPdTX3/SmsZbbSXGZtG4GF8ZO03ALnDAPA5cTkdZWD1/VVdREyKpme8vAe97znd1BbRrJ7dSaju9VbcF1Ls7JHSQDv8AId4HkWEpdI6k1JfxTNpHucGMMTpDsMDTjDs8CN+cDet08zE/o58k9azH6vhyY6Ev2pa1lRaqDboGSjbnmeI48jfgE8T4h1hdY6W01dbd4RUyxNjIhELYg4FzsHORjdhNNWem07ZaO10IxBTMDdrG97v0nnxk5K3e21kToGxvlaJWtyQTg4617eLkmu5+Xz+SuwxdFR1b4WsqIMDpDisbymUrYeTLUbRDEBHbp9nA3j1hW4wzxTNDoZGSNPAtcCFrXKp/o11R/wANn+oVub6xFccLN4LKaW91Nl+PU/2jVi28AsrpX3VWT49T/aNWVd+hECICIiAiIgIiICIiAiIgIiICIiAiIgHguduUL3aXf4b+Fq6JPBc78oI/PO7/AA38IQVaOH5PV+/b5lc6qH5t3b4nN9Qr4aOH5PV+/b5ldaqH5tXf4nN9QrpHpqHM7PYjyKmurRQUhka3bld61jes+hVx+xb5Fa1cXPV8TD7FjM95/kubLXZfD62R8lQ+V7vfEAfcEoKyanmENVksJwC7o+XqUwWzT1PJprDoxzkrTK52N/iUXRURdfDbqsDZmJaxw6M8D8hQXvQpF5LP6tuPw7fqqNKRznUzOc9mBsu8oOD5lJnJX/Vlx+Hb9VBO/I7d6G2z3KGuqI6c1BjMbpHBrXEbW7PXv86lht0oHexraY/81vpXPlkt9JX0lWyrc6NzXNdHIweuY7fgj0K5fm3tf4bXPc1vTMxkI8u92foXK3J1nJd68M2iJhMdyvMOZPBw5+N220jA+lW9sZHURCeVjnOIyGkAgdWfP8qhCG9t5+RnPbVNM10L3s7J/SHkO8fzW0t1vb6KlbDVW+6MhiDYoqpobLFKdkDJ2MlvDguvfYcekxKQZamF9w8GZvkDDIQeoHGT8pWAgcDygW1gGRM5xe0DGSxpIcfJjzL6WCGSN0lbPvlmjySN4a39FoPV/NWNlppJOUuO4VjDFQUVDIY5n7g6WRwbhvkaHE+UKROLkz6ZPlIsDLnb56e1Bkd2qJGHnD04OcHoAI4nG9YrSvJtVQWllDf5qV0UJ2Y3QkvcGEZ2cloAwc447lIUUlI+p59srJOpw6PEvq6p5+dkEONkn1zieK4W462nXeOW9YyFrY9O2ez2zwS3W2mhgeMPbzYcZN+fXk73HyrU9P0Boqm6NZHzdBHWSCjbuGWHBJAHBoJc0eILd77VChtU8w4huy3yncPP9C1YNnexkcEMpa0YGGlWYxiJmfMrloDpN53dKwGp7He6zw0wSUzYJRss2JHbQZu4jHHHRnpV9WUF7ndFHR0bxHtZc55DR8uTwW32mjmgp2CqLTJjfvyrXUtMIppbneW1dwioaOobFERHTu2Th54kg9IA3E9a2zWddNWcmGqxPHI1zbdPhzhu9r4Z+Vb43Zb1DyLV+VN7fwbaowRuttR9QpTj6/lrk5YvGY4Yb7EeRZXSnursnx+n+0asU3gFltJe6yyfH6f7Vq7Q4O/AiBEBERAREQEREBERAREQEREBERAREQDwXPPKAPzyu/w38IXQx4LnrX3uwu/w/wDCEFejx+T1fv2+ZXOqvc3dvic31CrbSHtFV79vmVzqr3N3b4pN9QrpHpqHNUDcgeRUVbRDXxuO4OYPoKuaVmQFc3i1TV1uzR/53F6+Mdrrb8vnXJlslJqCnpdOx7bsubGYyBxyP/oUXR1gm1Oyve3m4o37W/duBzlYyW6Vcb3RytILThzHAgg9RC+cXPXGoDGjZZxcR0DxqjN0Ti+nEhGOcc5+PK4n71J3JT/Vlx+Hb9RRw1oY0NaMADAUj8lP9WXH4dv1UgSzpLT1VfaetNFXMpJYXMGXxlwdkHqO7gsfrjQ9zsVomrXXmgfMOMLGiOV7TxILzlx4cN5VvTarm07QVtNDhnhmzmQHDmhuRgeXPFRXq2/VFdVOdtSvxuaNouIHjJUnjrM7LpHLaIyGXoqqWONwmyCN+1JICSe/JWzVuq6ysbE6w09Q+MzRiUxM2QwkgOJIwN2c789yj3Tdllux8Krdunt8Zw959a6Qj9Fnj6zwHl3Lb7jdYoaOhpYmMigjBDGs3AAbvl8ZXPlrE5D639N+Dyc23tOVlOtRdbRZ7ecVsRgjyS90m2fKf5LSbbr1mpNRVFvs7XPfTggs2QHv34JwcburrUORXuoq5HgTANjA2ncAFjZayk8MbPNG2YtO8OaN4XP6My9HJxfF4bdbcnn+N/46UqdRS2gSR1cMjagOH4o4aW7unitk5PbxFfq2aSKUg0zQXxHiCdw+TioHpLw262eOsha5jXFzdhxyRg7P3KT/AFP7HGtvk7ngNLIWbJ6Tl5yrSuTi/L+JxU+JPNX348/ymcjKtK2sFMcYyVdF46HN71g78w7BkLyBniHjC6zD89CqS6yn2LWj6V8XXGd3F+PIFh2OPQ4nylfdmer6VlWRFTI7i496wPKM8nk61Rk/+mz/AFCstGHdX0rDcoYP4O9T5xj+jZ+n+4UHGTeAWX0l7rLH8fp/tWrEN4LLaS91lj+P0/2rV1hh34EQIgIiICIiAiIgIiICIiAiIgIiICIiAueNc+667/GHfcuh1zvrj3X3f4w77kH30j7RVe/b5lc6p9zd2+KTfUKt9Je0VPv2+ZXOqPc5dfikv1CukelhzvQty1q2e2xZxlYC3M9itstTGh7C4ZaCCR1jPBckYLlBtVDJa4KiWkhdUumDOd2cOI2TuJHFaVHEyFmzExrG9TRhStyh3KgZb7eBa4yDK84L8jOyMHh0b93jUf19xpJ6V0MFthgccYkDsuGD5BxG7u+UMOVI3JV/Vtx+Hb9VR05SLyV/1Zcfh2/VVhWU1Vp68319MbLbamuEO1zpgaDsZxjO/pwe5YL8Husce5u5/MHpU9cl29lz99H5nLewERyQeTzWP7N3P5g9K8/B5rL9m7n8weldc4RDXIp5PNY/s1c/3Y9K8PJ5rD9mrn+7HpXXJVJPkQ1yP+D/AFgOGm7p+7HpXjuT3WJ/2buvyM/muuM56R3rzPkQ1yKeTzWA/wBm7v8AM/mn4PNXnjpm7fLH/NddrwhByKOTrWH7M3X5g9K9/BzrD9mbp80f9S64wvCEHJA5OdYfs1dPmj/qVQ5PNYAY/wDDlzHiIH/UutMJhByX+D7V4/2cuHzG+lX+n9FaloNQ2mrrrHWwU0NbTvkle0Ya3nW7zvXUZWPvo/yVMf70X2rEEjhECICIiAiIgIiICIiAiIgIiICIiAiIgHguedeDGsruP9/9wXQxXPmvy06yuxZnHPb8jp2RlBVpP2ip9+PMrnU/ueunxWX6hVtpT2ip9+PMsvU0bLjG6imL2x1P4h5YcOAd6048e9dI9NQ56trPYrYqanq3uBp6iKNmODo9oqfKLkP0lTYybnNj+0qiPqgLPUfJlpSlADbYX46ZKiR38S5suSNfsqadlA2rnZUB225obHsbPAdB3rTHTxjiIx5XH0ru+r5NtHVkkT6zTtvqHRghnPR7eAePEq6pNB6SpMeDaYskeOBFDHnzIPz+56PeBKxxyTucDjxKS+Ss/wCS6/jvnbxGP0V1ReLVbaWvayCmo6OPmwcx07RvyeoKINZAN1VVhhy0QQAEDGfZpA2jksP4u6e+j8zlvgKhexasl002obFQR1fhBaTtzmPZxnqac8VmYuU2tmI2LDBjr8Md/wBtdvock17xHhieSsW675SflUucACSQAOJPAKPZdd1csGIqCCCY8SZTIB5NwWAr7pXXAnwyplkb2M4aPkG5csbSi+9Wxri11wpQ4biOcCtq6rtVfC2OWvg2QdobMwG/BH3lRVhMJgkxlJZ+aEbauItGd3PtPH/8X2p6O2RztmZUtdI120CZ2nf4+vKi3HiXvyBXBMoqITwmjP8AjCq51h4Paf8AEFDHyL0OPWVeqJn2geBBTJ6ioaEjxwc4fKV9G1M44SyjyPKnUTBv6imVG1rZVysFTUVFQymBw0CRwMpHQPF1n71vdno79WW2Celp7W+B4Ow6aqka8jJG8CM47ypNcFwImiofNtP2nNDMFx2QASdw4A7956d3UrS+n/JM/vo/tWK+Np1N+q2X/wCZL/2lRJp7UFcYqesFppqR0rHTPhmklkLGuDi1oLGgE7OMk7sncVFb2EREBERAREQEREBERAREQEREBERAREQDwXPWvPdjd/h/4QuhTwXPOvT+eV4+H/hCD6aVP4ip9+PMs2KllJJHUy7XNwubI7ZaXHAIJwBvJwOAWD0sfyeo9+PMsu8rpHpqG2P5VLPvFPbr3P1FtE5oPziF8X8p7T7TYK8/CyRs+8rUJDlWsmFOsGM9d+U7UZlAtFjtcceN76yteTn3rGfesHU8oGvZ8gVWnqMf7qillI+V0gH0LF3SpNJTmUQyznba3YiGXeucBnyDOT4gvnId5UwyCrv2rax23W6lLncPxNvhZgdQyHLGOFQ+eWesrJ6yok2QZJtkHAG4ANAAG8q5ke0HiM+VewUVZWH8jpKmf4KJzvMEGqavqJKWClfE8s2nuBLRvO4Khl+s7KMuku99jnDM48Gie3axv6eGfo7lecplouFstVvfcaOel52d4ZzrdkuwwZUcT+0ye9PmV2ZjEbTR6xoZG/jdSuidwAdQBw4dJDuv6O5V0+sY3wzuN/pRIxrnRxvpPbCNrA2gdxOG8dwyerfD+orxLc6xhMFPTCFgiDadmwHY/SI6z0lZSz36ljpYDVWeiqRR5c/bBBqM7sOI6lym8xG55RIbNeVvaon/AOEelfdmu6vphoz5M+lQoawGvdMYmiEv2uZHANz7EfJuytjuNzsjqCrkisbYZqkN8FLZ3EU5GNrIPss7+Ks3z8CThrmp6aSmPkLvSvo3XUvTb4j5JCoX09V2+OvAvME89K4Y2YJNhwd0b+pXl8qbZBb6WKgjrI7kCfCXvlzGR+jsAcPlVnkycxExDXgAy+2+XE38lnqa4XepYXw6ZrpGA7JMbw4Z6shc/wBkqaKaiqmVtRXNrwB4OIn+sO/ftZOeHUvL9caalrWssNdXyU4YMundsuDukAA8M9KfU85gn+K9VbxNs6eurjC8xyBjNotcOLSAM5GRnqWU0leKK7XuWhqqKtgmgjMphlbs7WCPWu6W8QeG9QJYaxk1NBPHd6w3HnCH028BrcH123n6FK3I2x1TqusMr3ucKGR5c45JIc3iSulJ7JKSrlcc1LIhsl5IbgDAY3oAHR5FLuifctb/AHh+sVBQY41kkuCWxuL3HyKddFe5e3/B/eVrk9JVm0RFxbEREBERAREQEREBERAREQEREBERAREQFousuT6mvc81dQTGlr5N79r10chxjf0g+Mdy3pEEEW6zXK0SVFNX0c0cu2CNlpc14xxaRxCy0VnutQAYbdVEHpczZH04Uwotdl1FMejL3NjMMEQPblG7uyr2Lk6q3keEXGFg6RHGXechSSimmtGp+Te2gflVXVzH+6QwfQM/SsnS6F09Bg/0e2Vw6Znuf9BOFsyJqLGktFuo2gUlBSwgdiJo+5XwAAAAwB0BEUEF+qsYP6AsL+kVj298Z9C5v2HTfi2DL3+taOsncF1ty9aMu2stPUENibDJU0tSZnRSSbG20sLdxO7O/pwoC/BPr2lma9un5S+NwcC2eJwyDntLUEImn0fcHzvc2mc/OSQHDd1qmPTNbFDMzwaYc4MHpwpZqNH63gcTJo2qJzv5qF5+q9WE1t1FTkiq0ndI8ccQ1LfSuUxf9nr34s/5f6RK/TddH7KjqSOG0BuVdVZK00cTRTzYjzk82cFSY+unhjMM9sucLdrb2edcN+MZ9dGVsFh5U67T1oht9qnqKZm2ZJhI2GVrnEAZAc0EZIJxnqAVjt+WOSOHP7czv7oDbbJNsB200537Yx96+t0pHPqjI0jYdjhv6F0M3ljrpD+UtttQCc/j7XE/zPC+x5UKOoYRV6d0vPnpfaC094cVp53OFupJGVjH8WN4nBHnVvPSSNmeCQN5IyeIXR9dq3StwoZoJdLaepZHswKimglbI05HAFmPpV+L1ybVkkjJtHWaEA5EjbjKwOGeHtYwcIOeNJwvZcS5w9Zs4BG8FTjyNyin1BcZHYANA9uScYy9qp1I/QE1krjYbD4BcmgcxMy5CZudsAjYzk5bnG5Uck1I6vutypmZL5qQRtA4kmRu5dKSzZMFgsr7lWtpIQQ1xLpX49i3O8+XoCmGlgjpaaKCBuzFG0MaOoBY3TNnZZ6DYJDqiQ7crx0nqHiCy6l7bJWMERFhoREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBMIiBgIiIGFbTUFJMSZqWCTPHajafOFcogws2k9OzEmaw2mQniXUcZP1Vi6jk00XUOLpNL2jaO/LaZrfMtuRBoEvI7oKTOdO07SexLK3zOWNl5CtDPJ2aGsj95XS7u8qUUTRD03qfNIvcTHVXqLPANqmkD5zCtg5PuSqzaKuc1fRVNdV1EjObaapzCIxnO4NaN/jKkFE0EREBERAREQEREBERAREQEREBERAREQEREBERB47c0+RWnOv7RRFurFlXOP7RXhkf2iiLWM68Er+0V6ZH49kURXIXXnOv7RVXOP7RRFMhNeGR/aKCV/aKImQaGR+PZFeCV/aKImQaq5x/aKpMr8+yKImGvRI/Hsihkf2iiJkLrwSvz7IqrnH9ooiZBqnnX9or0SPx7IoiYmhlf2ivBK/tFETINVc4/tFUiV/aKImQaq5x/aK8Mj+0URMhdfSne5zyHHO5fdEWLe2q+hERZaEREBERAREQf//Z</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>data\product_images\Indoor Intercom Screen_20251120_195536.png</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,7 +824,7 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -900,18 +840,14 @@
         <v>475</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAECAwQFBgcI/8QAPBAAAgEDAgQDBAgDCAMAAAAAAAECAwQRBSESMUFRBhNhIjJxgQcUM0KRobHBI1JyCBUWNENiguFTktH/xAAVAQEBAAAAAAAAAAAAAAAAAAAAAf/EABYRAQEBAAAAAAAAAAAAAAAAAAABEf/aAAwDAQACEQMRAD8A/VIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHtzAFZVIx25vsjFOo5bR2XcqkEWlOcuT4V6FeHPvNv4slEoYIVKH8pbg29ico/PIJTAxyrVaX2kOOPePP8AAy0a9OqvYks9nzJWGsM0bu24Hxw2CuiDn2961iNbeP8AN1XxOgmmk08pgAAAAMFW4S2p7vv0AztpLLaSMMriC91ORrSlKTzJ5YCMruJvlGK/Mq61X+ZfgUAwX86ovvJ/FEq5mucIy+DwYyANhXlL/UzTf+5bfiZ4yUlmLTXdHOe6w1lGB0pU3xW03Tl2XJhXZBzKGpuL4LqGH/NFfsdGnUhVgpU5KUX1QFgAAAAAAAAAAAAAAAAAAAAAAADXqT49l7v6l60svhXLqYyIIkIkoIAASCESBMS8kpRw+TMZkjugrk3NPy6jL2dw6EuGTzSf5eps3sMxz1Rz8c0B3A3hZfI0tOrZTpSe63j8DW1S/hTpVpZzRoxlOeOuFnARtVq7qNxjtH9TGj5nYeMNRuNTqTjWcqdGpFVLZU4+XwuUU4p44uJKaec8z6a1htdngKEkIkAQGAgQABDGCTBf3NOxsbi7rtqjQpyqTa54SyFK9FVV2kuTNOnOrbVG6bcZdV0fxPG0fHF5UvLlqnR8u1SnWoKDyovDaUufEk0+z7bnvrqkpJte9H80BuWV7C5XC/Zq9Y9/gbZ5vDjJSi2mt010Ozp939YjwzwqsVv6ruBtgAAAAAAAAAAAAAAAAAAVqS4Y569CxgqS4p+i2AqiQSEQSCABJBIBEkIkKFoPDKhPcCa6zFo5c1iR157xObWWJyAwNSSbptxn0aOYnGrTqUa0eKnOLhOPdNYaOxE419Hyb6aWyliS+YGho3hu3sriNSVzVuIwkpwhOEY7r3XJr3munLfc79fVLO1ube3ubinTrV5KFOMnjik+S+Jq0Khir6Jp19q1nqV1RdS6tHxUW5PhjLo8dWgO8mTk89p3iNXviS80mFpWStqXmTrteynlJRfq/wBmda6uXB8MEsrm2Bs5GTh1birOT9qT+ZidStF7Sa+YHoMljg0dQrU5LjXHH8zsQrwdt5zeIcPF8gMxhvrSjqFhc2d1FyoXFOVKok8NxksPD7nN8PeILHX1dvT5yk7Wr5VXijjEmsr47HZCPL2PhTyq0ZXt1TuYLh4nGgqc63D7vmPLzyWcLf0Wx6ZvfPUs2UbA1K1Phm8cuaMcXKnOM4PEovKZuVFxQz2eDXlEK7NvVVejGa6812ZkOXptTy6zg/dn+p1AAAAAAAAAAAAAAAAAK1ZcMG1z6GCKwi9d+1GPzKoIkMACCSCQAAyFCSMkgCCSAMr900a69s3vumlce+gMCOXrkcVKE/Rx/c6iZzte/wAvSfaf7MDUoS5HQt220luzl0HsdCm+GjnrL9AM19UrSsriOnTpfXeB+W6m0eLo2alFVo2dGF3VhVu1TSqzprEZTxu16ZMVT2m9+WxWmpcTSltjeT6AZZ4i23jHQxSefuyx/SfIfpB+mOlpl3V0vwrClcXFJuFW8qe1CEuqivvNfh8T5ZefSJ4vq1XW/wAQ30J88U3GMV8kgP1clGckk8b7m7aXF9/eV9RurOlS0ulGMberxZlVb57dsH58+jH6Zrm81Who/jKdKXnyVOhqUYKDjN7KNVLZpvbiWMde59682STjJYnF4aYHX0+ytLGi6djb0belKTm40oqKcnzb9TaNTTqjnbQb5rY2gDKssVYCO/EvQwuLk9jPT+0Xqa9zTlVpwoRlKHmyxOUXhqC3lh9HjbPqBVqUGpJPKefmduEuKKkuTWTjULG2tE1aW9KinzVOOE/j3+J0LKTeY59lLb0IjaABVAAAAAAAAAAAAAGvLepJ/IEJ5377kiIAAAASBAJAURJUlBEkEhAZfumhcv20b8toM5lzL236IKxxZz9d3tqf9f7G7Fmjrcv4FNd5/sBo0OSOhVfDFLsjQt+htXMuYGFvfHY+dfTl4lraF4ThY2FV0r/U26anF4lCnj2mvXGF8z6GpZc89z4D/aOrzXjDToS+zp2eYr4y3/RAfEZ29xY7xi5U12ME9cpPEZQqNdZJbI7Oq3mNJuoU/elDGfTr+R45LOyRZE13nCFSOc5TWU0fsX6OtWq634F8P6jcScrivaqFWT+9ODcG/nw5PxpbPyraEZP3Y7n7D+i6wqaZ9HfhizrxcaqtFWnF806knPH4SRCPoek/5d/1M6Bx69ncXWhVqFpWVCvVi+Co/uldN0m8sfClLTI6jOpewouH1yabfG23nvjfC9ArtMg40bHUrTwpGyoXrutUp0eBXNX2fMn3fb/oz+HKGoW2hWVHWbiNzqMYfx6seTllvC74WFnrgDp0vtIl1FecvSL/AFX/AMIo+/nsmwpfx2u6f6oCHLJmsV9o/XBikk2Z7L7Of9X7IiNgAFUAAAAAAAAAAAibxCT9CStV4pyeM7MUrBFbL4EgBAAAAABIAAglIEhQmPvIgvBBCq8RZya8suXq8HSuZYg2cio8tfiFTFnN1mWXRj8WdBM5WoS47trpFJARQWMF7qXMUUbEqEakeKUHJpbLOMgc+Ev4kl3Pk/8AaJ8PVtQ0ez120pupKyTpXKistQfKXwTR9V0z63dWEa2p2MbG5c5pUoyy+BP2W/V9jNUjwpxlGNSnNOMoSWVJdU0B+Ea9RvKzsKdGj5bxCKb6pH6P8WfQXomr3lS60LU62jSqPilbVKPnUU/9rTUor03NbQPoA022rxnrev172mn9haUPJUvRzk218kEfLfoh8B3Pi7xND6zCS0Gzkql7WeykuapL/dL8ll9j9cUYOvdJRio8TwkltFLt6JGtY2ui6JDTNAsFSsFWUvqttSptp4Tbbfd4e73Z6LT7FW2ZTkpVH1xyQVu04qMVFcksFyAAZDJZVgXp7Rm/kYK7cJKpGLk4+1wrm11S9cGd7Qiu+5TnzArC5o1acJ0atOpGfuOMk+I6FpHhor1bZzaNChSrVK0aFGFWfv1IwScvi+Z1aUeGnFegFgAAAAAAAAAAAAAifuSx2JDA1lyJIjyRIQAAAkAAAAqUgAESi62RWPMTlhAal9Pbh7nNby2zNdVeKcmvgjXQVZvCbfJHIWZ1JTf3nk2NavqVjZOpXk0pNRSisyk30S6s0dLvaN6p+XGpTnDHFTqx4ZJPk+bTWz3T6AZJanZW+oW1jXuKcLq4eKVNvebxnC/BltL0ivba9qOo1tQq16dzGMKds9oUknnPq/2Ilo1hW1e31OrbRnfW8XGlVbfs5WHhcs46napoDWvYVEnKEeJehzqlbjn6JYPQxWxSpaUarzOnFvvgDgKW5lptyklFZb6JHXWmW+fcf4s2aNvTpLFOEY/BAa9rawiqVWrSpu4hFxjNxXFFPon0Od4Wudbup6nLXLSFrTjccFpFe9Kmlu36Z5fM76Q5AMFWS2QBDEVxSSDLxXDDPWX6AVm8yZUsyALUo8dSMfXf4HQNazhzm/gjZAAAAAAAAAAAAAAAAA1ntOS7MktWWJJ99iqCABIEEgAAAAJQRaKAlbI076rwxwubNmvUUIts4txVc5N/gBjlLMvgRkqbWn2/1itmS/hw3fr6BXjvHdlc6jYRVrGtJ03OMo0ftIxlHh4orq0+nPDZfwlY1aFFVK0KkFGkqUfMjwylvlvhe6XJLPqe11ezzJ3FNf1pfqc+EQLQibEEVhEzRQF4ovEqi6AkkgBEgADgeLdeholspOUIy8uVac5pyVOnHCbwubbaSRj8L61W1OrXpV+CfDTjWhUjHhbi201Jd01z9fQzeJdBerVLevQr06NxShOlKNal5lOrTlhuMo5T5pNNevPJseHtEp6XSqYmp16uPMqKPCklyjFZeEsv8QOpCOXl+6uZaTyy0uWFslyKsCjJhFzmormwzatqXBHMvef5BWWMVGKS5IkAAAAAAAAAAAAAAAAACJx4otGun35myYa0Hnjj80EqAVjLJbIEggASASkAiiZSUURKSjHLZy7274sxi9gIvbjjeE9kaTeXl8yJPO7LUKU69RQpLL69l8QqaFOdeqqdNbvr2Xc9Db0Y0KSpw5Lm+77lLS2hbU+GO8n70u5nAHMurLy5OdJZh1j2/wCjpgDiwRlijdq2sZNuHsv8jXnSnT95bdwmqpFkVJyFWIIyM55b/ACQ2SoN89iy4YdVnuwEYN7z2Xbqy2dklsl0MfmRckuOPE+md2WyBLKt4JzlpLdsz0qPC1Ke8ui7BFbelupz+SNgAKAAAAAAAAAAAAAAAAAAAAAMFWi88VP5xMSnh4ez7M3CtSnGovaWfUJjApJkplZ2r/06jXxWTFK3uVnhcH88AbHEkYqtzCmue5rStryXSP8A7GL+7rqfvOnH/kBjubt1HhcuxqN5fqdSnpH/AJKvyijet7SjQ3hBcX8z3YVybXTqtZqVTNOHrzfyOzQo06EFClFJfqZAAAAAAAAABSVKEuaw+62MM7Z/cmv+SNkAxz50q8PuprukmYnVn5qprnjLcv2R1Ss6cKi9uKfxCNBPbd5LeuDa+r0+z/FkxowX3c/HcDn3FKNxSlTlRVeL2cGtn8+nxMlnaVqdClCpUzKMVGUm8tnQW3IAUp01Bbc+rLgBQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/9k=</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>data\product_images\Camera Box_20251120_200934.png</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -924,18 +860,14 @@
         <v>900</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEFAQEBAAAAAAAAAAAAAAUCAwQHCAYBCf/EAFMQAAEDAwEEBQYICAoJBQEAAAEAAgMEBREGBxIhMRNBUWFxIjKRscHRCBQjUmJygaEzQmNzgpKishUWJDRDU5PC0uEXJSZERVRVZLMnZXSDhPD/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQME/8QAGxEBAQEBAQEBAQAAAAAAAAAAAAERAgMhElH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERARFoz4QG0TUWjNQWilsNRBFT1NK+SQSQNed4PABBPLgg3mi5Hp9turZMCS7NjPfSxEfurLG1DWM56Rl9JB+ZDFj91B1bkdqZXJj9oGr3uLjqCsBPzQwD91Yx1pqonP8Yrp/blB14i49l1ZqaR2X6huxPdVOHqKxJL/fHkl97ujj2mrk96Ds3KLima53OYgy3S4PI5F1VIfaseSpq5OEtZVP8ArTOPtQdtuljYcOkYD2FwCtSVtLEPlKiFn1pAPauIZGl5y9znHtJJKsuhYfOaD4oO3ZbzbIhmW40bB2unYParD9TWJjS596tjWjmTVxj2ric08fzGegK26nj+Y30BB2nJrTTEbcv1DaAP/mRn2rDm2i6PhbvP1Ja8fRqA71LjboWDk0ehfCwIOwX7U9EsGXajoSPolzvUFYftc0MxpP8AGCA46mxSE/urkQsCoLQg60dto0K0H/XLz4Uk3+FYp25aJAOK2rOOyjk4/cuUy0KktCDqc7edGjk65HwpD71jO+EDpMNJbSXlx6h8XYM/trmDdCboQdLH4QunOq1Xj9SP/GrLPhEWQzYfZbqI/nAxk+je9q5vwEwEHVNFt30bUECZ9xpM9c1KSP2SV6Ci2p6JrN0RaioWk9UxMR/aAXGpAXwtBQd3UV/tFdj4ldaCoz/VVDHeoqRBBAIOQesL8/uibnO6M9uFm0lyuNEf5Fca2m/M1D2eooO9couJ6LaJrKiIMGpbkcdUsglH7QK9BR7bdcU+OkraOqA/rqVvH7W4QdcIuZqL4Q19jwK6y22ftMUj4j9+8vQ0Pwi6BzgK/T1ZCOt0M7JPuIag3wi1PRbe9G1GBOblSHr6Wl3h+ySvQUe1fQ9WWiPUdEwnqm3ov3gEHuEUVQajslxIFBeLdUk9UNSx5+4qUDgQCDkHrCD6iIgIiICIiAiIgLl/4XA/2l0+7/sphx+uF1AuZPhctzfNN45mmnH7TEHOUU8kJADzF2Nf5TD4FTNvqZSN8ZieD+I7gVCyQSRZLm7gPMtG8w+I6lIWcYhdgNHlfingUHoYLxNHgTNbIO3kVIwXSmmwN/cd2P4fevJXEkRNI3uDvxeawqetka3ysTNHMt4OH2INjbwPEcQvi8dQ3Jwx0EpB62n3KZpbo+SWOJ8Qc97g0FpxxJwEEscKg4WzKLY9eK2nbPFd7QYXcnMc9w8PNHFZjdidYPw+o7fGOvETj6yEGpCVQStwf6GKRnGo1hStHXiFvteqhsk01H/ONZk9u4Ih7Sg00SFQ5wW6hsy0LF+H1VWyfVcz2MKrGgtmkeOkul0mPdM4Z9DEGji4K2XjK3yzSuy2HnBc6jxll/yV0WjZhFxZp2ol+u559b0HP5eFbdK0c3AfauiGM2eQ/gtHQvx89jT63FZLLppKE/ybRdub9aCL/CUHNLqmIf0jP1gqenafNO94cV08NU2yNoFPpW1sA5DomDHoYshuu6iP+bWihi8AfYAg5figqpiBDSVUhPLche7PoCzILFe6gEwWW6yAfNo5T/dXSb9oV5xhlPSM7PIcfasd+vr+7lJAzwh95QaEh0Rq2Yjo9M3g57aVw9azYtmut5cbumq8fX3G+ty3LLrO/v51wb9WNo9iwZdXXgk793e39JoQa2h2Q68l/wCBFn16mIf3llx7FNcv86goo/r1jPZle0l1VW/0t9kH/wCgD2qKqNbUQz0+pov0q3PtQRkOwnWL/wALLZ4h9KpcfUxZbNg19/3i+2OL9N7vYFiVGvLA3PS3+J/1Xvf6go+baJpmM/z6aU/Qp3n1hB6FmwqRv861haox9GIn1uCuN2K2eP8AnOu6fvEdM3/GvGz7TrAwfJU9wmPdC1vrcsGbarRgfyez1bj+UmY31AoNijZJo+L8PrKrk7ejhYPYVUNmegI/wmobzL9VjR/cWqp9qtaf5tZ6ZnfJO53qAUfNtK1DJ+DZb4R9GEuP3uQbo/iJs3j5y3ufxmLc+hoVTdI7Oo+DbVc5/r1Lz/eC0LPrbUs+c3R0YPVFExnsUdUXm71WfjN0rpAeozuA+4oOh5rDs3p/Kk0tGcfjVEx9r1RBqzQennZt9Nb6FzeXRVXEfY0lc1vYZDmQuee1xLvWvnRAcgB4IOl5/hB2ugG7TTVNTjgAxjnj0uAUhs92/wA2rNd2nT0dlLIq172uqZJA1zQ2NzuDRnPm9q5UpoD8XfJKTvmTda0/NxxPqWwfg/Mxtn0yfysv/heg7sRByRAREQEREBaj297NLjrmK31tlqYRWUDJGimm8kTBxB4P6j5PXw48wtuIg/Pi6W+ttFwloLrSTUdZEcPhmbuuHf3jvHArHiYxmdxobk5OAu7Na6LsesqD4rfaJspaPkp2eTLEe1ruY8OR6wuYNo+xy+6Q6Wst4fdrM3yjNEz5WEfTYOr6TeHbhBq24DMTT5XA5y3qUWRkZIBPVIzgR4qaZIHjgQQrE1JG87zfId2tQYNISZ4yd14B4O5EKcoZGRXChLycmpia0AZyS8dfUoiOF0dUzpGcSeD28j4qWo34uNI38tG7H6QQbx1rcKu36cqjR1M0AfNHvCNxGfKWr5NRXQ5zX1B8XZWwtpztzSlS78vH+8tNPnUE7Jfb2Gtc2qqt1+S07vB2Dg4OOPHgrDtQX/B3a6qGAXdXIKK/hN7GsAGdwADJ7Dn18ViSVr3bvkjyRgeGAPYgnpL9qZjQ43GpaHcvLb24x6VakvuqGEh14mbu9r2947O4qDbXSNJLQ0HAHLsOfWrMlRI88XKiSl1VqRkhabzVZHYW+5UHVupP+tVnpHuUS45JJ5lU4QTH8a9Rnne679ce5fW6l1A7ne6/+1woloV+NqCUjvt6d514uB/+9yyGXa6O8651x8Z3e9RsTVksGEGe2urXedW1R8Zne9V/GJ3edPMfGQ+9YjFdBQXC5x5veT3uK+OIAyeXaVQ5wa0ucQGjiSepQNyuBqCY4SRD1/S/yQTMBpaimrbhXCR1qo3Ni6OJ24+rnfktiDseS0BrnOdzwOHEhY1LW2a5zsorjZbfa4ZTuR1tCJGvp3Hg1zw57hIzPnA4djJByMG2xjp9BzCMl3xO5iWZuT5DJIgxr8dhcwtz1EtHWomio57lXU1DSM36ipkbFG3tJOOPcOZ7ACg+VdHNQ1tRR1TNyop5HRSN54c0kH7wre4FJ6oq4K3U92qaNwdTSVTzE4cnNBwHfbjP2qNygboX3AXzeC+bwQVAKoBUb47QqmvaTgEH7UFwNVQaq4opH+ZG93g0lZkVsrpPMoqk+ETvcgwd1NwngBknqU1Fp+6SeZb6g+LcLPp9E6kqD/J7RVuPVut9yCArrPXUNO2eqoqyCFzt0Pmp3RtJxnAJHE816/YA3/1l01+cl/8AC9Xo9lOvbkcvs9wkPUamY/3ivf7INj+sNPbQ7LervRU0FDSukdIRUtc4Zjc0cB3kKaOohyREVBERAREQEREBERBqPaVsRsup3S19kLLRd3ZcXRt+QmP02DkfpN+0Fcy6r0vetI3H4lqChfTSH8HIPKjlHax44Hw5jrAXeyj77Zbdf7bLb7zRw1lHL50UrcjxHWD3jig4BBBV2mIbVU7iWgCaMcSBzeMeK3TtG2B11s6Wv0ZJJX0g8o0Mh+XYPoO/HHccHxWkjFu10UFVCWSxVDMtkaWujcHDgQeIPcg3JtYO7oyrPZPF+8tGulK3ftdd/sNWn8vD++tC7+UF9z8q2XK3vJvIKyV8JVsvA5kL7HvSHEbXPP0Rn1IK8r6Fm01ku1TjoLbVuB6+iIHpKlabRl7lxvU8cX5yVoPoGUECwLIYF66i2eXKUjeqIR3RsfIfuC9HQbJLjNg9Fc5h+TpC0ekpo1uxX2rctBsVr5MZtlWe+adjPuyvRUOxCoyOkpbfEO2SVzz9wQc+NI7QsiOOR/mRvd9VpK6Yo9jZjxvVdDD+ap8+vCmKbZNRtA6e51DuP9HE1nryg4+rbZfLg/cgtdYIM8Pk8b3ecqqm0XqCXGaERD8pK0e1dowbMLDGPlH1sp+lNj1AKTg0HpuEDFsY8jrke53rKDjazaQ1FbKr4zTVVBA5zDHIyQ9KyRh5sewjDmnsPrUwNK3CSnlgoZLPahUNMc77dSSOkkaebN973FrT1tbjPI8F2DT6ZslPjorTQtI5HoGn1hSUFNBAMQQxxgdTGAepBxdQ7G6ufAY+5y/mqIj1qdo9g9ZJjeors7Pz3xxrrlEHMdH8HyRwBloGt/PVpP7qnaL4P1KwDpYbWztyJJT963+iDT1JsKs0QG9LTt7mUbfaSpqj2Q6fg859Q76rY2epq2OiDyNNs705Bzo5JfrzO9hCkqfSVgpyDHaaTI45cze9eVOIgxYLdRU/83pKeL6kTW+oLKwiICIiAiIgIiICIiAiIgIiICIiAvC7QtmFg1tu1FXCaS6sIMddTgCTgeAcOTx3H7CF7pEGgtqezbUVfpyot9mgjrpZpY3MLZAwAB2Tvb3LgtY2/wCDvrecA1YoKUHqM4efuXZaIOWrd8Ga4u4195gaOyPPuXprf8GuzRYNZcJZj1jDsfvBb/RBqe27CdJ0eCYnOI6xGzPpIJXo6TZnpumxu00zgOoylo/Zwvaog85FojTkZBFqgcQMfKFz/WVJU1jtVNj4vbaKMjkWwNB9SkUQUxxsjbuxsaxvY0YVSIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICImUBERAREQERfHOa0ZcQB3lB9RUGaIDJkYB27wVv45Tf8xD+uEF9FhvutvYMvrqVo7TM0e1WJNQWePG/daAZ/7hvvQSaKGk1TYo27zrvQ47pmlWv44ae/6xR/2iCeRebOuNNj/i9P8Ate5Wzr/TIOP4UYfCN/uQeoReQdtF00Dj46894gf7lZO0zTuSBNUnwp3IPaovCnahYASNyuPeIR71cg2maekPlvq4uP48B9mUHtkXmYdd6alIAusLT9Nrm+sLMh1VYZt3o7vQneOBmZo9aCaRYkVyoZgDDWU0gPzZWn2rKa4OGWkEdyD6iIgIiICIiAiIgIiICIiAiIgIiIIbWN2ksemq65QMY+SnaHBr87py4DjjxWpHbWLtJIQ2SgiPU18RH3l2FsTa6SNnF7IOPkm/vtXKdVMBkY8nuQbtk2jaicQQ+kYO6DOfSVbdtD1I48KqBvc2BvtWjqa51tEc0VQ7d5mM8Qf0T7FM0GsoyQ240pYf6yA5H2tPsKDajtd6lc4n+EQO4Qsx6ljnWOoySf4Wn/Vb7l5Kmu1BVMDqeshfkgbucPyerdPFZPTjqbIfBjvcgn5dV6ilxvXiqGPmkN9QVp+pL+8Ydeq7HdKR6lDCRx5RS/2ZCqzIeUMv6qCRfe71IMPvFeR+fd71Zkr7jKMS3OtcOwzu96xcTHlA/wBI96blR/UH7Xt96CtzpnHL6qoce0yE+1UPjL/Plld4vJXwtn642DxkCpPTfNi/tP8AJB96FmMEuI8V9EEfzVRu1LvNbF9hcfYggrneaxp8I3lBc6CL5oToox+KF9bQXVwy2lmd9WmeVhzNrWV8VCQ8Vsrt1kHQHfccZxjOeSDJLYxzACtOmpm+dJGP0llN0zqeXzbXW/bTgetVs0Tqp/K2yt+sI2+tBHOq6NvOaP0qn4/Rf1zfQVLjZ/q5/wDQRM+tLEFdbs01a88aikj8Zx7GoIMV1KeUo/VPuVxtTA7zST4NPuU43ZXqh/n3ejj8Jnn1NVX+iC+P/C6hp2+HSn3IIUPa7kHfqlfCQOfDxU1/oWrXn5XUbMd0Lz63Kpuw5p/C6hk/Rpfe9BAOljHN7R4kK06oph500I8XheobsMt/9Jfax31adg9qxdQbFKeKzyvsVdUVVya5pZFUlkbHtz5QyBwOOR5ZQeafV0DedTTD9NqpbeqKEjcuccZHLdnIx6Cva6Z2NWmG1UUuoTU1FzDQ+ohgnDYd7OdwHGSMYBOePHkpWbZbpKqqZqirtr6SMFx+SqDFGGjk7dzhvDiePeoNft1xLAfk9TVDOXKrd1fasmLalXU5G7qp7sHOHuD/AFhStTovRzJ/5HZZXw4j3TVVEzHOLs5AAPVwGe3e5YWJHpnSGYHTWajYwgPeTNLxblmd3MmORPP5zO9UfWba6+EAOvtJJjHnUwJ+4LKZ8ICaEfKTW6bn/u8o9RUzQbP9GVlPHPT2GkdE4kZc5zsEcCMhxGc961Xc9XaApmSst2iYZ6hhwGztaxpwePHLj9yDYcfwkaCMj4xSQuGePR9IOH2tUjR/CU0vK9kclBcjM87rWQMEhceoAHBK0PUbSLRBEyRmz7TzI3khhe3fzjGfxe8L3GxfU9Hqu/VTWaX0/Qili6SOSCm47xO7g56sHqwUG5NHbbdM6r1RS2C3012ir6jfDfjFO1rWlrS4h2HEjgD1LaK52slJCz4RunGGGMSxWmomMjRul7zvNye3AyBnK6JQEREBERAREQEREHjtsJxs1vx7IB++1cdm4sl3hJ5BBxnPDPsXY+1yMy7N7+0f8sXegg+xcUVlNJE+beBAOC09vHt9hQZUpyrEk5a4Nkbvg8s8x9qroWZpG8uZHDxVmri+UB+aM/eglLBum70rot5z97g08COHbyXRdk0tQVNqpKiaaeR8sTXuLX4GSOrhlc76dbuXilP0j6iuo9Ine0zaz+Qb7UFmPSVqHOOZ3jKVmQ6Wsw50m94yO96lWq8xEYlPpqyjH+rYD9bJ9qz47DZ28RbKT+zBV2N2Fea9BSy121gw230YH5lvuV5tNSsPkU0DfCJo9ipD1930F5oY3zWMHg0BVB2ORx4Kxvr7vIL3SH5x9KjJrLaprwy7SW+lfc2DDap0YMjeGODurhwVVdc6Og3fjtTFAXAloecE4549KxXagtoc0fGS7exu7sMjgc8uIbhBKnCtuwoqbUNIySRjWVbzGd127STHjnHA7mD9ij7tqGohmhFHTt6OSHpd6opqgnmRjDG8CAM+UQeIQx6PK+EryVsvd5ulfFDBSwtppoHyMqnUU7I2ux5BLnEAg55DmOsKJ1jqOs01SCW7X2gawlpa6itL5jl29gfhTnzT/wDxCD37ivmcrTmn9otNe77TWmHU9XT1NQ1zojLY4mMfgZIy5ziDjPNbZt28KGn36j407cGZ90N6Th52BwGefBBlEqguVFS+RkLnQwunkHKNrg0u8CeHpUK+e/EndtcbBjhv1UY4/egmi5Ukrz1Y2+1Ejj8apLWwEBrRM2YvHHLid0Y5gY48u9faOa8MmihnqLNPCDgy9M/ppBnnugboPPrPUip/K83rKpe2GKmZURxtlaWvYZAN9rsgh7TzZz6+py9EF4rWDnRXlzw97W9DF+E4sbxf5Q8ocBg5GDxafnIjAs1GbqHRwva0thBL3YduHeIx5LuBOHfa154ZGb16tU1DTxTSTb54h74Q9oYd0OzjfzjLXeSOprR1DMtpeWMUToWh7XxnymveX4HEAZJI4bpBweYJ61XqieNllnZJG2V0uGsjJ45BB3hgHJbjI4HiAOtUQ+m3NZcGvDnMD2vDRuPw/wAknHHgMbuOoks+kuXK+lIo4p3PgLKiaXO47MrAMA7w6hxyO3BXStii6S505ZE14ZhxduDDQGYySGjj1NOfm9pWXV6I0xUwmOWx0O6TnyI9w+kYKiuQqi51DKyWq3pjXxvD6eWOIMDXBwOSMY5DgByK2l8F+Mw3y5iTg99MH46wN8YW4WbP9JRebYaI4+c0u9ZUlarJarROXWu3UtI54w50MQaXDsJCCBtBz8Jmyj/2Ob95y6DXPNjO98Ju0j5til/ecuhkBERAREQEREBERBHajtUd8sVfbJpHRMq4XRF7RktyOeFybrrRtx0rWmjusIkp5CehqGj5OYDs7D3cx967DWBfbPQ322TUF1p2VFLKOLHdR6iD1EdoQcQRUzYY9xpJbkkZWLVsxI/GfweeHiVtHaZs4rdISuqqYvq7K4+TPjyos8myex3I9y1bdpBFh2D5bTH3Z6soM2zDduNIfpj1LqDRR3tKWw/ksftFcxW9u5V03c8LpvQB3tH2s/kyP2nIPQNCvMavsbFeaxVFLWlXAFWGqrCCgKoBfcL6g+YX1fV8ygiNU3SOy2asuk8kzYKGmlqJGxydHvhoHM4PLOVpLYvtUueq9oNfY7vOa6mnZJU0k8dQ9ggbHlwYW8N/IxknHLvW69UV0dstNbXT00dXDT0k8r6eXzJAGg7p4HgfArV2zja5Taj1zFpyj0pbbXHJBM8VNPKCfIbnAAY3GcKK9/ebrcaevhioqN1QPjjIpgZQwRU5bkzAHzuPDC9DG/LPJ4g9iwH1D5quWnMUszOnbTuZC1p6Jjo97pZCSCGdWR1471haq1BbtN0TH3MTtjqt8NMQGS7AJycgAneznuPYpJi27J8Tgkb0TdzdLCABu8sd3cvJ6y0PbtV0kdLWzVcMTN3HQOAdlp4HJB444eCaJ1Vb9Ruqqa0UlXHHSNEkkkzWgF78OwN0kE+Vk4wByUdtJbq2e2wnTlHP025kshJ3g7eYDnygHAguxnljPMqot6U2Vaf01dmXKH47V1rGOjY+slDwwOOThoAGe9e7Yd1oAbgDgAtTbO6LaLS3yaXUbzBbDERuVEjOLsjGBkkEDK9Hrq73qhZQR2G5WWOXdcap1VVU7CDw3eD3DmMngFeZtxOrk16HVrnjTVwLJBE7o+EjjgNOeZPYtSMhZPuNdqql6R4bjo3uefKaXDGO0AkdwXrKHUUlToe8RXu+2Ke8s3pGikq4ZGsjywNLtzgBvHGT2heVZV1row1upYG8BwgEjwOA4eQzq4rH1l345vbnrvLJWVc4aeaw6djkuz52up5t2ohgkkM7RvHIwOBGOvnjASxWikF9tc8Tru98VUx4LqJzY+LQ4bxIGBg8+o5HNXZJpblbrdRx3O4yVdJE6OpljopyZHFzi0jLRvY4K7Z7HUR3y3VT5b28Q1DXkS0rmMIz+MS7ks7x1brO+XX7lz+NpgrzmraOaqMczcuip2F+G+cwhzSXAAEvJABx2sHzipitkkFJKafHShvk57VD2s1hcw1nSnMZEnSEYJJ4YHhzXS7nlqeWWjcXwOFM7cLeAw3gRwzuDIyMZ48GZ61RXTvqYmGsndMWA4Mjm5YS3BDTww7l+l4L1s9oonvLhvxNwGiOIhjWgADAAHAcPvKtxWqjimikY+dz4yC3ene4ZAxyzg9fV15V0RlgojG6OqdMHMcwiNrCQHfS84ggjl3bvYpxxVfQF7w5rXuPLyWkq423VUgyymqHD6hUGG4q3x3gQCQ0EnAycY7FKNslc7lSTfbge1VDTlxcCBT7mRjPShp9IOQg1xpUtm+E5TuByI9PuIx3v/zXQ60/pbZ5erbtrl1RUfFBaTbPijGtlJk3/J/Fxy4HjlbgQEREBERAREQEREBERBRUQxVED4aiNksUjS17HjLXA8wQeYXOe13Y0+kbJddLxyS0LD0ktG3ynwjrLOtze7mO/q6PRBwvTOHxmE/lB610ts2eH6LthBzhrwfEPcsTahsjhvc5uumRDSXMvD5YHHdin48TwHku7+R6+1T2g9K3Sy6apaKu+L9Oxz3O3JC4DecSOOFBOR8ldCvMttQBxfEPtJV1ttk4b0zB24aferqYxcr7lZYtp4ZnPfhqrbbmcN6WQ+gexNMYOV93lntt0Ixl0jvFyrFDAAPJJ8XFNMRuVSXhSooqcf0TT48VW2nhbyij/VCLjyV7gqayIRU0lI2NzXMlbUQGUPa7AIxvAenK8lp3QQ0/X1NZZH0lBPVOBndBQBxkA6sued0cTwC262NjeTGjwCqQeAdZbvJO+T+FKvLjlrmU0DXMbnO6D0ZyPFVVmla+tjjZNdby/o2jnUMa1xGfKIaweUc9WF71EGvqbRL4nOL6m6yb4cCHXGYMwRg+Tv4zxPHqVD9mttqGuFTSGXe59NWTyet5WxEQeAi2YWBoG9ZLO44wXPpmvJ8cg5Ug3Qdo3mONBbg5rWtDm0kYcA0YABxnAAA8F69EHn4NM08AxC5kQPPo4mt9SyRZBgh1VOQeGAVLoghm6coWu3vLz2jA9iuNsNCCMse7xeVKogwG2ehaB8gD9ZxPtVbbXQtxilh4drcrMRBYbRUrfNpoR4MCuNijb5rGjwCrRAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/Z</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>data\product_images\Nvr Network Video Recorder_20251120_200445.png</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -948,18 +880,14 @@
         <v>160</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAcIAQIDBQYECf/EAFYQAAEDAwEEBAcJCQwJBQAAAAEAAgMEBREGBxIhMQgTQVEUFSIyYYHRGFRWcZGSlKHSFyMzQlKTsbLiFiQ0RFN0hKKjpMHhNjdDVWJkc4KDJkVjcvH/xAAXAQEBAQEAAAAAAAAAAAAAAAAAAQID/8QAHxEBAAIDAQEBAQEBAAAAAAAAAAECERIhMRNRIkED/9oADAMBAAIRAxEAPwC1KIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg+K9XKns9orLjWO3aekhdNIe3DRk49KgJ/SagBO7pabHZmtbn9Rej6Ueoza9Dw2mB+J7pNuuGf9kzynfKd0fKqkEHiScoLI+6bi7NLS/Th9hYPScj7NLSeuuH2FW0hYIQWS904z4Kv+nD7Ce6cb8FX/Th9hVswsILJnpODPDSzsfz4fYT3Tgzx0s7H8+H2FW1YQWS9063t0s76cPsJ7p1vwVd9OH2FWxEFkj0nR2aWd9NH2Fg9J3njSx9H79/YVbVgoLJe6dPwX/vv7Cx7p4/Bf++/sKtiILKHpPd2lz9N/YWvunnZ/wBF/wC+fsqtqwgsoOk8e3S/98/ZQ9J/u0ufpn7KrWVqUFlvdPj4Lu+mD7Ke6gb8F3fTB9lVpWqCzHuoW/Bd30wfZWPdRM+C7vpg+yqzlYIQWZPSjZ8Fn/TB9lanpSNz/os7H88H2VWYhYIQWZ91I34LO+mfsoelI3s0s711g+yqyYTCCzfupG44aWd9M/ZWvupD8Fx9M/ZVZcJhBZg9KR/Zpdv0z9lPdSSfBdv0z9lVnwmEFmPdSSfBdv0z9lYPSkl7NLs9dYfsqtCILLe6km+C8f0w/ZWfdSS/BZn00/YVaMLKCz9u6UDJKuFtdpkxU5eBJJHWbxY3tIBYM454yrJQSsnhZLE4Pje0Oa4ciCMgr80Ar0dHjUZ1HsttTpX79VQg0M2TxzHwafWwtQSUiIgIiICIiAiLpNbXyPTelLndpcfvWFz2A/jP5NHrJCCqPSK1F4+2jVcET96ltrRSR45bw4vPzjj1KLSOK+uqkkqJ5Z53F8sry97j2uJyT8pXzOCDQha4W5C1IQakLDGhzw3ea0n8o4CHkuCo/BO4diD6Sxg/jNN8/wDyWzYGvzu1VLw5/fP8l8gGAtSwl54Z4dyD63RMHOpp/n/5LRzMDLXxvH/C4FfKRjt9SxugoOZYJWoLgO9btc3HlNBPrQatwXhuQM8MnktyxgyDNFkelaSOY4eRGRjmcr5QOCD7A1mQBPFx9K1fhrsBwd6RyXzNGXAAZK5vJaR1mWg+hBkkDmcfGti2Ic6iP6yuKSRrHB0J3wOPlNWhqZCMYYB6GhByv3QRuyNeD3LXn2FcIe9zcZ4DjyXIaqoBx1zx9SDk6uQjIY/5Fo1rnea1x+ILidUTHnLIf+4rd1RIGFvEfESg5BBKeUUnzSuMjjg8D6VxNlkByJHg94cVu58kpL5C555ZKD6TS7o8uaBvxvyuJ8bGgkTxOI7BnivnPnEHgjfOHag5MZWwieeTHn1LmnpaiPyxHho45Zxx8fatmTb7BuVT2P7RITj1FB8rmlpw4EHuKxhfVLBVOO/IyR5/K876wvncC04IIPcUGuEws5RBjCYWUKAFYHoh6k8D1Pc9PzPxHcIRUQg/ysfMD42n+qq/LvdDX5+mNX2i8xk/vOpZI8A+czOHj1tLkH6KouOnmjqII5oXh8UjQ9jhycCMg/IuRAREQEREBQL0ptRdTbLdYIX4dUO8JnAP4reDQfXx9SnpxDWkk4A4kqkm2C+fuk1/cq3e3oY39RDx5MbwQeJcuMrlIXGeaDjIWhC5SFoQg4yFo4Et3SSWjsK5SFqQg4i1YweXYuUrUhBx4CxhbkLGEGmFghbrBQaY54JAPNY3Mf8A4uRa5Qa4wcj9CwRnnz+JbIg491Y3fi+RcmFnCDjAcM4OM8Fggk965MLGEHGW/F8iEEneJye9bkJhBxkZPZ8izxxjPArKIMHOcnn6Vjj6PkWywgB7w8OD3Bw4A5WCSSSeJPeFkhEBj3s8xxb8XBJHPkfvSOLnHtJyVlYQa4WCFvhYKDUBZws4RBqjRk962WEF3+jfqM6g2W29k0m/VW0mhlycnDPMPzC35FKKqP0RtR+L9ZV9ilfiG5wdZEP/AJYuP1sLvmq3CAiIgIiIPK7Ubz4i0Lda1rt2QRGNh/4ncAqTTQyvcXFuSeJ481bbpG/6qbnjnvx/rKD9B7ObDdNFxXi6OqusIc55Y/gAPQpMxHqxGUYup5PyfrC0MEg/F+tSlatM7P7nMYaSsqi/dLwHOI3gOeFqNL6GfRS1UM9W+KOQROIJ4OU2hdUWmnk/J+ta+DSn8T61Lw0foPywbi/fY3Jb1nEL7rLs70feYw+gqpZOGcB/EBTeDWUImlmx5n1hamlm/I+tT83ZPph7i1tRKXDmBKsnZLpjODNLnOPwqbwaSr+aSb8j61jwOf8Ak/rCsANkml3BxE0xDTg/feSDZFpdzgGyzku5AS803g0lAHgFQf8AZn5QsC31R5RH5QrCfcb012+Fn/yrB2MaXPNtZ+eKn0hdJV8NtqwPwDvlC18W1nPqHfKParBHY1pNsjGOZW7z87o648cepb/cV0n/ACVd+fPsT6QaSrz4trP5B3yj2p4srPe7vlHtVg4tjej5HysjirS6M7rh154HGe5bnYtpPBPU1v58+xX6QaSr14qrTyp3fKPanimvPKmd85vtVgafY3o+ohbLFDXOjdyPXn2JUbGtGwR78tPXBoIGRO48zgch3lPpBpKv/iiv97O+c32rHimvPKlef+5vtVhDsT0f20td9JPsWBsU0cf4rWn+kn2KfSDSVe/FNf71d85vtQWmvP8AFnfOb7VP82xzRMM0UUlNXB8pwweEO4n48Lm+4po/3pW/SXexPpBpKvXiivPKmd89vtWDaK/3s757farAHY9ogVTaY01Z1zgSG+EP48M93cucbFNHZ/gVb9Jd7FfpBpKu5s9eP4s757PaseKK/wB7H57ParBw7H9Dy1EsEdJWGWMZc3wh4wMkd3eCuZ2xbRjWucaGsw0En98O9ifSDSVdvFFfnhTH57PaseKK/OPBnfPb7VYWm2OaJqYy+GirHNBxkzvH6R6VyfcW0YOBoqv11LlPpBpKu5s9f72Pz2e1PE9w97H57ParE/cV0b2UFWf6S5cR2O6IFSKfwKsEpGQ3r38sHtxjsKfSDSVe/E9w96u+ez2rAs9wPKmPz2e1WK+4ro3P8Aq/pLl80WyLQs1XLTR0tWZ4hl7PCH5HHHcr9INJV/8AE9w97H84z7SwbPcBzpj+cZ7VYl2xfRjGFzqGrDQMn98vXFR7INDVcbpKajqpGtduE+EPGDgHHEekJ9ITSVe/E9f72P5xntWRZbgeVMfzjPtKw1Rsc0TTx9ZNQ1bWZDc+EPPE8ByW8exnRckbHsoKpzXAOB8JfxBT6Qukq6iz15/i/wDaM+0s+Jrh72/tGfaVgq3ZJoSgEZq6OqjbISGk1Dzk+pfSdi+jWk5t1UMf8y9PpBpKC9JC76c1Pa7xTUrjJRVDJ8CVnlNB8pvndrcj1r9AaKpirKOCqp3B8MzGyRuHa0jIPyFUN2yaTtOldQ09JZ4nsglpBM5kjt/Dt5w4E8exXa0A3c0Jpxo7LbTD+yatROWJjDvkRFQREQRl0juGym5//eP9ZeH2T0r63ZfTwR+SZWSM3u7JIXtukicbJ7n/ANSL9ZeP2Kk/c+oMH8Z/6Vj/AKeNU9dVZdkUdHLDJcbh1ogY5sQYN3BJ7VxjZdIy2yULbo4QPn68gN4k9ykarpJJ5d9lTLFwxhvJZip3wUzw+oe9x475HELntLesI3j2UQMeHtq/L3nEkt55GF3uhdEnS1TO6Kq62KZm65pbxHxFeolmc2tpWDrC14PEN4etYjmcZa1o64bg4Zbw5diZk487U6GgkqWyx1tRGd4udh3NfXRaNo6adspqKmRzXb2HPyMrsuvk8WUr/v8AvOc0HyfK59oX1dafG4j++7vVZ83yOff3pmTjof3F0PXOkdUVRLiSW7+Bk+hfTRaVo6KthqWSTufFncDn8Blfd15NBXSNbUAsc4Abvlf9oWKmR48WHNR5bgHbrc8x+N3BTMnHY44Ly+rpaGldLWXV0/gtLTGQtieWnzuJwCM8F3sUh8bzR4mwImuyW+Rz7D3rrNV2R1/t10t8PV+EVFvkjiMnmh5cMErM8ajqrmo9pNZLf6mSw1UsVsD8wxzPeXEenysjPoUlUu0bSbtI+NJo7r4Qx7ad7Wvfu9cWF3Dy/NyDxXl/c46r9+2v57vYvQRbCtTR6FqLIKy2dfJcGVe9l2NwRuaRnGeZC3a1J/1mK2/HgtObTKqHUEc99ndLa3vJmhge/eaDy3fKGSOHMr2+0LaJY6OywN06K9tyrIY54nzyybjGOzx4P84Y5YIXTjo36q9/Wz57vYu81RsH1Nd4rK2GrtbPArfHSPyXDLmlxJ4DjzCs2pnOSK2x48/s02i0z7iaHVktTOyd7GUz6V0gLXucBh3lgbvb3rj2k7RKcXRlHpOerpmU7nsqJKiWQlzw4jDRvkY4ZzjK7ewdHvVNtvturpK21uZTVMczgHuJIa4E8N3uCxqDo96puN9uVbDWWpsVTUyTNBe4EBziR+L3FNqZzk1tjGHd7LNWWfVVD4sr3Vwv0VLLLJMyolZE7d4NIPWZLjlvADnlSNe5KVtspqy6OqHU9PQOqHtimcwvdiPuIyeJxnvXg9lWxu8aNvtbcr1Lbaim8BmY1sRLnNkwC1wyBjGDxUjT2xt4s4tzmxuNTZpYmCQZbvFsYaT8RwfUudpjPJbiJx2FZ9X7Spqm+ufpepno7UwNEbJpJDI84BcXeWcccjgRwUj6f1/pGr0rNcrhHdWz0QgbVthllx1kmR5GZcloLTz9C8qOjfqwjjXWkf8Akf8AZXpLTsN1NR6Jv9llq7WZa+amlicC7DerLi7J3c8ct+RbtamOSzFbZ8RnLtHuB1G6rZUkWzryW0hfL+CzjGd/ezjj53P0KT75tD0dT6XZcLfDdnT1XXR0rZpJA3rIw3z8S8G5eOXpXmfc36q9/wBq+e/7K9DdNhepqzRths7Ky1iWgmqZJHbzsESFhbg7uTjddz70m1Jx0itozxH+i9o7qO+B+qJ56u2SNIkED5OsYebS3yx28DnsXtNpWvrFbraKPTQr47rNHBM2ad8m6yORgfn8J52CBggjmuq9zfqrsr7V89/2V6DW2wvUt/u8FXBW21jGUVNTkPLgd6OFrHHg3tcCfWk2pM5ykVtjGHmtme0KmluHi/VRqa11RIyOmkgle0tc44IeS8ANHA8s81YuwRRQQVcVM9zqdtU/qy57neSQ0ji4k44qDNM9H7Ulr1DbK+prLXJT09THLKwFzt5gcC4YLccRlT3b2NjmuLGABja2VrQOwDAA+pZtMTPJarExHXkNd3SwWCnrbtqLwp4bPHBGyCR+8RuNPBocBwJ4/Gq6u2j3D90Dqts+bb1xIozJNu9XnGM7+9nHHzufoVi9pejqzW+l7lbbWaZlYK+JwfPkANEbCQCATx4fIod9zjqv37a/nv8Asq0tWPZS1bT5D1d62g6NpNORXChiur5KoTMpWzOkwXx48/EvBuXDiPSo30btGdR31j9TTz1lskBEghfJ1jDgkFvljPHA454ele9uuwrU1ZpGwWplZbRLb31LpCXOwRI5pbg7uTyPPvXQe5w1X2V1q+e/7KtbUiPSa2mfHbbSdfWO3W5tJp017LrNHFKJJ3y7kccjA/I++ecARwII5rrtk+vKStubbTqaSqqamrmZFSzQPkAy44If5YAA4cQM88rvdd7C9S6gv/htNWW1kIpqeEB7nA5ZE1juTfyg4+tcOiNhGptP6us92nrbY6CkqWSyNa5xJYD5QALcZxlTamuMmtts4eU2hbSKSprqeLSLqqkp4gTM6qdIXufnGAN8jAHHsOV6fQG0GwVliqBfqasfcqCnfUTSQPkEcjGloGMyecd4cOA+JdbV9HXVM9VNKa+1jfe53nO7TnuXe6V2F6ls9v1DBLW215uNvdSx4LjuvMjHZOW8PJDhw71ZtTGMkVtnOEcao2jz1OoJaixSPgtjHDqaacyEuA57/lnmcjgRwwpx0BfbHqegpq20sqoKyGeESRzSvzguAcQN8jdySBlRr7m/U/bcbYPW/wBilPZls+rNC6cdTXSSlnrJrlE5ksAPCPGd0kgHzgSpe1cRiStbRPYRn0jj/wCsaQd1vb+u9XE0Y3c0hY28t2hgH9m1U16RTs64jHYLfH+l6udpZpZpm0tPAikhH9QLtXyHK3rtERFpBERBF3SU/wBU1y/6kX6yjXZFqi023Q9FTV1ayKcOeS0g/lKSukp/qkun/Uh/XCq1YnB1op8EcC5p9HFSYysThYWe/Wqrm62G/CJg/Fby+tczLvQwskmdemzNx5rSCfUFFpOmWRsa2aQjd8sZcMkDmPjK4qJ+nHUkbql0kdQAC9oc4jt5H5AsaQuyaH3GnkrqKKGoDjIScM8oHA7e5c8E+/V1zcy/ewBgswOWfJPaoSrK+z0MEM1jnqPDWva4PcSN3A4+g5K7+HapVNjaJKCB7wMFwkIye9SaT/ixb9SKap3iillBqQXvaPwR3+Lu0dgX1mbF5ZF99wYS7zPI5/ld/oUZ/dVn/wB3QfnSthtVn/3bCfilKmsrmEitrGvo7jI0T/eXvafvZ3uA/FH43oXHVzHNncJalgklbkNjJ38sPB/DyR6e9R8Nqsv+7YvzqfdVlP8A7bF+eTWTMfqSGzZvMkO/PwhD90sPV88cHcs8OS6HaJXPodNXuWOSWJ/iyYCWF26+M5GHD05XlRtWkB42yH8//kvQ27U9FqCNlTR1VvgmYx0c1PXccZIORhwyOHNZtWYjxqswqKdY6mBwb/deHYap/tXp4NT3p2zatqH367itbdYWsxO/zTE8nys5xw5fEpY1HsvsV61G66T3O3xPqZN6eKGQdWTxJJy/IBxjyTw7MKQmugbQij8J034OIxFu8fN3d3n1nPHbzWrWjmISK/sqfN1jqbPC/XX6U/2r0+t9TXumptNGkvt2DpLRE+Y+EPbl5fJ6ePxqV9NbM7BZNUi4QXC3ymmIlgjnkBhBJOACH7x3fSTnPHK9jqyy2/VVmfbLlV2BkBIc18JLXRuGcOHl44ZPA8Em0ZjiRXnqsmldXahl1NaWVN9upgNXCJP3y8+TvjPDPFbav1bqGDVd5jpr9dmwNrZgweEvbw3zjhnh8Sn3Z3pK06UiqJ6Gstb6ioJY59a4FwY08AA14GMjOcZ4ptG0hadVw09TW1lsZU0oIaaJwDntceIIc8jmc558E2jbw1/n1G2wTVN7q9ZVMVxuFdXU77fMzcnqXFrSS0bwByCRn9KnW81jqHTL52lzXiyytDmu3S0lsYDge8Zz6l1ulbNS6YsMdqt1wsLo2B466XjI4u5kkSY+THJd3JPDGykFLcbS4xQGB4qZA5rh5PEAOGPN+tc7dnMQ3HI9U1/dfqVvDx9dfXVye1etsOpL1Js81TUPvt2NZHPRiPM7zhpc/ODnI5ccc+ClTXOz+06gvTbrUVtvbUS7rJm0cg3XYwASHPOOHDhjl61722tprZb4KGiqtNMpoGCONpy7DW8uJkyfWulrcjEMxXvZVBOr9SHnfbp9Kf7V6m96mvMez/TUsV8uwq31FYJvvzxwBjx5Wcnn28uKlB+y/TLtSGpdWURie8zlnXjqc893O/v8/T9SkO6tpLpbqihrarTclLOwxyNBLSWnngiTI9SWtGYxBWvuZVC/dZqN3Dx5dDn/AJqT2r0+0PUV5pL7Ttor7d+qdb6N5zUPb5TqdhPAH0+s5Ut6I0FY9O36S4QVlA+eny2F9ZK0sOcguaGvGeHDj3969NrSzW3VlnNBcrhYWMa4SMfA7de1wHAj75g8CRxyOKTaNvEivPVdtn+pr5Ua4sMdVebrLA6uhDoxUvO/5Y8k5OMHlx71byz1DKuKrqY8Fk1XK8YORxIUdbPdM2nStHUOoqyztqJ5PLfWOa5+G+bjdkDQOJI4Z4r3Vsr6Clp3smuttfI+V8rjHOxrQXOJwAXHgFm3ZaryEfbeLpXW/RVaLZNUQTPukZMsEpY4ARN4cOJzn6lXEat1GXAC+XQk8P4U/wBquNNWU5kqRFd7IYJpOsLJnNeQS1rTxEg/J7lGVFs40zRarhqqetoOpjd4Q0OnaYGuGC1v4Tf5+ns7VaTjOYS0ZxiUZ6pv98p9G6RlhvF3bO+CpdOXTSNOevIGTnjy4Z7F5JuqNSTO3G3q7OJ7G1MhP6Vbe8MoLxbqihuFy07JTVDdyRrfJJGc8xLkLxmg9GWXS1+qayluNufMyMxxzVUrHMIJIO6GyDjgDnnmrW3OwTXvJRVtZvt8t+tqumo7zdm08MNPGPv72gkQMzwBxntPpyuHZZfb1W6+szK28XV1MJiXff3vGQ0kZBOCMgKd9dWO1astTaa43WyfeXdbGad4jcHYx/KEcRw4grGgrTa9L2d1Nb7jZYutkL5PCXtke5wJAJPW4HADkBwwpt/HnTX+vVX59S6hZI5rrzdhx4B9TIDj5V63Rl3vU2mtX1E91vDpWW9ng+JpHAk1EYODngfSOzKljXeibBqK6MuVTcba6qkG5IaWZrQQG8CQ55HZjhjmvaWgW+z2ymt9vumm46WmbuRtIDiBnPMy55klW1ucgiveyqG7UuoN4tN5um9nGPCpM/pVkdhVdWTaHpobhLWzVL7p1rpKp5cR5LhujPHGGg+srr5Nn2mRq4XNtwtzi6XwgtM7epD+J5dZv+cAfO5nu4KR2XGmkqKd9VfLIY4pDLuwlrCTuubzMh/K7lLznGIWkY9QV0hHb2vXDHm0MQ/WV2bEN2y0A7qeMf1QqP7camnrtfzyUc8VREKaGPfieHt3sHIyOHary2xhjt1Kw82xMH9ULtXyHKfX0oiKoIiIOq1RYLdqeyVFpvMBnopwN9gcWngcggjiDkKOJOj7oZzMR09fGe8VbipcRBDvueNE7pyyvz3+ElYb0eNFjzm15HoqCFMaIIdPR40VvcGV+73GoK2f0edEEeRHXtPpqSVMCIIfZ0etEBuHxV7j3+EkLDOjzokHyo68j0VBCmFEEPu6PWiSfJjrwP5wSsno9aHI/A3DP85Kl9EEPN6PGhvxorgT6KohYHR40SHcWV+73eElTEiCHZOjvog43GXBvfmpJWR0d9DbmDFcS7HPwo/oUwogh2Po7aGA8uK4O+KpIQ9HbQ2eEVwx3eFFTEiCHpOjvoVzfIhuDT3mqcUb0d9C7uHQ3En0VTgphRBDUfR10QH5eyvc3u8II+tbydHbQxI6uGvb35qXFTEiCHj0d9C7pAgr97vNU5I+jvoUD75T1zj3ipcFMKIIcPR20MZM9RW7meXhDs/Ktn9HbQZ82mrx/SnFTCiCH/c7aC3cGlrt7v8ACnLRnR10KCd+nrXfFUuCmNEENv6Ouhi7yIKwN7jUOP8AiuY9HjQWOFHW59NU4qXkQREzo86AA8qhq3Hv8KeFgdHnQO9nwCqx3eEv9ql5EEQSdHnQRx1dFVN+Opef8VuOj3oHd/gFUXY5+Ev9qlxEESM6PegBnet1S7+kvH+Kx7nzQO/nxdUbvd4S/wBqlxEETHo+7Puy2VA/pT/asjo/7Pg3HiqfPf4S/wBqlhEETRdH7QDTl9rmeO7wh4/xWx2AbP8APk2qUDu8Jef8VK6IIzp9hmz6B7XCwh+6QQH1MpHybykwANAAGAOACIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/2Q==</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>data\product_images\Poe Switch_20251120_201546.png</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -972,23 +900,19 @@
         <v>480</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAECAwQFBgcI/8QAOBABAAEDAQMLAgYBAwUAAAAAAAECAxEEEjGxBRQhNEFRUnOBkaETMgYHIiNhcbJCYnKCkqLS4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABcRAQEBAQAAAAAAAAAAAAAAAAARAQL/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAiqqmnG1MRnvK6timZ9mdNOznpzVO+e8FY1Vmf9fxKedWfH8SmrPfLOc98+4i3OrPj+JOd2fH8Sp098+6Onvn3CtOd2fH8Sc7s+P4ln098+5098+4Vpzuz4/iTndnx/Es+nvn3Mz3z7hWnO7Pj+JOd2fH8Sz6e+fc6e+fcK053Z8fxJzuz4/iWfT3z7onPfPuFa87s+P4k53Z8fxLGZnvn3VzV3yFdHO7Pj+JOd2PH8S59qe+fczV3yFdHO7Hj+JOd2fH8SwiZ75905nvkK253Z8fxKaNTarnFNfTv3TDKJnvn3a057ZkG0TFUZiYmO+BjP7cxVTumYiqO/+WwoAAAAAAAAAAAAAAAAAAADHVxmi35lPFaNyuq+235lPFaNwEqzCQRGEbKxgFdk2VsAK7JspwnAK7JsrYMAphEwvKAZ3IxRVMU7U4nEZ3vCc219Nu3NO1F6m3Nc1RczFVc5/TMTOMRnf07nnqo6FcA8LqOefUopma6aa64iiIqxV/pjp2Z/5T/HQvpLGtjUW5uRsURiZxirMdOYnM5zujo/t5fBgHHqbV2v6P05qjFzNURVjoc9qzrLXTTExmP1Yq2pnpnv7d27sl5TCYgHBtaya6opiZpoq2ZmIjNWYznp7sxDs0k39ur68Tjs3Y39mP4bRC0QKw1/VLnpxh1uTX9VuenGHWAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4BACASkEAAAACQEIlICFZhdEgqJQCckAC0JyrCYFY6/qtz04w63Lreq1+nGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4AQkREmQBOUZADJkATkygBIgAAAEmAVwYWQAtEIhIMNb1a56cYdTl13Vrnpxh1CgAAAAAAAAAAAAAAAAAAAMdV9tvzKeK0bldV9tvzKeK0boBCexCewRAAAAAAAAAAAAJyZQAZABaEohIrn13Vrnpxh1OXXdWuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4EJ7EJ7BEBIAAAAKAAAAACAAAHYC0JRCRWGt6tc9OMOlza7q1z04w6QAAAAAAAAAAAAAAAAAAAAY6r7bfmU8Vo3K6r7bfmU8Vo3AhICIneEoBIAAKzILCk1IyDQU2kxILCMpAAAABaNyUQkVz67q1z04w6nLrurXPTjDqAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvtt+ZTxWjcARuQmNwiJCd4ABIK1SzmVqmV+qbdi7XTETNFFVURP8RkFh6VpOXOXL+ktXqquT6dqiKp/ZqxHRnxPTOXfzc13JXK9/Qc102p+ls/vWYjYqzET0fq/kH2kh80/Cn445U/EOhq1FmNDp6qa6qPo10ZrmIiP1Yird0vaeROUuU9RyjFnW81mzNFU/t25pqzHrIPZYlaNzOlpAAntAAT2AmEohIrn13Vrnpxh1OXXdVuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG6FdV9tvzKeK0bgQmEJEJQSAIlKKgZyy1XVb/l1f4y2ljq+qX/Lq/wAZB+YNH+aHL8aeNJOk5OpxR9OdqzXE4xjxb3r2h5Oq2Yxcpj/o/wDrf8dWaNLy7ylRa2qYmm3XM7WZzVTTM8XhbWpiaK4i5ejMVbp3Zi5/7R/2wm7Gsyvdvw7q9XyBrqtZo6tPcu1W5tYu2sxiZiZ3T/D69+WXLd7l2bl7VxZi9brro2bVMxEU7MTHbP8AL892dXTOvtVxVdmIuxVszV0fdXOP/LHo+8/k7FurTXb1uJia7tcT053UxjiZtTcj6fSvG5SlpG5UISACexCewEwlEJFYa7q1z04w6XNrurXPTjDpAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvto8ynivG4EACBgAQidyQGdTHV9T1HlV/4y3qhSuIqpmmqM0zExMd8A+Ucq/gvkvl7kSa40elp5R1FFqZ1NymqZxGM7p7ow8TR+VOhpoqiqjR7U56Yi5GMxV/P+74jufX7XJWjtUU0WrOzRTGIiK6uiPdnzfSznFi9MZmMxFWN+O9N5q5sfLdP+WfJ9vVWLs2dFNNFyK66cV4qjamZjf3Tj0h77+HOTtHyZq6LHJ2mt6ezO3XNFGcZxHT8Q8vb0mkrrmj6NymqI2sVTVHR7uixotPZuxct28V4xnameJmQ3a6aWkblaYWhUSnCEigSgFoSiEg59d1a56cYdTl13Vbnpxh1AAAAAAAAAAAAAAAAAAAAAy1P20f86eK0boV1OdmjETP66eK0bgQEgBlAIlAAiWctJUmAVje8beovUZojSV3oznaovRT2zMb+2MvJYMA4tBZqomaqrU2qdnZiiqvanfM7+53QiIXiATC0KwkEpygBORBALQlWFoFc/KHRpLnpxh1OXXUzXpq6aYzM44w6gAAAAAAAAAAAAAAAAAAAARXTFVMxPaz2sTironv7JagMfqUzuqpn1TtRPbHu1xHcAxydPc2AY5MtgGOJnsVxPc6AHNie4xPc6QHP0wZ/r3dADnz/Sc/03AY5My2AY7X9e5tR3x7tjAMduO+PcmuI3zEerbADKmPqTE4/TE56Y3tQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>data\product_images\Ruijie Wifi 6 Access Point Indoor_20251120_195611.png</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UniFi WiFi 6 Plus Access Point (Indoor)</t>
+          <t>Unifi Wifi 6 Plus Access Point (Indoor)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -996,7 +920,7 @@
         <v>580</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1012,18 +936,14 @@
         <v>280</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAECAwQFBgcI/8QAOBABAAEDAQMLAgYBAwUAAAAAAAECAxEEEjGxBRQhNEFRUnOBkaETMgYHIiNhcbJCYnKCkqLS4f/EABYBAQEBAAAAAAAAAAAAAAAAAAABAv/EABcRAQEBAQAAAAAAAAAAAAAAAAARAQL/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAiqqmnG1MRnvK6timZ9mdNOznpzVO+e8FY1Vmf9fxKedWfH8SmrPfLOc98+4i3OrPj+JOd2fH8Sp098+6Onvn3CtOd2fH8Sc7s+P4ln098+5098+4Vpzuz4/iTndnx/Es+nvn3Mz3z7hWnO7Pj+JOd2fH8Sz6e+fc6e+fcK053Z8fxJzuz4/iWfT3z7onPfPuFa87s+P4k53Z8fxLGZnvn3VzV3yFdHO7Pj+JOd2PH8S59qe+fczV3yFdHO7Hj+JOd2fH8SwiZ75905nvkK253Z8fxKaNTarnFNfTv3TDKJnvn3a057ZkG0TFUZiYmO+BjP7cxVTumYiqO/+WwoAAAAAAAAAAAAAAAAAAADHVxmi35lPFaNyuq+235lPFaNwEqzCQRGEbKxgFdk2VsAK7JspwnAK7JsrYMAphEwvKAZ3IxRVMU7U4nEZ3vCc219Nu3NO1F6m3Nc1RczFVc5/TMTOMRnf07nnqo6FcA8LqOefUopma6aa64iiIqxV/pjp2Z/5T/HQvpLGtjUW5uRsURiZxirMdOYnM5zujo/t5fBgHHqbV2v6P05qjFzNURVjoc9qzrLXTTExmP1Yq2pnpnv7d27sl5TCYgHBtaya6opiZpoq2ZmIjNWYznp7sxDs0k39ur68Tjs3Y39mP4bRC0QKw1/VLnpxh1uTX9VuenGHWAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4BACASkEAAAACQEIlICFZhdEgqJQCckAC0JyrCYFY6/qtz04w63Lreq1+nGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4AQkREmQBOUZADJkATkygBIgAAAEmAVwYWQAtEIhIMNb1a56cYdTl13Vrnpxh1CgAAAAAAAAAAAAAAAAAAAMdV9tvzKeK0bldV9tvzKeK0boBCexCewRAAAAAAAAAAAAJyZQAZABaEohIrn13Vrnpxh1OXXdWuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG5XVfbb8ynitG4EJ7EJ7BEBIAAAAKAAAAACAAAHYC0JRCRWGt6tc9OMOlza7q1z04w6QAAAAAAAAAAAAAAAAAAAAY6r7bfmU8Vo3K6r7bfmU8Vo3AhICIneEoBIAAKzILCk1IyDQU2kxILCMpAAAABaNyUQkVz67q1z04w6nLrurXPTjDqAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvtt+ZTxWjcARuQmNwiJCd4ABIK1SzmVqmV+qbdi7XTETNFFVURP8RkFh6VpOXOXL+ktXqquT6dqiKp/ZqxHRnxPTOXfzc13JXK9/Qc102p+ls/vWYjYqzET0fq/kH2kh80/Cn445U/EOhq1FmNDp6qa6qPo10ZrmIiP1Yird0vaeROUuU9RyjFnW81mzNFU/t25pqzHrIPZYlaNzOlpAAntAAT2AmEohIrn13Vrnpxh1OXXdVuenGHUAAAAAAAAAAAAAAAAAAAADHVfbb8ynitG6FdV9tvzKeK0bgQmEJEJQSAIlKKgZyy1XVb/l1f4y2ljq+qX/Lq/wAZB+YNH+aHL8aeNJOk5OpxR9OdqzXE4xjxb3r2h5Oq2Yxcpj/o/wDrf8dWaNLy7ylRa2qYmm3XM7WZzVTTM8XhbWpiaK4i5ejMVbp3Zi5/7R/2wm7Gsyvdvw7q9XyBrqtZo6tPcu1W5tYu2sxiZiZ3T/D69+WXLd7l2bl7VxZi9brro2bVMxEU7MTHbP8AL892dXTOvtVxVdmIuxVszV0fdXOP/LHo+8/k7FurTXb1uJia7tcT053UxjiZtTcj6fSvG5SlpG5UISACexCewEwlEJFYa7q1z04w6XNrurXPTjDpAAAAAAAAAAAAAAAAAAAABjqvtt+ZTxWjcrqvto8ynivG4EACBgAQidyQGdTHV9T1HlV/4y3qhSuIqpmmqM0zExMd8A+Ucq/gvkvl7kSa40elp5R1FFqZ1NymqZxGM7p7ow8TR+VOhpoqiqjR7U56Yi5GMxV/P+74jufX7XJWjtUU0WrOzRTGIiK6uiPdnzfSznFi9MZmMxFWN+O9N5q5sfLdP+WfJ9vVWLs2dFNNFyK66cV4qjamZjf3Tj0h77+HOTtHyZq6LHJ2mt6ezO3XNFGcZxHT8Q8vb0mkrrmj6NymqI2sVTVHR7uixotPZuxct28V4xnameJmQ3a6aWkblaYWhUSnCEigSgFoSiEg59d1a56cYdTl13Vbnpxh1AAAAAAAAAAAAAAAAAAAAAy1P20f86eK0boV1OdmjETP66eK0bgQEgBlAIlAAiWctJUmAVje8beovUZojSV3oznaovRT2zMb+2MvJYMA4tBZqomaqrU2qdnZiiqvanfM7+53QiIXiATC0KwkEpygBORBALQlWFoFc/KHRpLnpxh1OXXUzXpq6aYzM44w6gAAAAAAAAAAAAAAAAAAAARXTFVMxPaz2sTironv7JagMfqUzuqpn1TtRPbHu1xHcAxydPc2AY5MtgGOJnsVxPc6AHNie4xPc6QHP0wZ/r3dADnz/Sc/03AY5My2AY7X9e5tR3x7tjAMduO+PcmuI3zEerbADKmPqTE4/TE56Y3tQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB/9k=</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>data\product_images\Ruijie Outdoor Wifi Access Point_20251120_195719.png</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1036,18 +956,14 @@
         <v>250</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAMAAgMBAAAAAAAAAAAAAAYHCAMFAQIECf/EAF0QAAEDAgMCBgsJCQsKBwAAAAABAgMEBQYHERIhCDE3QXWyEyI2UWFxdJGxs9EUFRYXIzJVcoEzQlRWkpOUocIkJzVGUlOVo8HS4SUmNEViY2WCw9Nkg4SForTw/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAjEQEAAgICAgICAwAAAAAAAAAAAQIREgMxIUETYQRxIlHw/9oADAMBAAIRAxEAPwDVIAAAAAAAAAAAAAAAAAAArHPi7XG22iwU9rrZqL3wusVLPJC5WvWNWuVURU0VN6JxKi7uMorMDGS4SxfcbJLd7hI+kc1qv90VO/VqO5pfCVm2JwmIy2GDDfxrIn+s7j+eqv8AuHPTZlzVLXOhuVwcjV0X90VO7+sG30nX7bdBiVcyZ2/OuVwT/wA+p/7h21hxXX3+mubrderjTy0dLLUJK2pqEc1zGK5E0dJpv07ykb/Rq2ICO5c3KpvGAsPXGvk7JV1VDDLK/TTaerEVV0TwkiLqgBUfCEzBuGC7XbaWzObDWXF7m+6FbtLExNEXZRd2q7XHzaAW4DCMuPb5VSq+S83uR68bvfCRuv2IuiHu3F16VNffa9f0lL7SMpw3WDAFZmPd6apkhW4X1ysXTVLpKn9pw/Gbd9f4Qvyf+6Se0ZQ/QUGFcN504os1bHUUdxrqiKNUWWkuE61Ecrdd+irvavhRTbeH7nHerHb7nA1WRVkDJ2tXjajmoui+LUkfeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqPhD/6Jg/pyHqOMy8IG1102cOI5IqSZ7HSx6OaxVRfkmGkOE690eHcPyMVUdHc9tFRdFRUhkVPQZnzDuNbbMb3ejdOtWsMyNWao1c967DVVV3+HzFJzt4WjGPKCts9x2dPcNSq9/san3Wm33KCVWrQ1KMemir2NePmU+z4R1icUdN+bX2nu3FFcnFHS/m19o8n8XG+13HZX9yVT9f92pNsq6KqpKbEi1UEkO3b6jZ226a6Qu4iIfCuv/m6X8hfadph2/19dWVcKubCjqSVFWHVqqmzvRd/EpWc4TGMtq5QLrlbhTo2DqIS8h+Ty65WYUX/AIbB1EJgaqBmnhirpJhX6037BpYzRwxvn4V+tN+wBSliwxca6minjY7sb2o5F05lTcSKHBVycnzX+Y0VlfarX8CcOLNG1ss1DBquzxu7Ei7ybusFvVNUjb40Q59rz01xWO2Dbrgu4+7al6q5PlHcfjOlq8O1tOi6uXcbhvOFLPKkqqiIuq6ppvKixfhy2wo/sbl3a7tDGPyZziWvxRMZhm6nhlhkmbLr9zX0ofojlhydYa6Og6iGEcT0kdPVr2PiVjk9Bu/LHk7w10dB1EOys5jLmtGJwkwALIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ch7mbH0g71EpmDNvfmTiHyhPVsNP8KHuZsfSDvUSmYM2uUjEPlKdRhX2n0hkyubG5Wpq5E3HG1YkYruy7TtnVujtXK7vbJ9sELZlftTxQ7Kap2TXtvFoinrFA1znfLQt0ejdXaprx7+Li3frQtE4Q4149xIsCt27xUJ36WXqqdBKxI5HMR7JNPvmLqikiy/TW/SJ36aRP/ipW3S1e24cm11yqwn0ZB1EJiQ3Jrkpwl0ZB1EJkWVDNPDF+fhX6037BpYzTwxfumFfrTfsARzLPEWO5rba6OmZTJSMijjgfMxuiMRqI3frrpohaVxr8w6aaejjdaJ54oW1GjFREexyqmqaqnErVRfsMv4dxdVUUFPHT66xMa1PBoh22IMdYgus0ckkqwOZAsDEjTRNjXXf395wTW82mHXGuIlLbnmVjGnuL2VFtpnSJqitbO1qcevOq6nU/Da73uF7qq1UrW701bVta5F8Ld6lc0tmqLhOr6+okXn4zvIaeitVM5lMioq/Ocq6qpT4qR+/99r72n9OvxTM6WrXaiaxEjcuqP2kVd3gN3ZYcnWGujoOohgC4VXuiZ6J96xy/rQ39lhydYa6Og6iHfxxisOS85lJwAXUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ci7mLH0gvqJTMGbXKRiHm/dKdRpp/hRdzFj6Qd6iUzFmw1X5l39qbKK6qRE2l0T5jONV4ivtPpGHuqrbU1FOkixSIvY5EY5FRdF7/OcjnV9PE2v7M5qVe0zbR/bP0011TzHDcadaStmgdNFOrFT5SJ20125F1RefjPeppnR26jnWqZK2TaRIUcqrFovOi9/j3biUEMNXdZ5XI5ZpmRq9yvdvVrU/XoifqO6y634j0Tngen6jp7XSSVTatYqqOn7FCr1R8mysifyU753OW3dPH4Yn+gi3S1e23smeSjCXRkHUQmRDMmOSjCXRkHUQmZZUM1cMT7phb6037BpUzVwxfnYW+tN+wBlmhkRkmrnq3TvId/BW0jE2pZn7k04iNuolc5XJIqa79ND2dbZEi7Isi7HiM7UizSt5hJZMRwxsVsKrqiaa7joK67yTOd2yqi+EVFingSJZJE+VVEboqKelbZJaNWJO9EV2qpoqLxEV4q1LclpcdukWSSoVVXdEvpQ/RjLDk6w10dB1EPzqo6fsHZl2lXVmnF4UP0Wyx5O8NdHQdRDRmkwAJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IL6iUzDmzvzIv8Ax6e6U6jTT3Ch7mLH0g71EpmPNRqPzLvzXOaxFqkRXO4k7Ru9SvtPpFK6KGGqkjppuzRNXRJNNNrdv08Guu/n4z7a1I2WOhVlRTyySIqPiai7cWyq6a79N/Ouh8ddFDBVyx01Q2phavazNarUcnf0Xeh7VENKyip5IalZKh/3SPZ0Rn/7i8PHuJQW+mp6r3QlTVspljjV7Fe3VHuT73x+07vLfunj13fJO9B01up6KZtQtbWrTOa1OxIkau218OnEntO3y6XTE0a8XyTvQRbpNe24cmeSjCXRkHUQmRDsm+SrCfRkHUQmJZAZm4ZaSrHhr3O3bmRZnI3v6KzU0yU/m5FHPmhl/FPGySNVqtWvajkXtE5lImcRlMRmWJ/dtKm57Z43JxtVEXT7dx6rW0vM6XzJ7TXuaV5pMJWukkpLNbZ6qqlWNnZaduy1EbtKqoiar4isvjLr9P4Ew9+gp7TOL59L6Y9qO920vfl8ye0e7KZfvpfMntLw+Mu4fQuHv0BPac1NmhVRTMfVWGwSU7V1kayjRjlbz6Lv0X7Cdp/pGv2odajsq7FNHI5FVNty8yaofoxlmmmXuG071vg6iFeY6t9ufl9fZ4aCkbrQSPY5sDEVO11RdyblLGy43YBw70fB1EJpbZFq4SIAF1QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IO9RKZizY5R8QeUJ1GmneFF3MWPpB3qJTMWa/KNiDyhOo0r7T6Q93Euh3da2zpQPWmc1ZFRexpv20/k67+Pi13InHpzHTOPVSUPRSSZerpiVir/NPI2pI8v+6Nq96J/oIt0mvbcmTm7KrCfRkHUQmJD8neSvCfRkHUQmBZAVHmnysZe+Oq6iFuFSZo8rGXvjquoVt0mvb48RWhtzx9YGXOOCrtLoalEpZW6okqR67WnPu5+bQ7v4D4VX+L1t/Nf4npdE/zvw5/6r1JJUOdujvwFwovHh63fm/8TrcTYLwvT4ZvE0FhoI5Y6Kd7Xtj3tVI3Kipv4yaanU4v7kr55BUeqcIlEoveoauDJ24suM7airS1P25Gpoi6t1Tx6JomvPoWNlz3A4d8gg6iEGxen71l31+inerJzl13BYe8gg6iGvEpyJEADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmOFB3MWTpB3qJSgsf4RxFescXitsVlqq2jdUK2SaOJHtR6Nb2uq+DRftL+4T/cxZOkHf8A15T6MA6Ott9Xj1u8i/1MRnedZyvWMwynJgzEtNWf5QsNwjp9lfmUzePm18HiOZ9h7GiLUW2va3n7FAqv+zaTTXx7jTOKEREXdvK1u3G4pF5lfSFFNtl32FWooHNVP901CQYHo6mku0UlbTPgfIyRWat0RzE3ap9uqfYSi4JxnG52zW2VU/A5/WvLbZRrhrbJ7kswn0ZB1EJgQ/J7kswn0ZB1EJgasgqTNDlYy+8dV1C2ypM0eVjL7x1XUK26TXt9l17r8Np5V6kkZUufdVW0Fts1db55qeSOpex00S6K1HRruVfDoU4uL8QfT1d+eMIrltM4a+1Opxf3JX3o+o9U4yt8LsQfT1d+fPEuKb/UQSQOvNdMkzVj7H2VXbe0mmzpz666aE6mWkMXL+9ZduinerQnOXW/AWHfIIOohB8ZsdFlhemOTRzLY9qp3lRmhOMue4LDvkEHUQvxdKciRAA1ZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApjhQdy9k6QX1Epy5cPbJZrxIxdWvusiovg7DEcfCg7l7H0ivqJTjyp7la3pGT1URjytKPGKeJStbuvbOLGxY9UXZamrlRV08HfKzurn7TtUT7FMoayjFxXep8lU/ZqbR4KKb1sh9NxRUVfOddXO0qLV5HN6yQ0hSWxsoN2VuFOjIOohLyI5Q8l2FOjIOohLjdiFHZ9VFxpseYGkskEc9yV1QyBkvzNpyImrvAiKq/YXiVFmpyr5e/WquoVt0mvbpPgljStp3JccbRosidvDHbI3xeLtuPzHy/FreV/jTS/0HTewtBEPZEOfaW+FW/Fpefxppf6Dp/Yc1Pl1fqaZstNi+KGVvE+Oy07XJ4lQs08jaUYhTuPaDHFiwpdXT3qmvtplp3RVLZKVIpoWuTTbbs8aJr/gXblx3AYd1/AIOohEMyuT7EfkEvoJflxvwBh3yCDqIa8Sl0jABqzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTPCe7l7H0j/ANCU4sp+5Os6Rk9XEc3Ce7l7H0l/0JT5cpnp8D6rTnuM3VjMeVpR4xPp7ol+o30uK3u6ds4sbFLHOer2LoumyqLxKhXV0Yqqu0qJ4t5nDSUTuPzGr4P7VOpuK/LWzyKb1kh3NzTmRNETch0107Wa2+QzeskLwrLZeUXJfhToyn6iEuIllHyYYV6Mp+ohLTdiFRZp8rGXvjquoW6VFmnysZe/WquohW3Upr2liHk8BTldDyeUPVFRV0RUPIQjuZXJ9iPyCX0Evy37gMO+QQdRCH5lcn2I/IZfQTDLfk/w75BB1EN+LpnyJGADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmuE93L2Nf8AiaeplKXs13uMMNXT09fUwU7aqRzWRP2U1XTVf1IXRwnu5ax9Jp6mUoa1L21an/iZPSZX7aUd1JW1833S5VjvHIp8ckMknz6uoX/nPdFG0UXfFLbWP+dPMv8AzEWvKOp72kG2r2R0r0bqvEio5fSqk1VSF4gXXEs3kq9VSYRLa2UqaZY4W6Ng6iEsInlLyY4V6Ng6iEsN2IVHmnuzWy9+tVdQtwqLNZdM1cvvrVXUQrbqU17StFKwzfxRLQWa60tHUyU9YxYmMVi6K1rtFcqeFUXTXmTiLJ2yJ42wXbMWRa1ay09UjdhJ4tNVTjRHIu5dPOcsduh0OMaWgwvbsIV+HnyQ1ktVDBVKs75EqWPZq7siOVUcuvPza7i0URI6iphR222GTZa5V1XRURURfCmuhVtFlm/3XQvud9nrIKJyPii7Cjd6aaKuqr3k5iyoGthZst1Xeqqrl1Vyrxqq86lrTlWIw6XMnk+xH5DL6CYZbcn+HOj4OohCsyXa5fYj8hl9BNMteT/DnR8HUQ14ulORJAAaswAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU3wnE1wtY9PpNPUyGdKK8UED6pJauJqune5NV40VeM0dwl+5ywdKNX+pkMXsXtEXv7/PvKTGZWicQsz3/tn4dD519h59/wC1/h0PnX2FZ6jaI0hO8rLW/Wz8Oh86+wjN1qYay+SzU0jZIlgc3aTv7JGto57eulZrzrE9P1ajXBtlvzKTkwwr0bB1EJaRLKPdlfhXo2DqIS00UCoM2d2aWXy/7VV1C3zPXClqpqK74TqaWR0U7Fn2XtXRU12UK26TXtY+1uPXaMrOxrdGypE68SpIv3qy7zm+FN6+kqn8tTDSW20NSI49kcZZXFN6+kqn8tTjkxZeI2K591qGtTjVZNEGkp2hojMd373+IvIJfQTvLXk+w50fB1EMYXDE9zr7XUxuuc80EkascnZNUVOdFNnZZ8nuG+j4OohrxxhnecpKADRmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACnuEsiuw5YWN02n3NGNVV0TaWCVGprxJquhkSXDd6p17HNa6pj27lRzN5+h95tVBerfLQ3ajgrKST50UzEc1e8u/nTvkMdk7gNy6usEar5TN/fIx5Sw/7x3T6PqPyR7x3T6PqPyTb/AMTeAvxfj/SJv74+JvAX4vx/pE398eTwxB7yXT6PqPyTkhtVwpXrUVNHNFDGx6ve9uiImyqf2m3PibwF+L0f6RN/fOaiylwNR1DJ4cO0rnsXVElfJK3X6rnKi/ahGJPD78p43xZZYWZK1WvS20+qKmip2iErDURqIjURETciICyAonhS4dudxttmu9tpZaqC3vkSpZE3acxrtnt9E40TRde9uL2AH5v1FJb5al8j61zNp205mzv18a8R2vvjS/hEfnN9yWS1Svc+S20T3uXVXOp2Kq/qPX3htH0XQfo7PYV1W2YF98aX8IZ5z5bhLRVsCRvqms0dtIqb95+gnvDaPoug/R2ewe8No+i6D9HZ7BqbMB4cs81xqFttghqLlW1Ko1GxR6onh7yJ4VU3xhK2vs+F7TbZnI6WkpYoXqnErmtRF0+0+6koaWjRUpKaCBF40ijRmvmQ+gmIRMgAJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//Z</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Locker Standard_20251120_201627.png</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1060,18 +976,14 @@
         <v>400</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAMAAgMBAAAAAAAAAAAAAAYHCAMFAQIECf/EAF0QAAEDAgMCBgsJCQsKBwAAAAABAgMEBQYHERIhCDE3QXWyEyI2UWFxdJGxs9EUFRYXIzJVcoEzQlRWkpOUocIkJzVGUlOVo8HS4SUmNEViY2WCw9Nkg4SForTw/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAjEQEAAgICAgICAwAAAAAAAAAAAQIREgMxIUETYQRxIlHw/9oADAMBAAIRAxEAPwDVIAAAAAAAAAAAAAAAAAAArHPi7XG22iwU9rrZqL3wusVLPJC5WvWNWuVURU0VN6JxKi7uMorMDGS4SxfcbJLd7hI+kc1qv90VO/VqO5pfCVm2JwmIy2GDDfxrIn+s7j+eqv8AuHPTZlzVLXOhuVwcjV0X90VO7+sG30nX7bdBiVcyZ2/OuVwT/wA+p/7h21hxXX3+mubrderjTy0dLLUJK2pqEc1zGK5E0dJpv07ykb/Rq2ICO5c3KpvGAsPXGvk7JV1VDDLK/TTaerEVV0TwkiLqgBUfCEzBuGC7XbaWzObDWXF7m+6FbtLExNEXZRd2q7XHzaAW4DCMuPb5VSq+S83uR68bvfCRuv2IuiHu3F16VNffa9f0lL7SMpw3WDAFZmPd6apkhW4X1ysXTVLpKn9pw/Gbd9f4Qvyf+6Se0ZQ/QUGFcN504os1bHUUdxrqiKNUWWkuE61Ecrdd+irvavhRTbeH7nHerHb7nA1WRVkDJ2tXjajmoui+LUkfeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAqPhD/6Jg/pyHqOMy8IG1102cOI5IqSZ7HSx6OaxVRfkmGkOE690eHcPyMVUdHc9tFRdFRUhkVPQZnzDuNbbMb3ejdOtWsMyNWao1c967DVVV3+HzFJzt4WjGPKCts9x2dPcNSq9/san3Wm33KCVWrQ1KMemir2NePmU+z4R1icUdN+bX2nu3FFcnFHS/m19o8n8XG+13HZX9yVT9f92pNsq6KqpKbEi1UEkO3b6jZ226a6Qu4iIfCuv/m6X8hfadph2/19dWVcKubCjqSVFWHVqqmzvRd/EpWc4TGMtq5QLrlbhTo2DqIS8h+Ty65WYUX/AIbB1EJgaqBmnhirpJhX6037BpYzRwxvn4V+tN+wBSliwxca6minjY7sb2o5F05lTcSKHBVycnzX+Y0VlfarX8CcOLNG1ss1DBquzxu7Ei7ybusFvVNUjb40Q59rz01xWO2Dbrgu4+7al6q5PlHcfjOlq8O1tOi6uXcbhvOFLPKkqqiIuq6ppvKixfhy2wo/sbl3a7tDGPyZziWvxRMZhm6nhlhkmbLr9zX0ofojlhydYa6Og6iGEcT0kdPVr2PiVjk9Bu/LHk7w10dB1EOys5jLmtGJwkwALIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ch7mbH0g71EpmDNvfmTiHyhPVsNP8KHuZsfSDvUSmYM2uUjEPlKdRhX2n0hkyubG5Wpq5E3HG1YkYruy7TtnVujtXK7vbJ9sELZlftTxQ7Kap2TXtvFoinrFA1znfLQt0ejdXaprx7+Li3frQtE4Q4149xIsCt27xUJ36WXqqdBKxI5HMR7JNPvmLqikiy/TW/SJ36aRP/ipW3S1e24cm11yqwn0ZB1EJiQ3Jrkpwl0ZB1EJkWVDNPDF+fhX6037BpYzTwxfumFfrTfsARzLPEWO5rba6OmZTJSMijjgfMxuiMRqI3frrpohaVxr8w6aaejjdaJ54oW1GjFREexyqmqaqnErVRfsMv4dxdVUUFPHT66xMa1PBoh22IMdYgus0ckkqwOZAsDEjTRNjXXf395wTW82mHXGuIlLbnmVjGnuL2VFtpnSJqitbO1qcevOq6nU/Da73uF7qq1UrW701bVta5F8Ld6lc0tmqLhOr6+okXn4zvIaeitVM5lMioq/Ocq6qpT4qR+/99r72n9OvxTM6WrXaiaxEjcuqP2kVd3gN3ZYcnWGujoOohgC4VXuiZ6J96xy/rQ39lhydYa6Og6iHfxxisOS85lJwAXUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABS/Ci7mLH0gvqJTMGbXKRiHm/dKdRpp/hRdzFj6Qd6iUzFmw1X5l39qbKK6qRE2l0T5jONV4ivtPpGHuqrbU1FOkixSIvY5EY5FRdF7/OcjnV9PE2v7M5qVe0zbR/bP0011TzHDcadaStmgdNFOrFT5SJ20125F1RefjPeppnR26jnWqZK2TaRIUcqrFovOi9/j3biUEMNXdZ5XI5ZpmRq9yvdvVrU/XoifqO6y634j0Tngen6jp7XSSVTatYqqOn7FCr1R8mysifyU753OW3dPH4Yn+gi3S1e23smeSjCXRkHUQmRDMmOSjCXRkHUQmZZUM1cMT7phb6037BpUzVwxfnYW+tN+wBlmhkRkmrnq3TvId/BW0jE2pZn7k04iNuolc5XJIqa79ND2dbZEi7Isi7HiM7UizSt5hJZMRwxsVsKrqiaa7joK67yTOd2yqi+EVFingSJZJE+VVEboqKelbZJaNWJO9EV2qpoqLxEV4q1LclpcdukWSSoVVXdEvpQ/RjLDk6w10dB1EPzqo6fsHZl2lXVmnF4UP0Wyx5O8NdHQdRDRmkwAJAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IL6iUzDmzvzIv8Ax6e6U6jTT3Ch7mLH0g71EpmPNRqPzLvzXOaxFqkRXO4k7Ru9SvtPpFK6KGGqkjppuzRNXRJNNNrdv08Guu/n4z7a1I2WOhVlRTyySIqPiai7cWyq6a79N/Ouh8ddFDBVyx01Q2phavazNarUcnf0Xeh7VENKyip5IalZKh/3SPZ0Rn/7i8PHuJQW+mp6r3QlTVspljjV7Fe3VHuT73x+07vLfunj13fJO9B01up6KZtQtbWrTOa1OxIkau218OnEntO3y6XTE0a8XyTvQRbpNe24cmeSjCXRkHUQmRDsm+SrCfRkHUQmJZAZm4ZaSrHhr3O3bmRZnI3v6KzU0yU/m5FHPmhl/FPGySNVqtWvajkXtE5lImcRlMRmWJ/dtKm57Z43JxtVEXT7dx6rW0vM6XzJ7TXuaV5pMJWukkpLNbZ6qqlWNnZaduy1EbtKqoiar4isvjLr9P4Ew9+gp7TOL59L6Y9qO920vfl8ye0e7KZfvpfMntLw+Mu4fQuHv0BPac1NmhVRTMfVWGwSU7V1kayjRjlbz6Lv0X7Cdp/pGv2odajsq7FNHI5FVNty8yaofoxlmmmXuG071vg6iFeY6t9ufl9fZ4aCkbrQSPY5sDEVO11RdyblLGy43YBw70fB1EJpbZFq4SIAF1QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUvwoe5ix9IO9RKZizY5R8QeUJ1GmneFF3MWPpB3qJTMWa/KNiDyhOo0r7T6Q93Euh3da2zpQPWmc1ZFRexpv20/k67+Pi13InHpzHTOPVSUPRSSZerpiVir/NPI2pI8v+6Nq96J/oIt0mvbcmTm7KrCfRkHUQmJD8neSvCfRkHUQmBZAVHmnysZe+Oq6iFuFSZo8rGXvjquoVt0mvb48RWhtzx9YGXOOCrtLoalEpZW6okqR67WnPu5+bQ7v4D4VX+L1t/Nf4npdE/zvw5/6r1JJUOdujvwFwovHh63fm/8TrcTYLwvT4ZvE0FhoI5Y6Kd7Xtj3tVI3Kipv4yaanU4v7kr55BUeqcIlEoveoauDJ24suM7airS1P25Gpoi6t1Tx6JomvPoWNlz3A4d8gg6iEGxen71l31+inerJzl13BYe8gg6iGvEpyJEADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmOFB3MWTpB3qJSgsf4RxFescXitsVlqq2jdUK2SaOJHtR6Nb2uq+DRftL+4T/cxZOkHf8A15T6MA6Ott9Xj1u8i/1MRnedZyvWMwynJgzEtNWf5QsNwjp9lfmUzePm18HiOZ9h7GiLUW2va3n7FAqv+zaTTXx7jTOKEREXdvK1u3G4pF5lfSFFNtl32FWooHNVP901CQYHo6mku0UlbTPgfIyRWat0RzE3ap9uqfYSi4JxnG52zW2VU/A5/WvLbZRrhrbJ7kswn0ZB1EJgQ/J7kswn0ZB1EJgasgqTNDlYy+8dV1C2ypM0eVjL7x1XUK26TXt9l17r8Np5V6kkZUufdVW0Fts1db55qeSOpex00S6K1HRruVfDoU4uL8QfT1d+eMIrltM4a+1Opxf3JX3o+o9U4yt8LsQfT1d+fPEuKb/UQSQOvNdMkzVj7H2VXbe0mmzpz666aE6mWkMXL+9ZduinerQnOXW/AWHfIIOohB8ZsdFlhemOTRzLY9qp3lRmhOMue4LDvkEHUQvxdKciRAA1ZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAApjhQdy9k6QX1Epy5cPbJZrxIxdWvusiovg7DEcfCg7l7H0ivqJTjyp7la3pGT1URjytKPGKeJStbuvbOLGxY9UXZamrlRV08HfKzurn7TtUT7FMoayjFxXep8lU/ZqbR4KKb1sh9NxRUVfOddXO0qLV5HN6yQ0hSWxsoN2VuFOjIOohLyI5Q8l2FOjIOohLjdiFHZ9VFxpseYGkskEc9yV1QyBkvzNpyImrvAiKq/YXiVFmpyr5e/WquoVt0mvbpPgljStp3JccbRosidvDHbI3xeLtuPzHy/FreV/jTS/0HTewtBEPZEOfaW+FW/Fpefxppf6Dp/Yc1Pl1fqaZstNi+KGVvE+Oy07XJ4lQs08jaUYhTuPaDHFiwpdXT3qmvtplp3RVLZKVIpoWuTTbbs8aJr/gXblx3AYd1/AIOohEMyuT7EfkEvoJflxvwBh3yCDqIa8Sl0jABqzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABTPCe7l7H0j/ANCU4sp+5Os6Rk9XEc3Ce7l7H0l/0JT5cpnp8D6rTnuM3VjMeVpR4xPp7ol+o30uK3u6ds4sbFLHOer2LoumyqLxKhXV0Yqqu0qJ4t5nDSUTuPzGr4P7VOpuK/LWzyKb1kh3NzTmRNETch0107Wa2+QzeskLwrLZeUXJfhToyn6iEuIllHyYYV6Mp+ohLTdiFRZp8rGXvjquoW6VFmnysZe/WquohW3Upr2liHk8BTldDyeUPVFRV0RUPIQjuZXJ9iPyCX0Evy37gMO+QQdRCH5lcn2I/IZfQTDLfk/w75BB1EN+LpnyJGADVmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACmuE93L2Nf8AiaeplKXs13uMMNXT09fUwU7aqRzWRP2U1XTVf1IXRwnu5ax9Jp6mUoa1L21an/iZPSZX7aUd1JW1833S5VjvHIp8ckMknz6uoX/nPdFG0UXfFLbWP+dPMv8AzEWvKOp72kG2r2R0r0bqvEio5fSqk1VSF4gXXEs3kq9VSYRLa2UqaZY4W6Ng6iEsInlLyY4V6Ng6iEsN2IVHmnuzWy9+tVdQtwqLNZdM1cvvrVXUQrbqU17StFKwzfxRLQWa60tHUyU9YxYmMVi6K1rtFcqeFUXTXmTiLJ2yJ42wXbMWRa1ay09UjdhJ4tNVTjRHIu5dPOcsduh0OMaWgwvbsIV+HnyQ1ktVDBVKs75EqWPZq7siOVUcuvPza7i0URI6iphR222GTZa5V1XRURURfCmuhVtFlm/3XQvud9nrIKJyPii7Cjd6aaKuqr3k5iyoGthZst1Xeqqrl1Vyrxqq86lrTlWIw6XMnk+xH5DL6CYZbcn+HOj4OohCsyXa5fYj8hl9BNMteT/DnR8HUQ14ulORJAAaswAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU3wnE1wtY9PpNPUyGdKK8UED6pJauJqune5NV40VeM0dwl+5ywdKNX+pkMXsXtEXv7/PvKTGZWicQsz3/tn4dD519h59/wC1/h0PnX2FZ6jaI0hO8rLW/Wz8Oh86+wjN1qYay+SzU0jZIlgc3aTv7JGto57eulZrzrE9P1ajXBtlvzKTkwwr0bB1EJaRLKPdlfhXo2DqIS00UCoM2d2aWXy/7VV1C3zPXClqpqK74TqaWR0U7Fn2XtXRU12UK26TXtY+1uPXaMrOxrdGypE68SpIv3qy7zm+FN6+kqn8tTDSW20NSI49kcZZXFN6+kqn8tTjkxZeI2K591qGtTjVZNEGkp2hojMd373+IvIJfQTvLXk+w50fB1EMYXDE9zr7XUxuuc80EkascnZNUVOdFNnZZ8nuG+j4OohrxxhnecpKADRmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACnuEsiuw5YWN02n3NGNVV0TaWCVGprxJquhkSXDd6p17HNa6pj27lRzN5+h95tVBerfLQ3ajgrKST50UzEc1e8u/nTvkMdk7gNy6usEar5TN/fIx5Sw/7x3T6PqPyR7x3T6PqPyTb/AMTeAvxfj/SJv74+JvAX4vx/pE398eTwxB7yXT6PqPyTkhtVwpXrUVNHNFDGx6ve9uiImyqf2m3PibwF+L0f6RN/fOaiylwNR1DJ4cO0rnsXVElfJK3X6rnKi/ahGJPD78p43xZZYWZK1WvS20+qKmip2iErDURqIjURETciICyAonhS4dudxttmu9tpZaqC3vkSpZE3acxrtnt9E40TRde9uL2AH5v1FJb5al8j61zNp205mzv18a8R2vvjS/hEfnN9yWS1Svc+S20T3uXVXOp2Kq/qPX3htH0XQfo7PYV1W2YF98aX8IZ5z5bhLRVsCRvqms0dtIqb95+gnvDaPoug/R2ewe8No+i6D9HZ7BqbMB4cs81xqFttghqLlW1Ko1GxR6onh7yJ4VU3xhK2vs+F7TbZnI6WkpYoXqnErmtRF0+0+6koaWjRUpKaCBF40ijRmvmQ+gmIRMgAJQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD//Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Locker Waterproof_20251120_201617.png</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1084,18 +996,14 @@
         <v>450</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAAAAQQDAQAAAAAAAAAAAAAAAAEEBQcCAwgG/8QAUhAAAQMCAgQHCQ0GAwcFAQAAAQACAwQRBSEGEjFBExQVUZGT0TM1VGFxcpKUsQcWIjI0NlNVc3SyweEjJUJSYoGCotIXJkNEVoOhJDdFRuLw/8QAGwEBAQADAQEBAAAAAAAAAAAAAAECBAUDBgf/xAAtEQACAQIGAgEDBAIDAAAAAAAAAQIDEQQSEyExUQUUQSJhcQYyUpEjM6Gx0f/aAAwDAQACEQMRAD8A6pQhCAEIQgBCY4q9zGRariLk3sVWWLV1XJiNSXVM1hI5rQJCAADYABAW2hUzxypt8on6x3ajjlT4TP1ju1S4LmQqY45U+Ez9a7tWXHarwmo613alwXKhU1x2q8JqOtd2pePVY/5qo613alwXIhU5yhWW+V1PWu7UcoVnhdT1ru1LguNCp3lCt8Lqetd2o5RrfDKnrXdqXBcSFT3KNb4bVdc7tRyjXeG1XXO7UuC4UKn+Uq7w2q613agYlXeG1XWu7UuC4EKnxiVd4bVda7tRylXeG1XWu7UuC4EKoOU6/wANqutd2o5Tr/DarrXdqXBb6FUPKlf4bU9a7tRypX+G1XWuS4LeQqh5Ur/DanrXI5Vr/DanrSlwW8hVDypX+G1XWuRypX+G1XWuS4LeQqh5Ur7/AC2q61yOVcQ8Oqutd2pcFvIVQ8qV/h1V1ru1HKmIeHVXWu7UuC3kKoRimIeHVXWu7UvKlef+equtd2pcFuoVRjE6/wAOqutd2o5Tr/DarrXdqXBbiFXGjmJ1rsTjikqZpI3ggh7y7cSvfUDi6J2sb/CVA5QhCAEIQgBCEIAQhCAjsY+LF5SqsxHvhVfav9pVqYv8SLylVXiI/eFV9q72qAb7kiNyhtMHOZonjDo3Oa8UkhBabEHV50Su7AmbHmPQix5j0Lk44lX3+XVfXv7VkMTxDw+r69/atz05dnlqro6wseY9CLHmPQuUBimI3+X1nXu7VmMUxG3fCs69/anpy7GqjqyxtsPQlsf5T0LlTlbEtUWxGtH/AH39qXlfE7d8a31h/anpS7Gqjqkg/wAp6EWPMehcscsYnbvlW+sP7Ucs4p9ZV3rD+1PTl2NVHVAB5j0JbH+U9C5X5axX6zr/AFh/ajlzFvrSv9Zf2p6Uuxqo6oseY9CSx5j0LlnlzF/rXEPWX9qTl3GLd9sQ9Zf2p6Uuxqo6oDTzHoRY8x6Fyvy9jH1tiHrL+1HL2MfW2Iesv7U9KXY1UdUWPMehFjzHoXK/L2M/W2I+sv7Ucv4z9bYj6y/tT0pdjVR1QQ7mPQix5j0Llfl7GPrbEPWX9qTl/Gbd9sQ9Zf2p6cuxqo6ps7mPQix5j0LlY4/jP1tiHrL+1Y8v4z9b4h6y/tT05djVR1XY/wAp6EWPMehcpjSDGr998Q9Zf2rH3wY1n+98R9Zf2p6cuxqo6usb7D0IseY9C5Q98GNW774h6y/tR74Mat33xH1l/anpy7Gqjq8A8x6EoB5iuT3aQ41YfvfEfWX9qQ6QY2TYYviHrL+1PSl2NVHWNjzHoQAeY9C5hxOsx2gjppffBVTRzM1xqVri4ZkZt1rjYo12kWOAG2MYjs8Jf2p6cuxqo6xCVRejUj5tG8Jkle58j6SFznONy4lguSVJjYtN7HqSujnfin/xfhKsnDu5P878lW2jffin/wAX4SrIw7ub/O/JAO0IQqAQhCAEIQgBCEIBhi/c4vOVV4j3wqvtXe1Wpi/co/OVV4j3wqvtXe1QDbcoXTT5o4z90k/CprcoXTT5oY0eakk/CrHlBnL20/2XpcD0ajxLCDVPrDFPI6ZsEXB6zXcEwPdrG+WRyXm+xeiwOpxpmD1EGHTMbSyOc1wdq6wJbZ2qTmLjI2Xale2xqIwxPAIqKvgjbXMfSyQQTumc3VIEnMy9zZS82hMcT62M4iTIyaeKmHA5S8FGJHFxv8G4NhtUdW0eNuiqONCJzYIo4STqkhrc2hpT7jOlANRTmZhNfryOJDb5ts4tNrtuMjbasLv4Zdhth+ic9ZoxBi4lc0SVTIRHwRIEbnBnCa2zJxAsnOPaEvwjDsYrJK1skdFUxwwWjtxhjv8AibcgLgWzzvzLCkn0ppaaKKmmcII4RG2IPaWal9cfBva9877ck3xir0kfhJZiUsj6EgR2JaQAJC8DL+pxKfVfkmx5w7khWVykO1epBEI3lKgERuSpNyASyEFKhREiVAQgbkhCXcgqFMSEls1mUgQhgBmgDb5FmBmi21Aa7ZLG2S22+Ci2SA0uGQSEZrY8ZLEhUCDx7tniSO2HyLJYP2HyIQ6w0V+a+D/c4fwBSo2KK0V+bGEfc4fwBSwXDfJuolNHO/FN5T+EqycO7m/zvyVbaO9+Kbyn8JVkYd3N/nfkoB2hCFQCEIQAhCEAIQhAMcX7izzlVWId8Kr7V3tVrYt3BnnKqsQ+X1X2r/aVANdyhdNfmhjX3OT8Km1B6a/NDGvuknsVjygzmE7VvpYqie7KcSOG8NOS0OGa9loHQuxCSnpIy1slROIw47r2C6OMxDw9LOldmz4fx8fIYjSnLLFJtv8AB540GIEnWjmN+dy01DKuC3GOFad2sSuhz7m2Dtx0YKdJf3mcuC4udtr7VU+n2Guwt9ZRSua99NMY9YbDY7VoUfJVZVIwnFWbtsdvE+BwXrzq4erJyjHNZq11/SPGwieVwbFwjnncCU75PxF0YYYpi3bql2SltA6J9fiTaVmUk72RtJ3XNl6vFdKBQV1XSYBgmFS0FHIYXy1rOElqC3JxvfK/MFsVcXV1XTpxW3ZyqeCwVLCQxGJlK872UbcJ2+SuKmhqadgfNA9jdlyMk2Ks7SNlDXaNUuMYZEYKavhk1qZztbgZWGzmg7xsI8qrE7V7YTESrKWdWaZ4eTwVHDac8PJyjNX355sIlSIW4csVJuQkOxQAhIl3oUEDYhIgMkm5AQUIBQEFA2oAG1A3oG1AVA4oKOWuq4aWmDTNM8MYHODQSdmZ2J1Ng1bDgcOLSRtFDNO6nY8PBJe0XI1doHj8RTKnmkp5WSwPLJWODmubtBGwhLI6ZsDWSOkETjwjWuvYk5awH5pZkG0uVltoqSWuq4qanAMsh1W3NgtUiksOo8VgmhqqGKRsltZj222Ebc/EVUm+COSXJhNgdfDhcuJPhHEo6jirpA8EcJa9vGPGotw2+RTkmGY3LG+N1PO6Iu13NBGrrc9hkFFVtHUUjwypidG5zSQDvCuWS5RFOL2TOp9FvmzhH3SL8AUqorRbLRnCfukX4QpVcGXLN5Epo733pvKfwlWTh3c3+d+SrXR4/vil8p/CVZWG9zf535KFHaEIVAIQhACEIQAhCEAyxbuDPOVU4j3wqvtXe0q1sW7gzzlVOJd8Kr7V3tUA23KD02+Z+NfdJPYpxRGlphGi+LGqa90Apn8IGEBxbbOxO9ZR/ciPg5imjLLE716nQqudRGKene0VEEokaDzjMKAqqOoNKMQERFFJK6KNxcDYj+E78hbOy34fS0dO93K75ouEY10ToTe1957F0cZh/Yp5L2PbxHkl4/Ea2XNs00Xb/tVxLjvHDhmFccH/AB+C+H03VYaa4k+vFRU1T2uqKiXXd4ydqioo8HNQQ6urBEM7luZ/smWMx4ews5OqZ57k6xlFrcy59Hx0o1IzlO9t+DtYj9Q0JUJ0qFDK5K1732/ok9Dq91JiAmjeGzxua9nlaV67FMHwPFq2orqTGp8H428yVFI+lMwDz8YxuB2E868VSxYE6jjM1VVRVGp8Isbcay2tZgYYb4lXkkZfA+LsXvVws5VXUhK1/tc51LyGGlhYYfEUs2W9mpW5d+meq0mraGHA6fDsMbJHhtDA6OIzEcJK9xu57rbyd24BVqTmpaviwri0hp66rlmaPgNkZ8Fxvz+RQ42r3wmHdFO7u2/weHksfDFuEaUMkYKyV7i70IuhbhzARuQk3KAEqRCoM2sc5j3gfBba+fOsAla0vcGt2nnKQbEAbkE7ErnF1r7hZDicr7tiACkG1OYKOeelqKmOJzoKfV4V4tZusbD/AMrZUNoTSUnFHVHGnawqBLYMab/B1Tt2bbpYmbcwdRTsoYq18dqaSR0TX6wzcBci23etAtY86311HxOYxmpppyHOaTBJrjLffmO5N25oRO6HdDScYbPI4lsNPGZZCLXAvbK+03IT10UdFLK6GSTjNMGnVlDJG2dluJH8V/1UeXSUkrXRyt1tUHWYQdo2Hx+JKaiqqv2LS+TWPxGNF3f2AzTdPYOz5GhDdZofcNuLkbbK18Iw2iliiNDPM+mu1sJlYGvczVBuQNh8SqeS4Ge1Wto9NFHhFARPGHCJn8YBBstnDcs08a7RRLNoGmneY5JGtDdYg5XVb6fRcFiFMBviPtVkmvbI0tfVsIO0GQLwenMEuI41RwUDRUTOhdZsZBPOvWtfI7s1sLL/ACIvfRf5t4VbwWP8IUruUVouCNHMLByIpo8v8IUqF8tLk+iXBJaP9+KXyn2FWVhvc3+d+SrXR/vxS+cfYVZeG9yf535LEo7QhCoBCEIAQhCAEIQgGWLdwZ5yqrEe+FV9q72q1cW7gzzlVWI/L6r7V3tUA13KH0wMbdFcWdM0viFO4vaDYubvAPkuphQem/zPxn7q/wBiyj+5EfBQEMkcEtfJBQB1JUNkELJLyGFpNw4W3gWzVr+5JoNgeK6MNxXF6QVM8z3NDXkhrGjLIc6pptPLGHu4U07nRjUabgyhxtYeJX97mFPUSe5UyCEXnEsgAv8A1rsVeEuDlVZOMW4noD7nuiZzODQXPOTn/wCVXfuz6D4Ng+B0+JYPT8VkEwiexpJa4Ebc9+SsSofi0vF46hsY1JQ5uocxa+1eZ92KOof7nVEyck1DqmMEk78968knFrc8KFWcpq97FNYNhtPNEHzQucMrEkhp8XlXq8L0MqMRjZLRYLUTU7jq8LHA97fHmFFYdjtbidKyjqhA2KkAaxsUYbnsJJ3k2V3UX/t3oueE0jYRHLbkdt89c/H/AC/uuJj6tT2ZRUmkkuH+D9P8PSoUvG0qkqUZSnJptq/8v/CotMdDGYJhlLVyxwmKdjpIzE6zvgn4TXtObSq9aYdU3a7XN/GAN1vGvbY4JBS1/Da/C6r9fhL61997714MZEEbVv8AiK0qlOWZ3s/nc5P6rwdPDVqeRJNx3srLl22/H9jipFKJG8W4VzLAkPsD4wnDoqBsbHTmoiJi12taA4yEnLPcNq2GobQYhPHMygxCIsEZdGLttkbsdlZw2XtzqNEmq6+q12d11j5NXYP1dc8ETqG9g7aB41k5pYGn9m4Cx2g3usZ3NdM90bSxhOTScwnGE08dXXxQTScG1+sNY2yOqbbcszYLG9jO1xs7VuTfLbsWTNQssWnXve98rc3lXpZtGaMPc2PGabKws7cea4NufNEeikEps3G6EAk2Lja/6rHUiXKzzkr28EWRiMi4Otq2ds9i0javTs0foePRwnEGva+Fz9ZpAAcNgJO5bItFaYzcHyxSucRkB41NRBRZ5vgi+Ayh7Tq2BA2rXG0F37W4Y0jWttAvuT/EKFuGYpUUsk2u2IWLmDbkmbzT8TYWmU1esdYOA1dXdbfdeis1cxd72NkkbIjOG600VvgvY6w8RPYmgOa2iWNtNqASCQk6xDsiNwslkdCAzg23cW/CvzpYibXJgGPcNYBxF9vjT6J4mqOFpxDSvgjDg03Ou4eXeUtXiRm4DXiiYY2hpbGLXsNp8a0tr+Da8RMBEjQJNbMkjm5lbJGLzP4JDAqGpxHE5YhFG+odG91phkMszbnWykw+TDablGSbKMujLYJbStJFgfEEwNdOKtlS2OVk7SCXi+af1OKcpQyOrCxkwBAa2PV1vLbas0kecsz/AARWHwiesijlje8Odaw33W7EKamp5X07Wu40yYssHAtI2bk6ZiELKJkLomtkj1g+VjrOeDbI+ILViE+Gz1GvTQupmhrbAOLjrDaf7qZUkZZm3xsP9IdH8RwSkgmxGkjiEp1W2eHZ2vmAouno7YNU4g2fUmikEbWtdYm4zPOpOpxSrxyqoqbEqwyRtlbqjU1rbjcDMpjLU0oixMSU0d5SREY7jgyDzcxUS7F3ax0jot82sL+7R/hCllE6K/NrCvusf4QpVcCXLOkuCT0f78UvnH2FWXhvcn+d+SrPR/vzS+cfYVZmG9yf535KFHaEIVAIQhACEIQAhCEAxxfuDPOVVYl3wqvtXe1Wri/cGecqqxLvjV/au9qgG25Qem3zQxn7q/2Kc3KC03+aGM/dX+xWPKI+Dnt1bNiroTWiSSOjp+DDmMvqtGzW8Wa9noD7oFTodSy4ZVQMqqW5lbquN2Ei9rqv54ZqJkRbOzVqI7kRSXy5nD8lI4AMUdxjiMbHMliMT3PaCA0819hXbm45frObJRS34LVj92gyPY2LATdxs08NYE9C8d7pGnuIaTMioZ6MUVPE/hCzW1nPdbIk8yhjo/jMlLFTOdHwMbi5g1xkTtTfFcNrKWeGSspnTRsjGvqk2IHOdy8oSoydovf8nnCVPN9LQywuskw8mQR60TsnA5L1kGmuL4XTshp34rSQ/GayOZzG577BeSwbDq/GKkUOGQyTyyZljeYbydwHOvfUuAaf02sIYIXAi1nyRm1rW37rBeNfBUa0s8lv+Wjt4fz+IwNPQVRKPNmk/wDs8xU6RGonaZaJ9Q1zxJOyV5vK293AkZ57yohzsOmZXzHhqaYu1qWnY3XjsXZtc4m4sNh8SmNKNG9I6HXxLGqZ4DiGvmY9rgMrAHV2Ly+9e1ChToRy01Y1sX5Cr5GarVZ5mttrW/42HVfX1Ne+J1VJwjoomwsIaG2Y3YMhn5dq1UrGSVMTJZRBG5wDpCCQwc9gpvQGDB6rTDDYdJZeCwl8lpnFxaNmQJ3Am1yvU+6zhGhtFpIyPRnEI4oOBBljgvNG19/4XX5rXC9c31ZTXtZHgeHdR18klPKyfVc4Nkcy4eNl7FJhdGcQrYqZrwx0hIBPPYlOxRYX9bH1dyyFHhWR5XcDziByzcWzFSSJNmhlQ9zv/WUoAAPxsxfbcLBuhWIPJ1JqQgXIJkAuOdNG0eE7TjcgP2Lu1ZtosHNr49KP+w7tWGnPsy1I9G+PRV5r5KV9ZEHCIStc3MG6WHQ+rlc/gKqmcGnJ2vZa20GBg398EoJyNoHbOlbG0GAjIaRTAeKB3apkn2TUj0QWKUr6OskhlkbJI22sWm4v5UzK9McM0eJJOPyHxmmKxOF6O/X0nqxWVmTOjzZKS23xL0pwzR36+k9WKicYp8Pp5Ixhta+raRdxdHqapQqkmMBclZwN1pGi4GY2rBji05LKHORvlCIrPbtpDUOjjiaNd1gAteK4FLSSmOYDXtrDxqdo4XwSxytB1m2KdYg6oxCbWmAOWQAtZdLK2/sc3USKwxaIw1ZZaxACbNY58jWXs5xtnlZSul0TqbGnsNwQ1h/8KNfVSy1QnqHcNJcEl+d7c60Z7SZvU3eKZPaS6NYjolNhks8rWzVMAqIzE7Nlzs/Xxrzzmue2R1ybDWJU9pbpTPpHHhjJ4wzidM2C+RLnC93bMhsy8S8/wjmB1ibEWK84t23M7HU+i3zZwn7pEf8AIFKqJ0WP+7GEfc4fwBSu5cOXJvIk9H+/NL5x/CVZmG9yf535KstHu/FL5x9hVm4d3J3nfkoB2hCFQCEIQAhCEAIQhAMsW7gzzlVWJ5YjV/bP9qtXFu4N85VTinfKr+2d7VANdygtNz/uhjH3Z/sU5uUFpx8z8Z+6v9iseURnNNG2EztFQSIzkSNysbQGkinpmwskuwvcdYjmVZXzXttCq9sVJqRvDZo3k6pO0Fb+P/07dnJxa+i5aUujj2Ya2oD26xgbMGnLJziMv7WK8H7o0ElHQy0znAujmDSWHI5L0EWkdW1j2yTPcXRCIfCFgBsXjNNq1stDqySB08koeRe5POVysNvWjbs1Kag6kcqJv3DC1mI4q45O4FgB8Wsr2a6DggzgowC3IkjM22rnf3IMQgo8Wq4ppGsfNGOD1jYOINyFdTcXjaWu15HAu1vhOHwcrZL6FwcuDSx9TJiJZvsR/uihnvPxluqA7ixLmjYDt7FzKdq6C90TGqWPRSujkmu+SIxt1iNZ7icgAueyVbW5N7xTvTk/uSWD1lLRyymsomVbXAABxtq57VsxDEKKooI4KXDY6aRpBMjXXLtv/wDf2UdSxcYmEYdqk77XWyspTTBt3X1vFZMvydS+9hvdG5JuupivwGeiopKmWWMtbqFrRmXB2/xW5jmpcpEXRdYncpHDqWN8Lp5o3SjhGwxxNNtd55zuCq3I9hgi6mcVw7gW1IdTOpaimLTJFr6wLXbCCoVVpoJ3F3JCpLCcKfiUU5ikDZGOa1rS02cTfad2zack0xCndR1s9M5wc6J5YSNhssblNlFWMpoZWOpoZi8izn/w2WyuxJlTRxU7KSGAx/xsGbvKmULOFlay+rc2uVuq6N9MAXEEE2Fky/Iv8DUbVlFIY5GuADrG9iLgrEbUc6Cw85Vr7fLKjrCso8Wr2EkVc5uLZvJTDcl3LLMzHJHozqJ5ah5knkfJIf4nm5Wu6V2wJDtWJlYyCyJ/ZnyFYBZOJ1COYKkOqNFfmvg/3OH8AUtdRGinzXwf7nD+AKWC4cuTdRJ6P9+aTzj7CrOw7uLvO/JVjo935pPOP4SrOw7uJ85QDpCEKgEIQgBCEIAQhCAZYt3BvnKqsW751n2zvarUxfuDfOVV4v30rPtXe1QDJQWnBtodjX3R/sU7uXn9PHamhWOuOwUch/8ACseUGcyE5p/gsdJLVvFfO6CIRuIc02JduCh3VkOttd0JOOQ87uhdZ1YNcmrlfR78YTo/qSHlzWPwiz9pa+y1xbLf5V5jGY6WDEp48PnNRSgjUkO1wsofjsNz8boQK2Hnd0LGNSCf7hlfQ71iACDmvQGmw40PCjG3Nmay7oi11y7mC8oa2HV/i6EnHYf6+hZOtD+QyPolcTDI6oxxVHGYwBaTnyTS6bCsjcQGtkcTuDblJx6H+voV1odjI+h4x7mO1mOLXDeDZZyTSS24SRz7bNY3smHHob/xdCXj0Ntj+hNeHYyPod7k4kramWN7JJ5HMkIL2l2TiBYX8ijRXRWuA/Lbkk49FbY/oU1qfYyMdncpPCMQhpWS09bTuqKSUhxDH6j2OGxzXbioE18XM/oRx+K+x/Qrrw7Dg38HpMUxSnlp309BDOxkjg6aWpl4SWQjYCRkAOZQyaurY2uLXNka4bQW2ISCvi5n9Ca8OwqbRIxVM8UEsUUr2RS24RrTYPtsutcsj5XukkcXPcblx2lMuPxW+K/oWQqg6MyNimLG7XBuQ8pU1qfZcjHTXFrg5psQcitk1TNMA2V5cBsBUca+L+V/Qjj8X8r+hNeHZMj6HY2oG9NBXxX+K9bJajgQ3hoJ4w9us3XZbWHOL7Qpr0+y5Gb9yXcmnH4rfFf0IFdHb4r1den2TIx07YkKbOro7fFekNbH/K9Nen2MjHV1k82Yb2N8vGEz44z+V6U1bCD8F+zxKa8OxkZ1lon81sH+5w/gCllEaIG+ieCnnoofwBS4XKfJtIk9Hj++aTzj+Eqz8O7i7zlWGj3fmk84+wqz8O7i7zlAOkIQqAQhCAEIQgBCEIBji/ydvnKq8XP70rPtXe1WpjHydvnKq8X76Vf2rlAMioHTuCWo0Kx2GnjfLNJRyNYxjdZzjbYANpU+k5kByAdFsfLssDxS33V/YlGiukB2YHinqj+xde3POUoJ5yrcljkH3p6Q37xYp6q/sSjRPSK3eLFPVX9i69z50Z86XFjkP3o6R6veHFPVX9iX3n6SEZYBivqr+xdeBCXFjlTBMA0nwusM7NG8VkJYWECCRjhcjMOAuDl0XTWr0S0oqauad2jmJsdK8vLWUjwBc3sMti61siyXFjkb3laUZ/7vYr6s7sR7ytJ/+nsU9WcuubJLJcWOX6fBNK4tH6nCRovXakxB4UU7mu+MDn/Nsy5rlRI0I0oI7wYl1BXW1kWS4scl+8bSg7NH8S6kpxQaHaWUVdBVR6O17nwvDw10JsbLqyyLJcWOWcX0U0sxOtNQ/R3EWHUawDULzYC1y45k+MpmNAtK/wDp/EOqXWVkWHMlxY5O94Olf/T+IdX+qmaLRzTClwSbDm6MVzhJwgEmYsHgA3bex+LkTsXTFgiw5kuLHKH+z7Sw/wD1+v8AQHage59pbf5v1/oDtXV9hzIsOZLixyiPc+0tBv736/0B2qUxnRjTLFmxCbRqrjDC5x1QTrOIAJzcbDIZDJdNWHMiw5kuLHKbfc80st3grvRHas2+51pb9Q1nQ3tXVNvElsOZLixyx/s50tP/AMDWf5e1ZD3N9LicsBq+ln+pdS2HMiw5glxY5db7m2l1+8NUP8TP9SzHubaXWP7hqvSZ/qXT9hzBFhzBLixH6NU81Jo5hVNUxmOeGkijkYdrXBgBHSpKyAlUKSWjvfmk84+wqzsN7i7zvyVYaP8Afek8/wDIqz8N7i7zvyQDtCEKgEIQgBCEIAQhCAYYwf2DPOVbYpBG7E6kkuuZTsKsnGBeKPzvyVf4vSVIxCdwhkcx7tZpa0kG/kUZUR/FILD4T8/GlFHBcXc8f3WwQ1TbDgJdv8hWfAVB2082X9BUKaBR05FyZNv8y2CgpiMnSG22zv0WYgqAfk03oFbGRVIPyea32ZQGoYfAc7yekl5Op/5pPSW/gqm2dNP1ZWQiqfBp+rKAb8n0/O/0kHD6YWzk9L9E4MNUf+Vn9ArQ+gq3zNkLK9oGodRmTTqknMW33secAbEADDqY73+l+iOT6bnk9JboqWqZExhgqpCwW1pGkuPjJtmVnwFV4LP6BQDYYfTf1m/9SXk6m/r9Jb+ArPBZ/QKBT1lzelqPQKAbcQpc/jjyuRxClvb9p6S3T0lZLE9jYKqPXaW60bSHNvvBtkVrbh1Y2YSaleQC46js2m4Ata2wWuOYk86AgscxfBcFqBFW8bLuC4xIYYnSCCLW1eEkIHwW3yv5eZaZ8ewKF9XG51S6akE7p4Y2OdJG2ENL3Fo/hs5uqf4r5LDSvRHF8VrKp9CGRRV2H8m1XDRPLmM4Qu147ZF1nOFjYbDdN5NCcYOKYriDH2mxSnnpKmMxO1GxamrT6mV9Zn8RPxtd3MFSEnDimDTVMEUZqSJtQNk1HcGHPZrtYXbA4tINljgWMYFjjaJ+GzSSsrIJKiIkOb8Fjwx2tfYQXDIpvRaJYtAKaAta6lZJBUPIifrmSOFsdhu1SWg3Odsk20S0DxHAMYpKsF0kEeGtppIWwuF6i0YfICdzhE3LbfPesItu9zYrxpxy6bvtv+T1vEKXLJ/pJeI0vM/0ktTh9bMGgMrora2cXwTm0jPLde45iAVlDQ1sYI4GrkuQf2gvbIDLLxX8pKyPAwNBS32Pt5yBQ0u2zvSKc8WrPBZ/QKTi1aNlJP6BQDfiFNb4r/SKOI0t/iuH+IpyaetsRxWe3mFYPpK17XN4tUtBBF2tsR4x40Bp4jS2+K6/NrFBoabmPpFLHhlWxwIjxB1iDZ7iQfghueXi1vOJKcCkrN1LPfzEA1NHTW+KfSKxNLSj+B3pFPBSVl/ks/ooFJWWzo5vRQDM0lLuB6SkNJTjY13SU94nW+CTeik4hWE/JZvRQbDPi1MNx6SsTTwE2DT0lPuIVl7mkm8XwUnEKzwSa/kQBg0MbcSpy0EODufxFWFhncXecvEYTQVba6GSWF7GMNyXZbl7fDe4u85VEY7QhCpAQhCAEIQgBCEIDXUQtniLH3tuI2g86Y8nSD4s7beNn6qSQgI7k+X6dvoHtScny/Ts9A9qkkICO5Pl+nZ6B7Ucny/Ts9A9qkUICO5Pl+nZ6B7Ucny/Ts9A9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICO5Pl+nZ1Z7Ucny/Ts6s9qkUICOGHy/Ts6s9qTk+W3yhnVn/AFKSQgI7k+XwhnVn/Ujk+XwhnVn/AFKRQgI7k+XwhnVf/pHJ8vhDOq//AEpFCAjuT5fCGdX+qOT5fCG9X+qkUICO5Pk+nb1f6o5Pk+nb1f6qRQgI/k9/049D9Ucnv+nHofqpBCAjxh7vph6H6o5Pd9MPQ/VSCEBH8nu+m/yfqjk5303+RSCEAw5PP03+RHJ5+m/yJ+hAMBh+eczreJoT2ONsbAxgsAskIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEID//2Q==</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>data\product_images\Axion Amplifier Large_20251120_190341.png</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1103,27 +1011,19 @@
           <t>Axion Amplifier (Small)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAEEAwEAAAAAAAAAAAAAAAYBAwUHAgQICf/EAE8QAAEDAwECCAkHCQYFBQEAAAEAAgMEBREGEiEHExQxMkFRUiI1YXF0kZKhsTdygbLB0dIIFSMlQlNUVZMXM2JzdZQWGDRD4SQnRIKDov/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMFBAb/xAAsEQACAgEDAgYCAgIDAAAAAAAAAQIRAwQSMQUhExQyQVFSYfCx0RUicYGR/9oADAMBAAIRAxEAPwD1SiIgCIiAIiIAiIgCIjtwKAtvmjY7Zc7eqcoi73uWMiAdvdvO7efMuZa3sCtRFmQ5RF3/AHJyiLv+5Y3DOwJhnYPUm0WZLlMXf9ycpi7/ALljMM7B6kwzsCbRZk+URd/3JymLv+5YzwewJ4HYE2izJ8pi7/uTlMXf9yxmGdgVMM7Am0WZPlMPf9ycqh7/ALli/A7AoJwv65foHTMd0p7YK98lQ2DZc8sjjyCdp7gCQN2B5SE2izZ/Koe/7k5VD3/corpe6fnzT1tub6SSjdWU7JzTyjw49oZ2SsrhvYE2izK8qh7/ALiqcrh7/uKxeG9gVMN7Am0WZXlcPf8AcU5XB3x6isVhnkVMN7Am0WZblcHf9xTlcH7weorEYZ2BccN8ibRZmeWQfvB6iqcsg/eD1FYc7PYFTwewJtFmZ5bT/vB6irkE8c4JieHY5/IsFstPUEpHmG5QNjAAedk+bB+4I40LJCiIqkhERAEREAREQBERAEREAREQBERAEREAVHdE+ZVVH9B3mQGJg6Pq+AWD13d57FpK7XSkbG+ekp3SsbJnZJHbhZyn6Hq+AUR4Xfk41F6G9a41ckmZzdJs0MeH/U/8Fa/Yf+JUPD9qb+CtfsP/ABLWWnZqanu8MtbJxcDcknihJ1bhg9vb1KRsu9l2A48Qx7Y3BsfI8tyRjZJ58E5dnn6ty7EsONPtE5sMs5K3IlX9v+p/4K1+w/8AEqHh/wBT/wADavYf+JQeoudtjvNumjZHUQQBjZH8QG7Q37QLMYPPu8y5uuFnkqLVk8WyJwL3sphmFuG5BbjEhyHHJ5s/QqvDD6l1kl9iaf2/6n/gbV7D/wASf2/6n/gbV7D/AMSgmoLjbqu27FLHE2YzbQbHT7AYPC2jtc5Dst3dWyeZRvCjwYNekl5JJ8m3/wC3/U/8DavYf+JU/wCYDU4dg0Fpx8yT8S1DhcSMhQ8EPgnxZfJuP+37U38vtHsSfiVubh61HKwtltlmew84dHIQf/6Wooyeiefq8q7LHMhjDmta+Y94Za0ebrKl4cdWokeJO+7Nqjh+1MBut1o9mT8ao78oHUzQSbdaPYk/EtT1AjJDostDudndPn7F03nad/hHN5VSWKCXBaM5N8m4f+YTVGN9ts/syfjXE/lDamHPbrP7Mn41p4hZnTl1gtsFwiqWRvbUMjDdqnZIQRK0uwSCW+Btjd2rCWOKXBqpN+5sc/lDan/ltn9mT8S4u/KH1P8Ay20ezJ+JRs1+haitnrKmgkj2nOcKWJkgY4lwIx4W4YByP8W7m3crdc9DRNgmnoOLqTSBkzBDJIxsha8OLMu6eS05dloA3b1RpfUv3+TPu/KH1R/LrQP/AKSfiXA/lEao/l9o9mT8SjGq5NDy2aeTT1NMysjbHCzbc5vGOdnbfsk7g0NGOol/kXGHUGnjRTCekibK6hgie0UbTxr2wva4DuHbLH7W7Oyq0q4J7/JJj+UVqj+X2f2ZPxK/bvyhNT1Fxpad9vtIZLMyMkNkyAXAH9ryqGM1FaaGlt4pjDUugoZmvZJQMBdM4ANY4kYLGnftZLiQd+/ChtkGL1bhz/8AqYvrhRS+CbPodActVYvGlL8/7HLjTdFXIBm5U3kdn3OWMuDREhREWZYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo/oO8yqqP6DvMgMRT9D1fAKJcLnydah9DepbT9D1fAKJ8Lnydag9EetsXqRnk9LPEyrsu2drB2e3G5UW46fXWko+CNtkktokuoj2DGY8Avz09td3LNwqlZx8cVK7dGm0wss2uoHOAFojJPUJn71KbRoy73iISUukKjiXbxIZ3R+raUSnt5X8F4474f8kBwqYWybjwUX5lM+emt1Qx7BkwyPY/PzXNO/zEBQCoo6imnfBUQSxTM3Ojewhw+hUjOM+GXcHHk6uEwrwhkz/dv9kqvEyfu3+yVLJSOsW58i5cZKP+4fUFe4iT92/wBkqhgl/dyeyVRlqLD3yOBDpCQecYAVstwuyYZP3b/ZKtmKQfsP9kqjLo67guBC7Bjf3HeyVbdE/uO9kqjLFgq25dgxv7jvZKtOjf3HeyVRklgrg5X3Rv59h/slWzG88zH+yVRlkWSu1ZfHdu9Ji+uF1ngtOHAg9hGF2bJ47t3pMX1ws2WR9C6XoK9T+Mqf532OVml6AV+n8Y0/zvscvNLg3Rn0RFmWCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAqP6DvMqqj+g7zIDE0/Q9XwCiXC2P8A261D6G9S2Do+r4BRPhc+TjUfoT1ti9UTPJ6WeJVdpaeWrqYqenY6SaVwYxjeck8wVpbH4HaaGklvOpqtgfHZqYyRg8xldkNXeyzWOLkcbFDfJRMnILNwXUcbZqeG6aukYHkSDaipM+TrKgl81zqO8zF9Xdao53iKF5Y0DyALDXSuqLncKisrJDJUTvL3uPWSpJwP2ySu1VU1rqblMNLH4LCMhzuxfO588ncpHdwYVahEw9JqW+0MrXwXO4wP5xmVwz9B51tLg/4UIq+rgoNXiNtRkNp7qxgD4z1B/a1cuGNzKi0QlltMTow10j8D9HnqytJ53LPFlcu5pnwqDo95WJ0FZxlNV01M2thALtmNuzI08z2+QrKm2U38ND/Tb9y0pwJapluOlqOepkL6u0TtppHE73wP3DPm+xegtkEbt4W7ye55Vj9jCutVN/DQ/wBMfcrTrTTfw0P9Mfcs+WBcSwdieKyfCRHXWin/AIeH+mPuVh9ngPNBF7AUnMY7FwMQ7FPjMq8CZE5LLD+4i9gKlPY6PbzUU7HN7A0BSl0IPUrboB2I87KrTq7I/Uabt02+CnbF2AtBC6s2maRjQeLjOOfLRvUnMWObcrToGHJfvVfHkvcv4EX7EXNqtcbQH0rJCOfa5vUFYkgpw4Mp6OBjf8ELc+vCk0sLc+CxvqXTnhc4Y3AeRQ8t8krDXB5r/Kdo6WEWSeCmiimc6VjpGtAc4AA4K0lZfHdu9Ji+uFvv8qqERUWnvLLN9Vq0JZfHdu9Ji+uFvB3G0VaadM+htL0Fep/GNP8AO+xys03QVyE4uNN88fVcsZcGqJCiIsywREQBERAEREAREQBERAEREAREQBERAFR3RPmVVR3RPmQGKh6J+j4BRHhd+TfUnoMil0PN6vgFEeF35NtS+gyfBbYvVEzyelnicrZOjPD4IdbRxf3ofC93zVrY9anvBDdKaG8VlmuTg2gvMBpXk8zX/sn1rs6qLljaRy9M9s02a9KnfA/V1A1BVxwh3Esh2zGHYLjnq8qheuKCr0veKi2VTMVETiATzFvU4edRWOtqYpuOinljl6nMcQfcvnskdyo7eKex2bh4V9VRT1zrfb3VEjZQ3j9tpbslud2Fr1mQxuefCwUlxq5ZzNLPJJIedzzklZK2VT6x4h2dqYnDQ0dJIQUUTlyPI7ZvTgCD22DVT9+xsxNB/wAWV6wppCKaEO6Ww3PqXmaxWaXTej6CykuZcK2QV1aWZzGwdFp9ykD7pcGHdW1ZGO87cvQsEpxtOjxz1MccqqzfplCpxoXnmovFzaMisqgB17bvvXRm1BcQfGc7W+WYt+KeUn9ivnYfU9JGULiZgvM8uobkHeDd59nrIqv/ACrJv91cfBvVTjqLaonPvVXpJ/Ynz0PqenDMFbdO1eYai+35m787V7Xc4HKCc+orrOv2oQcPu1xaf8933qr0eT7Istfj+rPUbp2qy+dvavLr9QagOdm73HcMn9M9debUOohjF4uJB6xO5VehyfZFl1HH9WeopKhvaupLUt7V5Zn1Rfmu2XXuuBPbMV1ZdT6iyQLzXZHP+mKq9Bl+yLLqWL6slf5V0okotO46pZvqtWgbIf15bvSYvrhSHXV1udxipBc62pqWsc4sEridk4GcKOWM/ry3ekxfXC9WPG8UNkmVeVZnviqR9EKXoBXIvGdL88fByt0nQCuReM6X54+DllLguiQoiKhYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo7onzKqo7onzIDFQ83q+AUR4Xvk21L6BIpdDzH6PgFEOF75NtTegSfBbYvUjOfpZ4oPOVVri1wc0kOG8EdS4k7yqErvNnIijZEd3sWvbTBatZv5JdKduxTXVo5x1B/aoxdeBfU0DjJaW012pDvZLTSg5HmUdJXcobvcKD/AKKtqIP8uQtXPy6SMncex7sedpUzt0HA7rKqlDZbZyWPrknkDWhbC0lpXTmg6gVM9dTXjUYGGNa4cRTHtJ6yFris1Dd61mxVXOslZ2OlcQsZtZWcdGl6mXlmclUexvNtygFZNUuvdPU1cp2pXucQ0+QDsCuT3uCIBstXTnPVHOB8StEZTI8i9GxHmWD3s3dJcbfVPdHFdQ2o5wHTt9WSFYqqpjIDi8wSf5jwcHsO5aYyMdSpkdg9SjYW8sn7m0fzsIAXSzU0hzlog2HbR+kK0y+NLsmljwXc5aw+fdnK1idnsHqXB2z2D1KHFE+V/JsyovlBLtBpki+Y8D1DK6X56gYBxN3rIe0SwhzT6iteuI7ArbnBQ0PK/k2K25mdx4q7QPf1bnR+/CtSVkwcNqvhLxzYla77lrpxVp2FVjyy+Se19ZNj9IYpf8WWn7V0JLpsjH6EfOj3e4qGkrg5VciPLfkyuoKoTiICSNxBJw0EYXSsfjy3ekxfXC6ZK7djP69t3pUX1wspOz044bVR9EqToBXIvGdN88fByt0vQVyLxnTfPHwcvNLg2RIURFQsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBioeb1fAKIcL/AMmupvQJFL4uj6vgFD+GDdwaan9Ak+C2x+pGc+GeJSd5Uh0xR0NVTTOrGxuxIGyPc/ZMUeyTtDtOcBRpzt64Fy7E3ao5sOzJxUW61i4U7HRQMDi8NaJdzwOgT51xuVttkVuqJI44WvERe8iTJil3YYN/NvKhbGSSOaI2PcScDAJyVxma+KV8crXMkacOa4YIPlWLT+T0Jr4O7aRTSXSkZXPLKR0zBM4dTMjPuW+uHCxcHdv0dbprG+lgrnSMERonCR8seN5eM+beetedNpULlSa3STvgvF0qMsW2zqqqz+g38S4OFv6qirP/AOLfxLGxh8rtmJjnuwThoJOAMk7uwAlVgZLUTMip45JpX9FkbS5zvMBvKtuLo7rjR9U1QfPG38Stk03VJN9LB966JeuJem4sjuOdD1Pk9kferbnR9Tn+pdXaLiA0EknAA5yVIZbDRW4iLUF6ZRVuMupIKd1RJF5JCCGtP+HJI68KjmkWMG57O13qVsub2n1LJ3mxvoqFtxoquC5Wtz+L5TACOLfjIZIx29jj1Z3HqJWCL1XdYLznN7SrLnLgXLgXKjkGjYEFpthp4XspqaaQxtMDXTY5RlrS8u37iCT2cy61Ha7Q8VO1HA6nEz2yTGo8KFoHgkec7utQpsMr4ZJmRPdFHgPeGktbnmyepWwx7o3vaxxYzG04Dc3PNnsWT/5BnNXUsFJVU4ggip3uY4viik2wMPIac5PO0ArHWI/r22+lRfXC6BK7lhP69tvpUX1wqt9iaPoxS9Bc4vGdN84fBy4U3R+lc4vGdN88fByzlwSiQoiLMsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBiouY/R8AodwxHHBlqf0CT4KZRcx+j4BQzhk3cGOqP9Pk+C1hyikuGeHXO3lInMM0YlJEZcNojqGd6sudvK4Fy6bkeBRJ1fNSXixX+Slt83J6OF45NExjdh0e7ZI3b8jflYXWbqh90ZVXGYyXKrjFRUtwBxbnHc3HmwupR6mutFTNggqjxbNzNtjXlnzSRkLET1Ek8r5ZnukkedpznHJJ7Viuxtyc9tcS9Wi9cS9S5FkiZcF3FSawjZUTGCB1HWtklDC8saaaUF2yN5wN+OtT2xOm0vq7TlJpWlZHp6uqoozfI3iaS4tzvaZAP0Te2EBp720tNWu51FrqzU0bmtlMckWXNyNl7Cx3ucV39K6tvGlal0tmqzEH9OJ7Q+J5HMSw7iR1HnCxmmzWPYxUrsSPHY4/FWy9W3SFziSd5OSuBcr7iaJVwdlp1dSPwHSxMmmgaRnMrInOZu+cAfoUl4Paea5aLuxFlp7y+W5wCo4/wDHGYpHOfx3/awcHazjtBWtaKtnoK2Cro5HRVMDxJG9vO1wOQVKJrrY7nT1ANbc7EKt4kq6Kmj46lleP2mjaBA3nwTnGdxWUmSkZWjprXRah1LbLLcTcbJJaZ3ySlu5rmND27+Z2y8AB4ABzu51rsu7edZ+vvNvo7RPatOxT8XVbPK62pwJZ2tORG1o3MZneRkkkDJ3YUbyoTJo5lyoXLhlUyociaNhaIudytui7o6zs46omuVNCacxca2dpY/LHM/aBWc1NaLZbND3+SBjKC8TNpjW2qOXjm0p4048L9knuEkha9sWrLxYLbX0VoquTR1paZXsaOMGAR4Ludu4kHCx1Pc6mCgrqNjxxNbscdtDJdsu2hv85Wb5FHUyu9YD+vbb6VF9cLHrvWDx9bfSovrhGyT6OU/MfOuUXjOm+ePg5cKXoZV2AZuNP5HfY5VlwVRn0RFQsEREAREQBERAEREAREQBERAEREAREQBUd0T5lVUd0T5kBi4eY/R8AoVw0/Jbqr/AE+X4Kaw8x+j4BQrhq+SzVX+nyfYtI8oqzwQXHPOfWslabNXXRrnUrBxbTgvc7Az2LGda3LwM2U35ttoAdhssj3SOHU0HeuzpcUMk34jpJWRpsUckqlwka/Gjbs7m4o+Z6pPo27xQOl2GPDRnZa/evZdTTRWOSK16f09FVv4oPc52MAE48IneVEta6eZLpmO+R00VLVMeWVMMXQ58ZCY5abLkUEmr4dnTxaPTyVztXx3X8Hj120CQcgjnCpk9q7d4GLrVgc3Gu+K6rOm3zrzSVNo5DVSozlv0pdK6mbPHGxkbt7eMdgkduF2hoe7nqg/qLeOgrVR1cT6q5Z5BRQNlkY3cX7tzVnW6wt75OIm09QC3ZxsNb4YHbntXzT6pm5bSXt2PtP8Bpl/rGMpNJX3SPMt20tc7XTGoqImuhHScx2dnzrBL0jwp2intlHVGjO3Q1VKZodreQ0jmPmXm5dPQameeMvEXdM4PWNFh0soPA3tkr7nKKN80rI4mF8jyGtaBkkqZ0/BnqCaJr+LpmFwzsvl3jz7li+D9ofrO0tcMjjh8CvWOmrPRz0FXWXRtS2CINEZjHTcTjZHaVy+sdT1GmzwwadK2m23+/g4WSck0onmlvBTqJ3MKP8Arf8AhYTVWjbxpgRPulO0QynDJY3bTSezPUV7YkttvrKulgrbXPbXOYWQmN7SJCBnDsftLSHDiHM0XVwzRua+Ooj3PGCN65+HrOujqsePLtlCTrsmn7fPHP8A2V8Sakk+GedMDsV2lppKuoZDTsL5HnAAVtSTQLc37zROx7l9zpsKzZY437snUZnhxSyL2Rxboy6Ox4MGT1baus0LdnHAbT+2vXGndKaam0Aysngp3TupTI6Yv8IPwfL2q/8A8MacGhTVNgpxMKTjBOH+Ft4z29vUug4aBS27Zc17HNeXXVuUo8X7niS72qqtNVyeui2H4yOsOHaCq2ED8+23d/8AJi+uFOOFwDathxvw/f6lCLD49tvpMX1wvBrtPHT5pY48I93T9TLU4I5Zcv8As+idJ/dhX6fxhB5/sKsUn92Ffp/GMHn+wrlS4OijPIiKhYIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCo7onzKqo7onzIDFw8x+j4BQrhq+SzVX+nyqaw8x+j4BQnhq+SzVX+ny/BaR5RVnggreHANeoLHVWuqqjs05dJFI7uhxIz9G5aPPOpNaam9Wa1RVJt8z7dUO/RSPYdknfzEduD58HHWuzpcmOEmsvDTQ004wk93DVHt2j/OdTX3OtjjpWNdC2KikD9tsgBJDjjzqI8IFy/NGjGWermhlulS7alEZ3NBdtErzhBwg6ntNJGIY6ylppW7bA2V7Wub2jyb10ZNV3y5srHwUMkksUfGzSnae6NhIG0c9WSN/lV8a08Jqcp2lT7J+3B6oZMUZW5cfgiN4ObrWf5rviuqzpt86v3GlqqKumprhDLBVxuxJHK3Dmnn3j6V1l45Pc2zwN3Kz07wcX2ktskcFxY11JUiMSOcMtAHaOxcrfWW1mt2Ty8ULZyou3t8HYzu3di0fYtU3N3JrfT0nLahxEcTW523nqGBzlZOLUd7lIEVlkednbAAdvbkjPraR9C+Xl07UJ1S7P5Pu4dZ0Erm5tOSpqn+2bP4Wb9T3inqhRR7FNTwSRsPU4ZOCB2LzapVqLU1ymjloKim5G84EjTnawRnG/mUVXV6fp8mGMnk5bPnOs6vBqJQhp/TFUSLg7ONbWfP78fAr15pe5wS2mqt1wr46WOMtmpy9vM8HP0jyLxbZmVr7pTC1MkfWh+1EIxk5G/wCxbEj4Qr62R9PLZRJUwh3GbO1u2ekcDs61yusdP1ObUwz6dJ1Fppuv6/UfP5IztSirPWVXUGKto6i/19BAyIOmp44iTxrsbnHPVv5loDhvr5K/TFdUTvD5ZZ4yXAYzv7FD67hIvcDg2tszmObkYkc/LcHGN43KK6u1Zc7/AANhqKfk1LG4EsaDvd1ZJ+C8mLpmsnqcc5x2xjLc+9t8fq7GezJKStUkRZSTQHj0/wCU77FG12bbWzW6sjqacgSM6jzEdhX2+lyrDmjklwmX1OJ5cUoLlo9u6et+mX8HEUkrKLjDSFz3l42+MwfLz5V+S36aHB8ZGto9vke0H7Y2+M2fPz5XlaDU185E2pZY3upjA6pEoDtkxNdsufnsDt2e1df/AI+rxkG2N8HORl273Lo79M5OXjy9V8P/AMOU8epqvAjxXKL3C07aNs7cP+xQqwePbb6TF9cK7f71U3usE9VstDRssY3maFZsPjy3ekxfXC8Gvzxz55ZI8M6PTtPLT6eGKfK/s+itJ/dhXqfxjB5/sKs0nQV2A/rKD532FciXB0kZ9ERULBERAEREAREQBERAEREAREQBERAEREAVHdE+ZVVHdE+ZAYqLmP0fAKG8Msb5eDDVLImOe91vlDWtGSTjqCmUXMfo+AVXNytE6Ks+bxtdwz/0FZ/t3/cppadVXq1UbGUdjqY63k7KaSqa2UOcxjXNjw3GGkB28jnwObfn3UWO77/aKpxbu+/2itnlvlFFGuDxI/Xl+4kxx6fexridsCKUh4Id4JGzvHhZx5ArUWtr7FqSpu4sEr3T0raR8EsUjmbAftEdEZBPUeYY37l7g4s99/tFU4o953rVd6+C1M+eupn3fUF9rLrVW2rbUVTg94EDzv2QCebrxn6VjPzVcf5fWf7d/wBy+j3FnvO9apxXlPrVvG9qK7D57aZlu2n7vHcqW1VElVC13EmSneQx5GA7GN5GSpK/V10NRHVRaZfFVMkEjXtZLsjZe6Rg2cdUjtrygYXuTiyP2netUcwgdN/tFQ8ifKJUaPnhe4bjdbtV17rVVwvqZDK9jYZCNo73EZHWcnHVnC6P5quP8vrf9u/7l7v1Lriz6fuzbfXvrjKI2TTvhgfJHTRvfsMfK4dBpduzvWOqOEqwQRuLpK4yRbfKIWwkyUxbM2EiUZ8El7gB2jeNyeNRGw8YWGO52m701cy217jCSdljJIyQQQcODTjn7CO0FS+o1ren03J6fT89HDidhZTMkjGzI1w6m7nAuzkbjjmC9M1PCnpumirZZpLk2npo5JRMaV4jqGRyCN7onHphriM8yldivdDepK5lvmkkFHK2GR28NJdG2QFp6xsvbvUPInyiVGjyAdd39xINiqdiSUyy7bJZNskcxyN4BOQOrd51Y1vqSpvVFU26islydSvMLmTVTJDI1zB4Rxg5znGSTu6l7fEZ7zvWU4s993tFRuXNE0z5x/mq4fwFZ/t3/cn5quP8BWf7d/3L6OcWe+72iqcWe+/2ireKyuw8Q2XW+oLVpyms8VhdJDBGYg+SGTJaXl5B3cxcWkjtYFeZry/x1EpisdU2B0T4wx3GPfk7BD3Pcw7Tv0YBJHhAkbl7Y4s99/tFUMZ77/aKruXwWpnzk/Ndx66Cs/27/uXdsdruAvduJoKwAVMRJMD++PIvoYYz33e0UEZ77vWVZ5GRtONOMNPnVYvGtL88fByuAYVuPxpS/PHwcsXwWRIkRFQsEREAREQBERAEREAREQBERAEREAREQBCMghEQGJb+jOy8EHdzjyBV2x2rIvhje/ac3wsYzzJxEfd95U2RRjdsdqbbe1ZLiI+77ynER933lTuFGN4wdqptjtWT4iPu+8pxEfd95TcKMZtjtTbHasnxEfd95TiI+77ym4UYzbb2rg54I51luIj7vvKcRH3feU3CjTmvND3W+Xu5VFtrKCKkutDT0NWKhr+MibFMZNqPZ3EkEjDsLEXDg2vVTJe6gXKhNTfpGy17XMcGMdHUNfDxWBnAjaWOzzk5W+eIj7vvKcni7vvKiwef5eDC81FLFQz11rNFRR1EVKQyTblbLVMmPGgjAw1pbhuckqa8G+kX6PjvdPyls9LVV5qKUb9qKHYa1rHZ6wG43dQC2XyeLu+8pyeLu+8pYMSHjtTjB2rLcni7vvKcni7vvKncKMTxg7VTbHasvyeLu+8pyeLu+8puFGI2x2qm2O1Zjk8Xd95Tk8Xc95TcKMMXjtTbHaszyaLue8pyaLue8puFGF2x2pSRumuEL2Z2WHJON3MfvWZ5ND3PeVzhhjhaRG0NBOTjrUNijmiIoJCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiID//2Q==</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>data\product_images\Axion Amplifier Small_20251120_201822.png</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1132,20 +1032,18 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>99</v>
+      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAYDBAUHCAEC/8QAPxAAAQMDAgMHAgMGBAYDAQAAAQACAwQFEQYhEjFBBxMiUWFxgRQyFZGhI0JSYnLBJDOx0UNEY8Lh8Cai0vH/xAAZAQEBAQEBAQAAAAAAAAAAAAAAAQIDBAX/xAAiEQEBAAICAQUAAwAAAAAAAAAAAQIRAzEEEiEiQVEjMmH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBERARYrU9/odNWWoul0kcymhGSGDic49A0dSoloDtZsGtrpNQW2OugqGZLfqIeFrwOeCCRn0KDYSIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIhIAJJwAgIoZqjtI09YOKN9V9XVD/g02HEH1PILUWp+1y+XXjit3DbaU7fs95CPV3T4Qb31Bqez6fiLrrXRQuxkR54nu9mjdam1P20zy8cOnaMQt5CoqPE73DeQ+crTtRUSzzOlmkfJI45Lnkkn5KpskLHte04cDkFXSbZDUv45q0f4u41JqJTiOSSQj4aPL2Cwlgst00zUNfVTyuic4PYGSHhc5vJ23UZ6+ayzp46qTjlcYagnPeDJaT7cx8LMW+8GgbA24UwqmM4iONxcyTON8gg5GPP4QbH0f2rTQ93T3XjrYsf5mMStx542ctu2S92690wnttVHM3qAfE33C5XqooK+IT0krWyNjLnNA3zn7SfQdT0G6+7bfaizlkkFT/iGEkGA8OM+buR5dAiutkWl9HdrdT4Y9TUzfp3HDauPDSPdp+73C29brhSXKmbUUFRHPC4ZDmOyFBdIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiKwvF5t1mpzPc6uGmjH8bsE+w6oL9UqqpgpIXTVM0cMTRkve4NA+StO6q7aoYuKHTlL3ruXfzjDfhvX5WodRanu+oJ+8utbLN1DM4Y32aNkG9tVdsNmtnHDaGOuVSNg4eGIH35n4WntUdoWoNRFzaqsdBSu/wCXp/AzHr1PyogXbL54iqm1UuJXmV8hy9yg+splfOV5k5VFRVYah8ILWkFh5scMtPwrcHzXocEF9FI+skbDJMyKPoCMNHwOquYmhkr4o4gyVg4uKoBLj/SACB+vusTkLKWa91tpqI5qWZzXM+3fcex/tyQbBtlDoiW0R3O+Ueoo6gARySuDywPA5DG2PdYamvc9lvE1XpeK6to3/wCS1sfFxer2tBC9vuta/UFviggEcUuCJzGSySZv8J6Ee35KpprXd/0zRfRxVEDKRp8EM8XeSt9ABg/msXH7jUy/WzNLdqtNUd1T6jgNBUO2EuP2bj69QVsyCaOeJskL2vjcMhzTkFc+01Nc+0ieapFfbqGviPdhtQ0NeG+YaN/n9VVrDf8AsyED2XenqxK/DqcS8bX+vCd2+6m7ParZO46ARQHSXabaLy5lNWyMoq4geFzvA4+jlPWuDmhzSCDuCOq0y9REQEREBERAREQEREBERAREQEREBERAREQEVGsqoKKmfUVUrIoWDLnvOAAoJcu1zSdNBK6kr210rNu7g3KDYKwOo9XWXTsRdc66Nj+kTTxPPwFobVna9ervxw20i30p2/Z7vI91rmaaaqnL5HySyuOSXEklNDbmq+2ququODT9OKSPl30niefYcgtWXG61tzqDPcKqapmO/FI7KspI3sdh7SHeRC+cKo+i7PVfOV4vklBURfIK9BQZywRUD5HGcF0oYeFjiA1zlXqrFmmfNTyDiYOJzSf8ARR3O+yyNDdqilifEHZjeQXHr+aC3ZTyumEXAQ89Dssy/Tzo6UymXjIOCGNzuqk9bSTxRvfHl3DgMZ93yqNO+uoDHPu+E+IROduQqLKptVRFE2RrHuYTj7SCrB7HMOHtIPkVPIK2K+08kYqDTTAYDOW6jdZY7iyRzpGGQg4znchBhxyXoOV9TwvglMcrS145hfOVB6Dv7K9jrA97frGGXGMSA4ePnr8qxRBtKxVOj5aSasmpniuijJc6Z7phJtywdwT/6VHbDdLBFepqi82uSW3T+FsMUxc+L89yPlRKJ74nh8bi1w6gq6/EJcZY2OOQ85GNw4/PT4QlbJ1RV6GbZnx2aiq6SoePCHg7evCST87LFaZ7Rb3ZJIKegLqqkYd4Kgl5ePcfb8KINpmRwMqKp7nh+4bHuT7nor53d09tjmleITL4o6WNue8Z5vfnKkxk6W23t0ppTW1uv8TGuP0lb+9TyuBOfQ8ipSuS7dXw5Y6GV0UoZw925xGf6T0WxNMdoldapTS3EmeBmMNlOH49D1QbwRRC39pGlK2qZSfjNLDWOwO5lfwnJ5DPJS9AREQEREBERAREQEREBERAREQEREGv+2203W76Mmgs2DIDxPYduILjq32+8W+5yUb6AxyOPiJG+M74Xf1c3iopx5sP+i58ur4vxF8csTXcUndtPUZK48nNMMpjft0x47lLZ9NXikbBvWP4T/A3crOW+2yVdqlqqGelgLNu6Lv2r1KtUaVmoGvZVUZdkZa4bZ+VBZKCot1XHK1pkawh54c/ku+3J5xylhZXwvewbcePE35VrUUZDDJA7vYfMcx7hZ+e8Quc5sVU5v1TcSOLPs9D5+6w7aeWCpeaWZro2n/O5MP5oMWRuvFf3E07wwwj9t/xC0YafYKxwUAL3K8RB9ZVWlmEMrXljXgdCqGUyUGZD46nM1NiGVm7ievwr9tfLCI47hC1zSMNkxthRhr3NILSQfRZelvJ7vuqyMSx44c9UFevhpxVd5bnPc4jPCzoVkKa8V1I2Fl1Y/uHbBx54UcirHQVHHTFzG5yG5Ui+tpb4Io6l3dynn/4QXdwtNvub/qqSsZG133Bx3yovXxQQy8FPKZANnEjG6yU9hmjhdLHKDGM7HmsHICx7mu5jmgZC9yqSZ3QVsovqijbPVQxPeI2vcGlx6KcahhtOm5oqWO2irLmB3fyPOH+2EELp6mSA/s3bHm07g/CykdbFUwshkZGCz7Wyfb8HmFeVdqfdYo6i0Waphafv3y0+2Vha63VdA4NrKeWEnlxtxlBk+9dTwyRyNpaWKUcLuFgfI4eh6LF3CqcaeVlAzgkc0gSyHiedvPp8K/senblepgyipnuB/fI2C2nZ+yiOgtc9wu8gkkiidII+mQMqW6WOedKae1DdtQQzwWhknBIPFLkRe2eZ+F3Pp+KqgslDFcHB1WyFolLRgcWN1qvRreO5UuQ0DiGGtGAPYLca4cPNOXevp15OK8etiIi7uQiIgIiICIiAiIgIiICIiAiIg+KgcUEg82n/AEXOOonOjueeE8XftP8A9l0g7dpHouY9c1cFLV1LqyodBCyTJkDeLh8W2fReLy5vLHT0+PdTJ0fU0VNX0DY6yNj4ywfd02WndaaZpqKqLrfUMmaST3YPiH+6xutdWaqqaOgfYX0s1rlYBJUtf9gxzA5fO+FjZYYIqelutqxcaqpZwyPqqhzDCceIOceYzy4QMr1epw9KD3Tu6SrLfpf2g/eeMNPqB1VmGVNZ43u/Zj95x4WhTC9XC2Nt7RcjSvqGnLnQt4Ix6DJz8qza2jvMb46UMfLjjLRsWj0HQLWOW0uOkcb9PEcRtNTL7ENz7cys5TWivfRuqLqKaloiDwip8BJxyaBuCs7Q6g/A7FNT01hppJIngMqnDhfno5w558lDbg+qral1VeKp/ev3PGeJ59h0+cLTK1lpGyNMlE/vGjmw/e346hWWfNXprBAf8Gzujy7wnLz89PhWTjvk80DKZXnRfGT5oKgXqphy9aSg+8r6a4g7HC+Mr1BmLbe5qVr2Sl0sbhjBO4Vtda5lZKx0cIjDW4J6u9SrDK8OSg94t16FT4d8r6BygqAlXTKyR00Lp3OlbGRhrjnbyVe12WtuDHSxR8FO3d00h4WNHuVYXHU+nrFI6CkIute3bj5QtP8AdBtmrvtfeoIY7FG5tK+EMlikjw2MjqCsZc6Ost9uY6SKW9OiBeGulAZH8E5K1bab3qfUtyMFvrJI3uG0UL+AAegG5VWhqaq26ibFqBj6tkD/ANvC+bOfTOVnas7S621FWukponvpKN5Le7iHAR+SmGgNc3CGgvVnuU8k0DoS2F0j+Mtfyx7LUOrtT9/fa6Sz0wt1MSGMiZzAx/dZDszbBOKouqmRPjeHNY85dLlw2Hms5X41rHuOjtBxZudMDg8LgVttat7O2h1yhI32yVtJeTwJ8Lf9ejy78oIiL3PKIiICIiAiIgIiICIiAiIgIiIMbqS5/g1irriIH1BponSd0w4L8dFyB2l6jo7zSXEUp8ckYk4HbFp4geFdgakhfUafuUMTS+R9PI1rQMknhOMLkJ7qOrmMNziZDUg7TBow48vEOq5cmHqsv43hn6ZZ+pHa/wAWs1ipK6dsVJHNhhgfIOGQkbbcwfZYi/uuNdTzSW2d7pA0udBJu+P1AH3D1H5Jr+sF3s1Oy5W0C7UwDKashk4Y3s8sHYH0PwVBrHfLlbaiaOq46+kpAHySjwvg9irbPskv0y+mbfZKhtY7WF0qPrHwd7SyQMLooXjOWPB5k7YIWHoLjXwudU27hjZFzmjPdxsPm6V3M+n6JqvUNJPTUtfFbIKiV7ntEshIjdgjDnRjAc7f/wAKK1FTLd6J9Vc6uZ7mPMccLQBG3w5GANgM7bBXSNlwa9o7rDHQ1tYymrjt9ZCzhheegOdx7jAVOrppqaQd+N3bh4OWv9Qeq1YLdIyJklTiOM7gFwBcPQKSWjVD7PE2jjidV2/PjiqX5I/p/hPstMpRzVanppanPdMJA+5x2a33J2CyNghtV8pZqm0zmaVoB+knPC6M9eLG5HkRt5rypp7iADUQtc0ZaIMDhaPMNHyQR5LW0WobSU48X+Kk8mktjHzzP6IaSGrHFQnhk6wPO5/pPX25+6ydoDpaJ1RU1tQ2JkgiEcXTbOXeQVeamhNA+orYSxjHNAflvE4E82uGMkcyCOSCKvaWOLXAhw2IIwQjeazNwIiq30lxHfBmOCoZ9/CRkH1GDyP5qwqqN8EffNc2amJ4RKzlnyPkfQoLcEdF9KkDhfbXZQfSDdX1stVZcpC2khLmj7pD4WN93HYK5irdOWurZBJM28V3EAWQnFOw56u/e+FLdJbJ2pWiyV11k4aOBzmg+KR2zG/Ku56izafqnxdx+L3CLAeCeCGJ3r1cp8+aGcUzg4Qx0ru8DIyAwgctvJaIvdXcpb/c6ikkcykNQZQ9sjG4AOx33+F5MfIvLlceN2wmMv8AJ0vO1O+Xmqrja5KtjoGtaWw0x4WAEZxwjr7rV78tcc8wpLVVNRLeX1Mkv1le95J8XGC47bu/eKsrtpy725jZ66jexkgL888DONwPt3816cdyay7Zzst3j0r6Or6qlujJKeomicxpIdG8tI+Qsrb6p00lZLIXZklJy7qsHpmdlFcRNPCZWBhHB5lSi+T0FVQxVVDUmKokOJKTu/8AL9neSrLG36CWKZ9U9r5o5MEyN3aNsYzyCuY6ygoJaCqtUtSeAtdOyRo8Ls9D1Co2wXWtg/BaCSpmgqJA80sQJD3DkSAth2ns6pbXTMm1hWCn4jxChpyHTux0PRqlm5pZdVtbss1nRT1FIaMOqqmZ7YzC0btB5uPkAt+LQ/YzXU0uqo6C02uGitkUT34a3ieSORc/qVvhc+HinFj6Y3ycl5LuiIi7OYiIgIiICIiAiIgIiICIiAiIgLXmsuyfT+oKeofSwC33B5L2zw5xxH+JvIg+mFsNEHIN+td90NWfQahpBPQSEtY/7o5B/K7ofQqz+hiqqCf8JeZrfM9hqadoaJeFpzw5PMeh/NdfXa2UV3oJaK500VTSyjDo5G5B/wBj6rnzX3ZFc9OTPu2jZJqmkaeJ1MN5Yh6fxt9Ofus5YytS2OftaRU31MFNQxCmiNTII4ePjcxhDcZGOIexWPo3ChoJqXihkklxK6FzTnYEbH23wtj1hodSACreLbdmAtZUtjBGeWDncFa8vtguVrmjM7GmohG5Y7i2B2d7KT29i+7FxvE2QOY5D09F49gB3/JTK26A1JfIW1Vps0ncjcSOc2PvAf4eI7qPXyzXGzVho7pR1FLVDfu5WFpI8x0I9Qtspl2B2ulu3aDFT1rXOiFLM9pY4tc1wAw4EciM+y3TqLTFws8LpZuKvt7Bn6qJmHx+sjBy/rbt5haX7AKxtB2kU0jv2jzSzgMa4Dfgzz5dMLo6O63iKD6urnDcjiMXdjgj/l8zjqcrNGorhbo4ad9VSTSQuDS8SQeLjaeWwO49QsBS99cZX9+6onLW+Eh2Q0+pOwCn2oa22sq3y07Y6KqkdxujYD9PKT1IG7D/ADN+QVEdTUNxnp5XWwPkkixI6jHCNj+8xw8Lweh5qyihWT08lS+oqHMqpzgd3CcRMAGAM8zjHT81ZVFXLUMDHlrYx9sbBwtHx/dYLTFruD71I+K1V008gcHtLTGN+rnEYGOuFM46ayWna5VkVwuAG1HBJwx58nP/ALBXaMbbLTV3OUsooHScP3O5Nb7k7Be1110zpt7o6qb8aujAf8NTOxAw+T39fYKOau1Hd7nMLeZRQUJPC2hpm8Hwf4vcnCjbKWnqZIYYIXyT8WGlpJc8+QA5qbGW1Hq28X9vdPmZBQHZlHTDgiHlkdflYu3x1f1kbYGYcXgDbYHKkV+0Dd7JYYLtW0slIZpOFsJwHgBpcXOHJvTAyCfJRymryyYO7+o4wcnEbck591L7z2cbhle29tHabqq/ifqWrbDQM8Ur4pBwuaNy0jnk7BaJ1dFFDqi5Q0sneU7J3BmT0/36KVfi1zjgLJRUxEjib32c++Nh/qsDUWB9LHHW3WZlPG8teIyeKSVhJyW42O4xzyM56LzePw3DK2u9/WPsbp47iw01H9W/IPdCMuO3lj/+LaENwjt9pqaeQxQXJ8b3yfiR4MMI2aMZLgduXUb45KHHVraKm+nsNFHShx2e6Npkb4g4DIzxEY5n8ll7N2fXe6sN11LVC0UMp4zPWZM02erI+ZPvheuyJ7oxdnW+trofwemmEz2gSYaAJHnGeBjeW+f02UzsfZtNBBHXawqhZ6N/iZT44qmUejP3fcqU2aehsTm0OhLZI6ukHAa+Zne1Uv8AS3kweyn2luyK6XicV2ramWnY88Tog/jnf/Udw39T7KdrpDbZcHBwtGgLM6mMgAMrG95VS+rn/uj22WwdI9jcsz21mrqpxc7xGlhfkk/zv/sPzW2NP6ftenqMU1oo4qeP94tGXPPm5x3KyiaGH0/pm0afa4WmjZA5ww5+SXEeWSswiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAvHuaxhc9wa0DJJOAFjK+9QU+WRftZMHl9oxzyVEJ6hl/eZampfPSsd4Ym5bFkeQ/e9zkIMJ2iaM03qusFTQMdBcC4d7VUwAZIOuRycfUfqqVp7OtPULopZaCKSePlJNmSQ/nss5cbvb7LTd9WVENLEORc4An0A/2Udn1LcKynNRSwx2e143uFz8JcOndxc3H3wrqG6klzrKGzUT6mrlEULQcDm5wAzgDmTgHYLUfaNrjSuo6H8KqaCS4QP2bURuDJIHdHMyP05HqpXQW2uv9WKnT9qfWVH2i+3tnhYOphi5D8lLNN9junLTWGsq43V9S4h5EoAjD+biGjbBPToqjSNjFj0ZSQut1re2qmj42VVSzL5mHbOem4Ow/VWF51ZdrjLwGR7IiRgA4xy8uXMfnnkSF0X2saXt960xmSNjaihBkp+E8J2G7R7gcvMLmeOEzPGD4HAO2323H/6/NYooMnlkpQyUklhPCSOn/v5LbWgrRSVliZXVDXSTmjLBxOPCA2TAOOpx5rWM9I8wyMZnixkO6D1U/wCzS41NRS1FBLJG5lM2NjAwDYuPE7JHPcLlzXWO2+L+yXx2ykpaWqkgp42v7h+XAb/bzXL1ls0dzY9lkqAagZcWTu4STueXInbbHVdXzgtoanwlx7l/haNzt0XLVztbLC6KNgjp55Ts+Z44yDnngktGdunTPmvN4Ftxu3by5rKaYKmoqumuzai8xytcw993j3hrXtaBs1xPMbbDf8ltPsw1HY7Pd5b3WUr+74Ht8DGDLjjGX7HP+qirb9RUVgq7fXRQ3B1SxriZXAthc05AaQOvp06jmo3a7221vY+hg4XNBxJK7vODPPhHJvvufVe30/rzStr9qfaBcb1SxxVVPT2u2ZDoYpI+KRw2OQzmenPhC1MK18lTJPSj6d8jiX1s5BldnnjAw32aM+qoXa4/WyF8nHO927pXu3+B0Uj0No2432P6kRhlqGS+apPdRD14z/25V+je0i0tHUTWcUlyt7rjQzcXc11KOMsI58fTbrxcLh5lYmn7N626TGrFVFQ2VpINTV+FoAPJg/fB6Yx6qV219k0hFJBaDJdat5HHPOS2nBHLEefHjoXKVWHQeqtcVDK27SSUlEftmqW48P8A049tvyC5YcdxttrVu0QtLNP6VcI9MUH4hcicC5VsfE7P/Sj5D35qeac7MdRaqqG3DUtTNRQO3zN4pnj0byaPf8ltzR2gbHpZrX0VN31bjxVU/ik+OjfhSxddDAaV0hZtL04jtVI1spGHzv8AFK/3d/YbLPoiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAsXf53R0wiYXt7zILm7EDyz0WUUU1nSPdU0lVTOEdSxpaHHPC9uR4Xenl5FCrKxWG0W4zGnpnRmU5LxI4kH0ycLUHaxqK42bUEdJR1dVb5nSiMVTW8cE0W3j4eYc3O4H99tzUMmXFp5qF9qOm/xWps92ihNU+31A72mO4kheQHED+Ic/YFaTtFtNQzX6o/+N0ct4rGnD7zdBmON38jOQ/19Vs/T/Z5BTTNrtTVr7zXt3D5xiOP0a3kFcW2shscUNFbYYIqORpkY55+w5wWYG5wc7npzKt9Ta4t9kpRLJMKmc/aM7Z8gB/76pN3o67TZksbIwImtbGNgccIHso1f9XUFCBAKjNRKTEwhwGHEHH67KBNvGp9YztZaKeWlpXfdPM0tGPRvP55KX6c7OqGgmbV3J76+u2cZJjnB9Og/wBfVX0ydpu3pri1WvWuqLlDNWPNBR8YcWPHFM4Dpj935I9lEr/C/TmoJaekoaevhoZnRTUrpCx0jQSQGu5A75wea6se6KCJz3lkbObnE4H5rmztj0XfaK/V+p7c36y11bhM50DSXQggfe3qNvuHzhZytrUkSDSR0pq1/wBZbTK2SnI763yeB0Th/GwjP64Ugmho6W8xCGmhgdLG5zzGwN43BwwTjmuaPqXvrIa+31MlBdYN4p4nYPtnqPQ5CzNiv97ufaVa6i+XOGEmWNroIGOb32BjLhyaCcZ3xnkCuHJN41vC6yjoiFhnk7kYPGCzfYb+q4819aHWHWd5tz5mzGnqXs7xucHO4579V1jW1b6O3VtVE4Nmhgkexx6OAyP1wuVKa1X/AFxqGpmpKeatq5pC+abkxp6lzjsAvL4F+Nd/LnylYinrg+JtPXMM0IHCxwIEkQ8mnqP5Tt5YUi0voe46hncbURNR8Jd9Rjgjbg8pC77fXn6Z5qW23SWmdMgSX2cX65t3+jpncNPGf5383ewUptts1Rr17Ka20ggtbDwhsbe5pYh/3H8yvobeTSP0Nl0xpZoMoZqC5t6Y4aSM+vWQ/opRZdMar7QJYpHtNPax9kkje7gYP+mwc/j81tjRfZJZbG2Oe6AXSvbvxSt/ZMP8rOvuc/C2Q1oY0NaAGgYAA2AU0qD6N7MrDprgnMP19wH/ADFQAeE/yt5N/U+qnKIqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICxWooHS0Qe0Z7t3EfbksqvHAOaWuGQRghBD6KinkLpIm4DGl2XA4d6BW5m73IdyOxCnDGhjA1vIDAUGuNO6lrZWEYHESPbor2nSF1dt1NWVLqCmDWMkEzI6prgAGbFmR5+ftlZ3SvZpSUdQye6yfW1rTlznu4xn0HIe/NTrT8UctqIkY1weXAgjmDsQroH6dopqClADBjlwRs+evsFd2GleCGOmh4WMZExvQcsepVlNdmuk7mhjNTL5jZg+f9lW+hMp4qyUzOzkNxhjfZvX3OVcwwxwt4YmBo5nHVZVizapa6Zst1lEjBginjyI8+vmsvgYxgY5YXqINMdqPYpR3sS3HSvdUFz3c+mPhgnPpj7Heo29Oq50uQrbPcJbTqeiqIKiPwuDvDIwdC09R5ELvJQrtT0FRa7sD6aQQw3GLemqnsyYz5HG/Ceqli7cw2a90z5TT3C63e5UIjz9M6ThDz/C44zhSG1DUOrSLXp2hEFC3YwUje7hYP539fk/CkejewS6Ul4jkvtTQGiY7xiGR73SDyA4RjPmT8Loa3UFJbaRlLb6aKmp2DDY4mhoH5KY4THqLcre2rtFdjNutwZUajey4VI3EDciFnv1d84HotrwQxU8LIoI2RRMGGsY0BrR5ABfaLTIiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAsPebU+rlEsJHHgNIO3zlZhEFChpxSUscLTnhG58z1VdEQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREH//2Q==</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>data\product_images\Amplifier  10M Coverage_20251120_201758.png</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1154,20 +1052,18 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>99</v>
+      </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAYHBAUCAwgBCf/EAEAQAAEDAwMBBgQEAggFBQAAAAEAAgMEBREGEiExBxMiQVFhFDJxgQgVQpEjoSRDUmKSscHRFjNygvEYRKKy8P/EABcBAQEBAQAAAAAAAAAAAAAAAAABAgP/xAAkEQEAAgIBBAAHAAAAAAAAAAAAAQIDERITITFRBDNBYYGR0f/aAAwDAQACEQMRAD8A9UoiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIC494zdt3t3emeVH9cang0za2ynu5K2od3VLA5wbvfjOT/dA5J+3UheZdSXF9pvMt7dX1j7xUbhl8o2vl6Ok2joxvQNORuGOjSEHrxF5R052zars7WQ1E1PcoWjG2qZh4H/U3B/fKsKi7faD4GOavsNe17pO7IpnslHTJIzg8ZH7oLsRRixa901eqJtTR3ama07dzJnhjmE8AOB6HKkrHtkYHscHNPIIOQUHJERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBYF9u9BYrZNcLrUx01JEPFI88c9B7lZ687/iGp9YXS6CNtpqX6dpPHC+mHeh7scveByCOQMjgfVBotRahn1NWXe5Xi2Rz0e0iGeCo73uYM4ETAzo53m4+5IwAFGbXe4zU0VdTMtclbHKXT0tY0Bj2NOI4mFwwGBo6ZBzycqGxPlp5u8he+KZp+Zji1zT9uQtg29zTENuENNW5/VNHh/+NuHfuSqLW1T2h2O/BlDqzR3w0wDT8RTzAyR5/U3AG5u05AyQojqKx6SnoY59LXarqayaoEcdrngJkAJwDv4H/nCjjvyqpcMSVVC7oA8d/GB9Rhw/YrJY+Cz0Uj6argqa6oBjY+EkiCMjDjyAQ93Qegz6hByuk0NNBHa6JzHwQO3TSt6TS9CR/db8rfufNd1i1LebHIHWq51dLg/IyQ7D9Wng/stA09PRcw5BcNj7cL/SOa26U1JcIh1IHdPP3HH8lYVj7a9NV5DLiKm2SHzlZvZ/ib/qF5dDsea5CT3RHt+0Xu13iISWu4UtW0jP8GQOI+o6hbFeE4KqWnlEtO98Uo5D43Frh9wpjZO1XVtoLQy6vq4h/V1je9B+58X800beu0VE2Dt+hcWsv9ofH6y0b9w/wu5/mrFsPaXpO9hoprxBFKf6qp/gu/8AlwfsVFTFFxje2RgfG4OY4ZDgcgrkgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAqq7bu0+r7PH2ttHboKr4kPfI6d7mgNaQNrceZypxrC8RWuw3N7K6mpq5lJLLAJJGg7g04IB68rwTqbV901I9jL7W1Fyhp8hj6iV25hJ5wfLKsCd9rva7btd2mmjtunG264slEstY5zXSFoBG0OaAcZPOfRaXS1kq6zTr7tdzVindzCaenEhbGDgyycjDM8D1OfRajTVkpLnWyVUjpaa0UjQKxsUuROXfJC12cbnHj2AJPRXHpIWK/agjpb6632xtE4GomirXd1VxMHhgYw+EgdOPIcZJygrk2eScj8sqqat9GNf3cv8Agfg/tlYs1PPTSmKqhlhkHVkjC0j7Felb5ofR1ptM94uOnoTVVTw2jt4kcxu4/IwgHAPVzj0aM+QVA6luLKh8VFRvDqGkLu7Lc7XvcfG9oPRvADR5NA8yUGnHAX3K4ZXIchB9XxfcL4g+5XzKeXK+gIj6eildJpZtXPSwUc4/N5pImR2qoG58m7kucW8MaMEkHkN6rVaRZE7UdC+pDPh4pmueZCA0c4aTny3FqtHshss9Nba7VNZC+orKt76WndtL8Z/5shI9T4RyPMjKTKoPNSa70BJNWGSro6SR4b8RT1newbvIADLR9CFJbF29aiogG3Sno7mz+0W90/8AdvH8lk9oFYa/UdDYaWB8tFZy2euEO3x1BHynPB242+f6lHNOW2h1R2mE0NFBTWukcH90z+tcCAPrl3PHkFB6wtFVLXWqjqqinNNLPCyR8JduMZIB2588LLRowAPREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBajVWordpazS3S8TGKljIblrS5znE4AAHUrbry72xdsVBqCw3fTTrZLS1QqdsFRJIC0d2/5iMZBOCMc9UEG7cL7DrHXL7hpgyz00sMbO9f4CxzRyME8KFWNtxuVy/JIojNWVJ7t8c0bQ1rP1Pe7rgDnPssN1vlpbbHXU9VBUzmTD4Iy4u56eXKtPTtoks1vbFWUn5ncqlh/MYaSpEdRTs6sgHV3XDnHB8m+RVHbSWq40op9N6Xoqtxic4iklpRiqAHjnfv4JJ4A/S0AdSulmn66tExqdKXODudwkmoYnNYwt+bcx+W8YOcOHRSHso1jbNN1M9tr6Wejr6yUQG5SyEmmiLuRsPyn1I88EjhWB2xatpLZanWShDDQ0wayoYDxPJjcynz5txh8h/s4HV6gqbV2prg2xW6gqblLW1HwoZEZIzG+npnc4cMn+I8Yyc/IAP1FV+Kgk9Fyrqietq5qmqkdJPM8ve89XOPmsYNwVRmNORldgK2WkbUbjVvlmYH0dM3vZwX7Mt9j7dTjy9yFubnYaWu1Wy0WJnw7mkid87z3cfmCSckDBGfcgBBFwpbpmkorfbpbtd6ZlRG5rmwxSxlzHeXsCScY5OMHK1dDp6pmv89tcWyimJM8lM8SN2j+yehJ/wB/RZ+qLhQfmUFsgYYLbTva6obE08yYAcQwkYx04xk5PspIy7G2ltVjqrrWQxySzHYINrTsac4BY8ctcf1NORgKESOkMhPAyc8DAUn19qGmvVzibbg5tHBE2MHLgJXD9e09OuAFGWuBQZNqqhQ3CCqkgZUCJ+/u3nhyyKXUNzttdLV2uuqaGR7y/wDo8pYBk9MDg/cK3ezPRdsj0vFW6jtTa6a6+KBjw4d3EMhpBbyHOOTnHQD1UI1Fpq1VGsrjb7GZYKKijDJT3nej4joWtcceEE45PkSgiEN9r4WVjGSNc+rcXSyObmQuPmHdQcn+as38OtnpnXms1BcGl8FC4UtHh2GGXrI/PQ4y1oyfdVBdHU1v+PcavMUO+OGUNwZH4O3A5+qtr8NV6q7do+uhiYKigFWSx5mLXB7mNa0FmCCC7GechB6bjr4HkSmcNhc0ABwwAfqsxkjJGbmPa5vqDkKqaHWD6OgLrlaKod3MYQ61t+IZI1vBfsByAD1GMhc7drPTF0ney3XqCGtY1znU88T6aQgcnggZ4QWlFI2UEtPQ4I8wVzWPQRiOlZjO5w3uLupceTlZCAiIgIiICIiAiIgIiICIiAiIgIiICIiAiITgZPRBwnljghklme2OKNpc97jgNA5JJUN092oaSv1U6mo7tFHOHbWtqAYu892l3BVbdu+rbhdppdL6aq6JzA0fGQsqA2olzyGBpwC3oSASTnpjr58qKeoo6l1PWQS087eHRTMLHD7FB6N7fe1C/aA1HaBazSGglpzM6KVgd3zg4ggnqBjHT1XmKevodR6kuF4vUtTC6ukfM5sbBiNzyTkew8gtlVyfHRMjrs1MbBta2Ul4aPQZ6fZa59mtk1wpZp4pW07HN7+GKTHetB5AJztOOFRKNAWFlDL+aV9zpWPIe20Gqyxj3NH/ADnDngHhoPBd9CrEpuzut1Raai6ukttBJTSfC0zqRjnsuMoPLw7PJLiRuAxnPkFELlLHe/iGWi5UTY5iwMo6mMU0kbGAhkTHElpaM9A4ZPJ5Vj9nfaPW2i70tBr+J9PS09O5lFMafYGOA9GjDyQNocPXH6iorXX7QV909Q0o1BebTXCY4ZTVMbp9jGjMjy84c1rW8kg+gHJCrHU93huNbsoY3QW2nzHSwucSWtzkucSclzjySfYeQUu7XdY1N2udTDITHUS4FRHnPw8YOWU/1HzP9X8dGBVc5/P+aIyd4JXJg3HA/f091iBxKkejrlbrbWyy3M1jd0bmRyU2MsJHB/tDBA5HlkY5VG9nlfpnTwppqakfWPm72GoieJe7OwEPw7IBIcOAGnDQV22+qm0vYJ61zYpa6teNrzl2AWbgdwPXncWkehzwFi6frqO96yNzvEtFE2Itc2OUkd+4dC7I8XPLskHn0BWFeNTR3DVxu0lCyaihIZFTtLo2sYPlxydnPIAOMrKu2qpbrpyCOsiubo56s93IyNzg97iMuBPR2M4Jz1d7rb3mjodOaNghqPhKm6VrXF8b490kEmeu44xgccZGfRaG5XG7Xu9/nVuo5AyJ2YWbWvazaOSRjB8yTj6qP3i8VV2q3VNU/Lnc7Wk7W567QScZ64HCI4hwUt7MtMnVmqqahfuFFGDPVvH6Ym9fueGj6qEMf6nhepOybS0Gm9HwCu3R3a6ObPNGYTIC3GGQOAOc4cHYyOTnyVHPWepmWLTVfemRxxTl3wltjLW8P24a4YJ4YzkOB5OOAvPVu1JW0FsrKCnjhd8U1zHTbSJfF18QPOfQ5Uw7TbhUau1HJQ2eWKehs4FJTs7xrDO7PjexpPPIxweGhqrd5npKSqrKcMM1OQ2PJGO8JwCPXHX7BIFk9j/ZlRa/jutVfZJI7JRO+EiMQ8Uk/wA0jg48ADwjpzhWDX/hzsjWPOmLxX23gOZmTvWud74wcdPMru7ALhaj2YUET6iOjrY+9Mrw90bg4SEF+Tw4YLPqrVp4pnzOMjG9+GjxRvMbnAeZGB/qgop/Z1rfT257nNvlMw7oxI8yviPntcAHg/QH6re6Ko3an1HBRXmKoIpWieSKaRsm0scMDcRvGScYJ+3AKuJ1TVxA/wAJ7yD0c3y+ox/ksqlhgllNcKdjJ5Whpk2jc5oOQCfNBloiICIiAiIgIiICIiAiIgIiICIiAiIgIiICrrta1kyzUrLTQ1ETbrWNdsDz8rR1cR5+gHmcDplbztF1fRaM07LcKyRgkJ2Qxk4Mjz0A/wB/IZPkvNupaqlrYq266kdHUyu2icwSj+M44e2FkjDhzDhpA/QzcTkkZK67zVCkjomQ0cVVeXyFtA1rDNK6Tcf42T4nYJIHHieCejRnpZpzX9JQP+LtM9fSRgvkpavZUuaOpOzcXt+2Cu3RtRVVtgv2oYqGivNfDUwtntr6fmKm2kNkhcwiSMNOGjbwAOVrrPQ1N61lSVWibZcLT3TmyyyTVBeymIOXPMpAwwDydk9UGldJYK3IkZU2ac+bM1EGfocPb+7l0VGnrgYHz2/urnSt6y0D+92/9TPnb92hZXaZXUF111e6y0bRQzVLnRlowH8AFwHoSCfuujS1M2hD9QV29tLRPDYWNeWOqZ+rYgRztHzOI6N46uCIjrnuBI59wtnatSXe1NDbfXzQxg5EeQ5gPkQ05AI9QMrCuVZPca+orKyTvKmokdLI/GNzick4WKUHY6Rz3Oc9xc5xySTkk+q4uKkGlrFT19PW3K71T6Oz0OwTSxsD5JJH52RRtPBccE5PAAJK3dvpdD3Oqjpofz6gnLh3b6gx1EUhz8rwwNc0HoSM46+SCDiOUwmXu390HbS/B2g9cZ6Zx5L4He6u6/st2j9KSltvt8747i6SlhMwq4GVG0eJuHBzRsAIa/f0GcZVJTSOklfJIcve4uccYySclBk0EBrKuKBr2R944AvkztYPNzseQ81spbVcYKyO0OLS+qcyQRxSNka/qGuy3ORgkj2KmOjGUuk9PPvtZO1lfMAWQ92Hl0ZHDAegJ6nBBAIyDghRVl3vNvqpNQvpmzNrSd0pJwMu4Ac07o/lwOnAxyFFSrtEuNNY9O23S9rawSsi31MoAc47uSATyN3njHGQQFV5WTcK6W41s9ZUEGWd5kdjoCT0HssXBKI2WlbjQ23UVvrLvSPrKGnmbLLTscAZAOQOeMZxkefRXPqDtJsdbaquts1TPU6oq/6LSNqKbuZIBINr3lwJaTgkA543dAFQpHpyuDmFx5TQtm+VcOldIR2e31Ec1ZVN2ODYfE1+cPeHnB55A68Hg8KHWvs11Nr23SVGnIHPoaab4fe47I5CPncCT4sHjAB4Hrwo9LVCio3TucQ//kwDPR58/o0ZP1wvaWhaGs0xpey2mipRLS09OyNvdvDgSRkuIOCCSSfqVTam9GWPtD0paaS21VgpLta4pHPDqV7XSZa7OA0nB8Q82joVKarUltvcgp7268WStj4Hd1UtA8Y8wMmN37K4/wA6iY9ramN8T+mHDb/n/uuVZHabvD3FfBT1DH8bJ4wc/TKCsLf/AMTGemo7ZqWou9JUOLGvrYwyanaWkF29nhlHOeeQRlXFDG2GFkUYwxjQ1o9hwoRpTSVHYNZVdRQO/o8lEO7ja3a1m6Qk8Dj9LcHGcBTpAREQEREBERAREQEREBERAREQEREBERAREQQrX2gafVh711Y+KUNDe6njbUU7sZ5Mbuh5+ZhafdeZ+0Gz2+23lmnbvN+RzW9oZB3QdNRSB/i7wA/xGl3mfH0x5L2avLv4w4KUXOxTU1RS/mUsMkUtO9wDnxggtdzx1Lhz9kFaw2rUGnXtutpmkMbPlr7ZNva0e5by36OAS8aw1FfGst93v1dUiUBwp5JDtd6EgYH7qD6brr1RXqmp7VUzUFdK8Rxh8pibk9BuJGB98Ky7FY7zqqtvtRqKOT46gMba+ijlbBNI1zDskY/aW+XTofXlZvetI3aeyxEz2hHbLaJ7pc/g9zYGxh0lRPJ8sEbfne72Hp5nAHVfdT3WOvqIaehY6G10bTFSRO67c5L3f33HxE/QdAFn3i4UFFbJLNYTUbXybq+Woa1srnNPgiw0kBjev95xz5BRh4WonaOnccrvpYJaqdkMDC+V5wB0/wDA9117VtNPfCOuAguNU+jo6hphlqWRd4Ymkgk7R16Yx6FBu6Sahi0vXWD4uWtraqphqKZlHAXNE7cs2lxI3BwcR4QeQOqsXSGh6PT9oi1BcprlR1kLe7qRUwT0poZD+tssYJAI43Frm+uMqL2Xs8pbrX00+m9WUUsEUjTUzODo5qTnwvwPmBxwQRgkZwt9rml1NV2ispZL1SXCgoWxuqLjM90EzWuyO6lLTteOAeckjGFFYU94pe0Cg1Nb/gYqeqpaf8xtsgDe8f3LQJg9zWjc57cu6DkewVRuPpyFM7JdrPo+pNbRVE14uvcyRN2sMNLHvYWOJLvHJw48YaPdQcEjHoBhVHfROjZVROq2SSUweHSRsfsLx5gHyPusu8Otr3RG1RTxtczdKJnAkOJ+UEdWjyJwTnla7fnovu5AHA68K3ewXTDam4y6kr4mupKB3d0rZHBolqCM8F3Hgbl3PngKsLJa6m9Xejt1BH3lVVStijb6knz9h1PsF64tdmo7DY4bRG4Q2y3wvjnmeC4bmje+oI4bycjknyGFJFY9uNusdrs0DHW3GorhPuifMwRyRRDG5ztpw7LuMnj5iOAolrW3actejrLBRxNqr7M0xGaMlrS0HJecEhzsnaPr544+T63obx2iV2oLtLNTwBpioGsg73uGAYYQMjBA5483H6KM3Gsr9U6hiNFCxtTWTNoaKNjfBGXHk9BwAXOPu5NKhN5ulLLWQ0rqcSU9M17O8B5c5xGXgjy4wAcr0/2Va2q7tS2OGnvkddDQUTRNTVG1r5HkbQ0vHI2hucn1GeqkNH2C6LqaSMVfeVtxbCGSSyeAOOMZ2N24A8ufuVmSdgmlqdjJLHNcLTXsYGCpgm3Z+rXZH7YVRLLpqRlFazVV1JVsjBAcI4DWMx/2eID3wtLR6ssN5qIafTj2z1FRNFDuiBaG7g5zsscARtaxxIx12+qjUulu0TSpMlsrqW+0sfPJMM2PoTyfupV2UVj9ROrb3cKGOnrYnimbwNw8ILjnHuB9lBYUcLGSvkaPE8Bp+g6D+ZXYiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgLwt+Ie2OpO0S7w3SvnnmlkEsU9TGWghzQQ0EZG0A7R9F7pWp1Fpyz6ko3Ut8t1NXQkYxMwEj6HqPsg/OJlRV2+mp454G/DteXiQne2QHGADyBjHBGDyrt7NdUWGr7RoG2aM08N6tjqWppnR7Gsnj8TSMEg5APTH0CnWs/wAM9DJ3s+irpJbnu5NJU/xIXH6/7gqkq7R+puzLUVNc7xp+VoppNzKqly6F3GM8Zwf/ANhcs2PqUmvtqluNolq9TS01h7WpZ6ykbU0Zk/iwD9TSNpx7jqpXQUenNX1b2afqoLXIGktp6mZ0jn4/+v8ANQ7WdZWnU7rjTU0ZmLTK5z3tmMgcOuABxj0C2ds02LxZKa9GhbQTSOOx9HOGv4cG7th6ZcQPuPVcq4bWrWYtq0R+P0tpjcs+/aMvdlaZKqje+n6ieH+Iwj6jp98KOkEKV0GpdaWCZ8dFcGXSKF2ySnlaBI3H6XNPQ/stuNV6I1FGRqK2y2u5geMwRljifYdD+yxObPh+bXce6/w1WfEoBTVc9HMJqWeWCZo4fE8scPuOVwlnlle98sj3vedznOcSXH1JPVTl/Z1XV8UtXYi2Wk6xRzysEzx64bkD7lQ+5WuutlQ6C4Us1PKP0yNIz9PX7Lti+JxZZ1S3f0zNZjywHclfFzOF8wu6OAGCuY6pgp5oL/8Aw+6UqKK0VernwtNRIHQUPeZAaz+sl/ltBPHVfe3TUbbPp2PT9HiOuugEtXtcHbKdp8DAR5OOTg549jhdOlu2e0NoqSivFuqKGCljYxkdK1ssJY1uCwA4c3dj1PJycrTWihfqOO7a21FHQuhqZsd1VjMcMA6bcA7SA3aMjkDjBIKiqdY18srWRjc9xAAHmVNuyG5UtB2t2qC+GCG2MMtMx8xwwyFpAcTnHzZGfLIUTutRG+atqbVSmjM73/CwRuc/uWfqO488DjJ8z7LS6Rr7jab7BX09OyrfA8SPZKMtIzyD5DOT181Ue/6Snp3180Vtr3GSnY15jZKJO73ZweRyCAeMrZNq6unw2RsNR6bD3bj9jwfsV5u0L2nadmdPJXwyaeulS8h0gaTG8DhpL24wQOMEEcKVSO7QqakdU6U1ZS3+jI3CKujZL9g9o/zwgvCK4CXum9zJG97i3ZKNpBH+a7KSkENbWVA474t4HQ4GM/X/AGCgPZ/X33UF1dPd6M26Gia4iIPDmSyva1oc3GcNAD+M9SrJQEREBERAREQEREBERAREQEREBERAREQEREBERAREQFxliZNG6OVjXxuGHNcMgj3C5IgqnXPYRo3VL3VEVI601xOe/ofACfdnT9sKjtSdjPaBoepNZpuY3qjY4SA0/EwLeQXMPzEdf1L2OiD8ya+Grhu00sk9VSXMvLpG1eY5C8nJ8Xmc+uFsDqOqDG0+o6CKtixw9zQx+PZw4K/QHV+htN6vpzFqC001WSMCUt2yN+jxyqE1n+GOWESzaIvBaw5PwNfy0+wdjH7j7oKQst4joiJtMX6aglH/ALSrztPsD0/mtvXXK+67uFpsl8cyHfUFsNUweAPc0huXA5xnHGM9VG9X6Fvml5nRajsVVbznioiaXwu/0/Y/ZYOlX1NDfLfVQ1DZ4KWYTsaJMN3N5AOeW56Zxxlcpw45vz4xv2u51pvbrozXOna0Utzs087eS2UASRlo6nvB0H1Wnhu1M+R0cpMEjTgh/Iz9Qrv7Qu1ykn0/8PS09UJ52ZLJoi3afTPyu+oJCqns+0fDq28XCzvrqeKtqqUVNPMMlscodkxPHUcbs46YBXVHRCzvXMDXN2uIAdnw8+62Futrqy9QW6QfDslkEQqnuBY0k4yf7uSOfqsO/dmurNK/G1M0Bgo6U4NQJBslPqwdXD7Kb3TRtsj7KrVqmCoqWTupWTzwl26NzycEtHlyud8tceuX17NRWZ8K/kaWPc04yDjhbme+3K62+ltk74nsiDYo5dgZIIwAAxzhjcwADh2cY4Wjp5YqkZgkD+eh4P7JdDNTUDY4WP8AiK13cRgDnH6sfXgfuts7X3+HjRNpu/xOpb3Tx1UOfhbZTTPwHRtPil2nAduceM+6u/8A4A0o6WKYWekja1j42sdGAPF1GD16nz46hRLsvulo052V2206mqIRUW2md3zHRn+05wDc9XYOOOp6KxrTPQXW1QT2mq30+0AOB3fZwPn655VEB1D2H6ZuLXm3d7bXu/QzEkf+F3P7EKtq3skvuj66Oqtlwmjp92TLb3kEf9UZ6DyyM4XoueKqieHtibMADzG7af8ACeP2K7oXyOqXtkDMgcnqWg9Bj9ygj3ZjFMNLUD55nSzFjjNI45L3k+Z88chS9dVJTspaaKCIAMjaGgAYXagIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg6qqmgq4Hw1UMc0Lxh0cjQ5p+oKp/W/4edIage+ptbJbHXnkSUh8Gfdh/wBCFcqIPE+rOx3tB0cHy0MYvVvZkiSk5e0epYRnPvg/VVzpO6/8L6jbWsMtNXRSBwFTH4mnkOa7plpBOehyAfJfo8onrLs80trGJwv1op55SOJ2jZKP+4c/vlB451t2iXjVkclJKYKK3hpfLl3OwdcEgbifLCkl2vFJ/wCnOgpI5P4xYacRHG/O7cOPTBzlSfWf4Y6yl7yfQ933s5Io63A+wd0P3AVZ6ndqnSOl4bFqC3S0jmb4g+S3skDYyc4jmIztPPAP0XDNi6nH7TtultbVVQyzd+1kI3OJ6Kz6S8UFFq6wzXSLfS0EhfK0jIIO0/7qs5KMuaX0rmzDqQzqP+3qrm0x2f1GvNT26GnPdxStbLVO8o424Dj9T0HuV2YiF/VlptN5ggu9ilpBNKWPjmcwSRuaOQHN/wBD0UOv1NeLI2M0f5hQRSvL6qptLi9mR0Pdg7sfTKvhmmLTBSsho6OKj7tgjY+naGOaAMeXX75Wjr9L10Z/oswkB/XERG/7tOWO/kqKQk1f2iUDZK6y6lpL5bIozJOP4ZkhaPN8bgJG49Vf+gPzCpsLLle2xi4Vz/iHsZnbEMANYM84AH8yorbNFwXHUMc18t1LKYQS2c05jkP913UEH2P2VmwM7uJrdrWgcAN6AeQQc0REBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQF0VtHTV1M+nrYIqiB4w6OVgc0/UFd6IKZ1r+HfR1/kNTbIn2asznNON0Tj7sP8AoQpV2TaCOiLVUR1dRDV3Cd+HTRMLGiMfK0A8jzJ9z7KeIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIP/Z</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>data\product_images\Amplifier  25M Coverage_20251120_201808.png</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1176,20 +1072,18 @@
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>99</v>
+      </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAIGAwQFAQcI/8QAQhAAAgECAwUFBQQJAgYDAAAAAAECAxEEBSESMUFR8AZhcYGhEyKRscEHMlLRFCMzQmJyguHxFaIkJTRTc5JDVNL/xAAWAQEBAQAAAAAAAAAAAAAAAAAAAQL/xAAWEQEBAQAAAAAAAAAAAAAAAAAAARH/2gAMAwEAAhEDEQA/AP1SAAAAAAAAAAAAAAAAAAAAAAAAAAAB45xW+SXiwPQRVSD3Tj8SSae53AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGnisYo3jS1l+LggNmpUhTV5ySNOrjm9KUbLmzQxGIhTg6uIqKMd21J9fA5WKzpQbVGj/VWbh8I2cn8EFdqdapP705MxlXq5vip78RKmuVKjGNvOTkYJZliP8A7mOT5+0p/wD4At9gpOLum14FSp5vj6bWzi41Et6xFGL9YOLXwZ06OfU4q+YUv0eP/fhL2lLzdk4/1K3eQWGnjK0N7U1yZ0MPiadfRO0/ws40ZKcIyg1KLV007prmg96aumtzXAI74NHA4z2jVKs/f4S/F/c3igAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc/H4m7dOD0/ef0AjjMU5twpu0OL5nFzDMoYZSjTcZTWjb+7H833LzsYM2zFUYunSbTejlHe+5P5vh47q1UqyqSu7JLRK2iIrZxOMnVq7cpNz/ABu215fh8vO5p7d36nr03u746kdvkn8e4DzaeloryDk1watyVzxzfN/Ej7TXRx08V19Aj3b8Vbd8eHXeeRqSpyvB2eivGVuvyuyEpJrVLy0/x+RjkmuDfiu7r0A3cvzOtlk3PDx26DvKphotJS4uUOEZWu7bnpuepdMLiaWMw0K+Hnt05rR7vFNcGtzR8+Tfen3rrX625G5keP8A9LzJ7c7YLFSUaie6nU3Ka7non4JhV5fDemtb8jsZfif0ik1P9rDSXfyZxyVGs8NXhV/dWk++PWoFgAWqBUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPJSUYuUty1A18dX9lT2Yv35ehXM1xqw1FpStNrhvXh3v8Aub+MxF3OrPdwXyRS8xxLxOIk1K6vpZ7+8itetOVablLw8DHe2lrIPduZB6v+xBJvR6vuPGrp7vgNyV3w8A3rvfkwFu5EXfnbzPG+SfXIjLw9AIy3b3fwv1+Zjbt4fy36/PXgTbty+FuumRt3r426+i14jVeaNaJX8/n1xZGrFVKM4TS2ZJp66Wt15W5k+d2vOXXVuZ5LS7V7+Kvv+d/V8gi39k8fLHZPBVm3icPJ4etfftR4vxVvU67s078Skdj6/wCj9o8Xh91PGUFWS4bdN7Lt/S1/6ouxR2cpqurgoqTvKm3B+W70sbhx8kqWxVenwlFTXyf0OwVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADSzKpaEaaer1fgbpxsZVUqtSfBfJAcLtBitin7GL1e/rreVt89fgbmY1fbYmcm762RqTXBa+RFYZNPn8bCPPTfzJWfJ/A9a0WnlYioSuQm+H0Mj8F8v8EXv0t5AYpNW1395jk1Z7vNvrqxlbvxXkyLu1o5eTAhda/d79eutBrfh3/Hj1v7iaT4bXdqvQKLsrJ91n11cDxp2W/yS5/n69xFp23Pyj13+V+aMqgrfcVt252+HWmnExTjbS0fNN+nHw8FwAhgZuh2myWrZ6150W9m2k4P6qPp+Fn0ZvvPmNaWzmWTzWzdZhQ4vjJrf5vx1Z9MZUZ8sls5pRS/ehKPyf0LCVKdSVGvh503aSk7PyZ3cBmMa7VOraNThyZUdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY8TPYoTkt9tCtZpV9jgpyvZnezKVqUY82VXtFPZoU483ciq+27/mY599vgybact5GTXN/ECMVx/MOPJIkn3t+ZGctlNxu2k7eJFYqzcFd6f5MHtlZe8te9FezLD5pjcxjUxVNTw9OtCpCjSryppJb1Jr7ylZfe3K/M2sLVzWEqc6mEozlpKp+tlFSltOctLO21PZfhFIqa7uFw2IxcnGhSlOS36Ig4yjOUJJqS4OKuU/B5BmFHKMfgIVqjqY7EvE1cTWrOrNtrRW2bWTbelt5ZsFl2Hy6MI0KVpKCg5Scpyklzu9fq9SDPNavx/D11oexXN8OMeutD125L166uE0mt3Di+urhU9FZXfXXn5GGs1taN8P3mvX6+LMjkrt6K3HafX9teJrVp+8r/N9dJcQVrSXtM4yOkm7yzCk/KO1Ldw3eWi4n0w+b5PH9J7ZZPTTvGhCtipJO9rR2E/jN+d/wo+jsqMGJf6ygv4m/Q9T10MVeV8XTX4Yt/QmioseU4z9IpbE3+th6rmb5U8JXeHxEKi3J6rmuJbE00mtU9QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOfmcvfprubKl2jb9rTS4LkWrM3+vX8pVe0SvXi7JpRIOLZ35eRF36iG9dUiMt+6IVK17/AJHkt/8AYR1fBHr334EVBxW1d9fn9SDUbcP/AGMvTZjbe67v3WAnRreyutmDfN6NGKpJzk5Sl/ua/wAfQ9T733WPJNu1m+61giDa2dWt/wCO3+CDa5/Gduv8Ik5PZjZu/CzXoQu76N8LWt10+4ivW2ktdW/xdf503GpWl7ys91v3+u/15I2XKyvfReFt3yt6d5zsdio4XDVcRWctilFzluvZLd56f7ebKOr2Bo/pGd5vj3dxowp4Km73u/vz+cF5c7l5OD2Jy+plnZvCU8Sv+LrXxOI/8lR7TXldLyO3OSjCUm9ErlRqX2sVWkt0bQXz+pkTMOHi/ZKUvvSbk/MyFRkT5loyqp7TL6Le9K3w0Kncs2Q65fH+Z/MDogAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA5maaV4vnErOfwc5U9d6sWjN4/s5eKK/nENrDxklrF7yKq04v4EGtP7m1iKbg1K2km9TWas9yAjG9l3GWzlZ8fkYrWd7ehki7cNH3Eqx61u03biEoXd95ka8PgRcXy9ArHKLXDxvYxTT4/Qz1I6Wt/tMbhu03/wddahGCV7br87pevW7vI631WnfbrpGVx95aaL+DrrUxTdr2Tvpa0LEGOs3dJXv5Xvf539bcDTwuD/1nP8AB5bbaw9O2Lxe63s4v3YP+aengp9wx+Kp4TC1K9Z2hBXdqa15JLjfclv1tvaLZ2LyirlmWTrY6KWZYySrYhfg0tGmu6MdPHafEqLBJ337zQzfERo0IU5PWrNQSW9m8yrZzisTHHwxUMI6+FoptST3PixVk2rFDVWTTXIOydtUzm5VjFj8DSxUac6caiuoy32NxVE97ZZdLMZ1biWfJo7OXUv4rv1KpSvUnGENZSdkXWjTVKjCnHdFJIrKYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANXMobWFb/C7nEqxVSnOD3NWLJOKnBxe5qxXqkHTqSg98XYiqxWpXU6ck762stzOZNb9H8Cw5xRdOqq6X6uWk3+GXB+D3HJxNLb9+P3lvQGkrd4enHTxJebuebTXF38QPVJaWkn5nu0t118WQk78WvNBykuN9OMkQeyat96PxfXVjG5LmvXrqwnKVtfWRilJ8/wDd11qMXSpPSytbwb/z0jWqbne1u9N8OukTnJJXlZJatt9W6Zr5Tlc+1M9qcZQyGLW3OzTxjX7keVO+98dUtG2VGx2Tyx5zmFPN8TH/AJdhp3wcGv29Rb6z5xT0jzacuRfiMIRpwjCnGMIRSjGMVZJLckuRHEVY0aUpzdkgOL2zzaplOR4mrhaftcXsNUoa2cuF7bkfNuyn2o5xis3wOT5z2bhUniJKkq2CqPZS4txleyS36n0KpiXUqSqSfvS4clyNX2GGVZ1oUoU6zVnUprZk/NbxYssd+FLYp7FGMYwStFJ7lyMEpOE3GaakjRhiZxjs+0lLm3vZs4CjWzHGRo0tZy3t7ormxJiW6sHZfDOviZYiS/V0tF3yLUYMFhqeDwtOhSXuxW/i3zZnKgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAczNqLTVaK03SOmeTipwcZK6as0BWpxjUhKFSKlCSs01o0VvH0J5Y3KTlLBfu1d/s+6fd/F8S2YzDyw9Rp6xf3XzNbRppq6fAiqrUpKotqm1d62Vmmak4uLakrP+U7OLyCKlKplWIeDm3d0nHboyf8ALe8f6WvA5tejm9HTEZVHEx/7mDrqV/6ZbLXqBqOPWyQ2W+GvgeVq1SLt/pGcRfJYST9VoY4wzWs9nD5DjmnulXdOjH1lf0AyO+lk+6y+Ro43G0MG4Rqzm6tR2p0aa26lR8owWr6udWh2bzfF/wDX47D4Ck98MHH2tR+M5qy8os7+TZFl+T7UsFQ/XzXv4irJ1Ks/Gb18lZdwFZyzsxic0ca3aGHsMFvjlyntOf8A5pLRr+Bac29xdoxUYqMUoxSsklZJckSZhxWJo4TD1K+JqQpUqcXKU5tJRS3tt7kBKclCLlJ2iuLKdnGeQxGIcKUk6UHZa7z5L9oH26YLFZhVy3JI16mApvZli4LSq/4Vv2e/j4FZw32jUZJNuev8LLIPuax0XxMkcUnuZ8iy/ttHFSSo0sRVfKFNs+r/AGeZVWzyqq+aU6uGwSV7Nram+Xcio62U4TE5piPZYSm5fik/uxXNs+k5JlNHKsNsU/eqy1nUa1k/yNrA4XD4PDxo4OlClSW6MUZyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhWpQrU3Corp+hxMXhKmHk21tU+El9TvBq6s9wFYZ4drE5dTq3dP3JehzMRhMRR1dGU486fvem8KwWI7jHVxEKX7WNWH81Ka+hglmND/wCOGJqvlSw9ST+QG2zxuy1OZUxea1245fkWMk+E8U40Y+t36GtLsv2lzaVs0zKngcM99LA3Umu+b1+FgNPtZ23yjs3BwxNZ1sa17mFoLbqy8uC73ZHxbtRHtd9pEpLGwnl+Rp3jhKbdp8nN/vPu3LkfoPJPs1yHK5urHCqtWesqlX3pN823vLPHKcLGKiqUFFblYI/K+UfZbhKdOMZUXUqLfeBaMu+zJS9moYSlCPfA/QkMtw0HdUo38DYhh6cN0UgPmHZnsB+hVU6kKThbcoI+iZfllDCUlCnBI6CiluPQPIxUVoegAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/Z</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>data\product_images\Dsppa Ceiling Speakers_20251120_144805.png</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1198,20 +1092,18 @@
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>99</v>
+      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>data\product_images\2Tb Hard Disk_20251120_195756.png</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1220,20 +1112,18 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>99</v>
+      </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>data\product_images\4Tb Hard Disk_20251120_195820.png</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1242,20 +1132,18 @@
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>99</v>
+      </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>data\product_images\8Tb Hard Disk_20251120_195829.png</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1264,20 +1152,18 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>99</v>
+      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>/9j/4AAQSkZJRgABAQAAAQABAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCADDAV4DASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGBAcIAwIB/8QAVRAAAQMDAgIFBgcKCQoHAQAAAQACAwQFEQYhEjEHE0FRYQgUIjJxgUJ0kaGxstEVFiM1NjdicnPBJCYzUnWCkrPhJURUY4OToqPC8DRTVWRlhJTS/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAECAwT/xAAoEQEBAAIBAgQFBQAAAAAAAAAAAQIRAxJhBBMUMSFRcaGxMkFCUmL/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBFg3a60lppnz10pYxjHyHDS48LRknA8FUNLdK+mNUhzrJLXVMbTh8nmUjWMPcXEAZ8EF9RQp1LQAbGY/7Mr5Op6D+bP/Y/xQTiKBdqmhHwKj+yPtXmdWUfwYZ3ezh+1BYkVc++un7KWp+Qfavl2rIW/wCaVGPHAQ0sqKrHWERPoUkjh+0C8zrEZ2oTj9r/AIJtdLaiqB1nv/4D/m/4L8OsnnlQj3y/4IaXBFqi7dKV0o6x0VJpeStjjqzBKY6jhLWcDXCQZbjG5B32x4rGvHStdbbcLLLLZ6OOx18jI5ayWoc00xdy4xjAB2wc433TaNwIuc9a+URWaa1XPboLNb7pRMjZIJoKsg7tyQSA4bK/dEfTDauketraGloamhrqWJs5jlcHtewkAlrh3OOCCO0IbbOREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGvumey1l709SUtvq5qPr6psFXNE/hPmzmu6xvvwAPb7VEWm20dpt1PQWynjpqKBvDHEwbAfvJ7TzKsvSld6eyWE1tYXdRAHSFrebzsGtHiScLmes6TdTVNY6anqoqOHPowRwtc0DuJcCSoN/kL5dgAkkADcknGFUujrWH30UU0dXHHDcqbBkbHs2Rp5PaOzfYj7V76zuU7WwWi2APuVc4RsB5NB3y79EAFzv0W4+EEaZlgvEt3uNaaNpjpaZwj64tG7sZ4RntwQT3ZA55Vh62sH+fTj2OwsOzW2CzWmCjpyTDA30pX7GRxOXPce9xJJ9q+3XCia7Dq6kB7jOz7VqYoyTNV9tbVf7132r8E9YPVrqkH9q77Vim4UXZXUf+/Z9q/PPqP/AEyk/wB+z7VekZMlRUu/lhBVN7pomk/LgH51jvNJIeEiSjk7OckZ9x9Me7iRtZSuOBV0pJ7BM37V7PYHM9JuWHl2gqaNsGaKSDgMgbwP9SRjuJj/ANVw2z4bHwWFdaispaF81upGVlS0t4YXvDA4ZGdztkDPNSYbLTB7qfD2PGJIXjibIPEdv09xWO8sLDNT8XUNAMkbjl0HZkn4TM7cXMcnd6zo2xKGdtd1sxhDAHdXsTh2AOIdzgHEjPLnheldS09bSTUtZDHPTTMLJIpBlr2nsIXu7l8y8icIrlfpN05T6T1LNbaFznUjmNmiDubWvB9EntwW81sTyOnsZ0l3ZjnAOfancIPbiWMlVjygd9cM+Jw/9anPJcppaTpQtVYQDBXUtXTt2IIcxrHn2jGOXejNdoIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1N5SVLNVaFd1ALupkbM8D+Y1wz8mc+5cssXa+twHeatcA5rg8EEZBG2xC01XdFVjq6981PPWUkbznzeEtLWn9HIJA8EFR6IHOoa27XaVv8ABYaYQ7nhEkjnAtZn2NJPcN1K1eq49NwPvtSxtXf7pGfMYHjDYKYn+WeOY6wgEN58LWDsKl6e10lzukOn7XTu+4VvBlqWx+k6bOfRz8J0pBb+o1388LXF+0tre+XqsudXpe9dbUyF/D5q7DG/BaO4AYHuXfgwxzy3lfg3hJb8WJDXXLWuoYKW83SVz6kuZFxO4YmP4SWjh9UNJAHvUtV9HlPI+J9qu1DLTzPxF1w9MtcC6PIaCASzh2ONyeWFCnQergN9L3r/API77F8/eRqqP1tMXkf/AE3/AGL3XX8ctO30qXqOjqWIMeLjberkIDeNrg7JLGjIAI9Z47eWDyK+LfomCoEzJKg8bJSwTxsaIMdXE9ocXbtc/rOEeI5Hs84NPXiGmZFNoS5TSNxxSmKoaXb9w2G22y/ZLNcj1mdBXIF4wPwdThpxjIGN+/dY6s/7fhN35sw9GtU2n9KqpTUOcwRsZG4hwLuEnkNhueLkRjvCwaqqvmg7tFBb7lM09U172544Hu34mhp2IG3cd+xR9VYdU1DmOqrPfZHRsEbS+llPC0cgNtgO5Yx01f8Atsd399HL/wDytYy39WW1+tb16P8AW9NqyB8MsbaW7Qt4pIAfRe3+ezPZ3jmPEbqxVcUsbxVUhxPHvjGeIY327dtiO0bdy5xtVs1NaLnTXCis12ZU0zxIw+Zy794Po8iMg+1dL0c4q6OnqRFJD10bZOrkaWuZkZ4SDuCOS8nPxzC7x9nHPGS/BGh8bmRyU4xTynhazOeqfjJj9mN2nuyObV6Y2Udfo5KIymE8MVUMDuZKPSaflGf7Xesi1VouFvhqOHge4Yew82PGzm+4rzVJXPflBba5jH/s4f8ArUx5L1VU1HS1a6aeeWSmpqOqkgic4lsZc1ocWjszgZ9ih/KG214z4lD/ANakPJU/PHS/Eaj6GqJXbiIiqCIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiCra4ODR/1/3LXWrbs6goOopmukrarEccbDhx4jwgDuLj6IPZ6TvglX/pCmZTQU00pIjjbI52Bk4GOXitZ6Sp5LxdJr/WYLGOdFRt5jIy17x4DdjT4Pd8JRVq0DaG2ZtFTOc2SpfMJamVowJJTzx3NAAa0djWhbNkdwhUizj/ACpSftApq9/d8VbzaxTmD8Fwh/Dn1x1nP9HOFUSwqAHYJWU3cZWv7jJrkCi8xpaFxId1/EGbb7Y3XlSV3SGGt84t9ET1LiccP8pvgev7EFl1zVXCks7H2iojgq3TNa0yFgDhg5HpbdmfcqSb5q2OmbIK6jdF5w9pkMsGTuzDR2YG/juc9izbmzV11tskFzs1JOGva5kfFgE5Gc4fywXbLAktN9dNUxu03TdQXGVrmPdlz8MbknrO7i+RBlfdDWUUFO51bTSxRmJ09QOpDXE4JjBz62cjkBu0gq4WG8Q/cakdda+FtY5gdIJZI2uGdwCGnHIjcc+faqVQUN9bTVVtm08xlueGvPC92XObwgb8eeQ+ZZ1g0wbpc62a/Wd1K5rYmxzNmdmXhGPS9I5OA3fmg2FBNFUQtlgkZLE8Za9jsgjwIVL1I0NvM+O0NPzK3WyhhttBDR0ocIYm8LQ45OPaqnqf8cy/qN+hBX7rSefW+an5Pc3LD3PG7T8qrenZRwscG8PnAIe3ulZjJ97SPewq3HwVMJ81u10i9VsFTFVN/VccO+aU/IlWNJeUP+XjPiMH0yLP8lP88VL8RqPoao/yh/y7j+Iw/TIs/wAlL88dL8RqPoaoldvIiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg170zuLNOktOCGkg+x7FXtEADRthAAA8wg5fs2qb6bnEabkx/5TvrMUNooY0bYf6Pp/7tqKs1o/GdL+0CytWz1ovlJDR3KajYYfSAicWOcXjBLsYGwPyrEtX4zpf2rfpWbrPUN1t1fTUFptz3dbGZpK6WB00MTQeEt4WkEvJI2JaMZOTjCIr8tbeIpJIxqEufGfSAhd3g4yW45A/KvSjrb9Uy0cUV8b1sgxwvgLcn0eeWbdp96mbTqmtktQlrbaaioZN1cgoHB4cwx8bXhhJLe4sduDncjBOU3VcbpnRfce7GRrgDimy0EgEZOdtigwn2/WQeOC50pb1TQc43fnc+p3L6ZS6ya5/FWUbhxbYxy4W/o9/ErHaLn90Wy5o6ulMTuEiePhyd/V7+XzhSCClOh1s2L0aiic/B58PPg2+D/OVxpRIKaITkGbgHGR2uxv869EQFSdUfjmT9Rv0K7Kk6pH+WZP1GoIkqk30lmrK1g2bNaXO9rmiTH1Aro/kqLqOQDVsxzvHaZCfe2ZKRpfygHcetYH/wA6hhPzyKS8lL88dL8RqPoaovp6H8b6QHmLfAD8silfJT/PHS/Eaj6GqFduoiKgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIg1r03fk7J+yP12qK0Z+R9h+IU/921SXTicWBw74nfWaozRv5I2L4hT/wB21BY7XtcqX9q36VIa4ooa2oo8fdKCtjDhFU0bY3DgdjjY9smWvaeFpII5gEYKjrccXCmP+sb9KsWobA28Pa50sTOFvDh9O2TO+eZ39yoqlrslnoqeQst16qK2pqWTVFS6MRyTygENc4t4Wta0eiAAABhWQabo6ilDY5aynfgZLJ8Pb6Tn8JI8Xn5u5Yf3nuA9Goo+JrmuaRRNAyAQc4dvkEhfLtITFjmia37kOz5oQS4YAJw/uGFBJ0OmYKOeOSKuuR4H8YY+pLmnwIPMKeULpu0zWrzkSmmc2QsLTC1zTsMHIJPzKaQEREBUrVH45f8AqNV1VK1T+OH/ALNv70ELIdlr+vcKrVN8cCDwsioWHxPACP8AmO+RXi4VkVDEJJQXuJwyMEAyOxnAz9PIDda00Z57cL9UzytY6hYfOHVDDls87i/1f0Wlz/aA09ylWNa+UCMa0gx20UX1pFJeSs1o6YKIhxLzQ1ORjls3CwPKDb/HOm+IxfWkWd5K354qP4jU/Q1ErttERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREGsenHexkf6lx/4mqO0f+SVj+IU/921TvSzSGupGUzTgyQuAP9ZpVY0HVtqNKW2L1aijhZSVEZ5xyxtDXNI92R3ggoLG1xaQ5pwQcgq72m5R18AwQ2Zo9Nnb7R4KjAr0hlfBKyWJxbIw5BVGxEVM1RXTvloHUs9bD1sJkIp542DYg7h/092V7xNnqoKaobqJ9KXMDjC7q3Eei0EE572n3kqC2Iq5UUtfJWOmp9RCOnLg8Q9XG4Bu22eeN+fiF7w09186ZJ92IJIBnij6gelnixuD4t/s+KCcRYtvjqY43ed1DJ3E+i5rOHAWUgKlaq/HDv2bf3q6ql6rH+Vz+zb+9BpbXEdffb1UUVPL1dLHUxUUhzgiM8JeB4uc7fwYArlSwUVugpqSEwUsP8nCwkN4jjOB3nbKjq2lmh1BcY4YDLLVSRVdOAQONwLfRydty17fa5ves+uoKG6wwitp2TsikEsYlaQY5B245gjkQpWo0R5QjMauo3jdpo2Nz4h8mfpWd5LkEkXSxbKgtPUzU9VC136QYHEfJj5VG9PkfVaro4+N78UbHFzzu5xfISVK+TFV1E3StZqOWeR1JTU9XLDET6LHOY0OIHecD5EZrtNERUEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREFE6S6uCgMFXWSthpoYXvkkdyaMj/vC0JWdJlsF1fUUNpqWcbeB9S2URyPaOWWju7Mk4WwvKpklZp62NjJEb5wJMdoAJA+UD5FzWxJB0Xo7VguM1PTT1DaqGrDjRVnDwOc5oy+CVo2EgG4IwHAHYEHN1blxAaCXE4AHaVzLo+tmpjIIi78FU0tTHj4MjZmjI9rXOb711nVwHT1tbcBDHPVce7ZHEBjcHOMA74VHnqGnFOLY2QszHA5rg58TQc4B9cEnt5bd6jDHAWMElPFM0ROazhFOQ0tGOLmOZydtua8r5f6g3inhvGk2VMIo+vjrGVLSzicY2NjGeRdI/hPcADvnb0uptNruVPRS2SmFwNIaycR1L2RxDJaAx2NyXZ7G7Ak9xg84qISANFFSgv4WSB1FHgt5DcSchwjYeC/Wz6cpNTUun7lJRSVczOIdRG6KNj3+oC8vxxODdmjJOM4XvamWwz10NbZuGagDJJDCJjlrw7cNkAccEHOMg5yDzArD9G2K7dIVJdHVj4rdJFEyOiLZIy50RBBLs4wXMaOWCGDB5oNp2eus8TYbfbamHYHq4g8k49Y4zv25UutN6Uu9qp9feaTXaV9VBUOpRDJSOjy53E0Hi4jsS3YnAPE3HMFX3Umt7TYK5lJVeczTGMTSCmi6zqmEkBzt+3DsNGXHhO2yCzqmar/G3+zb+9Tk1/pY3xBkc8rJRxRPjaCJBw8Xo75OxzyUFqpwdc2ubyMTSPnQV6vo4qxjRJs9hJY8DdueY8Qe0KDuNe8VM7HtHn9K0TSuLifOIAN/a4DLg47+g5pzsVY3FU7UR/jZEB8K2yg+I4ZlasaY8oL8sqXBB/gMf1pFl+S3+eOg+J1P1QsDp4/Km357bdCfnepDyWvzx0PxOp+qFlK7aREVBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERBrrpdtFNfaWK31od1MsbsOb6zHAghw8QVz0Oi68vrKmCkq7ZUCn3kd15YWjsBBGzv0c5XRHSzUyUdI2eF/BIyF/C/GeAlzRxY8M59yrmk4YPvfoJaeIxxTQtmDXHLjxjiy49rjnJPaSkFO0BoIW8xVF4DWFlRHMWFw2DHBwLzyG4BxnYN57lbsvF109eqWGJt+tDmNkEhHnbCHYBwPReDzIPuVWuDc2ysaBzgkGB+oVyVSR04dC6ojLoQWmQMA4i3bOPHGV6OHh8zd23jh1OyGWqhqKtj5LtaKmmbQ+Y9R1p4HN8Wh+OYBzjOyk6KyxzUcZr6mklroInwQzQyuIdE5uOCTiJ6wZ3w7PfzXLM2lbAyqbDR3E3KQtm/B0xjjJdG3iwHPGMO4owD24f3LBp9P2x5roxdmNlZcPMaSTA4J+WHHGSBvzzgY7VZwY39/sdPd1U2z3G0WSWO22+nrZ55GiWKGpEGY8HfrCwnuGNtuWN1j2211kgqJ7npcsmYWmJjq9knHkniwW4AAAGxGFzZSaOukrmxQ3JrKnqjI6EOmLowHMbh3CDjDpAD3YJOAF+XOy3G0Usdwmu1a22Pe2NroapxlyWAk8PEBgHIxnOMHtTycfaZHR3dFT6Sir7lTz19hhdNHiVtQ6JrnMe1gDNw4Z4Q1oH6oWHqDSVJcJoJYLbeaExxsie2mjjkDhu4OHHnD2lzgHDPM7LmJuob3C4+b3y7sbk4xWSDb+0smLWeqYgOr1Lem47qx/wBq36PL5teXXUlTYZn1dtht9XdrbSshjhih8zjkZAA3hwXu9IEgAE5UhqsBtza0chE0fSuVo+kPWUfq6ou39abi+kLcXRrqK4ansdRXXWd807al0TeJ3FwtDWnAPtJPvXPk8PlxzdZywsm1scVT9RflbB/R8v1ZVbnKn6hP8a4f6Pk+rKuF9mY0v07/AJU27+jofpepLyW/zxUXxOo+qFGdPH5VW7+jofpepXyXXNPS7bmhgDhSVOX53dlowPdj51mpXayIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiINb9M4zZZPCnf9IULpLbStl+Iwf3bVPdMDDLaXsYCXGmkwB28lBaWBGl7NsceYwb/wCzakEuCPA+BWi9T9G92tt4dU2ClFfQGTrI42kcce+eBzSRkdmR2LeWV+HddePlvHdxrHK4ueH2G/seXTaM4xj1eocd8k52d/3heU9tuTpuOfRUoycuDIZWg78tuQxtgLorhCjL1dWW1jGAtdUSAlrXO4WtaOb3HsaP8F19T2/LXX2c/QwVVJBIyXTdwYXgNe5gmYHt4uLDhjfkPkWI58QhEc9nrRvk4c9mPdjGcYGT2bLbl26S7fa6h1LLUSy1DfReYW54D7NwPZnPesuw64jq+qfNVx1NDLI2JtUwFjoJHHDWTM7ATsHjbOxAyCnqe33Ovs0JWcHnMphilihLiWNkyXAdgJ7V4F7Rzc0e9danDvXaCfEZXk+lppP5Smp3frRNP7l1njP8/drzOzlBnpuDWem8nAa3ck+AC6F6MbXLYdKQwVbS2pnkdUyMPwOLADT44Az7VOVNLSwT07aekponyElz44WtdwtHLIGdyR86lKemYWB8g4id8ZXHm8ReSdMmmcs+qaefWB3JVHUB/jXD8Qk+rMrdWQtiAezIaTgjuVV1BE0XamquJ3G6nlhLezAjkdn25K8trMaV6ePysoB/8dD9Z6kvJfPB0xWwEEB9LUAHGx9DKjennbVtDn/06L6z1O+TPVxS9JVgomUrWTQNrJ31PES6UOhDWsx2Abnxz4IzXZyIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKJ0lVUFEYKmslZDTwwvfJI/k0AhaCqOkSyR1Rjt9FdaemDjiWnmMTh4tZxYHfgj3LYXlVSyssFtZGSIpJw2TxAyQPlA+Rc1gbJIOj9IaoFylhpaioZVCoY6WirGtDOvDfXje0bNlbnJA2I3AGCFbC5aK6HGiqq6+ll4urh6usic04MUoJbxNPYSDjxGxW3vwo/ziU+0g/uTelkS3EtSdLBqpnXSaCXgbSdTnxaOEgf2pOL3BbHL58bTfK0FQtysEVxr3TVU0vUyNcJoWkBs2Whoz4DhBHipva6c2uJG5ySpTTFUY7tFC7Jp6z+Czs7HsfsfkyCO4gKS1To+52KsMRppqqlcT1VRDGXhw7M45O8FPdGui6ie4Mud2gkgpYcmKORpa6R/LODuGj5zhVltzRtfNcNLWupqnF1Q+BokcfhOb6JPvLc+9TWVVtPxVdjtsVudAyoipy5scrJeEuaXFwyCNjvjn2KU+6jx61FP/Vew/vTbWmRcRwvp5/gxuLX+DXDGfcQFK0crXxhh2c3YgqCN1jIIfS1gB5/gg76CV50tZG+SRn4VkYx1YkieCNt98cs8lNmk5cntLBG05JIJx2YWsdZVk1bqu02i3ylskj3CRzfgxNz1p+ct9oKtV6r5qemeLfDLPMRgNiHpk+Gdm/rHl2BRWmrD9z6qpuNY5slzqg1ri31YYxyiZ4DtPad09yNR9P2+saXGw8xj+vIr15JmiqurvsmsZZWR0FIJKOFg3dLIWjiz3NAPvJ8FRen0fxwpcf6DH9eRb78kM56LKjwuk/1Y0ZrdqIioIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIKH0s6T++qzimdHI+PBBMQy+N2QWvA7cHs7iua6joq1ZBUOjFvbJGDgSh/C0jvwRkezC7QRBzrofSg0tQSMmJkraggzSBhDRjk1uewZO/aSrLkd4W5cLzfTwv9eKN3taCi7adz3EIttvtlC/16OmPtib9ixpLBapPWoYPc3H0KLtp+6Xeis8UUtwqOoZLI2GP0XOL3nk0BoJJ27l4svdulrYqXzoMqps9XFMx8bpMDJ4Q4DOB3La9boqw1c9JPLRYnpJDLBI2V4Mby0tyN8ciRv3rBuvR3ZrpV22oq5K1z7fMZ4OGUABxaW77bjB5Im1GBHYhKv79EUJHoVNS32lp/csd+hYz6lfIP1owf3ppdtU6r1XatMCl+6r5eOpJEccUfG4gY4nY22GR+5S9LPDVU8VRTOZLBMwPje0bOaRkFSmtOhak1UKU1le5k1KXdVLE3hcA7GWnmCDgdiz6bo4rKG0MoKGopmRQwGGLLnZG2AScc+1TRtX2va9gMZa5h3BaQR8yxXXOhZV1NG6cisp6dtU+MtIAjOcHi5dhWRR9EV7paqjqH3l0rKaCONlIyThja9oaHOzjJBwTg9pKmqnR92e3gkoWyMzy42EHByBz5Z3xyVLXN3T5kavo8HnRMH/G9dQ+TvBFD0N6ZMUbGGSnMjy1oHE4vdlx7ye9aj1l0M6v1vrB05ipLVboImQsnqpQ90uCS5wYzJ5u7SOS6H0Pp2HSekrVYqeZ88dDA2ESvGC8jcnHZkk7IynERFQREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQf/9k=</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>data\product_images\Smart Garage Controller_20251120_195837.png</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
